--- a/训练.xlsx
+++ b/训练.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E7707F-84B0-4FD9-ACA9-B8D7B6C9A117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A81087-4185-40A9-A96E-4594E664A864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24480" yWindow="972" windowWidth="21600" windowHeight="11388" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
   <si>
     <t>ST-SSL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,6 +64,18 @@
   </si>
   <si>
     <t>batch=16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAEformer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把tod，dow设置为自适应学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把tod，dow设置为自适应学习，增加空间自适应学习</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -107,13 +119,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -395,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:I5"/>
+  <dimension ref="B3:V7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -406,7 +421,7 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.2">
       <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
@@ -417,7 +432,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -443,7 +458,7 @@
         <v>0.1363</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
@@ -460,7 +475,75 @@
         <v>9</v>
       </c>
     </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="J6:V6"/>
+    <mergeCell ref="J7:V7"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A81087-4185-40A9-A96E-4594E664A864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11AF3496-9460-48F4-8475-39DC3F9997AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="14">
   <si>
     <t>ST-SSL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,6 +76,10 @@
   </si>
   <si>
     <t>把tod，dow设置为自适应学习，增加空间自适应学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -410,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:V7"/>
+  <dimension ref="A3:V10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -421,7 +425,7 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
@@ -432,7 +436,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -458,7 +462,7 @@
         <v>0.1363</v>
       </c>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
@@ -475,74 +479,103 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="3" t="s">
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="1">
+        <v>18.75</v>
+      </c>
+      <c r="H9" s="1">
+        <v>31.003360000000001</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.12039999999999999</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="J6:V6"/>
-    <mergeCell ref="J7:V7"/>
+    <mergeCell ref="J9:V9"/>
+    <mergeCell ref="J10:V10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11AF3496-9460-48F4-8475-39DC3F9997AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DA1E19-B82F-4371-923B-463CCA9D5A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -417,7 +417,7 @@
   <dimension ref="A3:V10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -497,6 +497,15 @@
       </c>
       <c r="F8" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="G8" s="1">
+        <v>18.23</v>
+      </c>
+      <c r="H8" s="1">
+        <v>30.2</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.12089999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
@@ -555,6 +564,15 @@
       </c>
       <c r="F10" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="G10" s="1">
+        <v>18.579999999999998</v>
+      </c>
+      <c r="H10" s="1">
+        <v>30.24</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.1226</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>12</v>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DA1E19-B82F-4371-923B-463CCA9D5A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2C3FBB-DFA8-4239-B157-431F44E2C006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,6 +87,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -123,7 +126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -133,6 +136,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -417,7 +423,7 @@
   <dimension ref="A3:V10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -501,7 +507,7 @@
       <c r="G8" s="1">
         <v>18.23</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="4">
         <v>30.2</v>
       </c>
       <c r="I8" s="2">
@@ -525,13 +531,13 @@
         <v>9</v>
       </c>
       <c r="G9" s="1">
-        <v>18.75</v>
+        <v>18.66</v>
       </c>
       <c r="H9" s="1">
-        <v>31.003360000000001</v>
+        <v>30.39</v>
       </c>
       <c r="I9" s="2">
-        <v>0.12039999999999999</v>
+        <v>0.1225</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>11</v>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2C3FBB-DFA8-4239-B157-431F44E2C006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0ECC9C-2C3D-4F2E-BCD8-14775984E1BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="21">
   <si>
     <t>ST-SSL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +80,34 @@
   </si>
   <si>
     <t>base</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>论文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSTBAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>his=24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pred=24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch=4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X原本映射到128维度，修改到64维度，与生成的自适应学习参数64维度拼接，最后的到128维度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -134,11 +162,11 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -420,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:V10"/>
+  <dimension ref="A3:V14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -507,7 +535,7 @@
       <c r="G8" s="1">
         <v>18.23</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>30.2</v>
       </c>
       <c r="I8" s="2">
@@ -539,21 +567,21 @@
       <c r="I9" s="2">
         <v>0.1225</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
@@ -580,26 +608,108 @@
       <c r="I10" s="2">
         <v>0.1226</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="1">
+        <v>20.170000000000002</v>
+      </c>
+      <c r="H12" s="1">
+        <v>32.82</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.14430000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="J9:V9"/>
     <mergeCell ref="J10:V10"/>
+    <mergeCell ref="J14:V14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0ECC9C-2C3D-4F2E-BCD8-14775984E1BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD41DE5-D0EE-4E44-9305-F141972E5BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="21">
   <si>
     <t>ST-SSL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -450,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:V14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -511,6 +511,35 @@
       </c>
       <c r="F5" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="1">
+        <v>18.22</v>
+      </c>
+      <c r="H7" s="1">
+        <v>30.18</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.1198</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD41DE5-D0EE-4E44-9305-F141972E5BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2D41E1-3533-48C5-A359-2394E8B6F981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -451,7 +451,7 @@
   <dimension ref="A3:V14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -701,6 +701,15 @@
       <c r="F13" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="G13" s="1">
+        <v>19.71</v>
+      </c>
+      <c r="H13" s="1">
+        <v>32.380000000000003</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.1381</v>
+      </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2D41E1-3533-48C5-A359-2394E8B6F981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3F1540-0FC8-40ED-80D3-A649B205412D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="23">
   <si>
     <t>ST-SSL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,6 +108,14 @@
   </si>
   <si>
     <t>X原本映射到128维度，修改到64维度，与生成的自适应学习参数64维度拼接，最后的到128维度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给x增加SSTBAN多任务学习分支</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -448,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:V14"/>
+  <dimension ref="A3:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -572,6 +580,9 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
@@ -613,6 +624,9 @@
       <c r="V9" s="4"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
@@ -653,101 +667,146 @@
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="1">
+        <v>18.170000000000002</v>
+      </c>
+      <c r="H11" s="1">
+        <v>30.13</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="C20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G20" s="1">
         <v>20.170000000000002</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H20" s="1">
         <v>32.82</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I20" s="2">
         <v>0.14430000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="C21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G21" s="1">
         <v>19.71</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H21" s="1">
         <v>32.380000000000003</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I21" s="2">
         <v>0.1381</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B14" s="1" t="s">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="C22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J22" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="J9:V9"/>
     <mergeCell ref="J10:V10"/>
-    <mergeCell ref="J14:V14"/>
+    <mergeCell ref="J22:V22"/>
+    <mergeCell ref="J11:V11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3F1540-0FC8-40ED-80D3-A649B205412D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE05C183-4359-4197-A81C-B38C5F916612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -459,7 +459,7 @@
   <dimension ref="A3:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -760,13 +760,13 @@
         <v>19</v>
       </c>
       <c r="G21" s="1">
-        <v>19.71</v>
-      </c>
-      <c r="H21" s="1">
-        <v>32.380000000000003</v>
+        <v>21.09</v>
+      </c>
+      <c r="H21" s="3">
+        <v>33.9</v>
       </c>
       <c r="I21" s="2">
-        <v>0.1381</v>
+        <v>0.14610000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
@@ -784,6 +784,15 @@
       </c>
       <c r="F22" s="1" t="s">
         <v>19</v>
+      </c>
+      <c r="G22" s="1">
+        <v>21.09</v>
+      </c>
+      <c r="H22" s="1">
+        <v>33.57</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0.16550000000000001</v>
       </c>
       <c r="J22" s="4" t="s">
         <v>20</v>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE05C183-4359-4197-A81C-B38C5F916612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D99022-8A4B-4351-B0E5-61547B758BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="23">
   <si>
     <t>ST-SSL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -459,7 +459,7 @@
   <dimension ref="A3:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -770,6 +770,9 @@
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B22" s="1" t="s">
         <v>16</v>
       </c>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D99022-8A4B-4351-B0E5-61547B758BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D138B6-DB7C-41F1-815C-89BD0DD7E5D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="22">
   <si>
     <t>ST-SSL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,10 +76,6 @@
   </si>
   <si>
     <t>把tod，dow设置为自适应学习，增加空间自适应学习</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>base</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -142,12 +138,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -162,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -175,6 +177,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -459,7 +464,7 @@
   <dimension ref="A3:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -523,7 +528,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
@@ -552,7 +557,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
@@ -581,7 +586,7 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
@@ -625,7 +630,7 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>10</v>
@@ -669,7 +674,7 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>10</v>
@@ -686,17 +691,17 @@
       <c r="F11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="5">
         <v>18.170000000000002</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="5">
         <v>30.13</v>
       </c>
       <c r="I11" s="2">
         <v>0.12</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
@@ -713,22 +718,22 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="G20" s="1">
         <v>20.170000000000002</v>
@@ -742,22 +747,22 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="G21" s="1">
         <v>21.09</v>
@@ -771,22 +776,22 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="G22" s="1">
         <v>21.09</v>
@@ -798,7 +803,7 @@
         <v>0.16550000000000001</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
@@ -822,5 +827,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/训练.xlsx
+++ b/训练.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D138B6-DB7C-41F1-815C-89BD0DD7E5D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F212730-1C0F-4B1F-AE55-4CF1DA73F70B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="23">
   <si>
     <t>ST-SSL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,6 +112,10 @@
   </si>
   <si>
     <t>给x增加SSTBAN多任务学习分支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用ST-GAT初始部分映射到128，去除第一条学习分支，其余不变</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -175,11 +179,11 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -461,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:V22"/>
+  <dimension ref="A3:V23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -612,21 +616,21 @@
       <c r="I9" s="2">
         <v>0.1225</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -656,21 +660,21 @@
       <c r="I10" s="2">
         <v>0.1226</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -691,30 +695,30 @@
       <c r="F11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <v>18.170000000000002</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="4">
         <v>30.13</v>
       </c>
       <c r="I11" s="2">
         <v>0.12</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
@@ -802,28 +806,73 @@
       <c r="I22" s="2">
         <v>0.16550000000000001</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="J22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="1">
+        <v>21.17</v>
+      </c>
+      <c r="H23" s="1">
+        <v>52.35</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0.1507</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="J9:V9"/>
     <mergeCell ref="J10:V10"/>
     <mergeCell ref="J22:V22"/>
     <mergeCell ref="J11:V11"/>
+    <mergeCell ref="J23:V23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F212730-1C0F-4B1F-AE55-4CF1DA73F70B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1843525-794D-467C-BAC4-B793F5DA0933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="25">
   <si>
     <t>ST-SSL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,6 +116,14 @@
   </si>
   <si>
     <t>使用ST-GAT初始部分映射到128，去除第一条学习分支，其余不变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型时预测交通速度的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改：将原模型的输出反归一化再计算loss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -465,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:V23"/>
+  <dimension ref="A3:V29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I31" sqref="H31:I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -511,23 +519,6 @@
       </c>
       <c r="I4" s="2">
         <v>0.1363</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
@@ -866,8 +857,80 @@
       <c r="U23" s="5"/>
       <c r="V23" s="5"/>
     </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="J28:V28"/>
+    <mergeCell ref="J29:V29"/>
     <mergeCell ref="J9:V9"/>
     <mergeCell ref="J10:V10"/>
     <mergeCell ref="J22:V22"/>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1843525-794D-467C-BAC4-B793F5DA0933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B467C3-0DDC-46F0-A766-B946A04B82CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="27">
   <si>
     <t>ST-SSL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,6 +124,14 @@
   </si>
   <si>
     <t>修改：将原模型的输出反归一化再计算loss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDGCRN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch=64</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -473,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:V29"/>
+  <dimension ref="A3:V35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I31" sqref="H31:I31"/>
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -926,6 +934,55 @@
       <c r="T29" s="5"/>
       <c r="U29" s="5"/>
       <c r="V29" s="5"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34" s="1">
+        <v>18.45</v>
+      </c>
+      <c r="H34" s="1">
+        <v>30.51</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0.12189999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B467C3-0DDC-46F0-A766-B946A04B82CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B15928-62EC-4A9E-9F9F-DBDD97F681A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -484,7 +484,7 @@
   <dimension ref="A3:V35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -982,6 +982,15 @@
       </c>
       <c r="F35" s="1" t="s">
         <v>26</v>
+      </c>
+      <c r="G35" s="1">
+        <v>18.43</v>
+      </c>
+      <c r="H35" s="1">
+        <v>30.87</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0.1226</v>
       </c>
     </row>
   </sheetData>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B15928-62EC-4A9E-9F9F-DBDD97F681A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEF3035-4655-40F9-BE69-40B061D992C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
   <si>
     <t>ST-SSL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,6 +132,10 @@
   </si>
   <si>
     <t>batch=64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去除模型的时空嵌入，引入DDGCRN的自学习参数与时空嵌入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -483,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:V35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -719,6 +723,41 @@
       <c r="U11" s="5"/>
       <c r="V11" s="5"/>
     </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+    </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>13</v>
@@ -994,7 +1033,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="J28:V28"/>
     <mergeCell ref="J29:V29"/>
     <mergeCell ref="J9:V9"/>
@@ -1002,6 +1041,7 @@
     <mergeCell ref="J22:V22"/>
     <mergeCell ref="J11:V11"/>
     <mergeCell ref="J23:V23"/>
+    <mergeCell ref="J12:V12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEF3035-4655-40F9-BE69-40B061D992C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623FD653-B544-4D33-8E5C-200429F66F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5835" yWindow="630" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -488,7 +488,7 @@
   <dimension ref="A3:V35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -741,6 +741,15 @@
       </c>
       <c r="F12" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="G12" s="3">
+        <v>19.8</v>
+      </c>
+      <c r="H12" s="1">
+        <v>32.520000000000003</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.1323</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>27</v>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623FD653-B544-4D33-8E5C-200429F66F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CADC5205-2965-4E92-8473-ED649CDBA739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5835" yWindow="630" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1308" yWindow="2160" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="29">
   <si>
     <t>ST-SSL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,6 +136,10 @@
   </si>
   <si>
     <t>去除模型的时空嵌入，引入DDGCRN的自学习参数与时空嵌入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STGODE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -485,18 +489,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:V35"/>
+  <dimension ref="A3:V39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
@@ -507,7 +511,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -533,7 +537,7 @@
         <v>0.1363</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -562,7 +566,7 @@
         <v>0.1198</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -591,7 +595,7 @@
         <v>0.12089999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -635,7 +639,7 @@
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -679,7 +683,7 @@
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -723,7 +727,7 @@
       <c r="U11" s="5"/>
       <c r="V11" s="5"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -767,7 +771,7 @@
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
@@ -796,7 +800,7 @@
         <v>0.14430000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
@@ -825,7 +829,7 @@
         <v>0.14610000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -869,7 +873,7 @@
       <c r="U22" s="5"/>
       <c r="V22" s="5"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
@@ -913,7 +917,7 @@
       <c r="U23" s="5"/>
       <c r="V23" s="5"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>13</v>
       </c>
@@ -948,7 +952,7 @@
       <c r="U28" s="5"/>
       <c r="V28" s="5"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>14</v>
       </c>
@@ -983,7 +987,7 @@
       <c r="U29" s="5"/>
       <c r="V29" s="5"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>13</v>
       </c>
@@ -1012,7 +1016,7 @@
         <v>0.12189999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>14</v>
       </c>
@@ -1039,6 +1043,64 @@
       </c>
       <c r="I35" s="2">
         <v>0.1226</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" s="1">
+        <v>20.84</v>
+      </c>
+      <c r="H38" s="1">
+        <v>32.82</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0.13769999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" s="1">
+        <v>20.99</v>
+      </c>
+      <c r="H39" s="1">
+        <v>32.479999999999997</v>
+      </c>
+      <c r="I39" s="2">
+        <v>0.1517</v>
       </c>
     </row>
   </sheetData>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CADC5205-2965-4E92-8473-ED649CDBA739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6AFF11-5CD6-4702-9EF4-B41D610857A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1308" yWindow="2160" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2160" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="31">
   <si>
     <t>ST-SSL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,6 +140,14 @@
   </si>
   <si>
     <t>STGODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加注意力机制、残差连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加自注意力机制、adp_emb</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -192,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -208,6 +216,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -489,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:V39"/>
+  <dimension ref="A3:V41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="M40" sqref="M40"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -987,7 +998,7 @@
       <c r="U29" s="5"/>
       <c r="V29" s="5"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>13</v>
       </c>
@@ -1016,7 +1027,7 @@
         <v>0.12189999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>14</v>
       </c>
@@ -1045,7 +1056,7 @@
         <v>0.1226</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>13</v>
       </c>
@@ -1074,7 +1085,7 @@
         <v>0.13769999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>14</v>
       </c>
@@ -1103,8 +1114,98 @@
         <v>0.1517</v>
       </c>
     </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" s="1">
+        <v>21.18</v>
+      </c>
+      <c r="H40" s="1">
+        <v>32.94</v>
+      </c>
+      <c r="I40" s="6">
+        <v>0.15129999999999999</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" s="1">
+        <v>20.8</v>
+      </c>
+      <c r="H41" s="4">
+        <v>32.61</v>
+      </c>
+      <c r="I41" s="2">
+        <v>0.14929999999999999</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="J40:V40"/>
+    <mergeCell ref="J41:V41"/>
     <mergeCell ref="J28:V28"/>
     <mergeCell ref="J29:V29"/>
     <mergeCell ref="J9:V9"/>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6AFF11-5CD6-4702-9EF4-B41D610857A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2F82E4-3D6D-4E6F-B0F0-D447752C6BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2160" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="33">
   <si>
     <t>ST-SSL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,6 +148,14 @@
   </si>
   <si>
     <t>添加自注意力机制、adp_emb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MVSTT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加tod,dow</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -200,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -216,9 +224,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -500,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:V41"/>
+  <dimension ref="A3:V46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1139,7 +1144,7 @@
       <c r="H40" s="1">
         <v>32.94</v>
       </c>
-      <c r="I40" s="6">
+      <c r="I40" s="2">
         <v>0.15129999999999999</v>
       </c>
       <c r="J40" s="5" t="s">
@@ -1202,8 +1207,93 @@
       <c r="U41" s="5"/>
       <c r="V41" s="5"/>
     </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44" s="1">
+        <v>19.54</v>
+      </c>
+      <c r="H44" s="1">
+        <v>31.22</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0.12959999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46" s="1">
+        <v>19.54</v>
+      </c>
+      <c r="H46" s="1">
+        <v>31.25</v>
+      </c>
+      <c r="I46" s="2">
+        <v>0.13450000000000001</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="J46:M46"/>
     <mergeCell ref="J40:V40"/>
     <mergeCell ref="J41:V41"/>
     <mergeCell ref="J28:V28"/>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tfp_pro\modinfo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2F82E4-3D6D-4E6F-B0F0-D447752C6BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117171B4-3A9B-4E79-B675-A27ABDF1BC70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -507,16 +507,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:V46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N43" sqref="N43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
@@ -527,7 +527,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -553,7 +553,7 @@
         <v>0.1363</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -582,7 +582,7 @@
         <v>0.1198</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -611,7 +611,7 @@
         <v>0.12089999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -655,7 +655,7 @@
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -699,7 +699,7 @@
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -743,7 +743,7 @@
       <c r="U11" s="5"/>
       <c r="V11" s="5"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -787,7 +787,7 @@
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
@@ -816,7 +816,7 @@
         <v>0.14430000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
@@ -845,7 +845,7 @@
         <v>0.14610000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -889,7 +889,7 @@
       <c r="U22" s="5"/>
       <c r="V22" s="5"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
@@ -933,7 +933,7 @@
       <c r="U23" s="5"/>
       <c r="V23" s="5"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>13</v>
       </c>
@@ -968,7 +968,7 @@
       <c r="U28" s="5"/>
       <c r="V28" s="5"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>14</v>
       </c>
@@ -1003,7 +1003,7 @@
       <c r="U29" s="5"/>
       <c r="V29" s="5"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>13</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>0.12189999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>14</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>0.1226</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>13</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>0.13769999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>14</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>0.1517</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>20</v>
       </c>
@@ -1163,7 +1163,7 @@
       <c r="U40" s="5"/>
       <c r="V40" s="5"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>20</v>
       </c>
@@ -1207,7 +1207,7 @@
       <c r="U41" s="5"/>
       <c r="V41" s="5"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>13</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>0.12959999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>14</v>
       </c>
@@ -1255,8 +1255,17 @@
       <c r="F45" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G45" s="1">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="H45" s="1">
+        <v>31.87</v>
+      </c>
+      <c r="I45" s="2">
+        <v>0.1295</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>20</v>
       </c>
@@ -1293,17 +1302,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="J40:V40"/>
-    <mergeCell ref="J41:V41"/>
-    <mergeCell ref="J28:V28"/>
-    <mergeCell ref="J29:V29"/>
     <mergeCell ref="J9:V9"/>
     <mergeCell ref="J10:V10"/>
     <mergeCell ref="J22:V22"/>
     <mergeCell ref="J11:V11"/>
     <mergeCell ref="J23:V23"/>
     <mergeCell ref="J12:V12"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="J40:V40"/>
+    <mergeCell ref="J41:V41"/>
+    <mergeCell ref="J28:V28"/>
+    <mergeCell ref="J29:V29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117171B4-3A9B-4E79-B675-A27ABDF1BC70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C2CAF9-7D5D-4EA2-979C-399FC1B55D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="34">
   <si>
     <t>ST-SSL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -156,6 +156,10 @@
   </si>
   <si>
     <t>增加tod,dow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加ST-SSL的repr1和repr2，STAEFormer的自注意力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -208,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -224,6 +228,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -505,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:V46"/>
+  <dimension ref="A3:V47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N43" sqref="N43"/>
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1300,19 +1307,57 @@
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
     </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" s="1">
+        <v>20.57</v>
+      </c>
+      <c r="H47" s="1">
+        <v>32.11</v>
+      </c>
+      <c r="I47" s="2">
+        <v>0.1394</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="J47:O47"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="J40:V40"/>
+    <mergeCell ref="J41:V41"/>
+    <mergeCell ref="J28:V28"/>
+    <mergeCell ref="J29:V29"/>
     <mergeCell ref="J9:V9"/>
     <mergeCell ref="J10:V10"/>
     <mergeCell ref="J22:V22"/>
     <mergeCell ref="J11:V11"/>
     <mergeCell ref="J23:V23"/>
     <mergeCell ref="J12:V12"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="J40:V40"/>
-    <mergeCell ref="J41:V41"/>
-    <mergeCell ref="J28:V28"/>
-    <mergeCell ref="J29:V29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C2CAF9-7D5D-4EA2-979C-399FC1B55D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C597A542-7613-4D55-A329-FAEAB4C6BFE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="34">
   <si>
     <t>ST-SSL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -515,7 +515,7 @@
   <dimension ref="A3:V47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I49" sqref="I49"/>
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -535,6 +535,9 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -793,6 +796,64 @@
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="1">
+        <v>18.45</v>
+      </c>
+      <c r="H15" s="1">
+        <v>30.51</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0.12189999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="1">
+        <v>18.41</v>
+      </c>
+      <c r="H16" s="1">
+        <v>30.48</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0.1249</v>
+      </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C597A542-7613-4D55-A329-FAEAB4C6BFE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F530FE4B-0C68-43A4-9D63-4C7D3248D5DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="35">
   <si>
     <t>ST-SSL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -160,6 +160,10 @@
   </si>
   <si>
     <t>增加ST-SSL的repr1和repr2，STAEFormer的自注意力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再增加一层原始编码与特征表示的残差连接</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -212,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -231,6 +235,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -515,7 +522,7 @@
   <dimension ref="A3:V47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -855,6 +862,41 @@
         <v>0.1249</v>
       </c>
     </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="4">
+        <v>18.3</v>
+      </c>
+      <c r="H17" s="4">
+        <v>30.24</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0.1235</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+    </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>13</v>
@@ -1406,19 +1448,20 @@
       <c r="O47" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="J9:V9"/>
+    <mergeCell ref="J10:V10"/>
+    <mergeCell ref="J22:V22"/>
+    <mergeCell ref="J11:V11"/>
+    <mergeCell ref="J23:V23"/>
+    <mergeCell ref="J12:V12"/>
+    <mergeCell ref="J17:M17"/>
     <mergeCell ref="J47:O47"/>
     <mergeCell ref="J46:M46"/>
     <mergeCell ref="J40:V40"/>
     <mergeCell ref="J41:V41"/>
     <mergeCell ref="J28:V28"/>
     <mergeCell ref="J29:V29"/>
-    <mergeCell ref="J9:V9"/>
-    <mergeCell ref="J10:V10"/>
-    <mergeCell ref="J22:V22"/>
-    <mergeCell ref="J11:V11"/>
-    <mergeCell ref="J23:V23"/>
-    <mergeCell ref="J12:V12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F530FE4B-0C68-43A4-9D63-4C7D3248D5DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF532FDF-D6C5-4692-9404-BAA987FFD4F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="36">
   <si>
     <t>ST-SSL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,10 +131,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>batch=64</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>去除模型的时空嵌入，引入DDGCRN的自学习参数与时空嵌入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -164,6 +160,14 @@
   </si>
   <si>
     <t>再增加一层原始编码与特征表示的残差连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵌入维度从10改为64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加至三层原始编码与特征表示的残差连接</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -234,10 +238,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -519,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:V47"/>
+  <dimension ref="A3:V46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="O47" sqref="O47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -789,7 +793,7 @@
         <v>0.1323</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
@@ -804,554 +808,597 @@
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="1">
-        <v>18.45</v>
-      </c>
-      <c r="H15" s="1">
-        <v>30.51</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0.12189999999999999</v>
-      </c>
-    </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="G16" s="1">
-        <v>18.41</v>
+        <v>20.170000000000002</v>
       </c>
       <c r="H16" s="1">
-        <v>30.48</v>
+        <v>32.82</v>
       </c>
       <c r="I16" s="2">
-        <v>0.1249</v>
+        <v>0.14430000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="1">
+        <v>21.09</v>
+      </c>
+      <c r="H17" s="3">
+        <v>33.9</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0.14610000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="4">
-        <v>18.3</v>
-      </c>
-      <c r="H17" s="4">
-        <v>30.24</v>
-      </c>
-      <c r="I17" s="2">
-        <v>0.1235</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="B18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="1">
+        <v>21.09</v>
+      </c>
+      <c r="H18" s="1">
+        <v>33.57</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0.16550000000000001</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="1">
+        <v>21.17</v>
+      </c>
+      <c r="H19" s="1">
+        <v>52.35</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0.1507</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="1">
-        <v>20.170000000000002</v>
-      </c>
-      <c r="H20" s="1">
-        <v>32.82</v>
-      </c>
-      <c r="I20" s="2">
-        <v>0.14430000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="B24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="1">
-        <v>21.09</v>
-      </c>
-      <c r="H21" s="3">
-        <v>33.9</v>
-      </c>
-      <c r="I21" s="2">
-        <v>0.14610000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="1">
-        <v>21.09</v>
-      </c>
-      <c r="H22" s="1">
-        <v>33.57</v>
-      </c>
-      <c r="I22" s="2">
-        <v>0.16550000000000001</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="1">
-        <v>21.17</v>
-      </c>
-      <c r="H23" s="1">
-        <v>52.35</v>
-      </c>
-      <c r="I23" s="2">
-        <v>0.1507</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
+      <c r="C25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="1">
+        <v>20.84</v>
+      </c>
+      <c r="H29" s="1">
+        <v>32.82</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0.13769999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="B30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="1">
+        <v>20.99</v>
+      </c>
+      <c r="H30" s="1">
+        <v>32.479999999999997</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0.1517</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="1">
+        <v>21.18</v>
+      </c>
+      <c r="H31" s="1">
+        <v>32.94</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0.15129999999999999</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="1">
+        <v>20.8</v>
+      </c>
+      <c r="H32" s="4">
+        <v>32.61</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0.14929999999999999</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="1">
+        <v>19.54</v>
+      </c>
+      <c r="H35" s="1">
+        <v>31.22</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0.12959999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="1">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="H36" s="1">
+        <v>31.87</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0.1295</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="1">
+        <v>19.54</v>
+      </c>
+      <c r="H37" s="1">
+        <v>31.25</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0.13450000000000001</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" s="1">
+        <v>20.57</v>
+      </c>
+      <c r="H38" s="1">
+        <v>32.11</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0.1394</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G34" s="1">
+      <c r="C42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" s="1">
         <v>18.45</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H42" s="1">
         <v>30.51</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I42" s="2">
         <v>0.12189999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G35" s="1">
-        <v>18.43</v>
-      </c>
-      <c r="H35" s="1">
-        <v>30.87</v>
-      </c>
-      <c r="I35" s="2">
-        <v>0.1226</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G38" s="1">
-        <v>20.84</v>
-      </c>
-      <c r="H38" s="1">
-        <v>32.82</v>
-      </c>
-      <c r="I38" s="2">
-        <v>0.13769999999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G39" s="1">
-        <v>20.99</v>
-      </c>
-      <c r="H39" s="1">
-        <v>32.479999999999997</v>
-      </c>
-      <c r="I39" s="2">
-        <v>0.1517</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+      <c r="C43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" s="1">
+        <v>18.41</v>
+      </c>
+      <c r="H43" s="1">
+        <v>30.48</v>
+      </c>
+      <c r="I43" s="2">
+        <v>0.1249</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G40" s="1">
-        <v>21.18</v>
-      </c>
-      <c r="H40" s="1">
-        <v>32.94</v>
-      </c>
-      <c r="I40" s="2">
-        <v>0.15129999999999999</v>
-      </c>
-      <c r="J40" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="5"/>
-      <c r="R40" s="5"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="5"/>
-      <c r="U40" s="5"/>
-      <c r="V40" s="5"/>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+      <c r="B44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44" s="4">
+        <v>18.3</v>
+      </c>
+      <c r="H44" s="4">
+        <v>30.24</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0.1235</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G41" s="1">
-        <v>20.8</v>
-      </c>
-      <c r="H41" s="4">
-        <v>32.61</v>
-      </c>
-      <c r="I41" s="2">
-        <v>0.14929999999999999</v>
-      </c>
-      <c r="J41" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5"/>
-      <c r="T41" s="5"/>
-      <c r="U41" s="5"/>
-      <c r="V41" s="5"/>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G44" s="1">
-        <v>19.54</v>
-      </c>
-      <c r="H44" s="1">
-        <v>31.22</v>
-      </c>
-      <c r="I44" s="2">
-        <v>0.12959999999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="B45" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>7</v>
@@ -1365,22 +1412,28 @@
       <c r="F45" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G45" s="1">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="H45" s="1">
-        <v>31.87</v>
+      <c r="G45" s="4">
+        <v>18.350000000000001</v>
+      </c>
+      <c r="H45" s="4">
+        <v>30.39</v>
       </c>
       <c r="I45" s="2">
-        <v>0.1295</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+        <v>0.1234</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>7</v>
@@ -1394,74 +1447,30 @@
       <c r="F46" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G46" s="1">
-        <v>19.54</v>
-      </c>
-      <c r="H46" s="1">
-        <v>31.25</v>
-      </c>
-      <c r="I46" s="2">
-        <v>0.13450000000000001</v>
-      </c>
-      <c r="J46" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G47" s="1">
-        <v>20.57</v>
-      </c>
-      <c r="H47" s="1">
-        <v>32.11</v>
-      </c>
-      <c r="I47" s="2">
-        <v>0.1394</v>
-      </c>
-      <c r="J47" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="6"/>
-      <c r="O47" s="6"/>
+      <c r="J46" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="15">
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="J38:O38"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="J31:V31"/>
+    <mergeCell ref="J32:V32"/>
+    <mergeCell ref="J24:V24"/>
+    <mergeCell ref="J25:V25"/>
     <mergeCell ref="J9:V9"/>
     <mergeCell ref="J10:V10"/>
-    <mergeCell ref="J22:V22"/>
+    <mergeCell ref="J18:V18"/>
     <mergeCell ref="J11:V11"/>
-    <mergeCell ref="J23:V23"/>
+    <mergeCell ref="J19:V19"/>
     <mergeCell ref="J12:V12"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="J47:O47"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="J40:V40"/>
-    <mergeCell ref="J41:V41"/>
-    <mergeCell ref="J28:V28"/>
-    <mergeCell ref="J29:V29"/>
+    <mergeCell ref="J44:M44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF532FDF-D6C5-4692-9404-BAA987FFD4F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5872071B-280C-4162-BE7E-5A024C9ED6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="36">
   <si>
     <t>ST-SSL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -235,10 +235,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -523,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:V46"/>
+  <dimension ref="A3:V47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O47" sqref="O47"/>
+      <selection activeCell="P44" sqref="P44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -660,21 +660,21 @@
       <c r="I9" s="2">
         <v>0.1225</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -704,21 +704,21 @@
       <c r="I10" s="2">
         <v>0.1226</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -748,21 +748,21 @@
       <c r="I11" s="2">
         <v>0.12</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -792,21 +792,21 @@
       <c r="I12" s="2">
         <v>0.1323</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -894,21 +894,21 @@
       <c r="I18" s="2">
         <v>0.16550000000000001</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="J18" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
@@ -938,21 +938,21 @@
       <c r="I19" s="2">
         <v>0.1507</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J19" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
@@ -973,21 +973,21 @@
       <c r="F24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J24" s="5" t="s">
+      <c r="J24" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -1008,21 +1008,21 @@
       <c r="F25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J25" s="5" t="s">
+      <c r="J25" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
@@ -1110,21 +1110,21 @@
       <c r="I31" s="2">
         <v>0.15129999999999999</v>
       </c>
-      <c r="J31" s="5" t="s">
+      <c r="J31" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
@@ -1154,21 +1154,21 @@
       <c r="I32" s="2">
         <v>0.14929999999999999</v>
       </c>
-      <c r="J32" s="5" t="s">
+      <c r="J32" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="6"/>
+      <c r="U32" s="6"/>
+      <c r="V32" s="6"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
@@ -1256,12 +1256,12 @@
       <c r="I37" s="2">
         <v>0.13450000000000001</v>
       </c>
-      <c r="J37" s="5" t="s">
+      <c r="J37" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
@@ -1291,12 +1291,12 @@
       <c r="I38" s="2">
         <v>0.1394</v>
       </c>
-      <c r="J38" s="5" t="s">
+      <c r="J38" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
       <c r="N38" s="7"/>
       <c r="O38" s="7"/>
     </row>
@@ -1386,12 +1386,12 @@
       <c r="I44" s="2">
         <v>0.1235</v>
       </c>
-      <c r="J44" s="6" t="s">
+      <c r="J44" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
@@ -1421,12 +1421,12 @@
       <c r="I45" s="2">
         <v>0.1234</v>
       </c>
-      <c r="J45" s="6" t="s">
+      <c r="J45" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
@@ -1447,21 +1447,49 @@
       <c r="F46" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J46" s="6" t="s">
+      <c r="G46" s="4">
+        <v>18.34</v>
+      </c>
+      <c r="H46" s="4">
+        <v>30.41</v>
+      </c>
+      <c r="I46" s="2">
+        <v>0.1249</v>
+      </c>
+      <c r="J46" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="J38:O38"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="J31:V31"/>
-    <mergeCell ref="J32:V32"/>
+  <mergeCells count="16">
+    <mergeCell ref="J47:M47"/>
     <mergeCell ref="J24:V24"/>
     <mergeCell ref="J25:V25"/>
     <mergeCell ref="J9:V9"/>
@@ -1470,6 +1498,12 @@
     <mergeCell ref="J11:V11"/>
     <mergeCell ref="J19:V19"/>
     <mergeCell ref="J12:V12"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="J38:O38"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="J31:V31"/>
+    <mergeCell ref="J32:V32"/>
     <mergeCell ref="J44:M44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5872071B-280C-4162-BE7E-5A024C9ED6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8397FB78-3D54-4DFF-A3A2-442733FE6314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="37">
   <si>
     <t>ST-SSL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -168,6 +168,10 @@
   </si>
   <si>
     <t>增加至三层原始编码与特征表示的残差连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对12步进行dropout与可学习的权重相乘为1步</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -526,7 +530,7 @@
   <dimension ref="A3:V47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P44" sqref="P44"/>
+      <selection activeCell="R45" sqref="R45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1482,14 +1486,18 @@
       <c r="F47" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J47" s="5"/>
+      <c r="J47" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="J47:M47"/>
+    <mergeCell ref="J47:O47"/>
     <mergeCell ref="J24:V24"/>
     <mergeCell ref="J25:V25"/>
     <mergeCell ref="J9:V9"/>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8397FB78-3D54-4DFF-A3A2-442733FE6314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3703F7-FFC4-4ABC-85BC-D31745174A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="38">
   <si>
     <t>ST-SSL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -172,6 +172,10 @@
   </si>
   <si>
     <t>对12步进行dropout与可学习的权重相乘为1步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对12步状态添加时间注意力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -527,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:V47"/>
+  <dimension ref="A3:V48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R45" sqref="R45"/>
+      <selection activeCell="R42" sqref="R42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1486,6 +1490,15 @@
       <c r="F47" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="G47" s="1">
+        <v>18.5</v>
+      </c>
+      <c r="H47" s="1">
+        <v>30.95</v>
+      </c>
+      <c r="I47" s="2">
+        <v>0.12280000000000001</v>
+      </c>
       <c r="J47" s="5" t="s">
         <v>36</v>
       </c>
@@ -1495,8 +1508,46 @@
       <c r="N47" s="5"/>
       <c r="O47" s="5"/>
     </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" s="4">
+        <v>18.37</v>
+      </c>
+      <c r="H48" s="4">
+        <v>30.54</v>
+      </c>
+      <c r="I48" s="2">
+        <v>0.1222</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
+    <mergeCell ref="J48:O48"/>
     <mergeCell ref="J47:O47"/>
     <mergeCell ref="J24:V24"/>
     <mergeCell ref="J25:V25"/>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3703F7-FFC4-4ABC-85BC-D31745174A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A594AC7E-E9BE-4100-B1A6-A33210C848E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="39">
   <si>
     <t>ST-SSL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -176,6 +176,10 @@
   </si>
   <si>
     <t>对12步状态添加时间注意力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对12步进行dropout与可学习的权重(依次递增)相乘为1步</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -531,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:V48"/>
+  <dimension ref="A3:V49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R42" sqref="R42"/>
+      <selection activeCell="P48" sqref="P48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1545,8 +1549,38 @@
       <c r="N48" s="5"/>
       <c r="O48" s="5"/>
     </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="18">
+    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="J49:O49"/>
     <mergeCell ref="J48:O48"/>
     <mergeCell ref="J47:O47"/>
     <mergeCell ref="J24:V24"/>
@@ -1563,7 +1597,6 @@
     <mergeCell ref="J37:M37"/>
     <mergeCell ref="J31:V31"/>
     <mergeCell ref="J32:V32"/>
-    <mergeCell ref="J44:M44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A594AC7E-E9BE-4100-B1A6-A33210C848E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA127943-9F61-4DE0-B7A1-31F58837DE0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -538,7 +538,7 @@
   <dimension ref="A3:V49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P48" sqref="P48"/>
+      <selection activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1568,6 +1568,15 @@
       <c r="F49" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="G49" s="4">
+        <v>18.440000000000001</v>
+      </c>
+      <c r="H49" s="4">
+        <v>30.44</v>
+      </c>
+      <c r="I49" s="2">
+        <v>0.1234</v>
+      </c>
       <c r="J49" s="5" t="s">
         <v>38</v>
       </c>
@@ -1579,18 +1588,18 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="J9:V9"/>
+    <mergeCell ref="J10:V10"/>
+    <mergeCell ref="J18:V18"/>
+    <mergeCell ref="J11:V11"/>
+    <mergeCell ref="J19:V19"/>
+    <mergeCell ref="J12:V12"/>
     <mergeCell ref="J44:M44"/>
     <mergeCell ref="J49:O49"/>
     <mergeCell ref="J48:O48"/>
     <mergeCell ref="J47:O47"/>
     <mergeCell ref="J24:V24"/>
     <mergeCell ref="J25:V25"/>
-    <mergeCell ref="J9:V9"/>
-    <mergeCell ref="J10:V10"/>
-    <mergeCell ref="J18:V18"/>
-    <mergeCell ref="J11:V11"/>
-    <mergeCell ref="J19:V19"/>
-    <mergeCell ref="J12:V12"/>
     <mergeCell ref="J45:M45"/>
     <mergeCell ref="J46:M46"/>
     <mergeCell ref="J38:O38"/>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA127943-9F61-4DE0-B7A1-31F58837DE0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25EE5A13-6387-41AB-B9E1-C88BF6757ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5865" yWindow="1770" windowWidth="22665" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="40">
   <si>
     <t>ST-SSL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -175,11 +175,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对12步状态添加时间注意力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>对12步进行dropout与可学习的权重(依次递增)相乘为1步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对12步状态添加时间注意力，嵌入维度10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对12步状态添加时间注意力，嵌入维度20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -247,10 +251,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -535,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:V49"/>
+  <dimension ref="A3:V50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J52" sqref="J52"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -672,21 +676,21 @@
       <c r="I9" s="2">
         <v>0.1225</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -716,21 +720,21 @@
       <c r="I10" s="2">
         <v>0.1226</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="J10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -760,21 +764,21 @@
       <c r="I11" s="2">
         <v>0.12</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="J11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -804,21 +808,21 @@
       <c r="I12" s="2">
         <v>0.1323</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -906,21 +910,21 @@
       <c r="I18" s="2">
         <v>0.16550000000000001</v>
       </c>
-      <c r="J18" s="6" t="s">
+      <c r="J18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="6"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
@@ -950,21 +954,21 @@
       <c r="I19" s="2">
         <v>0.1507</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="J19" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="6"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
@@ -985,21 +989,21 @@
       <c r="F24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J24" s="6" t="s">
+      <c r="J24" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="6"/>
-      <c r="V24" s="6"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -1020,21 +1024,21 @@
       <c r="F25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J25" s="6" t="s">
+      <c r="J25" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
-      <c r="T25" s="6"/>
-      <c r="U25" s="6"/>
-      <c r="V25" s="6"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
@@ -1122,21 +1126,21 @@
       <c r="I31" s="2">
         <v>0.15129999999999999</v>
       </c>
-      <c r="J31" s="6" t="s">
+      <c r="J31" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
-      <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
-      <c r="U31" s="6"/>
-      <c r="V31" s="6"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
@@ -1166,21 +1170,21 @@
       <c r="I32" s="2">
         <v>0.14929999999999999</v>
       </c>
-      <c r="J32" s="6" t="s">
+      <c r="J32" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="6"/>
-      <c r="S32" s="6"/>
-      <c r="T32" s="6"/>
-      <c r="U32" s="6"/>
-      <c r="V32" s="6"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
@@ -1268,12 +1272,12 @@
       <c r="I37" s="2">
         <v>0.13450000000000001</v>
       </c>
-      <c r="J37" s="6" t="s">
+      <c r="J37" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
@@ -1303,12 +1307,12 @@
       <c r="I38" s="2">
         <v>0.1394</v>
       </c>
-      <c r="J38" s="6" t="s">
+      <c r="J38" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
       <c r="N38" s="7"/>
       <c r="O38" s="7"/>
     </row>
@@ -1398,12 +1402,12 @@
       <c r="I44" s="2">
         <v>0.1235</v>
       </c>
-      <c r="J44" s="5" t="s">
+      <c r="J44" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
@@ -1433,12 +1437,12 @@
       <c r="I45" s="2">
         <v>0.1234</v>
       </c>
-      <c r="J45" s="5" t="s">
+      <c r="J45" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
@@ -1468,12 +1472,12 @@
       <c r="I46" s="2">
         <v>0.1249</v>
       </c>
-      <c r="J46" s="5" t="s">
+      <c r="J46" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
@@ -1503,14 +1507,14 @@
       <c r="I47" s="2">
         <v>0.12280000000000001</v>
       </c>
-      <c r="J47" s="5" t="s">
+      <c r="J47" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="5"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
@@ -1540,14 +1544,14 @@
       <c r="I48" s="2">
         <v>0.1222</v>
       </c>
-      <c r="J48" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="5"/>
+      <c r="J48" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
@@ -1577,23 +1581,55 @@
       <c r="I49" s="2">
         <v>0.1234</v>
       </c>
-      <c r="J49" s="5" t="s">
+      <c r="J49" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" s="1">
+        <v>18.77</v>
+      </c>
+      <c r="H50" s="1">
+        <v>30.79</v>
+      </c>
+      <c r="I50" s="2">
+        <v>0.1263</v>
+      </c>
+      <c r="J50" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K49" s="5"/>
-      <c r="L49" s="5"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="5"/>
-      <c r="O49" s="5"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="J9:V9"/>
-    <mergeCell ref="J10:V10"/>
-    <mergeCell ref="J18:V18"/>
-    <mergeCell ref="J11:V11"/>
-    <mergeCell ref="J19:V19"/>
-    <mergeCell ref="J12:V12"/>
+  <mergeCells count="19">
+    <mergeCell ref="J50:O50"/>
     <mergeCell ref="J44:M44"/>
     <mergeCell ref="J49:O49"/>
     <mergeCell ref="J48:O48"/>
@@ -1606,6 +1642,12 @@
     <mergeCell ref="J37:M37"/>
     <mergeCell ref="J31:V31"/>
     <mergeCell ref="J32:V32"/>
+    <mergeCell ref="J9:V9"/>
+    <mergeCell ref="J10:V10"/>
+    <mergeCell ref="J18:V18"/>
+    <mergeCell ref="J11:V11"/>
+    <mergeCell ref="J19:V19"/>
+    <mergeCell ref="J12:V12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25EE5A13-6387-41AB-B9E1-C88BF6757ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5502EA64-1780-4330-9EA2-199BDCAC1737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5865" yWindow="1770" windowWidth="22665" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11460" yWindow="2115" windowWidth="22665" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="42">
   <si>
     <t>ST-SSL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -184,6 +184,14 @@
   </si>
   <si>
     <t>对12步状态添加时间注意力，嵌入维度20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加SSTBAN的泛化增强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDSTGCN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -251,10 +259,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -539,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:V50"/>
+  <dimension ref="A3:V57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J53" sqref="J53"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -676,21 +684,21 @@
       <c r="I9" s="2">
         <v>0.1225</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -720,21 +728,21 @@
       <c r="I10" s="2">
         <v>0.1226</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -764,21 +772,21 @@
       <c r="I11" s="2">
         <v>0.12</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -808,21 +816,21 @@
       <c r="I12" s="2">
         <v>0.1323</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -910,21 +918,21 @@
       <c r="I18" s="2">
         <v>0.16550000000000001</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="J18" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
@@ -954,21 +962,21 @@
       <c r="I19" s="2">
         <v>0.1507</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J19" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
@@ -989,21 +997,21 @@
       <c r="F24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J24" s="5" t="s">
+      <c r="J24" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -1024,21 +1032,21 @@
       <c r="F25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J25" s="5" t="s">
+      <c r="J25" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
@@ -1126,21 +1134,21 @@
       <c r="I31" s="2">
         <v>0.15129999999999999</v>
       </c>
-      <c r="J31" s="5" t="s">
+      <c r="J31" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
@@ -1170,21 +1178,21 @@
       <c r="I32" s="2">
         <v>0.14929999999999999</v>
       </c>
-      <c r="J32" s="5" t="s">
+      <c r="J32" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="6"/>
+      <c r="U32" s="6"/>
+      <c r="V32" s="6"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
@@ -1272,12 +1280,12 @@
       <c r="I37" s="2">
         <v>0.13450000000000001</v>
       </c>
-      <c r="J37" s="5" t="s">
+      <c r="J37" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
@@ -1307,12 +1315,12 @@
       <c r="I38" s="2">
         <v>0.1394</v>
       </c>
-      <c r="J38" s="5" t="s">
+      <c r="J38" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
       <c r="N38" s="7"/>
       <c r="O38" s="7"/>
     </row>
@@ -1402,12 +1410,12 @@
       <c r="I44" s="2">
         <v>0.1235</v>
       </c>
-      <c r="J44" s="6" t="s">
+      <c r="J44" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
@@ -1472,12 +1480,12 @@
       <c r="I46" s="2">
         <v>0.1249</v>
       </c>
-      <c r="J46" s="6" t="s">
+      <c r="J46" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
@@ -1627,13 +1635,92 @@
       <c r="N50" s="6"/>
       <c r="O50" s="6"/>
     </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" s="1">
+        <v>19.61</v>
+      </c>
+      <c r="H56" s="1">
+        <v>31.05</v>
+      </c>
+      <c r="I56" s="2">
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="J50:O50"/>
-    <mergeCell ref="J44:M44"/>
-    <mergeCell ref="J49:O49"/>
-    <mergeCell ref="J48:O48"/>
-    <mergeCell ref="J47:O47"/>
+  <mergeCells count="20">
+    <mergeCell ref="J51:O51"/>
+    <mergeCell ref="J9:V9"/>
+    <mergeCell ref="J10:V10"/>
+    <mergeCell ref="J18:V18"/>
+    <mergeCell ref="J11:V11"/>
+    <mergeCell ref="J19:V19"/>
+    <mergeCell ref="J12:V12"/>
     <mergeCell ref="J24:V24"/>
     <mergeCell ref="J25:V25"/>
     <mergeCell ref="J45:M45"/>
@@ -1642,12 +1729,11 @@
     <mergeCell ref="J37:M37"/>
     <mergeCell ref="J31:V31"/>
     <mergeCell ref="J32:V32"/>
-    <mergeCell ref="J9:V9"/>
-    <mergeCell ref="J10:V10"/>
-    <mergeCell ref="J18:V18"/>
-    <mergeCell ref="J11:V11"/>
-    <mergeCell ref="J19:V19"/>
-    <mergeCell ref="J12:V12"/>
+    <mergeCell ref="J50:O50"/>
+    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="J49:O49"/>
+    <mergeCell ref="J48:O48"/>
+    <mergeCell ref="J47:O47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5502EA64-1780-4330-9EA2-199BDCAC1737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA2C730-4BB0-4F34-9953-3B33E4D9038F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11460" yWindow="2115" windowWidth="22665" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -550,7 +550,7 @@
   <dimension ref="A3:V57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+      <selection activeCell="L54" sqref="L54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1711,16 +1711,18 @@
       <c r="F57" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="G57" s="1">
+        <v>19.68</v>
+      </c>
+      <c r="H57" s="1">
+        <v>31.13</v>
+      </c>
+      <c r="I57" s="2">
+        <v>0.13650000000000001</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="J51:O51"/>
-    <mergeCell ref="J9:V9"/>
-    <mergeCell ref="J10:V10"/>
-    <mergeCell ref="J18:V18"/>
-    <mergeCell ref="J11:V11"/>
-    <mergeCell ref="J19:V19"/>
-    <mergeCell ref="J12:V12"/>
     <mergeCell ref="J24:V24"/>
     <mergeCell ref="J25:V25"/>
     <mergeCell ref="J45:M45"/>
@@ -1729,11 +1731,18 @@
     <mergeCell ref="J37:M37"/>
     <mergeCell ref="J31:V31"/>
     <mergeCell ref="J32:V32"/>
-    <mergeCell ref="J50:O50"/>
+    <mergeCell ref="J9:V9"/>
+    <mergeCell ref="J10:V10"/>
+    <mergeCell ref="J18:V18"/>
+    <mergeCell ref="J11:V11"/>
+    <mergeCell ref="J19:V19"/>
+    <mergeCell ref="J12:V12"/>
     <mergeCell ref="J44:M44"/>
     <mergeCell ref="J49:O49"/>
     <mergeCell ref="J48:O48"/>
     <mergeCell ref="J47:O47"/>
+    <mergeCell ref="J51:O51"/>
+    <mergeCell ref="J50:O50"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA2C730-4BB0-4F34-9953-3B33E4D9038F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03CEF97-8585-4DC0-97E1-422E5D0EEDD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11460" yWindow="2115" windowWidth="22665" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="43">
   <si>
     <t>ST-SSL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -192,6 +192,10 @@
   </si>
   <si>
     <t>DDSTGCN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加SSTBAN的泛化增强，多加一层</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -259,10 +263,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -550,7 +554,7 @@
   <dimension ref="A3:V57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="L54" sqref="L54"/>
+      <selection activeCell="L55" sqref="L55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -684,21 +688,21 @@
       <c r="I9" s="2">
         <v>0.1225</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -728,21 +732,21 @@
       <c r="I10" s="2">
         <v>0.1226</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="J10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -772,21 +776,21 @@
       <c r="I11" s="2">
         <v>0.12</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="J11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -816,21 +820,21 @@
       <c r="I12" s="2">
         <v>0.1323</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -918,21 +922,21 @@
       <c r="I18" s="2">
         <v>0.16550000000000001</v>
       </c>
-      <c r="J18" s="6" t="s">
+      <c r="J18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="6"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
@@ -962,21 +966,21 @@
       <c r="I19" s="2">
         <v>0.1507</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="J19" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="6"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
@@ -997,21 +1001,21 @@
       <c r="F24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J24" s="6" t="s">
+      <c r="J24" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="6"/>
-      <c r="V24" s="6"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -1032,21 +1036,21 @@
       <c r="F25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J25" s="6" t="s">
+      <c r="J25" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
-      <c r="T25" s="6"/>
-      <c r="U25" s="6"/>
-      <c r="V25" s="6"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
@@ -1134,21 +1138,21 @@
       <c r="I31" s="2">
         <v>0.15129999999999999</v>
       </c>
-      <c r="J31" s="6" t="s">
+      <c r="J31" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
-      <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
-      <c r="U31" s="6"/>
-      <c r="V31" s="6"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
@@ -1178,21 +1182,21 @@
       <c r="I32" s="2">
         <v>0.14929999999999999</v>
       </c>
-      <c r="J32" s="6" t="s">
+      <c r="J32" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="6"/>
-      <c r="S32" s="6"/>
-      <c r="T32" s="6"/>
-      <c r="U32" s="6"/>
-      <c r="V32" s="6"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
@@ -1280,12 +1284,12 @@
       <c r="I37" s="2">
         <v>0.13450000000000001</v>
       </c>
-      <c r="J37" s="6" t="s">
+      <c r="J37" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
@@ -1315,12 +1319,12 @@
       <c r="I38" s="2">
         <v>0.1394</v>
       </c>
-      <c r="J38" s="6" t="s">
+      <c r="J38" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
       <c r="N38" s="7"/>
       <c r="O38" s="7"/>
     </row>
@@ -1410,12 +1414,12 @@
       <c r="I44" s="2">
         <v>0.1235</v>
       </c>
-      <c r="J44" s="5" t="s">
+      <c r="J44" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
@@ -1445,12 +1449,12 @@
       <c r="I45" s="2">
         <v>0.1234</v>
       </c>
-      <c r="J45" s="6" t="s">
+      <c r="J45" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
@@ -1480,12 +1484,12 @@
       <c r="I46" s="2">
         <v>0.1249</v>
       </c>
-      <c r="J46" s="5" t="s">
+      <c r="J46" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
@@ -1515,14 +1519,14 @@
       <c r="I47" s="2">
         <v>0.12280000000000001</v>
       </c>
-      <c r="J47" s="6" t="s">
+      <c r="J47" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="6"/>
-      <c r="O47" s="6"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
@@ -1552,14 +1556,14 @@
       <c r="I48" s="2">
         <v>0.1222</v>
       </c>
-      <c r="J48" s="6" t="s">
+      <c r="J48" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="6"/>
-      <c r="N48" s="6"/>
-      <c r="O48" s="6"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
@@ -1589,14 +1593,14 @@
       <c r="I49" s="2">
         <v>0.1234</v>
       </c>
-      <c r="J49" s="6" t="s">
+      <c r="J49" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
-      <c r="N49" s="6"/>
-      <c r="O49" s="6"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
@@ -1626,14 +1630,14 @@
       <c r="I50" s="2">
         <v>0.1263</v>
       </c>
-      <c r="J50" s="6" t="s">
+      <c r="J50" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
-      <c r="N50" s="6"/>
-      <c r="O50" s="6"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
@@ -1654,14 +1658,51 @@
       <c r="F51" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J51" s="6" t="s">
+      <c r="G51" s="4">
+        <v>18.36</v>
+      </c>
+      <c r="H51" s="4">
+        <v>30.46</v>
+      </c>
+      <c r="I51" s="2">
+        <v>0.1232</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J52" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
-      <c r="M51" s="6"/>
-      <c r="N51" s="6"/>
-      <c r="O51" s="6"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
@@ -1722,7 +1763,19 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="21">
+    <mergeCell ref="J52:O52"/>
+    <mergeCell ref="J49:O49"/>
+    <mergeCell ref="J48:O48"/>
+    <mergeCell ref="J47:O47"/>
+    <mergeCell ref="J51:O51"/>
+    <mergeCell ref="J50:O50"/>
+    <mergeCell ref="J9:V9"/>
+    <mergeCell ref="J10:V10"/>
+    <mergeCell ref="J18:V18"/>
+    <mergeCell ref="J11:V11"/>
+    <mergeCell ref="J19:V19"/>
+    <mergeCell ref="J12:V12"/>
     <mergeCell ref="J24:V24"/>
     <mergeCell ref="J25:V25"/>
     <mergeCell ref="J45:M45"/>
@@ -1731,18 +1784,7 @@
     <mergeCell ref="J37:M37"/>
     <mergeCell ref="J31:V31"/>
     <mergeCell ref="J32:V32"/>
-    <mergeCell ref="J9:V9"/>
-    <mergeCell ref="J10:V10"/>
-    <mergeCell ref="J18:V18"/>
-    <mergeCell ref="J11:V11"/>
-    <mergeCell ref="J19:V19"/>
-    <mergeCell ref="J12:V12"/>
     <mergeCell ref="J44:M44"/>
-    <mergeCell ref="J49:O49"/>
-    <mergeCell ref="J48:O48"/>
-    <mergeCell ref="J47:O47"/>
-    <mergeCell ref="J51:O51"/>
-    <mergeCell ref="J50:O50"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03CEF97-8585-4DC0-97E1-422E5D0EEDD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE4871D-CF06-49C8-8470-B06C1E39DFA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11460" yWindow="2115" windowWidth="22665" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="44">
   <si>
     <t>ST-SSL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -196,6 +196,10 @@
   </si>
   <si>
     <t>增加SSTBAN的泛化增强，多加一层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加tod，dow</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -553,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:V57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="L55" sqref="L55"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1198,7 +1202,42 @@
       <c r="U32" s="5"/>
       <c r="V32" s="5"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>13</v>
       </c>
@@ -1227,7 +1266,7 @@
         <v>0.12959999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>14</v>
       </c>
@@ -1256,7 +1295,7 @@
         <v>0.1295</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>20</v>
       </c>
@@ -1291,7 +1330,7 @@
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>20</v>
       </c>
@@ -1328,7 +1367,7 @@
       <c r="N38" s="7"/>
       <c r="O38" s="7"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>13</v>
       </c>
@@ -1357,7 +1396,7 @@
         <v>0.12189999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>14</v>
       </c>
@@ -1386,7 +1425,7 @@
         <v>0.1249</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>20</v>
       </c>
@@ -1421,7 +1460,7 @@
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>20</v>
       </c>
@@ -1456,7 +1495,7 @@
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>20</v>
       </c>
@@ -1491,7 +1530,7 @@
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>20</v>
       </c>
@@ -1528,7 +1567,7 @@
       <c r="N47" s="5"/>
       <c r="O47" s="5"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>20</v>
       </c>
@@ -1763,19 +1802,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="J52:O52"/>
-    <mergeCell ref="J49:O49"/>
-    <mergeCell ref="J48:O48"/>
-    <mergeCell ref="J47:O47"/>
-    <mergeCell ref="J51:O51"/>
-    <mergeCell ref="J50:O50"/>
-    <mergeCell ref="J9:V9"/>
-    <mergeCell ref="J10:V10"/>
-    <mergeCell ref="J18:V18"/>
-    <mergeCell ref="J11:V11"/>
-    <mergeCell ref="J19:V19"/>
-    <mergeCell ref="J12:V12"/>
+  <mergeCells count="22">
     <mergeCell ref="J24:V24"/>
     <mergeCell ref="J25:V25"/>
     <mergeCell ref="J45:M45"/>
@@ -1785,6 +1812,19 @@
     <mergeCell ref="J31:V31"/>
     <mergeCell ref="J32:V32"/>
     <mergeCell ref="J44:M44"/>
+    <mergeCell ref="J33:V33"/>
+    <mergeCell ref="J9:V9"/>
+    <mergeCell ref="J10:V10"/>
+    <mergeCell ref="J18:V18"/>
+    <mergeCell ref="J11:V11"/>
+    <mergeCell ref="J19:V19"/>
+    <mergeCell ref="J12:V12"/>
+    <mergeCell ref="J52:O52"/>
+    <mergeCell ref="J49:O49"/>
+    <mergeCell ref="J48:O48"/>
+    <mergeCell ref="J47:O47"/>
+    <mergeCell ref="J51:O51"/>
+    <mergeCell ref="J50:O50"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tfp_pro\modinfo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE4871D-CF06-49C8-8470-B06C1E39DFA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF594E8-5A31-4041-A0AA-CA2E215F8040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11460" yWindow="2115" windowWidth="22665" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -557,16 +557,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:V57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
@@ -577,7 +577,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -606,7 +606,7 @@
         <v>0.1363</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -635,7 +635,7 @@
         <v>0.1198</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -664,7 +664,7 @@
         <v>0.12089999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -708,7 +708,7 @@
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -752,7 +752,7 @@
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -796,7 +796,7 @@
       <c r="U11" s="5"/>
       <c r="V11" s="5"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -840,7 +840,7 @@
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -869,7 +869,7 @@
         <v>0.14430000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -898,7 +898,7 @@
         <v>0.14610000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -942,7 +942,7 @@
       <c r="U18" s="5"/>
       <c r="V18" s="5"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -986,7 +986,7 @@
       <c r="U19" s="5"/>
       <c r="V19" s="5"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>13</v>
       </c>
@@ -1021,7 +1021,7 @@
       <c r="U24" s="5"/>
       <c r="V24" s="5"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>14</v>
       </c>
@@ -1056,7 +1056,7 @@
       <c r="U25" s="5"/>
       <c r="V25" s="5"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>13</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>0.13769999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>14</v>
       </c>
@@ -1113,8 +1113,17 @@
       <c r="I30" s="2">
         <v>0.1517</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="J30" s="1">
+        <v>20.86</v>
+      </c>
+      <c r="K30" s="1">
+        <v>32.340000000000003</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0.14990000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>20</v>
       </c>
@@ -1158,7 +1167,7 @@
       <c r="U31" s="5"/>
       <c r="V31" s="5"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>20</v>
       </c>
@@ -1202,7 +1211,7 @@
       <c r="U32" s="5"/>
       <c r="V32" s="5"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>20</v>
       </c>
@@ -1237,7 +1246,7 @@
       <c r="U33" s="5"/>
       <c r="V33" s="5"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>13</v>
       </c>
@@ -1266,7 +1275,7 @@
         <v>0.12959999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>14</v>
       </c>
@@ -1295,7 +1304,7 @@
         <v>0.1295</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>20</v>
       </c>
@@ -1330,7 +1339,7 @@
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>20</v>
       </c>
@@ -1367,7 +1376,7 @@
       <c r="N38" s="7"/>
       <c r="O38" s="7"/>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>13</v>
       </c>
@@ -1396,7 +1405,7 @@
         <v>0.12189999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>14</v>
       </c>
@@ -1425,7 +1434,7 @@
         <v>0.1249</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>20</v>
       </c>
@@ -1460,7 +1469,7 @@
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>20</v>
       </c>
@@ -1495,7 +1504,7 @@
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>20</v>
       </c>
@@ -1530,7 +1539,7 @@
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>20</v>
       </c>
@@ -1567,7 +1576,7 @@
       <c r="N47" s="5"/>
       <c r="O47" s="5"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>20</v>
       </c>
@@ -1604,7 +1613,7 @@
       <c r="N48" s="5"/>
       <c r="O48" s="5"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>20</v>
       </c>
@@ -1641,7 +1650,7 @@
       <c r="N49" s="5"/>
       <c r="O49" s="5"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>20</v>
       </c>
@@ -1678,7 +1687,7 @@
       <c r="N50" s="5"/>
       <c r="O50" s="5"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>20</v>
       </c>
@@ -1715,7 +1724,7 @@
       <c r="N51" s="5"/>
       <c r="O51" s="5"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>20</v>
       </c>
@@ -1743,7 +1752,7 @@
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>13</v>
       </c>
@@ -1772,7 +1781,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>20</v>
       </c>
@@ -1803,6 +1812,18 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="J52:O52"/>
+    <mergeCell ref="J49:O49"/>
+    <mergeCell ref="J48:O48"/>
+    <mergeCell ref="J47:O47"/>
+    <mergeCell ref="J51:O51"/>
+    <mergeCell ref="J50:O50"/>
+    <mergeCell ref="J9:V9"/>
+    <mergeCell ref="J10:V10"/>
+    <mergeCell ref="J18:V18"/>
+    <mergeCell ref="J11:V11"/>
+    <mergeCell ref="J19:V19"/>
+    <mergeCell ref="J12:V12"/>
     <mergeCell ref="J24:V24"/>
     <mergeCell ref="J25:V25"/>
     <mergeCell ref="J45:M45"/>
@@ -1813,18 +1834,6 @@
     <mergeCell ref="J32:V32"/>
     <mergeCell ref="J44:M44"/>
     <mergeCell ref="J33:V33"/>
-    <mergeCell ref="J9:V9"/>
-    <mergeCell ref="J10:V10"/>
-    <mergeCell ref="J18:V18"/>
-    <mergeCell ref="J11:V11"/>
-    <mergeCell ref="J19:V19"/>
-    <mergeCell ref="J12:V12"/>
-    <mergeCell ref="J52:O52"/>
-    <mergeCell ref="J49:O49"/>
-    <mergeCell ref="J48:O48"/>
-    <mergeCell ref="J47:O47"/>
-    <mergeCell ref="J51:O51"/>
-    <mergeCell ref="J50:O50"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF594E8-5A31-4041-A0AA-CA2E215F8040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720F5BDE-6D79-4D41-A424-3479A3EAFC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -558,7 +558,7 @@
   <dimension ref="A3:V57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1230,6 +1230,15 @@
       <c r="F33" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="G33" s="4">
+        <v>19.52</v>
+      </c>
+      <c r="H33" s="4">
+        <v>30.79</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0.13739999999999999</v>
+      </c>
       <c r="J33" s="5" t="s">
         <v>43</v>
       </c>
@@ -1812,18 +1821,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="J52:O52"/>
-    <mergeCell ref="J49:O49"/>
-    <mergeCell ref="J48:O48"/>
-    <mergeCell ref="J47:O47"/>
-    <mergeCell ref="J51:O51"/>
-    <mergeCell ref="J50:O50"/>
-    <mergeCell ref="J9:V9"/>
-    <mergeCell ref="J10:V10"/>
-    <mergeCell ref="J18:V18"/>
-    <mergeCell ref="J11:V11"/>
-    <mergeCell ref="J19:V19"/>
-    <mergeCell ref="J12:V12"/>
     <mergeCell ref="J24:V24"/>
     <mergeCell ref="J25:V25"/>
     <mergeCell ref="J45:M45"/>
@@ -1834,6 +1831,18 @@
     <mergeCell ref="J32:V32"/>
     <mergeCell ref="J44:M44"/>
     <mergeCell ref="J33:V33"/>
+    <mergeCell ref="J9:V9"/>
+    <mergeCell ref="J10:V10"/>
+    <mergeCell ref="J18:V18"/>
+    <mergeCell ref="J11:V11"/>
+    <mergeCell ref="J19:V19"/>
+    <mergeCell ref="J12:V12"/>
+    <mergeCell ref="J52:O52"/>
+    <mergeCell ref="J49:O49"/>
+    <mergeCell ref="J48:O48"/>
+    <mergeCell ref="J47:O47"/>
+    <mergeCell ref="J51:O51"/>
+    <mergeCell ref="J50:O50"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720F5BDE-6D79-4D41-A424-3479A3EAFC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D9E666-ABED-41D7-AE29-0BC0FAFBB943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="46">
   <si>
     <t>ST-SSL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -200,6 +200,14 @@
   </si>
   <si>
     <t>添加tod，dow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加tod，dow，添加STAE自注意力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intel(R) Xeon(R) CPU E5-2686 v4，4070 Ti-12G</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -226,7 +234,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -236,6 +244,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -252,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -274,6 +288,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -555,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:V57"/>
+  <dimension ref="A3:V71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1056,206 +1079,7 @@
       <c r="U25" s="5"/>
       <c r="V25" s="5"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G29" s="1">
-        <v>20.84</v>
-      </c>
-      <c r="H29" s="1">
-        <v>32.82</v>
-      </c>
-      <c r="I29" s="2">
-        <v>0.13769999999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G30" s="1">
-        <v>20.99</v>
-      </c>
-      <c r="H30" s="1">
-        <v>32.479999999999997</v>
-      </c>
-      <c r="I30" s="2">
-        <v>0.1517</v>
-      </c>
-      <c r="J30" s="1">
-        <v>20.86</v>
-      </c>
-      <c r="K30" s="1">
-        <v>32.340000000000003</v>
-      </c>
-      <c r="L30" s="2">
-        <v>0.14990000000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G31" s="1">
-        <v>21.18</v>
-      </c>
-      <c r="H31" s="1">
-        <v>32.94</v>
-      </c>
-      <c r="I31" s="2">
-        <v>0.15129999999999999</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G32" s="1">
-        <v>20.8</v>
-      </c>
-      <c r="H32" s="4">
-        <v>32.61</v>
-      </c>
-      <c r="I32" s="2">
-        <v>0.14929999999999999</v>
-      </c>
-      <c r="J32" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G33" s="4">
-        <v>19.52</v>
-      </c>
-      <c r="H33" s="4">
-        <v>30.79</v>
-      </c>
-      <c r="I33" s="2">
-        <v>0.13739999999999999</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>13</v>
       </c>
@@ -1284,7 +1108,7 @@
         <v>0.12959999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,7 +1137,7 @@
         <v>0.1295</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>20</v>
       </c>
@@ -1348,7 +1172,7 @@
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>20</v>
       </c>
@@ -1385,7 +1209,7 @@
       <c r="N38" s="7"/>
       <c r="O38" s="7"/>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>13</v>
       </c>
@@ -1414,7 +1238,7 @@
         <v>0.12189999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>14</v>
       </c>
@@ -1443,7 +1267,7 @@
         <v>0.1249</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>20</v>
       </c>
@@ -1478,7 +1302,7 @@
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>20</v>
       </c>
@@ -1513,7 +1337,7 @@
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>20</v>
       </c>
@@ -1548,7 +1372,7 @@
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>20</v>
       </c>
@@ -1585,7 +1409,7 @@
       <c r="N47" s="5"/>
       <c r="O47" s="5"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>20</v>
       </c>
@@ -1622,7 +1446,7 @@
       <c r="N48" s="5"/>
       <c r="O48" s="5"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>20</v>
       </c>
@@ -1659,7 +1483,7 @@
       <c r="N49" s="5"/>
       <c r="O49" s="5"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>20</v>
       </c>
@@ -1696,7 +1520,7 @@
       <c r="N50" s="5"/>
       <c r="O50" s="5"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>20</v>
       </c>
@@ -1733,7 +1557,7 @@
       <c r="N51" s="5"/>
       <c r="O51" s="5"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>20</v>
       </c>
@@ -1761,7 +1585,7 @@
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>13</v>
       </c>
@@ -1790,7 +1614,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>20</v>
       </c>
@@ -1819,18 +1643,294 @@
         <v>0.13650000000000001</v>
       </c>
     </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G61" s="1">
+        <v>20.84</v>
+      </c>
+      <c r="H61" s="1">
+        <v>32.82</v>
+      </c>
+      <c r="I61" s="2">
+        <v>0.13769999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G62" s="1">
+        <v>20.99</v>
+      </c>
+      <c r="H62" s="1">
+        <v>32.479999999999997</v>
+      </c>
+      <c r="I62" s="2">
+        <v>0.1517</v>
+      </c>
+      <c r="J62" s="1">
+        <v>20.86</v>
+      </c>
+      <c r="K62" s="1">
+        <v>32.340000000000003</v>
+      </c>
+      <c r="L62" s="2">
+        <v>0.14990000000000001</v>
+      </c>
+      <c r="O62" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="P62" s="10"/>
+      <c r="Q62" s="10"/>
+      <c r="R62" s="10"/>
+      <c r="S62" s="10"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F63" s="9"/>
+      <c r="G63" s="1">
+        <v>20.94</v>
+      </c>
+      <c r="H63" s="1">
+        <v>32.5</v>
+      </c>
+      <c r="I63" s="2">
+        <v>0.14929999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G65" s="1">
+        <v>21.18</v>
+      </c>
+      <c r="H65" s="1">
+        <v>32.94</v>
+      </c>
+      <c r="I65" s="2">
+        <v>0.15129999999999999</v>
+      </c>
+      <c r="J65" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
+      <c r="M65" s="5"/>
+      <c r="N65" s="5"/>
+      <c r="O65" s="5"/>
+      <c r="P65" s="5"/>
+      <c r="Q65" s="5"/>
+      <c r="R65" s="5"/>
+      <c r="S65" s="5"/>
+      <c r="T65" s="5"/>
+      <c r="U65" s="5"/>
+      <c r="V65" s="5"/>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G66" s="1">
+        <v>20.8</v>
+      </c>
+      <c r="H66" s="4">
+        <v>32.61</v>
+      </c>
+      <c r="I66" s="2">
+        <v>0.14929999999999999</v>
+      </c>
+      <c r="J66" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="5"/>
+      <c r="N66" s="5"/>
+      <c r="O66" s="5"/>
+      <c r="P66" s="5"/>
+      <c r="Q66" s="5"/>
+      <c r="R66" s="5"/>
+      <c r="S66" s="5"/>
+      <c r="T66" s="5"/>
+      <c r="U66" s="5"/>
+      <c r="V66" s="5"/>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G67" s="4">
+        <v>19.52</v>
+      </c>
+      <c r="H67" s="4">
+        <v>30.79</v>
+      </c>
+      <c r="I67" s="8">
+        <v>0.13739999999999999</v>
+      </c>
+      <c r="J67" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="5"/>
+      <c r="N67" s="5"/>
+      <c r="O67" s="5"/>
+      <c r="P67" s="5"/>
+      <c r="Q67" s="5"/>
+      <c r="R67" s="5"/>
+      <c r="S67" s="5"/>
+      <c r="T67" s="5"/>
+      <c r="U67" s="5"/>
+      <c r="V67" s="5"/>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="F68" s="9"/>
+      <c r="G68" s="4">
+        <v>19.54</v>
+      </c>
+      <c r="H68" s="4">
+        <v>30.83</v>
+      </c>
+      <c r="I68" s="8">
+        <v>0.13730000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G71" s="4">
+        <v>19.559999999999999</v>
+      </c>
+      <c r="H71" s="4">
+        <v>30.83</v>
+      </c>
+      <c r="I71" s="1">
+        <v>14.28</v>
+      </c>
+      <c r="J71" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="5"/>
+      <c r="N71" s="5"/>
+      <c r="O71" s="5"/>
+      <c r="P71" s="5"/>
+      <c r="Q71" s="5"/>
+      <c r="R71" s="5"/>
+      <c r="S71" s="5"/>
+      <c r="T71" s="5"/>
+      <c r="U71" s="5"/>
+      <c r="V71" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="24">
     <mergeCell ref="J24:V24"/>
     <mergeCell ref="J25:V25"/>
     <mergeCell ref="J45:M45"/>
     <mergeCell ref="J46:M46"/>
     <mergeCell ref="J38:O38"/>
     <mergeCell ref="J37:M37"/>
-    <mergeCell ref="J31:V31"/>
-    <mergeCell ref="J32:V32"/>
+    <mergeCell ref="J65:V65"/>
+    <mergeCell ref="J66:V66"/>
     <mergeCell ref="J44:M44"/>
-    <mergeCell ref="J33:V33"/>
+    <mergeCell ref="J67:V67"/>
+    <mergeCell ref="J71:V71"/>
+    <mergeCell ref="O62:S62"/>
     <mergeCell ref="J9:V9"/>
     <mergeCell ref="J10:V10"/>
     <mergeCell ref="J18:V18"/>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tfp_pro\modinfo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D9E666-ABED-41D7-AE29-0BC0FAFBB943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FD89FF-821B-45E4-9BDA-C332C249B9FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11460" yWindow="2115" windowWidth="22665" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -280,6 +280,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -288,12 +294,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -578,18 +578,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:V71"/>
+  <dimension ref="A3:V72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F68" sqref="F68"/>
+      <selection activeCell="J76" sqref="J76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
@@ -600,7 +600,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -629,7 +629,7 @@
         <v>0.1363</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -658,7 +658,7 @@
         <v>0.1198</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -687,7 +687,7 @@
         <v>0.12089999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -715,23 +715,23 @@
       <c r="I9" s="2">
         <v>0.1225</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -759,23 +759,23 @@
       <c r="I10" s="2">
         <v>0.1226</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -803,23 +803,23 @@
       <c r="I11" s="2">
         <v>0.12</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -847,23 +847,23 @@
       <c r="I12" s="2">
         <v>0.1323</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -892,7 +892,7 @@
         <v>0.14430000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -921,7 +921,7 @@
         <v>0.14610000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -949,23 +949,23 @@
       <c r="I18" s="2">
         <v>0.16550000000000001</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="J18" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -993,23 +993,23 @@
       <c r="I19" s="2">
         <v>0.1507</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J19" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>13</v>
       </c>
@@ -1028,23 +1028,23 @@
       <c r="F24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J24" s="5" t="s">
+      <c r="J24" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>14</v>
       </c>
@@ -1063,23 +1063,23 @@
       <c r="F25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J25" s="5" t="s">
+      <c r="J25" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>13</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>0.12959999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>14</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>0.1295</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>20</v>
       </c>
@@ -1165,14 +1165,14 @@
       <c r="I37" s="2">
         <v>0.13450000000000001</v>
       </c>
-      <c r="J37" s="5" t="s">
+      <c r="J37" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>20</v>
       </c>
@@ -1200,16 +1200,16 @@
       <c r="I38" s="2">
         <v>0.1394</v>
       </c>
-      <c r="J38" s="5" t="s">
+      <c r="J38" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="7"/>
-      <c r="O38" s="7"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>13</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>0.12189999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>14</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>0.1249</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>20</v>
       </c>
@@ -1295,14 +1295,14 @@
       <c r="I44" s="2">
         <v>0.1235</v>
       </c>
-      <c r="J44" s="6" t="s">
+      <c r="J44" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>20</v>
       </c>
@@ -1330,14 +1330,14 @@
       <c r="I45" s="2">
         <v>0.1234</v>
       </c>
-      <c r="J45" s="5" t="s">
+      <c r="J45" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>20</v>
       </c>
@@ -1365,14 +1365,14 @@
       <c r="I46" s="2">
         <v>0.1249</v>
       </c>
-      <c r="J46" s="6" t="s">
+      <c r="J46" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>20</v>
       </c>
@@ -1400,16 +1400,16 @@
       <c r="I47" s="2">
         <v>0.12280000000000001</v>
       </c>
-      <c r="J47" s="5" t="s">
+      <c r="J47" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="5"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>20</v>
       </c>
@@ -1437,16 +1437,16 @@
       <c r="I48" s="2">
         <v>0.1222</v>
       </c>
-      <c r="J48" s="5" t="s">
+      <c r="J48" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="5"/>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>20</v>
       </c>
@@ -1474,16 +1474,16 @@
       <c r="I49" s="2">
         <v>0.1234</v>
       </c>
-      <c r="J49" s="5" t="s">
+      <c r="J49" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="K49" s="5"/>
-      <c r="L49" s="5"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="5"/>
-      <c r="O49" s="5"/>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>20</v>
       </c>
@@ -1511,16 +1511,16 @@
       <c r="I50" s="2">
         <v>0.1263</v>
       </c>
-      <c r="J50" s="5" t="s">
+      <c r="J50" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
-      <c r="N50" s="5"/>
-      <c r="O50" s="5"/>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>20</v>
       </c>
@@ -1548,16 +1548,16 @@
       <c r="I51" s="2">
         <v>0.1232</v>
       </c>
-      <c r="J51" s="5" t="s">
+      <c r="J51" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="5"/>
-      <c r="O51" s="5"/>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>20</v>
       </c>
@@ -1576,16 +1576,16 @@
       <c r="F52" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J52" s="5" t="s">
+      <c r="J52" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7"/>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>13</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>20</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>0.13650000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>13</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>0.13769999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>14</v>
       </c>
@@ -1717,8 +1717,8 @@
       <c r="R62" s="10"/>
       <c r="S62" s="10"/>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="F63" s="9"/>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="F63" s="6"/>
       <c r="G63" s="1">
         <v>20.94</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>0.14929999999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>20</v>
       </c>
@@ -1757,23 +1757,23 @@
       <c r="I65" s="2">
         <v>0.15129999999999999</v>
       </c>
-      <c r="J65" s="5" t="s">
+      <c r="J65" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K65" s="5"/>
-      <c r="L65" s="5"/>
-      <c r="M65" s="5"/>
-      <c r="N65" s="5"/>
-      <c r="O65" s="5"/>
-      <c r="P65" s="5"/>
-      <c r="Q65" s="5"/>
-      <c r="R65" s="5"/>
-      <c r="S65" s="5"/>
-      <c r="T65" s="5"/>
-      <c r="U65" s="5"/>
-      <c r="V65" s="5"/>
-    </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="7"/>
+      <c r="N65" s="7"/>
+      <c r="O65" s="7"/>
+      <c r="P65" s="7"/>
+      <c r="Q65" s="7"/>
+      <c r="R65" s="7"/>
+      <c r="S65" s="7"/>
+      <c r="T65" s="7"/>
+      <c r="U65" s="7"/>
+      <c r="V65" s="7"/>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>20</v>
       </c>
@@ -1801,23 +1801,23 @@
       <c r="I66" s="2">
         <v>0.14929999999999999</v>
       </c>
-      <c r="J66" s="5" t="s">
+      <c r="J66" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K66" s="5"/>
-      <c r="L66" s="5"/>
-      <c r="M66" s="5"/>
-      <c r="N66" s="5"/>
-      <c r="O66" s="5"/>
-      <c r="P66" s="5"/>
-      <c r="Q66" s="5"/>
-      <c r="R66" s="5"/>
-      <c r="S66" s="5"/>
-      <c r="T66" s="5"/>
-      <c r="U66" s="5"/>
-      <c r="V66" s="5"/>
-    </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K66" s="7"/>
+      <c r="L66" s="7"/>
+      <c r="M66" s="7"/>
+      <c r="N66" s="7"/>
+      <c r="O66" s="7"/>
+      <c r="P66" s="7"/>
+      <c r="Q66" s="7"/>
+      <c r="R66" s="7"/>
+      <c r="S66" s="7"/>
+      <c r="T66" s="7"/>
+      <c r="U66" s="7"/>
+      <c r="V66" s="7"/>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>20</v>
       </c>
@@ -1842,38 +1842,38 @@
       <c r="H67" s="4">
         <v>30.79</v>
       </c>
-      <c r="I67" s="8">
+      <c r="I67" s="5">
         <v>0.13739999999999999</v>
       </c>
-      <c r="J67" s="5" t="s">
+      <c r="J67" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K67" s="5"/>
-      <c r="L67" s="5"/>
-      <c r="M67" s="5"/>
-      <c r="N67" s="5"/>
-      <c r="O67" s="5"/>
-      <c r="P67" s="5"/>
-      <c r="Q67" s="5"/>
-      <c r="R67" s="5"/>
-      <c r="S67" s="5"/>
-      <c r="T67" s="5"/>
-      <c r="U67" s="5"/>
-      <c r="V67" s="5"/>
-    </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="F68" s="9"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="7"/>
+      <c r="M67" s="7"/>
+      <c r="N67" s="7"/>
+      <c r="O67" s="7"/>
+      <c r="P67" s="7"/>
+      <c r="Q67" s="7"/>
+      <c r="R67" s="7"/>
+      <c r="S67" s="7"/>
+      <c r="T67" s="7"/>
+      <c r="U67" s="7"/>
+      <c r="V67" s="7"/>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="F68" s="6"/>
       <c r="G68" s="4">
         <v>19.54</v>
       </c>
       <c r="H68" s="4">
         <v>30.83</v>
       </c>
-      <c r="I68" s="8">
+      <c r="I68" s="5">
         <v>0.13730000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>20</v>
       </c>
@@ -1898,51 +1898,62 @@
       <c r="H71" s="4">
         <v>30.83</v>
       </c>
-      <c r="I71" s="1">
-        <v>14.28</v>
-      </c>
-      <c r="J71" s="5" t="s">
+      <c r="I71" s="2">
+        <v>0.14280000000000001</v>
+      </c>
+      <c r="J71" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K71" s="5"/>
-      <c r="L71" s="5"/>
-      <c r="M71" s="5"/>
-      <c r="N71" s="5"/>
-      <c r="O71" s="5"/>
-      <c r="P71" s="5"/>
-      <c r="Q71" s="5"/>
-      <c r="R71" s="5"/>
-      <c r="S71" s="5"/>
-      <c r="T71" s="5"/>
-      <c r="U71" s="5"/>
-      <c r="V71" s="5"/>
+      <c r="K71" s="7"/>
+      <c r="L71" s="7"/>
+      <c r="M71" s="7"/>
+      <c r="N71" s="7"/>
+      <c r="O71" s="7"/>
+      <c r="P71" s="7"/>
+      <c r="Q71" s="7"/>
+      <c r="R71" s="7"/>
+      <c r="S71" s="7"/>
+      <c r="T71" s="7"/>
+      <c r="U71" s="7"/>
+      <c r="V71" s="7"/>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="G72" s="1">
+        <v>19.579999999999998</v>
+      </c>
+      <c r="H72" s="1">
+        <v>30.72</v>
+      </c>
+      <c r="I72" s="2">
+        <v>0.13980000000000001</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="J9:V9"/>
+    <mergeCell ref="J10:V10"/>
+    <mergeCell ref="J18:V18"/>
+    <mergeCell ref="J11:V11"/>
+    <mergeCell ref="J19:V19"/>
+    <mergeCell ref="J12:V12"/>
+    <mergeCell ref="J65:V65"/>
+    <mergeCell ref="J66:V66"/>
+    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="J67:V67"/>
+    <mergeCell ref="J71:V71"/>
+    <mergeCell ref="O62:S62"/>
+    <mergeCell ref="J52:O52"/>
+    <mergeCell ref="J49:O49"/>
+    <mergeCell ref="J48:O48"/>
+    <mergeCell ref="J47:O47"/>
+    <mergeCell ref="J51:O51"/>
+    <mergeCell ref="J50:O50"/>
     <mergeCell ref="J24:V24"/>
     <mergeCell ref="J25:V25"/>
     <mergeCell ref="J45:M45"/>
     <mergeCell ref="J46:M46"/>
     <mergeCell ref="J38:O38"/>
     <mergeCell ref="J37:M37"/>
-    <mergeCell ref="J65:V65"/>
-    <mergeCell ref="J66:V66"/>
-    <mergeCell ref="J44:M44"/>
-    <mergeCell ref="J67:V67"/>
-    <mergeCell ref="J71:V71"/>
-    <mergeCell ref="O62:S62"/>
-    <mergeCell ref="J9:V9"/>
-    <mergeCell ref="J10:V10"/>
-    <mergeCell ref="J18:V18"/>
-    <mergeCell ref="J11:V11"/>
-    <mergeCell ref="J19:V19"/>
-    <mergeCell ref="J12:V12"/>
-    <mergeCell ref="J52:O52"/>
-    <mergeCell ref="J49:O49"/>
-    <mergeCell ref="J48:O48"/>
-    <mergeCell ref="J47:O47"/>
-    <mergeCell ref="J51:O51"/>
-    <mergeCell ref="J50:O50"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FD89FF-821B-45E4-9BDA-C332C249B9FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0003F7-5502-4EBA-9876-82F7B26ED52C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11460" yWindow="2115" windowWidth="22665" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -292,11 +292,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -580,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:V72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="J76" sqref="J76"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="L72" sqref="L72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1206,8 +1206,8 @@
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
       <c r="M38" s="7"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
@@ -1709,13 +1709,13 @@
       <c r="L62" s="2">
         <v>0.14990000000000001</v>
       </c>
-      <c r="O62" s="10" t="s">
+      <c r="O62" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="P62" s="10"/>
-      <c r="Q62" s="10"/>
-      <c r="R62" s="10"/>
-      <c r="S62" s="10"/>
+      <c r="P62" s="9"/>
+      <c r="Q62" s="9"/>
+      <c r="R62" s="9"/>
+      <c r="S62" s="9"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F63" s="6"/>
@@ -1918,10 +1918,11 @@
       <c r="V71" s="7"/>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="G72" s="1">
+      <c r="F72" s="6"/>
+      <c r="G72" s="4">
         <v>19.579999999999998</v>
       </c>
-      <c r="H72" s="1">
+      <c r="H72" s="4">
         <v>30.72</v>
       </c>
       <c r="I72" s="2">
@@ -1930,12 +1931,12 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="J9:V9"/>
-    <mergeCell ref="J10:V10"/>
-    <mergeCell ref="J18:V18"/>
-    <mergeCell ref="J11:V11"/>
-    <mergeCell ref="J19:V19"/>
-    <mergeCell ref="J12:V12"/>
+    <mergeCell ref="J24:V24"/>
+    <mergeCell ref="J25:V25"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="J38:O38"/>
+    <mergeCell ref="J37:M37"/>
     <mergeCell ref="J65:V65"/>
     <mergeCell ref="J66:V66"/>
     <mergeCell ref="J44:M44"/>
@@ -1948,12 +1949,12 @@
     <mergeCell ref="J47:O47"/>
     <mergeCell ref="J51:O51"/>
     <mergeCell ref="J50:O50"/>
-    <mergeCell ref="J24:V24"/>
-    <mergeCell ref="J25:V25"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="J38:O38"/>
-    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="J9:V9"/>
+    <mergeCell ref="J10:V10"/>
+    <mergeCell ref="J18:V18"/>
+    <mergeCell ref="J11:V11"/>
+    <mergeCell ref="J19:V19"/>
+    <mergeCell ref="J12:V12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0003F7-5502-4EBA-9876-82F7B26ED52C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A925F91-2C4C-49F9-9D4F-F8E546EC7D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11460" yWindow="2115" windowWidth="22665" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="48">
   <si>
     <t>ST-SSL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -208,6 +208,14 @@
   </si>
   <si>
     <t>Intel(R) Xeon(R) CPU E5-2686 v4，4070 Ti-12G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加tod，dow，adp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加tod，dow，adp，注意力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -218,7 +226,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,6 +239,13 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.749992370372631"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -266,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -286,11 +301,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -578,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:V72"/>
+  <dimension ref="A3:V74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="L72" sqref="L72"/>
+      <selection activeCell="J75" sqref="J75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -715,21 +733,21 @@
       <c r="I9" s="2">
         <v>0.1225</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -759,21 +777,21 @@
       <c r="I10" s="2">
         <v>0.1226</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -803,21 +821,21 @@
       <c r="I11" s="2">
         <v>0.12</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -847,21 +865,21 @@
       <c r="I12" s="2">
         <v>0.1323</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="J12" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -949,21 +967,21 @@
       <c r="I18" s="2">
         <v>0.16550000000000001</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="J18" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
@@ -993,21 +1011,21 @@
       <c r="I19" s="2">
         <v>0.1507</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="J19" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
@@ -1028,21 +1046,21 @@
       <c r="F24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J24" s="7" t="s">
+      <c r="J24" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -1063,21 +1081,21 @@
       <c r="F25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J25" s="7" t="s">
+      <c r="J25" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
@@ -1165,12 +1183,12 @@
       <c r="I37" s="2">
         <v>0.13450000000000001</v>
       </c>
-      <c r="J37" s="7" t="s">
+      <c r="J37" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
@@ -1200,14 +1218,14 @@
       <c r="I38" s="2">
         <v>0.1394</v>
       </c>
-      <c r="J38" s="7" t="s">
+      <c r="J38" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
@@ -1330,12 +1348,12 @@
       <c r="I45" s="2">
         <v>0.1234</v>
       </c>
-      <c r="J45" s="7" t="s">
+      <c r="J45" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="7"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
@@ -1400,14 +1418,14 @@
       <c r="I47" s="2">
         <v>0.12280000000000001</v>
       </c>
-      <c r="J47" s="7" t="s">
+      <c r="J47" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="7"/>
-      <c r="O47" s="7"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
@@ -1437,14 +1455,14 @@
       <c r="I48" s="2">
         <v>0.1222</v>
       </c>
-      <c r="J48" s="7" t="s">
+      <c r="J48" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7"/>
-      <c r="M48" s="7"/>
-      <c r="N48" s="7"/>
-      <c r="O48" s="7"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
@@ -1474,14 +1492,14 @@
       <c r="I49" s="2">
         <v>0.1234</v>
       </c>
-      <c r="J49" s="7" t="s">
+      <c r="J49" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="K49" s="7"/>
-      <c r="L49" s="7"/>
-      <c r="M49" s="7"/>
-      <c r="N49" s="7"/>
-      <c r="O49" s="7"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
@@ -1511,14 +1529,14 @@
       <c r="I50" s="2">
         <v>0.1263</v>
       </c>
-      <c r="J50" s="7" t="s">
+      <c r="J50" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K50" s="7"/>
-      <c r="L50" s="7"/>
-      <c r="M50" s="7"/>
-      <c r="N50" s="7"/>
-      <c r="O50" s="7"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="9"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
@@ -1548,14 +1566,14 @@
       <c r="I51" s="2">
         <v>0.1232</v>
       </c>
-      <c r="J51" s="7" t="s">
+      <c r="J51" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="K51" s="7"/>
-      <c r="L51" s="7"/>
-      <c r="M51" s="7"/>
-      <c r="N51" s="7"/>
-      <c r="O51" s="7"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
@@ -1576,14 +1594,14 @@
       <c r="F52" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J52" s="7" t="s">
+      <c r="J52" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="K52" s="7"/>
-      <c r="L52" s="7"/>
-      <c r="M52" s="7"/>
-      <c r="N52" s="7"/>
-      <c r="O52" s="7"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
@@ -1709,16 +1727,16 @@
       <c r="L62" s="2">
         <v>0.14990000000000001</v>
       </c>
-      <c r="O62" s="9" t="s">
+      <c r="O62" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="P62" s="9"/>
-      <c r="Q62" s="9"/>
-      <c r="R62" s="9"/>
-      <c r="S62" s="9"/>
+      <c r="P62" s="10"/>
+      <c r="Q62" s="10"/>
+      <c r="R62" s="10"/>
+      <c r="S62" s="10"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="F63" s="6"/>
+      <c r="A63" s="6"/>
       <c r="G63" s="1">
         <v>20.94</v>
       </c>
@@ -1757,21 +1775,21 @@
       <c r="I65" s="2">
         <v>0.15129999999999999</v>
       </c>
-      <c r="J65" s="7" t="s">
+      <c r="J65" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K65" s="7"/>
-      <c r="L65" s="7"/>
-      <c r="M65" s="7"/>
-      <c r="N65" s="7"/>
-      <c r="O65" s="7"/>
-      <c r="P65" s="7"/>
-      <c r="Q65" s="7"/>
-      <c r="R65" s="7"/>
-      <c r="S65" s="7"/>
-      <c r="T65" s="7"/>
-      <c r="U65" s="7"/>
-      <c r="V65" s="7"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+      <c r="O65" s="9"/>
+      <c r="P65" s="9"/>
+      <c r="Q65" s="9"/>
+      <c r="R65" s="9"/>
+      <c r="S65" s="9"/>
+      <c r="T65" s="9"/>
+      <c r="U65" s="9"/>
+      <c r="V65" s="9"/>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
@@ -1801,21 +1819,21 @@
       <c r="I66" s="2">
         <v>0.14929999999999999</v>
       </c>
-      <c r="J66" s="7" t="s">
+      <c r="J66" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K66" s="7"/>
-      <c r="L66" s="7"/>
-      <c r="M66" s="7"/>
-      <c r="N66" s="7"/>
-      <c r="O66" s="7"/>
-      <c r="P66" s="7"/>
-      <c r="Q66" s="7"/>
-      <c r="R66" s="7"/>
-      <c r="S66" s="7"/>
-      <c r="T66" s="7"/>
-      <c r="U66" s="7"/>
-      <c r="V66" s="7"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+      <c r="O66" s="9"/>
+      <c r="P66" s="9"/>
+      <c r="Q66" s="9"/>
+      <c r="R66" s="9"/>
+      <c r="S66" s="9"/>
+      <c r="T66" s="9"/>
+      <c r="U66" s="9"/>
+      <c r="V66" s="9"/>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
@@ -1845,24 +1863,24 @@
       <c r="I67" s="5">
         <v>0.13739999999999999</v>
       </c>
-      <c r="J67" s="7" t="s">
+      <c r="J67" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="K67" s="7"/>
-      <c r="L67" s="7"/>
-      <c r="M67" s="7"/>
-      <c r="N67" s="7"/>
-      <c r="O67" s="7"/>
-      <c r="P67" s="7"/>
-      <c r="Q67" s="7"/>
-      <c r="R67" s="7"/>
-      <c r="S67" s="7"/>
-      <c r="T67" s="7"/>
-      <c r="U67" s="7"/>
-      <c r="V67" s="7"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="9"/>
+      <c r="O67" s="9"/>
+      <c r="P67" s="9"/>
+      <c r="Q67" s="9"/>
+      <c r="R67" s="9"/>
+      <c r="S67" s="9"/>
+      <c r="T67" s="9"/>
+      <c r="U67" s="9"/>
+      <c r="V67" s="9"/>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="F68" s="6"/>
+      <c r="A68" s="6"/>
       <c r="G68" s="4">
         <v>19.54</v>
       </c>
@@ -1901,24 +1919,24 @@
       <c r="I71" s="2">
         <v>0.14280000000000001</v>
       </c>
-      <c r="J71" s="7" t="s">
+      <c r="J71" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="K71" s="7"/>
-      <c r="L71" s="7"/>
-      <c r="M71" s="7"/>
-      <c r="N71" s="7"/>
-      <c r="O71" s="7"/>
-      <c r="P71" s="7"/>
-      <c r="Q71" s="7"/>
-      <c r="R71" s="7"/>
-      <c r="S71" s="7"/>
-      <c r="T71" s="7"/>
-      <c r="U71" s="7"/>
-      <c r="V71" s="7"/>
+      <c r="K71" s="9"/>
+      <c r="L71" s="9"/>
+      <c r="M71" s="9"/>
+      <c r="N71" s="9"/>
+      <c r="O71" s="9"/>
+      <c r="P71" s="9"/>
+      <c r="Q71" s="9"/>
+      <c r="R71" s="9"/>
+      <c r="S71" s="9"/>
+      <c r="T71" s="9"/>
+      <c r="U71" s="9"/>
+      <c r="V71" s="9"/>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="F72" s="6"/>
+      <c r="A72" s="7"/>
       <c r="G72" s="4">
         <v>19.579999999999998</v>
       </c>
@@ -1929,14 +1947,86 @@
         <v>0.13980000000000001</v>
       </c>
     </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A73" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G73" s="4">
+        <v>19.489999999999998</v>
+      </c>
+      <c r="H73" s="4">
+        <v>31.09</v>
+      </c>
+      <c r="I73" s="5">
+        <v>0.13669999999999999</v>
+      </c>
+      <c r="J73" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K73" s="8"/>
+      <c r="L73" s="8"/>
+      <c r="M73" s="8"/>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A74" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J74" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K74" s="8"/>
+      <c r="L74" s="8"/>
+      <c r="M74" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="26">
+    <mergeCell ref="J74:M74"/>
+    <mergeCell ref="J47:O47"/>
+    <mergeCell ref="J51:O51"/>
+    <mergeCell ref="J50:O50"/>
     <mergeCell ref="J24:V24"/>
     <mergeCell ref="J25:V25"/>
     <mergeCell ref="J45:M45"/>
     <mergeCell ref="J46:M46"/>
     <mergeCell ref="J38:O38"/>
     <mergeCell ref="J37:M37"/>
+    <mergeCell ref="J73:M73"/>
+    <mergeCell ref="J9:V9"/>
+    <mergeCell ref="J10:V10"/>
+    <mergeCell ref="J18:V18"/>
+    <mergeCell ref="J11:V11"/>
+    <mergeCell ref="J19:V19"/>
+    <mergeCell ref="J12:V12"/>
     <mergeCell ref="J65:V65"/>
     <mergeCell ref="J66:V66"/>
     <mergeCell ref="J44:M44"/>
@@ -1946,15 +2036,6 @@
     <mergeCell ref="J52:O52"/>
     <mergeCell ref="J49:O49"/>
     <mergeCell ref="J48:O48"/>
-    <mergeCell ref="J47:O47"/>
-    <mergeCell ref="J51:O51"/>
-    <mergeCell ref="J50:O50"/>
-    <mergeCell ref="J9:V9"/>
-    <mergeCell ref="J10:V10"/>
-    <mergeCell ref="J18:V18"/>
-    <mergeCell ref="J11:V11"/>
-    <mergeCell ref="J19:V19"/>
-    <mergeCell ref="J12:V12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tfp_pro\modinfo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A925F91-2C4C-49F9-9D4F-F8E546EC7D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1493289-128E-48C9-AC37-C7C607D08BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11460" yWindow="2115" windowWidth="22665" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="49">
   <si>
     <t>ST-SSL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -216,6 +216,10 @@
   </si>
   <si>
     <t>添加tod，dow，adp，注意力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加tod，dow，注意力，SSTBAN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -310,11 +314,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -596,18 +600,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:V74"/>
+  <dimension ref="A3:V75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="J75" sqref="J75"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="M81" sqref="M81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
@@ -618,7 +622,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -647,7 +651,7 @@
         <v>0.1363</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -676,7 +680,7 @@
         <v>0.1198</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -705,7 +709,7 @@
         <v>0.12089999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -749,7 +753,7 @@
       <c r="U9" s="9"/>
       <c r="V9" s="9"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -793,7 +797,7 @@
       <c r="U10" s="9"/>
       <c r="V10" s="9"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -837,7 +841,7 @@
       <c r="U11" s="9"/>
       <c r="V11" s="9"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -881,7 +885,7 @@
       <c r="U12" s="9"/>
       <c r="V12" s="9"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -910,7 +914,7 @@
         <v>0.14430000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -939,7 +943,7 @@
         <v>0.14610000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -983,7 +987,7 @@
       <c r="U18" s="9"/>
       <c r="V18" s="9"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -1027,7 +1031,7 @@
       <c r="U19" s="9"/>
       <c r="V19" s="9"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>13</v>
       </c>
@@ -1062,7 +1066,7 @@
       <c r="U24" s="9"/>
       <c r="V24" s="9"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>14</v>
       </c>
@@ -1097,7 +1101,7 @@
       <c r="U25" s="9"/>
       <c r="V25" s="9"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>13</v>
       </c>
@@ -1126,7 +1130,7 @@
         <v>0.12959999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>14</v>
       </c>
@@ -1155,7 +1159,7 @@
         <v>0.1295</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>20</v>
       </c>
@@ -1190,7 +1194,7 @@
       <c r="L37" s="9"/>
       <c r="M37" s="9"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>20</v>
       </c>
@@ -1224,10 +1228,10 @@
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
       <c r="M38" s="9"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>13</v>
       </c>
@@ -1256,7 +1260,7 @@
         <v>0.12189999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>14</v>
       </c>
@@ -1285,7 +1289,7 @@
         <v>0.1249</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>20</v>
       </c>
@@ -1320,7 +1324,7 @@
       <c r="L44" s="8"/>
       <c r="M44" s="8"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>20</v>
       </c>
@@ -1355,7 +1359,7 @@
       <c r="L45" s="9"/>
       <c r="M45" s="9"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,7 +1394,7 @@
       <c r="L46" s="8"/>
       <c r="M46" s="8"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>20</v>
       </c>
@@ -1427,7 +1431,7 @@
       <c r="N47" s="9"/>
       <c r="O47" s="9"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>20</v>
       </c>
@@ -1464,7 +1468,7 @@
       <c r="N48" s="9"/>
       <c r="O48" s="9"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>20</v>
       </c>
@@ -1501,7 +1505,7 @@
       <c r="N49" s="9"/>
       <c r="O49" s="9"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>20</v>
       </c>
@@ -1538,7 +1542,7 @@
       <c r="N50" s="9"/>
       <c r="O50" s="9"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>20</v>
       </c>
@@ -1575,7 +1579,7 @@
       <c r="N51" s="9"/>
       <c r="O51" s="9"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>20</v>
       </c>
@@ -1603,7 +1607,7 @@
       <c r="N52" s="9"/>
       <c r="O52" s="9"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>13</v>
       </c>
@@ -1632,7 +1636,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>20</v>
       </c>
@@ -1661,7 +1665,7 @@
         <v>0.13650000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>13</v>
       </c>
@@ -1690,7 +1694,7 @@
         <v>0.13769999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>14</v>
       </c>
@@ -1727,15 +1731,15 @@
       <c r="L62" s="2">
         <v>0.14990000000000001</v>
       </c>
-      <c r="O62" s="10" t="s">
+      <c r="O62" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="P62" s="10"/>
-      <c r="Q62" s="10"/>
-      <c r="R62" s="10"/>
-      <c r="S62" s="10"/>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="P62" s="11"/>
+      <c r="Q62" s="11"/>
+      <c r="R62" s="11"/>
+      <c r="S62" s="11"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="G63" s="1">
         <v>20.94</v>
@@ -1747,7 +1751,7 @@
         <v>0.14929999999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>20</v>
       </c>
@@ -1791,7 +1795,7 @@
       <c r="U65" s="9"/>
       <c r="V65" s="9"/>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>20</v>
       </c>
@@ -1835,7 +1839,7 @@
       <c r="U66" s="9"/>
       <c r="V66" s="9"/>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>20</v>
       </c>
@@ -1879,7 +1883,7 @@
       <c r="U67" s="9"/>
       <c r="V67" s="9"/>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="G68" s="4">
         <v>19.54</v>
@@ -1891,7 +1895,7 @@
         <v>0.13730000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>20</v>
       </c>
@@ -1935,7 +1939,7 @@
       <c r="U71" s="9"/>
       <c r="V71" s="9"/>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" s="7"/>
       <c r="G72" s="4">
         <v>19.579999999999998</v>
@@ -1947,7 +1951,7 @@
         <v>0.13980000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>20</v>
       </c>
@@ -1982,7 +1986,7 @@
       <c r="L73" s="8"/>
       <c r="M73" s="8"/>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>20</v>
       </c>
@@ -2000,6 +2004,15 @@
       </c>
       <c r="F74" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="G74" s="1">
+        <v>19.739999999999998</v>
+      </c>
+      <c r="H74" s="1">
+        <v>31.18</v>
+      </c>
+      <c r="I74" s="5">
+        <v>0.13469999999999999</v>
       </c>
       <c r="J74" s="8" t="s">
         <v>47</v>
@@ -2008,8 +2021,45 @@
       <c r="L74" s="8"/>
       <c r="M74" s="8"/>
     </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A75" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J75" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K75" s="8"/>
+      <c r="L75" s="8"/>
+      <c r="M75" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="27">
+    <mergeCell ref="O62:S62"/>
+    <mergeCell ref="J52:O52"/>
+    <mergeCell ref="J49:O49"/>
+    <mergeCell ref="J48:O48"/>
+    <mergeCell ref="J75:M75"/>
+    <mergeCell ref="J9:V9"/>
+    <mergeCell ref="J10:V10"/>
+    <mergeCell ref="J18:V18"/>
+    <mergeCell ref="J11:V11"/>
+    <mergeCell ref="J19:V19"/>
+    <mergeCell ref="J12:V12"/>
     <mergeCell ref="J74:M74"/>
     <mergeCell ref="J47:O47"/>
     <mergeCell ref="J51:O51"/>
@@ -2021,21 +2071,11 @@
     <mergeCell ref="J38:O38"/>
     <mergeCell ref="J37:M37"/>
     <mergeCell ref="J73:M73"/>
-    <mergeCell ref="J9:V9"/>
-    <mergeCell ref="J10:V10"/>
-    <mergeCell ref="J18:V18"/>
-    <mergeCell ref="J11:V11"/>
-    <mergeCell ref="J19:V19"/>
-    <mergeCell ref="J12:V12"/>
     <mergeCell ref="J65:V65"/>
     <mergeCell ref="J66:V66"/>
     <mergeCell ref="J44:M44"/>
     <mergeCell ref="J67:V67"/>
     <mergeCell ref="J71:V71"/>
-    <mergeCell ref="O62:S62"/>
-    <mergeCell ref="J52:O52"/>
-    <mergeCell ref="J49:O49"/>
-    <mergeCell ref="J48:O48"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1493289-128E-48C9-AC37-C7C607D08BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5BA2222-0F08-4B4C-983E-A67562C03A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -308,17 +308,17 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -602,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:V75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="M81" sqref="M81"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="V80" sqref="V80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1228,8 +1228,8 @@
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
       <c r="M38" s="9"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
@@ -1317,12 +1317,12 @@
       <c r="I44" s="2">
         <v>0.1235</v>
       </c>
-      <c r="J44" s="8" t="s">
+      <c r="J44" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
@@ -1387,12 +1387,12 @@
       <c r="I46" s="2">
         <v>0.1249</v>
       </c>
-      <c r="J46" s="8" t="s">
+      <c r="J46" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
@@ -1731,13 +1731,13 @@
       <c r="L62" s="2">
         <v>0.14990000000000001</v>
       </c>
-      <c r="O62" s="11" t="s">
+      <c r="O62" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="P62" s="11"/>
-      <c r="Q62" s="11"/>
-      <c r="R62" s="11"/>
-      <c r="S62" s="11"/>
+      <c r="P62" s="8"/>
+      <c r="Q62" s="8"/>
+      <c r="R62" s="8"/>
+      <c r="S62" s="8"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
@@ -1979,12 +1979,12 @@
       <c r="I73" s="5">
         <v>0.13669999999999999</v>
       </c>
-      <c r="J73" s="8" t="s">
+      <c r="J73" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="K73" s="8"/>
-      <c r="L73" s="8"/>
-      <c r="M73" s="8"/>
+      <c r="K73" s="10"/>
+      <c r="L73" s="10"/>
+      <c r="M73" s="10"/>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
@@ -2014,12 +2014,12 @@
       <c r="I74" s="5">
         <v>0.13469999999999999</v>
       </c>
-      <c r="J74" s="8" t="s">
+      <c r="J74" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="K74" s="8"/>
-      <c r="L74" s="8"/>
-      <c r="M74" s="8"/>
+      <c r="K74" s="10"/>
+      <c r="L74" s="10"/>
+      <c r="M74" s="10"/>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
@@ -2040,27 +2040,24 @@
       <c r="F75" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J75" s="8" t="s">
+      <c r="G75" s="1">
+        <v>19.510000000000002</v>
+      </c>
+      <c r="H75" s="1">
+        <v>31.04</v>
+      </c>
+      <c r="I75" s="2">
+        <v>0.13550000000000001</v>
+      </c>
+      <c r="J75" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="K75" s="8"/>
-      <c r="L75" s="8"/>
-      <c r="M75" s="8"/>
+      <c r="K75" s="10"/>
+      <c r="L75" s="10"/>
+      <c r="M75" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="O62:S62"/>
-    <mergeCell ref="J52:O52"/>
-    <mergeCell ref="J49:O49"/>
-    <mergeCell ref="J48:O48"/>
-    <mergeCell ref="J75:M75"/>
-    <mergeCell ref="J9:V9"/>
-    <mergeCell ref="J10:V10"/>
-    <mergeCell ref="J18:V18"/>
-    <mergeCell ref="J11:V11"/>
-    <mergeCell ref="J19:V19"/>
-    <mergeCell ref="J12:V12"/>
-    <mergeCell ref="J74:M74"/>
     <mergeCell ref="J47:O47"/>
     <mergeCell ref="J51:O51"/>
     <mergeCell ref="J50:O50"/>
@@ -2070,10 +2067,22 @@
     <mergeCell ref="J46:M46"/>
     <mergeCell ref="J38:O38"/>
     <mergeCell ref="J37:M37"/>
+    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="J9:V9"/>
+    <mergeCell ref="J10:V10"/>
+    <mergeCell ref="J18:V18"/>
+    <mergeCell ref="J11:V11"/>
+    <mergeCell ref="J19:V19"/>
+    <mergeCell ref="J12:V12"/>
+    <mergeCell ref="O62:S62"/>
+    <mergeCell ref="J52:O52"/>
+    <mergeCell ref="J49:O49"/>
+    <mergeCell ref="J48:O48"/>
+    <mergeCell ref="J75:M75"/>
+    <mergeCell ref="J74:M74"/>
     <mergeCell ref="J73:M73"/>
     <mergeCell ref="J65:V65"/>
     <mergeCell ref="J66:V66"/>
-    <mergeCell ref="J44:M44"/>
     <mergeCell ref="J67:V67"/>
     <mergeCell ref="J71:V71"/>
   </mergeCells>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5BA2222-0F08-4B4C-983E-A67562C03A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1339A49-7D48-4F3C-8B2E-E664191EEF75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="1908" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -308,9 +308,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -319,6 +316,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -602,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:V75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="V80" sqref="V80"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="H75" sqref="H75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -737,21 +737,21 @@
       <c r="I9" s="2">
         <v>0.1225</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -781,21 +781,21 @@
       <c r="I10" s="2">
         <v>0.1226</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -825,21 +825,21 @@
       <c r="I11" s="2">
         <v>0.12</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -869,21 +869,21 @@
       <c r="I12" s="2">
         <v>0.1323</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -971,21 +971,21 @@
       <c r="I18" s="2">
         <v>0.16550000000000001</v>
       </c>
-      <c r="J18" s="9" t="s">
+      <c r="J18" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -1015,21 +1015,21 @@
       <c r="I19" s="2">
         <v>0.1507</v>
       </c>
-      <c r="J19" s="9" t="s">
+      <c r="J19" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
@@ -1050,21 +1050,21 @@
       <c r="F24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J24" s="9" t="s">
+      <c r="J24" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -1085,21 +1085,21 @@
       <c r="F25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="J25" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
@@ -1187,12 +1187,12 @@
       <c r="I37" s="2">
         <v>0.13450000000000001</v>
       </c>
-      <c r="J37" s="9" t="s">
+      <c r="J37" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
@@ -1222,14 +1222,14 @@
       <c r="I38" s="2">
         <v>0.1394</v>
       </c>
-      <c r="J38" s="9" t="s">
+      <c r="J38" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
@@ -1317,12 +1317,12 @@
       <c r="I44" s="2">
         <v>0.1235</v>
       </c>
-      <c r="J44" s="10" t="s">
+      <c r="J44" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
@@ -1352,12 +1352,12 @@
       <c r="I45" s="2">
         <v>0.1234</v>
       </c>
-      <c r="J45" s="9" t="s">
+      <c r="J45" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
@@ -1387,12 +1387,12 @@
       <c r="I46" s="2">
         <v>0.1249</v>
       </c>
-      <c r="J46" s="10" t="s">
+      <c r="J46" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
@@ -1422,14 +1422,14 @@
       <c r="I47" s="2">
         <v>0.12280000000000001</v>
       </c>
-      <c r="J47" s="9" t="s">
+      <c r="J47" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
-      <c r="M47" s="9"/>
-      <c r="N47" s="9"/>
-      <c r="O47" s="9"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="8"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
@@ -1459,14 +1459,14 @@
       <c r="I48" s="2">
         <v>0.1222</v>
       </c>
-      <c r="J48" s="9" t="s">
+      <c r="J48" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
-      <c r="M48" s="9"/>
-      <c r="N48" s="9"/>
-      <c r="O48" s="9"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="8"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
@@ -1496,14 +1496,14 @@
       <c r="I49" s="2">
         <v>0.1234</v>
       </c>
-      <c r="J49" s="9" t="s">
+      <c r="J49" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="K49" s="9"/>
-      <c r="L49" s="9"/>
-      <c r="M49" s="9"/>
-      <c r="N49" s="9"/>
-      <c r="O49" s="9"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
@@ -1533,14 +1533,14 @@
       <c r="I50" s="2">
         <v>0.1263</v>
       </c>
-      <c r="J50" s="9" t="s">
+      <c r="J50" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
-      <c r="M50" s="9"/>
-      <c r="N50" s="9"/>
-      <c r="O50" s="9"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="8"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
@@ -1570,14 +1570,14 @@
       <c r="I51" s="2">
         <v>0.1232</v>
       </c>
-      <c r="J51" s="9" t="s">
+      <c r="J51" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="9"/>
-      <c r="N51" s="9"/>
-      <c r="O51" s="9"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+      <c r="O51" s="8"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
@@ -1598,14 +1598,14 @@
       <c r="F52" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J52" s="9" t="s">
+      <c r="J52" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="K52" s="9"/>
-      <c r="L52" s="9"/>
-      <c r="M52" s="9"/>
-      <c r="N52" s="9"/>
-      <c r="O52" s="9"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="8"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
@@ -1731,13 +1731,13 @@
       <c r="L62" s="2">
         <v>0.14990000000000001</v>
       </c>
-      <c r="O62" s="8" t="s">
+      <c r="O62" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="P62" s="8"/>
-      <c r="Q62" s="8"/>
-      <c r="R62" s="8"/>
-      <c r="S62" s="8"/>
+      <c r="P62" s="11"/>
+      <c r="Q62" s="11"/>
+      <c r="R62" s="11"/>
+      <c r="S62" s="11"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
@@ -1779,21 +1779,21 @@
       <c r="I65" s="2">
         <v>0.15129999999999999</v>
       </c>
-      <c r="J65" s="9" t="s">
+      <c r="J65" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K65" s="9"/>
-      <c r="L65" s="9"/>
-      <c r="M65" s="9"/>
-      <c r="N65" s="9"/>
-      <c r="O65" s="9"/>
-      <c r="P65" s="9"/>
-      <c r="Q65" s="9"/>
-      <c r="R65" s="9"/>
-      <c r="S65" s="9"/>
-      <c r="T65" s="9"/>
-      <c r="U65" s="9"/>
-      <c r="V65" s="9"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="8"/>
+      <c r="M65" s="8"/>
+      <c r="N65" s="8"/>
+      <c r="O65" s="8"/>
+      <c r="P65" s="8"/>
+      <c r="Q65" s="8"/>
+      <c r="R65" s="8"/>
+      <c r="S65" s="8"/>
+      <c r="T65" s="8"/>
+      <c r="U65" s="8"/>
+      <c r="V65" s="8"/>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
@@ -1823,21 +1823,21 @@
       <c r="I66" s="2">
         <v>0.14929999999999999</v>
       </c>
-      <c r="J66" s="9" t="s">
+      <c r="J66" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="K66" s="9"/>
-      <c r="L66" s="9"/>
-      <c r="M66" s="9"/>
-      <c r="N66" s="9"/>
-      <c r="O66" s="9"/>
-      <c r="P66" s="9"/>
-      <c r="Q66" s="9"/>
-      <c r="R66" s="9"/>
-      <c r="S66" s="9"/>
-      <c r="T66" s="9"/>
-      <c r="U66" s="9"/>
-      <c r="V66" s="9"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="8"/>
+      <c r="M66" s="8"/>
+      <c r="N66" s="8"/>
+      <c r="O66" s="8"/>
+      <c r="P66" s="8"/>
+      <c r="Q66" s="8"/>
+      <c r="R66" s="8"/>
+      <c r="S66" s="8"/>
+      <c r="T66" s="8"/>
+      <c r="U66" s="8"/>
+      <c r="V66" s="8"/>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
@@ -1867,21 +1867,21 @@
       <c r="I67" s="5">
         <v>0.13739999999999999</v>
       </c>
-      <c r="J67" s="9" t="s">
+      <c r="J67" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="K67" s="9"/>
-      <c r="L67" s="9"/>
-      <c r="M67" s="9"/>
-      <c r="N67" s="9"/>
-      <c r="O67" s="9"/>
-      <c r="P67" s="9"/>
-      <c r="Q67" s="9"/>
-      <c r="R67" s="9"/>
-      <c r="S67" s="9"/>
-      <c r="T67" s="9"/>
-      <c r="U67" s="9"/>
-      <c r="V67" s="9"/>
+      <c r="K67" s="8"/>
+      <c r="L67" s="8"/>
+      <c r="M67" s="8"/>
+      <c r="N67" s="8"/>
+      <c r="O67" s="8"/>
+      <c r="P67" s="8"/>
+      <c r="Q67" s="8"/>
+      <c r="R67" s="8"/>
+      <c r="S67" s="8"/>
+      <c r="T67" s="8"/>
+      <c r="U67" s="8"/>
+      <c r="V67" s="8"/>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
@@ -1923,21 +1923,21 @@
       <c r="I71" s="2">
         <v>0.14280000000000001</v>
       </c>
-      <c r="J71" s="9" t="s">
+      <c r="J71" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="K71" s="9"/>
-      <c r="L71" s="9"/>
-      <c r="M71" s="9"/>
-      <c r="N71" s="9"/>
-      <c r="O71" s="9"/>
-      <c r="P71" s="9"/>
-      <c r="Q71" s="9"/>
-      <c r="R71" s="9"/>
-      <c r="S71" s="9"/>
-      <c r="T71" s="9"/>
-      <c r="U71" s="9"/>
-      <c r="V71" s="9"/>
+      <c r="K71" s="8"/>
+      <c r="L71" s="8"/>
+      <c r="M71" s="8"/>
+      <c r="N71" s="8"/>
+      <c r="O71" s="8"/>
+      <c r="P71" s="8"/>
+      <c r="Q71" s="8"/>
+      <c r="R71" s="8"/>
+      <c r="S71" s="8"/>
+      <c r="T71" s="8"/>
+      <c r="U71" s="8"/>
+      <c r="V71" s="8"/>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" s="7"/>
@@ -1979,12 +1979,12 @@
       <c r="I73" s="5">
         <v>0.13669999999999999</v>
       </c>
-      <c r="J73" s="10" t="s">
+      <c r="J73" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="K73" s="10"/>
-      <c r="L73" s="10"/>
-      <c r="M73" s="10"/>
+      <c r="K73" s="9"/>
+      <c r="L73" s="9"/>
+      <c r="M73" s="9"/>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
@@ -2014,12 +2014,12 @@
       <c r="I74" s="5">
         <v>0.13469999999999999</v>
       </c>
-      <c r="J74" s="10" t="s">
+      <c r="J74" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="K74" s="10"/>
-      <c r="L74" s="10"/>
-      <c r="M74" s="10"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="9"/>
+      <c r="M74" s="9"/>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
@@ -2044,36 +2044,20 @@
         <v>19.510000000000002</v>
       </c>
       <c r="H75" s="1">
-        <v>31.04</v>
+        <v>30.79</v>
       </c>
       <c r="I75" s="2">
         <v>0.13550000000000001</v>
       </c>
-      <c r="J75" s="10" t="s">
+      <c r="J75" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="K75" s="10"/>
-      <c r="L75" s="10"/>
-      <c r="M75" s="10"/>
+      <c r="K75" s="9"/>
+      <c r="L75" s="9"/>
+      <c r="M75" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="J47:O47"/>
-    <mergeCell ref="J51:O51"/>
-    <mergeCell ref="J50:O50"/>
-    <mergeCell ref="J24:V24"/>
-    <mergeCell ref="J25:V25"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="J38:O38"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="J44:M44"/>
-    <mergeCell ref="J9:V9"/>
-    <mergeCell ref="J10:V10"/>
-    <mergeCell ref="J18:V18"/>
-    <mergeCell ref="J11:V11"/>
-    <mergeCell ref="J19:V19"/>
-    <mergeCell ref="J12:V12"/>
     <mergeCell ref="O62:S62"/>
     <mergeCell ref="J52:O52"/>
     <mergeCell ref="J49:O49"/>
@@ -2085,6 +2069,22 @@
     <mergeCell ref="J66:V66"/>
     <mergeCell ref="J67:V67"/>
     <mergeCell ref="J71:V71"/>
+    <mergeCell ref="J9:V9"/>
+    <mergeCell ref="J10:V10"/>
+    <mergeCell ref="J18:V18"/>
+    <mergeCell ref="J11:V11"/>
+    <mergeCell ref="J19:V19"/>
+    <mergeCell ref="J12:V12"/>
+    <mergeCell ref="J47:O47"/>
+    <mergeCell ref="J51:O51"/>
+    <mergeCell ref="J50:O50"/>
+    <mergeCell ref="J24:V24"/>
+    <mergeCell ref="J25:V25"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="J38:O38"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="J44:M44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A925F91-2C4C-49F9-9D4F-F8E546EC7D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A17E199-A771-41CF-B84E-3810EAF11125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11460" yWindow="2115" windowWidth="22665" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="50">
   <si>
     <t>ST-SSL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -216,6 +216,14 @@
   </si>
   <si>
     <t>添加tod，dow，adp，注意力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add tod，dow，只对flow标准化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add tod，dow，自适应嵌入，只对flow标准化，flow，tod，dow，adp嵌入维度16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -310,11 +318,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -596,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:V74"/>
+  <dimension ref="A3:V78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="J75" sqref="J75"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="N81" sqref="N81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1224,8 +1232,8 @@
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
       <c r="M38" s="9"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
@@ -1727,13 +1735,13 @@
       <c r="L62" s="2">
         <v>0.14990000000000001</v>
       </c>
-      <c r="O62" s="10" t="s">
+      <c r="O62" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="P62" s="10"/>
-      <c r="Q62" s="10"/>
-      <c r="R62" s="10"/>
-      <c r="S62" s="10"/>
+      <c r="P62" s="11"/>
+      <c r="Q62" s="11"/>
+      <c r="R62" s="11"/>
+      <c r="S62" s="11"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
@@ -2008,8 +2016,114 @@
       <c r="L74" s="8"/>
       <c r="M74" s="8"/>
     </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A75" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G75" s="1">
+        <v>19.760000000000002</v>
+      </c>
+      <c r="H75" s="1">
+        <v>31.17</v>
+      </c>
+      <c r="I75" s="2">
+        <v>0.13780000000000001</v>
+      </c>
+      <c r="J75" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K75" s="8"/>
+      <c r="L75" s="8"/>
+      <c r="M75" s="8"/>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A76" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G76" s="4">
+        <v>19.18</v>
+      </c>
+      <c r="H76" s="4">
+        <v>30.55</v>
+      </c>
+      <c r="I76" s="5">
+        <v>0.1348</v>
+      </c>
+      <c r="J76" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K76" s="8"/>
+      <c r="L76" s="8"/>
+      <c r="M76" s="8"/>
+      <c r="N76" s="8"/>
+      <c r="O76" s="8"/>
+      <c r="P76" s="8"/>
+      <c r="Q76" s="8"/>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="J77" s="8"/>
+      <c r="K77" s="8"/>
+      <c r="L77" s="8"/>
+      <c r="M77" s="8"/>
+      <c r="N77" s="8"/>
+      <c r="O77" s="8"/>
+      <c r="P77" s="8"/>
+      <c r="Q77" s="8"/>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="8"/>
+      <c r="M78" s="8"/>
+      <c r="N78" s="8"/>
+      <c r="O78" s="8"/>
+      <c r="P78" s="8"/>
+      <c r="Q78" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="28">
+    <mergeCell ref="J76:Q78"/>
+    <mergeCell ref="O62:S62"/>
+    <mergeCell ref="J52:O52"/>
+    <mergeCell ref="J49:O49"/>
+    <mergeCell ref="J48:O48"/>
+    <mergeCell ref="J75:M75"/>
+    <mergeCell ref="J9:V9"/>
+    <mergeCell ref="J10:V10"/>
+    <mergeCell ref="J18:V18"/>
+    <mergeCell ref="J11:V11"/>
+    <mergeCell ref="J19:V19"/>
+    <mergeCell ref="J12:V12"/>
     <mergeCell ref="J74:M74"/>
     <mergeCell ref="J47:O47"/>
     <mergeCell ref="J51:O51"/>
@@ -2021,21 +2135,11 @@
     <mergeCell ref="J38:O38"/>
     <mergeCell ref="J37:M37"/>
     <mergeCell ref="J73:M73"/>
-    <mergeCell ref="J9:V9"/>
-    <mergeCell ref="J10:V10"/>
-    <mergeCell ref="J18:V18"/>
-    <mergeCell ref="J11:V11"/>
-    <mergeCell ref="J19:V19"/>
-    <mergeCell ref="J12:V12"/>
     <mergeCell ref="J65:V65"/>
     <mergeCell ref="J66:V66"/>
     <mergeCell ref="J44:M44"/>
     <mergeCell ref="J67:V67"/>
     <mergeCell ref="J71:V71"/>
-    <mergeCell ref="O62:S62"/>
-    <mergeCell ref="J52:O52"/>
-    <mergeCell ref="J49:O49"/>
-    <mergeCell ref="J48:O48"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A17E199-A771-41CF-B84E-3810EAF11125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1073FC42-509F-4757-A564-AF15DF5C514A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11460" yWindow="2115" windowWidth="22665" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="50">
   <si>
     <t>ST-SSL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -289,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -315,13 +315,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -604,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:V78"/>
+  <dimension ref="A3:V82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="N81" sqref="N81"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="G91" sqref="G91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -741,21 +744,21 @@
       <c r="I9" s="2">
         <v>0.1225</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -785,21 +788,21 @@
       <c r="I10" s="2">
         <v>0.1226</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -829,21 +832,21 @@
       <c r="I11" s="2">
         <v>0.12</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -873,21 +876,21 @@
       <c r="I12" s="2">
         <v>0.1323</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J12" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -975,21 +978,21 @@
       <c r="I18" s="2">
         <v>0.16550000000000001</v>
       </c>
-      <c r="J18" s="9" t="s">
+      <c r="J18" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
@@ -1019,21 +1022,21 @@
       <c r="I19" s="2">
         <v>0.1507</v>
       </c>
-      <c r="J19" s="9" t="s">
+      <c r="J19" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
@@ -1054,21 +1057,21 @@
       <c r="F24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J24" s="9" t="s">
+      <c r="J24" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -1089,21 +1092,21 @@
       <c r="F25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="J25" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
@@ -1191,12 +1194,12 @@
       <c r="I37" s="2">
         <v>0.13450000000000001</v>
       </c>
-      <c r="J37" s="9" t="s">
+      <c r="J37" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
@@ -1226,14 +1229,14 @@
       <c r="I38" s="2">
         <v>0.1394</v>
       </c>
-      <c r="J38" s="9" t="s">
+      <c r="J38" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
@@ -1356,12 +1359,12 @@
       <c r="I45" s="2">
         <v>0.1234</v>
       </c>
-      <c r="J45" s="9" t="s">
+      <c r="J45" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
@@ -1426,14 +1429,14 @@
       <c r="I47" s="2">
         <v>0.12280000000000001</v>
       </c>
-      <c r="J47" s="9" t="s">
+      <c r="J47" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
-      <c r="M47" s="9"/>
-      <c r="N47" s="9"/>
-      <c r="O47" s="9"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
@@ -1463,14 +1466,14 @@
       <c r="I48" s="2">
         <v>0.1222</v>
       </c>
-      <c r="J48" s="9" t="s">
+      <c r="J48" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
-      <c r="M48" s="9"/>
-      <c r="N48" s="9"/>
-      <c r="O48" s="9"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
@@ -1500,14 +1503,14 @@
       <c r="I49" s="2">
         <v>0.1234</v>
       </c>
-      <c r="J49" s="9" t="s">
+      <c r="J49" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="K49" s="9"/>
-      <c r="L49" s="9"/>
-      <c r="M49" s="9"/>
-      <c r="N49" s="9"/>
-      <c r="O49" s="9"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
@@ -1537,14 +1540,14 @@
       <c r="I50" s="2">
         <v>0.1263</v>
       </c>
-      <c r="J50" s="9" t="s">
+      <c r="J50" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
-      <c r="M50" s="9"/>
-      <c r="N50" s="9"/>
-      <c r="O50" s="9"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
@@ -1574,14 +1577,14 @@
       <c r="I51" s="2">
         <v>0.1232</v>
       </c>
-      <c r="J51" s="9" t="s">
+      <c r="J51" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="9"/>
-      <c r="N51" s="9"/>
-      <c r="O51" s="9"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
@@ -1602,14 +1605,14 @@
       <c r="F52" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J52" s="9" t="s">
+      <c r="J52" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="K52" s="9"/>
-      <c r="L52" s="9"/>
-      <c r="M52" s="9"/>
-      <c r="N52" s="9"/>
-      <c r="O52" s="9"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
@@ -1735,13 +1738,13 @@
       <c r="L62" s="2">
         <v>0.14990000000000001</v>
       </c>
-      <c r="O62" s="11" t="s">
+      <c r="O62" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="P62" s="11"/>
-      <c r="Q62" s="11"/>
-      <c r="R62" s="11"/>
-      <c r="S62" s="11"/>
+      <c r="P62" s="9"/>
+      <c r="Q62" s="9"/>
+      <c r="R62" s="9"/>
+      <c r="S62" s="9"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
@@ -1783,21 +1786,21 @@
       <c r="I65" s="2">
         <v>0.15129999999999999</v>
       </c>
-      <c r="J65" s="9" t="s">
+      <c r="J65" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="K65" s="9"/>
-      <c r="L65" s="9"/>
-      <c r="M65" s="9"/>
-      <c r="N65" s="9"/>
-      <c r="O65" s="9"/>
-      <c r="P65" s="9"/>
-      <c r="Q65" s="9"/>
-      <c r="R65" s="9"/>
-      <c r="S65" s="9"/>
-      <c r="T65" s="9"/>
-      <c r="U65" s="9"/>
-      <c r="V65" s="9"/>
+      <c r="K65" s="10"/>
+      <c r="L65" s="10"/>
+      <c r="M65" s="10"/>
+      <c r="N65" s="10"/>
+      <c r="O65" s="10"/>
+      <c r="P65" s="10"/>
+      <c r="Q65" s="10"/>
+      <c r="R65" s="10"/>
+      <c r="S65" s="10"/>
+      <c r="T65" s="10"/>
+      <c r="U65" s="10"/>
+      <c r="V65" s="10"/>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
@@ -1827,21 +1830,21 @@
       <c r="I66" s="2">
         <v>0.14929999999999999</v>
       </c>
-      <c r="J66" s="9" t="s">
+      <c r="J66" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="K66" s="9"/>
-      <c r="L66" s="9"/>
-      <c r="M66" s="9"/>
-      <c r="N66" s="9"/>
-      <c r="O66" s="9"/>
-      <c r="P66" s="9"/>
-      <c r="Q66" s="9"/>
-      <c r="R66" s="9"/>
-      <c r="S66" s="9"/>
-      <c r="T66" s="9"/>
-      <c r="U66" s="9"/>
-      <c r="V66" s="9"/>
+      <c r="K66" s="10"/>
+      <c r="L66" s="10"/>
+      <c r="M66" s="10"/>
+      <c r="N66" s="10"/>
+      <c r="O66" s="10"/>
+      <c r="P66" s="10"/>
+      <c r="Q66" s="10"/>
+      <c r="R66" s="10"/>
+      <c r="S66" s="10"/>
+      <c r="T66" s="10"/>
+      <c r="U66" s="10"/>
+      <c r="V66" s="10"/>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
@@ -1871,21 +1874,21 @@
       <c r="I67" s="5">
         <v>0.13739999999999999</v>
       </c>
-      <c r="J67" s="9" t="s">
+      <c r="J67" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="K67" s="9"/>
-      <c r="L67" s="9"/>
-      <c r="M67" s="9"/>
-      <c r="N67" s="9"/>
-      <c r="O67" s="9"/>
-      <c r="P67" s="9"/>
-      <c r="Q67" s="9"/>
-      <c r="R67" s="9"/>
-      <c r="S67" s="9"/>
-      <c r="T67" s="9"/>
-      <c r="U67" s="9"/>
-      <c r="V67" s="9"/>
+      <c r="K67" s="10"/>
+      <c r="L67" s="10"/>
+      <c r="M67" s="10"/>
+      <c r="N67" s="10"/>
+      <c r="O67" s="10"/>
+      <c r="P67" s="10"/>
+      <c r="Q67" s="10"/>
+      <c r="R67" s="10"/>
+      <c r="S67" s="10"/>
+      <c r="T67" s="10"/>
+      <c r="U67" s="10"/>
+      <c r="V67" s="10"/>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" s="6"/>
@@ -1927,21 +1930,21 @@
       <c r="I71" s="2">
         <v>0.14280000000000001</v>
       </c>
-      <c r="J71" s="9" t="s">
+      <c r="J71" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="K71" s="9"/>
-      <c r="L71" s="9"/>
-      <c r="M71" s="9"/>
-      <c r="N71" s="9"/>
-      <c r="O71" s="9"/>
-      <c r="P71" s="9"/>
-      <c r="Q71" s="9"/>
-      <c r="R71" s="9"/>
-      <c r="S71" s="9"/>
-      <c r="T71" s="9"/>
-      <c r="U71" s="9"/>
-      <c r="V71" s="9"/>
+      <c r="K71" s="10"/>
+      <c r="L71" s="10"/>
+      <c r="M71" s="10"/>
+      <c r="N71" s="10"/>
+      <c r="O71" s="10"/>
+      <c r="P71" s="10"/>
+      <c r="Q71" s="10"/>
+      <c r="R71" s="10"/>
+      <c r="S71" s="10"/>
+      <c r="T71" s="10"/>
+      <c r="U71" s="10"/>
+      <c r="V71" s="10"/>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" s="7"/>
@@ -2052,8 +2055,8 @@
       <c r="M75" s="8"/>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A76" s="6" t="s">
-        <v>20</v>
+      <c r="A76" s="6">
+        <v>13</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>27</v>
@@ -2110,21 +2113,88 @@
       <c r="P78" s="8"/>
       <c r="Q78" s="8"/>
     </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A79" s="12">
+        <v>14</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A80" s="12">
+        <v>16</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="12">
+        <v>17</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="12">
+        <v>18</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="J76:Q78"/>
-    <mergeCell ref="O62:S62"/>
-    <mergeCell ref="J52:O52"/>
-    <mergeCell ref="J49:O49"/>
-    <mergeCell ref="J48:O48"/>
-    <mergeCell ref="J75:M75"/>
-    <mergeCell ref="J9:V9"/>
-    <mergeCell ref="J10:V10"/>
-    <mergeCell ref="J18:V18"/>
-    <mergeCell ref="J11:V11"/>
-    <mergeCell ref="J19:V19"/>
-    <mergeCell ref="J12:V12"/>
-    <mergeCell ref="J74:M74"/>
     <mergeCell ref="J47:O47"/>
     <mergeCell ref="J51:O51"/>
     <mergeCell ref="J50:O50"/>
@@ -2134,10 +2204,23 @@
     <mergeCell ref="J46:M46"/>
     <mergeCell ref="J38:O38"/>
     <mergeCell ref="J37:M37"/>
+    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="J9:V9"/>
+    <mergeCell ref="J10:V10"/>
+    <mergeCell ref="J18:V18"/>
+    <mergeCell ref="J11:V11"/>
+    <mergeCell ref="J19:V19"/>
+    <mergeCell ref="J12:V12"/>
+    <mergeCell ref="J76:Q78"/>
+    <mergeCell ref="O62:S62"/>
+    <mergeCell ref="J52:O52"/>
+    <mergeCell ref="J49:O49"/>
+    <mergeCell ref="J48:O48"/>
+    <mergeCell ref="J75:M75"/>
+    <mergeCell ref="J74:M74"/>
     <mergeCell ref="J73:M73"/>
     <mergeCell ref="J65:V65"/>
     <mergeCell ref="J66:V66"/>
-    <mergeCell ref="J44:M44"/>
     <mergeCell ref="J67:V67"/>
     <mergeCell ref="J71:V71"/>
   </mergeCells>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1073FC42-509F-4757-A564-AF15DF5C514A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B224941D-525E-4981-A00C-648265041BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11460" yWindow="2115" windowWidth="22665" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6585" yWindow="1605" windowWidth="22665" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -289,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -313,18 +313,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -610,7 +607,7 @@
   <dimension ref="A3:V82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="G91" sqref="G91"/>
+      <selection activeCell="I82" sqref="I82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -744,21 +741,21 @@
       <c r="I9" s="2">
         <v>0.1225</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -788,21 +785,21 @@
       <c r="I10" s="2">
         <v>0.1226</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -832,21 +829,21 @@
       <c r="I11" s="2">
         <v>0.12</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -876,21 +873,21 @@
       <c r="I12" s="2">
         <v>0.1323</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -978,21 +975,21 @@
       <c r="I18" s="2">
         <v>0.16550000000000001</v>
       </c>
-      <c r="J18" s="10" t="s">
+      <c r="J18" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
@@ -1022,21 +1019,21 @@
       <c r="I19" s="2">
         <v>0.1507</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="J19" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="10"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
@@ -1057,21 +1054,21 @@
       <c r="F24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J24" s="10" t="s">
+      <c r="J24" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="10"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -1092,21 +1089,21 @@
       <c r="F25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J25" s="10" t="s">
+      <c r="J25" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="10"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="10"/>
-      <c r="V25" s="10"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
@@ -1194,12 +1191,12 @@
       <c r="I37" s="2">
         <v>0.13450000000000001</v>
       </c>
-      <c r="J37" s="10" t="s">
+      <c r="J37" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
@@ -1229,14 +1226,14 @@
       <c r="I38" s="2">
         <v>0.1394</v>
       </c>
-      <c r="J38" s="10" t="s">
+      <c r="J38" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
@@ -1324,12 +1321,12 @@
       <c r="I44" s="2">
         <v>0.1235</v>
       </c>
-      <c r="J44" s="8" t="s">
+      <c r="J44" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
@@ -1359,12 +1356,12 @@
       <c r="I45" s="2">
         <v>0.1234</v>
       </c>
-      <c r="J45" s="10" t="s">
+      <c r="J45" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
@@ -1394,12 +1391,12 @@
       <c r="I46" s="2">
         <v>0.1249</v>
       </c>
-      <c r="J46" s="8" t="s">
+      <c r="J46" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
@@ -1429,14 +1426,14 @@
       <c r="I47" s="2">
         <v>0.12280000000000001</v>
       </c>
-      <c r="J47" s="10" t="s">
+      <c r="J47" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
-      <c r="O47" s="10"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="8"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
@@ -1466,14 +1463,14 @@
       <c r="I48" s="2">
         <v>0.1222</v>
       </c>
-      <c r="J48" s="10" t="s">
+      <c r="J48" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
-      <c r="O48" s="10"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="8"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
@@ -1503,14 +1500,14 @@
       <c r="I49" s="2">
         <v>0.1234</v>
       </c>
-      <c r="J49" s="10" t="s">
+      <c r="J49" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="10"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
@@ -1540,14 +1537,14 @@
       <c r="I50" s="2">
         <v>0.1263</v>
       </c>
-      <c r="J50" s="10" t="s">
+      <c r="J50" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="K50" s="10"/>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
-      <c r="O50" s="10"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="8"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
@@ -1577,14 +1574,14 @@
       <c r="I51" s="2">
         <v>0.1232</v>
       </c>
-      <c r="J51" s="10" t="s">
+      <c r="J51" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="K51" s="10"/>
-      <c r="L51" s="10"/>
-      <c r="M51" s="10"/>
-      <c r="N51" s="10"/>
-      <c r="O51" s="10"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+      <c r="O51" s="8"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
@@ -1605,14 +1602,14 @@
       <c r="F52" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J52" s="10" t="s">
+      <c r="J52" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="K52" s="10"/>
-      <c r="L52" s="10"/>
-      <c r="M52" s="10"/>
-      <c r="N52" s="10"/>
-      <c r="O52" s="10"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="8"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
@@ -1738,13 +1735,13 @@
       <c r="L62" s="2">
         <v>0.14990000000000001</v>
       </c>
-      <c r="O62" s="9" t="s">
+      <c r="O62" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="P62" s="9"/>
-      <c r="Q62" s="9"/>
-      <c r="R62" s="9"/>
-      <c r="S62" s="9"/>
+      <c r="P62" s="11"/>
+      <c r="Q62" s="11"/>
+      <c r="R62" s="11"/>
+      <c r="S62" s="11"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
@@ -1786,21 +1783,21 @@
       <c r="I65" s="2">
         <v>0.15129999999999999</v>
       </c>
-      <c r="J65" s="10" t="s">
+      <c r="J65" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K65" s="10"/>
-      <c r="L65" s="10"/>
-      <c r="M65" s="10"/>
-      <c r="N65" s="10"/>
-      <c r="O65" s="10"/>
-      <c r="P65" s="10"/>
-      <c r="Q65" s="10"/>
-      <c r="R65" s="10"/>
-      <c r="S65" s="10"/>
-      <c r="T65" s="10"/>
-      <c r="U65" s="10"/>
-      <c r="V65" s="10"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="8"/>
+      <c r="M65" s="8"/>
+      <c r="N65" s="8"/>
+      <c r="O65" s="8"/>
+      <c r="P65" s="8"/>
+      <c r="Q65" s="8"/>
+      <c r="R65" s="8"/>
+      <c r="S65" s="8"/>
+      <c r="T65" s="8"/>
+      <c r="U65" s="8"/>
+      <c r="V65" s="8"/>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
@@ -1830,21 +1827,21 @@
       <c r="I66" s="2">
         <v>0.14929999999999999</v>
       </c>
-      <c r="J66" s="10" t="s">
+      <c r="J66" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="K66" s="10"/>
-      <c r="L66" s="10"/>
-      <c r="M66" s="10"/>
-      <c r="N66" s="10"/>
-      <c r="O66" s="10"/>
-      <c r="P66" s="10"/>
-      <c r="Q66" s="10"/>
-      <c r="R66" s="10"/>
-      <c r="S66" s="10"/>
-      <c r="T66" s="10"/>
-      <c r="U66" s="10"/>
-      <c r="V66" s="10"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="8"/>
+      <c r="M66" s="8"/>
+      <c r="N66" s="8"/>
+      <c r="O66" s="8"/>
+      <c r="P66" s="8"/>
+      <c r="Q66" s="8"/>
+      <c r="R66" s="8"/>
+      <c r="S66" s="8"/>
+      <c r="T66" s="8"/>
+      <c r="U66" s="8"/>
+      <c r="V66" s="8"/>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
@@ -1874,21 +1871,21 @@
       <c r="I67" s="5">
         <v>0.13739999999999999</v>
       </c>
-      <c r="J67" s="10" t="s">
+      <c r="J67" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="K67" s="10"/>
-      <c r="L67" s="10"/>
-      <c r="M67" s="10"/>
-      <c r="N67" s="10"/>
-      <c r="O67" s="10"/>
-      <c r="P67" s="10"/>
-      <c r="Q67" s="10"/>
-      <c r="R67" s="10"/>
-      <c r="S67" s="10"/>
-      <c r="T67" s="10"/>
-      <c r="U67" s="10"/>
-      <c r="V67" s="10"/>
+      <c r="K67" s="8"/>
+      <c r="L67" s="8"/>
+      <c r="M67" s="8"/>
+      <c r="N67" s="8"/>
+      <c r="O67" s="8"/>
+      <c r="P67" s="8"/>
+      <c r="Q67" s="8"/>
+      <c r="R67" s="8"/>
+      <c r="S67" s="8"/>
+      <c r="T67" s="8"/>
+      <c r="U67" s="8"/>
+      <c r="V67" s="8"/>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" s="6"/>
@@ -1930,21 +1927,21 @@
       <c r="I71" s="2">
         <v>0.14280000000000001</v>
       </c>
-      <c r="J71" s="10" t="s">
+      <c r="J71" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="K71" s="10"/>
-      <c r="L71" s="10"/>
-      <c r="M71" s="10"/>
-      <c r="N71" s="10"/>
-      <c r="O71" s="10"/>
-      <c r="P71" s="10"/>
-      <c r="Q71" s="10"/>
-      <c r="R71" s="10"/>
-      <c r="S71" s="10"/>
-      <c r="T71" s="10"/>
-      <c r="U71" s="10"/>
-      <c r="V71" s="10"/>
+      <c r="K71" s="8"/>
+      <c r="L71" s="8"/>
+      <c r="M71" s="8"/>
+      <c r="N71" s="8"/>
+      <c r="O71" s="8"/>
+      <c r="P71" s="8"/>
+      <c r="Q71" s="8"/>
+      <c r="R71" s="8"/>
+      <c r="S71" s="8"/>
+      <c r="T71" s="8"/>
+      <c r="U71" s="8"/>
+      <c r="V71" s="8"/>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" s="7"/>
@@ -1986,12 +1983,12 @@
       <c r="I73" s="5">
         <v>0.13669999999999999</v>
       </c>
-      <c r="J73" s="8" t="s">
+      <c r="J73" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="K73" s="8"/>
-      <c r="L73" s="8"/>
-      <c r="M73" s="8"/>
+      <c r="K73" s="9"/>
+      <c r="L73" s="9"/>
+      <c r="M73" s="9"/>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
@@ -2012,12 +2009,12 @@
       <c r="F74" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J74" s="8" t="s">
+      <c r="J74" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="K74" s="8"/>
-      <c r="L74" s="8"/>
-      <c r="M74" s="8"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="9"/>
+      <c r="M74" s="9"/>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
@@ -2047,12 +2044,12 @@
       <c r="I75" s="2">
         <v>0.13780000000000001</v>
       </c>
-      <c r="J75" s="8" t="s">
+      <c r="J75" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="K75" s="8"/>
-      <c r="L75" s="8"/>
-      <c r="M75" s="8"/>
+      <c r="K75" s="9"/>
+      <c r="L75" s="9"/>
+      <c r="M75" s="9"/>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
@@ -2082,39 +2079,39 @@
       <c r="I76" s="5">
         <v>0.1348</v>
       </c>
-      <c r="J76" s="8" t="s">
+      <c r="J76" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="K76" s="8"/>
-      <c r="L76" s="8"/>
-      <c r="M76" s="8"/>
-      <c r="N76" s="8"/>
-      <c r="O76" s="8"/>
-      <c r="P76" s="8"/>
-      <c r="Q76" s="8"/>
+      <c r="K76" s="9"/>
+      <c r="L76" s="9"/>
+      <c r="M76" s="9"/>
+      <c r="N76" s="9"/>
+      <c r="O76" s="9"/>
+      <c r="P76" s="9"/>
+      <c r="Q76" s="9"/>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="J77" s="8"/>
-      <c r="K77" s="8"/>
-      <c r="L77" s="8"/>
-      <c r="M77" s="8"/>
-      <c r="N77" s="8"/>
-      <c r="O77" s="8"/>
-      <c r="P77" s="8"/>
-      <c r="Q77" s="8"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c r="L77" s="9"/>
+      <c r="M77" s="9"/>
+      <c r="N77" s="9"/>
+      <c r="O77" s="9"/>
+      <c r="P77" s="9"/>
+      <c r="Q77" s="9"/>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="J78" s="8"/>
-      <c r="K78" s="8"/>
-      <c r="L78" s="8"/>
-      <c r="M78" s="8"/>
-      <c r="N78" s="8"/>
-      <c r="O78" s="8"/>
-      <c r="P78" s="8"/>
-      <c r="Q78" s="8"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c r="L78" s="9"/>
+      <c r="M78" s="9"/>
+      <c r="N78" s="9"/>
+      <c r="O78" s="9"/>
+      <c r="P78" s="9"/>
+      <c r="Q78" s="9"/>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A79" s="12">
+      <c r="A79" s="1">
         <v>14</v>
       </c>
       <c r="B79" s="1" t="s">
@@ -2132,9 +2129,18 @@
       <c r="F79" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="G79" s="1">
+        <v>19.78</v>
+      </c>
+      <c r="H79" s="1">
+        <v>31.08</v>
+      </c>
+      <c r="I79" s="2">
+        <v>0.13689999999999999</v>
+      </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A80" s="12">
+      <c r="A80" s="1">
         <v>16</v>
       </c>
       <c r="B80" s="1" t="s">
@@ -2152,9 +2158,18 @@
       <c r="F80" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="12">
+      <c r="G80" s="1">
+        <v>20.97</v>
+      </c>
+      <c r="H80" s="1">
+        <v>32.520000000000003</v>
+      </c>
+      <c r="I80" s="2">
+        <v>0.14749999999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
         <v>17</v>
       </c>
       <c r="B81" s="1" t="s">
@@ -2172,9 +2187,18 @@
       <c r="F81" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="12">
+      <c r="G81" s="1">
+        <v>23.85</v>
+      </c>
+      <c r="H81" s="1">
+        <v>35.409999999999997</v>
+      </c>
+      <c r="I81" s="2">
+        <v>0.20910000000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
         <v>18</v>
       </c>
       <c r="B82" s="1" t="s">
@@ -2192,25 +2216,18 @@
       <c r="F82" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="G82" s="1">
+        <v>19.239999999999998</v>
+      </c>
+      <c r="H82" s="1">
+        <v>30.56</v>
+      </c>
+      <c r="I82" s="2">
+        <v>0.1336</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="J47:O47"/>
-    <mergeCell ref="J51:O51"/>
-    <mergeCell ref="J50:O50"/>
-    <mergeCell ref="J24:V24"/>
-    <mergeCell ref="J25:V25"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="J38:O38"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="J44:M44"/>
-    <mergeCell ref="J9:V9"/>
-    <mergeCell ref="J10:V10"/>
-    <mergeCell ref="J18:V18"/>
-    <mergeCell ref="J11:V11"/>
-    <mergeCell ref="J19:V19"/>
-    <mergeCell ref="J12:V12"/>
     <mergeCell ref="J76:Q78"/>
     <mergeCell ref="O62:S62"/>
     <mergeCell ref="J52:O52"/>
@@ -2223,6 +2240,22 @@
     <mergeCell ref="J66:V66"/>
     <mergeCell ref="J67:V67"/>
     <mergeCell ref="J71:V71"/>
+    <mergeCell ref="J9:V9"/>
+    <mergeCell ref="J10:V10"/>
+    <mergeCell ref="J18:V18"/>
+    <mergeCell ref="J11:V11"/>
+    <mergeCell ref="J19:V19"/>
+    <mergeCell ref="J12:V12"/>
+    <mergeCell ref="J47:O47"/>
+    <mergeCell ref="J51:O51"/>
+    <mergeCell ref="J50:O50"/>
+    <mergeCell ref="J24:V24"/>
+    <mergeCell ref="J25:V25"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="J38:O38"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="J44:M44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B224941D-525E-4981-A00C-648265041BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D0FAE6-D2D1-4FB4-B317-7EC68C455A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6585" yWindow="1605" windowWidth="22665" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="55">
   <si>
     <t>ST-SSL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -224,6 +224,26 @@
   </si>
   <si>
     <t>add tod，dow，自适应嵌入，只对flow标准化，flow，tod，dow，adp嵌入维度16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在13的基础上调整嵌入自适应维度为80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 对空间图和语意图最后一个outs，source-source2再循坏，使用同一个encoder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对flow，tod标准化，dow，加入自适应嵌入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加注意力添加一层进行残差连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对flow，tod，dow均标准化，加入自适应嵌入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -313,16 +333,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -604,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:V82"/>
+  <dimension ref="A3:V83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="I82" sqref="I82"/>
+      <selection activeCell="M86" sqref="M86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -741,21 +761,21 @@
       <c r="I9" s="2">
         <v>0.1225</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -785,21 +805,21 @@
       <c r="I10" s="2">
         <v>0.1226</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -829,21 +849,21 @@
       <c r="I11" s="2">
         <v>0.12</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -873,21 +893,21 @@
       <c r="I12" s="2">
         <v>0.1323</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="J12" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -975,21 +995,21 @@
       <c r="I18" s="2">
         <v>0.16550000000000001</v>
       </c>
-      <c r="J18" s="8" t="s">
+      <c r="J18" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
@@ -1019,21 +1039,21 @@
       <c r="I19" s="2">
         <v>0.1507</v>
       </c>
-      <c r="J19" s="8" t="s">
+      <c r="J19" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
@@ -1054,21 +1074,21 @@
       <c r="F24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J24" s="8" t="s">
+      <c r="J24" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="8"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -1089,21 +1109,21 @@
       <c r="F25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J25" s="8" t="s">
+      <c r="J25" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="8"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
@@ -1191,12 +1211,12 @@
       <c r="I37" s="2">
         <v>0.13450000000000001</v>
       </c>
-      <c r="J37" s="8" t="s">
+      <c r="J37" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
@@ -1226,14 +1246,14 @@
       <c r="I38" s="2">
         <v>0.1394</v>
       </c>
-      <c r="J38" s="8" t="s">
+      <c r="J38" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
@@ -1321,12 +1341,12 @@
       <c r="I44" s="2">
         <v>0.1235</v>
       </c>
-      <c r="J44" s="9" t="s">
+      <c r="J44" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="9"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
@@ -1356,12 +1376,12 @@
       <c r="I45" s="2">
         <v>0.1234</v>
       </c>
-      <c r="J45" s="8" t="s">
+      <c r="J45" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
@@ -1391,12 +1411,12 @@
       <c r="I46" s="2">
         <v>0.1249</v>
       </c>
-      <c r="J46" s="9" t="s">
+      <c r="J46" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="9"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
@@ -1426,14 +1446,14 @@
       <c r="I47" s="2">
         <v>0.12280000000000001</v>
       </c>
-      <c r="J47" s="8" t="s">
+      <c r="J47" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="8"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
@@ -1463,14 +1483,14 @@
       <c r="I48" s="2">
         <v>0.1222</v>
       </c>
-      <c r="J48" s="8" t="s">
+      <c r="J48" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8"/>
-      <c r="O48" s="8"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
@@ -1500,14 +1520,14 @@
       <c r="I49" s="2">
         <v>0.1234</v>
       </c>
-      <c r="J49" s="8" t="s">
+      <c r="J49" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="8"/>
-      <c r="O49" s="8"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
@@ -1537,14 +1557,14 @@
       <c r="I50" s="2">
         <v>0.1263</v>
       </c>
-      <c r="J50" s="8" t="s">
+      <c r="J50" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="8"/>
-      <c r="O50" s="8"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
@@ -1574,14 +1594,14 @@
       <c r="I51" s="2">
         <v>0.1232</v>
       </c>
-      <c r="J51" s="8" t="s">
+      <c r="J51" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="8"/>
-      <c r="O51" s="8"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
@@ -1602,14 +1622,14 @@
       <c r="F52" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J52" s="8" t="s">
+      <c r="J52" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
-      <c r="N52" s="8"/>
-      <c r="O52" s="8"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
@@ -1735,13 +1755,13 @@
       <c r="L62" s="2">
         <v>0.14990000000000001</v>
       </c>
-      <c r="O62" s="11" t="s">
+      <c r="O62" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="P62" s="11"/>
-      <c r="Q62" s="11"/>
-      <c r="R62" s="11"/>
-      <c r="S62" s="11"/>
+      <c r="P62" s="9"/>
+      <c r="Q62" s="9"/>
+      <c r="R62" s="9"/>
+      <c r="S62" s="9"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
@@ -1783,21 +1803,21 @@
       <c r="I65" s="2">
         <v>0.15129999999999999</v>
       </c>
-      <c r="J65" s="8" t="s">
+      <c r="J65" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="K65" s="8"/>
-      <c r="L65" s="8"/>
-      <c r="M65" s="8"/>
-      <c r="N65" s="8"/>
-      <c r="O65" s="8"/>
-      <c r="P65" s="8"/>
-      <c r="Q65" s="8"/>
-      <c r="R65" s="8"/>
-      <c r="S65" s="8"/>
-      <c r="T65" s="8"/>
-      <c r="U65" s="8"/>
-      <c r="V65" s="8"/>
+      <c r="K65" s="10"/>
+      <c r="L65" s="10"/>
+      <c r="M65" s="10"/>
+      <c r="N65" s="10"/>
+      <c r="O65" s="10"/>
+      <c r="P65" s="10"/>
+      <c r="Q65" s="10"/>
+      <c r="R65" s="10"/>
+      <c r="S65" s="10"/>
+      <c r="T65" s="10"/>
+      <c r="U65" s="10"/>
+      <c r="V65" s="10"/>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
@@ -1827,21 +1847,21 @@
       <c r="I66" s="2">
         <v>0.14929999999999999</v>
       </c>
-      <c r="J66" s="8" t="s">
+      <c r="J66" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="K66" s="8"/>
-      <c r="L66" s="8"/>
-      <c r="M66" s="8"/>
-      <c r="N66" s="8"/>
-      <c r="O66" s="8"/>
-      <c r="P66" s="8"/>
-      <c r="Q66" s="8"/>
-      <c r="R66" s="8"/>
-      <c r="S66" s="8"/>
-      <c r="T66" s="8"/>
-      <c r="U66" s="8"/>
-      <c r="V66" s="8"/>
+      <c r="K66" s="10"/>
+      <c r="L66" s="10"/>
+      <c r="M66" s="10"/>
+      <c r="N66" s="10"/>
+      <c r="O66" s="10"/>
+      <c r="P66" s="10"/>
+      <c r="Q66" s="10"/>
+      <c r="R66" s="10"/>
+      <c r="S66" s="10"/>
+      <c r="T66" s="10"/>
+      <c r="U66" s="10"/>
+      <c r="V66" s="10"/>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
@@ -1871,21 +1891,21 @@
       <c r="I67" s="5">
         <v>0.13739999999999999</v>
       </c>
-      <c r="J67" s="8" t="s">
+      <c r="J67" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="K67" s="8"/>
-      <c r="L67" s="8"/>
-      <c r="M67" s="8"/>
-      <c r="N67" s="8"/>
-      <c r="O67" s="8"/>
-      <c r="P67" s="8"/>
-      <c r="Q67" s="8"/>
-      <c r="R67" s="8"/>
-      <c r="S67" s="8"/>
-      <c r="T67" s="8"/>
-      <c r="U67" s="8"/>
-      <c r="V67" s="8"/>
+      <c r="K67" s="10"/>
+      <c r="L67" s="10"/>
+      <c r="M67" s="10"/>
+      <c r="N67" s="10"/>
+      <c r="O67" s="10"/>
+      <c r="P67" s="10"/>
+      <c r="Q67" s="10"/>
+      <c r="R67" s="10"/>
+      <c r="S67" s="10"/>
+      <c r="T67" s="10"/>
+      <c r="U67" s="10"/>
+      <c r="V67" s="10"/>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" s="6"/>
@@ -1927,21 +1947,21 @@
       <c r="I71" s="2">
         <v>0.14280000000000001</v>
       </c>
-      <c r="J71" s="8" t="s">
+      <c r="J71" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="K71" s="8"/>
-      <c r="L71" s="8"/>
-      <c r="M71" s="8"/>
-      <c r="N71" s="8"/>
-      <c r="O71" s="8"/>
-      <c r="P71" s="8"/>
-      <c r="Q71" s="8"/>
-      <c r="R71" s="8"/>
-      <c r="S71" s="8"/>
-      <c r="T71" s="8"/>
-      <c r="U71" s="8"/>
-      <c r="V71" s="8"/>
+      <c r="K71" s="10"/>
+      <c r="L71" s="10"/>
+      <c r="M71" s="10"/>
+      <c r="N71" s="10"/>
+      <c r="O71" s="10"/>
+      <c r="P71" s="10"/>
+      <c r="Q71" s="10"/>
+      <c r="R71" s="10"/>
+      <c r="S71" s="10"/>
+      <c r="T71" s="10"/>
+      <c r="U71" s="10"/>
+      <c r="V71" s="10"/>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" s="7"/>
@@ -1983,12 +2003,12 @@
       <c r="I73" s="5">
         <v>0.13669999999999999</v>
       </c>
-      <c r="J73" s="9" t="s">
+      <c r="J73" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="K73" s="9"/>
-      <c r="L73" s="9"/>
-      <c r="M73" s="9"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="8"/>
+      <c r="M73" s="8"/>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
@@ -2009,12 +2029,12 @@
       <c r="F74" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J74" s="9" t="s">
+      <c r="J74" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="K74" s="9"/>
-      <c r="L74" s="9"/>
-      <c r="M74" s="9"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="8"/>
+      <c r="M74" s="8"/>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
@@ -2044,12 +2064,12 @@
       <c r="I75" s="2">
         <v>0.13780000000000001</v>
       </c>
-      <c r="J75" s="9" t="s">
+      <c r="J75" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="K75" s="9"/>
-      <c r="L75" s="9"/>
-      <c r="M75" s="9"/>
+      <c r="K75" s="8"/>
+      <c r="L75" s="8"/>
+      <c r="M75" s="8"/>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
@@ -2079,36 +2099,36 @@
       <c r="I76" s="5">
         <v>0.1348</v>
       </c>
-      <c r="J76" s="9" t="s">
+      <c r="J76" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="K76" s="9"/>
-      <c r="L76" s="9"/>
-      <c r="M76" s="9"/>
-      <c r="N76" s="9"/>
-      <c r="O76" s="9"/>
-      <c r="P76" s="9"/>
-      <c r="Q76" s="9"/>
+      <c r="K76" s="8"/>
+      <c r="L76" s="8"/>
+      <c r="M76" s="8"/>
+      <c r="N76" s="8"/>
+      <c r="O76" s="8"/>
+      <c r="P76" s="8"/>
+      <c r="Q76" s="8"/>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="J77" s="9"/>
-      <c r="K77" s="9"/>
-      <c r="L77" s="9"/>
-      <c r="M77" s="9"/>
-      <c r="N77" s="9"/>
-      <c r="O77" s="9"/>
-      <c r="P77" s="9"/>
-      <c r="Q77" s="9"/>
+      <c r="J77" s="8"/>
+      <c r="K77" s="8"/>
+      <c r="L77" s="8"/>
+      <c r="M77" s="8"/>
+      <c r="N77" s="8"/>
+      <c r="O77" s="8"/>
+      <c r="P77" s="8"/>
+      <c r="Q77" s="8"/>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="J78" s="9"/>
-      <c r="K78" s="9"/>
-      <c r="L78" s="9"/>
-      <c r="M78" s="9"/>
-      <c r="N78" s="9"/>
-      <c r="O78" s="9"/>
-      <c r="P78" s="9"/>
-      <c r="Q78" s="9"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="8"/>
+      <c r="M78" s="8"/>
+      <c r="N78" s="8"/>
+      <c r="O78" s="8"/>
+      <c r="P78" s="8"/>
+      <c r="Q78" s="8"/>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
@@ -2138,6 +2158,15 @@
       <c r="I79" s="2">
         <v>0.13689999999999999</v>
       </c>
+      <c r="J79" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K79" s="8"/>
+      <c r="L79" s="8"/>
+      <c r="M79" s="8"/>
+      <c r="N79" s="8"/>
+      <c r="O79" s="8"/>
+      <c r="P79" s="8"/>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
@@ -2167,8 +2196,16 @@
       <c r="I80" s="2">
         <v>0.14749999999999999</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J80" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K80" s="8"/>
+      <c r="L80" s="8"/>
+      <c r="M80" s="8"/>
+      <c r="N80" s="8"/>
+      <c r="O80" s="8"/>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>17</v>
       </c>
@@ -2196,8 +2233,18 @@
       <c r="I81" s="2">
         <v>0.20910000000000001</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J81" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K81" s="8"/>
+      <c r="L81" s="8"/>
+      <c r="M81" s="8"/>
+      <c r="N81" s="8"/>
+      <c r="O81" s="8"/>
+      <c r="P81" s="8"/>
+      <c r="Q81" s="8"/>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>18</v>
       </c>
@@ -2225,9 +2272,65 @@
       <c r="I82" s="2">
         <v>0.1336</v>
       </c>
+      <c r="J82" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K82" s="8"/>
+      <c r="L82" s="8"/>
+      <c r="M82" s="8"/>
+      <c r="N82" s="8"/>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>19</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J83" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K83" s="8"/>
+      <c r="L83" s="8"/>
+      <c r="M83" s="8"/>
+      <c r="N83" s="8"/>
+      <c r="O83" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="33">
+    <mergeCell ref="J83:O83"/>
+    <mergeCell ref="J82:N82"/>
+    <mergeCell ref="J81:Q81"/>
+    <mergeCell ref="J80:O80"/>
+    <mergeCell ref="J79:P79"/>
+    <mergeCell ref="J47:O47"/>
+    <mergeCell ref="J51:O51"/>
+    <mergeCell ref="J50:O50"/>
+    <mergeCell ref="J24:V24"/>
+    <mergeCell ref="J25:V25"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="J38:O38"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="J9:V9"/>
+    <mergeCell ref="J10:V10"/>
+    <mergeCell ref="J18:V18"/>
+    <mergeCell ref="J11:V11"/>
+    <mergeCell ref="J19:V19"/>
+    <mergeCell ref="J12:V12"/>
     <mergeCell ref="J76:Q78"/>
     <mergeCell ref="O62:S62"/>
     <mergeCell ref="J52:O52"/>
@@ -2240,22 +2343,6 @@
     <mergeCell ref="J66:V66"/>
     <mergeCell ref="J67:V67"/>
     <mergeCell ref="J71:V71"/>
-    <mergeCell ref="J9:V9"/>
-    <mergeCell ref="J10:V10"/>
-    <mergeCell ref="J18:V18"/>
-    <mergeCell ref="J11:V11"/>
-    <mergeCell ref="J19:V19"/>
-    <mergeCell ref="J12:V12"/>
-    <mergeCell ref="J47:O47"/>
-    <mergeCell ref="J51:O51"/>
-    <mergeCell ref="J50:O50"/>
-    <mergeCell ref="J24:V24"/>
-    <mergeCell ref="J25:V25"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="J38:O38"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="J44:M44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D0FAE6-D2D1-4FB4-B317-7EC68C455A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F61E86-8D85-48C0-80CC-84E747D8EF91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6585" yWindow="1605" windowWidth="22665" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="56">
   <si>
     <t>ST-SSL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -244,6 +244,10 @@
   </si>
   <si>
     <t>对flow，tod，dow均标准化，加入自适应嵌入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13-&gt;20 添加注意力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -335,14 +339,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -624,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:V83"/>
+  <dimension ref="A3:V84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="M86" sqref="M86"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="I85" sqref="I85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -761,21 +765,21 @@
       <c r="I9" s="2">
         <v>0.1225</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -805,21 +809,21 @@
       <c r="I10" s="2">
         <v>0.1226</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -849,21 +853,21 @@
       <c r="I11" s="2">
         <v>0.12</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -893,21 +897,21 @@
       <c r="I12" s="2">
         <v>0.1323</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -995,21 +999,21 @@
       <c r="I18" s="2">
         <v>0.16550000000000001</v>
       </c>
-      <c r="J18" s="10" t="s">
+      <c r="J18" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
@@ -1039,21 +1043,21 @@
       <c r="I19" s="2">
         <v>0.1507</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="J19" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="10"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
@@ -1074,21 +1078,21 @@
       <c r="F24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J24" s="10" t="s">
+      <c r="J24" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="10"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -1109,21 +1113,21 @@
       <c r="F25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J25" s="10" t="s">
+      <c r="J25" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="10"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="10"/>
-      <c r="V25" s="10"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
@@ -1211,12 +1215,12 @@
       <c r="I37" s="2">
         <v>0.13450000000000001</v>
       </c>
-      <c r="J37" s="10" t="s">
+      <c r="J37" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
@@ -1246,14 +1250,14 @@
       <c r="I38" s="2">
         <v>0.1394</v>
       </c>
-      <c r="J38" s="10" t="s">
+      <c r="J38" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
@@ -1376,12 +1380,12 @@
       <c r="I45" s="2">
         <v>0.1234</v>
       </c>
-      <c r="J45" s="10" t="s">
+      <c r="J45" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
@@ -1446,14 +1450,14 @@
       <c r="I47" s="2">
         <v>0.12280000000000001</v>
       </c>
-      <c r="J47" s="10" t="s">
+      <c r="J47" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
-      <c r="O47" s="10"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
@@ -1483,14 +1487,14 @@
       <c r="I48" s="2">
         <v>0.1222</v>
       </c>
-      <c r="J48" s="10" t="s">
+      <c r="J48" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
-      <c r="O48" s="10"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
@@ -1520,14 +1524,14 @@
       <c r="I49" s="2">
         <v>0.1234</v>
       </c>
-      <c r="J49" s="10" t="s">
+      <c r="J49" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="10"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
@@ -1557,14 +1561,14 @@
       <c r="I50" s="2">
         <v>0.1263</v>
       </c>
-      <c r="J50" s="10" t="s">
+      <c r="J50" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K50" s="10"/>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
-      <c r="O50" s="10"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="9"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
@@ -1594,14 +1598,14 @@
       <c r="I51" s="2">
         <v>0.1232</v>
       </c>
-      <c r="J51" s="10" t="s">
+      <c r="J51" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="K51" s="10"/>
-      <c r="L51" s="10"/>
-      <c r="M51" s="10"/>
-      <c r="N51" s="10"/>
-      <c r="O51" s="10"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
@@ -1622,14 +1626,14 @@
       <c r="F52" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J52" s="10" t="s">
+      <c r="J52" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="K52" s="10"/>
-      <c r="L52" s="10"/>
-      <c r="M52" s="10"/>
-      <c r="N52" s="10"/>
-      <c r="O52" s="10"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
@@ -1755,13 +1759,13 @@
       <c r="L62" s="2">
         <v>0.14990000000000001</v>
       </c>
-      <c r="O62" s="9" t="s">
+      <c r="O62" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="P62" s="9"/>
-      <c r="Q62" s="9"/>
-      <c r="R62" s="9"/>
-      <c r="S62" s="9"/>
+      <c r="P62" s="11"/>
+      <c r="Q62" s="11"/>
+      <c r="R62" s="11"/>
+      <c r="S62" s="11"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
@@ -1803,21 +1807,21 @@
       <c r="I65" s="2">
         <v>0.15129999999999999</v>
       </c>
-      <c r="J65" s="10" t="s">
+      <c r="J65" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K65" s="10"/>
-      <c r="L65" s="10"/>
-      <c r="M65" s="10"/>
-      <c r="N65" s="10"/>
-      <c r="O65" s="10"/>
-      <c r="P65" s="10"/>
-      <c r="Q65" s="10"/>
-      <c r="R65" s="10"/>
-      <c r="S65" s="10"/>
-      <c r="T65" s="10"/>
-      <c r="U65" s="10"/>
-      <c r="V65" s="10"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+      <c r="O65" s="9"/>
+      <c r="P65" s="9"/>
+      <c r="Q65" s="9"/>
+      <c r="R65" s="9"/>
+      <c r="S65" s="9"/>
+      <c r="T65" s="9"/>
+      <c r="U65" s="9"/>
+      <c r="V65" s="9"/>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
@@ -1847,21 +1851,21 @@
       <c r="I66" s="2">
         <v>0.14929999999999999</v>
       </c>
-      <c r="J66" s="10" t="s">
+      <c r="J66" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K66" s="10"/>
-      <c r="L66" s="10"/>
-      <c r="M66" s="10"/>
-      <c r="N66" s="10"/>
-      <c r="O66" s="10"/>
-      <c r="P66" s="10"/>
-      <c r="Q66" s="10"/>
-      <c r="R66" s="10"/>
-      <c r="S66" s="10"/>
-      <c r="T66" s="10"/>
-      <c r="U66" s="10"/>
-      <c r="V66" s="10"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+      <c r="O66" s="9"/>
+      <c r="P66" s="9"/>
+      <c r="Q66" s="9"/>
+      <c r="R66" s="9"/>
+      <c r="S66" s="9"/>
+      <c r="T66" s="9"/>
+      <c r="U66" s="9"/>
+      <c r="V66" s="9"/>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
@@ -1891,21 +1895,21 @@
       <c r="I67" s="5">
         <v>0.13739999999999999</v>
       </c>
-      <c r="J67" s="10" t="s">
+      <c r="J67" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="K67" s="10"/>
-      <c r="L67" s="10"/>
-      <c r="M67" s="10"/>
-      <c r="N67" s="10"/>
-      <c r="O67" s="10"/>
-      <c r="P67" s="10"/>
-      <c r="Q67" s="10"/>
-      <c r="R67" s="10"/>
-      <c r="S67" s="10"/>
-      <c r="T67" s="10"/>
-      <c r="U67" s="10"/>
-      <c r="V67" s="10"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="9"/>
+      <c r="O67" s="9"/>
+      <c r="P67" s="9"/>
+      <c r="Q67" s="9"/>
+      <c r="R67" s="9"/>
+      <c r="S67" s="9"/>
+      <c r="T67" s="9"/>
+      <c r="U67" s="9"/>
+      <c r="V67" s="9"/>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" s="6"/>
@@ -1947,21 +1951,21 @@
       <c r="I71" s="2">
         <v>0.14280000000000001</v>
       </c>
-      <c r="J71" s="10" t="s">
+      <c r="J71" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="K71" s="10"/>
-      <c r="L71" s="10"/>
-      <c r="M71" s="10"/>
-      <c r="N71" s="10"/>
-      <c r="O71" s="10"/>
-      <c r="P71" s="10"/>
-      <c r="Q71" s="10"/>
-      <c r="R71" s="10"/>
-      <c r="S71" s="10"/>
-      <c r="T71" s="10"/>
-      <c r="U71" s="10"/>
-      <c r="V71" s="10"/>
+      <c r="K71" s="9"/>
+      <c r="L71" s="9"/>
+      <c r="M71" s="9"/>
+      <c r="N71" s="9"/>
+      <c r="O71" s="9"/>
+      <c r="P71" s="9"/>
+      <c r="Q71" s="9"/>
+      <c r="R71" s="9"/>
+      <c r="S71" s="9"/>
+      <c r="T71" s="9"/>
+      <c r="U71" s="9"/>
+      <c r="V71" s="9"/>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" s="7"/>
@@ -2308,29 +2312,37 @@
       <c r="N83" s="8"/>
       <c r="O83" s="8"/>
     </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>20</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J84" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K84" s="8"/>
+      <c r="L84" s="8"/>
+      <c r="M84" s="8"/>
+      <c r="N84" s="8"/>
+      <c r="O84" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="J83:O83"/>
-    <mergeCell ref="J82:N82"/>
-    <mergeCell ref="J81:Q81"/>
-    <mergeCell ref="J80:O80"/>
-    <mergeCell ref="J79:P79"/>
-    <mergeCell ref="J47:O47"/>
-    <mergeCell ref="J51:O51"/>
-    <mergeCell ref="J50:O50"/>
-    <mergeCell ref="J24:V24"/>
-    <mergeCell ref="J25:V25"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="J38:O38"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="J44:M44"/>
-    <mergeCell ref="J9:V9"/>
-    <mergeCell ref="J10:V10"/>
-    <mergeCell ref="J18:V18"/>
-    <mergeCell ref="J11:V11"/>
-    <mergeCell ref="J19:V19"/>
-    <mergeCell ref="J12:V12"/>
+  <mergeCells count="34">
+    <mergeCell ref="J84:O84"/>
     <mergeCell ref="J76:Q78"/>
     <mergeCell ref="O62:S62"/>
     <mergeCell ref="J52:O52"/>
@@ -2343,6 +2355,27 @@
     <mergeCell ref="J66:V66"/>
     <mergeCell ref="J67:V67"/>
     <mergeCell ref="J71:V71"/>
+    <mergeCell ref="J9:V9"/>
+    <mergeCell ref="J10:V10"/>
+    <mergeCell ref="J18:V18"/>
+    <mergeCell ref="J11:V11"/>
+    <mergeCell ref="J19:V19"/>
+    <mergeCell ref="J12:V12"/>
+    <mergeCell ref="J47:O47"/>
+    <mergeCell ref="J51:O51"/>
+    <mergeCell ref="J50:O50"/>
+    <mergeCell ref="J24:V24"/>
+    <mergeCell ref="J25:V25"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="J38:O38"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="J83:O83"/>
+    <mergeCell ref="J82:N82"/>
+    <mergeCell ref="J81:Q81"/>
+    <mergeCell ref="J80:O80"/>
+    <mergeCell ref="J79:P79"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F61E86-8D85-48C0-80CC-84E747D8EF91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D96F47D-4B68-4426-B526-C9050187A9C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6585" yWindow="1605" windowWidth="22665" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="56">
   <si>
     <t>ST-SSL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -339,14 +339,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -630,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:V84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="I85" sqref="I85"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -765,21 +765,21 @@
       <c r="I9" s="2">
         <v>0.1225</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -809,21 +809,21 @@
       <c r="I10" s="2">
         <v>0.1226</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -853,21 +853,21 @@
       <c r="I11" s="2">
         <v>0.12</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -897,21 +897,50 @@
       <c r="I12" s="2">
         <v>0.1323</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J12" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="1">
+        <v>19.489999999999998</v>
+      </c>
+      <c r="H15" s="1">
+        <v>31.04</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0.15459999999999999</v>
+      </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -999,21 +1028,21 @@
       <c r="I18" s="2">
         <v>0.16550000000000001</v>
       </c>
-      <c r="J18" s="9" t="s">
+      <c r="J18" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
@@ -1043,21 +1072,21 @@
       <c r="I19" s="2">
         <v>0.1507</v>
       </c>
-      <c r="J19" s="9" t="s">
+      <c r="J19" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
@@ -1078,21 +1107,21 @@
       <c r="F24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J24" s="9" t="s">
+      <c r="J24" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -1113,21 +1142,21 @@
       <c r="F25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="J25" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
@@ -1215,12 +1244,12 @@
       <c r="I37" s="2">
         <v>0.13450000000000001</v>
       </c>
-      <c r="J37" s="9" t="s">
+      <c r="J37" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
@@ -1250,14 +1279,14 @@
       <c r="I38" s="2">
         <v>0.1394</v>
       </c>
-      <c r="J38" s="9" t="s">
+      <c r="J38" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
@@ -1380,12 +1409,12 @@
       <c r="I45" s="2">
         <v>0.1234</v>
       </c>
-      <c r="J45" s="9" t="s">
+      <c r="J45" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
@@ -1450,14 +1479,14 @@
       <c r="I47" s="2">
         <v>0.12280000000000001</v>
       </c>
-      <c r="J47" s="9" t="s">
+      <c r="J47" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
-      <c r="M47" s="9"/>
-      <c r="N47" s="9"/>
-      <c r="O47" s="9"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
@@ -1487,14 +1516,14 @@
       <c r="I48" s="2">
         <v>0.1222</v>
       </c>
-      <c r="J48" s="9" t="s">
+      <c r="J48" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
-      <c r="M48" s="9"/>
-      <c r="N48" s="9"/>
-      <c r="O48" s="9"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
@@ -1524,14 +1553,14 @@
       <c r="I49" s="2">
         <v>0.1234</v>
       </c>
-      <c r="J49" s="9" t="s">
+      <c r="J49" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="K49" s="9"/>
-      <c r="L49" s="9"/>
-      <c r="M49" s="9"/>
-      <c r="N49" s="9"/>
-      <c r="O49" s="9"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
@@ -1561,14 +1590,14 @@
       <c r="I50" s="2">
         <v>0.1263</v>
       </c>
-      <c r="J50" s="9" t="s">
+      <c r="J50" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
-      <c r="M50" s="9"/>
-      <c r="N50" s="9"/>
-      <c r="O50" s="9"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
@@ -1598,14 +1627,14 @@
       <c r="I51" s="2">
         <v>0.1232</v>
       </c>
-      <c r="J51" s="9" t="s">
+      <c r="J51" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="9"/>
-      <c r="N51" s="9"/>
-      <c r="O51" s="9"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
@@ -1626,14 +1655,14 @@
       <c r="F52" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J52" s="9" t="s">
+      <c r="J52" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="K52" s="9"/>
-      <c r="L52" s="9"/>
-      <c r="M52" s="9"/>
-      <c r="N52" s="9"/>
-      <c r="O52" s="9"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
@@ -1759,13 +1788,13 @@
       <c r="L62" s="2">
         <v>0.14990000000000001</v>
       </c>
-      <c r="O62" s="11" t="s">
+      <c r="O62" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="P62" s="11"/>
-      <c r="Q62" s="11"/>
-      <c r="R62" s="11"/>
-      <c r="S62" s="11"/>
+      <c r="P62" s="9"/>
+      <c r="Q62" s="9"/>
+      <c r="R62" s="9"/>
+      <c r="S62" s="9"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
@@ -1807,21 +1836,21 @@
       <c r="I65" s="2">
         <v>0.15129999999999999</v>
       </c>
-      <c r="J65" s="9" t="s">
+      <c r="J65" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="K65" s="9"/>
-      <c r="L65" s="9"/>
-      <c r="M65" s="9"/>
-      <c r="N65" s="9"/>
-      <c r="O65" s="9"/>
-      <c r="P65" s="9"/>
-      <c r="Q65" s="9"/>
-      <c r="R65" s="9"/>
-      <c r="S65" s="9"/>
-      <c r="T65" s="9"/>
-      <c r="U65" s="9"/>
-      <c r="V65" s="9"/>
+      <c r="K65" s="10"/>
+      <c r="L65" s="10"/>
+      <c r="M65" s="10"/>
+      <c r="N65" s="10"/>
+      <c r="O65" s="10"/>
+      <c r="P65" s="10"/>
+      <c r="Q65" s="10"/>
+      <c r="R65" s="10"/>
+      <c r="S65" s="10"/>
+      <c r="T65" s="10"/>
+      <c r="U65" s="10"/>
+      <c r="V65" s="10"/>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
@@ -1851,21 +1880,21 @@
       <c r="I66" s="2">
         <v>0.14929999999999999</v>
       </c>
-      <c r="J66" s="9" t="s">
+      <c r="J66" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="K66" s="9"/>
-      <c r="L66" s="9"/>
-      <c r="M66" s="9"/>
-      <c r="N66" s="9"/>
-      <c r="O66" s="9"/>
-      <c r="P66" s="9"/>
-      <c r="Q66" s="9"/>
-      <c r="R66" s="9"/>
-      <c r="S66" s="9"/>
-      <c r="T66" s="9"/>
-      <c r="U66" s="9"/>
-      <c r="V66" s="9"/>
+      <c r="K66" s="10"/>
+      <c r="L66" s="10"/>
+      <c r="M66" s="10"/>
+      <c r="N66" s="10"/>
+      <c r="O66" s="10"/>
+      <c r="P66" s="10"/>
+      <c r="Q66" s="10"/>
+      <c r="R66" s="10"/>
+      <c r="S66" s="10"/>
+      <c r="T66" s="10"/>
+      <c r="U66" s="10"/>
+      <c r="V66" s="10"/>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
@@ -1895,21 +1924,21 @@
       <c r="I67" s="5">
         <v>0.13739999999999999</v>
       </c>
-      <c r="J67" s="9" t="s">
+      <c r="J67" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="K67" s="9"/>
-      <c r="L67" s="9"/>
-      <c r="M67" s="9"/>
-      <c r="N67" s="9"/>
-      <c r="O67" s="9"/>
-      <c r="P67" s="9"/>
-      <c r="Q67" s="9"/>
-      <c r="R67" s="9"/>
-      <c r="S67" s="9"/>
-      <c r="T67" s="9"/>
-      <c r="U67" s="9"/>
-      <c r="V67" s="9"/>
+      <c r="K67" s="10"/>
+      <c r="L67" s="10"/>
+      <c r="M67" s="10"/>
+      <c r="N67" s="10"/>
+      <c r="O67" s="10"/>
+      <c r="P67" s="10"/>
+      <c r="Q67" s="10"/>
+      <c r="R67" s="10"/>
+      <c r="S67" s="10"/>
+      <c r="T67" s="10"/>
+      <c r="U67" s="10"/>
+      <c r="V67" s="10"/>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" s="6"/>
@@ -1951,21 +1980,21 @@
       <c r="I71" s="2">
         <v>0.14280000000000001</v>
       </c>
-      <c r="J71" s="9" t="s">
+      <c r="J71" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="K71" s="9"/>
-      <c r="L71" s="9"/>
-      <c r="M71" s="9"/>
-      <c r="N71" s="9"/>
-      <c r="O71" s="9"/>
-      <c r="P71" s="9"/>
-      <c r="Q71" s="9"/>
-      <c r="R71" s="9"/>
-      <c r="S71" s="9"/>
-      <c r="T71" s="9"/>
-      <c r="U71" s="9"/>
-      <c r="V71" s="9"/>
+      <c r="K71" s="10"/>
+      <c r="L71" s="10"/>
+      <c r="M71" s="10"/>
+      <c r="N71" s="10"/>
+      <c r="O71" s="10"/>
+      <c r="P71" s="10"/>
+      <c r="Q71" s="10"/>
+      <c r="R71" s="10"/>
+      <c r="S71" s="10"/>
+      <c r="T71" s="10"/>
+      <c r="U71" s="10"/>
+      <c r="V71" s="10"/>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" s="7"/>
@@ -2342,25 +2371,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="J84:O84"/>
-    <mergeCell ref="J76:Q78"/>
-    <mergeCell ref="O62:S62"/>
-    <mergeCell ref="J52:O52"/>
-    <mergeCell ref="J49:O49"/>
-    <mergeCell ref="J48:O48"/>
-    <mergeCell ref="J75:M75"/>
-    <mergeCell ref="J74:M74"/>
-    <mergeCell ref="J73:M73"/>
-    <mergeCell ref="J65:V65"/>
-    <mergeCell ref="J66:V66"/>
-    <mergeCell ref="J67:V67"/>
-    <mergeCell ref="J71:V71"/>
-    <mergeCell ref="J9:V9"/>
-    <mergeCell ref="J10:V10"/>
-    <mergeCell ref="J18:V18"/>
-    <mergeCell ref="J11:V11"/>
-    <mergeCell ref="J19:V19"/>
-    <mergeCell ref="J12:V12"/>
     <mergeCell ref="J47:O47"/>
     <mergeCell ref="J51:O51"/>
     <mergeCell ref="J50:O50"/>
@@ -2371,6 +2381,25 @@
     <mergeCell ref="J38:O38"/>
     <mergeCell ref="J37:M37"/>
     <mergeCell ref="J44:M44"/>
+    <mergeCell ref="J9:V9"/>
+    <mergeCell ref="J10:V10"/>
+    <mergeCell ref="J18:V18"/>
+    <mergeCell ref="J11:V11"/>
+    <mergeCell ref="J19:V19"/>
+    <mergeCell ref="J12:V12"/>
+    <mergeCell ref="J48:O48"/>
+    <mergeCell ref="J75:M75"/>
+    <mergeCell ref="J74:M74"/>
+    <mergeCell ref="J73:M73"/>
+    <mergeCell ref="J65:V65"/>
+    <mergeCell ref="J66:V66"/>
+    <mergeCell ref="J67:V67"/>
+    <mergeCell ref="J71:V71"/>
+    <mergeCell ref="J84:O84"/>
+    <mergeCell ref="J76:Q78"/>
+    <mergeCell ref="O62:S62"/>
+    <mergeCell ref="J52:O52"/>
+    <mergeCell ref="J49:O49"/>
     <mergeCell ref="J83:O83"/>
     <mergeCell ref="J82:N82"/>
     <mergeCell ref="J81:Q81"/>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tfp_pro\modinfo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D96F47D-4B68-4426-B526-C9050187A9C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8383B54E-C069-4636-B239-BE6952D0A933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6585" yWindow="1605" windowWidth="22665" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="51">
   <si>
     <t>ST-SSL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -227,27 +227,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>在13的基础上调整嵌入自适应维度为80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 对空间图和语意图最后一个outs，source-source2再循坏，使用同一个encoder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对flow，tod标准化，dow，加入自适应嵌入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加注意力添加一层进行残差连接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对flow，tod，dow均标准化，加入自适应嵌入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13-&gt;20 添加注意力</t>
+    <t>。‘。’</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -630,16 +610,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:V84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="I84" sqref="I84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
@@ -650,7 +630,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -679,7 +659,7 @@
         <v>0.1363</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -708,7 +688,7 @@
         <v>0.1198</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -737,7 +717,7 @@
         <v>0.12089999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -781,7 +761,7 @@
       <c r="U9" s="10"/>
       <c r="V9" s="10"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -825,7 +805,7 @@
       <c r="U10" s="10"/>
       <c r="V10" s="10"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -869,7 +849,7 @@
       <c r="U11" s="10"/>
       <c r="V11" s="10"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -913,36 +893,7 @@
       <c r="U12" s="10"/>
       <c r="V12" s="10"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="1">
-        <v>19.489999999999998</v>
-      </c>
-      <c r="H15" s="1">
-        <v>31.04</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0.15459999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -971,7 +922,7 @@
         <v>0.14430000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -1000,7 +951,7 @@
         <v>0.14610000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -1044,7 +995,7 @@
       <c r="U18" s="10"/>
       <c r="V18" s="10"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -1088,7 +1039,7 @@
       <c r="U19" s="10"/>
       <c r="V19" s="10"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>13</v>
       </c>
@@ -1123,7 +1074,7 @@
       <c r="U24" s="10"/>
       <c r="V24" s="10"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>14</v>
       </c>
@@ -1158,7 +1109,7 @@
       <c r="U25" s="10"/>
       <c r="V25" s="10"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>13</v>
       </c>
@@ -1187,7 +1138,7 @@
         <v>0.12959999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>14</v>
       </c>
@@ -1216,7 +1167,7 @@
         <v>0.1295</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>20</v>
       </c>
@@ -1251,7 +1202,7 @@
       <c r="L37" s="10"/>
       <c r="M37" s="10"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>20</v>
       </c>
@@ -1288,7 +1239,7 @@
       <c r="N38" s="11"/>
       <c r="O38" s="11"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>13</v>
       </c>
@@ -1317,7 +1268,7 @@
         <v>0.12189999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,7 +1297,7 @@
         <v>0.1249</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>20</v>
       </c>
@@ -1381,7 +1332,7 @@
       <c r="L44" s="8"/>
       <c r="M44" s="8"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>20</v>
       </c>
@@ -1416,7 +1367,7 @@
       <c r="L45" s="10"/>
       <c r="M45" s="10"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>20</v>
       </c>
@@ -1451,7 +1402,7 @@
       <c r="L46" s="8"/>
       <c r="M46" s="8"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>20</v>
       </c>
@@ -1488,7 +1439,7 @@
       <c r="N47" s="10"/>
       <c r="O47" s="10"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>20</v>
       </c>
@@ -1525,7 +1476,7 @@
       <c r="N48" s="10"/>
       <c r="O48" s="10"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>20</v>
       </c>
@@ -1562,7 +1513,7 @@
       <c r="N49" s="10"/>
       <c r="O49" s="10"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>20</v>
       </c>
@@ -1599,7 +1550,7 @@
       <c r="N50" s="10"/>
       <c r="O50" s="10"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>20</v>
       </c>
@@ -1636,7 +1587,7 @@
       <c r="N51" s="10"/>
       <c r="O51" s="10"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>20</v>
       </c>
@@ -1664,7 +1615,7 @@
       <c r="N52" s="10"/>
       <c r="O52" s="10"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>13</v>
       </c>
@@ -1693,7 +1644,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>20</v>
       </c>
@@ -1722,7 +1673,7 @@
         <v>0.13650000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>13</v>
       </c>
@@ -1751,7 +1702,7 @@
         <v>0.13769999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>14</v>
       </c>
@@ -1796,7 +1747,7 @@
       <c r="R62" s="9"/>
       <c r="S62" s="9"/>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="G63" s="1">
         <v>20.94</v>
@@ -1808,7 +1759,7 @@
         <v>0.14929999999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>20</v>
       </c>
@@ -1852,7 +1803,7 @@
       <c r="U65" s="10"/>
       <c r="V65" s="10"/>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>20</v>
       </c>
@@ -1896,7 +1847,7 @@
       <c r="U66" s="10"/>
       <c r="V66" s="10"/>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>20</v>
       </c>
@@ -1940,7 +1891,7 @@
       <c r="U67" s="10"/>
       <c r="V67" s="10"/>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="G68" s="4">
         <v>19.54</v>
@@ -1952,7 +1903,7 @@
         <v>0.13730000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>20</v>
       </c>
@@ -1996,7 +1947,7 @@
       <c r="U71" s="10"/>
       <c r="V71" s="10"/>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" s="7"/>
       <c r="G72" s="4">
         <v>19.579999999999998</v>
@@ -2008,7 +1959,7 @@
         <v>0.13980000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>20</v>
       </c>
@@ -2043,7 +1994,7 @@
       <c r="L73" s="8"/>
       <c r="M73" s="8"/>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>20</v>
       </c>
@@ -2069,7 +2020,7 @@
       <c r="L74" s="8"/>
       <c r="M74" s="8"/>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>20</v>
       </c>
@@ -2104,7 +2055,7 @@
       <c r="L75" s="8"/>
       <c r="M75" s="8"/>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>13</v>
       </c>
@@ -2143,7 +2094,7 @@
       <c r="P76" s="8"/>
       <c r="Q76" s="8"/>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="8"/>
@@ -2153,7 +2104,7 @@
       <c r="P77" s="8"/>
       <c r="Q77" s="8"/>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="8"/>
@@ -2163,7 +2114,7 @@
       <c r="P78" s="8"/>
       <c r="Q78" s="8"/>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>14</v>
       </c>
@@ -2191,17 +2142,8 @@
       <c r="I79" s="2">
         <v>0.13689999999999999</v>
       </c>
-      <c r="J79" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="K79" s="8"/>
-      <c r="L79" s="8"/>
-      <c r="M79" s="8"/>
-      <c r="N79" s="8"/>
-      <c r="O79" s="8"/>
-      <c r="P79" s="8"/>
-    </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>16</v>
       </c>
@@ -2229,16 +2171,8 @@
       <c r="I80" s="2">
         <v>0.14749999999999999</v>
       </c>
-      <c r="J80" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K80" s="8"/>
-      <c r="L80" s="8"/>
-      <c r="M80" s="8"/>
-      <c r="N80" s="8"/>
-      <c r="O80" s="8"/>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>17</v>
       </c>
@@ -2266,18 +2200,11 @@
       <c r="I81" s="2">
         <v>0.20910000000000001</v>
       </c>
-      <c r="J81" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="K81" s="8"/>
-      <c r="L81" s="8"/>
-      <c r="M81" s="8"/>
-      <c r="N81" s="8"/>
-      <c r="O81" s="8"/>
-      <c r="P81" s="8"/>
-      <c r="Q81" s="8"/>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="N81" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>18</v>
       </c>
@@ -2305,15 +2232,8 @@
       <c r="I82" s="2">
         <v>0.1336</v>
       </c>
-      <c r="J82" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="K82" s="8"/>
-      <c r="L82" s="8"/>
-      <c r="M82" s="8"/>
-      <c r="N82" s="8"/>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>19</v>
       </c>
@@ -2332,16 +2252,17 @@
       <c r="F83" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J83" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="K83" s="8"/>
-      <c r="L83" s="8"/>
-      <c r="M83" s="8"/>
-      <c r="N83" s="8"/>
-      <c r="O83" s="8"/>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G83" s="1">
+        <v>19.350000000000001</v>
+      </c>
+      <c r="H83" s="1">
+        <v>30.64</v>
+      </c>
+      <c r="I83" s="2">
+        <v>0.1326</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>20</v>
       </c>
@@ -2360,17 +2281,18 @@
       <c r="F84" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J84" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="K84" s="8"/>
-      <c r="L84" s="8"/>
-      <c r="M84" s="8"/>
-      <c r="N84" s="8"/>
-      <c r="O84" s="8"/>
+      <c r="G84" s="1">
+        <v>19.62</v>
+      </c>
+      <c r="H84" s="1">
+        <v>31.2</v>
+      </c>
+      <c r="I84" s="2">
+        <v>0.13400000000000001</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="28">
     <mergeCell ref="J47:O47"/>
     <mergeCell ref="J51:O51"/>
     <mergeCell ref="J50:O50"/>
@@ -2387,6 +2309,10 @@
     <mergeCell ref="J11:V11"/>
     <mergeCell ref="J19:V19"/>
     <mergeCell ref="J12:V12"/>
+    <mergeCell ref="J76:Q78"/>
+    <mergeCell ref="O62:S62"/>
+    <mergeCell ref="J52:O52"/>
+    <mergeCell ref="J49:O49"/>
     <mergeCell ref="J48:O48"/>
     <mergeCell ref="J75:M75"/>
     <mergeCell ref="J74:M74"/>
@@ -2395,16 +2321,6 @@
     <mergeCell ref="J66:V66"/>
     <mergeCell ref="J67:V67"/>
     <mergeCell ref="J71:V71"/>
-    <mergeCell ref="J84:O84"/>
-    <mergeCell ref="J76:Q78"/>
-    <mergeCell ref="O62:S62"/>
-    <mergeCell ref="J52:O52"/>
-    <mergeCell ref="J49:O49"/>
-    <mergeCell ref="J83:O83"/>
-    <mergeCell ref="J82:N82"/>
-    <mergeCell ref="J81:Q81"/>
-    <mergeCell ref="J80:O80"/>
-    <mergeCell ref="J79:P79"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8383B54E-C069-4636-B239-BE6952D0A933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9145CC-447F-45B3-BF69-4152A33433BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="53">
   <si>
     <t>ST-SSL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -228,6 +228,14 @@
   </si>
   <si>
     <t>。‘。’</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13基础上添加SSTBAN学习分支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13基础上添加SSTBAN学习分支，并且动态权重</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -317,16 +325,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -608,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:V84"/>
+  <dimension ref="A3:V86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="I84" sqref="I84"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="M90" sqref="M90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -745,21 +753,21 @@
       <c r="I9" s="2">
         <v>0.1225</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -789,21 +797,21 @@
       <c r="I10" s="2">
         <v>0.1226</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -833,21 +841,21 @@
       <c r="I11" s="2">
         <v>0.12</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -877,21 +885,21 @@
       <c r="I12" s="2">
         <v>0.1323</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -979,21 +987,21 @@
       <c r="I18" s="2">
         <v>0.16550000000000001</v>
       </c>
-      <c r="J18" s="10" t="s">
+      <c r="J18" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -1023,21 +1031,21 @@
       <c r="I19" s="2">
         <v>0.1507</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="J19" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="10"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
@@ -1058,21 +1066,21 @@
       <c r="F24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J24" s="10" t="s">
+      <c r="J24" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="10"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -1093,21 +1101,21 @@
       <c r="F25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J25" s="10" t="s">
+      <c r="J25" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="10"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="10"/>
-      <c r="V25" s="10"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
@@ -1195,12 +1203,12 @@
       <c r="I37" s="2">
         <v>0.13450000000000001</v>
       </c>
-      <c r="J37" s="10" t="s">
+      <c r="J37" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
@@ -1230,14 +1238,14 @@
       <c r="I38" s="2">
         <v>0.1394</v>
       </c>
-      <c r="J38" s="10" t="s">
+      <c r="J38" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
@@ -1325,12 +1333,12 @@
       <c r="I44" s="2">
         <v>0.1235</v>
       </c>
-      <c r="J44" s="8" t="s">
+      <c r="J44" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
@@ -1360,12 +1368,12 @@
       <c r="I45" s="2">
         <v>0.1234</v>
       </c>
-      <c r="J45" s="10" t="s">
+      <c r="J45" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
@@ -1395,12 +1403,12 @@
       <c r="I46" s="2">
         <v>0.1249</v>
       </c>
-      <c r="J46" s="8" t="s">
+      <c r="J46" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
@@ -1430,14 +1438,14 @@
       <c r="I47" s="2">
         <v>0.12280000000000001</v>
       </c>
-      <c r="J47" s="10" t="s">
+      <c r="J47" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
-      <c r="O47" s="10"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="8"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
@@ -1467,14 +1475,14 @@
       <c r="I48" s="2">
         <v>0.1222</v>
       </c>
-      <c r="J48" s="10" t="s">
+      <c r="J48" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
-      <c r="O48" s="10"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="8"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
@@ -1504,14 +1512,14 @@
       <c r="I49" s="2">
         <v>0.1234</v>
       </c>
-      <c r="J49" s="10" t="s">
+      <c r="J49" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="10"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
@@ -1541,14 +1549,14 @@
       <c r="I50" s="2">
         <v>0.1263</v>
       </c>
-      <c r="J50" s="10" t="s">
+      <c r="J50" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="K50" s="10"/>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
-      <c r="O50" s="10"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="8"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
@@ -1578,14 +1586,14 @@
       <c r="I51" s="2">
         <v>0.1232</v>
       </c>
-      <c r="J51" s="10" t="s">
+      <c r="J51" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="K51" s="10"/>
-      <c r="L51" s="10"/>
-      <c r="M51" s="10"/>
-      <c r="N51" s="10"/>
-      <c r="O51" s="10"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+      <c r="O51" s="8"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
@@ -1606,14 +1614,14 @@
       <c r="F52" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J52" s="10" t="s">
+      <c r="J52" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="K52" s="10"/>
-      <c r="L52" s="10"/>
-      <c r="M52" s="10"/>
-      <c r="N52" s="10"/>
-      <c r="O52" s="10"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="8"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
@@ -1739,13 +1747,13 @@
       <c r="L62" s="2">
         <v>0.14990000000000001</v>
       </c>
-      <c r="O62" s="9" t="s">
+      <c r="O62" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="P62" s="9"/>
-      <c r="Q62" s="9"/>
-      <c r="R62" s="9"/>
-      <c r="S62" s="9"/>
+      <c r="P62" s="11"/>
+      <c r="Q62" s="11"/>
+      <c r="R62" s="11"/>
+      <c r="S62" s="11"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
@@ -1787,21 +1795,21 @@
       <c r="I65" s="2">
         <v>0.15129999999999999</v>
       </c>
-      <c r="J65" s="10" t="s">
+      <c r="J65" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K65" s="10"/>
-      <c r="L65" s="10"/>
-      <c r="M65" s="10"/>
-      <c r="N65" s="10"/>
-      <c r="O65" s="10"/>
-      <c r="P65" s="10"/>
-      <c r="Q65" s="10"/>
-      <c r="R65" s="10"/>
-      <c r="S65" s="10"/>
-      <c r="T65" s="10"/>
-      <c r="U65" s="10"/>
-      <c r="V65" s="10"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="8"/>
+      <c r="M65" s="8"/>
+      <c r="N65" s="8"/>
+      <c r="O65" s="8"/>
+      <c r="P65" s="8"/>
+      <c r="Q65" s="8"/>
+      <c r="R65" s="8"/>
+      <c r="S65" s="8"/>
+      <c r="T65" s="8"/>
+      <c r="U65" s="8"/>
+      <c r="V65" s="8"/>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
@@ -1831,21 +1839,21 @@
       <c r="I66" s="2">
         <v>0.14929999999999999</v>
       </c>
-      <c r="J66" s="10" t="s">
+      <c r="J66" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="K66" s="10"/>
-      <c r="L66" s="10"/>
-      <c r="M66" s="10"/>
-      <c r="N66" s="10"/>
-      <c r="O66" s="10"/>
-      <c r="P66" s="10"/>
-      <c r="Q66" s="10"/>
-      <c r="R66" s="10"/>
-      <c r="S66" s="10"/>
-      <c r="T66" s="10"/>
-      <c r="U66" s="10"/>
-      <c r="V66" s="10"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="8"/>
+      <c r="M66" s="8"/>
+      <c r="N66" s="8"/>
+      <c r="O66" s="8"/>
+      <c r="P66" s="8"/>
+      <c r="Q66" s="8"/>
+      <c r="R66" s="8"/>
+      <c r="S66" s="8"/>
+      <c r="T66" s="8"/>
+      <c r="U66" s="8"/>
+      <c r="V66" s="8"/>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
@@ -1875,21 +1883,21 @@
       <c r="I67" s="5">
         <v>0.13739999999999999</v>
       </c>
-      <c r="J67" s="10" t="s">
+      <c r="J67" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="K67" s="10"/>
-      <c r="L67" s="10"/>
-      <c r="M67" s="10"/>
-      <c r="N67" s="10"/>
-      <c r="O67" s="10"/>
-      <c r="P67" s="10"/>
-      <c r="Q67" s="10"/>
-      <c r="R67" s="10"/>
-      <c r="S67" s="10"/>
-      <c r="T67" s="10"/>
-      <c r="U67" s="10"/>
-      <c r="V67" s="10"/>
+      <c r="K67" s="8"/>
+      <c r="L67" s="8"/>
+      <c r="M67" s="8"/>
+      <c r="N67" s="8"/>
+      <c r="O67" s="8"/>
+      <c r="P67" s="8"/>
+      <c r="Q67" s="8"/>
+      <c r="R67" s="8"/>
+      <c r="S67" s="8"/>
+      <c r="T67" s="8"/>
+      <c r="U67" s="8"/>
+      <c r="V67" s="8"/>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
@@ -1931,21 +1939,21 @@
       <c r="I71" s="2">
         <v>0.14280000000000001</v>
       </c>
-      <c r="J71" s="10" t="s">
+      <c r="J71" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="K71" s="10"/>
-      <c r="L71" s="10"/>
-      <c r="M71" s="10"/>
-      <c r="N71" s="10"/>
-      <c r="O71" s="10"/>
-      <c r="P71" s="10"/>
-      <c r="Q71" s="10"/>
-      <c r="R71" s="10"/>
-      <c r="S71" s="10"/>
-      <c r="T71" s="10"/>
-      <c r="U71" s="10"/>
-      <c r="V71" s="10"/>
+      <c r="K71" s="8"/>
+      <c r="L71" s="8"/>
+      <c r="M71" s="8"/>
+      <c r="N71" s="8"/>
+      <c r="O71" s="8"/>
+      <c r="P71" s="8"/>
+      <c r="Q71" s="8"/>
+      <c r="R71" s="8"/>
+      <c r="S71" s="8"/>
+      <c r="T71" s="8"/>
+      <c r="U71" s="8"/>
+      <c r="V71" s="8"/>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" s="7"/>
@@ -1987,12 +1995,12 @@
       <c r="I73" s="5">
         <v>0.13669999999999999</v>
       </c>
-      <c r="J73" s="8" t="s">
+      <c r="J73" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="K73" s="8"/>
-      <c r="L73" s="8"/>
-      <c r="M73" s="8"/>
+      <c r="K73" s="9"/>
+      <c r="L73" s="9"/>
+      <c r="M73" s="9"/>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
@@ -2013,12 +2021,12 @@
       <c r="F74" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J74" s="8" t="s">
+      <c r="J74" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="K74" s="8"/>
-      <c r="L74" s="8"/>
-      <c r="M74" s="8"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="9"/>
+      <c r="M74" s="9"/>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
@@ -2048,12 +2056,12 @@
       <c r="I75" s="2">
         <v>0.13780000000000001</v>
       </c>
-      <c r="J75" s="8" t="s">
+      <c r="J75" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="K75" s="8"/>
-      <c r="L75" s="8"/>
-      <c r="M75" s="8"/>
+      <c r="K75" s="9"/>
+      <c r="L75" s="9"/>
+      <c r="M75" s="9"/>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
@@ -2083,36 +2091,36 @@
       <c r="I76" s="5">
         <v>0.1348</v>
       </c>
-      <c r="J76" s="8" t="s">
+      <c r="J76" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="K76" s="8"/>
-      <c r="L76" s="8"/>
-      <c r="M76" s="8"/>
-      <c r="N76" s="8"/>
-      <c r="O76" s="8"/>
-      <c r="P76" s="8"/>
-      <c r="Q76" s="8"/>
+      <c r="K76" s="9"/>
+      <c r="L76" s="9"/>
+      <c r="M76" s="9"/>
+      <c r="N76" s="9"/>
+      <c r="O76" s="9"/>
+      <c r="P76" s="9"/>
+      <c r="Q76" s="9"/>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="J77" s="8"/>
-      <c r="K77" s="8"/>
-      <c r="L77" s="8"/>
-      <c r="M77" s="8"/>
-      <c r="N77" s="8"/>
-      <c r="O77" s="8"/>
-      <c r="P77" s="8"/>
-      <c r="Q77" s="8"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c r="L77" s="9"/>
+      <c r="M77" s="9"/>
+      <c r="N77" s="9"/>
+      <c r="O77" s="9"/>
+      <c r="P77" s="9"/>
+      <c r="Q77" s="9"/>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="J78" s="8"/>
-      <c r="K78" s="8"/>
-      <c r="L78" s="8"/>
-      <c r="M78" s="8"/>
-      <c r="N78" s="8"/>
-      <c r="O78" s="8"/>
-      <c r="P78" s="8"/>
-      <c r="Q78" s="8"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c r="L78" s="9"/>
+      <c r="M78" s="9"/>
+      <c r="N78" s="9"/>
+      <c r="O78" s="9"/>
+      <c r="P78" s="9"/>
+      <c r="Q78" s="9"/>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
@@ -2291,24 +2299,64 @@
         <v>0.13400000000000001</v>
       </c>
     </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>21</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J85" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K85" s="9"/>
+      <c r="L85" s="9"/>
+      <c r="M85" s="9"/>
+      <c r="N85" s="9"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>22</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J86" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="K86" s="9"/>
+      <c r="L86" s="9"/>
+      <c r="M86" s="9"/>
+      <c r="N86" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="J47:O47"/>
-    <mergeCell ref="J51:O51"/>
-    <mergeCell ref="J50:O50"/>
-    <mergeCell ref="J24:V24"/>
-    <mergeCell ref="J25:V25"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="J38:O38"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="J44:M44"/>
-    <mergeCell ref="J9:V9"/>
-    <mergeCell ref="J10:V10"/>
-    <mergeCell ref="J18:V18"/>
-    <mergeCell ref="J11:V11"/>
-    <mergeCell ref="J19:V19"/>
-    <mergeCell ref="J12:V12"/>
+  <mergeCells count="30">
+    <mergeCell ref="J85:N85"/>
+    <mergeCell ref="J86:N86"/>
     <mergeCell ref="J76:Q78"/>
     <mergeCell ref="O62:S62"/>
     <mergeCell ref="J52:O52"/>
@@ -2321,6 +2369,22 @@
     <mergeCell ref="J66:V66"/>
     <mergeCell ref="J67:V67"/>
     <mergeCell ref="J71:V71"/>
+    <mergeCell ref="J9:V9"/>
+    <mergeCell ref="J10:V10"/>
+    <mergeCell ref="J18:V18"/>
+    <mergeCell ref="J11:V11"/>
+    <mergeCell ref="J19:V19"/>
+    <mergeCell ref="J12:V12"/>
+    <mergeCell ref="J47:O47"/>
+    <mergeCell ref="J51:O51"/>
+    <mergeCell ref="J50:O50"/>
+    <mergeCell ref="J24:V24"/>
+    <mergeCell ref="J25:V25"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="J38:O38"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="J44:M44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tfp_pro\modinfo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9145CC-447F-45B3-BF69-4152A33433BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC413622-F919-4684-A918-FAB5D5D91D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13470" yWindow="3255" windowWidth="22665" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="55">
   <si>
     <t>ST-SSL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -235,7 +235,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>13基础上添加SSTBAN学习分支，并且动态权重</t>
+    <t>13基础上添加SSTBAN学习分支，并且622权重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13基础上添加SSTBAN学习分支，mask0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21-&gt;24添加SSTBAN学习分支，添加dwa，mask0.2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -325,16 +333,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -616,18 +624,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:V86"/>
+  <dimension ref="A3:V88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="M90" sqref="M90"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="J91" sqref="J91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
@@ -638,7 +646,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -667,7 +675,7 @@
         <v>0.1363</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -696,7 +704,7 @@
         <v>0.1198</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -725,7 +733,7 @@
         <v>0.12089999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -753,23 +761,23 @@
       <c r="I9" s="2">
         <v>0.1225</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -797,23 +805,23 @@
       <c r="I10" s="2">
         <v>0.1226</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -841,23 +849,23 @@
       <c r="I11" s="2">
         <v>0.12</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -885,23 +893,23 @@
       <c r="I12" s="2">
         <v>0.1323</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="J12" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -930,7 +938,7 @@
         <v>0.14430000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -959,7 +967,7 @@
         <v>0.14610000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -987,23 +995,23 @@
       <c r="I18" s="2">
         <v>0.16550000000000001</v>
       </c>
-      <c r="J18" s="8" t="s">
+      <c r="J18" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -1031,23 +1039,23 @@
       <c r="I19" s="2">
         <v>0.1507</v>
       </c>
-      <c r="J19" s="8" t="s">
+      <c r="J19" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>13</v>
       </c>
@@ -1066,23 +1074,23 @@
       <c r="F24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J24" s="8" t="s">
+      <c r="J24" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="8"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>14</v>
       </c>
@@ -1101,23 +1109,23 @@
       <c r="F25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J25" s="8" t="s">
+      <c r="J25" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="8"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>13</v>
       </c>
@@ -1146,7 +1154,7 @@
         <v>0.12959999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>14</v>
       </c>
@@ -1175,7 +1183,7 @@
         <v>0.1295</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>20</v>
       </c>
@@ -1203,14 +1211,14 @@
       <c r="I37" s="2">
         <v>0.13450000000000001</v>
       </c>
-      <c r="J37" s="8" t="s">
+      <c r="J37" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>20</v>
       </c>
@@ -1238,16 +1246,16 @@
       <c r="I38" s="2">
         <v>0.1394</v>
       </c>
-      <c r="J38" s="8" t="s">
+      <c r="J38" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>13</v>
       </c>
@@ -1276,7 +1284,7 @@
         <v>0.12189999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>14</v>
       </c>
@@ -1305,7 +1313,7 @@
         <v>0.1249</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>20</v>
       </c>
@@ -1333,14 +1341,14 @@
       <c r="I44" s="2">
         <v>0.1235</v>
       </c>
-      <c r="J44" s="9" t="s">
+      <c r="J44" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="9"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>20</v>
       </c>
@@ -1368,14 +1376,14 @@
       <c r="I45" s="2">
         <v>0.1234</v>
       </c>
-      <c r="J45" s="8" t="s">
+      <c r="J45" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>20</v>
       </c>
@@ -1403,14 +1411,14 @@
       <c r="I46" s="2">
         <v>0.1249</v>
       </c>
-      <c r="J46" s="9" t="s">
+      <c r="J46" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="9"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>20</v>
       </c>
@@ -1438,16 +1446,16 @@
       <c r="I47" s="2">
         <v>0.12280000000000001</v>
       </c>
-      <c r="J47" s="8" t="s">
+      <c r="J47" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="8"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>20</v>
       </c>
@@ -1475,16 +1483,16 @@
       <c r="I48" s="2">
         <v>0.1222</v>
       </c>
-      <c r="J48" s="8" t="s">
+      <c r="J48" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8"/>
-      <c r="O48" s="8"/>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>20</v>
       </c>
@@ -1512,16 +1520,16 @@
       <c r="I49" s="2">
         <v>0.1234</v>
       </c>
-      <c r="J49" s="8" t="s">
+      <c r="J49" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="8"/>
-      <c r="O49" s="8"/>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>20</v>
       </c>
@@ -1549,16 +1557,16 @@
       <c r="I50" s="2">
         <v>0.1263</v>
       </c>
-      <c r="J50" s="8" t="s">
+      <c r="J50" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="8"/>
-      <c r="O50" s="8"/>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>20</v>
       </c>
@@ -1586,16 +1594,16 @@
       <c r="I51" s="2">
         <v>0.1232</v>
       </c>
-      <c r="J51" s="8" t="s">
+      <c r="J51" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="8"/>
-      <c r="O51" s="8"/>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>20</v>
       </c>
@@ -1614,16 +1622,16 @@
       <c r="F52" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J52" s="8" t="s">
+      <c r="J52" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
-      <c r="N52" s="8"/>
-      <c r="O52" s="8"/>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>13</v>
       </c>
@@ -1652,7 +1660,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>20</v>
       </c>
@@ -1681,7 +1689,7 @@
         <v>0.13650000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>13</v>
       </c>
@@ -1710,7 +1718,7 @@
         <v>0.13769999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>14</v>
       </c>
@@ -1747,15 +1755,15 @@
       <c r="L62" s="2">
         <v>0.14990000000000001</v>
       </c>
-      <c r="O62" s="11" t="s">
+      <c r="O62" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="P62" s="11"/>
-      <c r="Q62" s="11"/>
-      <c r="R62" s="11"/>
-      <c r="S62" s="11"/>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P62" s="9"/>
+      <c r="Q62" s="9"/>
+      <c r="R62" s="9"/>
+      <c r="S62" s="9"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
       <c r="G63" s="1">
         <v>20.94</v>
@@ -1767,7 +1775,7 @@
         <v>0.14929999999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>20</v>
       </c>
@@ -1795,23 +1803,23 @@
       <c r="I65" s="2">
         <v>0.15129999999999999</v>
       </c>
-      <c r="J65" s="8" t="s">
+      <c r="J65" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="K65" s="8"/>
-      <c r="L65" s="8"/>
-      <c r="M65" s="8"/>
-      <c r="N65" s="8"/>
-      <c r="O65" s="8"/>
-      <c r="P65" s="8"/>
-      <c r="Q65" s="8"/>
-      <c r="R65" s="8"/>
-      <c r="S65" s="8"/>
-      <c r="T65" s="8"/>
-      <c r="U65" s="8"/>
-      <c r="V65" s="8"/>
-    </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K65" s="10"/>
+      <c r="L65" s="10"/>
+      <c r="M65" s="10"/>
+      <c r="N65" s="10"/>
+      <c r="O65" s="10"/>
+      <c r="P65" s="10"/>
+      <c r="Q65" s="10"/>
+      <c r="R65" s="10"/>
+      <c r="S65" s="10"/>
+      <c r="T65" s="10"/>
+      <c r="U65" s="10"/>
+      <c r="V65" s="10"/>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>20</v>
       </c>
@@ -1839,23 +1847,23 @@
       <c r="I66" s="2">
         <v>0.14929999999999999</v>
       </c>
-      <c r="J66" s="8" t="s">
+      <c r="J66" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="K66" s="8"/>
-      <c r="L66" s="8"/>
-      <c r="M66" s="8"/>
-      <c r="N66" s="8"/>
-      <c r="O66" s="8"/>
-      <c r="P66" s="8"/>
-      <c r="Q66" s="8"/>
-      <c r="R66" s="8"/>
-      <c r="S66" s="8"/>
-      <c r="T66" s="8"/>
-      <c r="U66" s="8"/>
-      <c r="V66" s="8"/>
-    </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K66" s="10"/>
+      <c r="L66" s="10"/>
+      <c r="M66" s="10"/>
+      <c r="N66" s="10"/>
+      <c r="O66" s="10"/>
+      <c r="P66" s="10"/>
+      <c r="Q66" s="10"/>
+      <c r="R66" s="10"/>
+      <c r="S66" s="10"/>
+      <c r="T66" s="10"/>
+      <c r="U66" s="10"/>
+      <c r="V66" s="10"/>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>20</v>
       </c>
@@ -1883,23 +1891,23 @@
       <c r="I67" s="5">
         <v>0.13739999999999999</v>
       </c>
-      <c r="J67" s="8" t="s">
+      <c r="J67" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="K67" s="8"/>
-      <c r="L67" s="8"/>
-      <c r="M67" s="8"/>
-      <c r="N67" s="8"/>
-      <c r="O67" s="8"/>
-      <c r="P67" s="8"/>
-      <c r="Q67" s="8"/>
-      <c r="R67" s="8"/>
-      <c r="S67" s="8"/>
-      <c r="T67" s="8"/>
-      <c r="U67" s="8"/>
-      <c r="V67" s="8"/>
-    </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K67" s="10"/>
+      <c r="L67" s="10"/>
+      <c r="M67" s="10"/>
+      <c r="N67" s="10"/>
+      <c r="O67" s="10"/>
+      <c r="P67" s="10"/>
+      <c r="Q67" s="10"/>
+      <c r="R67" s="10"/>
+      <c r="S67" s="10"/>
+      <c r="T67" s="10"/>
+      <c r="U67" s="10"/>
+      <c r="V67" s="10"/>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" s="6"/>
       <c r="G68" s="4">
         <v>19.54</v>
@@ -1911,7 +1919,7 @@
         <v>0.13730000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>20</v>
       </c>
@@ -1939,23 +1947,23 @@
       <c r="I71" s="2">
         <v>0.14280000000000001</v>
       </c>
-      <c r="J71" s="8" t="s">
+      <c r="J71" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="K71" s="8"/>
-      <c r="L71" s="8"/>
-      <c r="M71" s="8"/>
-      <c r="N71" s="8"/>
-      <c r="O71" s="8"/>
-      <c r="P71" s="8"/>
-      <c r="Q71" s="8"/>
-      <c r="R71" s="8"/>
-      <c r="S71" s="8"/>
-      <c r="T71" s="8"/>
-      <c r="U71" s="8"/>
-      <c r="V71" s="8"/>
-    </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K71" s="10"/>
+      <c r="L71" s="10"/>
+      <c r="M71" s="10"/>
+      <c r="N71" s="10"/>
+      <c r="O71" s="10"/>
+      <c r="P71" s="10"/>
+      <c r="Q71" s="10"/>
+      <c r="R71" s="10"/>
+      <c r="S71" s="10"/>
+      <c r="T71" s="10"/>
+      <c r="U71" s="10"/>
+      <c r="V71" s="10"/>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" s="7"/>
       <c r="G72" s="4">
         <v>19.579999999999998</v>
@@ -1967,7 +1975,7 @@
         <v>0.13980000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
         <v>20</v>
       </c>
@@ -1995,14 +2003,14 @@
       <c r="I73" s="5">
         <v>0.13669999999999999</v>
       </c>
-      <c r="J73" s="9" t="s">
+      <c r="J73" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="K73" s="9"/>
-      <c r="L73" s="9"/>
-      <c r="M73" s="9"/>
-    </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K73" s="8"/>
+      <c r="L73" s="8"/>
+      <c r="M73" s="8"/>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
         <v>20</v>
       </c>
@@ -2021,14 +2029,14 @@
       <c r="F74" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J74" s="9" t="s">
+      <c r="J74" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="K74" s="9"/>
-      <c r="L74" s="9"/>
-      <c r="M74" s="9"/>
-    </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K74" s="8"/>
+      <c r="L74" s="8"/>
+      <c r="M74" s="8"/>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
         <v>20</v>
       </c>
@@ -2056,14 +2064,14 @@
       <c r="I75" s="2">
         <v>0.13780000000000001</v>
       </c>
-      <c r="J75" s="9" t="s">
+      <c r="J75" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="K75" s="9"/>
-      <c r="L75" s="9"/>
-      <c r="M75" s="9"/>
-    </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K75" s="8"/>
+      <c r="L75" s="8"/>
+      <c r="M75" s="8"/>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
         <v>13</v>
       </c>
@@ -2091,38 +2099,38 @@
       <c r="I76" s="5">
         <v>0.1348</v>
       </c>
-      <c r="J76" s="9" t="s">
+      <c r="J76" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="K76" s="9"/>
-      <c r="L76" s="9"/>
-      <c r="M76" s="9"/>
-      <c r="N76" s="9"/>
-      <c r="O76" s="9"/>
-      <c r="P76" s="9"/>
-      <c r="Q76" s="9"/>
-    </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="J77" s="9"/>
-      <c r="K77" s="9"/>
-      <c r="L77" s="9"/>
-      <c r="M77" s="9"/>
-      <c r="N77" s="9"/>
-      <c r="O77" s="9"/>
-      <c r="P77" s="9"/>
-      <c r="Q77" s="9"/>
-    </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="J78" s="9"/>
-      <c r="K78" s="9"/>
-      <c r="L78" s="9"/>
-      <c r="M78" s="9"/>
-      <c r="N78" s="9"/>
-      <c r="O78" s="9"/>
-      <c r="P78" s="9"/>
-      <c r="Q78" s="9"/>
-    </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K76" s="8"/>
+      <c r="L76" s="8"/>
+      <c r="M76" s="8"/>
+      <c r="N76" s="8"/>
+      <c r="O76" s="8"/>
+      <c r="P76" s="8"/>
+      <c r="Q76" s="8"/>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="J77" s="8"/>
+      <c r="K77" s="8"/>
+      <c r="L77" s="8"/>
+      <c r="M77" s="8"/>
+      <c r="N77" s="8"/>
+      <c r="O77" s="8"/>
+      <c r="P77" s="8"/>
+      <c r="Q77" s="8"/>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="8"/>
+      <c r="M78" s="8"/>
+      <c r="N78" s="8"/>
+      <c r="O78" s="8"/>
+      <c r="P78" s="8"/>
+      <c r="Q78" s="8"/>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>14</v>
       </c>
@@ -2151,7 +2159,7 @@
         <v>0.13689999999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>16</v>
       </c>
@@ -2180,7 +2188,7 @@
         <v>0.14749999999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>17</v>
       </c>
@@ -2212,7 +2220,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>18</v>
       </c>
@@ -2241,7 +2249,7 @@
         <v>0.1336</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>19</v>
       </c>
@@ -2270,7 +2278,7 @@
         <v>0.1326</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>20</v>
       </c>
@@ -2299,7 +2307,7 @@
         <v>0.13400000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>21</v>
       </c>
@@ -2318,15 +2326,24 @@
       <c r="F85" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J85" s="9" t="s">
+      <c r="G85" s="1">
+        <v>19.55</v>
+      </c>
+      <c r="H85" s="1">
+        <v>30.82</v>
+      </c>
+      <c r="I85" s="2">
+        <v>0.1361</v>
+      </c>
+      <c r="J85" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="K85" s="9"/>
-      <c r="L85" s="9"/>
-      <c r="M85" s="9"/>
-      <c r="N85" s="9"/>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K85" s="8"/>
+      <c r="L85" s="8"/>
+      <c r="M85" s="8"/>
+      <c r="N85" s="8"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>22</v>
       </c>
@@ -2345,36 +2362,81 @@
       <c r="F86" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J86" s="9" t="s">
+      <c r="G86" s="1">
+        <v>19.36</v>
+      </c>
+      <c r="H86" s="1">
+        <v>30.7</v>
+      </c>
+      <c r="I86" s="5">
+        <v>0.13070000000000001</v>
+      </c>
+      <c r="J86" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="K86" s="9"/>
-      <c r="L86" s="9"/>
-      <c r="M86" s="9"/>
-      <c r="N86" s="9"/>
+      <c r="K86" s="8"/>
+      <c r="L86" s="8"/>
+      <c r="M86" s="8"/>
+      <c r="N86" s="8"/>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>23</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J87" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K87" s="8"/>
+      <c r="L87" s="8"/>
+      <c r="M87" s="8"/>
+      <c r="N87" s="8"/>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>24</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J88" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K88" s="8"/>
+      <c r="L88" s="8"/>
+      <c r="M88" s="8"/>
+      <c r="N88" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="J85:N85"/>
-    <mergeCell ref="J86:N86"/>
-    <mergeCell ref="J76:Q78"/>
-    <mergeCell ref="O62:S62"/>
-    <mergeCell ref="J52:O52"/>
-    <mergeCell ref="J49:O49"/>
-    <mergeCell ref="J48:O48"/>
-    <mergeCell ref="J75:M75"/>
-    <mergeCell ref="J74:M74"/>
-    <mergeCell ref="J73:M73"/>
-    <mergeCell ref="J65:V65"/>
-    <mergeCell ref="J66:V66"/>
-    <mergeCell ref="J67:V67"/>
-    <mergeCell ref="J71:V71"/>
-    <mergeCell ref="J9:V9"/>
-    <mergeCell ref="J10:V10"/>
-    <mergeCell ref="J18:V18"/>
-    <mergeCell ref="J11:V11"/>
-    <mergeCell ref="J19:V19"/>
-    <mergeCell ref="J12:V12"/>
+  <mergeCells count="32">
+    <mergeCell ref="J87:N87"/>
+    <mergeCell ref="J88:N88"/>
     <mergeCell ref="J47:O47"/>
     <mergeCell ref="J51:O51"/>
     <mergeCell ref="J50:O50"/>
@@ -2385,6 +2447,26 @@
     <mergeCell ref="J38:O38"/>
     <mergeCell ref="J37:M37"/>
     <mergeCell ref="J44:M44"/>
+    <mergeCell ref="J9:V9"/>
+    <mergeCell ref="J10:V10"/>
+    <mergeCell ref="J18:V18"/>
+    <mergeCell ref="J11:V11"/>
+    <mergeCell ref="J19:V19"/>
+    <mergeCell ref="J12:V12"/>
+    <mergeCell ref="J49:O49"/>
+    <mergeCell ref="J48:O48"/>
+    <mergeCell ref="J75:M75"/>
+    <mergeCell ref="J74:M74"/>
+    <mergeCell ref="J73:M73"/>
+    <mergeCell ref="J65:V65"/>
+    <mergeCell ref="J66:V66"/>
+    <mergeCell ref="J67:V67"/>
+    <mergeCell ref="J71:V71"/>
+    <mergeCell ref="J85:N85"/>
+    <mergeCell ref="J86:N86"/>
+    <mergeCell ref="J76:Q78"/>
+    <mergeCell ref="O62:S62"/>
+    <mergeCell ref="J52:O52"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC413622-F919-4684-A918-FAB5D5D91D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC707BB-1D3A-4340-9F86-C2C9E336D990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13470" yWindow="3255" windowWidth="22665" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13470" yWindow="2115" windowWidth="22665" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="56">
   <si>
     <t>ST-SSL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -244,6 +244,10 @@
   </si>
   <si>
     <t>21-&gt;24添加SSTBAN学习分支，添加dwa，mask0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13-&gt;25加入outs前经过不同注意力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -335,14 +339,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -624,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:V88"/>
+  <dimension ref="A3:V89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="J91" sqref="J91"/>
+      <selection activeCell="K90" sqref="K90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -761,21 +765,21 @@
       <c r="I9" s="2">
         <v>0.1225</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -805,21 +809,21 @@
       <c r="I10" s="2">
         <v>0.1226</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -849,21 +853,21 @@
       <c r="I11" s="2">
         <v>0.12</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -893,21 +897,21 @@
       <c r="I12" s="2">
         <v>0.1323</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -995,21 +999,21 @@
       <c r="I18" s="2">
         <v>0.16550000000000001</v>
       </c>
-      <c r="J18" s="10" t="s">
+      <c r="J18" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
@@ -1039,21 +1043,21 @@
       <c r="I19" s="2">
         <v>0.1507</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="J19" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="10"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
@@ -1074,21 +1078,21 @@
       <c r="F24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J24" s="10" t="s">
+      <c r="J24" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="10"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -1109,21 +1113,21 @@
       <c r="F25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J25" s="10" t="s">
+      <c r="J25" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="10"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="10"/>
-      <c r="V25" s="10"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
@@ -1211,12 +1215,12 @@
       <c r="I37" s="2">
         <v>0.13450000000000001</v>
       </c>
-      <c r="J37" s="10" t="s">
+      <c r="J37" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
@@ -1246,14 +1250,14 @@
       <c r="I38" s="2">
         <v>0.1394</v>
       </c>
-      <c r="J38" s="10" t="s">
+      <c r="J38" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
@@ -1376,12 +1380,12 @@
       <c r="I45" s="2">
         <v>0.1234</v>
       </c>
-      <c r="J45" s="10" t="s">
+      <c r="J45" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
@@ -1446,14 +1450,14 @@
       <c r="I47" s="2">
         <v>0.12280000000000001</v>
       </c>
-      <c r="J47" s="10" t="s">
+      <c r="J47" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
-      <c r="O47" s="10"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
@@ -1483,14 +1487,14 @@
       <c r="I48" s="2">
         <v>0.1222</v>
       </c>
-      <c r="J48" s="10" t="s">
+      <c r="J48" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
-      <c r="O48" s="10"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
@@ -1520,14 +1524,14 @@
       <c r="I49" s="2">
         <v>0.1234</v>
       </c>
-      <c r="J49" s="10" t="s">
+      <c r="J49" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="10"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
@@ -1557,14 +1561,14 @@
       <c r="I50" s="2">
         <v>0.1263</v>
       </c>
-      <c r="J50" s="10" t="s">
+      <c r="J50" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K50" s="10"/>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
-      <c r="O50" s="10"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="9"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
@@ -1594,14 +1598,14 @@
       <c r="I51" s="2">
         <v>0.1232</v>
       </c>
-      <c r="J51" s="10" t="s">
+      <c r="J51" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="K51" s="10"/>
-      <c r="L51" s="10"/>
-      <c r="M51" s="10"/>
-      <c r="N51" s="10"/>
-      <c r="O51" s="10"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
@@ -1622,14 +1626,14 @@
       <c r="F52" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J52" s="10" t="s">
+      <c r="J52" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="K52" s="10"/>
-      <c r="L52" s="10"/>
-      <c r="M52" s="10"/>
-      <c r="N52" s="10"/>
-      <c r="O52" s="10"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
@@ -1755,13 +1759,13 @@
       <c r="L62" s="2">
         <v>0.14990000000000001</v>
       </c>
-      <c r="O62" s="9" t="s">
+      <c r="O62" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="P62" s="9"/>
-      <c r="Q62" s="9"/>
-      <c r="R62" s="9"/>
-      <c r="S62" s="9"/>
+      <c r="P62" s="11"/>
+      <c r="Q62" s="11"/>
+      <c r="R62" s="11"/>
+      <c r="S62" s="11"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
@@ -1803,21 +1807,21 @@
       <c r="I65" s="2">
         <v>0.15129999999999999</v>
       </c>
-      <c r="J65" s="10" t="s">
+      <c r="J65" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K65" s="10"/>
-      <c r="L65" s="10"/>
-      <c r="M65" s="10"/>
-      <c r="N65" s="10"/>
-      <c r="O65" s="10"/>
-      <c r="P65" s="10"/>
-      <c r="Q65" s="10"/>
-      <c r="R65" s="10"/>
-      <c r="S65" s="10"/>
-      <c r="T65" s="10"/>
-      <c r="U65" s="10"/>
-      <c r="V65" s="10"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+      <c r="O65" s="9"/>
+      <c r="P65" s="9"/>
+      <c r="Q65" s="9"/>
+      <c r="R65" s="9"/>
+      <c r="S65" s="9"/>
+      <c r="T65" s="9"/>
+      <c r="U65" s="9"/>
+      <c r="V65" s="9"/>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
@@ -1847,21 +1851,21 @@
       <c r="I66" s="2">
         <v>0.14929999999999999</v>
       </c>
-      <c r="J66" s="10" t="s">
+      <c r="J66" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K66" s="10"/>
-      <c r="L66" s="10"/>
-      <c r="M66" s="10"/>
-      <c r="N66" s="10"/>
-      <c r="O66" s="10"/>
-      <c r="P66" s="10"/>
-      <c r="Q66" s="10"/>
-      <c r="R66" s="10"/>
-      <c r="S66" s="10"/>
-      <c r="T66" s="10"/>
-      <c r="U66" s="10"/>
-      <c r="V66" s="10"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+      <c r="O66" s="9"/>
+      <c r="P66" s="9"/>
+      <c r="Q66" s="9"/>
+      <c r="R66" s="9"/>
+      <c r="S66" s="9"/>
+      <c r="T66" s="9"/>
+      <c r="U66" s="9"/>
+      <c r="V66" s="9"/>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
@@ -1891,21 +1895,21 @@
       <c r="I67" s="5">
         <v>0.13739999999999999</v>
       </c>
-      <c r="J67" s="10" t="s">
+      <c r="J67" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="K67" s="10"/>
-      <c r="L67" s="10"/>
-      <c r="M67" s="10"/>
-      <c r="N67" s="10"/>
-      <c r="O67" s="10"/>
-      <c r="P67" s="10"/>
-      <c r="Q67" s="10"/>
-      <c r="R67" s="10"/>
-      <c r="S67" s="10"/>
-      <c r="T67" s="10"/>
-      <c r="U67" s="10"/>
-      <c r="V67" s="10"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="9"/>
+      <c r="O67" s="9"/>
+      <c r="P67" s="9"/>
+      <c r="Q67" s="9"/>
+      <c r="R67" s="9"/>
+      <c r="S67" s="9"/>
+      <c r="T67" s="9"/>
+      <c r="U67" s="9"/>
+      <c r="V67" s="9"/>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" s="6"/>
@@ -1947,21 +1951,21 @@
       <c r="I71" s="2">
         <v>0.14280000000000001</v>
       </c>
-      <c r="J71" s="10" t="s">
+      <c r="J71" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="K71" s="10"/>
-      <c r="L71" s="10"/>
-      <c r="M71" s="10"/>
-      <c r="N71" s="10"/>
-      <c r="O71" s="10"/>
-      <c r="P71" s="10"/>
-      <c r="Q71" s="10"/>
-      <c r="R71" s="10"/>
-      <c r="S71" s="10"/>
-      <c r="T71" s="10"/>
-      <c r="U71" s="10"/>
-      <c r="V71" s="10"/>
+      <c r="K71" s="9"/>
+      <c r="L71" s="9"/>
+      <c r="M71" s="9"/>
+      <c r="N71" s="9"/>
+      <c r="O71" s="9"/>
+      <c r="P71" s="9"/>
+      <c r="Q71" s="9"/>
+      <c r="R71" s="9"/>
+      <c r="S71" s="9"/>
+      <c r="T71" s="9"/>
+      <c r="U71" s="9"/>
+      <c r="V71" s="9"/>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" s="7"/>
@@ -2433,13 +2437,45 @@
       <c r="M88" s="8"/>
       <c r="N88" s="8"/>
     </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>25</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J89" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="K89" s="9"/>
+      <c r="L89" s="9"/>
+      <c r="M89" s="9"/>
+      <c r="N89" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="J87:N87"/>
-    <mergeCell ref="J88:N88"/>
-    <mergeCell ref="J47:O47"/>
-    <mergeCell ref="J51:O51"/>
-    <mergeCell ref="J50:O50"/>
+  <mergeCells count="33">
+    <mergeCell ref="J76:Q78"/>
+    <mergeCell ref="O62:S62"/>
+    <mergeCell ref="J52:O52"/>
+    <mergeCell ref="J89:N89"/>
+    <mergeCell ref="J9:V9"/>
+    <mergeCell ref="J10:V10"/>
+    <mergeCell ref="J18:V18"/>
+    <mergeCell ref="J11:V11"/>
+    <mergeCell ref="J19:V19"/>
+    <mergeCell ref="J12:V12"/>
     <mergeCell ref="J24:V24"/>
     <mergeCell ref="J25:V25"/>
     <mergeCell ref="J45:M45"/>
@@ -2447,12 +2483,11 @@
     <mergeCell ref="J38:O38"/>
     <mergeCell ref="J37:M37"/>
     <mergeCell ref="J44:M44"/>
-    <mergeCell ref="J9:V9"/>
-    <mergeCell ref="J10:V10"/>
-    <mergeCell ref="J18:V18"/>
-    <mergeCell ref="J11:V11"/>
-    <mergeCell ref="J19:V19"/>
-    <mergeCell ref="J12:V12"/>
+    <mergeCell ref="J87:N87"/>
+    <mergeCell ref="J88:N88"/>
+    <mergeCell ref="J47:O47"/>
+    <mergeCell ref="J51:O51"/>
+    <mergeCell ref="J50:O50"/>
     <mergeCell ref="J49:O49"/>
     <mergeCell ref="J48:O48"/>
     <mergeCell ref="J75:M75"/>
@@ -2464,9 +2499,6 @@
     <mergeCell ref="J71:V71"/>
     <mergeCell ref="J85:N85"/>
     <mergeCell ref="J86:N86"/>
-    <mergeCell ref="J76:Q78"/>
-    <mergeCell ref="O62:S62"/>
-    <mergeCell ref="J52:O52"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC707BB-1D3A-4340-9F86-C2C9E336D990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B5777C-E09E-4018-B21C-4BC2921A95E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13470" yWindow="2115" windowWidth="22665" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="57">
   <si>
     <t>ST-SSL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -248,6 +248,10 @@
   </si>
   <si>
     <t>13-&gt;25加入outs前经过不同注意力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13-&gt;26对outs前后部分加注意力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -339,14 +343,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -628,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:V89"/>
+  <dimension ref="A3:V90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="K90" sqref="K90"/>
+      <selection activeCell="J90" sqref="J90:N90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -765,21 +769,21 @@
       <c r="I9" s="2">
         <v>0.1225</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -809,21 +813,21 @@
       <c r="I10" s="2">
         <v>0.1226</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -853,21 +857,21 @@
       <c r="I11" s="2">
         <v>0.12</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -897,21 +901,21 @@
       <c r="I12" s="2">
         <v>0.1323</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J12" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -999,21 +1003,21 @@
       <c r="I18" s="2">
         <v>0.16550000000000001</v>
       </c>
-      <c r="J18" s="9" t="s">
+      <c r="J18" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
@@ -1043,21 +1047,21 @@
       <c r="I19" s="2">
         <v>0.1507</v>
       </c>
-      <c r="J19" s="9" t="s">
+      <c r="J19" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
@@ -1078,21 +1082,21 @@
       <c r="F24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J24" s="9" t="s">
+      <c r="J24" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -1113,21 +1117,21 @@
       <c r="F25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="J25" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
@@ -1215,12 +1219,12 @@
       <c r="I37" s="2">
         <v>0.13450000000000001</v>
       </c>
-      <c r="J37" s="9" t="s">
+      <c r="J37" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
@@ -1250,14 +1254,14 @@
       <c r="I38" s="2">
         <v>0.1394</v>
       </c>
-      <c r="J38" s="9" t="s">
+      <c r="J38" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
@@ -1380,12 +1384,12 @@
       <c r="I45" s="2">
         <v>0.1234</v>
       </c>
-      <c r="J45" s="9" t="s">
+      <c r="J45" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
@@ -1450,14 +1454,14 @@
       <c r="I47" s="2">
         <v>0.12280000000000001</v>
       </c>
-      <c r="J47" s="9" t="s">
+      <c r="J47" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
-      <c r="M47" s="9"/>
-      <c r="N47" s="9"/>
-      <c r="O47" s="9"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
@@ -1487,14 +1491,14 @@
       <c r="I48" s="2">
         <v>0.1222</v>
       </c>
-      <c r="J48" s="9" t="s">
+      <c r="J48" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
-      <c r="M48" s="9"/>
-      <c r="N48" s="9"/>
-      <c r="O48" s="9"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
@@ -1524,14 +1528,14 @@
       <c r="I49" s="2">
         <v>0.1234</v>
       </c>
-      <c r="J49" s="9" t="s">
+      <c r="J49" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="K49" s="9"/>
-      <c r="L49" s="9"/>
-      <c r="M49" s="9"/>
-      <c r="N49" s="9"/>
-      <c r="O49" s="9"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
@@ -1561,14 +1565,14 @@
       <c r="I50" s="2">
         <v>0.1263</v>
       </c>
-      <c r="J50" s="9" t="s">
+      <c r="J50" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
-      <c r="M50" s="9"/>
-      <c r="N50" s="9"/>
-      <c r="O50" s="9"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
@@ -1598,14 +1602,14 @@
       <c r="I51" s="2">
         <v>0.1232</v>
       </c>
-      <c r="J51" s="9" t="s">
+      <c r="J51" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="9"/>
-      <c r="N51" s="9"/>
-      <c r="O51" s="9"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
@@ -1626,14 +1630,14 @@
       <c r="F52" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J52" s="9" t="s">
+      <c r="J52" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="K52" s="9"/>
-      <c r="L52" s="9"/>
-      <c r="M52" s="9"/>
-      <c r="N52" s="9"/>
-      <c r="O52" s="9"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
@@ -1759,13 +1763,13 @@
       <c r="L62" s="2">
         <v>0.14990000000000001</v>
       </c>
-      <c r="O62" s="11" t="s">
+      <c r="O62" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="P62" s="11"/>
-      <c r="Q62" s="11"/>
-      <c r="R62" s="11"/>
-      <c r="S62" s="11"/>
+      <c r="P62" s="9"/>
+      <c r="Q62" s="9"/>
+      <c r="R62" s="9"/>
+      <c r="S62" s="9"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
@@ -1807,21 +1811,21 @@
       <c r="I65" s="2">
         <v>0.15129999999999999</v>
       </c>
-      <c r="J65" s="9" t="s">
+      <c r="J65" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="K65" s="9"/>
-      <c r="L65" s="9"/>
-      <c r="M65" s="9"/>
-      <c r="N65" s="9"/>
-      <c r="O65" s="9"/>
-      <c r="P65" s="9"/>
-      <c r="Q65" s="9"/>
-      <c r="R65" s="9"/>
-      <c r="S65" s="9"/>
-      <c r="T65" s="9"/>
-      <c r="U65" s="9"/>
-      <c r="V65" s="9"/>
+      <c r="K65" s="10"/>
+      <c r="L65" s="10"/>
+      <c r="M65" s="10"/>
+      <c r="N65" s="10"/>
+      <c r="O65" s="10"/>
+      <c r="P65" s="10"/>
+      <c r="Q65" s="10"/>
+      <c r="R65" s="10"/>
+      <c r="S65" s="10"/>
+      <c r="T65" s="10"/>
+      <c r="U65" s="10"/>
+      <c r="V65" s="10"/>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
@@ -1851,21 +1855,21 @@
       <c r="I66" s="2">
         <v>0.14929999999999999</v>
       </c>
-      <c r="J66" s="9" t="s">
+      <c r="J66" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="K66" s="9"/>
-      <c r="L66" s="9"/>
-      <c r="M66" s="9"/>
-      <c r="N66" s="9"/>
-      <c r="O66" s="9"/>
-      <c r="P66" s="9"/>
-      <c r="Q66" s="9"/>
-      <c r="R66" s="9"/>
-      <c r="S66" s="9"/>
-      <c r="T66" s="9"/>
-      <c r="U66" s="9"/>
-      <c r="V66" s="9"/>
+      <c r="K66" s="10"/>
+      <c r="L66" s="10"/>
+      <c r="M66" s="10"/>
+      <c r="N66" s="10"/>
+      <c r="O66" s="10"/>
+      <c r="P66" s="10"/>
+      <c r="Q66" s="10"/>
+      <c r="R66" s="10"/>
+      <c r="S66" s="10"/>
+      <c r="T66" s="10"/>
+      <c r="U66" s="10"/>
+      <c r="V66" s="10"/>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
@@ -1895,21 +1899,21 @@
       <c r="I67" s="5">
         <v>0.13739999999999999</v>
       </c>
-      <c r="J67" s="9" t="s">
+      <c r="J67" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="K67" s="9"/>
-      <c r="L67" s="9"/>
-      <c r="M67" s="9"/>
-      <c r="N67" s="9"/>
-      <c r="O67" s="9"/>
-      <c r="P67" s="9"/>
-      <c r="Q67" s="9"/>
-      <c r="R67" s="9"/>
-      <c r="S67" s="9"/>
-      <c r="T67" s="9"/>
-      <c r="U67" s="9"/>
-      <c r="V67" s="9"/>
+      <c r="K67" s="10"/>
+      <c r="L67" s="10"/>
+      <c r="M67" s="10"/>
+      <c r="N67" s="10"/>
+      <c r="O67" s="10"/>
+      <c r="P67" s="10"/>
+      <c r="Q67" s="10"/>
+      <c r="R67" s="10"/>
+      <c r="S67" s="10"/>
+      <c r="T67" s="10"/>
+      <c r="U67" s="10"/>
+      <c r="V67" s="10"/>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" s="6"/>
@@ -1951,21 +1955,21 @@
       <c r="I71" s="2">
         <v>0.14280000000000001</v>
       </c>
-      <c r="J71" s="9" t="s">
+      <c r="J71" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="K71" s="9"/>
-      <c r="L71" s="9"/>
-      <c r="M71" s="9"/>
-      <c r="N71" s="9"/>
-      <c r="O71" s="9"/>
-      <c r="P71" s="9"/>
-      <c r="Q71" s="9"/>
-      <c r="R71" s="9"/>
-      <c r="S71" s="9"/>
-      <c r="T71" s="9"/>
-      <c r="U71" s="9"/>
-      <c r="V71" s="9"/>
+      <c r="K71" s="10"/>
+      <c r="L71" s="10"/>
+      <c r="M71" s="10"/>
+      <c r="N71" s="10"/>
+      <c r="O71" s="10"/>
+      <c r="P71" s="10"/>
+      <c r="Q71" s="10"/>
+      <c r="R71" s="10"/>
+      <c r="S71" s="10"/>
+      <c r="T71" s="10"/>
+      <c r="U71" s="10"/>
+      <c r="V71" s="10"/>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" s="7"/>
@@ -2456,16 +2460,61 @@
       <c r="F89" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J89" s="9" t="s">
+      <c r="J89" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="K89" s="9"/>
-      <c r="L89" s="9"/>
-      <c r="M89" s="9"/>
-      <c r="N89" s="9"/>
+      <c r="K89" s="10"/>
+      <c r="L89" s="10"/>
+      <c r="M89" s="10"/>
+      <c r="N89" s="10"/>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>26</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J90" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="K90" s="10"/>
+      <c r="L90" s="10"/>
+      <c r="M90" s="10"/>
+      <c r="N90" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="34">
+    <mergeCell ref="J86:N86"/>
+    <mergeCell ref="J90:N90"/>
+    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="J87:N87"/>
+    <mergeCell ref="J88:N88"/>
+    <mergeCell ref="J47:O47"/>
+    <mergeCell ref="J51:O51"/>
+    <mergeCell ref="J50:O50"/>
+    <mergeCell ref="J49:O49"/>
+    <mergeCell ref="J48:O48"/>
+    <mergeCell ref="J75:M75"/>
+    <mergeCell ref="J74:M74"/>
+    <mergeCell ref="J73:M73"/>
+    <mergeCell ref="J65:V65"/>
+    <mergeCell ref="J66:V66"/>
+    <mergeCell ref="J67:V67"/>
+    <mergeCell ref="J71:V71"/>
+    <mergeCell ref="J85:N85"/>
     <mergeCell ref="J76:Q78"/>
     <mergeCell ref="O62:S62"/>
     <mergeCell ref="J52:O52"/>
@@ -2482,23 +2531,6 @@
     <mergeCell ref="J46:M46"/>
     <mergeCell ref="J38:O38"/>
     <mergeCell ref="J37:M37"/>
-    <mergeCell ref="J44:M44"/>
-    <mergeCell ref="J87:N87"/>
-    <mergeCell ref="J88:N88"/>
-    <mergeCell ref="J47:O47"/>
-    <mergeCell ref="J51:O51"/>
-    <mergeCell ref="J50:O50"/>
-    <mergeCell ref="J49:O49"/>
-    <mergeCell ref="J48:O48"/>
-    <mergeCell ref="J75:M75"/>
-    <mergeCell ref="J74:M74"/>
-    <mergeCell ref="J73:M73"/>
-    <mergeCell ref="J65:V65"/>
-    <mergeCell ref="J66:V66"/>
-    <mergeCell ref="J67:V67"/>
-    <mergeCell ref="J71:V71"/>
-    <mergeCell ref="J85:N85"/>
-    <mergeCell ref="J86:N86"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tfp_pro\modinfo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B5777C-E09E-4018-B21C-4BC2921A95E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1102F51-C835-408F-8FA2-B3AFAF04883A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13470" yWindow="2115" windowWidth="22665" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -343,11 +343,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -634,16 +634,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:V90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="J90" sqref="J90:N90"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="M84" sqref="M84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
@@ -654,7 +654,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -683,7 +683,7 @@
         <v>0.1363</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -712,7 +712,7 @@
         <v>0.1198</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -741,7 +741,7 @@
         <v>0.12089999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -769,23 +769,23 @@
       <c r="I9" s="2">
         <v>0.1225</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -813,23 +813,23 @@
       <c r="I10" s="2">
         <v>0.1226</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -857,23 +857,23 @@
       <c r="I11" s="2">
         <v>0.12</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -901,23 +901,23 @@
       <c r="I12" s="2">
         <v>0.1323</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -946,7 +946,7 @@
         <v>0.14430000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -975,7 +975,7 @@
         <v>0.14610000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -1003,23 +1003,23 @@
       <c r="I18" s="2">
         <v>0.16550000000000001</v>
       </c>
-      <c r="J18" s="10" t="s">
+      <c r="J18" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -1047,23 +1047,23 @@
       <c r="I19" s="2">
         <v>0.1507</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="J19" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="10"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>13</v>
       </c>
@@ -1082,23 +1082,23 @@
       <c r="F24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J24" s="10" t="s">
+      <c r="J24" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="10"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>14</v>
       </c>
@@ -1117,23 +1117,23 @@
       <c r="F25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J25" s="10" t="s">
+      <c r="J25" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="10"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="10"/>
-      <c r="V25" s="10"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>13</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>0.12959999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>14</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>0.1295</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>20</v>
       </c>
@@ -1219,14 +1219,14 @@
       <c r="I37" s="2">
         <v>0.13450000000000001</v>
       </c>
-      <c r="J37" s="10" t="s">
+      <c r="J37" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>20</v>
       </c>
@@ -1254,16 +1254,16 @@
       <c r="I38" s="2">
         <v>0.1394</v>
       </c>
-      <c r="J38" s="10" t="s">
+      <c r="J38" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
       <c r="N38" s="11"/>
       <c r="O38" s="11"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>13</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>0.12189999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>14</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>0.1249</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>20</v>
       </c>
@@ -1356,7 +1356,7 @@
       <c r="L44" s="8"/>
       <c r="M44" s="8"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>20</v>
       </c>
@@ -1384,14 +1384,14 @@
       <c r="I45" s="2">
         <v>0.1234</v>
       </c>
-      <c r="J45" s="10" t="s">
+      <c r="J45" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>20</v>
       </c>
@@ -1426,7 +1426,7 @@
       <c r="L46" s="8"/>
       <c r="M46" s="8"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>20</v>
       </c>
@@ -1454,16 +1454,16 @@
       <c r="I47" s="2">
         <v>0.12280000000000001</v>
       </c>
-      <c r="J47" s="10" t="s">
+      <c r="J47" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
-      <c r="O47" s="10"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>20</v>
       </c>
@@ -1491,16 +1491,16 @@
       <c r="I48" s="2">
         <v>0.1222</v>
       </c>
-      <c r="J48" s="10" t="s">
+      <c r="J48" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
-      <c r="O48" s="10"/>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>20</v>
       </c>
@@ -1528,16 +1528,16 @@
       <c r="I49" s="2">
         <v>0.1234</v>
       </c>
-      <c r="J49" s="10" t="s">
+      <c r="J49" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="10"/>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>20</v>
       </c>
@@ -1565,16 +1565,16 @@
       <c r="I50" s="2">
         <v>0.1263</v>
       </c>
-      <c r="J50" s="10" t="s">
+      <c r="J50" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K50" s="10"/>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
-      <c r="O50" s="10"/>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="9"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>20</v>
       </c>
@@ -1602,16 +1602,16 @@
       <c r="I51" s="2">
         <v>0.1232</v>
       </c>
-      <c r="J51" s="10" t="s">
+      <c r="J51" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="K51" s="10"/>
-      <c r="L51" s="10"/>
-      <c r="M51" s="10"/>
-      <c r="N51" s="10"/>
-      <c r="O51" s="10"/>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>20</v>
       </c>
@@ -1630,16 +1630,16 @@
       <c r="F52" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J52" s="10" t="s">
+      <c r="J52" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="K52" s="10"/>
-      <c r="L52" s="10"/>
-      <c r="M52" s="10"/>
-      <c r="N52" s="10"/>
-      <c r="O52" s="10"/>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9"/>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>13</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>20</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>0.13650000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>13</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>0.13769999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>14</v>
       </c>
@@ -1763,15 +1763,15 @@
       <c r="L62" s="2">
         <v>0.14990000000000001</v>
       </c>
-      <c r="O62" s="9" t="s">
+      <c r="O62" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="P62" s="9"/>
-      <c r="Q62" s="9"/>
-      <c r="R62" s="9"/>
-      <c r="S62" s="9"/>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="P62" s="10"/>
+      <c r="Q62" s="10"/>
+      <c r="R62" s="10"/>
+      <c r="S62" s="10"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="G63" s="1">
         <v>20.94</v>
@@ -1783,7 +1783,7 @@
         <v>0.14929999999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>20</v>
       </c>
@@ -1811,23 +1811,23 @@
       <c r="I65" s="2">
         <v>0.15129999999999999</v>
       </c>
-      <c r="J65" s="10" t="s">
+      <c r="J65" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K65" s="10"/>
-      <c r="L65" s="10"/>
-      <c r="M65" s="10"/>
-      <c r="N65" s="10"/>
-      <c r="O65" s="10"/>
-      <c r="P65" s="10"/>
-      <c r="Q65" s="10"/>
-      <c r="R65" s="10"/>
-      <c r="S65" s="10"/>
-      <c r="T65" s="10"/>
-      <c r="U65" s="10"/>
-      <c r="V65" s="10"/>
-    </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+      <c r="O65" s="9"/>
+      <c r="P65" s="9"/>
+      <c r="Q65" s="9"/>
+      <c r="R65" s="9"/>
+      <c r="S65" s="9"/>
+      <c r="T65" s="9"/>
+      <c r="U65" s="9"/>
+      <c r="V65" s="9"/>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>20</v>
       </c>
@@ -1855,23 +1855,23 @@
       <c r="I66" s="2">
         <v>0.14929999999999999</v>
       </c>
-      <c r="J66" s="10" t="s">
+      <c r="J66" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K66" s="10"/>
-      <c r="L66" s="10"/>
-      <c r="M66" s="10"/>
-      <c r="N66" s="10"/>
-      <c r="O66" s="10"/>
-      <c r="P66" s="10"/>
-      <c r="Q66" s="10"/>
-      <c r="R66" s="10"/>
-      <c r="S66" s="10"/>
-      <c r="T66" s="10"/>
-      <c r="U66" s="10"/>
-      <c r="V66" s="10"/>
-    </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+      <c r="O66" s="9"/>
+      <c r="P66" s="9"/>
+      <c r="Q66" s="9"/>
+      <c r="R66" s="9"/>
+      <c r="S66" s="9"/>
+      <c r="T66" s="9"/>
+      <c r="U66" s="9"/>
+      <c r="V66" s="9"/>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>20</v>
       </c>
@@ -1899,23 +1899,23 @@
       <c r="I67" s="5">
         <v>0.13739999999999999</v>
       </c>
-      <c r="J67" s="10" t="s">
+      <c r="J67" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="K67" s="10"/>
-      <c r="L67" s="10"/>
-      <c r="M67" s="10"/>
-      <c r="N67" s="10"/>
-      <c r="O67" s="10"/>
-      <c r="P67" s="10"/>
-      <c r="Q67" s="10"/>
-      <c r="R67" s="10"/>
-      <c r="S67" s="10"/>
-      <c r="T67" s="10"/>
-      <c r="U67" s="10"/>
-      <c r="V67" s="10"/>
-    </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="K67" s="9"/>
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="9"/>
+      <c r="O67" s="9"/>
+      <c r="P67" s="9"/>
+      <c r="Q67" s="9"/>
+      <c r="R67" s="9"/>
+      <c r="S67" s="9"/>
+      <c r="T67" s="9"/>
+      <c r="U67" s="9"/>
+      <c r="V67" s="9"/>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="G68" s="4">
         <v>19.54</v>
@@ -1927,7 +1927,7 @@
         <v>0.13730000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>20</v>
       </c>
@@ -1955,23 +1955,23 @@
       <c r="I71" s="2">
         <v>0.14280000000000001</v>
       </c>
-      <c r="J71" s="10" t="s">
+      <c r="J71" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="K71" s="10"/>
-      <c r="L71" s="10"/>
-      <c r="M71" s="10"/>
-      <c r="N71" s="10"/>
-      <c r="O71" s="10"/>
-      <c r="P71" s="10"/>
-      <c r="Q71" s="10"/>
-      <c r="R71" s="10"/>
-      <c r="S71" s="10"/>
-      <c r="T71" s="10"/>
-      <c r="U71" s="10"/>
-      <c r="V71" s="10"/>
-    </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="K71" s="9"/>
+      <c r="L71" s="9"/>
+      <c r="M71" s="9"/>
+      <c r="N71" s="9"/>
+      <c r="O71" s="9"/>
+      <c r="P71" s="9"/>
+      <c r="Q71" s="9"/>
+      <c r="R71" s="9"/>
+      <c r="S71" s="9"/>
+      <c r="T71" s="9"/>
+      <c r="U71" s="9"/>
+      <c r="V71" s="9"/>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" s="7"/>
       <c r="G72" s="4">
         <v>19.579999999999998</v>
@@ -1983,7 +1983,7 @@
         <v>0.13980000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>20</v>
       </c>
@@ -2018,7 +2018,7 @@
       <c r="L73" s="8"/>
       <c r="M73" s="8"/>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>20</v>
       </c>
@@ -2044,7 +2044,7 @@
       <c r="L74" s="8"/>
       <c r="M74" s="8"/>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>20</v>
       </c>
@@ -2079,7 +2079,7 @@
       <c r="L75" s="8"/>
       <c r="M75" s="8"/>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>13</v>
       </c>
@@ -2118,7 +2118,7 @@
       <c r="P76" s="8"/>
       <c r="Q76" s="8"/>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="8"/>
@@ -2128,7 +2128,7 @@
       <c r="P77" s="8"/>
       <c r="Q77" s="8"/>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="8"/>
@@ -2138,7 +2138,7 @@
       <c r="P78" s="8"/>
       <c r="Q78" s="8"/>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>14</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>0.13689999999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>16</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>0.14749999999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>17</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>18</v>
       </c>
@@ -2257,7 +2257,7 @@
         <v>0.1336</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>19</v>
       </c>
@@ -2286,7 +2286,7 @@
         <v>0.1326</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>20</v>
       </c>
@@ -2315,7 +2315,7 @@
         <v>0.13400000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>21</v>
       </c>
@@ -2351,7 +2351,7 @@
       <c r="M85" s="8"/>
       <c r="N85" s="8"/>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>22</v>
       </c>
@@ -2387,7 +2387,7 @@
       <c r="M86" s="8"/>
       <c r="N86" s="8"/>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>23</v>
       </c>
@@ -2405,6 +2405,15 @@
       </c>
       <c r="F87" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="G87" s="1">
+        <v>19.55</v>
+      </c>
+      <c r="H87" s="1">
+        <v>30.82</v>
+      </c>
+      <c r="I87" s="2">
+        <v>0.1361</v>
       </c>
       <c r="J87" s="8" t="s">
         <v>53</v>
@@ -2414,7 +2423,7 @@
       <c r="M87" s="8"/>
       <c r="N87" s="8"/>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>24</v>
       </c>
@@ -2432,6 +2441,15 @@
       </c>
       <c r="F88" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="G88" s="1">
+        <v>19.68</v>
+      </c>
+      <c r="H88" s="1">
+        <v>30.9</v>
+      </c>
+      <c r="I88" s="2">
+        <v>0.13589999999999999</v>
       </c>
       <c r="J88" s="8" t="s">
         <v>54</v>
@@ -2441,7 +2459,7 @@
       <c r="M88" s="8"/>
       <c r="N88" s="8"/>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>25</v>
       </c>
@@ -2460,15 +2478,15 @@
       <c r="F89" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J89" s="10" t="s">
+      <c r="J89" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="K89" s="10"/>
-      <c r="L89" s="10"/>
-      <c r="M89" s="10"/>
-      <c r="N89" s="10"/>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K89" s="9"/>
+      <c r="L89" s="9"/>
+      <c r="M89" s="9"/>
+      <c r="N89" s="9"/>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>26</v>
       </c>
@@ -2487,16 +2505,34 @@
       <c r="F90" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J90" s="10" t="s">
+      <c r="J90" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="K90" s="10"/>
-      <c r="L90" s="10"/>
-      <c r="M90" s="10"/>
-      <c r="N90" s="10"/>
+      <c r="K90" s="9"/>
+      <c r="L90" s="9"/>
+      <c r="M90" s="9"/>
+      <c r="N90" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="J89:N89"/>
+    <mergeCell ref="J9:V9"/>
+    <mergeCell ref="J10:V10"/>
+    <mergeCell ref="J18:V18"/>
+    <mergeCell ref="J11:V11"/>
+    <mergeCell ref="J19:V19"/>
+    <mergeCell ref="J12:V12"/>
+    <mergeCell ref="J24:V24"/>
+    <mergeCell ref="J25:V25"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="J38:O38"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="J71:V71"/>
+    <mergeCell ref="J85:N85"/>
+    <mergeCell ref="J76:Q78"/>
+    <mergeCell ref="O62:S62"/>
+    <mergeCell ref="J52:O52"/>
     <mergeCell ref="J86:N86"/>
     <mergeCell ref="J90:N90"/>
     <mergeCell ref="J44:M44"/>
@@ -2513,24 +2549,6 @@
     <mergeCell ref="J65:V65"/>
     <mergeCell ref="J66:V66"/>
     <mergeCell ref="J67:V67"/>
-    <mergeCell ref="J71:V71"/>
-    <mergeCell ref="J85:N85"/>
-    <mergeCell ref="J76:Q78"/>
-    <mergeCell ref="O62:S62"/>
-    <mergeCell ref="J52:O52"/>
-    <mergeCell ref="J89:N89"/>
-    <mergeCell ref="J9:V9"/>
-    <mergeCell ref="J10:V10"/>
-    <mergeCell ref="J18:V18"/>
-    <mergeCell ref="J11:V11"/>
-    <mergeCell ref="J19:V19"/>
-    <mergeCell ref="J12:V12"/>
-    <mergeCell ref="J24:V24"/>
-    <mergeCell ref="J25:V25"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="J38:O38"/>
-    <mergeCell ref="J37:M37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tfp_pro\modinfo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1102F51-C835-408F-8FA2-B3AFAF04883A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239BFBE7-0024-4BB9-9EC2-9CB8F5351F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13470" yWindow="2115" windowWidth="22665" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="59">
   <si>
     <t>ST-SSL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -252,6 +252,14 @@
   </si>
   <si>
     <t>13-&gt;26对outs前后部分加注意力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21基础上添加SSTBAN学习分支，并且433权重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21基础上添加SSTBAN学习分支，并且622权重</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -341,16 +349,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -632,18 +640,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:V90"/>
+  <dimension ref="A3:V92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="M84" sqref="M84"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="L95" sqref="L95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
@@ -654,7 +662,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -683,7 +691,7 @@
         <v>0.1363</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -712,7 +720,7 @@
         <v>0.1198</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -741,7 +749,7 @@
         <v>0.12089999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -769,23 +777,23 @@
       <c r="I9" s="2">
         <v>0.1225</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -813,23 +821,23 @@
       <c r="I10" s="2">
         <v>0.1226</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -857,23 +865,23 @@
       <c r="I11" s="2">
         <v>0.12</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -901,23 +909,23 @@
       <c r="I12" s="2">
         <v>0.1323</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -946,7 +954,7 @@
         <v>0.14430000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -975,7 +983,7 @@
         <v>0.14610000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -1003,23 +1011,23 @@
       <c r="I18" s="2">
         <v>0.16550000000000001</v>
       </c>
-      <c r="J18" s="9" t="s">
+      <c r="J18" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -1047,23 +1055,23 @@
       <c r="I19" s="2">
         <v>0.1507</v>
       </c>
-      <c r="J19" s="9" t="s">
+      <c r="J19" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>13</v>
       </c>
@@ -1082,23 +1090,23 @@
       <c r="F24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J24" s="9" t="s">
+      <c r="J24" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>14</v>
       </c>
@@ -1117,23 +1125,23 @@
       <c r="F25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="J25" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>13</v>
       </c>
@@ -1162,7 +1170,7 @@
         <v>0.12959999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>14</v>
       </c>
@@ -1191,7 +1199,7 @@
         <v>0.1295</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>20</v>
       </c>
@@ -1219,14 +1227,14 @@
       <c r="I37" s="2">
         <v>0.13450000000000001</v>
       </c>
-      <c r="J37" s="9" t="s">
+      <c r="J37" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>20</v>
       </c>
@@ -1254,16 +1262,16 @@
       <c r="I38" s="2">
         <v>0.1394</v>
       </c>
-      <c r="J38" s="9" t="s">
+      <c r="J38" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>13</v>
       </c>
@@ -1292,7 +1300,7 @@
         <v>0.12189999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>14</v>
       </c>
@@ -1321,7 +1329,7 @@
         <v>0.1249</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,14 +1357,14 @@
       <c r="I44" s="2">
         <v>0.1235</v>
       </c>
-      <c r="J44" s="8" t="s">
+      <c r="J44" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>20</v>
       </c>
@@ -1384,14 +1392,14 @@
       <c r="I45" s="2">
         <v>0.1234</v>
       </c>
-      <c r="J45" s="9" t="s">
+      <c r="J45" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>20</v>
       </c>
@@ -1419,14 +1427,14 @@
       <c r="I46" s="2">
         <v>0.1249</v>
       </c>
-      <c r="J46" s="8" t="s">
+      <c r="J46" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>20</v>
       </c>
@@ -1454,16 +1462,16 @@
       <c r="I47" s="2">
         <v>0.12280000000000001</v>
       </c>
-      <c r="J47" s="9" t="s">
+      <c r="J47" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
-      <c r="M47" s="9"/>
-      <c r="N47" s="9"/>
-      <c r="O47" s="9"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="8"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>20</v>
       </c>
@@ -1491,16 +1499,16 @@
       <c r="I48" s="2">
         <v>0.1222</v>
       </c>
-      <c r="J48" s="9" t="s">
+      <c r="J48" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
-      <c r="M48" s="9"/>
-      <c r="N48" s="9"/>
-      <c r="O48" s="9"/>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="8"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>20</v>
       </c>
@@ -1528,16 +1536,16 @@
       <c r="I49" s="2">
         <v>0.1234</v>
       </c>
-      <c r="J49" s="9" t="s">
+      <c r="J49" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="K49" s="9"/>
-      <c r="L49" s="9"/>
-      <c r="M49" s="9"/>
-      <c r="N49" s="9"/>
-      <c r="O49" s="9"/>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>20</v>
       </c>
@@ -1565,16 +1573,16 @@
       <c r="I50" s="2">
         <v>0.1263</v>
       </c>
-      <c r="J50" s="9" t="s">
+      <c r="J50" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
-      <c r="M50" s="9"/>
-      <c r="N50" s="9"/>
-      <c r="O50" s="9"/>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="8"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>20</v>
       </c>
@@ -1602,16 +1610,16 @@
       <c r="I51" s="2">
         <v>0.1232</v>
       </c>
-      <c r="J51" s="9" t="s">
+      <c r="J51" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="9"/>
-      <c r="N51" s="9"/>
-      <c r="O51" s="9"/>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+      <c r="O51" s="8"/>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>20</v>
       </c>
@@ -1630,16 +1638,16 @@
       <c r="F52" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J52" s="9" t="s">
+      <c r="J52" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="K52" s="9"/>
-      <c r="L52" s="9"/>
-      <c r="M52" s="9"/>
-      <c r="N52" s="9"/>
-      <c r="O52" s="9"/>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="8"/>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>13</v>
       </c>
@@ -1668,7 +1676,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>20</v>
       </c>
@@ -1697,7 +1705,7 @@
         <v>0.13650000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>13</v>
       </c>
@@ -1726,7 +1734,7 @@
         <v>0.13769999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>14</v>
       </c>
@@ -1763,15 +1771,15 @@
       <c r="L62" s="2">
         <v>0.14990000000000001</v>
       </c>
-      <c r="O62" s="10" t="s">
+      <c r="O62" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="P62" s="10"/>
-      <c r="Q62" s="10"/>
-      <c r="R62" s="10"/>
-      <c r="S62" s="10"/>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P62" s="11"/>
+      <c r="Q62" s="11"/>
+      <c r="R62" s="11"/>
+      <c r="S62" s="11"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
       <c r="G63" s="1">
         <v>20.94</v>
@@ -1783,7 +1791,7 @@
         <v>0.14929999999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>20</v>
       </c>
@@ -1811,23 +1819,23 @@
       <c r="I65" s="2">
         <v>0.15129999999999999</v>
       </c>
-      <c r="J65" s="9" t="s">
+      <c r="J65" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K65" s="9"/>
-      <c r="L65" s="9"/>
-      <c r="M65" s="9"/>
-      <c r="N65" s="9"/>
-      <c r="O65" s="9"/>
-      <c r="P65" s="9"/>
-      <c r="Q65" s="9"/>
-      <c r="R65" s="9"/>
-      <c r="S65" s="9"/>
-      <c r="T65" s="9"/>
-      <c r="U65" s="9"/>
-      <c r="V65" s="9"/>
-    </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K65" s="8"/>
+      <c r="L65" s="8"/>
+      <c r="M65" s="8"/>
+      <c r="N65" s="8"/>
+      <c r="O65" s="8"/>
+      <c r="P65" s="8"/>
+      <c r="Q65" s="8"/>
+      <c r="R65" s="8"/>
+      <c r="S65" s="8"/>
+      <c r="T65" s="8"/>
+      <c r="U65" s="8"/>
+      <c r="V65" s="8"/>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>20</v>
       </c>
@@ -1855,23 +1863,23 @@
       <c r="I66" s="2">
         <v>0.14929999999999999</v>
       </c>
-      <c r="J66" s="9" t="s">
+      <c r="J66" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="K66" s="9"/>
-      <c r="L66" s="9"/>
-      <c r="M66" s="9"/>
-      <c r="N66" s="9"/>
-      <c r="O66" s="9"/>
-      <c r="P66" s="9"/>
-      <c r="Q66" s="9"/>
-      <c r="R66" s="9"/>
-      <c r="S66" s="9"/>
-      <c r="T66" s="9"/>
-      <c r="U66" s="9"/>
-      <c r="V66" s="9"/>
-    </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K66" s="8"/>
+      <c r="L66" s="8"/>
+      <c r="M66" s="8"/>
+      <c r="N66" s="8"/>
+      <c r="O66" s="8"/>
+      <c r="P66" s="8"/>
+      <c r="Q66" s="8"/>
+      <c r="R66" s="8"/>
+      <c r="S66" s="8"/>
+      <c r="T66" s="8"/>
+      <c r="U66" s="8"/>
+      <c r="V66" s="8"/>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>20</v>
       </c>
@@ -1899,23 +1907,23 @@
       <c r="I67" s="5">
         <v>0.13739999999999999</v>
       </c>
-      <c r="J67" s="9" t="s">
+      <c r="J67" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="K67" s="9"/>
-      <c r="L67" s="9"/>
-      <c r="M67" s="9"/>
-      <c r="N67" s="9"/>
-      <c r="O67" s="9"/>
-      <c r="P67" s="9"/>
-      <c r="Q67" s="9"/>
-      <c r="R67" s="9"/>
-      <c r="S67" s="9"/>
-      <c r="T67" s="9"/>
-      <c r="U67" s="9"/>
-      <c r="V67" s="9"/>
-    </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K67" s="8"/>
+      <c r="L67" s="8"/>
+      <c r="M67" s="8"/>
+      <c r="N67" s="8"/>
+      <c r="O67" s="8"/>
+      <c r="P67" s="8"/>
+      <c r="Q67" s="8"/>
+      <c r="R67" s="8"/>
+      <c r="S67" s="8"/>
+      <c r="T67" s="8"/>
+      <c r="U67" s="8"/>
+      <c r="V67" s="8"/>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" s="6"/>
       <c r="G68" s="4">
         <v>19.54</v>
@@ -1927,7 +1935,7 @@
         <v>0.13730000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>20</v>
       </c>
@@ -1955,23 +1963,23 @@
       <c r="I71" s="2">
         <v>0.14280000000000001</v>
       </c>
-      <c r="J71" s="9" t="s">
+      <c r="J71" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="K71" s="9"/>
-      <c r="L71" s="9"/>
-      <c r="M71" s="9"/>
-      <c r="N71" s="9"/>
-      <c r="O71" s="9"/>
-      <c r="P71" s="9"/>
-      <c r="Q71" s="9"/>
-      <c r="R71" s="9"/>
-      <c r="S71" s="9"/>
-      <c r="T71" s="9"/>
-      <c r="U71" s="9"/>
-      <c r="V71" s="9"/>
-    </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K71" s="8"/>
+      <c r="L71" s="8"/>
+      <c r="M71" s="8"/>
+      <c r="N71" s="8"/>
+      <c r="O71" s="8"/>
+      <c r="P71" s="8"/>
+      <c r="Q71" s="8"/>
+      <c r="R71" s="8"/>
+      <c r="S71" s="8"/>
+      <c r="T71" s="8"/>
+      <c r="U71" s="8"/>
+      <c r="V71" s="8"/>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" s="7"/>
       <c r="G72" s="4">
         <v>19.579999999999998</v>
@@ -1983,7 +1991,7 @@
         <v>0.13980000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
         <v>20</v>
       </c>
@@ -2011,14 +2019,14 @@
       <c r="I73" s="5">
         <v>0.13669999999999999</v>
       </c>
-      <c r="J73" s="8" t="s">
+      <c r="J73" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="K73" s="8"/>
-      <c r="L73" s="8"/>
-      <c r="M73" s="8"/>
-    </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K73" s="9"/>
+      <c r="L73" s="9"/>
+      <c r="M73" s="9"/>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
         <v>20</v>
       </c>
@@ -2037,14 +2045,14 @@
       <c r="F74" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J74" s="8" t="s">
+      <c r="J74" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="K74" s="8"/>
-      <c r="L74" s="8"/>
-      <c r="M74" s="8"/>
-    </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K74" s="9"/>
+      <c r="L74" s="9"/>
+      <c r="M74" s="9"/>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
         <v>20</v>
       </c>
@@ -2072,14 +2080,14 @@
       <c r="I75" s="2">
         <v>0.13780000000000001</v>
       </c>
-      <c r="J75" s="8" t="s">
+      <c r="J75" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="K75" s="8"/>
-      <c r="L75" s="8"/>
-      <c r="M75" s="8"/>
-    </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K75" s="9"/>
+      <c r="L75" s="9"/>
+      <c r="M75" s="9"/>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
         <v>13</v>
       </c>
@@ -2107,38 +2115,38 @@
       <c r="I76" s="5">
         <v>0.1348</v>
       </c>
-      <c r="J76" s="8" t="s">
+      <c r="J76" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="K76" s="8"/>
-      <c r="L76" s="8"/>
-      <c r="M76" s="8"/>
-      <c r="N76" s="8"/>
-      <c r="O76" s="8"/>
-      <c r="P76" s="8"/>
-      <c r="Q76" s="8"/>
-    </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="J77" s="8"/>
-      <c r="K77" s="8"/>
-      <c r="L77" s="8"/>
-      <c r="M77" s="8"/>
-      <c r="N77" s="8"/>
-      <c r="O77" s="8"/>
-      <c r="P77" s="8"/>
-      <c r="Q77" s="8"/>
-    </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="J78" s="8"/>
-      <c r="K78" s="8"/>
-      <c r="L78" s="8"/>
-      <c r="M78" s="8"/>
-      <c r="N78" s="8"/>
-      <c r="O78" s="8"/>
-      <c r="P78" s="8"/>
-      <c r="Q78" s="8"/>
-    </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K76" s="9"/>
+      <c r="L76" s="9"/>
+      <c r="M76" s="9"/>
+      <c r="N76" s="9"/>
+      <c r="O76" s="9"/>
+      <c r="P76" s="9"/>
+      <c r="Q76" s="9"/>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c r="L77" s="9"/>
+      <c r="M77" s="9"/>
+      <c r="N77" s="9"/>
+      <c r="O77" s="9"/>
+      <c r="P77" s="9"/>
+      <c r="Q77" s="9"/>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c r="L78" s="9"/>
+      <c r="M78" s="9"/>
+      <c r="N78" s="9"/>
+      <c r="O78" s="9"/>
+      <c r="P78" s="9"/>
+      <c r="Q78" s="9"/>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>14</v>
       </c>
@@ -2167,7 +2175,7 @@
         <v>0.13689999999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>16</v>
       </c>
@@ -2196,7 +2204,7 @@
         <v>0.14749999999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>17</v>
       </c>
@@ -2228,7 +2236,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>18</v>
       </c>
@@ -2257,7 +2265,7 @@
         <v>0.1336</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>19</v>
       </c>
@@ -2286,7 +2294,7 @@
         <v>0.1326</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>20</v>
       </c>
@@ -2315,7 +2323,7 @@
         <v>0.13400000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>21</v>
       </c>
@@ -2343,15 +2351,15 @@
       <c r="I85" s="2">
         <v>0.1361</v>
       </c>
-      <c r="J85" s="8" t="s">
+      <c r="J85" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="K85" s="8"/>
-      <c r="L85" s="8"/>
-      <c r="M85" s="8"/>
-      <c r="N85" s="8"/>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K85" s="9"/>
+      <c r="L85" s="9"/>
+      <c r="M85" s="9"/>
+      <c r="N85" s="9"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>22</v>
       </c>
@@ -2379,15 +2387,15 @@
       <c r="I86" s="5">
         <v>0.13070000000000001</v>
       </c>
-      <c r="J86" s="8" t="s">
+      <c r="J86" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="K86" s="8"/>
-      <c r="L86" s="8"/>
-      <c r="M86" s="8"/>
-      <c r="N86" s="8"/>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K86" s="9"/>
+      <c r="L86" s="9"/>
+      <c r="M86" s="9"/>
+      <c r="N86" s="9"/>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>23</v>
       </c>
@@ -2415,15 +2423,15 @@
       <c r="I87" s="2">
         <v>0.1361</v>
       </c>
-      <c r="J87" s="8" t="s">
+      <c r="J87" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="K87" s="8"/>
-      <c r="L87" s="8"/>
-      <c r="M87" s="8"/>
-      <c r="N87" s="8"/>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K87" s="9"/>
+      <c r="L87" s="9"/>
+      <c r="M87" s="9"/>
+      <c r="N87" s="9"/>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>24</v>
       </c>
@@ -2451,15 +2459,15 @@
       <c r="I88" s="2">
         <v>0.13589999999999999</v>
       </c>
-      <c r="J88" s="8" t="s">
+      <c r="J88" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="K88" s="8"/>
-      <c r="L88" s="8"/>
-      <c r="M88" s="8"/>
-      <c r="N88" s="8"/>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K88" s="9"/>
+      <c r="L88" s="9"/>
+      <c r="M88" s="9"/>
+      <c r="N88" s="9"/>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>25</v>
       </c>
@@ -2478,15 +2486,24 @@
       <c r="F89" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J89" s="9" t="s">
+      <c r="G89" s="1">
+        <v>19.55</v>
+      </c>
+      <c r="H89" s="1">
+        <v>30.81</v>
+      </c>
+      <c r="I89" s="2">
+        <v>0.1439</v>
+      </c>
+      <c r="J89" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="K89" s="9"/>
-      <c r="L89" s="9"/>
-      <c r="M89" s="9"/>
-      <c r="N89" s="9"/>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K89" s="8"/>
+      <c r="L89" s="8"/>
+      <c r="M89" s="8"/>
+      <c r="N89" s="8"/>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>26</v>
       </c>
@@ -2505,16 +2522,100 @@
       <c r="F90" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J90" s="9" t="s">
+      <c r="G90" s="1">
+        <v>19.37</v>
+      </c>
+      <c r="H90" s="1">
+        <v>30.75</v>
+      </c>
+      <c r="I90" s="2">
+        <v>0.13850000000000001</v>
+      </c>
+      <c r="J90" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="K90" s="9"/>
-      <c r="L90" s="9"/>
-      <c r="M90" s="9"/>
-      <c r="N90" s="9"/>
+      <c r="K90" s="8"/>
+      <c r="L90" s="8"/>
+      <c r="M90" s="8"/>
+      <c r="N90" s="8"/>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>27</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J91" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K91" s="8"/>
+      <c r="L91" s="8"/>
+      <c r="M91" s="8"/>
+      <c r="N91" s="8"/>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>28</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J92" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K92" s="8"/>
+      <c r="L92" s="8"/>
+      <c r="M92" s="8"/>
+      <c r="N92" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="36">
+    <mergeCell ref="J92:N92"/>
+    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="J87:N87"/>
+    <mergeCell ref="J88:N88"/>
+    <mergeCell ref="J47:O47"/>
+    <mergeCell ref="J51:O51"/>
+    <mergeCell ref="J50:O50"/>
+    <mergeCell ref="J49:O49"/>
+    <mergeCell ref="J48:O48"/>
+    <mergeCell ref="J75:M75"/>
+    <mergeCell ref="J74:M74"/>
+    <mergeCell ref="J73:M73"/>
+    <mergeCell ref="J65:V65"/>
+    <mergeCell ref="J66:V66"/>
+    <mergeCell ref="J67:V67"/>
+    <mergeCell ref="J76:Q78"/>
+    <mergeCell ref="O62:S62"/>
+    <mergeCell ref="J52:O52"/>
+    <mergeCell ref="J86:N86"/>
+    <mergeCell ref="J90:N90"/>
+    <mergeCell ref="J91:N91"/>
     <mergeCell ref="J89:N89"/>
     <mergeCell ref="J9:V9"/>
     <mergeCell ref="J10:V10"/>
@@ -2530,25 +2631,6 @@
     <mergeCell ref="J37:M37"/>
     <mergeCell ref="J71:V71"/>
     <mergeCell ref="J85:N85"/>
-    <mergeCell ref="J76:Q78"/>
-    <mergeCell ref="O62:S62"/>
-    <mergeCell ref="J52:O52"/>
-    <mergeCell ref="J86:N86"/>
-    <mergeCell ref="J90:N90"/>
-    <mergeCell ref="J44:M44"/>
-    <mergeCell ref="J87:N87"/>
-    <mergeCell ref="J88:N88"/>
-    <mergeCell ref="J47:O47"/>
-    <mergeCell ref="J51:O51"/>
-    <mergeCell ref="J50:O50"/>
-    <mergeCell ref="J49:O49"/>
-    <mergeCell ref="J48:O48"/>
-    <mergeCell ref="J75:M75"/>
-    <mergeCell ref="J74:M74"/>
-    <mergeCell ref="J73:M73"/>
-    <mergeCell ref="J65:V65"/>
-    <mergeCell ref="J66:V66"/>
-    <mergeCell ref="J67:V67"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239BFBE7-0024-4BB9-9EC2-9CB8F5351F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79935A7E-567D-440E-AE9C-632B2FFE1EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13470" yWindow="2115" windowWidth="22665" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="65">
   <si>
     <t>ST-SSL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -227,10 +227,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>。‘。’</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>13基础上添加SSTBAN学习分支</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -260,6 +256,34 @@
   </si>
   <si>
     <t>21基础上添加SSTBAN学习分支，并且622权重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24-&gt;29添加SSTBAN学习分支，添加dwa，mask0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13-&gt;20 添加注意力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对flow，tod，dow均标准化，加入自适应嵌入80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13-&gt;18  调整嵌入自适应维度为80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对空间图和语意图最后一个outs，source-source2再循坏，使用同一个encoder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对flow，tod标准化，dow，加入自适应嵌入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加注意力添加一层进行残差连接</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -354,11 +378,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -640,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:V92"/>
+  <dimension ref="A3:V93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="L95" sqref="L95"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="J79" sqref="J79:N79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1268,8 +1292,8 @@
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
@@ -1771,13 +1795,13 @@
       <c r="L62" s="2">
         <v>0.14990000000000001</v>
       </c>
-      <c r="O62" s="11" t="s">
+      <c r="O62" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="P62" s="11"/>
-      <c r="Q62" s="11"/>
-      <c r="R62" s="11"/>
-      <c r="S62" s="11"/>
+      <c r="P62" s="10"/>
+      <c r="Q62" s="10"/>
+      <c r="R62" s="10"/>
+      <c r="S62" s="10"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
@@ -2174,6 +2198,13 @@
       <c r="I79" s="2">
         <v>0.13689999999999999</v>
       </c>
+      <c r="J79" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="K79" s="8"/>
+      <c r="L79" s="8"/>
+      <c r="M79" s="8"/>
+      <c r="N79" s="8"/>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
@@ -2203,6 +2234,13 @@
       <c r="I80" s="2">
         <v>0.14749999999999999</v>
       </c>
+      <c r="J80" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="K80" s="8"/>
+      <c r="L80" s="8"/>
+      <c r="M80" s="8"/>
+      <c r="N80" s="8"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
@@ -2232,9 +2270,13 @@
       <c r="I81" s="2">
         <v>0.20910000000000001</v>
       </c>
-      <c r="N81" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="J81" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="K81" s="8"/>
+      <c r="L81" s="8"/>
+      <c r="M81" s="8"/>
+      <c r="N81" s="8"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
@@ -2264,6 +2306,13 @@
       <c r="I82" s="2">
         <v>0.1336</v>
       </c>
+      <c r="J82" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="K82" s="8"/>
+      <c r="L82" s="8"/>
+      <c r="M82" s="8"/>
+      <c r="N82" s="8"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
@@ -2293,6 +2342,13 @@
       <c r="I83" s="2">
         <v>0.1326</v>
       </c>
+      <c r="J83" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K83" s="8"/>
+      <c r="L83" s="8"/>
+      <c r="M83" s="8"/>
+      <c r="N83" s="8"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
@@ -2322,6 +2378,13 @@
       <c r="I84" s="2">
         <v>0.13400000000000001</v>
       </c>
+      <c r="J84" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K84" s="8"/>
+      <c r="L84" s="8"/>
+      <c r="M84" s="8"/>
+      <c r="N84" s="8"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
@@ -2352,7 +2415,7 @@
         <v>0.1361</v>
       </c>
       <c r="J85" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K85" s="9"/>
       <c r="L85" s="9"/>
@@ -2388,7 +2451,7 @@
         <v>0.13070000000000001</v>
       </c>
       <c r="J86" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K86" s="9"/>
       <c r="L86" s="9"/>
@@ -2424,7 +2487,7 @@
         <v>0.1361</v>
       </c>
       <c r="J87" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K87" s="9"/>
       <c r="L87" s="9"/>
@@ -2460,7 +2523,7 @@
         <v>0.13589999999999999</v>
       </c>
       <c r="J88" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K88" s="9"/>
       <c r="L88" s="9"/>
@@ -2496,7 +2559,7 @@
         <v>0.1439</v>
       </c>
       <c r="J89" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K89" s="8"/>
       <c r="L89" s="8"/>
@@ -2532,7 +2595,7 @@
         <v>0.13850000000000001</v>
       </c>
       <c r="J90" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K90" s="8"/>
       <c r="L90" s="8"/>
@@ -2559,7 +2622,7 @@
         <v>9</v>
       </c>
       <c r="J91" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K91" s="8"/>
       <c r="L91" s="8"/>
@@ -2586,15 +2649,70 @@
         <v>9</v>
       </c>
       <c r="J92" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K92" s="8"/>
       <c r="L92" s="8"/>
       <c r="M92" s="8"/>
       <c r="N92" s="8"/>
     </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>29</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I93" s="2"/>
+      <c r="J93" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K93" s="9"/>
+      <c r="L93" s="9"/>
+      <c r="M93" s="9"/>
+      <c r="N93" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="43">
+    <mergeCell ref="J93:N93"/>
+    <mergeCell ref="J84:N84"/>
+    <mergeCell ref="J83:N83"/>
+    <mergeCell ref="J82:N82"/>
+    <mergeCell ref="J81:N81"/>
+    <mergeCell ref="J24:V24"/>
+    <mergeCell ref="J25:V25"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="J38:O38"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="J9:V9"/>
+    <mergeCell ref="J10:V10"/>
+    <mergeCell ref="J18:V18"/>
+    <mergeCell ref="J11:V11"/>
+    <mergeCell ref="J19:V19"/>
+    <mergeCell ref="J12:V12"/>
+    <mergeCell ref="O62:S62"/>
+    <mergeCell ref="J52:O52"/>
+    <mergeCell ref="J86:N86"/>
+    <mergeCell ref="J90:N90"/>
+    <mergeCell ref="J91:N91"/>
+    <mergeCell ref="J89:N89"/>
+    <mergeCell ref="J71:V71"/>
+    <mergeCell ref="J85:N85"/>
+    <mergeCell ref="J80:N80"/>
+    <mergeCell ref="J79:N79"/>
     <mergeCell ref="J92:N92"/>
     <mergeCell ref="J44:M44"/>
     <mergeCell ref="J87:N87"/>
@@ -2611,26 +2729,6 @@
     <mergeCell ref="J66:V66"/>
     <mergeCell ref="J67:V67"/>
     <mergeCell ref="J76:Q78"/>
-    <mergeCell ref="O62:S62"/>
-    <mergeCell ref="J52:O52"/>
-    <mergeCell ref="J86:N86"/>
-    <mergeCell ref="J90:N90"/>
-    <mergeCell ref="J91:N91"/>
-    <mergeCell ref="J89:N89"/>
-    <mergeCell ref="J9:V9"/>
-    <mergeCell ref="J10:V10"/>
-    <mergeCell ref="J18:V18"/>
-    <mergeCell ref="J11:V11"/>
-    <mergeCell ref="J19:V19"/>
-    <mergeCell ref="J12:V12"/>
-    <mergeCell ref="J24:V24"/>
-    <mergeCell ref="J25:V25"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="J38:O38"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="J71:V71"/>
-    <mergeCell ref="J85:N85"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79935A7E-567D-440E-AE9C-632B2FFE1EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3ECB50-991A-4D63-9E94-A2F225AF90AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13470" yWindow="2115" windowWidth="22665" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="67">
   <si>
     <t>ST-SSL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -284,6 +284,14 @@
   </si>
   <si>
     <t>添加注意力添加一层进行残差连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13-&gt;30添加STSSL的图增强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13-&gt;31 添加注意力残差链接</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -373,16 +381,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -664,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:V93"/>
+  <dimension ref="A3:V95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="J79" sqref="J79:N79"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="K97" sqref="K97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -801,21 +809,21 @@
       <c r="I9" s="2">
         <v>0.1225</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -845,21 +853,21 @@
       <c r="I10" s="2">
         <v>0.1226</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -889,21 +897,21 @@
       <c r="I11" s="2">
         <v>0.12</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -933,21 +941,21 @@
       <c r="I12" s="2">
         <v>0.1323</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="J12" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -1035,21 +1043,21 @@
       <c r="I18" s="2">
         <v>0.16550000000000001</v>
       </c>
-      <c r="J18" s="8" t="s">
+      <c r="J18" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
@@ -1079,21 +1087,21 @@
       <c r="I19" s="2">
         <v>0.1507</v>
       </c>
-      <c r="J19" s="8" t="s">
+      <c r="J19" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
@@ -1114,21 +1122,21 @@
       <c r="F24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J24" s="8" t="s">
+      <c r="J24" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="8"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -1149,21 +1157,21 @@
       <c r="F25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J25" s="8" t="s">
+      <c r="J25" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="8"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
@@ -1251,12 +1259,12 @@
       <c r="I37" s="2">
         <v>0.13450000000000001</v>
       </c>
-      <c r="J37" s="8" t="s">
+      <c r="J37" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
@@ -1286,14 +1294,14 @@
       <c r="I38" s="2">
         <v>0.1394</v>
       </c>
-      <c r="J38" s="8" t="s">
+      <c r="J38" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
@@ -1381,12 +1389,12 @@
       <c r="I44" s="2">
         <v>0.1235</v>
       </c>
-      <c r="J44" s="9" t="s">
+      <c r="J44" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="9"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
@@ -1416,12 +1424,12 @@
       <c r="I45" s="2">
         <v>0.1234</v>
       </c>
-      <c r="J45" s="8" t="s">
+      <c r="J45" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
@@ -1451,12 +1459,12 @@
       <c r="I46" s="2">
         <v>0.1249</v>
       </c>
-      <c r="J46" s="9" t="s">
+      <c r="J46" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="9"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
@@ -1486,14 +1494,14 @@
       <c r="I47" s="2">
         <v>0.12280000000000001</v>
       </c>
-      <c r="J47" s="8" t="s">
+      <c r="J47" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="8"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
@@ -1523,14 +1531,14 @@
       <c r="I48" s="2">
         <v>0.1222</v>
       </c>
-      <c r="J48" s="8" t="s">
+      <c r="J48" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8"/>
-      <c r="O48" s="8"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
@@ -1560,14 +1568,14 @@
       <c r="I49" s="2">
         <v>0.1234</v>
       </c>
-      <c r="J49" s="8" t="s">
+      <c r="J49" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="8"/>
-      <c r="O49" s="8"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
@@ -1597,14 +1605,14 @@
       <c r="I50" s="2">
         <v>0.1263</v>
       </c>
-      <c r="J50" s="8" t="s">
+      <c r="J50" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="8"/>
-      <c r="O50" s="8"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="9"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
@@ -1634,14 +1642,14 @@
       <c r="I51" s="2">
         <v>0.1232</v>
       </c>
-      <c r="J51" s="8" t="s">
+      <c r="J51" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="8"/>
-      <c r="O51" s="8"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
@@ -1662,14 +1670,14 @@
       <c r="F52" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J52" s="8" t="s">
+      <c r="J52" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
-      <c r="N52" s="8"/>
-      <c r="O52" s="8"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
@@ -1795,13 +1803,13 @@
       <c r="L62" s="2">
         <v>0.14990000000000001</v>
       </c>
-      <c r="O62" s="10" t="s">
+      <c r="O62" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="P62" s="10"/>
-      <c r="Q62" s="10"/>
-      <c r="R62" s="10"/>
-      <c r="S62" s="10"/>
+      <c r="P62" s="11"/>
+      <c r="Q62" s="11"/>
+      <c r="R62" s="11"/>
+      <c r="S62" s="11"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
@@ -1843,21 +1851,21 @@
       <c r="I65" s="2">
         <v>0.15129999999999999</v>
       </c>
-      <c r="J65" s="8" t="s">
+      <c r="J65" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K65" s="8"/>
-      <c r="L65" s="8"/>
-      <c r="M65" s="8"/>
-      <c r="N65" s="8"/>
-      <c r="O65" s="8"/>
-      <c r="P65" s="8"/>
-      <c r="Q65" s="8"/>
-      <c r="R65" s="8"/>
-      <c r="S65" s="8"/>
-      <c r="T65" s="8"/>
-      <c r="U65" s="8"/>
-      <c r="V65" s="8"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+      <c r="O65" s="9"/>
+      <c r="P65" s="9"/>
+      <c r="Q65" s="9"/>
+      <c r="R65" s="9"/>
+      <c r="S65" s="9"/>
+      <c r="T65" s="9"/>
+      <c r="U65" s="9"/>
+      <c r="V65" s="9"/>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
@@ -1887,21 +1895,21 @@
       <c r="I66" s="2">
         <v>0.14929999999999999</v>
       </c>
-      <c r="J66" s="8" t="s">
+      <c r="J66" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K66" s="8"/>
-      <c r="L66" s="8"/>
-      <c r="M66" s="8"/>
-      <c r="N66" s="8"/>
-      <c r="O66" s="8"/>
-      <c r="P66" s="8"/>
-      <c r="Q66" s="8"/>
-      <c r="R66" s="8"/>
-      <c r="S66" s="8"/>
-      <c r="T66" s="8"/>
-      <c r="U66" s="8"/>
-      <c r="V66" s="8"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+      <c r="O66" s="9"/>
+      <c r="P66" s="9"/>
+      <c r="Q66" s="9"/>
+      <c r="R66" s="9"/>
+      <c r="S66" s="9"/>
+      <c r="T66" s="9"/>
+      <c r="U66" s="9"/>
+      <c r="V66" s="9"/>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
@@ -1931,21 +1939,21 @@
       <c r="I67" s="5">
         <v>0.13739999999999999</v>
       </c>
-      <c r="J67" s="8" t="s">
+      <c r="J67" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="K67" s="8"/>
-      <c r="L67" s="8"/>
-      <c r="M67" s="8"/>
-      <c r="N67" s="8"/>
-      <c r="O67" s="8"/>
-      <c r="P67" s="8"/>
-      <c r="Q67" s="8"/>
-      <c r="R67" s="8"/>
-      <c r="S67" s="8"/>
-      <c r="T67" s="8"/>
-      <c r="U67" s="8"/>
-      <c r="V67" s="8"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="9"/>
+      <c r="O67" s="9"/>
+      <c r="P67" s="9"/>
+      <c r="Q67" s="9"/>
+      <c r="R67" s="9"/>
+      <c r="S67" s="9"/>
+      <c r="T67" s="9"/>
+      <c r="U67" s="9"/>
+      <c r="V67" s="9"/>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" s="6"/>
@@ -1987,21 +1995,21 @@
       <c r="I71" s="2">
         <v>0.14280000000000001</v>
       </c>
-      <c r="J71" s="8" t="s">
+      <c r="J71" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="K71" s="8"/>
-      <c r="L71" s="8"/>
-      <c r="M71" s="8"/>
-      <c r="N71" s="8"/>
-      <c r="O71" s="8"/>
-      <c r="P71" s="8"/>
-      <c r="Q71" s="8"/>
-      <c r="R71" s="8"/>
-      <c r="S71" s="8"/>
-      <c r="T71" s="8"/>
-      <c r="U71" s="8"/>
-      <c r="V71" s="8"/>
+      <c r="K71" s="9"/>
+      <c r="L71" s="9"/>
+      <c r="M71" s="9"/>
+      <c r="N71" s="9"/>
+      <c r="O71" s="9"/>
+      <c r="P71" s="9"/>
+      <c r="Q71" s="9"/>
+      <c r="R71" s="9"/>
+      <c r="S71" s="9"/>
+      <c r="T71" s="9"/>
+      <c r="U71" s="9"/>
+      <c r="V71" s="9"/>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" s="7"/>
@@ -2043,12 +2051,12 @@
       <c r="I73" s="5">
         <v>0.13669999999999999</v>
       </c>
-      <c r="J73" s="9" t="s">
+      <c r="J73" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="K73" s="9"/>
-      <c r="L73" s="9"/>
-      <c r="M73" s="9"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="8"/>
+      <c r="M73" s="8"/>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
@@ -2069,12 +2077,12 @@
       <c r="F74" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J74" s="9" t="s">
+      <c r="J74" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="K74" s="9"/>
-      <c r="L74" s="9"/>
-      <c r="M74" s="9"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="8"/>
+      <c r="M74" s="8"/>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
@@ -2104,12 +2112,12 @@
       <c r="I75" s="2">
         <v>0.13780000000000001</v>
       </c>
-      <c r="J75" s="9" t="s">
+      <c r="J75" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="K75" s="9"/>
-      <c r="L75" s="9"/>
-      <c r="M75" s="9"/>
+      <c r="K75" s="8"/>
+      <c r="L75" s="8"/>
+      <c r="M75" s="8"/>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
@@ -2139,36 +2147,36 @@
       <c r="I76" s="5">
         <v>0.1348</v>
       </c>
-      <c r="J76" s="9" t="s">
+      <c r="J76" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="K76" s="9"/>
-      <c r="L76" s="9"/>
-      <c r="M76" s="9"/>
-      <c r="N76" s="9"/>
-      <c r="O76" s="9"/>
-      <c r="P76" s="9"/>
-      <c r="Q76" s="9"/>
+      <c r="K76" s="8"/>
+      <c r="L76" s="8"/>
+      <c r="M76" s="8"/>
+      <c r="N76" s="8"/>
+      <c r="O76" s="8"/>
+      <c r="P76" s="8"/>
+      <c r="Q76" s="8"/>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="J77" s="9"/>
-      <c r="K77" s="9"/>
-      <c r="L77" s="9"/>
-      <c r="M77" s="9"/>
-      <c r="N77" s="9"/>
-      <c r="O77" s="9"/>
-      <c r="P77" s="9"/>
-      <c r="Q77" s="9"/>
+      <c r="J77" s="8"/>
+      <c r="K77" s="8"/>
+      <c r="L77" s="8"/>
+      <c r="M77" s="8"/>
+      <c r="N77" s="8"/>
+      <c r="O77" s="8"/>
+      <c r="P77" s="8"/>
+      <c r="Q77" s="8"/>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="J78" s="9"/>
-      <c r="K78" s="9"/>
-      <c r="L78" s="9"/>
-      <c r="M78" s="9"/>
-      <c r="N78" s="9"/>
-      <c r="O78" s="9"/>
-      <c r="P78" s="9"/>
-      <c r="Q78" s="9"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="8"/>
+      <c r="M78" s="8"/>
+      <c r="N78" s="8"/>
+      <c r="O78" s="8"/>
+      <c r="P78" s="8"/>
+      <c r="Q78" s="8"/>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
@@ -2198,13 +2206,13 @@
       <c r="I79" s="2">
         <v>0.13689999999999999</v>
       </c>
-      <c r="J79" s="8" t="s">
+      <c r="J79" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="K79" s="8"/>
-      <c r="L79" s="8"/>
-      <c r="M79" s="8"/>
-      <c r="N79" s="8"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="9"/>
+      <c r="M79" s="9"/>
+      <c r="N79" s="9"/>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
@@ -2234,13 +2242,13 @@
       <c r="I80" s="2">
         <v>0.14749999999999999</v>
       </c>
-      <c r="J80" s="8" t="s">
+      <c r="J80" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="K80" s="8"/>
-      <c r="L80" s="8"/>
-      <c r="M80" s="8"/>
-      <c r="N80" s="8"/>
+      <c r="K80" s="9"/>
+      <c r="L80" s="9"/>
+      <c r="M80" s="9"/>
+      <c r="N80" s="9"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
@@ -2270,13 +2278,13 @@
       <c r="I81" s="2">
         <v>0.20910000000000001</v>
       </c>
-      <c r="J81" s="8" t="s">
+      <c r="J81" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="K81" s="8"/>
-      <c r="L81" s="8"/>
-      <c r="M81" s="8"/>
-      <c r="N81" s="8"/>
+      <c r="K81" s="9"/>
+      <c r="L81" s="9"/>
+      <c r="M81" s="9"/>
+      <c r="N81" s="9"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
@@ -2306,13 +2314,13 @@
       <c r="I82" s="2">
         <v>0.1336</v>
       </c>
-      <c r="J82" s="8" t="s">
+      <c r="J82" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="K82" s="8"/>
-      <c r="L82" s="8"/>
-      <c r="M82" s="8"/>
-      <c r="N82" s="8"/>
+      <c r="K82" s="9"/>
+      <c r="L82" s="9"/>
+      <c r="M82" s="9"/>
+      <c r="N82" s="9"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
@@ -2342,13 +2350,13 @@
       <c r="I83" s="2">
         <v>0.1326</v>
       </c>
-      <c r="J83" s="8" t="s">
+      <c r="J83" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="K83" s="8"/>
-      <c r="L83" s="8"/>
-      <c r="M83" s="8"/>
-      <c r="N83" s="8"/>
+      <c r="K83" s="9"/>
+      <c r="L83" s="9"/>
+      <c r="M83" s="9"/>
+      <c r="N83" s="9"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
@@ -2378,13 +2386,13 @@
       <c r="I84" s="2">
         <v>0.13400000000000001</v>
       </c>
-      <c r="J84" s="8" t="s">
+      <c r="J84" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K84" s="8"/>
-      <c r="L84" s="8"/>
-      <c r="M84" s="8"/>
-      <c r="N84" s="8"/>
+      <c r="K84" s="9"/>
+      <c r="L84" s="9"/>
+      <c r="M84" s="9"/>
+      <c r="N84" s="9"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
@@ -2414,13 +2422,13 @@
       <c r="I85" s="2">
         <v>0.1361</v>
       </c>
-      <c r="J85" s="9" t="s">
+      <c r="J85" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="K85" s="9"/>
-      <c r="L85" s="9"/>
-      <c r="M85" s="9"/>
-      <c r="N85" s="9"/>
+      <c r="K85" s="8"/>
+      <c r="L85" s="8"/>
+      <c r="M85" s="8"/>
+      <c r="N85" s="8"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
@@ -2450,13 +2458,13 @@
       <c r="I86" s="5">
         <v>0.13070000000000001</v>
       </c>
-      <c r="J86" s="9" t="s">
+      <c r="J86" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="K86" s="9"/>
-      <c r="L86" s="9"/>
-      <c r="M86" s="9"/>
-      <c r="N86" s="9"/>
+      <c r="K86" s="8"/>
+      <c r="L86" s="8"/>
+      <c r="M86" s="8"/>
+      <c r="N86" s="8"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
@@ -2486,13 +2494,13 @@
       <c r="I87" s="2">
         <v>0.1361</v>
       </c>
-      <c r="J87" s="9" t="s">
+      <c r="J87" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="K87" s="9"/>
-      <c r="L87" s="9"/>
-      <c r="M87" s="9"/>
-      <c r="N87" s="9"/>
+      <c r="K87" s="8"/>
+      <c r="L87" s="8"/>
+      <c r="M87" s="8"/>
+      <c r="N87" s="8"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
@@ -2522,13 +2530,13 @@
       <c r="I88" s="2">
         <v>0.13589999999999999</v>
       </c>
-      <c r="J88" s="9" t="s">
+      <c r="J88" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="K88" s="9"/>
-      <c r="L88" s="9"/>
-      <c r="M88" s="9"/>
-      <c r="N88" s="9"/>
+      <c r="K88" s="8"/>
+      <c r="L88" s="8"/>
+      <c r="M88" s="8"/>
+      <c r="N88" s="8"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
@@ -2558,13 +2566,13 @@
       <c r="I89" s="2">
         <v>0.1439</v>
       </c>
-      <c r="J89" s="8" t="s">
+      <c r="J89" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="K89" s="8"/>
-      <c r="L89" s="8"/>
-      <c r="M89" s="8"/>
-      <c r="N89" s="8"/>
+      <c r="K89" s="9"/>
+      <c r="L89" s="9"/>
+      <c r="M89" s="9"/>
+      <c r="N89" s="9"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
@@ -2594,13 +2602,13 @@
       <c r="I90" s="2">
         <v>0.13850000000000001</v>
       </c>
-      <c r="J90" s="8" t="s">
+      <c r="J90" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="K90" s="8"/>
-      <c r="L90" s="8"/>
-      <c r="M90" s="8"/>
-      <c r="N90" s="8"/>
+      <c r="K90" s="9"/>
+      <c r="L90" s="9"/>
+      <c r="M90" s="9"/>
+      <c r="N90" s="9"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
@@ -2621,13 +2629,13 @@
       <c r="F91" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J91" s="8" t="s">
+      <c r="J91" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="K91" s="8"/>
-      <c r="L91" s="8"/>
-      <c r="M91" s="8"/>
-      <c r="N91" s="8"/>
+      <c r="K91" s="9"/>
+      <c r="L91" s="9"/>
+      <c r="M91" s="9"/>
+      <c r="N91" s="9"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
@@ -2648,13 +2656,13 @@
       <c r="F92" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J92" s="8" t="s">
+      <c r="J92" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="K92" s="8"/>
-      <c r="L92" s="8"/>
-      <c r="M92" s="8"/>
-      <c r="N92" s="8"/>
+      <c r="K92" s="9"/>
+      <c r="L92" s="9"/>
+      <c r="M92" s="9"/>
+      <c r="N92" s="9"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
@@ -2684,25 +2692,74 @@
       <c r="M93" s="9"/>
       <c r="N93" s="9"/>
     </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>30</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I94" s="2"/>
+      <c r="J94" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K94" s="9"/>
+      <c r="L94" s="9"/>
+      <c r="M94" s="9"/>
+      <c r="N94" s="9"/>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>31</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I95" s="2"/>
+      <c r="J95" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K95" s="9"/>
+      <c r="L95" s="9"/>
+      <c r="M95" s="9"/>
+      <c r="N95" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="J93:N93"/>
-    <mergeCell ref="J84:N84"/>
-    <mergeCell ref="J83:N83"/>
-    <mergeCell ref="J82:N82"/>
-    <mergeCell ref="J81:N81"/>
-    <mergeCell ref="J24:V24"/>
-    <mergeCell ref="J25:V25"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="J38:O38"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="J9:V9"/>
-    <mergeCell ref="J10:V10"/>
-    <mergeCell ref="J18:V18"/>
-    <mergeCell ref="J11:V11"/>
-    <mergeCell ref="J19:V19"/>
-    <mergeCell ref="J12:V12"/>
+  <mergeCells count="45">
+    <mergeCell ref="J66:V66"/>
+    <mergeCell ref="J67:V67"/>
+    <mergeCell ref="J76:Q78"/>
+    <mergeCell ref="J94:N94"/>
+    <mergeCell ref="J95:N95"/>
+    <mergeCell ref="J47:O47"/>
+    <mergeCell ref="J51:O51"/>
+    <mergeCell ref="J50:O50"/>
+    <mergeCell ref="J49:O49"/>
+    <mergeCell ref="J48:O48"/>
     <mergeCell ref="O62:S62"/>
     <mergeCell ref="J52:O52"/>
     <mergeCell ref="J86:N86"/>
@@ -2713,22 +2770,31 @@
     <mergeCell ref="J85:N85"/>
     <mergeCell ref="J80:N80"/>
     <mergeCell ref="J79:N79"/>
-    <mergeCell ref="J92:N92"/>
-    <mergeCell ref="J44:M44"/>
     <mergeCell ref="J87:N87"/>
     <mergeCell ref="J88:N88"/>
-    <mergeCell ref="J47:O47"/>
-    <mergeCell ref="J51:O51"/>
-    <mergeCell ref="J50:O50"/>
-    <mergeCell ref="J49:O49"/>
-    <mergeCell ref="J48:O48"/>
     <mergeCell ref="J75:M75"/>
     <mergeCell ref="J74:M74"/>
     <mergeCell ref="J73:M73"/>
     <mergeCell ref="J65:V65"/>
-    <mergeCell ref="J66:V66"/>
-    <mergeCell ref="J67:V67"/>
-    <mergeCell ref="J76:Q78"/>
+    <mergeCell ref="J9:V9"/>
+    <mergeCell ref="J10:V10"/>
+    <mergeCell ref="J18:V18"/>
+    <mergeCell ref="J11:V11"/>
+    <mergeCell ref="J19:V19"/>
+    <mergeCell ref="J12:V12"/>
+    <mergeCell ref="J24:V24"/>
+    <mergeCell ref="J25:V25"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="J38:O38"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="J93:N93"/>
+    <mergeCell ref="J84:N84"/>
+    <mergeCell ref="J83:N83"/>
+    <mergeCell ref="J82:N82"/>
+    <mergeCell ref="J81:N81"/>
+    <mergeCell ref="J92:N92"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3ECB50-991A-4D63-9E94-A2F225AF90AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0CD9AA8-0E22-4C39-B2AC-F54B2542095D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13470" yWindow="2115" windowWidth="22665" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="69">
   <si>
     <t>ST-SSL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -292,6 +292,14 @@
   </si>
   <si>
     <t>13-&gt;31 添加注意力残差链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13-&gt;32 去除STGCN时间卷积，采用STAEFormer的时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13-&gt;33 去除STGCN时间卷积，采用STAEFormer的时间，空间注意力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -381,16 +389,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -672,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:V95"/>
+  <dimension ref="A3:V97"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="K97" sqref="K97"/>
+      <selection activeCell="O91" sqref="O91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -809,21 +817,21 @@
       <c r="I9" s="2">
         <v>0.1225</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -853,21 +861,21 @@
       <c r="I10" s="2">
         <v>0.1226</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -897,21 +905,21 @@
       <c r="I11" s="2">
         <v>0.12</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -941,21 +949,21 @@
       <c r="I12" s="2">
         <v>0.1323</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -1043,21 +1051,21 @@
       <c r="I18" s="2">
         <v>0.16550000000000001</v>
       </c>
-      <c r="J18" s="9" t="s">
+      <c r="J18" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
@@ -1087,21 +1095,21 @@
       <c r="I19" s="2">
         <v>0.1507</v>
       </c>
-      <c r="J19" s="9" t="s">
+      <c r="J19" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
@@ -1122,21 +1130,21 @@
       <c r="F24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J24" s="9" t="s">
+      <c r="J24" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -1157,21 +1165,21 @@
       <c r="F25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="J25" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
@@ -1259,12 +1267,12 @@
       <c r="I37" s="2">
         <v>0.13450000000000001</v>
       </c>
-      <c r="J37" s="9" t="s">
+      <c r="J37" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
@@ -1294,14 +1302,14 @@
       <c r="I38" s="2">
         <v>0.1394</v>
       </c>
-      <c r="J38" s="9" t="s">
+      <c r="J38" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
@@ -1389,12 +1397,12 @@
       <c r="I44" s="2">
         <v>0.1235</v>
       </c>
-      <c r="J44" s="8" t="s">
+      <c r="J44" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
@@ -1424,12 +1432,12 @@
       <c r="I45" s="2">
         <v>0.1234</v>
       </c>
-      <c r="J45" s="9" t="s">
+      <c r="J45" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
@@ -1459,12 +1467,12 @@
       <c r="I46" s="2">
         <v>0.1249</v>
       </c>
-      <c r="J46" s="8" t="s">
+      <c r="J46" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
@@ -1494,14 +1502,14 @@
       <c r="I47" s="2">
         <v>0.12280000000000001</v>
       </c>
-      <c r="J47" s="9" t="s">
+      <c r="J47" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
-      <c r="M47" s="9"/>
-      <c r="N47" s="9"/>
-      <c r="O47" s="9"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="8"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
@@ -1531,14 +1539,14 @@
       <c r="I48" s="2">
         <v>0.1222</v>
       </c>
-      <c r="J48" s="9" t="s">
+      <c r="J48" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
-      <c r="M48" s="9"/>
-      <c r="N48" s="9"/>
-      <c r="O48" s="9"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="8"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
@@ -1568,14 +1576,14 @@
       <c r="I49" s="2">
         <v>0.1234</v>
       </c>
-      <c r="J49" s="9" t="s">
+      <c r="J49" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="K49" s="9"/>
-      <c r="L49" s="9"/>
-      <c r="M49" s="9"/>
-      <c r="N49" s="9"/>
-      <c r="O49" s="9"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
@@ -1605,14 +1613,14 @@
       <c r="I50" s="2">
         <v>0.1263</v>
       </c>
-      <c r="J50" s="9" t="s">
+      <c r="J50" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
-      <c r="M50" s="9"/>
-      <c r="N50" s="9"/>
-      <c r="O50" s="9"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="8"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
@@ -1642,14 +1650,14 @@
       <c r="I51" s="2">
         <v>0.1232</v>
       </c>
-      <c r="J51" s="9" t="s">
+      <c r="J51" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="9"/>
-      <c r="N51" s="9"/>
-      <c r="O51" s="9"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+      <c r="O51" s="8"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
@@ -1670,14 +1678,14 @@
       <c r="F52" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J52" s="9" t="s">
+      <c r="J52" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="K52" s="9"/>
-      <c r="L52" s="9"/>
-      <c r="M52" s="9"/>
-      <c r="N52" s="9"/>
-      <c r="O52" s="9"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="8"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
@@ -1803,13 +1811,13 @@
       <c r="L62" s="2">
         <v>0.14990000000000001</v>
       </c>
-      <c r="O62" s="11" t="s">
+      <c r="O62" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="P62" s="11"/>
-      <c r="Q62" s="11"/>
-      <c r="R62" s="11"/>
-      <c r="S62" s="11"/>
+      <c r="P62" s="10"/>
+      <c r="Q62" s="10"/>
+      <c r="R62" s="10"/>
+      <c r="S62" s="10"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
@@ -1851,21 +1859,21 @@
       <c r="I65" s="2">
         <v>0.15129999999999999</v>
       </c>
-      <c r="J65" s="9" t="s">
+      <c r="J65" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K65" s="9"/>
-      <c r="L65" s="9"/>
-      <c r="M65" s="9"/>
-      <c r="N65" s="9"/>
-      <c r="O65" s="9"/>
-      <c r="P65" s="9"/>
-      <c r="Q65" s="9"/>
-      <c r="R65" s="9"/>
-      <c r="S65" s="9"/>
-      <c r="T65" s="9"/>
-      <c r="U65" s="9"/>
-      <c r="V65" s="9"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="8"/>
+      <c r="M65" s="8"/>
+      <c r="N65" s="8"/>
+      <c r="O65" s="8"/>
+      <c r="P65" s="8"/>
+      <c r="Q65" s="8"/>
+      <c r="R65" s="8"/>
+      <c r="S65" s="8"/>
+      <c r="T65" s="8"/>
+      <c r="U65" s="8"/>
+      <c r="V65" s="8"/>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
@@ -1895,21 +1903,21 @@
       <c r="I66" s="2">
         <v>0.14929999999999999</v>
       </c>
-      <c r="J66" s="9" t="s">
+      <c r="J66" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="K66" s="9"/>
-      <c r="L66" s="9"/>
-      <c r="M66" s="9"/>
-      <c r="N66" s="9"/>
-      <c r="O66" s="9"/>
-      <c r="P66" s="9"/>
-      <c r="Q66" s="9"/>
-      <c r="R66" s="9"/>
-      <c r="S66" s="9"/>
-      <c r="T66" s="9"/>
-      <c r="U66" s="9"/>
-      <c r="V66" s="9"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="8"/>
+      <c r="M66" s="8"/>
+      <c r="N66" s="8"/>
+      <c r="O66" s="8"/>
+      <c r="P66" s="8"/>
+      <c r="Q66" s="8"/>
+      <c r="R66" s="8"/>
+      <c r="S66" s="8"/>
+      <c r="T66" s="8"/>
+      <c r="U66" s="8"/>
+      <c r="V66" s="8"/>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
@@ -1939,21 +1947,21 @@
       <c r="I67" s="5">
         <v>0.13739999999999999</v>
       </c>
-      <c r="J67" s="9" t="s">
+      <c r="J67" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="K67" s="9"/>
-      <c r="L67" s="9"/>
-      <c r="M67" s="9"/>
-      <c r="N67" s="9"/>
-      <c r="O67" s="9"/>
-      <c r="P67" s="9"/>
-      <c r="Q67" s="9"/>
-      <c r="R67" s="9"/>
-      <c r="S67" s="9"/>
-      <c r="T67" s="9"/>
-      <c r="U67" s="9"/>
-      <c r="V67" s="9"/>
+      <c r="K67" s="8"/>
+      <c r="L67" s="8"/>
+      <c r="M67" s="8"/>
+      <c r="N67" s="8"/>
+      <c r="O67" s="8"/>
+      <c r="P67" s="8"/>
+      <c r="Q67" s="8"/>
+      <c r="R67" s="8"/>
+      <c r="S67" s="8"/>
+      <c r="T67" s="8"/>
+      <c r="U67" s="8"/>
+      <c r="V67" s="8"/>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" s="6"/>
@@ -1995,21 +2003,21 @@
       <c r="I71" s="2">
         <v>0.14280000000000001</v>
       </c>
-      <c r="J71" s="9" t="s">
+      <c r="J71" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="K71" s="9"/>
-      <c r="L71" s="9"/>
-      <c r="M71" s="9"/>
-      <c r="N71" s="9"/>
-      <c r="O71" s="9"/>
-      <c r="P71" s="9"/>
-      <c r="Q71" s="9"/>
-      <c r="R71" s="9"/>
-      <c r="S71" s="9"/>
-      <c r="T71" s="9"/>
-      <c r="U71" s="9"/>
-      <c r="V71" s="9"/>
+      <c r="K71" s="8"/>
+      <c r="L71" s="8"/>
+      <c r="M71" s="8"/>
+      <c r="N71" s="8"/>
+      <c r="O71" s="8"/>
+      <c r="P71" s="8"/>
+      <c r="Q71" s="8"/>
+      <c r="R71" s="8"/>
+      <c r="S71" s="8"/>
+      <c r="T71" s="8"/>
+      <c r="U71" s="8"/>
+      <c r="V71" s="8"/>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" s="7"/>
@@ -2051,12 +2059,12 @@
       <c r="I73" s="5">
         <v>0.13669999999999999</v>
       </c>
-      <c r="J73" s="8" t="s">
+      <c r="J73" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="K73" s="8"/>
-      <c r="L73" s="8"/>
-      <c r="M73" s="8"/>
+      <c r="K73" s="9"/>
+      <c r="L73" s="9"/>
+      <c r="M73" s="9"/>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
@@ -2077,12 +2085,12 @@
       <c r="F74" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J74" s="8" t="s">
+      <c r="J74" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="K74" s="8"/>
-      <c r="L74" s="8"/>
-      <c r="M74" s="8"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="9"/>
+      <c r="M74" s="9"/>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
@@ -2112,12 +2120,12 @@
       <c r="I75" s="2">
         <v>0.13780000000000001</v>
       </c>
-      <c r="J75" s="8" t="s">
+      <c r="J75" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="K75" s="8"/>
-      <c r="L75" s="8"/>
-      <c r="M75" s="8"/>
+      <c r="K75" s="9"/>
+      <c r="L75" s="9"/>
+      <c r="M75" s="9"/>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
@@ -2147,36 +2155,36 @@
       <c r="I76" s="5">
         <v>0.1348</v>
       </c>
-      <c r="J76" s="8" t="s">
+      <c r="J76" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="K76" s="8"/>
-      <c r="L76" s="8"/>
-      <c r="M76" s="8"/>
-      <c r="N76" s="8"/>
-      <c r="O76" s="8"/>
-      <c r="P76" s="8"/>
-      <c r="Q76" s="8"/>
+      <c r="K76" s="9"/>
+      <c r="L76" s="9"/>
+      <c r="M76" s="9"/>
+      <c r="N76" s="9"/>
+      <c r="O76" s="9"/>
+      <c r="P76" s="9"/>
+      <c r="Q76" s="9"/>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="J77" s="8"/>
-      <c r="K77" s="8"/>
-      <c r="L77" s="8"/>
-      <c r="M77" s="8"/>
-      <c r="N77" s="8"/>
-      <c r="O77" s="8"/>
-      <c r="P77" s="8"/>
-      <c r="Q77" s="8"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c r="L77" s="9"/>
+      <c r="M77" s="9"/>
+      <c r="N77" s="9"/>
+      <c r="O77" s="9"/>
+      <c r="P77" s="9"/>
+      <c r="Q77" s="9"/>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="J78" s="8"/>
-      <c r="K78" s="8"/>
-      <c r="L78" s="8"/>
-      <c r="M78" s="8"/>
-      <c r="N78" s="8"/>
-      <c r="O78" s="8"/>
-      <c r="P78" s="8"/>
-      <c r="Q78" s="8"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c r="L78" s="9"/>
+      <c r="M78" s="9"/>
+      <c r="N78" s="9"/>
+      <c r="O78" s="9"/>
+      <c r="P78" s="9"/>
+      <c r="Q78" s="9"/>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
@@ -2206,13 +2214,13 @@
       <c r="I79" s="2">
         <v>0.13689999999999999</v>
       </c>
-      <c r="J79" s="9" t="s">
+      <c r="J79" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="K79" s="9"/>
-      <c r="L79" s="9"/>
-      <c r="M79" s="9"/>
-      <c r="N79" s="9"/>
+      <c r="K79" s="8"/>
+      <c r="L79" s="8"/>
+      <c r="M79" s="8"/>
+      <c r="N79" s="8"/>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
@@ -2242,13 +2250,13 @@
       <c r="I80" s="2">
         <v>0.14749999999999999</v>
       </c>
-      <c r="J80" s="9" t="s">
+      <c r="J80" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="K80" s="9"/>
-      <c r="L80" s="9"/>
-      <c r="M80" s="9"/>
-      <c r="N80" s="9"/>
+      <c r="K80" s="8"/>
+      <c r="L80" s="8"/>
+      <c r="M80" s="8"/>
+      <c r="N80" s="8"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
@@ -2278,13 +2286,13 @@
       <c r="I81" s="2">
         <v>0.20910000000000001</v>
       </c>
-      <c r="J81" s="9" t="s">
+      <c r="J81" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="K81" s="9"/>
-      <c r="L81" s="9"/>
-      <c r="M81" s="9"/>
-      <c r="N81" s="9"/>
+      <c r="K81" s="8"/>
+      <c r="L81" s="8"/>
+      <c r="M81" s="8"/>
+      <c r="N81" s="8"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
@@ -2314,13 +2322,13 @@
       <c r="I82" s="2">
         <v>0.1336</v>
       </c>
-      <c r="J82" s="9" t="s">
+      <c r="J82" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="K82" s="9"/>
-      <c r="L82" s="9"/>
-      <c r="M82" s="9"/>
-      <c r="N82" s="9"/>
+      <c r="K82" s="8"/>
+      <c r="L82" s="8"/>
+      <c r="M82" s="8"/>
+      <c r="N82" s="8"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
@@ -2350,13 +2358,13 @@
       <c r="I83" s="2">
         <v>0.1326</v>
       </c>
-      <c r="J83" s="9" t="s">
+      <c r="J83" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="K83" s="9"/>
-      <c r="L83" s="9"/>
-      <c r="M83" s="9"/>
-      <c r="N83" s="9"/>
+      <c r="K83" s="8"/>
+      <c r="L83" s="8"/>
+      <c r="M83" s="8"/>
+      <c r="N83" s="8"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
@@ -2386,13 +2394,13 @@
       <c r="I84" s="2">
         <v>0.13400000000000001</v>
       </c>
-      <c r="J84" s="9" t="s">
+      <c r="J84" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="K84" s="9"/>
-      <c r="L84" s="9"/>
-      <c r="M84" s="9"/>
-      <c r="N84" s="9"/>
+      <c r="K84" s="8"/>
+      <c r="L84" s="8"/>
+      <c r="M84" s="8"/>
+      <c r="N84" s="8"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
@@ -2422,13 +2430,13 @@
       <c r="I85" s="2">
         <v>0.1361</v>
       </c>
-      <c r="J85" s="8" t="s">
+      <c r="J85" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K85" s="8"/>
-      <c r="L85" s="8"/>
-      <c r="M85" s="8"/>
-      <c r="N85" s="8"/>
+      <c r="K85" s="9"/>
+      <c r="L85" s="9"/>
+      <c r="M85" s="9"/>
+      <c r="N85" s="9"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
@@ -2458,13 +2466,13 @@
       <c r="I86" s="5">
         <v>0.13070000000000001</v>
       </c>
-      <c r="J86" s="8" t="s">
+      <c r="J86" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="K86" s="8"/>
-      <c r="L86" s="8"/>
-      <c r="M86" s="8"/>
-      <c r="N86" s="8"/>
+      <c r="K86" s="9"/>
+      <c r="L86" s="9"/>
+      <c r="M86" s="9"/>
+      <c r="N86" s="9"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
@@ -2494,13 +2502,13 @@
       <c r="I87" s="2">
         <v>0.1361</v>
       </c>
-      <c r="J87" s="8" t="s">
+      <c r="J87" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="K87" s="8"/>
-      <c r="L87" s="8"/>
-      <c r="M87" s="8"/>
-      <c r="N87" s="8"/>
+      <c r="K87" s="9"/>
+      <c r="L87" s="9"/>
+      <c r="M87" s="9"/>
+      <c r="N87" s="9"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
@@ -2530,13 +2538,13 @@
       <c r="I88" s="2">
         <v>0.13589999999999999</v>
       </c>
-      <c r="J88" s="8" t="s">
+      <c r="J88" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="K88" s="8"/>
-      <c r="L88" s="8"/>
-      <c r="M88" s="8"/>
-      <c r="N88" s="8"/>
+      <c r="K88" s="9"/>
+      <c r="L88" s="9"/>
+      <c r="M88" s="9"/>
+      <c r="N88" s="9"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
@@ -2566,13 +2574,13 @@
       <c r="I89" s="2">
         <v>0.1439</v>
       </c>
-      <c r="J89" s="9" t="s">
+      <c r="J89" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="K89" s="9"/>
-      <c r="L89" s="9"/>
-      <c r="M89" s="9"/>
-      <c r="N89" s="9"/>
+      <c r="K89" s="8"/>
+      <c r="L89" s="8"/>
+      <c r="M89" s="8"/>
+      <c r="N89" s="8"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
@@ -2602,13 +2610,13 @@
       <c r="I90" s="2">
         <v>0.13850000000000001</v>
       </c>
-      <c r="J90" s="9" t="s">
+      <c r="J90" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="K90" s="9"/>
-      <c r="L90" s="9"/>
-      <c r="M90" s="9"/>
-      <c r="N90" s="9"/>
+      <c r="K90" s="8"/>
+      <c r="L90" s="8"/>
+      <c r="M90" s="8"/>
+      <c r="N90" s="8"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
@@ -2629,13 +2637,13 @@
       <c r="F91" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J91" s="9" t="s">
+      <c r="J91" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="K91" s="9"/>
-      <c r="L91" s="9"/>
-      <c r="M91" s="9"/>
-      <c r="N91" s="9"/>
+      <c r="K91" s="8"/>
+      <c r="L91" s="8"/>
+      <c r="M91" s="8"/>
+      <c r="N91" s="8"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
@@ -2656,13 +2664,13 @@
       <c r="F92" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J92" s="9" t="s">
+      <c r="J92" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="K92" s="9"/>
-      <c r="L92" s="9"/>
-      <c r="M92" s="9"/>
-      <c r="N92" s="9"/>
+      <c r="K92" s="8"/>
+      <c r="L92" s="8"/>
+      <c r="M92" s="8"/>
+      <c r="N92" s="8"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
@@ -2684,13 +2692,13 @@
         <v>9</v>
       </c>
       <c r="I93" s="2"/>
-      <c r="J93" s="9" t="s">
+      <c r="J93" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="K93" s="9"/>
-      <c r="L93" s="9"/>
-      <c r="M93" s="9"/>
-      <c r="N93" s="9"/>
+      <c r="K93" s="8"/>
+      <c r="L93" s="8"/>
+      <c r="M93" s="8"/>
+      <c r="N93" s="8"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
@@ -2712,13 +2720,13 @@
         <v>9</v>
       </c>
       <c r="I94" s="2"/>
-      <c r="J94" s="9" t="s">
+      <c r="J94" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="K94" s="9"/>
-      <c r="L94" s="9"/>
-      <c r="M94" s="9"/>
-      <c r="N94" s="9"/>
+      <c r="K94" s="8"/>
+      <c r="L94" s="8"/>
+      <c r="M94" s="8"/>
+      <c r="N94" s="8"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
@@ -2740,26 +2748,90 @@
         <v>9</v>
       </c>
       <c r="I95" s="2"/>
-      <c r="J95" s="9" t="s">
+      <c r="J95" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="K95" s="9"/>
-      <c r="L95" s="9"/>
-      <c r="M95" s="9"/>
-      <c r="N95" s="9"/>
+      <c r="K95" s="8"/>
+      <c r="L95" s="8"/>
+      <c r="M95" s="8"/>
+      <c r="N95" s="8"/>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>32</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I96" s="2"/>
+      <c r="J96" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="K96" s="8"/>
+      <c r="L96" s="8"/>
+      <c r="M96" s="8"/>
+      <c r="N96" s="8"/>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>33</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I97" s="2"/>
+      <c r="J97" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="K97" s="8"/>
+      <c r="L97" s="8"/>
+      <c r="M97" s="8"/>
+      <c r="N97" s="8"/>
+      <c r="O97" s="11"/>
+      <c r="P97" s="11"/>
+      <c r="Q97" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="J66:V66"/>
-    <mergeCell ref="J67:V67"/>
-    <mergeCell ref="J76:Q78"/>
-    <mergeCell ref="J94:N94"/>
-    <mergeCell ref="J95:N95"/>
-    <mergeCell ref="J47:O47"/>
-    <mergeCell ref="J51:O51"/>
-    <mergeCell ref="J50:O50"/>
-    <mergeCell ref="J49:O49"/>
-    <mergeCell ref="J48:O48"/>
+  <mergeCells count="47">
+    <mergeCell ref="J96:N96"/>
+    <mergeCell ref="J97:Q97"/>
+    <mergeCell ref="J24:V24"/>
+    <mergeCell ref="J25:V25"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="J38:O38"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="J9:V9"/>
+    <mergeCell ref="J10:V10"/>
+    <mergeCell ref="J18:V18"/>
+    <mergeCell ref="J11:V11"/>
+    <mergeCell ref="J19:V19"/>
+    <mergeCell ref="J12:V12"/>
     <mergeCell ref="O62:S62"/>
     <mergeCell ref="J52:O52"/>
     <mergeCell ref="J86:N86"/>
@@ -2776,19 +2848,16 @@
     <mergeCell ref="J74:M74"/>
     <mergeCell ref="J73:M73"/>
     <mergeCell ref="J65:V65"/>
-    <mergeCell ref="J9:V9"/>
-    <mergeCell ref="J10:V10"/>
-    <mergeCell ref="J18:V18"/>
-    <mergeCell ref="J11:V11"/>
-    <mergeCell ref="J19:V19"/>
-    <mergeCell ref="J12:V12"/>
-    <mergeCell ref="J24:V24"/>
-    <mergeCell ref="J25:V25"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="J38:O38"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="J47:O47"/>
+    <mergeCell ref="J51:O51"/>
+    <mergeCell ref="J50:O50"/>
+    <mergeCell ref="J49:O49"/>
+    <mergeCell ref="J48:O48"/>
+    <mergeCell ref="J66:V66"/>
+    <mergeCell ref="J67:V67"/>
+    <mergeCell ref="J76:Q78"/>
+    <mergeCell ref="J94:N94"/>
+    <mergeCell ref="J95:N95"/>
     <mergeCell ref="J93:N93"/>
     <mergeCell ref="J84:N84"/>
     <mergeCell ref="J83:N83"/>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0CD9AA8-0E22-4C39-B2AC-F54B2542095D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821FAC24-0532-4781-8EC8-EAF0EB8B386A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13470" yWindow="2115" windowWidth="22665" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -392,13 +392,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -683,7 +683,7 @@
   <dimension ref="A3:V97"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="O91" sqref="O91"/>
+      <selection activeCell="H96" sqref="H96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1308,8 +1308,8 @@
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
@@ -1397,12 +1397,12 @@
       <c r="I44" s="2">
         <v>0.1235</v>
       </c>
-      <c r="J44" s="9" t="s">
+      <c r="J44" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="9"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
@@ -1467,12 +1467,12 @@
       <c r="I46" s="2">
         <v>0.1249</v>
       </c>
-      <c r="J46" s="9" t="s">
+      <c r="J46" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="9"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
@@ -1811,13 +1811,13 @@
       <c r="L62" s="2">
         <v>0.14990000000000001</v>
       </c>
-      <c r="O62" s="10" t="s">
+      <c r="O62" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="P62" s="10"/>
-      <c r="Q62" s="10"/>
-      <c r="R62" s="10"/>
-      <c r="S62" s="10"/>
+      <c r="P62" s="11"/>
+      <c r="Q62" s="11"/>
+      <c r="R62" s="11"/>
+      <c r="S62" s="11"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
@@ -2059,12 +2059,12 @@
       <c r="I73" s="5">
         <v>0.13669999999999999</v>
       </c>
-      <c r="J73" s="9" t="s">
+      <c r="J73" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="K73" s="9"/>
-      <c r="L73" s="9"/>
-      <c r="M73" s="9"/>
+      <c r="K73" s="10"/>
+      <c r="L73" s="10"/>
+      <c r="M73" s="10"/>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
@@ -2085,12 +2085,12 @@
       <c r="F74" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J74" s="9" t="s">
+      <c r="J74" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="K74" s="9"/>
-      <c r="L74" s="9"/>
-      <c r="M74" s="9"/>
+      <c r="K74" s="10"/>
+      <c r="L74" s="10"/>
+      <c r="M74" s="10"/>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
@@ -2120,12 +2120,12 @@
       <c r="I75" s="2">
         <v>0.13780000000000001</v>
       </c>
-      <c r="J75" s="9" t="s">
+      <c r="J75" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="K75" s="9"/>
-      <c r="L75" s="9"/>
-      <c r="M75" s="9"/>
+      <c r="K75" s="10"/>
+      <c r="L75" s="10"/>
+      <c r="M75" s="10"/>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
@@ -2155,36 +2155,36 @@
       <c r="I76" s="5">
         <v>0.1348</v>
       </c>
-      <c r="J76" s="9" t="s">
+      <c r="J76" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="K76" s="9"/>
-      <c r="L76" s="9"/>
-      <c r="M76" s="9"/>
-      <c r="N76" s="9"/>
-      <c r="O76" s="9"/>
-      <c r="P76" s="9"/>
-      <c r="Q76" s="9"/>
+      <c r="K76" s="10"/>
+      <c r="L76" s="10"/>
+      <c r="M76" s="10"/>
+      <c r="N76" s="10"/>
+      <c r="O76" s="10"/>
+      <c r="P76" s="10"/>
+      <c r="Q76" s="10"/>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="J77" s="9"/>
-      <c r="K77" s="9"/>
-      <c r="L77" s="9"/>
-      <c r="M77" s="9"/>
-      <c r="N77" s="9"/>
-      <c r="O77" s="9"/>
-      <c r="P77" s="9"/>
-      <c r="Q77" s="9"/>
+      <c r="J77" s="10"/>
+      <c r="K77" s="10"/>
+      <c r="L77" s="10"/>
+      <c r="M77" s="10"/>
+      <c r="N77" s="10"/>
+      <c r="O77" s="10"/>
+      <c r="P77" s="10"/>
+      <c r="Q77" s="10"/>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="J78" s="9"/>
-      <c r="K78" s="9"/>
-      <c r="L78" s="9"/>
-      <c r="M78" s="9"/>
-      <c r="N78" s="9"/>
-      <c r="O78" s="9"/>
-      <c r="P78" s="9"/>
-      <c r="Q78" s="9"/>
+      <c r="J78" s="10"/>
+      <c r="K78" s="10"/>
+      <c r="L78" s="10"/>
+      <c r="M78" s="10"/>
+      <c r="N78" s="10"/>
+      <c r="O78" s="10"/>
+      <c r="P78" s="10"/>
+      <c r="Q78" s="10"/>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
@@ -2430,13 +2430,13 @@
       <c r="I85" s="2">
         <v>0.1361</v>
       </c>
-      <c r="J85" s="9" t="s">
+      <c r="J85" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="K85" s="9"/>
-      <c r="L85" s="9"/>
-      <c r="M85" s="9"/>
-      <c r="N85" s="9"/>
+      <c r="K85" s="10"/>
+      <c r="L85" s="10"/>
+      <c r="M85" s="10"/>
+      <c r="N85" s="10"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
@@ -2466,13 +2466,13 @@
       <c r="I86" s="5">
         <v>0.13070000000000001</v>
       </c>
-      <c r="J86" s="9" t="s">
+      <c r="J86" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="K86" s="9"/>
-      <c r="L86" s="9"/>
-      <c r="M86" s="9"/>
-      <c r="N86" s="9"/>
+      <c r="K86" s="10"/>
+      <c r="L86" s="10"/>
+      <c r="M86" s="10"/>
+      <c r="N86" s="10"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
@@ -2502,13 +2502,13 @@
       <c r="I87" s="2">
         <v>0.1361</v>
       </c>
-      <c r="J87" s="9" t="s">
+      <c r="J87" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="K87" s="9"/>
-      <c r="L87" s="9"/>
-      <c r="M87" s="9"/>
-      <c r="N87" s="9"/>
+      <c r="K87" s="10"/>
+      <c r="L87" s="10"/>
+      <c r="M87" s="10"/>
+      <c r="N87" s="10"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
@@ -2538,13 +2538,13 @@
       <c r="I88" s="2">
         <v>0.13589999999999999</v>
       </c>
-      <c r="J88" s="9" t="s">
+      <c r="J88" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="K88" s="9"/>
-      <c r="L88" s="9"/>
-      <c r="M88" s="9"/>
-      <c r="N88" s="9"/>
+      <c r="K88" s="10"/>
+      <c r="L88" s="10"/>
+      <c r="M88" s="10"/>
+      <c r="N88" s="10"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
@@ -2747,7 +2747,15 @@
       <c r="F95" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I95" s="2"/>
+      <c r="G95" s="1">
+        <v>19.48</v>
+      </c>
+      <c r="H95" s="1">
+        <v>30.71</v>
+      </c>
+      <c r="I95" s="2">
+        <v>0.14530000000000001</v>
+      </c>
       <c r="J95" s="8" t="s">
         <v>66</v>
       </c>
@@ -2811,39 +2819,21 @@
       <c r="L97" s="8"/>
       <c r="M97" s="8"/>
       <c r="N97" s="8"/>
-      <c r="O97" s="11"/>
-      <c r="P97" s="11"/>
-      <c r="Q97" s="11"/>
+      <c r="O97" s="9"/>
+      <c r="P97" s="9"/>
+      <c r="Q97" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="J96:N96"/>
-    <mergeCell ref="J97:Q97"/>
-    <mergeCell ref="J24:V24"/>
-    <mergeCell ref="J25:V25"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="J38:O38"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="J44:M44"/>
-    <mergeCell ref="J9:V9"/>
-    <mergeCell ref="J10:V10"/>
-    <mergeCell ref="J18:V18"/>
-    <mergeCell ref="J11:V11"/>
-    <mergeCell ref="J19:V19"/>
-    <mergeCell ref="J12:V12"/>
-    <mergeCell ref="O62:S62"/>
-    <mergeCell ref="J52:O52"/>
-    <mergeCell ref="J86:N86"/>
-    <mergeCell ref="J90:N90"/>
-    <mergeCell ref="J91:N91"/>
-    <mergeCell ref="J89:N89"/>
-    <mergeCell ref="J71:V71"/>
-    <mergeCell ref="J85:N85"/>
-    <mergeCell ref="J80:N80"/>
-    <mergeCell ref="J79:N79"/>
-    <mergeCell ref="J87:N87"/>
-    <mergeCell ref="J88:N88"/>
+    <mergeCell ref="J76:Q78"/>
+    <mergeCell ref="J94:N94"/>
+    <mergeCell ref="J95:N95"/>
+    <mergeCell ref="J93:N93"/>
+    <mergeCell ref="J84:N84"/>
+    <mergeCell ref="J83:N83"/>
+    <mergeCell ref="J82:N82"/>
+    <mergeCell ref="J81:N81"/>
+    <mergeCell ref="J92:N92"/>
     <mergeCell ref="J75:M75"/>
     <mergeCell ref="J74:M74"/>
     <mergeCell ref="J73:M73"/>
@@ -2855,15 +2845,33 @@
     <mergeCell ref="J48:O48"/>
     <mergeCell ref="J66:V66"/>
     <mergeCell ref="J67:V67"/>
-    <mergeCell ref="J76:Q78"/>
-    <mergeCell ref="J94:N94"/>
-    <mergeCell ref="J95:N95"/>
-    <mergeCell ref="J93:N93"/>
-    <mergeCell ref="J84:N84"/>
-    <mergeCell ref="J83:N83"/>
-    <mergeCell ref="J82:N82"/>
-    <mergeCell ref="J81:N81"/>
-    <mergeCell ref="J92:N92"/>
+    <mergeCell ref="J85:N85"/>
+    <mergeCell ref="J80:N80"/>
+    <mergeCell ref="J79:N79"/>
+    <mergeCell ref="J87:N87"/>
+    <mergeCell ref="J88:N88"/>
+    <mergeCell ref="J9:V9"/>
+    <mergeCell ref="J10:V10"/>
+    <mergeCell ref="J18:V18"/>
+    <mergeCell ref="J11:V11"/>
+    <mergeCell ref="J19:V19"/>
+    <mergeCell ref="J12:V12"/>
+    <mergeCell ref="J96:N96"/>
+    <mergeCell ref="J97:Q97"/>
+    <mergeCell ref="J24:V24"/>
+    <mergeCell ref="J25:V25"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="J38:O38"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="O62:S62"/>
+    <mergeCell ref="J52:O52"/>
+    <mergeCell ref="J86:N86"/>
+    <mergeCell ref="J90:N90"/>
+    <mergeCell ref="J91:N91"/>
+    <mergeCell ref="J89:N89"/>
+    <mergeCell ref="J71:V71"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821FAC24-0532-4781-8EC8-EAF0EB8B386A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843E197C-D38D-43BE-B382-E764A2DA8F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13470" yWindow="2115" windowWidth="22665" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="70">
   <si>
     <t>ST-SSL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -300,6 +300,10 @@
   </si>
   <si>
     <t>13-&gt;33 去除STGCN时间卷积，采用STAEFormer的时间，空间注意力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13-&gt;34 去除STGCN时间卷积，空间卷积只添加时间注意力，语义，添加时间和空间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -389,13 +393,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -680,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:V97"/>
+  <dimension ref="A3:V98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="H96" sqref="H96"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -817,21 +821,21 @@
       <c r="I9" s="2">
         <v>0.1225</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -861,21 +865,21 @@
       <c r="I10" s="2">
         <v>0.1226</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -905,21 +909,21 @@
       <c r="I11" s="2">
         <v>0.12</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -949,21 +953,21 @@
       <c r="I12" s="2">
         <v>0.1323</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="J12" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -1051,21 +1055,21 @@
       <c r="I18" s="2">
         <v>0.16550000000000001</v>
       </c>
-      <c r="J18" s="8" t="s">
+      <c r="J18" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
@@ -1095,21 +1099,21 @@
       <c r="I19" s="2">
         <v>0.1507</v>
       </c>
-      <c r="J19" s="8" t="s">
+      <c r="J19" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
@@ -1130,21 +1134,21 @@
       <c r="F24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J24" s="8" t="s">
+      <c r="J24" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="8"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -1165,21 +1169,21 @@
       <c r="F25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J25" s="8" t="s">
+      <c r="J25" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="8"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
@@ -1267,12 +1271,12 @@
       <c r="I37" s="2">
         <v>0.13450000000000001</v>
       </c>
-      <c r="J37" s="8" t="s">
+      <c r="J37" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
@@ -1302,14 +1306,14 @@
       <c r="I38" s="2">
         <v>0.1394</v>
       </c>
-      <c r="J38" s="8" t="s">
+      <c r="J38" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
@@ -1397,12 +1401,12 @@
       <c r="I44" s="2">
         <v>0.1235</v>
       </c>
-      <c r="J44" s="10" t="s">
+      <c r="J44" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
@@ -1432,12 +1436,12 @@
       <c r="I45" s="2">
         <v>0.1234</v>
       </c>
-      <c r="J45" s="8" t="s">
+      <c r="J45" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
@@ -1467,12 +1471,12 @@
       <c r="I46" s="2">
         <v>0.1249</v>
       </c>
-      <c r="J46" s="10" t="s">
+      <c r="J46" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
@@ -1502,14 +1506,14 @@
       <c r="I47" s="2">
         <v>0.12280000000000001</v>
       </c>
-      <c r="J47" s="8" t="s">
+      <c r="J47" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="8"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
@@ -1539,14 +1543,14 @@
       <c r="I48" s="2">
         <v>0.1222</v>
       </c>
-      <c r="J48" s="8" t="s">
+      <c r="J48" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8"/>
-      <c r="O48" s="8"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
@@ -1576,14 +1580,14 @@
       <c r="I49" s="2">
         <v>0.1234</v>
       </c>
-      <c r="J49" s="8" t="s">
+      <c r="J49" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="8"/>
-      <c r="O49" s="8"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
@@ -1613,14 +1617,14 @@
       <c r="I50" s="2">
         <v>0.1263</v>
       </c>
-      <c r="J50" s="8" t="s">
+      <c r="J50" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="8"/>
-      <c r="O50" s="8"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="9"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
@@ -1650,14 +1654,14 @@
       <c r="I51" s="2">
         <v>0.1232</v>
       </c>
-      <c r="J51" s="8" t="s">
+      <c r="J51" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="8"/>
-      <c r="O51" s="8"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
@@ -1678,14 +1682,14 @@
       <c r="F52" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J52" s="8" t="s">
+      <c r="J52" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
-      <c r="N52" s="8"/>
-      <c r="O52" s="8"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
@@ -1859,21 +1863,21 @@
       <c r="I65" s="2">
         <v>0.15129999999999999</v>
       </c>
-      <c r="J65" s="8" t="s">
+      <c r="J65" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K65" s="8"/>
-      <c r="L65" s="8"/>
-      <c r="M65" s="8"/>
-      <c r="N65" s="8"/>
-      <c r="O65" s="8"/>
-      <c r="P65" s="8"/>
-      <c r="Q65" s="8"/>
-      <c r="R65" s="8"/>
-      <c r="S65" s="8"/>
-      <c r="T65" s="8"/>
-      <c r="U65" s="8"/>
-      <c r="V65" s="8"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+      <c r="O65" s="9"/>
+      <c r="P65" s="9"/>
+      <c r="Q65" s="9"/>
+      <c r="R65" s="9"/>
+      <c r="S65" s="9"/>
+      <c r="T65" s="9"/>
+      <c r="U65" s="9"/>
+      <c r="V65" s="9"/>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
@@ -1903,21 +1907,21 @@
       <c r="I66" s="2">
         <v>0.14929999999999999</v>
       </c>
-      <c r="J66" s="8" t="s">
+      <c r="J66" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K66" s="8"/>
-      <c r="L66" s="8"/>
-      <c r="M66" s="8"/>
-      <c r="N66" s="8"/>
-      <c r="O66" s="8"/>
-      <c r="P66" s="8"/>
-      <c r="Q66" s="8"/>
-      <c r="R66" s="8"/>
-      <c r="S66" s="8"/>
-      <c r="T66" s="8"/>
-      <c r="U66" s="8"/>
-      <c r="V66" s="8"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+      <c r="O66" s="9"/>
+      <c r="P66" s="9"/>
+      <c r="Q66" s="9"/>
+      <c r="R66" s="9"/>
+      <c r="S66" s="9"/>
+      <c r="T66" s="9"/>
+      <c r="U66" s="9"/>
+      <c r="V66" s="9"/>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
@@ -1947,21 +1951,21 @@
       <c r="I67" s="5">
         <v>0.13739999999999999</v>
       </c>
-      <c r="J67" s="8" t="s">
+      <c r="J67" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="K67" s="8"/>
-      <c r="L67" s="8"/>
-      <c r="M67" s="8"/>
-      <c r="N67" s="8"/>
-      <c r="O67" s="8"/>
-      <c r="P67" s="8"/>
-      <c r="Q67" s="8"/>
-      <c r="R67" s="8"/>
-      <c r="S67" s="8"/>
-      <c r="T67" s="8"/>
-      <c r="U67" s="8"/>
-      <c r="V67" s="8"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="9"/>
+      <c r="O67" s="9"/>
+      <c r="P67" s="9"/>
+      <c r="Q67" s="9"/>
+      <c r="R67" s="9"/>
+      <c r="S67" s="9"/>
+      <c r="T67" s="9"/>
+      <c r="U67" s="9"/>
+      <c r="V67" s="9"/>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" s="6"/>
@@ -2003,21 +2007,21 @@
       <c r="I71" s="2">
         <v>0.14280000000000001</v>
       </c>
-      <c r="J71" s="8" t="s">
+      <c r="J71" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="K71" s="8"/>
-      <c r="L71" s="8"/>
-      <c r="M71" s="8"/>
-      <c r="N71" s="8"/>
-      <c r="O71" s="8"/>
-      <c r="P71" s="8"/>
-      <c r="Q71" s="8"/>
-      <c r="R71" s="8"/>
-      <c r="S71" s="8"/>
-      <c r="T71" s="8"/>
-      <c r="U71" s="8"/>
-      <c r="V71" s="8"/>
+      <c r="K71" s="9"/>
+      <c r="L71" s="9"/>
+      <c r="M71" s="9"/>
+      <c r="N71" s="9"/>
+      <c r="O71" s="9"/>
+      <c r="P71" s="9"/>
+      <c r="Q71" s="9"/>
+      <c r="R71" s="9"/>
+      <c r="S71" s="9"/>
+      <c r="T71" s="9"/>
+      <c r="U71" s="9"/>
+      <c r="V71" s="9"/>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" s="7"/>
@@ -2059,12 +2063,12 @@
       <c r="I73" s="5">
         <v>0.13669999999999999</v>
       </c>
-      <c r="J73" s="10" t="s">
+      <c r="J73" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="K73" s="10"/>
-      <c r="L73" s="10"/>
-      <c r="M73" s="10"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="8"/>
+      <c r="M73" s="8"/>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
@@ -2085,12 +2089,12 @@
       <c r="F74" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J74" s="10" t="s">
+      <c r="J74" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="K74" s="10"/>
-      <c r="L74" s="10"/>
-      <c r="M74" s="10"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="8"/>
+      <c r="M74" s="8"/>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
@@ -2120,12 +2124,12 @@
       <c r="I75" s="2">
         <v>0.13780000000000001</v>
       </c>
-      <c r="J75" s="10" t="s">
+      <c r="J75" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="K75" s="10"/>
-      <c r="L75" s="10"/>
-      <c r="M75" s="10"/>
+      <c r="K75" s="8"/>
+      <c r="L75" s="8"/>
+      <c r="M75" s="8"/>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
@@ -2155,36 +2159,36 @@
       <c r="I76" s="5">
         <v>0.1348</v>
       </c>
-      <c r="J76" s="10" t="s">
+      <c r="J76" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="K76" s="10"/>
-      <c r="L76" s="10"/>
-      <c r="M76" s="10"/>
-      <c r="N76" s="10"/>
-      <c r="O76" s="10"/>
-      <c r="P76" s="10"/>
-      <c r="Q76" s="10"/>
+      <c r="K76" s="8"/>
+      <c r="L76" s="8"/>
+      <c r="M76" s="8"/>
+      <c r="N76" s="8"/>
+      <c r="O76" s="8"/>
+      <c r="P76" s="8"/>
+      <c r="Q76" s="8"/>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="J77" s="10"/>
-      <c r="K77" s="10"/>
-      <c r="L77" s="10"/>
-      <c r="M77" s="10"/>
-      <c r="N77" s="10"/>
-      <c r="O77" s="10"/>
-      <c r="P77" s="10"/>
-      <c r="Q77" s="10"/>
+      <c r="J77" s="8"/>
+      <c r="K77" s="8"/>
+      <c r="L77" s="8"/>
+      <c r="M77" s="8"/>
+      <c r="N77" s="8"/>
+      <c r="O77" s="8"/>
+      <c r="P77" s="8"/>
+      <c r="Q77" s="8"/>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="J78" s="10"/>
-      <c r="K78" s="10"/>
-      <c r="L78" s="10"/>
-      <c r="M78" s="10"/>
-      <c r="N78" s="10"/>
-      <c r="O78" s="10"/>
-      <c r="P78" s="10"/>
-      <c r="Q78" s="10"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="8"/>
+      <c r="M78" s="8"/>
+      <c r="N78" s="8"/>
+      <c r="O78" s="8"/>
+      <c r="P78" s="8"/>
+      <c r="Q78" s="8"/>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
@@ -2214,13 +2218,13 @@
       <c r="I79" s="2">
         <v>0.13689999999999999</v>
       </c>
-      <c r="J79" s="8" t="s">
+      <c r="J79" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="K79" s="8"/>
-      <c r="L79" s="8"/>
-      <c r="M79" s="8"/>
-      <c r="N79" s="8"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="9"/>
+      <c r="M79" s="9"/>
+      <c r="N79" s="9"/>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
@@ -2250,13 +2254,13 @@
       <c r="I80" s="2">
         <v>0.14749999999999999</v>
       </c>
-      <c r="J80" s="8" t="s">
+      <c r="J80" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="K80" s="8"/>
-      <c r="L80" s="8"/>
-      <c r="M80" s="8"/>
-      <c r="N80" s="8"/>
+      <c r="K80" s="9"/>
+      <c r="L80" s="9"/>
+      <c r="M80" s="9"/>
+      <c r="N80" s="9"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
@@ -2286,13 +2290,13 @@
       <c r="I81" s="2">
         <v>0.20910000000000001</v>
       </c>
-      <c r="J81" s="8" t="s">
+      <c r="J81" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="K81" s="8"/>
-      <c r="L81" s="8"/>
-      <c r="M81" s="8"/>
-      <c r="N81" s="8"/>
+      <c r="K81" s="9"/>
+      <c r="L81" s="9"/>
+      <c r="M81" s="9"/>
+      <c r="N81" s="9"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
@@ -2322,13 +2326,13 @@
       <c r="I82" s="2">
         <v>0.1336</v>
       </c>
-      <c r="J82" s="8" t="s">
+      <c r="J82" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="K82" s="8"/>
-      <c r="L82" s="8"/>
-      <c r="M82" s="8"/>
-      <c r="N82" s="8"/>
+      <c r="K82" s="9"/>
+      <c r="L82" s="9"/>
+      <c r="M82" s="9"/>
+      <c r="N82" s="9"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
@@ -2358,13 +2362,13 @@
       <c r="I83" s="2">
         <v>0.1326</v>
       </c>
-      <c r="J83" s="8" t="s">
+      <c r="J83" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="K83" s="8"/>
-      <c r="L83" s="8"/>
-      <c r="M83" s="8"/>
-      <c r="N83" s="8"/>
+      <c r="K83" s="9"/>
+      <c r="L83" s="9"/>
+      <c r="M83" s="9"/>
+      <c r="N83" s="9"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
@@ -2394,13 +2398,13 @@
       <c r="I84" s="2">
         <v>0.13400000000000001</v>
       </c>
-      <c r="J84" s="8" t="s">
+      <c r="J84" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K84" s="8"/>
-      <c r="L84" s="8"/>
-      <c r="M84" s="8"/>
-      <c r="N84" s="8"/>
+      <c r="K84" s="9"/>
+      <c r="L84" s="9"/>
+      <c r="M84" s="9"/>
+      <c r="N84" s="9"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
@@ -2430,13 +2434,13 @@
       <c r="I85" s="2">
         <v>0.1361</v>
       </c>
-      <c r="J85" s="10" t="s">
+      <c r="J85" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="K85" s="10"/>
-      <c r="L85" s="10"/>
-      <c r="M85" s="10"/>
-      <c r="N85" s="10"/>
+      <c r="K85" s="8"/>
+      <c r="L85" s="8"/>
+      <c r="M85" s="8"/>
+      <c r="N85" s="8"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
@@ -2466,13 +2470,13 @@
       <c r="I86" s="5">
         <v>0.13070000000000001</v>
       </c>
-      <c r="J86" s="10" t="s">
+      <c r="J86" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="K86" s="10"/>
-      <c r="L86" s="10"/>
-      <c r="M86" s="10"/>
-      <c r="N86" s="10"/>
+      <c r="K86" s="8"/>
+      <c r="L86" s="8"/>
+      <c r="M86" s="8"/>
+      <c r="N86" s="8"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
@@ -2502,13 +2506,13 @@
       <c r="I87" s="2">
         <v>0.1361</v>
       </c>
-      <c r="J87" s="10" t="s">
+      <c r="J87" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="K87" s="10"/>
-      <c r="L87" s="10"/>
-      <c r="M87" s="10"/>
-      <c r="N87" s="10"/>
+      <c r="K87" s="8"/>
+      <c r="L87" s="8"/>
+      <c r="M87" s="8"/>
+      <c r="N87" s="8"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
@@ -2538,13 +2542,13 @@
       <c r="I88" s="2">
         <v>0.13589999999999999</v>
       </c>
-      <c r="J88" s="10" t="s">
+      <c r="J88" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="K88" s="10"/>
-      <c r="L88" s="10"/>
-      <c r="M88" s="10"/>
-      <c r="N88" s="10"/>
+      <c r="K88" s="8"/>
+      <c r="L88" s="8"/>
+      <c r="M88" s="8"/>
+      <c r="N88" s="8"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
@@ -2574,13 +2578,13 @@
       <c r="I89" s="2">
         <v>0.1439</v>
       </c>
-      <c r="J89" s="8" t="s">
+      <c r="J89" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="K89" s="8"/>
-      <c r="L89" s="8"/>
-      <c r="M89" s="8"/>
-      <c r="N89" s="8"/>
+      <c r="K89" s="9"/>
+      <c r="L89" s="9"/>
+      <c r="M89" s="9"/>
+      <c r="N89" s="9"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
@@ -2610,13 +2614,13 @@
       <c r="I90" s="2">
         <v>0.13850000000000001</v>
       </c>
-      <c r="J90" s="8" t="s">
+      <c r="J90" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="K90" s="8"/>
-      <c r="L90" s="8"/>
-      <c r="M90" s="8"/>
-      <c r="N90" s="8"/>
+      <c r="K90" s="9"/>
+      <c r="L90" s="9"/>
+      <c r="M90" s="9"/>
+      <c r="N90" s="9"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
@@ -2637,13 +2641,13 @@
       <c r="F91" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J91" s="8" t="s">
+      <c r="J91" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="K91" s="8"/>
-      <c r="L91" s="8"/>
-      <c r="M91" s="8"/>
-      <c r="N91" s="8"/>
+      <c r="K91" s="9"/>
+      <c r="L91" s="9"/>
+      <c r="M91" s="9"/>
+      <c r="N91" s="9"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
@@ -2664,13 +2668,13 @@
       <c r="F92" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J92" s="8" t="s">
+      <c r="J92" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="K92" s="8"/>
-      <c r="L92" s="8"/>
-      <c r="M92" s="8"/>
-      <c r="N92" s="8"/>
+      <c r="K92" s="9"/>
+      <c r="L92" s="9"/>
+      <c r="M92" s="9"/>
+      <c r="N92" s="9"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
@@ -2692,13 +2696,13 @@
         <v>9</v>
       </c>
       <c r="I93" s="2"/>
-      <c r="J93" s="8" t="s">
+      <c r="J93" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="K93" s="8"/>
-      <c r="L93" s="8"/>
-      <c r="M93" s="8"/>
-      <c r="N93" s="8"/>
+      <c r="K93" s="9"/>
+      <c r="L93" s="9"/>
+      <c r="M93" s="9"/>
+      <c r="N93" s="9"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
@@ -2720,13 +2724,13 @@
         <v>9</v>
       </c>
       <c r="I94" s="2"/>
-      <c r="J94" s="8" t="s">
+      <c r="J94" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="K94" s="8"/>
-      <c r="L94" s="8"/>
-      <c r="M94" s="8"/>
-      <c r="N94" s="8"/>
+      <c r="K94" s="9"/>
+      <c r="L94" s="9"/>
+      <c r="M94" s="9"/>
+      <c r="N94" s="9"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
@@ -2756,13 +2760,13 @@
       <c r="I95" s="2">
         <v>0.14530000000000001</v>
       </c>
-      <c r="J95" s="8" t="s">
+      <c r="J95" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="K95" s="8"/>
-      <c r="L95" s="8"/>
-      <c r="M95" s="8"/>
-      <c r="N95" s="8"/>
+      <c r="K95" s="9"/>
+      <c r="L95" s="9"/>
+      <c r="M95" s="9"/>
+      <c r="N95" s="9"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
@@ -2784,13 +2788,13 @@
         <v>9</v>
       </c>
       <c r="I96" s="2"/>
-      <c r="J96" s="8" t="s">
+      <c r="J96" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="K96" s="8"/>
-      <c r="L96" s="8"/>
-      <c r="M96" s="8"/>
-      <c r="N96" s="8"/>
+      <c r="K96" s="9"/>
+      <c r="L96" s="9"/>
+      <c r="M96" s="9"/>
+      <c r="N96" s="9"/>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
@@ -2812,50 +2816,50 @@
         <v>9</v>
       </c>
       <c r="I97" s="2"/>
-      <c r="J97" s="8" t="s">
+      <c r="J97" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="K97" s="8"/>
-      <c r="L97" s="8"/>
-      <c r="M97" s="8"/>
-      <c r="N97" s="8"/>
-      <c r="O97" s="9"/>
-      <c r="P97" s="9"/>
-      <c r="Q97" s="9"/>
+      <c r="K97" s="9"/>
+      <c r="L97" s="9"/>
+      <c r="M97" s="9"/>
+      <c r="N97" s="9"/>
+      <c r="O97" s="10"/>
+      <c r="P97" s="10"/>
+      <c r="Q97" s="10"/>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>34</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J98" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="K98" s="9"/>
+      <c r="L98" s="9"/>
+      <c r="M98" s="9"/>
+      <c r="N98" s="9"/>
+      <c r="O98" s="10"/>
+      <c r="P98" s="10"/>
+      <c r="Q98" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
-    <mergeCell ref="J76:Q78"/>
-    <mergeCell ref="J94:N94"/>
-    <mergeCell ref="J95:N95"/>
-    <mergeCell ref="J93:N93"/>
-    <mergeCell ref="J84:N84"/>
-    <mergeCell ref="J83:N83"/>
-    <mergeCell ref="J82:N82"/>
-    <mergeCell ref="J81:N81"/>
-    <mergeCell ref="J92:N92"/>
-    <mergeCell ref="J75:M75"/>
-    <mergeCell ref="J74:M74"/>
-    <mergeCell ref="J73:M73"/>
-    <mergeCell ref="J65:V65"/>
-    <mergeCell ref="J47:O47"/>
-    <mergeCell ref="J51:O51"/>
-    <mergeCell ref="J50:O50"/>
-    <mergeCell ref="J49:O49"/>
-    <mergeCell ref="J48:O48"/>
-    <mergeCell ref="J66:V66"/>
-    <mergeCell ref="J67:V67"/>
-    <mergeCell ref="J85:N85"/>
-    <mergeCell ref="J80:N80"/>
-    <mergeCell ref="J79:N79"/>
-    <mergeCell ref="J87:N87"/>
-    <mergeCell ref="J88:N88"/>
-    <mergeCell ref="J9:V9"/>
-    <mergeCell ref="J10:V10"/>
-    <mergeCell ref="J18:V18"/>
-    <mergeCell ref="J11:V11"/>
-    <mergeCell ref="J19:V19"/>
-    <mergeCell ref="J12:V12"/>
+  <mergeCells count="48">
+    <mergeCell ref="J98:Q98"/>
     <mergeCell ref="J96:N96"/>
     <mergeCell ref="J97:Q97"/>
     <mergeCell ref="J24:V24"/>
@@ -2872,6 +2876,37 @@
     <mergeCell ref="J91:N91"/>
     <mergeCell ref="J89:N89"/>
     <mergeCell ref="J71:V71"/>
+    <mergeCell ref="J9:V9"/>
+    <mergeCell ref="J10:V10"/>
+    <mergeCell ref="J18:V18"/>
+    <mergeCell ref="J11:V11"/>
+    <mergeCell ref="J19:V19"/>
+    <mergeCell ref="J12:V12"/>
+    <mergeCell ref="J75:M75"/>
+    <mergeCell ref="J74:M74"/>
+    <mergeCell ref="J73:M73"/>
+    <mergeCell ref="J65:V65"/>
+    <mergeCell ref="J47:O47"/>
+    <mergeCell ref="J51:O51"/>
+    <mergeCell ref="J50:O50"/>
+    <mergeCell ref="J49:O49"/>
+    <mergeCell ref="J48:O48"/>
+    <mergeCell ref="J66:V66"/>
+    <mergeCell ref="J67:V67"/>
+    <mergeCell ref="J76:Q78"/>
+    <mergeCell ref="J94:N94"/>
+    <mergeCell ref="J95:N95"/>
+    <mergeCell ref="J93:N93"/>
+    <mergeCell ref="J84:N84"/>
+    <mergeCell ref="J83:N83"/>
+    <mergeCell ref="J82:N82"/>
+    <mergeCell ref="J81:N81"/>
+    <mergeCell ref="J92:N92"/>
+    <mergeCell ref="J85:N85"/>
+    <mergeCell ref="J80:N80"/>
+    <mergeCell ref="J79:N79"/>
+    <mergeCell ref="J87:N87"/>
+    <mergeCell ref="J88:N88"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tfp_pro\modinfo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843E197C-D38D-43BE-B382-E764A2DA8F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E026C9-E8C3-402A-9A19-811D98635449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13470" yWindow="2115" windowWidth="22665" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -393,13 +393,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -686,16 +686,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:V98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D103" sqref="D103"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="I92" sqref="I92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
@@ -706,7 +706,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -735,7 +735,7 @@
         <v>0.1363</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -764,7 +764,7 @@
         <v>0.1198</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -793,7 +793,7 @@
         <v>0.12089999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -821,23 +821,23 @@
       <c r="I9" s="2">
         <v>0.1225</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -865,23 +865,23 @@
       <c r="I10" s="2">
         <v>0.1226</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -909,23 +909,23 @@
       <c r="I11" s="2">
         <v>0.12</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -953,23 +953,23 @@
       <c r="I12" s="2">
         <v>0.1323</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -998,7 +998,7 @@
         <v>0.14430000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>0.14610000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -1055,23 +1055,23 @@
       <c r="I18" s="2">
         <v>0.16550000000000001</v>
       </c>
-      <c r="J18" s="9" t="s">
+      <c r="J18" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -1099,23 +1099,23 @@
       <c r="I19" s="2">
         <v>0.1507</v>
       </c>
-      <c r="J19" s="9" t="s">
+      <c r="J19" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>13</v>
       </c>
@@ -1134,23 +1134,23 @@
       <c r="F24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J24" s="9" t="s">
+      <c r="J24" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>14</v>
       </c>
@@ -1169,23 +1169,23 @@
       <c r="F25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="J25" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>13</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>0.12959999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>14</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>0.1295</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>20</v>
       </c>
@@ -1271,14 +1271,14 @@
       <c r="I37" s="2">
         <v>0.13450000000000001</v>
       </c>
-      <c r="J37" s="9" t="s">
+      <c r="J37" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>20</v>
       </c>
@@ -1306,16 +1306,16 @@
       <c r="I38" s="2">
         <v>0.1394</v>
       </c>
-      <c r="J38" s="9" t="s">
+      <c r="J38" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>13</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>0.12189999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>14</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>0.1249</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>20</v>
       </c>
@@ -1401,14 +1401,14 @@
       <c r="I44" s="2">
         <v>0.1235</v>
       </c>
-      <c r="J44" s="8" t="s">
+      <c r="J44" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>20</v>
       </c>
@@ -1436,14 +1436,14 @@
       <c r="I45" s="2">
         <v>0.1234</v>
       </c>
-      <c r="J45" s="9" t="s">
+      <c r="J45" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>20</v>
       </c>
@@ -1471,14 +1471,14 @@
       <c r="I46" s="2">
         <v>0.1249</v>
       </c>
-      <c r="J46" s="8" t="s">
+      <c r="J46" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>20</v>
       </c>
@@ -1506,16 +1506,16 @@
       <c r="I47" s="2">
         <v>0.12280000000000001</v>
       </c>
-      <c r="J47" s="9" t="s">
+      <c r="J47" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
-      <c r="M47" s="9"/>
-      <c r="N47" s="9"/>
-      <c r="O47" s="9"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="8"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>20</v>
       </c>
@@ -1543,16 +1543,16 @@
       <c r="I48" s="2">
         <v>0.1222</v>
       </c>
-      <c r="J48" s="9" t="s">
+      <c r="J48" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
-      <c r="M48" s="9"/>
-      <c r="N48" s="9"/>
-      <c r="O48" s="9"/>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="8"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>20</v>
       </c>
@@ -1580,16 +1580,16 @@
       <c r="I49" s="2">
         <v>0.1234</v>
       </c>
-      <c r="J49" s="9" t="s">
+      <c r="J49" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="K49" s="9"/>
-      <c r="L49" s="9"/>
-      <c r="M49" s="9"/>
-      <c r="N49" s="9"/>
-      <c r="O49" s="9"/>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>20</v>
       </c>
@@ -1617,16 +1617,16 @@
       <c r="I50" s="2">
         <v>0.1263</v>
       </c>
-      <c r="J50" s="9" t="s">
+      <c r="J50" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
-      <c r="M50" s="9"/>
-      <c r="N50" s="9"/>
-      <c r="O50" s="9"/>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="8"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>20</v>
       </c>
@@ -1654,16 +1654,16 @@
       <c r="I51" s="2">
         <v>0.1232</v>
       </c>
-      <c r="J51" s="9" t="s">
+      <c r="J51" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="9"/>
-      <c r="N51" s="9"/>
-      <c r="O51" s="9"/>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+      <c r="O51" s="8"/>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>20</v>
       </c>
@@ -1682,16 +1682,16 @@
       <c r="F52" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J52" s="9" t="s">
+      <c r="J52" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="K52" s="9"/>
-      <c r="L52" s="9"/>
-      <c r="M52" s="9"/>
-      <c r="N52" s="9"/>
-      <c r="O52" s="9"/>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="8"/>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>13</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>20</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>0.13650000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>13</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>0.13769999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>14</v>
       </c>
@@ -1823,7 +1823,7 @@
       <c r="R62" s="11"/>
       <c r="S62" s="11"/>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="G63" s="1">
         <v>20.94</v>
@@ -1835,7 +1835,7 @@
         <v>0.14929999999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>20</v>
       </c>
@@ -1863,23 +1863,23 @@
       <c r="I65" s="2">
         <v>0.15129999999999999</v>
       </c>
-      <c r="J65" s="9" t="s">
+      <c r="J65" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K65" s="9"/>
-      <c r="L65" s="9"/>
-      <c r="M65" s="9"/>
-      <c r="N65" s="9"/>
-      <c r="O65" s="9"/>
-      <c r="P65" s="9"/>
-      <c r="Q65" s="9"/>
-      <c r="R65" s="9"/>
-      <c r="S65" s="9"/>
-      <c r="T65" s="9"/>
-      <c r="U65" s="9"/>
-      <c r="V65" s="9"/>
-    </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="K65" s="8"/>
+      <c r="L65" s="8"/>
+      <c r="M65" s="8"/>
+      <c r="N65" s="8"/>
+      <c r="O65" s="8"/>
+      <c r="P65" s="8"/>
+      <c r="Q65" s="8"/>
+      <c r="R65" s="8"/>
+      <c r="S65" s="8"/>
+      <c r="T65" s="8"/>
+      <c r="U65" s="8"/>
+      <c r="V65" s="8"/>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,23 +1907,23 @@
       <c r="I66" s="2">
         <v>0.14929999999999999</v>
       </c>
-      <c r="J66" s="9" t="s">
+      <c r="J66" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="K66" s="9"/>
-      <c r="L66" s="9"/>
-      <c r="M66" s="9"/>
-      <c r="N66" s="9"/>
-      <c r="O66" s="9"/>
-      <c r="P66" s="9"/>
-      <c r="Q66" s="9"/>
-      <c r="R66" s="9"/>
-      <c r="S66" s="9"/>
-      <c r="T66" s="9"/>
-      <c r="U66" s="9"/>
-      <c r="V66" s="9"/>
-    </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="K66" s="8"/>
+      <c r="L66" s="8"/>
+      <c r="M66" s="8"/>
+      <c r="N66" s="8"/>
+      <c r="O66" s="8"/>
+      <c r="P66" s="8"/>
+      <c r="Q66" s="8"/>
+      <c r="R66" s="8"/>
+      <c r="S66" s="8"/>
+      <c r="T66" s="8"/>
+      <c r="U66" s="8"/>
+      <c r="V66" s="8"/>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>20</v>
       </c>
@@ -1951,23 +1951,23 @@
       <c r="I67" s="5">
         <v>0.13739999999999999</v>
       </c>
-      <c r="J67" s="9" t="s">
+      <c r="J67" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="K67" s="9"/>
-      <c r="L67" s="9"/>
-      <c r="M67" s="9"/>
-      <c r="N67" s="9"/>
-      <c r="O67" s="9"/>
-      <c r="P67" s="9"/>
-      <c r="Q67" s="9"/>
-      <c r="R67" s="9"/>
-      <c r="S67" s="9"/>
-      <c r="T67" s="9"/>
-      <c r="U67" s="9"/>
-      <c r="V67" s="9"/>
-    </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="K67" s="8"/>
+      <c r="L67" s="8"/>
+      <c r="M67" s="8"/>
+      <c r="N67" s="8"/>
+      <c r="O67" s="8"/>
+      <c r="P67" s="8"/>
+      <c r="Q67" s="8"/>
+      <c r="R67" s="8"/>
+      <c r="S67" s="8"/>
+      <c r="T67" s="8"/>
+      <c r="U67" s="8"/>
+      <c r="V67" s="8"/>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="G68" s="4">
         <v>19.54</v>
@@ -1979,7 +1979,7 @@
         <v>0.13730000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>20</v>
       </c>
@@ -2007,23 +2007,23 @@
       <c r="I71" s="2">
         <v>0.14280000000000001</v>
       </c>
-      <c r="J71" s="9" t="s">
+      <c r="J71" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="K71" s="9"/>
-      <c r="L71" s="9"/>
-      <c r="M71" s="9"/>
-      <c r="N71" s="9"/>
-      <c r="O71" s="9"/>
-      <c r="P71" s="9"/>
-      <c r="Q71" s="9"/>
-      <c r="R71" s="9"/>
-      <c r="S71" s="9"/>
-      <c r="T71" s="9"/>
-      <c r="U71" s="9"/>
-      <c r="V71" s="9"/>
-    </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="K71" s="8"/>
+      <c r="L71" s="8"/>
+      <c r="M71" s="8"/>
+      <c r="N71" s="8"/>
+      <c r="O71" s="8"/>
+      <c r="P71" s="8"/>
+      <c r="Q71" s="8"/>
+      <c r="R71" s="8"/>
+      <c r="S71" s="8"/>
+      <c r="T71" s="8"/>
+      <c r="U71" s="8"/>
+      <c r="V71" s="8"/>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" s="7"/>
       <c r="G72" s="4">
         <v>19.579999999999998</v>
@@ -2035,7 +2035,7 @@
         <v>0.13980000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>20</v>
       </c>
@@ -2063,14 +2063,14 @@
       <c r="I73" s="5">
         <v>0.13669999999999999</v>
       </c>
-      <c r="J73" s="8" t="s">
+      <c r="J73" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="K73" s="8"/>
-      <c r="L73" s="8"/>
-      <c r="M73" s="8"/>
-    </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="K73" s="10"/>
+      <c r="L73" s="10"/>
+      <c r="M73" s="10"/>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>20</v>
       </c>
@@ -2089,14 +2089,14 @@
       <c r="F74" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J74" s="8" t="s">
+      <c r="J74" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="K74" s="8"/>
-      <c r="L74" s="8"/>
-      <c r="M74" s="8"/>
-    </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="K74" s="10"/>
+      <c r="L74" s="10"/>
+      <c r="M74" s="10"/>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>20</v>
       </c>
@@ -2124,14 +2124,14 @@
       <c r="I75" s="2">
         <v>0.13780000000000001</v>
       </c>
-      <c r="J75" s="8" t="s">
+      <c r="J75" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="K75" s="8"/>
-      <c r="L75" s="8"/>
-      <c r="M75" s="8"/>
-    </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="K75" s="10"/>
+      <c r="L75" s="10"/>
+      <c r="M75" s="10"/>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>13</v>
       </c>
@@ -2159,38 +2159,38 @@
       <c r="I76" s="5">
         <v>0.1348</v>
       </c>
-      <c r="J76" s="8" t="s">
+      <c r="J76" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="K76" s="8"/>
-      <c r="L76" s="8"/>
-      <c r="M76" s="8"/>
-      <c r="N76" s="8"/>
-      <c r="O76" s="8"/>
-      <c r="P76" s="8"/>
-      <c r="Q76" s="8"/>
-    </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="J77" s="8"/>
-      <c r="K77" s="8"/>
-      <c r="L77" s="8"/>
-      <c r="M77" s="8"/>
-      <c r="N77" s="8"/>
-      <c r="O77" s="8"/>
-      <c r="P77" s="8"/>
-      <c r="Q77" s="8"/>
-    </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="J78" s="8"/>
-      <c r="K78" s="8"/>
-      <c r="L78" s="8"/>
-      <c r="M78" s="8"/>
-      <c r="N78" s="8"/>
-      <c r="O78" s="8"/>
-      <c r="P78" s="8"/>
-      <c r="Q78" s="8"/>
-    </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="K76" s="10"/>
+      <c r="L76" s="10"/>
+      <c r="M76" s="10"/>
+      <c r="N76" s="10"/>
+      <c r="O76" s="10"/>
+      <c r="P76" s="10"/>
+      <c r="Q76" s="10"/>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="J77" s="10"/>
+      <c r="K77" s="10"/>
+      <c r="L77" s="10"/>
+      <c r="M77" s="10"/>
+      <c r="N77" s="10"/>
+      <c r="O77" s="10"/>
+      <c r="P77" s="10"/>
+      <c r="Q77" s="10"/>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="J78" s="10"/>
+      <c r="K78" s="10"/>
+      <c r="L78" s="10"/>
+      <c r="M78" s="10"/>
+      <c r="N78" s="10"/>
+      <c r="O78" s="10"/>
+      <c r="P78" s="10"/>
+      <c r="Q78" s="10"/>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>14</v>
       </c>
@@ -2218,15 +2218,15 @@
       <c r="I79" s="2">
         <v>0.13689999999999999</v>
       </c>
-      <c r="J79" s="9" t="s">
+      <c r="J79" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="K79" s="9"/>
-      <c r="L79" s="9"/>
-      <c r="M79" s="9"/>
-      <c r="N79" s="9"/>
-    </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="K79" s="8"/>
+      <c r="L79" s="8"/>
+      <c r="M79" s="8"/>
+      <c r="N79" s="8"/>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>16</v>
       </c>
@@ -2254,15 +2254,15 @@
       <c r="I80" s="2">
         <v>0.14749999999999999</v>
       </c>
-      <c r="J80" s="9" t="s">
+      <c r="J80" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="K80" s="9"/>
-      <c r="L80" s="9"/>
-      <c r="M80" s="9"/>
-      <c r="N80" s="9"/>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K80" s="8"/>
+      <c r="L80" s="8"/>
+      <c r="M80" s="8"/>
+      <c r="N80" s="8"/>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>17</v>
       </c>
@@ -2290,15 +2290,15 @@
       <c r="I81" s="2">
         <v>0.20910000000000001</v>
       </c>
-      <c r="J81" s="9" t="s">
+      <c r="J81" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="K81" s="9"/>
-      <c r="L81" s="9"/>
-      <c r="M81" s="9"/>
-      <c r="N81" s="9"/>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K81" s="8"/>
+      <c r="L81" s="8"/>
+      <c r="M81" s="8"/>
+      <c r="N81" s="8"/>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>18</v>
       </c>
@@ -2326,15 +2326,15 @@
       <c r="I82" s="2">
         <v>0.1336</v>
       </c>
-      <c r="J82" s="9" t="s">
+      <c r="J82" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="K82" s="9"/>
-      <c r="L82" s="9"/>
-      <c r="M82" s="9"/>
-      <c r="N82" s="9"/>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K82" s="8"/>
+      <c r="L82" s="8"/>
+      <c r="M82" s="8"/>
+      <c r="N82" s="8"/>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>19</v>
       </c>
@@ -2362,15 +2362,15 @@
       <c r="I83" s="2">
         <v>0.1326</v>
       </c>
-      <c r="J83" s="9" t="s">
+      <c r="J83" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="K83" s="9"/>
-      <c r="L83" s="9"/>
-      <c r="M83" s="9"/>
-      <c r="N83" s="9"/>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K83" s="8"/>
+      <c r="L83" s="8"/>
+      <c r="M83" s="8"/>
+      <c r="N83" s="8"/>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>20</v>
       </c>
@@ -2398,15 +2398,15 @@
       <c r="I84" s="2">
         <v>0.13400000000000001</v>
       </c>
-      <c r="J84" s="9" t="s">
+      <c r="J84" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="K84" s="9"/>
-      <c r="L84" s="9"/>
-      <c r="M84" s="9"/>
-      <c r="N84" s="9"/>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K84" s="8"/>
+      <c r="L84" s="8"/>
+      <c r="M84" s="8"/>
+      <c r="N84" s="8"/>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>21</v>
       </c>
@@ -2434,15 +2434,15 @@
       <c r="I85" s="2">
         <v>0.1361</v>
       </c>
-      <c r="J85" s="8" t="s">
+      <c r="J85" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="K85" s="8"/>
-      <c r="L85" s="8"/>
-      <c r="M85" s="8"/>
-      <c r="N85" s="8"/>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K85" s="10"/>
+      <c r="L85" s="10"/>
+      <c r="M85" s="10"/>
+      <c r="N85" s="10"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>22</v>
       </c>
@@ -2470,15 +2470,15 @@
       <c r="I86" s="5">
         <v>0.13070000000000001</v>
       </c>
-      <c r="J86" s="8" t="s">
+      <c r="J86" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="K86" s="8"/>
-      <c r="L86" s="8"/>
-      <c r="M86" s="8"/>
-      <c r="N86" s="8"/>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K86" s="10"/>
+      <c r="L86" s="10"/>
+      <c r="M86" s="10"/>
+      <c r="N86" s="10"/>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>23</v>
       </c>
@@ -2506,15 +2506,15 @@
       <c r="I87" s="2">
         <v>0.1361</v>
       </c>
-      <c r="J87" s="8" t="s">
+      <c r="J87" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="K87" s="8"/>
-      <c r="L87" s="8"/>
-      <c r="M87" s="8"/>
-      <c r="N87" s="8"/>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K87" s="10"/>
+      <c r="L87" s="10"/>
+      <c r="M87" s="10"/>
+      <c r="N87" s="10"/>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>24</v>
       </c>
@@ -2542,15 +2542,15 @@
       <c r="I88" s="2">
         <v>0.13589999999999999</v>
       </c>
-      <c r="J88" s="8" t="s">
+      <c r="J88" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="K88" s="8"/>
-      <c r="L88" s="8"/>
-      <c r="M88" s="8"/>
-      <c r="N88" s="8"/>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K88" s="10"/>
+      <c r="L88" s="10"/>
+      <c r="M88" s="10"/>
+      <c r="N88" s="10"/>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>25</v>
       </c>
@@ -2578,15 +2578,15 @@
       <c r="I89" s="2">
         <v>0.1439</v>
       </c>
-      <c r="J89" s="9" t="s">
+      <c r="J89" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="K89" s="9"/>
-      <c r="L89" s="9"/>
-      <c r="M89" s="9"/>
-      <c r="N89" s="9"/>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K89" s="8"/>
+      <c r="L89" s="8"/>
+      <c r="M89" s="8"/>
+      <c r="N89" s="8"/>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>26</v>
       </c>
@@ -2614,15 +2614,15 @@
       <c r="I90" s="2">
         <v>0.13850000000000001</v>
       </c>
-      <c r="J90" s="9" t="s">
+      <c r="J90" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="K90" s="9"/>
-      <c r="L90" s="9"/>
-      <c r="M90" s="9"/>
-      <c r="N90" s="9"/>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K90" s="8"/>
+      <c r="L90" s="8"/>
+      <c r="M90" s="8"/>
+      <c r="N90" s="8"/>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>27</v>
       </c>
@@ -2641,15 +2641,24 @@
       <c r="F91" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J91" s="9" t="s">
+      <c r="G91" s="1">
+        <v>19.45</v>
+      </c>
+      <c r="H91" s="1">
+        <v>30.77</v>
+      </c>
+      <c r="I91" s="2">
+        <v>0.13289999999999999</v>
+      </c>
+      <c r="J91" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="K91" s="9"/>
-      <c r="L91" s="9"/>
-      <c r="M91" s="9"/>
-      <c r="N91" s="9"/>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K91" s="8"/>
+      <c r="L91" s="8"/>
+      <c r="M91" s="8"/>
+      <c r="N91" s="8"/>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>28</v>
       </c>
@@ -2668,15 +2677,24 @@
       <c r="F92" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J92" s="9" t="s">
+      <c r="G92" s="4">
+        <v>19.36</v>
+      </c>
+      <c r="H92" s="4">
+        <v>30.7</v>
+      </c>
+      <c r="I92" s="5">
+        <v>0.13070000000000001</v>
+      </c>
+      <c r="J92" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="K92" s="9"/>
-      <c r="L92" s="9"/>
-      <c r="M92" s="9"/>
-      <c r="N92" s="9"/>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K92" s="8"/>
+      <c r="L92" s="8"/>
+      <c r="M92" s="8"/>
+      <c r="N92" s="8"/>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>29</v>
       </c>
@@ -2696,15 +2714,15 @@
         <v>9</v>
       </c>
       <c r="I93" s="2"/>
-      <c r="J93" s="9" t="s">
+      <c r="J93" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="K93" s="9"/>
-      <c r="L93" s="9"/>
-      <c r="M93" s="9"/>
-      <c r="N93" s="9"/>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K93" s="8"/>
+      <c r="L93" s="8"/>
+      <c r="M93" s="8"/>
+      <c r="N93" s="8"/>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>30</v>
       </c>
@@ -2724,15 +2742,15 @@
         <v>9</v>
       </c>
       <c r="I94" s="2"/>
-      <c r="J94" s="9" t="s">
+      <c r="J94" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="K94" s="9"/>
-      <c r="L94" s="9"/>
-      <c r="M94" s="9"/>
-      <c r="N94" s="9"/>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K94" s="8"/>
+      <c r="L94" s="8"/>
+      <c r="M94" s="8"/>
+      <c r="N94" s="8"/>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>31</v>
       </c>
@@ -2760,15 +2778,15 @@
       <c r="I95" s="2">
         <v>0.14530000000000001</v>
       </c>
-      <c r="J95" s="9" t="s">
+      <c r="J95" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="K95" s="9"/>
-      <c r="L95" s="9"/>
-      <c r="M95" s="9"/>
-      <c r="N95" s="9"/>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K95" s="8"/>
+      <c r="L95" s="8"/>
+      <c r="M95" s="8"/>
+      <c r="N95" s="8"/>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>32</v>
       </c>
@@ -2788,15 +2806,15 @@
         <v>9</v>
       </c>
       <c r="I96" s="2"/>
-      <c r="J96" s="9" t="s">
+      <c r="J96" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="K96" s="9"/>
-      <c r="L96" s="9"/>
-      <c r="M96" s="9"/>
-      <c r="N96" s="9"/>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K96" s="8"/>
+      <c r="L96" s="8"/>
+      <c r="M96" s="8"/>
+      <c r="N96" s="8"/>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>33</v>
       </c>
@@ -2816,18 +2834,18 @@
         <v>9</v>
       </c>
       <c r="I97" s="2"/>
-      <c r="J97" s="9" t="s">
+      <c r="J97" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="K97" s="9"/>
-      <c r="L97" s="9"/>
-      <c r="M97" s="9"/>
-      <c r="N97" s="9"/>
-      <c r="O97" s="10"/>
-      <c r="P97" s="10"/>
-      <c r="Q97" s="10"/>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K97" s="8"/>
+      <c r="L97" s="8"/>
+      <c r="M97" s="8"/>
+      <c r="N97" s="8"/>
+      <c r="O97" s="9"/>
+      <c r="P97" s="9"/>
+      <c r="Q97" s="9"/>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>34</v>
       </c>
@@ -2846,19 +2864,51 @@
       <c r="F98" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J98" s="9" t="s">
+      <c r="J98" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="K98" s="9"/>
-      <c r="L98" s="9"/>
-      <c r="M98" s="9"/>
-      <c r="N98" s="9"/>
-      <c r="O98" s="10"/>
-      <c r="P98" s="10"/>
-      <c r="Q98" s="10"/>
+      <c r="K98" s="8"/>
+      <c r="L98" s="8"/>
+      <c r="M98" s="8"/>
+      <c r="N98" s="8"/>
+      <c r="O98" s="9"/>
+      <c r="P98" s="9"/>
+      <c r="Q98" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="J76:Q78"/>
+    <mergeCell ref="J94:N94"/>
+    <mergeCell ref="J95:N95"/>
+    <mergeCell ref="J93:N93"/>
+    <mergeCell ref="J84:N84"/>
+    <mergeCell ref="J83:N83"/>
+    <mergeCell ref="J82:N82"/>
+    <mergeCell ref="J81:N81"/>
+    <mergeCell ref="J92:N92"/>
+    <mergeCell ref="J85:N85"/>
+    <mergeCell ref="J80:N80"/>
+    <mergeCell ref="J79:N79"/>
+    <mergeCell ref="J87:N87"/>
+    <mergeCell ref="J88:N88"/>
+    <mergeCell ref="J75:M75"/>
+    <mergeCell ref="J74:M74"/>
+    <mergeCell ref="J73:M73"/>
+    <mergeCell ref="J65:V65"/>
+    <mergeCell ref="J47:O47"/>
+    <mergeCell ref="J51:O51"/>
+    <mergeCell ref="J50:O50"/>
+    <mergeCell ref="J49:O49"/>
+    <mergeCell ref="J48:O48"/>
+    <mergeCell ref="J66:V66"/>
+    <mergeCell ref="J67:V67"/>
+    <mergeCell ref="J71:V71"/>
+    <mergeCell ref="J9:V9"/>
+    <mergeCell ref="J10:V10"/>
+    <mergeCell ref="J18:V18"/>
+    <mergeCell ref="J11:V11"/>
+    <mergeCell ref="J19:V19"/>
+    <mergeCell ref="J12:V12"/>
     <mergeCell ref="J98:Q98"/>
     <mergeCell ref="J96:N96"/>
     <mergeCell ref="J97:Q97"/>
@@ -2875,38 +2925,6 @@
     <mergeCell ref="J90:N90"/>
     <mergeCell ref="J91:N91"/>
     <mergeCell ref="J89:N89"/>
-    <mergeCell ref="J71:V71"/>
-    <mergeCell ref="J9:V9"/>
-    <mergeCell ref="J10:V10"/>
-    <mergeCell ref="J18:V18"/>
-    <mergeCell ref="J11:V11"/>
-    <mergeCell ref="J19:V19"/>
-    <mergeCell ref="J12:V12"/>
-    <mergeCell ref="J75:M75"/>
-    <mergeCell ref="J74:M74"/>
-    <mergeCell ref="J73:M73"/>
-    <mergeCell ref="J65:V65"/>
-    <mergeCell ref="J47:O47"/>
-    <mergeCell ref="J51:O51"/>
-    <mergeCell ref="J50:O50"/>
-    <mergeCell ref="J49:O49"/>
-    <mergeCell ref="J48:O48"/>
-    <mergeCell ref="J66:V66"/>
-    <mergeCell ref="J67:V67"/>
-    <mergeCell ref="J76:Q78"/>
-    <mergeCell ref="J94:N94"/>
-    <mergeCell ref="J95:N95"/>
-    <mergeCell ref="J93:N93"/>
-    <mergeCell ref="J84:N84"/>
-    <mergeCell ref="J83:N83"/>
-    <mergeCell ref="J82:N82"/>
-    <mergeCell ref="J81:N81"/>
-    <mergeCell ref="J92:N92"/>
-    <mergeCell ref="J85:N85"/>
-    <mergeCell ref="J80:N80"/>
-    <mergeCell ref="J79:N79"/>
-    <mergeCell ref="J87:N87"/>
-    <mergeCell ref="J88:N88"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tfp_pro\modinfo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E026C9-E8C3-402A-9A19-811D98635449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89E6926-730E-478B-A81C-8B4AE29658E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13470" yWindow="2115" windowWidth="22665" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="72">
   <si>
     <t>ST-SSL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -304,6 +304,14 @@
   </si>
   <si>
     <t>13-&gt;34 去除STGCN时间卷积，空间卷积只添加时间注意力，语义，添加时间和空间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>811权重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28-&gt;35 去除STGCN时间卷积，采用STAEFormer的时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -393,13 +401,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -684,18 +692,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:V98"/>
+  <dimension ref="A3:V99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="I92" sqref="I92"/>
+      <selection activeCell="I85" activeCellId="2" sqref="J88:N88 G87:I87 G85:I85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
@@ -706,7 +714,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -735,7 +743,7 @@
         <v>0.1363</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -764,7 +772,7 @@
         <v>0.1198</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -793,7 +801,7 @@
         <v>0.12089999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -821,23 +829,23 @@
       <c r="I9" s="2">
         <v>0.1225</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -865,23 +873,23 @@
       <c r="I10" s="2">
         <v>0.1226</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -909,23 +917,23 @@
       <c r="I11" s="2">
         <v>0.12</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -953,23 +961,23 @@
       <c r="I12" s="2">
         <v>0.1323</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="J12" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -998,7 +1006,7 @@
         <v>0.14430000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -1027,7 +1035,7 @@
         <v>0.14610000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -1055,23 +1063,23 @@
       <c r="I18" s="2">
         <v>0.16550000000000001</v>
       </c>
-      <c r="J18" s="8" t="s">
+      <c r="J18" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -1099,23 +1107,23 @@
       <c r="I19" s="2">
         <v>0.1507</v>
       </c>
-      <c r="J19" s="8" t="s">
+      <c r="J19" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>13</v>
       </c>
@@ -1134,23 +1142,23 @@
       <c r="F24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J24" s="8" t="s">
+      <c r="J24" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="8"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>14</v>
       </c>
@@ -1169,23 +1177,23 @@
       <c r="F25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J25" s="8" t="s">
+      <c r="J25" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="8"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>13</v>
       </c>
@@ -1214,7 +1222,7 @@
         <v>0.12959999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>14</v>
       </c>
@@ -1243,7 +1251,7 @@
         <v>0.1295</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>20</v>
       </c>
@@ -1271,14 +1279,14 @@
       <c r="I37" s="2">
         <v>0.13450000000000001</v>
       </c>
-      <c r="J37" s="8" t="s">
+      <c r="J37" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>20</v>
       </c>
@@ -1306,16 +1314,16 @@
       <c r="I38" s="2">
         <v>0.1394</v>
       </c>
-      <c r="J38" s="8" t="s">
+      <c r="J38" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>13</v>
       </c>
@@ -1344,7 +1352,7 @@
         <v>0.12189999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>14</v>
       </c>
@@ -1373,7 +1381,7 @@
         <v>0.1249</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>20</v>
       </c>
@@ -1401,14 +1409,14 @@
       <c r="I44" s="2">
         <v>0.1235</v>
       </c>
-      <c r="J44" s="10" t="s">
+      <c r="J44" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>20</v>
       </c>
@@ -1436,14 +1444,14 @@
       <c r="I45" s="2">
         <v>0.1234</v>
       </c>
-      <c r="J45" s="8" t="s">
+      <c r="J45" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>20</v>
       </c>
@@ -1471,14 +1479,14 @@
       <c r="I46" s="2">
         <v>0.1249</v>
       </c>
-      <c r="J46" s="10" t="s">
+      <c r="J46" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>20</v>
       </c>
@@ -1506,16 +1514,16 @@
       <c r="I47" s="2">
         <v>0.12280000000000001</v>
       </c>
-      <c r="J47" s="8" t="s">
+      <c r="J47" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="8"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>20</v>
       </c>
@@ -1543,16 +1551,16 @@
       <c r="I48" s="2">
         <v>0.1222</v>
       </c>
-      <c r="J48" s="8" t="s">
+      <c r="J48" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8"/>
-      <c r="O48" s="8"/>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>20</v>
       </c>
@@ -1580,16 +1588,16 @@
       <c r="I49" s="2">
         <v>0.1234</v>
       </c>
-      <c r="J49" s="8" t="s">
+      <c r="J49" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="8"/>
-      <c r="O49" s="8"/>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>20</v>
       </c>
@@ -1617,16 +1625,16 @@
       <c r="I50" s="2">
         <v>0.1263</v>
       </c>
-      <c r="J50" s="8" t="s">
+      <c r="J50" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="8"/>
-      <c r="O50" s="8"/>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="9"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>20</v>
       </c>
@@ -1654,16 +1662,16 @@
       <c r="I51" s="2">
         <v>0.1232</v>
       </c>
-      <c r="J51" s="8" t="s">
+      <c r="J51" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="8"/>
-      <c r="O51" s="8"/>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>20</v>
       </c>
@@ -1682,16 +1690,16 @@
       <c r="F52" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J52" s="8" t="s">
+      <c r="J52" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
-      <c r="N52" s="8"/>
-      <c r="O52" s="8"/>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9"/>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>13</v>
       </c>
@@ -1720,7 +1728,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>20</v>
       </c>
@@ -1749,7 +1757,7 @@
         <v>0.13650000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>13</v>
       </c>
@@ -1778,7 +1786,7 @@
         <v>0.13769999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>14</v>
       </c>
@@ -1823,7 +1831,7 @@
       <c r="R62" s="11"/>
       <c r="S62" s="11"/>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
       <c r="G63" s="1">
         <v>20.94</v>
@@ -1835,7 +1843,7 @@
         <v>0.14929999999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>20</v>
       </c>
@@ -1863,23 +1871,23 @@
       <c r="I65" s="2">
         <v>0.15129999999999999</v>
       </c>
-      <c r="J65" s="8" t="s">
+      <c r="J65" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K65" s="8"/>
-      <c r="L65" s="8"/>
-      <c r="M65" s="8"/>
-      <c r="N65" s="8"/>
-      <c r="O65" s="8"/>
-      <c r="P65" s="8"/>
-      <c r="Q65" s="8"/>
-      <c r="R65" s="8"/>
-      <c r="S65" s="8"/>
-      <c r="T65" s="8"/>
-      <c r="U65" s="8"/>
-      <c r="V65" s="8"/>
-    </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+      <c r="O65" s="9"/>
+      <c r="P65" s="9"/>
+      <c r="Q65" s="9"/>
+      <c r="R65" s="9"/>
+      <c r="S65" s="9"/>
+      <c r="T65" s="9"/>
+      <c r="U65" s="9"/>
+      <c r="V65" s="9"/>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,23 +1915,23 @@
       <c r="I66" s="2">
         <v>0.14929999999999999</v>
       </c>
-      <c r="J66" s="8" t="s">
+      <c r="J66" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K66" s="8"/>
-      <c r="L66" s="8"/>
-      <c r="M66" s="8"/>
-      <c r="N66" s="8"/>
-      <c r="O66" s="8"/>
-      <c r="P66" s="8"/>
-      <c r="Q66" s="8"/>
-      <c r="R66" s="8"/>
-      <c r="S66" s="8"/>
-      <c r="T66" s="8"/>
-      <c r="U66" s="8"/>
-      <c r="V66" s="8"/>
-    </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+      <c r="O66" s="9"/>
+      <c r="P66" s="9"/>
+      <c r="Q66" s="9"/>
+      <c r="R66" s="9"/>
+      <c r="S66" s="9"/>
+      <c r="T66" s="9"/>
+      <c r="U66" s="9"/>
+      <c r="V66" s="9"/>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>20</v>
       </c>
@@ -1951,23 +1959,23 @@
       <c r="I67" s="5">
         <v>0.13739999999999999</v>
       </c>
-      <c r="J67" s="8" t="s">
+      <c r="J67" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="K67" s="8"/>
-      <c r="L67" s="8"/>
-      <c r="M67" s="8"/>
-      <c r="N67" s="8"/>
-      <c r="O67" s="8"/>
-      <c r="P67" s="8"/>
-      <c r="Q67" s="8"/>
-      <c r="R67" s="8"/>
-      <c r="S67" s="8"/>
-      <c r="T67" s="8"/>
-      <c r="U67" s="8"/>
-      <c r="V67" s="8"/>
-    </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K67" s="9"/>
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="9"/>
+      <c r="O67" s="9"/>
+      <c r="P67" s="9"/>
+      <c r="Q67" s="9"/>
+      <c r="R67" s="9"/>
+      <c r="S67" s="9"/>
+      <c r="T67" s="9"/>
+      <c r="U67" s="9"/>
+      <c r="V67" s="9"/>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" s="6"/>
       <c r="G68" s="4">
         <v>19.54</v>
@@ -1979,7 +1987,7 @@
         <v>0.13730000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>20</v>
       </c>
@@ -2007,23 +2015,23 @@
       <c r="I71" s="2">
         <v>0.14280000000000001</v>
       </c>
-      <c r="J71" s="8" t="s">
+      <c r="J71" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="K71" s="8"/>
-      <c r="L71" s="8"/>
-      <c r="M71" s="8"/>
-      <c r="N71" s="8"/>
-      <c r="O71" s="8"/>
-      <c r="P71" s="8"/>
-      <c r="Q71" s="8"/>
-      <c r="R71" s="8"/>
-      <c r="S71" s="8"/>
-      <c r="T71" s="8"/>
-      <c r="U71" s="8"/>
-      <c r="V71" s="8"/>
-    </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K71" s="9"/>
+      <c r="L71" s="9"/>
+      <c r="M71" s="9"/>
+      <c r="N71" s="9"/>
+      <c r="O71" s="9"/>
+      <c r="P71" s="9"/>
+      <c r="Q71" s="9"/>
+      <c r="R71" s="9"/>
+      <c r="S71" s="9"/>
+      <c r="T71" s="9"/>
+      <c r="U71" s="9"/>
+      <c r="V71" s="9"/>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" s="7"/>
       <c r="G72" s="4">
         <v>19.579999999999998</v>
@@ -2035,7 +2043,7 @@
         <v>0.13980000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
         <v>20</v>
       </c>
@@ -2063,14 +2071,14 @@
       <c r="I73" s="5">
         <v>0.13669999999999999</v>
       </c>
-      <c r="J73" s="10" t="s">
+      <c r="J73" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="K73" s="10"/>
-      <c r="L73" s="10"/>
-      <c r="M73" s="10"/>
-    </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K73" s="8"/>
+      <c r="L73" s="8"/>
+      <c r="M73" s="8"/>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
         <v>20</v>
       </c>
@@ -2089,14 +2097,14 @@
       <c r="F74" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J74" s="10" t="s">
+      <c r="J74" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="K74" s="10"/>
-      <c r="L74" s="10"/>
-      <c r="M74" s="10"/>
-    </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K74" s="8"/>
+      <c r="L74" s="8"/>
+      <c r="M74" s="8"/>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
         <v>20</v>
       </c>
@@ -2124,14 +2132,14 @@
       <c r="I75" s="2">
         <v>0.13780000000000001</v>
       </c>
-      <c r="J75" s="10" t="s">
+      <c r="J75" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="K75" s="10"/>
-      <c r="L75" s="10"/>
-      <c r="M75" s="10"/>
-    </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K75" s="8"/>
+      <c r="L75" s="8"/>
+      <c r="M75" s="8"/>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
         <v>13</v>
       </c>
@@ -2159,38 +2167,38 @@
       <c r="I76" s="5">
         <v>0.1348</v>
       </c>
-      <c r="J76" s="10" t="s">
+      <c r="J76" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="K76" s="10"/>
-      <c r="L76" s="10"/>
-      <c r="M76" s="10"/>
-      <c r="N76" s="10"/>
-      <c r="O76" s="10"/>
-      <c r="P76" s="10"/>
-      <c r="Q76" s="10"/>
-    </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="J77" s="10"/>
-      <c r="K77" s="10"/>
-      <c r="L77" s="10"/>
-      <c r="M77" s="10"/>
-      <c r="N77" s="10"/>
-      <c r="O77" s="10"/>
-      <c r="P77" s="10"/>
-      <c r="Q77" s="10"/>
-    </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="J78" s="10"/>
-      <c r="K78" s="10"/>
-      <c r="L78" s="10"/>
-      <c r="M78" s="10"/>
-      <c r="N78" s="10"/>
-      <c r="O78" s="10"/>
-      <c r="P78" s="10"/>
-      <c r="Q78" s="10"/>
-    </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K76" s="8"/>
+      <c r="L76" s="8"/>
+      <c r="M76" s="8"/>
+      <c r="N76" s="8"/>
+      <c r="O76" s="8"/>
+      <c r="P76" s="8"/>
+      <c r="Q76" s="8"/>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="J77" s="8"/>
+      <c r="K77" s="8"/>
+      <c r="L77" s="8"/>
+      <c r="M77" s="8"/>
+      <c r="N77" s="8"/>
+      <c r="O77" s="8"/>
+      <c r="P77" s="8"/>
+      <c r="Q77" s="8"/>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="8"/>
+      <c r="M78" s="8"/>
+      <c r="N78" s="8"/>
+      <c r="O78" s="8"/>
+      <c r="P78" s="8"/>
+      <c r="Q78" s="8"/>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>14</v>
       </c>
@@ -2218,15 +2226,15 @@
       <c r="I79" s="2">
         <v>0.13689999999999999</v>
       </c>
-      <c r="J79" s="8" t="s">
+      <c r="J79" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="K79" s="8"/>
-      <c r="L79" s="8"/>
-      <c r="M79" s="8"/>
-      <c r="N79" s="8"/>
-    </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K79" s="9"/>
+      <c r="L79" s="9"/>
+      <c r="M79" s="9"/>
+      <c r="N79" s="9"/>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>16</v>
       </c>
@@ -2254,15 +2262,15 @@
       <c r="I80" s="2">
         <v>0.14749999999999999</v>
       </c>
-      <c r="J80" s="8" t="s">
+      <c r="J80" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="K80" s="8"/>
-      <c r="L80" s="8"/>
-      <c r="M80" s="8"/>
-      <c r="N80" s="8"/>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K80" s="9"/>
+      <c r="L80" s="9"/>
+      <c r="M80" s="9"/>
+      <c r="N80" s="9"/>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>17</v>
       </c>
@@ -2290,15 +2298,15 @@
       <c r="I81" s="2">
         <v>0.20910000000000001</v>
       </c>
-      <c r="J81" s="8" t="s">
+      <c r="J81" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="K81" s="8"/>
-      <c r="L81" s="8"/>
-      <c r="M81" s="8"/>
-      <c r="N81" s="8"/>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K81" s="9"/>
+      <c r="L81" s="9"/>
+      <c r="M81" s="9"/>
+      <c r="N81" s="9"/>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>18</v>
       </c>
@@ -2326,15 +2334,15 @@
       <c r="I82" s="2">
         <v>0.1336</v>
       </c>
-      <c r="J82" s="8" t="s">
+      <c r="J82" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="K82" s="8"/>
-      <c r="L82" s="8"/>
-      <c r="M82" s="8"/>
-      <c r="N82" s="8"/>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K82" s="9"/>
+      <c r="L82" s="9"/>
+      <c r="M82" s="9"/>
+      <c r="N82" s="9"/>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>19</v>
       </c>
@@ -2362,15 +2370,15 @@
       <c r="I83" s="2">
         <v>0.1326</v>
       </c>
-      <c r="J83" s="8" t="s">
+      <c r="J83" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="K83" s="8"/>
-      <c r="L83" s="8"/>
-      <c r="M83" s="8"/>
-      <c r="N83" s="8"/>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K83" s="9"/>
+      <c r="L83" s="9"/>
+      <c r="M83" s="9"/>
+      <c r="N83" s="9"/>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>20</v>
       </c>
@@ -2398,15 +2406,15 @@
       <c r="I84" s="2">
         <v>0.13400000000000001</v>
       </c>
-      <c r="J84" s="8" t="s">
+      <c r="J84" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K84" s="8"/>
-      <c r="L84" s="8"/>
-      <c r="M84" s="8"/>
-      <c r="N84" s="8"/>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K84" s="9"/>
+      <c r="L84" s="9"/>
+      <c r="M84" s="9"/>
+      <c r="N84" s="9"/>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>21</v>
       </c>
@@ -2434,15 +2442,15 @@
       <c r="I85" s="2">
         <v>0.1361</v>
       </c>
-      <c r="J85" s="10" t="s">
+      <c r="J85" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="K85" s="10"/>
-      <c r="L85" s="10"/>
-      <c r="M85" s="10"/>
-      <c r="N85" s="10"/>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K85" s="8"/>
+      <c r="L85" s="8"/>
+      <c r="M85" s="8"/>
+      <c r="N85" s="8"/>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>22</v>
       </c>
@@ -2470,15 +2478,15 @@
       <c r="I86" s="5">
         <v>0.13070000000000001</v>
       </c>
-      <c r="J86" s="10" t="s">
+      <c r="J86" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="K86" s="10"/>
-      <c r="L86" s="10"/>
-      <c r="M86" s="10"/>
-      <c r="N86" s="10"/>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K86" s="8"/>
+      <c r="L86" s="8"/>
+      <c r="M86" s="8"/>
+      <c r="N86" s="8"/>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>23</v>
       </c>
@@ -2506,15 +2514,15 @@
       <c r="I87" s="2">
         <v>0.1361</v>
       </c>
-      <c r="J87" s="10" t="s">
+      <c r="J87" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="K87" s="10"/>
-      <c r="L87" s="10"/>
-      <c r="M87" s="10"/>
-      <c r="N87" s="10"/>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K87" s="8"/>
+      <c r="L87" s="8"/>
+      <c r="M87" s="8"/>
+      <c r="N87" s="8"/>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>24</v>
       </c>
@@ -2542,15 +2550,15 @@
       <c r="I88" s="2">
         <v>0.13589999999999999</v>
       </c>
-      <c r="J88" s="10" t="s">
+      <c r="J88" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="K88" s="10"/>
-      <c r="L88" s="10"/>
-      <c r="M88" s="10"/>
-      <c r="N88" s="10"/>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K88" s="8"/>
+      <c r="L88" s="8"/>
+      <c r="M88" s="8"/>
+      <c r="N88" s="8"/>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>25</v>
       </c>
@@ -2578,15 +2586,15 @@
       <c r="I89" s="2">
         <v>0.1439</v>
       </c>
-      <c r="J89" s="8" t="s">
+      <c r="J89" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="K89" s="8"/>
-      <c r="L89" s="8"/>
-      <c r="M89" s="8"/>
-      <c r="N89" s="8"/>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K89" s="9"/>
+      <c r="L89" s="9"/>
+      <c r="M89" s="9"/>
+      <c r="N89" s="9"/>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>26</v>
       </c>
@@ -2614,15 +2622,15 @@
       <c r="I90" s="2">
         <v>0.13850000000000001</v>
       </c>
-      <c r="J90" s="8" t="s">
+      <c r="J90" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="K90" s="8"/>
-      <c r="L90" s="8"/>
-      <c r="M90" s="8"/>
-      <c r="N90" s="8"/>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K90" s="9"/>
+      <c r="L90" s="9"/>
+      <c r="M90" s="9"/>
+      <c r="N90" s="9"/>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>27</v>
       </c>
@@ -2650,15 +2658,15 @@
       <c r="I91" s="2">
         <v>0.13289999999999999</v>
       </c>
-      <c r="J91" s="8" t="s">
+      <c r="J91" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="K91" s="8"/>
-      <c r="L91" s="8"/>
-      <c r="M91" s="8"/>
-      <c r="N91" s="8"/>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K91" s="9"/>
+      <c r="L91" s="9"/>
+      <c r="M91" s="9"/>
+      <c r="N91" s="9"/>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>28</v>
       </c>
@@ -2686,15 +2694,27 @@
       <c r="I92" s="5">
         <v>0.13070000000000001</v>
       </c>
-      <c r="J92" s="8" t="s">
+      <c r="J92" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="K92" s="8"/>
-      <c r="L92" s="8"/>
-      <c r="M92" s="8"/>
-      <c r="N92" s="8"/>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K92" s="9"/>
+      <c r="L92" s="9"/>
+      <c r="M92" s="9"/>
+      <c r="N92" s="9"/>
+      <c r="O92" s="4">
+        <v>19.309999999999999</v>
+      </c>
+      <c r="P92" s="4">
+        <v>30.61</v>
+      </c>
+      <c r="Q92" s="5">
+        <v>0.13370000000000001</v>
+      </c>
+      <c r="R92" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>29</v>
       </c>
@@ -2713,16 +2733,24 @@
       <c r="F93" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I93" s="2"/>
-      <c r="J93" s="8" t="s">
+      <c r="G93" s="1">
+        <v>19.68</v>
+      </c>
+      <c r="H93" s="1">
+        <v>30.9</v>
+      </c>
+      <c r="I93" s="2">
+        <v>0.13589999999999999</v>
+      </c>
+      <c r="J93" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="K93" s="8"/>
-      <c r="L93" s="8"/>
-      <c r="M93" s="8"/>
-      <c r="N93" s="8"/>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K93" s="9"/>
+      <c r="L93" s="9"/>
+      <c r="M93" s="9"/>
+      <c r="N93" s="9"/>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>30</v>
       </c>
@@ -2742,15 +2770,15 @@
         <v>9</v>
       </c>
       <c r="I94" s="2"/>
-      <c r="J94" s="8" t="s">
+      <c r="J94" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="K94" s="8"/>
-      <c r="L94" s="8"/>
-      <c r="M94" s="8"/>
-      <c r="N94" s="8"/>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K94" s="9"/>
+      <c r="L94" s="9"/>
+      <c r="M94" s="9"/>
+      <c r="N94" s="9"/>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>31</v>
       </c>
@@ -2778,15 +2806,15 @@
       <c r="I95" s="2">
         <v>0.14530000000000001</v>
       </c>
-      <c r="J95" s="8" t="s">
+      <c r="J95" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="K95" s="8"/>
-      <c r="L95" s="8"/>
-      <c r="M95" s="8"/>
-      <c r="N95" s="8"/>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K95" s="9"/>
+      <c r="L95" s="9"/>
+      <c r="M95" s="9"/>
+      <c r="N95" s="9"/>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>32</v>
       </c>
@@ -2806,15 +2834,15 @@
         <v>9</v>
       </c>
       <c r="I96" s="2"/>
-      <c r="J96" s="8" t="s">
+      <c r="J96" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="K96" s="8"/>
-      <c r="L96" s="8"/>
-      <c r="M96" s="8"/>
-      <c r="N96" s="8"/>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K96" s="9"/>
+      <c r="L96" s="9"/>
+      <c r="M96" s="9"/>
+      <c r="N96" s="9"/>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>33</v>
       </c>
@@ -2834,18 +2862,18 @@
         <v>9</v>
       </c>
       <c r="I97" s="2"/>
-      <c r="J97" s="8" t="s">
+      <c r="J97" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="K97" s="8"/>
-      <c r="L97" s="8"/>
-      <c r="M97" s="8"/>
-      <c r="N97" s="8"/>
-      <c r="O97" s="9"/>
-      <c r="P97" s="9"/>
-      <c r="Q97" s="9"/>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K97" s="9"/>
+      <c r="L97" s="9"/>
+      <c r="M97" s="9"/>
+      <c r="N97" s="9"/>
+      <c r="O97" s="10"/>
+      <c r="P97" s="10"/>
+      <c r="Q97" s="10"/>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>34</v>
       </c>
@@ -2864,51 +2892,59 @@
       <c r="F98" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J98" s="8" t="s">
+      <c r="G98" s="1">
+        <v>19.510000000000002</v>
+      </c>
+      <c r="H98" s="1">
+        <v>30.96</v>
+      </c>
+      <c r="I98" s="2">
+        <v>0.1328</v>
+      </c>
+      <c r="J98" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="K98" s="8"/>
-      <c r="L98" s="8"/>
-      <c r="M98" s="8"/>
-      <c r="N98" s="8"/>
-      <c r="O98" s="9"/>
-      <c r="P98" s="9"/>
-      <c r="Q98" s="9"/>
+      <c r="K98" s="9"/>
+      <c r="L98" s="9"/>
+      <c r="M98" s="9"/>
+      <c r="N98" s="9"/>
+      <c r="O98" s="10"/>
+      <c r="P98" s="10"/>
+      <c r="Q98" s="10"/>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>35</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J99" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="K99" s="9"/>
+      <c r="L99" s="9"/>
+      <c r="M99" s="9"/>
+      <c r="N99" s="9"/>
+      <c r="O99" s="10"/>
+      <c r="P99" s="10"/>
+      <c r="Q99" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="J76:Q78"/>
-    <mergeCell ref="J94:N94"/>
-    <mergeCell ref="J95:N95"/>
-    <mergeCell ref="J93:N93"/>
-    <mergeCell ref="J84:N84"/>
-    <mergeCell ref="J83:N83"/>
-    <mergeCell ref="J82:N82"/>
-    <mergeCell ref="J81:N81"/>
-    <mergeCell ref="J92:N92"/>
-    <mergeCell ref="J85:N85"/>
-    <mergeCell ref="J80:N80"/>
-    <mergeCell ref="J79:N79"/>
-    <mergeCell ref="J87:N87"/>
-    <mergeCell ref="J88:N88"/>
-    <mergeCell ref="J75:M75"/>
-    <mergeCell ref="J74:M74"/>
-    <mergeCell ref="J73:M73"/>
-    <mergeCell ref="J65:V65"/>
-    <mergeCell ref="J47:O47"/>
-    <mergeCell ref="J51:O51"/>
-    <mergeCell ref="J50:O50"/>
-    <mergeCell ref="J49:O49"/>
-    <mergeCell ref="J48:O48"/>
-    <mergeCell ref="J66:V66"/>
-    <mergeCell ref="J67:V67"/>
-    <mergeCell ref="J71:V71"/>
-    <mergeCell ref="J9:V9"/>
-    <mergeCell ref="J10:V10"/>
-    <mergeCell ref="J18:V18"/>
-    <mergeCell ref="J11:V11"/>
-    <mergeCell ref="J19:V19"/>
-    <mergeCell ref="J12:V12"/>
+  <mergeCells count="49">
+    <mergeCell ref="J99:Q99"/>
     <mergeCell ref="J98:Q98"/>
     <mergeCell ref="J96:N96"/>
     <mergeCell ref="J97:Q97"/>
@@ -2925,6 +2961,38 @@
     <mergeCell ref="J90:N90"/>
     <mergeCell ref="J91:N91"/>
     <mergeCell ref="J89:N89"/>
+    <mergeCell ref="J9:V9"/>
+    <mergeCell ref="J10:V10"/>
+    <mergeCell ref="J18:V18"/>
+    <mergeCell ref="J11:V11"/>
+    <mergeCell ref="J19:V19"/>
+    <mergeCell ref="J12:V12"/>
+    <mergeCell ref="J75:M75"/>
+    <mergeCell ref="J74:M74"/>
+    <mergeCell ref="J73:M73"/>
+    <mergeCell ref="J65:V65"/>
+    <mergeCell ref="J47:O47"/>
+    <mergeCell ref="J51:O51"/>
+    <mergeCell ref="J50:O50"/>
+    <mergeCell ref="J49:O49"/>
+    <mergeCell ref="J48:O48"/>
+    <mergeCell ref="J66:V66"/>
+    <mergeCell ref="J67:V67"/>
+    <mergeCell ref="J71:V71"/>
+    <mergeCell ref="J76:Q78"/>
+    <mergeCell ref="J94:N94"/>
+    <mergeCell ref="J95:N95"/>
+    <mergeCell ref="J93:N93"/>
+    <mergeCell ref="J84:N84"/>
+    <mergeCell ref="J83:N83"/>
+    <mergeCell ref="J82:N82"/>
+    <mergeCell ref="J81:N81"/>
+    <mergeCell ref="J92:N92"/>
+    <mergeCell ref="J85:N85"/>
+    <mergeCell ref="J80:N80"/>
+    <mergeCell ref="J79:N79"/>
+    <mergeCell ref="J87:N87"/>
+    <mergeCell ref="J88:N88"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89E6926-730E-478B-A81C-8B4AE29658E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D85599-8F86-4C5D-AB41-70B778A8E029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13470" yWindow="2115" windowWidth="22665" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3720" yWindow="1065" windowWidth="22665" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="76">
   <si>
     <t>ST-SSL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -311,7 +311,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>28-&gt;35 去除STGCN时间卷积，采用STAEFormer的时间</t>
+    <t>28-&gt;35 622权重，mask=0.1，掩码后添加最大化处理后的自注意力</t>
+  </si>
+  <si>
+    <t>28-&gt;36 622权重，mask=0.1，掩码后添加未经过最大化处理后的自注意力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28-&gt;37 622权重，mask=0.1，STGCNblock时间卷积后添加STAEFormer的处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28-&gt;38 622权重，mask=0.1，替换原先的时间卷积为STAEFormer的时间注意力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28-&gt;39 622权重，mask=0.1，空间卷积只添加时间注意力，语义，添加时间和空间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -322,7 +337,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -342,6 +357,21 @@
       <color theme="2" tint="-0.749992370372631"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -377,7 +407,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -401,15 +431,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -692,10 +737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:V99"/>
+  <dimension ref="A3:V103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="I85" activeCellId="2" sqref="J88:N88 G87:I87 G85:I85"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="Q85" sqref="Q85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -829,21 +874,21 @@
       <c r="I9" s="2">
         <v>0.1225</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -873,21 +918,21 @@
       <c r="I10" s="2">
         <v>0.1226</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -917,21 +962,21 @@
       <c r="I11" s="2">
         <v>0.12</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -961,21 +1006,21 @@
       <c r="I12" s="2">
         <v>0.1323</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -1063,21 +1108,21 @@
       <c r="I18" s="2">
         <v>0.16550000000000001</v>
       </c>
-      <c r="J18" s="9" t="s">
+      <c r="J18" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
@@ -1107,21 +1152,21 @@
       <c r="I19" s="2">
         <v>0.1507</v>
       </c>
-      <c r="J19" s="9" t="s">
+      <c r="J19" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
@@ -1142,21 +1187,21 @@
       <c r="F24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J24" s="9" t="s">
+      <c r="J24" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -1177,21 +1222,21 @@
       <c r="F25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="J25" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
@@ -1279,12 +1324,12 @@
       <c r="I37" s="2">
         <v>0.13450000000000001</v>
       </c>
-      <c r="J37" s="9" t="s">
+      <c r="J37" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
@@ -1314,14 +1359,14 @@
       <c r="I38" s="2">
         <v>0.1394</v>
       </c>
-      <c r="J38" s="9" t="s">
+      <c r="J38" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
@@ -1409,12 +1454,12 @@
       <c r="I44" s="2">
         <v>0.1235</v>
       </c>
-      <c r="J44" s="8" t="s">
+      <c r="J44" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
@@ -1444,12 +1489,12 @@
       <c r="I45" s="2">
         <v>0.1234</v>
       </c>
-      <c r="J45" s="9" t="s">
+      <c r="J45" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
@@ -1479,12 +1524,12 @@
       <c r="I46" s="2">
         <v>0.1249</v>
       </c>
-      <c r="J46" s="8" t="s">
+      <c r="J46" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
@@ -1505,23 +1550,20 @@
       <c r="F47" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G47" s="1">
-        <v>18.5</v>
-      </c>
       <c r="H47" s="1">
         <v>30.95</v>
       </c>
       <c r="I47" s="2">
         <v>0.12280000000000001</v>
       </c>
-      <c r="J47" s="9" t="s">
+      <c r="J47" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
-      <c r="M47" s="9"/>
-      <c r="N47" s="9"/>
-      <c r="O47" s="9"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="8"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
@@ -1551,14 +1593,14 @@
       <c r="I48" s="2">
         <v>0.1222</v>
       </c>
-      <c r="J48" s="9" t="s">
+      <c r="J48" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
-      <c r="M48" s="9"/>
-      <c r="N48" s="9"/>
-      <c r="O48" s="9"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="8"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
@@ -1588,14 +1630,14 @@
       <c r="I49" s="2">
         <v>0.1234</v>
       </c>
-      <c r="J49" s="9" t="s">
+      <c r="J49" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="K49" s="9"/>
-      <c r="L49" s="9"/>
-      <c r="M49" s="9"/>
-      <c r="N49" s="9"/>
-      <c r="O49" s="9"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
@@ -1625,14 +1667,14 @@
       <c r="I50" s="2">
         <v>0.1263</v>
       </c>
-      <c r="J50" s="9" t="s">
+      <c r="J50" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
-      <c r="M50" s="9"/>
-      <c r="N50" s="9"/>
-      <c r="O50" s="9"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="8"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
@@ -1662,14 +1704,14 @@
       <c r="I51" s="2">
         <v>0.1232</v>
       </c>
-      <c r="J51" s="9" t="s">
+      <c r="J51" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="9"/>
-      <c r="N51" s="9"/>
-      <c r="O51" s="9"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+      <c r="O51" s="8"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
@@ -1690,14 +1732,14 @@
       <c r="F52" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J52" s="9" t="s">
+      <c r="J52" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="K52" s="9"/>
-      <c r="L52" s="9"/>
-      <c r="M52" s="9"/>
-      <c r="N52" s="9"/>
-      <c r="O52" s="9"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="8"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
@@ -1871,21 +1913,21 @@
       <c r="I65" s="2">
         <v>0.15129999999999999</v>
       </c>
-      <c r="J65" s="9" t="s">
+      <c r="J65" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K65" s="9"/>
-      <c r="L65" s="9"/>
-      <c r="M65" s="9"/>
-      <c r="N65" s="9"/>
-      <c r="O65" s="9"/>
-      <c r="P65" s="9"/>
-      <c r="Q65" s="9"/>
-      <c r="R65" s="9"/>
-      <c r="S65" s="9"/>
-      <c r="T65" s="9"/>
-      <c r="U65" s="9"/>
-      <c r="V65" s="9"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="8"/>
+      <c r="M65" s="8"/>
+      <c r="N65" s="8"/>
+      <c r="O65" s="8"/>
+      <c r="P65" s="8"/>
+      <c r="Q65" s="8"/>
+      <c r="R65" s="8"/>
+      <c r="S65" s="8"/>
+      <c r="T65" s="8"/>
+      <c r="U65" s="8"/>
+      <c r="V65" s="8"/>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
@@ -1915,21 +1957,21 @@
       <c r="I66" s="2">
         <v>0.14929999999999999</v>
       </c>
-      <c r="J66" s="9" t="s">
+      <c r="J66" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="K66" s="9"/>
-      <c r="L66" s="9"/>
-      <c r="M66" s="9"/>
-      <c r="N66" s="9"/>
-      <c r="O66" s="9"/>
-      <c r="P66" s="9"/>
-      <c r="Q66" s="9"/>
-      <c r="R66" s="9"/>
-      <c r="S66" s="9"/>
-      <c r="T66" s="9"/>
-      <c r="U66" s="9"/>
-      <c r="V66" s="9"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="8"/>
+      <c r="M66" s="8"/>
+      <c r="N66" s="8"/>
+      <c r="O66" s="8"/>
+      <c r="P66" s="8"/>
+      <c r="Q66" s="8"/>
+      <c r="R66" s="8"/>
+      <c r="S66" s="8"/>
+      <c r="T66" s="8"/>
+      <c r="U66" s="8"/>
+      <c r="V66" s="8"/>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
@@ -1959,21 +2001,21 @@
       <c r="I67" s="5">
         <v>0.13739999999999999</v>
       </c>
-      <c r="J67" s="9" t="s">
+      <c r="J67" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="K67" s="9"/>
-      <c r="L67" s="9"/>
-      <c r="M67" s="9"/>
-      <c r="N67" s="9"/>
-      <c r="O67" s="9"/>
-      <c r="P67" s="9"/>
-      <c r="Q67" s="9"/>
-      <c r="R67" s="9"/>
-      <c r="S67" s="9"/>
-      <c r="T67" s="9"/>
-      <c r="U67" s="9"/>
-      <c r="V67" s="9"/>
+      <c r="K67" s="8"/>
+      <c r="L67" s="8"/>
+      <c r="M67" s="8"/>
+      <c r="N67" s="8"/>
+      <c r="O67" s="8"/>
+      <c r="P67" s="8"/>
+      <c r="Q67" s="8"/>
+      <c r="R67" s="8"/>
+      <c r="S67" s="8"/>
+      <c r="T67" s="8"/>
+      <c r="U67" s="8"/>
+      <c r="V67" s="8"/>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" s="6"/>
@@ -2015,21 +2057,21 @@
       <c r="I71" s="2">
         <v>0.14280000000000001</v>
       </c>
-      <c r="J71" s="9" t="s">
+      <c r="J71" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="K71" s="9"/>
-      <c r="L71" s="9"/>
-      <c r="M71" s="9"/>
-      <c r="N71" s="9"/>
-      <c r="O71" s="9"/>
-      <c r="P71" s="9"/>
-      <c r="Q71" s="9"/>
-      <c r="R71" s="9"/>
-      <c r="S71" s="9"/>
-      <c r="T71" s="9"/>
-      <c r="U71" s="9"/>
-      <c r="V71" s="9"/>
+      <c r="K71" s="8"/>
+      <c r="L71" s="8"/>
+      <c r="M71" s="8"/>
+      <c r="N71" s="8"/>
+      <c r="O71" s="8"/>
+      <c r="P71" s="8"/>
+      <c r="Q71" s="8"/>
+      <c r="R71" s="8"/>
+      <c r="S71" s="8"/>
+      <c r="T71" s="8"/>
+      <c r="U71" s="8"/>
+      <c r="V71" s="8"/>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" s="7"/>
@@ -2071,12 +2113,12 @@
       <c r="I73" s="5">
         <v>0.13669999999999999</v>
       </c>
-      <c r="J73" s="8" t="s">
+      <c r="J73" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="K73" s="8"/>
-      <c r="L73" s="8"/>
-      <c r="M73" s="8"/>
+      <c r="K73" s="10"/>
+      <c r="L73" s="10"/>
+      <c r="M73" s="10"/>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
@@ -2097,12 +2139,12 @@
       <c r="F74" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J74" s="8" t="s">
+      <c r="J74" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="K74" s="8"/>
-      <c r="L74" s="8"/>
-      <c r="M74" s="8"/>
+      <c r="K74" s="10"/>
+      <c r="L74" s="10"/>
+      <c r="M74" s="10"/>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
@@ -2132,12 +2174,12 @@
       <c r="I75" s="2">
         <v>0.13780000000000001</v>
       </c>
-      <c r="J75" s="8" t="s">
+      <c r="J75" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="K75" s="8"/>
-      <c r="L75" s="8"/>
-      <c r="M75" s="8"/>
+      <c r="K75" s="10"/>
+      <c r="L75" s="10"/>
+      <c r="M75" s="10"/>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
@@ -2167,36 +2209,36 @@
       <c r="I76" s="5">
         <v>0.1348</v>
       </c>
-      <c r="J76" s="8" t="s">
+      <c r="J76" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="K76" s="8"/>
-      <c r="L76" s="8"/>
-      <c r="M76" s="8"/>
-      <c r="N76" s="8"/>
-      <c r="O76" s="8"/>
-      <c r="P76" s="8"/>
-      <c r="Q76" s="8"/>
+      <c r="K76" s="10"/>
+      <c r="L76" s="10"/>
+      <c r="M76" s="10"/>
+      <c r="N76" s="10"/>
+      <c r="O76" s="10"/>
+      <c r="P76" s="10"/>
+      <c r="Q76" s="10"/>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="J77" s="8"/>
-      <c r="K77" s="8"/>
-      <c r="L77" s="8"/>
-      <c r="M77" s="8"/>
-      <c r="N77" s="8"/>
-      <c r="O77" s="8"/>
-      <c r="P77" s="8"/>
-      <c r="Q77" s="8"/>
+      <c r="J77" s="10"/>
+      <c r="K77" s="10"/>
+      <c r="L77" s="10"/>
+      <c r="M77" s="10"/>
+      <c r="N77" s="10"/>
+      <c r="O77" s="10"/>
+      <c r="P77" s="10"/>
+      <c r="Q77" s="10"/>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="J78" s="8"/>
-      <c r="K78" s="8"/>
-      <c r="L78" s="8"/>
-      <c r="M78" s="8"/>
-      <c r="N78" s="8"/>
-      <c r="O78" s="8"/>
-      <c r="P78" s="8"/>
-      <c r="Q78" s="8"/>
+      <c r="J78" s="10"/>
+      <c r="K78" s="10"/>
+      <c r="L78" s="10"/>
+      <c r="M78" s="10"/>
+      <c r="N78" s="10"/>
+      <c r="O78" s="10"/>
+      <c r="P78" s="10"/>
+      <c r="Q78" s="10"/>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
@@ -2226,13 +2268,13 @@
       <c r="I79" s="2">
         <v>0.13689999999999999</v>
       </c>
-      <c r="J79" s="9" t="s">
+      <c r="J79" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="K79" s="9"/>
-      <c r="L79" s="9"/>
-      <c r="M79" s="9"/>
-      <c r="N79" s="9"/>
+      <c r="K79" s="8"/>
+      <c r="L79" s="8"/>
+      <c r="M79" s="8"/>
+      <c r="N79" s="8"/>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
@@ -2262,13 +2304,13 @@
       <c r="I80" s="2">
         <v>0.14749999999999999</v>
       </c>
-      <c r="J80" s="9" t="s">
+      <c r="J80" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="K80" s="9"/>
-      <c r="L80" s="9"/>
-      <c r="M80" s="9"/>
-      <c r="N80" s="9"/>
+      <c r="K80" s="8"/>
+      <c r="L80" s="8"/>
+      <c r="M80" s="8"/>
+      <c r="N80" s="8"/>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
@@ -2298,13 +2340,13 @@
       <c r="I81" s="2">
         <v>0.20910000000000001</v>
       </c>
-      <c r="J81" s="9" t="s">
+      <c r="J81" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="K81" s="9"/>
-      <c r="L81" s="9"/>
-      <c r="M81" s="9"/>
-      <c r="N81" s="9"/>
+      <c r="K81" s="8"/>
+      <c r="L81" s="8"/>
+      <c r="M81" s="8"/>
+      <c r="N81" s="8"/>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
@@ -2334,13 +2376,13 @@
       <c r="I82" s="2">
         <v>0.1336</v>
       </c>
-      <c r="J82" s="9" t="s">
+      <c r="J82" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="K82" s="9"/>
-      <c r="L82" s="9"/>
-      <c r="M82" s="9"/>
-      <c r="N82" s="9"/>
+      <c r="K82" s="8"/>
+      <c r="L82" s="8"/>
+      <c r="M82" s="8"/>
+      <c r="N82" s="8"/>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
@@ -2370,13 +2412,13 @@
       <c r="I83" s="2">
         <v>0.1326</v>
       </c>
-      <c r="J83" s="9" t="s">
+      <c r="J83" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="K83" s="9"/>
-      <c r="L83" s="9"/>
-      <c r="M83" s="9"/>
-      <c r="N83" s="9"/>
+      <c r="K83" s="8"/>
+      <c r="L83" s="8"/>
+      <c r="M83" s="8"/>
+      <c r="N83" s="8"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
@@ -2406,13 +2448,13 @@
       <c r="I84" s="2">
         <v>0.13400000000000001</v>
       </c>
-      <c r="J84" s="9" t="s">
+      <c r="J84" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="K84" s="9"/>
-      <c r="L84" s="9"/>
-      <c r="M84" s="9"/>
-      <c r="N84" s="9"/>
+      <c r="K84" s="8"/>
+      <c r="L84" s="8"/>
+      <c r="M84" s="8"/>
+      <c r="N84" s="8"/>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
@@ -2442,13 +2484,13 @@
       <c r="I85" s="2">
         <v>0.1361</v>
       </c>
-      <c r="J85" s="8" t="s">
+      <c r="J85" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="K85" s="8"/>
-      <c r="L85" s="8"/>
-      <c r="M85" s="8"/>
-      <c r="N85" s="8"/>
+      <c r="K85" s="10"/>
+      <c r="L85" s="10"/>
+      <c r="M85" s="10"/>
+      <c r="N85" s="10"/>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
@@ -2478,13 +2520,13 @@
       <c r="I86" s="5">
         <v>0.13070000000000001</v>
       </c>
-      <c r="J86" s="8" t="s">
+      <c r="J86" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="K86" s="8"/>
-      <c r="L86" s="8"/>
-      <c r="M86" s="8"/>
-      <c r="N86" s="8"/>
+      <c r="K86" s="10"/>
+      <c r="L86" s="10"/>
+      <c r="M86" s="10"/>
+      <c r="N86" s="10"/>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
@@ -2514,13 +2556,13 @@
       <c r="I87" s="2">
         <v>0.1361</v>
       </c>
-      <c r="J87" s="8" t="s">
+      <c r="J87" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="K87" s="8"/>
-      <c r="L87" s="8"/>
-      <c r="M87" s="8"/>
-      <c r="N87" s="8"/>
+      <c r="K87" s="10"/>
+      <c r="L87" s="10"/>
+      <c r="M87" s="10"/>
+      <c r="N87" s="10"/>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
@@ -2550,13 +2592,13 @@
       <c r="I88" s="2">
         <v>0.13589999999999999</v>
       </c>
-      <c r="J88" s="8" t="s">
+      <c r="J88" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="K88" s="8"/>
-      <c r="L88" s="8"/>
-      <c r="M88" s="8"/>
-      <c r="N88" s="8"/>
+      <c r="K88" s="10"/>
+      <c r="L88" s="10"/>
+      <c r="M88" s="10"/>
+      <c r="N88" s="10"/>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
@@ -2586,13 +2628,13 @@
       <c r="I89" s="2">
         <v>0.1439</v>
       </c>
-      <c r="J89" s="9" t="s">
+      <c r="J89" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="K89" s="9"/>
-      <c r="L89" s="9"/>
-      <c r="M89" s="9"/>
-      <c r="N89" s="9"/>
+      <c r="K89" s="8"/>
+      <c r="L89" s="8"/>
+      <c r="M89" s="8"/>
+      <c r="N89" s="8"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
@@ -2622,13 +2664,13 @@
       <c r="I90" s="2">
         <v>0.13850000000000001</v>
       </c>
-      <c r="J90" s="9" t="s">
+      <c r="J90" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="K90" s="9"/>
-      <c r="L90" s="9"/>
-      <c r="M90" s="9"/>
-      <c r="N90" s="9"/>
+      <c r="K90" s="8"/>
+      <c r="L90" s="8"/>
+      <c r="M90" s="8"/>
+      <c r="N90" s="8"/>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
@@ -2658,13 +2700,13 @@
       <c r="I91" s="2">
         <v>0.13289999999999999</v>
       </c>
-      <c r="J91" s="9" t="s">
+      <c r="J91" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="K91" s="9"/>
-      <c r="L91" s="9"/>
-      <c r="M91" s="9"/>
-      <c r="N91" s="9"/>
+      <c r="K91" s="8"/>
+      <c r="L91" s="8"/>
+      <c r="M91" s="8"/>
+      <c r="N91" s="8"/>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
@@ -2694,13 +2736,13 @@
       <c r="I92" s="5">
         <v>0.13070000000000001</v>
       </c>
-      <c r="J92" s="9" t="s">
+      <c r="J92" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="K92" s="9"/>
-      <c r="L92" s="9"/>
-      <c r="M92" s="9"/>
-      <c r="N92" s="9"/>
+      <c r="K92" s="8"/>
+      <c r="L92" s="8"/>
+      <c r="M92" s="8"/>
+      <c r="N92" s="8"/>
       <c r="O92" s="4">
         <v>19.309999999999999</v>
       </c>
@@ -2742,41 +2784,43 @@
       <c r="I93" s="2">
         <v>0.13589999999999999</v>
       </c>
-      <c r="J93" s="9" t="s">
+      <c r="J93" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="K93" s="9"/>
-      <c r="L93" s="9"/>
-      <c r="M93" s="9"/>
-      <c r="N93" s="9"/>
+      <c r="K93" s="8"/>
+      <c r="L93" s="8"/>
+      <c r="M93" s="8"/>
+      <c r="N93" s="8"/>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A94" s="1">
+      <c r="A94" s="12">
         <v>30</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I94" s="2"/>
-      <c r="J94" s="9" t="s">
+      <c r="B94" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E94" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F94" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G94" s="13"/>
+      <c r="H94" s="13"/>
+      <c r="I94" s="16"/>
+      <c r="J94" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="K94" s="9"/>
-      <c r="L94" s="9"/>
-      <c r="M94" s="9"/>
-      <c r="N94" s="9"/>
+      <c r="K94" s="14"/>
+      <c r="L94" s="14"/>
+      <c r="M94" s="14"/>
+      <c r="N94" s="14"/>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
@@ -2806,13 +2850,13 @@
       <c r="I95" s="2">
         <v>0.14530000000000001</v>
       </c>
-      <c r="J95" s="9" t="s">
+      <c r="J95" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="K95" s="9"/>
-      <c r="L95" s="9"/>
-      <c r="M95" s="9"/>
-      <c r="N95" s="9"/>
+      <c r="K95" s="8"/>
+      <c r="L95" s="8"/>
+      <c r="M95" s="8"/>
+      <c r="N95" s="8"/>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
@@ -2833,16 +2877,24 @@
       <c r="F96" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I96" s="2"/>
-      <c r="J96" s="9" t="s">
+      <c r="G96" s="1">
+        <v>19.8</v>
+      </c>
+      <c r="H96" s="1">
+        <v>31.03</v>
+      </c>
+      <c r="I96" s="2">
+        <v>0.13639999999999999</v>
+      </c>
+      <c r="J96" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="K96" s="9"/>
-      <c r="L96" s="9"/>
-      <c r="M96" s="9"/>
-      <c r="N96" s="9"/>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K96" s="8"/>
+      <c r="L96" s="8"/>
+      <c r="M96" s="8"/>
+      <c r="N96" s="8"/>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>33</v>
       </c>
@@ -2861,19 +2913,27 @@
       <c r="F97" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I97" s="2"/>
-      <c r="J97" s="9" t="s">
+      <c r="G97" s="1">
+        <v>19.41</v>
+      </c>
+      <c r="H97" s="1">
+        <v>30.67</v>
+      </c>
+      <c r="I97" s="2">
+        <v>0.1343</v>
+      </c>
+      <c r="J97" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="K97" s="9"/>
-      <c r="L97" s="9"/>
-      <c r="M97" s="9"/>
-      <c r="N97" s="9"/>
-      <c r="O97" s="10"/>
-      <c r="P97" s="10"/>
-      <c r="Q97" s="10"/>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K97" s="8"/>
+      <c r="L97" s="8"/>
+      <c r="M97" s="8"/>
+      <c r="N97" s="8"/>
+      <c r="O97" s="9"/>
+      <c r="P97" s="9"/>
+      <c r="Q97" s="9"/>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>34</v>
       </c>
@@ -2901,18 +2961,18 @@
       <c r="I98" s="2">
         <v>0.1328</v>
       </c>
-      <c r="J98" s="9" t="s">
+      <c r="J98" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="K98" s="9"/>
-      <c r="L98" s="9"/>
-      <c r="M98" s="9"/>
-      <c r="N98" s="9"/>
-      <c r="O98" s="10"/>
-      <c r="P98" s="10"/>
-      <c r="Q98" s="10"/>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K98" s="8"/>
+      <c r="L98" s="8"/>
+      <c r="M98" s="8"/>
+      <c r="N98" s="8"/>
+      <c r="O98" s="9"/>
+      <c r="P98" s="9"/>
+      <c r="Q98" s="9"/>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>35</v>
       </c>
@@ -2931,19 +2991,181 @@
       <c r="F99" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J99" s="9" t="s">
+      <c r="J99" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="K99" s="9"/>
-      <c r="L99" s="9"/>
-      <c r="M99" s="9"/>
-      <c r="N99" s="9"/>
-      <c r="O99" s="10"/>
-      <c r="P99" s="10"/>
-      <c r="Q99" s="10"/>
+      <c r="K99" s="8"/>
+      <c r="L99" s="8"/>
+      <c r="M99" s="8"/>
+      <c r="N99" s="8"/>
+      <c r="O99" s="9"/>
+      <c r="P99" s="9"/>
+      <c r="Q99" s="9"/>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>36</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I100" s="2"/>
+      <c r="J100" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K100" s="8"/>
+      <c r="L100" s="8"/>
+      <c r="M100" s="8"/>
+      <c r="N100" s="8"/>
+      <c r="O100" s="9"/>
+      <c r="P100" s="9"/>
+      <c r="Q100" s="9"/>
+      <c r="R100" s="9"/>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A101" s="12">
+        <v>37</v>
+      </c>
+      <c r="B101" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C101" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D101" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E101" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F101" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G101" s="13"/>
+      <c r="H101" s="13"/>
+      <c r="I101" s="13"/>
+      <c r="J101" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="K101" s="14"/>
+      <c r="L101" s="14"/>
+      <c r="M101" s="14"/>
+      <c r="N101" s="14"/>
+      <c r="O101" s="15"/>
+      <c r="P101" s="15"/>
+      <c r="Q101" s="15"/>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>38</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J102" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K102" s="8"/>
+      <c r="L102" s="8"/>
+      <c r="M102" s="8"/>
+      <c r="N102" s="8"/>
+      <c r="O102" s="9"/>
+      <c r="P102" s="9"/>
+      <c r="Q102" s="9"/>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>39</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J103" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="K103" s="8"/>
+      <c r="L103" s="8"/>
+      <c r="M103" s="8"/>
+      <c r="N103" s="8"/>
+      <c r="O103" s="9"/>
+      <c r="P103" s="9"/>
+      <c r="Q103" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="49">
+  <mergeCells count="53">
+    <mergeCell ref="J100:R100"/>
+    <mergeCell ref="J101:Q101"/>
+    <mergeCell ref="J102:Q102"/>
+    <mergeCell ref="J103:Q103"/>
+    <mergeCell ref="J95:N95"/>
+    <mergeCell ref="J93:N93"/>
+    <mergeCell ref="J84:N84"/>
+    <mergeCell ref="J83:N83"/>
+    <mergeCell ref="J82:N82"/>
+    <mergeCell ref="J92:N92"/>
+    <mergeCell ref="J85:N85"/>
+    <mergeCell ref="J87:N87"/>
+    <mergeCell ref="J88:N88"/>
+    <mergeCell ref="J66:V66"/>
+    <mergeCell ref="J67:V67"/>
+    <mergeCell ref="J71:V71"/>
+    <mergeCell ref="J76:Q78"/>
+    <mergeCell ref="J94:N94"/>
+    <mergeCell ref="J81:N81"/>
+    <mergeCell ref="J80:N80"/>
+    <mergeCell ref="J79:N79"/>
+    <mergeCell ref="J89:N89"/>
+    <mergeCell ref="J9:V9"/>
+    <mergeCell ref="J10:V10"/>
+    <mergeCell ref="J18:V18"/>
+    <mergeCell ref="J11:V11"/>
+    <mergeCell ref="J19:V19"/>
+    <mergeCell ref="J12:V12"/>
+    <mergeCell ref="J75:M75"/>
+    <mergeCell ref="J74:M74"/>
+    <mergeCell ref="J73:M73"/>
+    <mergeCell ref="J65:V65"/>
+    <mergeCell ref="J47:O47"/>
+    <mergeCell ref="J51:O51"/>
+    <mergeCell ref="J50:O50"/>
+    <mergeCell ref="J49:O49"/>
+    <mergeCell ref="J48:O48"/>
     <mergeCell ref="J99:Q99"/>
     <mergeCell ref="J98:Q98"/>
     <mergeCell ref="J96:N96"/>
@@ -2960,39 +3182,6 @@
     <mergeCell ref="J86:N86"/>
     <mergeCell ref="J90:N90"/>
     <mergeCell ref="J91:N91"/>
-    <mergeCell ref="J89:N89"/>
-    <mergeCell ref="J9:V9"/>
-    <mergeCell ref="J10:V10"/>
-    <mergeCell ref="J18:V18"/>
-    <mergeCell ref="J11:V11"/>
-    <mergeCell ref="J19:V19"/>
-    <mergeCell ref="J12:V12"/>
-    <mergeCell ref="J75:M75"/>
-    <mergeCell ref="J74:M74"/>
-    <mergeCell ref="J73:M73"/>
-    <mergeCell ref="J65:V65"/>
-    <mergeCell ref="J47:O47"/>
-    <mergeCell ref="J51:O51"/>
-    <mergeCell ref="J50:O50"/>
-    <mergeCell ref="J49:O49"/>
-    <mergeCell ref="J48:O48"/>
-    <mergeCell ref="J66:V66"/>
-    <mergeCell ref="J67:V67"/>
-    <mergeCell ref="J71:V71"/>
-    <mergeCell ref="J76:Q78"/>
-    <mergeCell ref="J94:N94"/>
-    <mergeCell ref="J95:N95"/>
-    <mergeCell ref="J93:N93"/>
-    <mergeCell ref="J84:N84"/>
-    <mergeCell ref="J83:N83"/>
-    <mergeCell ref="J82:N82"/>
-    <mergeCell ref="J81:N81"/>
-    <mergeCell ref="J92:N92"/>
-    <mergeCell ref="J85:N85"/>
-    <mergeCell ref="J80:N80"/>
-    <mergeCell ref="J79:N79"/>
-    <mergeCell ref="J87:N87"/>
-    <mergeCell ref="J88:N88"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D85599-8F86-4C5D-AB41-70B778A8E029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60AC25C9-1D63-48DA-B611-A1421A255617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="1065" windowWidth="22665" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7140" yWindow="1620" windowWidth="22665" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="78">
   <si>
     <t>ST-SSL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -327,6 +327,14 @@
   </si>
   <si>
     <t>28-&gt;39 622权重，mask=0.1，空间卷积只添加时间注意力，语义，添加时间和空间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13-&gt;40 max后添加注意力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28-&gt;40 82权重，mask=0.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -430,23 +438,20 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -454,7 +459,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -737,10 +745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:V103"/>
+  <dimension ref="A3:V105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="Q85" sqref="Q85"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="H105" sqref="H105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -874,21 +882,21 @@
       <c r="I9" s="2">
         <v>0.1225</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -918,21 +926,21 @@
       <c r="I10" s="2">
         <v>0.1226</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -962,21 +970,21 @@
       <c r="I11" s="2">
         <v>0.12</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -1006,21 +1014,21 @@
       <c r="I12" s="2">
         <v>0.1323</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="J12" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -1108,21 +1116,21 @@
       <c r="I18" s="2">
         <v>0.16550000000000001</v>
       </c>
-      <c r="J18" s="8" t="s">
+      <c r="J18" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
@@ -1152,21 +1160,21 @@
       <c r="I19" s="2">
         <v>0.1507</v>
       </c>
-      <c r="J19" s="8" t="s">
+      <c r="J19" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
@@ -1187,21 +1195,21 @@
       <c r="F24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J24" s="8" t="s">
+      <c r="J24" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="8"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -1222,21 +1230,21 @@
       <c r="F25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J25" s="8" t="s">
+      <c r="J25" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="8"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
@@ -1324,12 +1332,12 @@
       <c r="I37" s="2">
         <v>0.13450000000000001</v>
       </c>
-      <c r="J37" s="8" t="s">
+      <c r="J37" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
@@ -1359,14 +1367,14 @@
       <c r="I38" s="2">
         <v>0.1394</v>
       </c>
-      <c r="J38" s="8" t="s">
+      <c r="J38" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
@@ -1454,12 +1462,12 @@
       <c r="I44" s="2">
         <v>0.1235</v>
       </c>
-      <c r="J44" s="10" t="s">
+      <c r="J44" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
@@ -1489,12 +1497,12 @@
       <c r="I45" s="2">
         <v>0.1234</v>
       </c>
-      <c r="J45" s="8" t="s">
+      <c r="J45" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
@@ -1524,12 +1532,12 @@
       <c r="I46" s="2">
         <v>0.1249</v>
       </c>
-      <c r="J46" s="10" t="s">
+      <c r="J46" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="15"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
@@ -1556,14 +1564,14 @@
       <c r="I47" s="2">
         <v>0.12280000000000001</v>
       </c>
-      <c r="J47" s="8" t="s">
+      <c r="J47" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="8"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
@@ -1593,14 +1601,14 @@
       <c r="I48" s="2">
         <v>0.1222</v>
       </c>
-      <c r="J48" s="8" t="s">
+      <c r="J48" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8"/>
-      <c r="O48" s="8"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
@@ -1630,14 +1638,14 @@
       <c r="I49" s="2">
         <v>0.1234</v>
       </c>
-      <c r="J49" s="8" t="s">
+      <c r="J49" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="8"/>
-      <c r="O49" s="8"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
@@ -1667,14 +1675,14 @@
       <c r="I50" s="2">
         <v>0.1263</v>
       </c>
-      <c r="J50" s="8" t="s">
+      <c r="J50" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="8"/>
-      <c r="O50" s="8"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
@@ -1704,14 +1712,14 @@
       <c r="I51" s="2">
         <v>0.1232</v>
       </c>
-      <c r="J51" s="8" t="s">
+      <c r="J51" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="8"/>
-      <c r="O51" s="8"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
@@ -1732,14 +1740,14 @@
       <c r="F52" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J52" s="8" t="s">
+      <c r="J52" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
-      <c r="N52" s="8"/>
-      <c r="O52" s="8"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="11"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
@@ -1865,13 +1873,13 @@
       <c r="L62" s="2">
         <v>0.14990000000000001</v>
       </c>
-      <c r="O62" s="11" t="s">
+      <c r="O62" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="P62" s="11"/>
-      <c r="Q62" s="11"/>
-      <c r="R62" s="11"/>
-      <c r="S62" s="11"/>
+      <c r="P62" s="16"/>
+      <c r="Q62" s="16"/>
+      <c r="R62" s="16"/>
+      <c r="S62" s="16"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
@@ -1913,21 +1921,21 @@
       <c r="I65" s="2">
         <v>0.15129999999999999</v>
       </c>
-      <c r="J65" s="8" t="s">
+      <c r="J65" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="K65" s="8"/>
-      <c r="L65" s="8"/>
-      <c r="M65" s="8"/>
-      <c r="N65" s="8"/>
-      <c r="O65" s="8"/>
-      <c r="P65" s="8"/>
-      <c r="Q65" s="8"/>
-      <c r="R65" s="8"/>
-      <c r="S65" s="8"/>
-      <c r="T65" s="8"/>
-      <c r="U65" s="8"/>
-      <c r="V65" s="8"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="11"/>
+      <c r="N65" s="11"/>
+      <c r="O65" s="11"/>
+      <c r="P65" s="11"/>
+      <c r="Q65" s="11"/>
+      <c r="R65" s="11"/>
+      <c r="S65" s="11"/>
+      <c r="T65" s="11"/>
+      <c r="U65" s="11"/>
+      <c r="V65" s="11"/>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
@@ -1957,21 +1965,21 @@
       <c r="I66" s="2">
         <v>0.14929999999999999</v>
       </c>
-      <c r="J66" s="8" t="s">
+      <c r="J66" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K66" s="8"/>
-      <c r="L66" s="8"/>
-      <c r="M66" s="8"/>
-      <c r="N66" s="8"/>
-      <c r="O66" s="8"/>
-      <c r="P66" s="8"/>
-      <c r="Q66" s="8"/>
-      <c r="R66" s="8"/>
-      <c r="S66" s="8"/>
-      <c r="T66" s="8"/>
-      <c r="U66" s="8"/>
-      <c r="V66" s="8"/>
+      <c r="K66" s="11"/>
+      <c r="L66" s="11"/>
+      <c r="M66" s="11"/>
+      <c r="N66" s="11"/>
+      <c r="O66" s="11"/>
+      <c r="P66" s="11"/>
+      <c r="Q66" s="11"/>
+      <c r="R66" s="11"/>
+      <c r="S66" s="11"/>
+      <c r="T66" s="11"/>
+      <c r="U66" s="11"/>
+      <c r="V66" s="11"/>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
@@ -2001,21 +2009,21 @@
       <c r="I67" s="5">
         <v>0.13739999999999999</v>
       </c>
-      <c r="J67" s="8" t="s">
+      <c r="J67" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="K67" s="8"/>
-      <c r="L67" s="8"/>
-      <c r="M67" s="8"/>
-      <c r="N67" s="8"/>
-      <c r="O67" s="8"/>
-      <c r="P67" s="8"/>
-      <c r="Q67" s="8"/>
-      <c r="R67" s="8"/>
-      <c r="S67" s="8"/>
-      <c r="T67" s="8"/>
-      <c r="U67" s="8"/>
-      <c r="V67" s="8"/>
+      <c r="K67" s="11"/>
+      <c r="L67" s="11"/>
+      <c r="M67" s="11"/>
+      <c r="N67" s="11"/>
+      <c r="O67" s="11"/>
+      <c r="P67" s="11"/>
+      <c r="Q67" s="11"/>
+      <c r="R67" s="11"/>
+      <c r="S67" s="11"/>
+      <c r="T67" s="11"/>
+      <c r="U67" s="11"/>
+      <c r="V67" s="11"/>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" s="6"/>
@@ -2057,21 +2065,21 @@
       <c r="I71" s="2">
         <v>0.14280000000000001</v>
       </c>
-      <c r="J71" s="8" t="s">
+      <c r="J71" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="K71" s="8"/>
-      <c r="L71" s="8"/>
-      <c r="M71" s="8"/>
-      <c r="N71" s="8"/>
-      <c r="O71" s="8"/>
-      <c r="P71" s="8"/>
-      <c r="Q71" s="8"/>
-      <c r="R71" s="8"/>
-      <c r="S71" s="8"/>
-      <c r="T71" s="8"/>
-      <c r="U71" s="8"/>
-      <c r="V71" s="8"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="11"/>
+      <c r="M71" s="11"/>
+      <c r="N71" s="11"/>
+      <c r="O71" s="11"/>
+      <c r="P71" s="11"/>
+      <c r="Q71" s="11"/>
+      <c r="R71" s="11"/>
+      <c r="S71" s="11"/>
+      <c r="T71" s="11"/>
+      <c r="U71" s="11"/>
+      <c r="V71" s="11"/>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" s="7"/>
@@ -2113,12 +2121,12 @@
       <c r="I73" s="5">
         <v>0.13669999999999999</v>
       </c>
-      <c r="J73" s="10" t="s">
+      <c r="J73" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K73" s="10"/>
-      <c r="L73" s="10"/>
-      <c r="M73" s="10"/>
+      <c r="K73" s="15"/>
+      <c r="L73" s="15"/>
+      <c r="M73" s="15"/>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
@@ -2139,12 +2147,12 @@
       <c r="F74" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J74" s="10" t="s">
+      <c r="J74" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="K74" s="10"/>
-      <c r="L74" s="10"/>
-      <c r="M74" s="10"/>
+      <c r="K74" s="15"/>
+      <c r="L74" s="15"/>
+      <c r="M74" s="15"/>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
@@ -2174,12 +2182,12 @@
       <c r="I75" s="2">
         <v>0.13780000000000001</v>
       </c>
-      <c r="J75" s="10" t="s">
+      <c r="J75" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="K75" s="10"/>
-      <c r="L75" s="10"/>
-      <c r="M75" s="10"/>
+      <c r="K75" s="15"/>
+      <c r="L75" s="15"/>
+      <c r="M75" s="15"/>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
@@ -2209,36 +2217,36 @@
       <c r="I76" s="5">
         <v>0.1348</v>
       </c>
-      <c r="J76" s="10" t="s">
+      <c r="J76" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="K76" s="10"/>
-      <c r="L76" s="10"/>
-      <c r="M76" s="10"/>
-      <c r="N76" s="10"/>
-      <c r="O76" s="10"/>
-      <c r="P76" s="10"/>
-      <c r="Q76" s="10"/>
+      <c r="K76" s="15"/>
+      <c r="L76" s="15"/>
+      <c r="M76" s="15"/>
+      <c r="N76" s="15"/>
+      <c r="O76" s="15"/>
+      <c r="P76" s="15"/>
+      <c r="Q76" s="15"/>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="J77" s="10"/>
-      <c r="K77" s="10"/>
-      <c r="L77" s="10"/>
-      <c r="M77" s="10"/>
-      <c r="N77" s="10"/>
-      <c r="O77" s="10"/>
-      <c r="P77" s="10"/>
-      <c r="Q77" s="10"/>
+      <c r="J77" s="15"/>
+      <c r="K77" s="15"/>
+      <c r="L77" s="15"/>
+      <c r="M77" s="15"/>
+      <c r="N77" s="15"/>
+      <c r="O77" s="15"/>
+      <c r="P77" s="15"/>
+      <c r="Q77" s="15"/>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="J78" s="10"/>
-      <c r="K78" s="10"/>
-      <c r="L78" s="10"/>
-      <c r="M78" s="10"/>
-      <c r="N78" s="10"/>
-      <c r="O78" s="10"/>
-      <c r="P78" s="10"/>
-      <c r="Q78" s="10"/>
+      <c r="J78" s="15"/>
+      <c r="K78" s="15"/>
+      <c r="L78" s="15"/>
+      <c r="M78" s="15"/>
+      <c r="N78" s="15"/>
+      <c r="O78" s="15"/>
+      <c r="P78" s="15"/>
+      <c r="Q78" s="15"/>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
@@ -2268,13 +2276,13 @@
       <c r="I79" s="2">
         <v>0.13689999999999999</v>
       </c>
-      <c r="J79" s="8" t="s">
+      <c r="J79" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="K79" s="8"/>
-      <c r="L79" s="8"/>
-      <c r="M79" s="8"/>
-      <c r="N79" s="8"/>
+      <c r="K79" s="11"/>
+      <c r="L79" s="11"/>
+      <c r="M79" s="11"/>
+      <c r="N79" s="11"/>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
@@ -2304,13 +2312,13 @@
       <c r="I80" s="2">
         <v>0.14749999999999999</v>
       </c>
-      <c r="J80" s="8" t="s">
+      <c r="J80" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="K80" s="8"/>
-      <c r="L80" s="8"/>
-      <c r="M80" s="8"/>
-      <c r="N80" s="8"/>
+      <c r="K80" s="11"/>
+      <c r="L80" s="11"/>
+      <c r="M80" s="11"/>
+      <c r="N80" s="11"/>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
@@ -2340,13 +2348,13 @@
       <c r="I81" s="2">
         <v>0.20910000000000001</v>
       </c>
-      <c r="J81" s="8" t="s">
+      <c r="J81" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="K81" s="8"/>
-      <c r="L81" s="8"/>
-      <c r="M81" s="8"/>
-      <c r="N81" s="8"/>
+      <c r="K81" s="11"/>
+      <c r="L81" s="11"/>
+      <c r="M81" s="11"/>
+      <c r="N81" s="11"/>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
@@ -2376,13 +2384,13 @@
       <c r="I82" s="2">
         <v>0.1336</v>
       </c>
-      <c r="J82" s="8" t="s">
+      <c r="J82" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="K82" s="8"/>
-      <c r="L82" s="8"/>
-      <c r="M82" s="8"/>
-      <c r="N82" s="8"/>
+      <c r="K82" s="11"/>
+      <c r="L82" s="11"/>
+      <c r="M82" s="11"/>
+      <c r="N82" s="11"/>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
@@ -2412,13 +2420,13 @@
       <c r="I83" s="2">
         <v>0.1326</v>
       </c>
-      <c r="J83" s="8" t="s">
+      <c r="J83" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="K83" s="8"/>
-      <c r="L83" s="8"/>
-      <c r="M83" s="8"/>
-      <c r="N83" s="8"/>
+      <c r="K83" s="11"/>
+      <c r="L83" s="11"/>
+      <c r="M83" s="11"/>
+      <c r="N83" s="11"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
@@ -2448,13 +2456,13 @@
       <c r="I84" s="2">
         <v>0.13400000000000001</v>
       </c>
-      <c r="J84" s="8" t="s">
+      <c r="J84" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="K84" s="8"/>
-      <c r="L84" s="8"/>
-      <c r="M84" s="8"/>
-      <c r="N84" s="8"/>
+      <c r="K84" s="11"/>
+      <c r="L84" s="11"/>
+      <c r="M84" s="11"/>
+      <c r="N84" s="11"/>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
@@ -2484,13 +2492,13 @@
       <c r="I85" s="2">
         <v>0.1361</v>
       </c>
-      <c r="J85" s="10" t="s">
+      <c r="J85" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="K85" s="10"/>
-      <c r="L85" s="10"/>
-      <c r="M85" s="10"/>
-      <c r="N85" s="10"/>
+      <c r="K85" s="15"/>
+      <c r="L85" s="15"/>
+      <c r="M85" s="15"/>
+      <c r="N85" s="15"/>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
@@ -2520,13 +2528,13 @@
       <c r="I86" s="5">
         <v>0.13070000000000001</v>
       </c>
-      <c r="J86" s="10" t="s">
+      <c r="J86" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="K86" s="10"/>
-      <c r="L86" s="10"/>
-      <c r="M86" s="10"/>
-      <c r="N86" s="10"/>
+      <c r="K86" s="15"/>
+      <c r="L86" s="15"/>
+      <c r="M86" s="15"/>
+      <c r="N86" s="15"/>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
@@ -2556,13 +2564,13 @@
       <c r="I87" s="2">
         <v>0.1361</v>
       </c>
-      <c r="J87" s="10" t="s">
+      <c r="J87" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="K87" s="10"/>
-      <c r="L87" s="10"/>
-      <c r="M87" s="10"/>
-      <c r="N87" s="10"/>
+      <c r="K87" s="15"/>
+      <c r="L87" s="15"/>
+      <c r="M87" s="15"/>
+      <c r="N87" s="15"/>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
@@ -2592,13 +2600,13 @@
       <c r="I88" s="2">
         <v>0.13589999999999999</v>
       </c>
-      <c r="J88" s="10" t="s">
+      <c r="J88" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="K88" s="10"/>
-      <c r="L88" s="10"/>
-      <c r="M88" s="10"/>
-      <c r="N88" s="10"/>
+      <c r="K88" s="15"/>
+      <c r="L88" s="15"/>
+      <c r="M88" s="15"/>
+      <c r="N88" s="15"/>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
@@ -2628,13 +2636,13 @@
       <c r="I89" s="2">
         <v>0.1439</v>
       </c>
-      <c r="J89" s="8" t="s">
+      <c r="J89" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="K89" s="8"/>
-      <c r="L89" s="8"/>
-      <c r="M89" s="8"/>
-      <c r="N89" s="8"/>
+      <c r="K89" s="11"/>
+      <c r="L89" s="11"/>
+      <c r="M89" s="11"/>
+      <c r="N89" s="11"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
@@ -2664,13 +2672,13 @@
       <c r="I90" s="2">
         <v>0.13850000000000001</v>
       </c>
-      <c r="J90" s="8" t="s">
+      <c r="J90" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="K90" s="8"/>
-      <c r="L90" s="8"/>
-      <c r="M90" s="8"/>
-      <c r="N90" s="8"/>
+      <c r="K90" s="11"/>
+      <c r="L90" s="11"/>
+      <c r="M90" s="11"/>
+      <c r="N90" s="11"/>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
@@ -2700,13 +2708,13 @@
       <c r="I91" s="2">
         <v>0.13289999999999999</v>
       </c>
-      <c r="J91" s="8" t="s">
+      <c r="J91" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="K91" s="8"/>
-      <c r="L91" s="8"/>
-      <c r="M91" s="8"/>
-      <c r="N91" s="8"/>
+      <c r="K91" s="11"/>
+      <c r="L91" s="11"/>
+      <c r="M91" s="11"/>
+      <c r="N91" s="11"/>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
@@ -2736,13 +2744,13 @@
       <c r="I92" s="5">
         <v>0.13070000000000001</v>
       </c>
-      <c r="J92" s="8" t="s">
+      <c r="J92" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="K92" s="8"/>
-      <c r="L92" s="8"/>
-      <c r="M92" s="8"/>
-      <c r="N92" s="8"/>
+      <c r="K92" s="11"/>
+      <c r="L92" s="11"/>
+      <c r="M92" s="11"/>
+      <c r="N92" s="11"/>
       <c r="O92" s="4">
         <v>19.309999999999999</v>
       </c>
@@ -2784,43 +2792,43 @@
       <c r="I93" s="2">
         <v>0.13589999999999999</v>
       </c>
-      <c r="J93" s="8" t="s">
+      <c r="J93" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="K93" s="8"/>
-      <c r="L93" s="8"/>
-      <c r="M93" s="8"/>
-      <c r="N93" s="8"/>
+      <c r="K93" s="11"/>
+      <c r="L93" s="11"/>
+      <c r="M93" s="11"/>
+      <c r="N93" s="11"/>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A94" s="12">
+      <c r="A94" s="8">
         <v>30</v>
       </c>
-      <c r="B94" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C94" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D94" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E94" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F94" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G94" s="13"/>
-      <c r="H94" s="13"/>
-      <c r="I94" s="16"/>
-      <c r="J94" s="14" t="s">
+      <c r="B94" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E94" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F94" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G94" s="9"/>
+      <c r="H94" s="9"/>
+      <c r="I94" s="10"/>
+      <c r="J94" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="K94" s="14"/>
-      <c r="L94" s="14"/>
-      <c r="M94" s="14"/>
-      <c r="N94" s="14"/>
+      <c r="K94" s="13"/>
+      <c r="L94" s="13"/>
+      <c r="M94" s="13"/>
+      <c r="N94" s="13"/>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
@@ -2850,13 +2858,13 @@
       <c r="I95" s="2">
         <v>0.14530000000000001</v>
       </c>
-      <c r="J95" s="8" t="s">
+      <c r="J95" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="K95" s="8"/>
-      <c r="L95" s="8"/>
-      <c r="M95" s="8"/>
-      <c r="N95" s="8"/>
+      <c r="K95" s="11"/>
+      <c r="L95" s="11"/>
+      <c r="M95" s="11"/>
+      <c r="N95" s="11"/>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
@@ -2886,13 +2894,13 @@
       <c r="I96" s="2">
         <v>0.13639999999999999</v>
       </c>
-      <c r="J96" s="8" t="s">
+      <c r="J96" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="K96" s="8"/>
-      <c r="L96" s="8"/>
-      <c r="M96" s="8"/>
-      <c r="N96" s="8"/>
+      <c r="K96" s="11"/>
+      <c r="L96" s="11"/>
+      <c r="M96" s="11"/>
+      <c r="N96" s="11"/>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
@@ -2922,16 +2930,16 @@
       <c r="I97" s="2">
         <v>0.1343</v>
       </c>
-      <c r="J97" s="8" t="s">
+      <c r="J97" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="K97" s="8"/>
-      <c r="L97" s="8"/>
-      <c r="M97" s="8"/>
-      <c r="N97" s="8"/>
-      <c r="O97" s="9"/>
-      <c r="P97" s="9"/>
-      <c r="Q97" s="9"/>
+      <c r="K97" s="11"/>
+      <c r="L97" s="11"/>
+      <c r="M97" s="11"/>
+      <c r="N97" s="11"/>
+      <c r="O97" s="12"/>
+      <c r="P97" s="12"/>
+      <c r="Q97" s="12"/>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
@@ -2961,16 +2969,16 @@
       <c r="I98" s="2">
         <v>0.1328</v>
       </c>
-      <c r="J98" s="8" t="s">
+      <c r="J98" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="K98" s="8"/>
-      <c r="L98" s="8"/>
-      <c r="M98" s="8"/>
-      <c r="N98" s="8"/>
-      <c r="O98" s="9"/>
-      <c r="P98" s="9"/>
-      <c r="Q98" s="9"/>
+      <c r="K98" s="11"/>
+      <c r="L98" s="11"/>
+      <c r="M98" s="11"/>
+      <c r="N98" s="11"/>
+      <c r="O98" s="12"/>
+      <c r="P98" s="12"/>
+      <c r="Q98" s="12"/>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
@@ -2991,16 +2999,25 @@
       <c r="F99" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J99" s="8" t="s">
+      <c r="G99" s="1">
+        <v>19.32</v>
+      </c>
+      <c r="H99" s="1">
+        <v>30.63</v>
+      </c>
+      <c r="I99" s="2">
+        <v>0.1303</v>
+      </c>
+      <c r="J99" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="K99" s="8"/>
-      <c r="L99" s="8"/>
-      <c r="M99" s="8"/>
-      <c r="N99" s="8"/>
-      <c r="O99" s="9"/>
-      <c r="P99" s="9"/>
-      <c r="Q99" s="9"/>
+      <c r="K99" s="11"/>
+      <c r="L99" s="11"/>
+      <c r="M99" s="11"/>
+      <c r="N99" s="11"/>
+      <c r="O99" s="12"/>
+      <c r="P99" s="12"/>
+      <c r="Q99" s="12"/>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
@@ -3021,51 +3038,59 @@
       <c r="F100" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I100" s="2"/>
-      <c r="J100" s="8" t="s">
+      <c r="G100" s="1">
+        <v>19.309999999999999</v>
+      </c>
+      <c r="H100" s="1">
+        <v>30.66</v>
+      </c>
+      <c r="I100" s="2">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="J100" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="K100" s="8"/>
-      <c r="L100" s="8"/>
-      <c r="M100" s="8"/>
-      <c r="N100" s="8"/>
-      <c r="O100" s="9"/>
-      <c r="P100" s="9"/>
-      <c r="Q100" s="9"/>
-      <c r="R100" s="9"/>
+      <c r="K100" s="11"/>
+      <c r="L100" s="11"/>
+      <c r="M100" s="11"/>
+      <c r="N100" s="11"/>
+      <c r="O100" s="12"/>
+      <c r="P100" s="12"/>
+      <c r="Q100" s="12"/>
+      <c r="R100" s="12"/>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A101" s="12">
+      <c r="A101" s="8">
         <v>37</v>
       </c>
-      <c r="B101" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C101" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D101" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E101" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F101" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G101" s="13"/>
-      <c r="H101" s="13"/>
-      <c r="I101" s="13"/>
-      <c r="J101" s="14" t="s">
+      <c r="B101" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D101" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F101" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G101" s="9"/>
+      <c r="H101" s="9"/>
+      <c r="I101" s="9"/>
+      <c r="J101" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="K101" s="14"/>
-      <c r="L101" s="14"/>
-      <c r="M101" s="14"/>
-      <c r="N101" s="14"/>
-      <c r="O101" s="15"/>
-      <c r="P101" s="15"/>
-      <c r="Q101" s="15"/>
+      <c r="K101" s="13"/>
+      <c r="L101" s="13"/>
+      <c r="M101" s="13"/>
+      <c r="N101" s="13"/>
+      <c r="O101" s="14"/>
+      <c r="P101" s="14"/>
+      <c r="Q101" s="14"/>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
@@ -3086,16 +3111,16 @@
       <c r="F102" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J102" s="8" t="s">
+      <c r="J102" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="K102" s="8"/>
-      <c r="L102" s="8"/>
-      <c r="M102" s="8"/>
-      <c r="N102" s="8"/>
-      <c r="O102" s="9"/>
-      <c r="P102" s="9"/>
-      <c r="Q102" s="9"/>
+      <c r="K102" s="11"/>
+      <c r="L102" s="11"/>
+      <c r="M102" s="11"/>
+      <c r="N102" s="11"/>
+      <c r="O102" s="12"/>
+      <c r="P102" s="12"/>
+      <c r="Q102" s="12"/>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
@@ -3116,32 +3141,102 @@
       <c r="F103" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J103" s="8" t="s">
+      <c r="J103" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="K103" s="8"/>
-      <c r="L103" s="8"/>
-      <c r="M103" s="8"/>
-      <c r="N103" s="8"/>
-      <c r="O103" s="9"/>
-      <c r="P103" s="9"/>
-      <c r="Q103" s="9"/>
+      <c r="K103" s="11"/>
+      <c r="L103" s="11"/>
+      <c r="M103" s="11"/>
+      <c r="N103" s="11"/>
+      <c r="O103" s="12"/>
+      <c r="P103" s="12"/>
+      <c r="Q103" s="12"/>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>40</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J104" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="K104" s="11"/>
+      <c r="L104" s="11"/>
+      <c r="M104" s="11"/>
+      <c r="N104" s="11"/>
+      <c r="O104" s="12"/>
+      <c r="P104" s="12"/>
+      <c r="Q104" s="12"/>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>41</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J105" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="K105" s="11"/>
+      <c r="L105" s="11"/>
+      <c r="M105" s="11"/>
+      <c r="N105" s="11"/>
+      <c r="O105" s="12"/>
+      <c r="P105" s="12"/>
+      <c r="Q105" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="53">
-    <mergeCell ref="J100:R100"/>
-    <mergeCell ref="J101:Q101"/>
-    <mergeCell ref="J102:Q102"/>
-    <mergeCell ref="J103:Q103"/>
-    <mergeCell ref="J95:N95"/>
-    <mergeCell ref="J93:N93"/>
-    <mergeCell ref="J84:N84"/>
-    <mergeCell ref="J83:N83"/>
-    <mergeCell ref="J82:N82"/>
-    <mergeCell ref="J92:N92"/>
-    <mergeCell ref="J85:N85"/>
-    <mergeCell ref="J87:N87"/>
-    <mergeCell ref="J88:N88"/>
+  <mergeCells count="55">
+    <mergeCell ref="J104:Q104"/>
+    <mergeCell ref="J105:Q105"/>
+    <mergeCell ref="J24:V24"/>
+    <mergeCell ref="J25:V25"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="J38:O38"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="J65:V65"/>
+    <mergeCell ref="J47:O47"/>
+    <mergeCell ref="J51:O51"/>
+    <mergeCell ref="J50:O50"/>
+    <mergeCell ref="J49:O49"/>
+    <mergeCell ref="J48:O48"/>
+    <mergeCell ref="O62:S62"/>
+    <mergeCell ref="J52:O52"/>
+    <mergeCell ref="J9:V9"/>
+    <mergeCell ref="J10:V10"/>
+    <mergeCell ref="J18:V18"/>
+    <mergeCell ref="J11:V11"/>
+    <mergeCell ref="J19:V19"/>
+    <mergeCell ref="J12:V12"/>
     <mergeCell ref="J66:V66"/>
     <mergeCell ref="J67:V67"/>
     <mergeCell ref="J71:V71"/>
@@ -3151,37 +3246,29 @@
     <mergeCell ref="J80:N80"/>
     <mergeCell ref="J79:N79"/>
     <mergeCell ref="J89:N89"/>
-    <mergeCell ref="J9:V9"/>
-    <mergeCell ref="J10:V10"/>
-    <mergeCell ref="J18:V18"/>
-    <mergeCell ref="J11:V11"/>
-    <mergeCell ref="J19:V19"/>
-    <mergeCell ref="J12:V12"/>
     <mergeCell ref="J75:M75"/>
     <mergeCell ref="J74:M74"/>
     <mergeCell ref="J73:M73"/>
-    <mergeCell ref="J65:V65"/>
-    <mergeCell ref="J47:O47"/>
-    <mergeCell ref="J51:O51"/>
-    <mergeCell ref="J50:O50"/>
-    <mergeCell ref="J49:O49"/>
-    <mergeCell ref="J48:O48"/>
+    <mergeCell ref="J86:N86"/>
+    <mergeCell ref="J90:N90"/>
+    <mergeCell ref="J91:N91"/>
+    <mergeCell ref="J93:N93"/>
+    <mergeCell ref="J84:N84"/>
+    <mergeCell ref="J83:N83"/>
+    <mergeCell ref="J82:N82"/>
+    <mergeCell ref="J92:N92"/>
+    <mergeCell ref="J85:N85"/>
+    <mergeCell ref="J87:N87"/>
+    <mergeCell ref="J88:N88"/>
+    <mergeCell ref="J100:R100"/>
+    <mergeCell ref="J101:Q101"/>
+    <mergeCell ref="J102:Q102"/>
+    <mergeCell ref="J103:Q103"/>
+    <mergeCell ref="J95:N95"/>
     <mergeCell ref="J99:Q99"/>
     <mergeCell ref="J98:Q98"/>
     <mergeCell ref="J96:N96"/>
     <mergeCell ref="J97:Q97"/>
-    <mergeCell ref="J24:V24"/>
-    <mergeCell ref="J25:V25"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="J38:O38"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="J44:M44"/>
-    <mergeCell ref="O62:S62"/>
-    <mergeCell ref="J52:O52"/>
-    <mergeCell ref="J86:N86"/>
-    <mergeCell ref="J90:N90"/>
-    <mergeCell ref="J91:N91"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60AC25C9-1D63-48DA-B611-A1421A255617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5093597D-B2DD-4A88-BCD7-1668342A35BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7140" yWindow="1620" windowWidth="22665" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -453,17 +453,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -748,7 +748,7 @@
   <dimension ref="A3:V105"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="H105" sqref="H105"/>
+      <selection activeCell="I107" sqref="I107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1462,12 +1462,12 @@
       <c r="I44" s="2">
         <v>0.1235</v>
       </c>
-      <c r="J44" s="15" t="s">
+      <c r="J44" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="K44" s="15"/>
-      <c r="L44" s="15"/>
-      <c r="M44" s="15"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
@@ -1532,12 +1532,12 @@
       <c r="I46" s="2">
         <v>0.1249</v>
       </c>
-      <c r="J46" s="15" t="s">
+      <c r="J46" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="K46" s="15"/>
-      <c r="L46" s="15"/>
-      <c r="M46" s="15"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="13"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
@@ -1873,13 +1873,13 @@
       <c r="L62" s="2">
         <v>0.14990000000000001</v>
       </c>
-      <c r="O62" s="16" t="s">
+      <c r="O62" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="P62" s="16"/>
-      <c r="Q62" s="16"/>
-      <c r="R62" s="16"/>
-      <c r="S62" s="16"/>
+      <c r="P62" s="14"/>
+      <c r="Q62" s="14"/>
+      <c r="R62" s="14"/>
+      <c r="S62" s="14"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
@@ -2121,12 +2121,12 @@
       <c r="I73" s="5">
         <v>0.13669999999999999</v>
       </c>
-      <c r="J73" s="15" t="s">
+      <c r="J73" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="K73" s="15"/>
-      <c r="L73" s="15"/>
-      <c r="M73" s="15"/>
+      <c r="K73" s="13"/>
+      <c r="L73" s="13"/>
+      <c r="M73" s="13"/>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
@@ -2147,12 +2147,12 @@
       <c r="F74" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J74" s="15" t="s">
+      <c r="J74" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="K74" s="15"/>
-      <c r="L74" s="15"/>
-      <c r="M74" s="15"/>
+      <c r="K74" s="13"/>
+      <c r="L74" s="13"/>
+      <c r="M74" s="13"/>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
@@ -2182,12 +2182,12 @@
       <c r="I75" s="2">
         <v>0.13780000000000001</v>
       </c>
-      <c r="J75" s="15" t="s">
+      <c r="J75" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="K75" s="15"/>
-      <c r="L75" s="15"/>
-      <c r="M75" s="15"/>
+      <c r="K75" s="13"/>
+      <c r="L75" s="13"/>
+      <c r="M75" s="13"/>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
@@ -2217,36 +2217,36 @@
       <c r="I76" s="5">
         <v>0.1348</v>
       </c>
-      <c r="J76" s="15" t="s">
+      <c r="J76" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="K76" s="15"/>
-      <c r="L76" s="15"/>
-      <c r="M76" s="15"/>
-      <c r="N76" s="15"/>
-      <c r="O76" s="15"/>
-      <c r="P76" s="15"/>
-      <c r="Q76" s="15"/>
+      <c r="K76" s="13"/>
+      <c r="L76" s="13"/>
+      <c r="M76" s="13"/>
+      <c r="N76" s="13"/>
+      <c r="O76" s="13"/>
+      <c r="P76" s="13"/>
+      <c r="Q76" s="13"/>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="J77" s="15"/>
-      <c r="K77" s="15"/>
-      <c r="L77" s="15"/>
-      <c r="M77" s="15"/>
-      <c r="N77" s="15"/>
-      <c r="O77" s="15"/>
-      <c r="P77" s="15"/>
-      <c r="Q77" s="15"/>
+      <c r="J77" s="13"/>
+      <c r="K77" s="13"/>
+      <c r="L77" s="13"/>
+      <c r="M77" s="13"/>
+      <c r="N77" s="13"/>
+      <c r="O77" s="13"/>
+      <c r="P77" s="13"/>
+      <c r="Q77" s="13"/>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="J78" s="15"/>
-      <c r="K78" s="15"/>
-      <c r="L78" s="15"/>
-      <c r="M78" s="15"/>
-      <c r="N78" s="15"/>
-      <c r="O78" s="15"/>
-      <c r="P78" s="15"/>
-      <c r="Q78" s="15"/>
+      <c r="J78" s="13"/>
+      <c r="K78" s="13"/>
+      <c r="L78" s="13"/>
+      <c r="M78" s="13"/>
+      <c r="N78" s="13"/>
+      <c r="O78" s="13"/>
+      <c r="P78" s="13"/>
+      <c r="Q78" s="13"/>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
@@ -2492,13 +2492,13 @@
       <c r="I85" s="2">
         <v>0.1361</v>
       </c>
-      <c r="J85" s="15" t="s">
+      <c r="J85" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="K85" s="15"/>
-      <c r="L85" s="15"/>
-      <c r="M85" s="15"/>
-      <c r="N85" s="15"/>
+      <c r="K85" s="13"/>
+      <c r="L85" s="13"/>
+      <c r="M85" s="13"/>
+      <c r="N85" s="13"/>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
@@ -2528,13 +2528,13 @@
       <c r="I86" s="5">
         <v>0.13070000000000001</v>
       </c>
-      <c r="J86" s="15" t="s">
+      <c r="J86" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="K86" s="15"/>
-      <c r="L86" s="15"/>
-      <c r="M86" s="15"/>
-      <c r="N86" s="15"/>
+      <c r="K86" s="13"/>
+      <c r="L86" s="13"/>
+      <c r="M86" s="13"/>
+      <c r="N86" s="13"/>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
@@ -2564,13 +2564,13 @@
       <c r="I87" s="2">
         <v>0.1361</v>
       </c>
-      <c r="J87" s="15" t="s">
+      <c r="J87" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="K87" s="15"/>
-      <c r="L87" s="15"/>
-      <c r="M87" s="15"/>
-      <c r="N87" s="15"/>
+      <c r="K87" s="13"/>
+      <c r="L87" s="13"/>
+      <c r="M87" s="13"/>
+      <c r="N87" s="13"/>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
@@ -2600,13 +2600,13 @@
       <c r="I88" s="2">
         <v>0.13589999999999999</v>
       </c>
-      <c r="J88" s="15" t="s">
+      <c r="J88" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="K88" s="15"/>
-      <c r="L88" s="15"/>
-      <c r="M88" s="15"/>
-      <c r="N88" s="15"/>
+      <c r="K88" s="13"/>
+      <c r="L88" s="13"/>
+      <c r="M88" s="13"/>
+      <c r="N88" s="13"/>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
@@ -2822,13 +2822,13 @@
       <c r="G94" s="9"/>
       <c r="H94" s="9"/>
       <c r="I94" s="10"/>
-      <c r="J94" s="13" t="s">
+      <c r="J94" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="K94" s="13"/>
-      <c r="L94" s="13"/>
-      <c r="M94" s="13"/>
-      <c r="N94" s="13"/>
+      <c r="K94" s="15"/>
+      <c r="L94" s="15"/>
+      <c r="M94" s="15"/>
+      <c r="N94" s="15"/>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
@@ -3081,16 +3081,16 @@
       <c r="G101" s="9"/>
       <c r="H101" s="9"/>
       <c r="I101" s="9"/>
-      <c r="J101" s="13" t="s">
+      <c r="J101" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="K101" s="13"/>
-      <c r="L101" s="13"/>
-      <c r="M101" s="13"/>
-      <c r="N101" s="13"/>
-      <c r="O101" s="14"/>
-      <c r="P101" s="14"/>
-      <c r="Q101" s="14"/>
+      <c r="K101" s="15"/>
+      <c r="L101" s="15"/>
+      <c r="M101" s="15"/>
+      <c r="N101" s="15"/>
+      <c r="O101" s="16"/>
+      <c r="P101" s="16"/>
+      <c r="Q101" s="16"/>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
@@ -3110,6 +3110,15 @@
       </c>
       <c r="F102" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="G102" s="1">
+        <v>19.75</v>
+      </c>
+      <c r="H102" s="1">
+        <v>31.38</v>
+      </c>
+      <c r="I102" s="2">
+        <v>0.13800000000000001</v>
       </c>
       <c r="J102" s="11" t="s">
         <v>74</v>
@@ -3214,6 +3223,45 @@
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="J100:R100"/>
+    <mergeCell ref="J101:Q101"/>
+    <mergeCell ref="J102:Q102"/>
+    <mergeCell ref="J103:Q103"/>
+    <mergeCell ref="J95:N95"/>
+    <mergeCell ref="J99:Q99"/>
+    <mergeCell ref="J98:Q98"/>
+    <mergeCell ref="J96:N96"/>
+    <mergeCell ref="J97:Q97"/>
+    <mergeCell ref="J84:N84"/>
+    <mergeCell ref="J83:N83"/>
+    <mergeCell ref="J82:N82"/>
+    <mergeCell ref="J92:N92"/>
+    <mergeCell ref="J85:N85"/>
+    <mergeCell ref="J87:N87"/>
+    <mergeCell ref="J88:N88"/>
+    <mergeCell ref="J66:V66"/>
+    <mergeCell ref="J67:V67"/>
+    <mergeCell ref="J71:V71"/>
+    <mergeCell ref="J76:Q78"/>
+    <mergeCell ref="J94:N94"/>
+    <mergeCell ref="J81:N81"/>
+    <mergeCell ref="J80:N80"/>
+    <mergeCell ref="J79:N79"/>
+    <mergeCell ref="J89:N89"/>
+    <mergeCell ref="J75:M75"/>
+    <mergeCell ref="J74:M74"/>
+    <mergeCell ref="J73:M73"/>
+    <mergeCell ref="J86:N86"/>
+    <mergeCell ref="J90:N90"/>
+    <mergeCell ref="J91:N91"/>
+    <mergeCell ref="J93:N93"/>
+    <mergeCell ref="J52:O52"/>
+    <mergeCell ref="J9:V9"/>
+    <mergeCell ref="J10:V10"/>
+    <mergeCell ref="J18:V18"/>
+    <mergeCell ref="J11:V11"/>
+    <mergeCell ref="J19:V19"/>
+    <mergeCell ref="J12:V12"/>
     <mergeCell ref="J104:Q104"/>
     <mergeCell ref="J105:Q105"/>
     <mergeCell ref="J24:V24"/>
@@ -3230,45 +3278,6 @@
     <mergeCell ref="J49:O49"/>
     <mergeCell ref="J48:O48"/>
     <mergeCell ref="O62:S62"/>
-    <mergeCell ref="J52:O52"/>
-    <mergeCell ref="J9:V9"/>
-    <mergeCell ref="J10:V10"/>
-    <mergeCell ref="J18:V18"/>
-    <mergeCell ref="J11:V11"/>
-    <mergeCell ref="J19:V19"/>
-    <mergeCell ref="J12:V12"/>
-    <mergeCell ref="J66:V66"/>
-    <mergeCell ref="J67:V67"/>
-    <mergeCell ref="J71:V71"/>
-    <mergeCell ref="J76:Q78"/>
-    <mergeCell ref="J94:N94"/>
-    <mergeCell ref="J81:N81"/>
-    <mergeCell ref="J80:N80"/>
-    <mergeCell ref="J79:N79"/>
-    <mergeCell ref="J89:N89"/>
-    <mergeCell ref="J75:M75"/>
-    <mergeCell ref="J74:M74"/>
-    <mergeCell ref="J73:M73"/>
-    <mergeCell ref="J86:N86"/>
-    <mergeCell ref="J90:N90"/>
-    <mergeCell ref="J91:N91"/>
-    <mergeCell ref="J93:N93"/>
-    <mergeCell ref="J84:N84"/>
-    <mergeCell ref="J83:N83"/>
-    <mergeCell ref="J82:N82"/>
-    <mergeCell ref="J92:N92"/>
-    <mergeCell ref="J85:N85"/>
-    <mergeCell ref="J87:N87"/>
-    <mergeCell ref="J88:N88"/>
-    <mergeCell ref="J100:R100"/>
-    <mergeCell ref="J101:Q101"/>
-    <mergeCell ref="J102:Q102"/>
-    <mergeCell ref="J103:Q103"/>
-    <mergeCell ref="J95:N95"/>
-    <mergeCell ref="J99:Q99"/>
-    <mergeCell ref="J98:Q98"/>
-    <mergeCell ref="J96:N96"/>
-    <mergeCell ref="J97:Q97"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5093597D-B2DD-4A88-BCD7-1668342A35BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344A94C5-2FE2-4241-8ADE-2B87FC6DDADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7140" yWindow="1620" windowWidth="22665" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -453,17 +453,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -748,7 +748,7 @@
   <dimension ref="A3:V105"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="I107" sqref="I107"/>
+      <selection activeCell="J105" sqref="J105:Q105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1462,12 +1462,12 @@
       <c r="I44" s="2">
         <v>0.1235</v>
       </c>
-      <c r="J44" s="13" t="s">
+      <c r="J44" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
@@ -1532,12 +1532,12 @@
       <c r="I46" s="2">
         <v>0.1249</v>
       </c>
-      <c r="J46" s="13" t="s">
+      <c r="J46" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="K46" s="13"/>
-      <c r="L46" s="13"/>
-      <c r="M46" s="13"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="15"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
@@ -1873,13 +1873,13 @@
       <c r="L62" s="2">
         <v>0.14990000000000001</v>
       </c>
-      <c r="O62" s="14" t="s">
+      <c r="O62" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="P62" s="14"/>
-      <c r="Q62" s="14"/>
-      <c r="R62" s="14"/>
-      <c r="S62" s="14"/>
+      <c r="P62" s="16"/>
+      <c r="Q62" s="16"/>
+      <c r="R62" s="16"/>
+      <c r="S62" s="16"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
@@ -2121,12 +2121,12 @@
       <c r="I73" s="5">
         <v>0.13669999999999999</v>
       </c>
-      <c r="J73" s="13" t="s">
+      <c r="J73" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K73" s="13"/>
-      <c r="L73" s="13"/>
-      <c r="M73" s="13"/>
+      <c r="K73" s="15"/>
+      <c r="L73" s="15"/>
+      <c r="M73" s="15"/>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
@@ -2147,12 +2147,12 @@
       <c r="F74" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J74" s="13" t="s">
+      <c r="J74" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="K74" s="13"/>
-      <c r="L74" s="13"/>
-      <c r="M74" s="13"/>
+      <c r="K74" s="15"/>
+      <c r="L74" s="15"/>
+      <c r="M74" s="15"/>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
@@ -2182,12 +2182,12 @@
       <c r="I75" s="2">
         <v>0.13780000000000001</v>
       </c>
-      <c r="J75" s="13" t="s">
+      <c r="J75" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="K75" s="13"/>
-      <c r="L75" s="13"/>
-      <c r="M75" s="13"/>
+      <c r="K75" s="15"/>
+      <c r="L75" s="15"/>
+      <c r="M75" s="15"/>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
@@ -2217,36 +2217,36 @@
       <c r="I76" s="5">
         <v>0.1348</v>
       </c>
-      <c r="J76" s="13" t="s">
+      <c r="J76" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="K76" s="13"/>
-      <c r="L76" s="13"/>
-      <c r="M76" s="13"/>
-      <c r="N76" s="13"/>
-      <c r="O76" s="13"/>
-      <c r="P76" s="13"/>
-      <c r="Q76" s="13"/>
+      <c r="K76" s="15"/>
+      <c r="L76" s="15"/>
+      <c r="M76" s="15"/>
+      <c r="N76" s="15"/>
+      <c r="O76" s="15"/>
+      <c r="P76" s="15"/>
+      <c r="Q76" s="15"/>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="J77" s="13"/>
-      <c r="K77" s="13"/>
-      <c r="L77" s="13"/>
-      <c r="M77" s="13"/>
-      <c r="N77" s="13"/>
-      <c r="O77" s="13"/>
-      <c r="P77" s="13"/>
-      <c r="Q77" s="13"/>
+      <c r="J77" s="15"/>
+      <c r="K77" s="15"/>
+      <c r="L77" s="15"/>
+      <c r="M77" s="15"/>
+      <c r="N77" s="15"/>
+      <c r="O77" s="15"/>
+      <c r="P77" s="15"/>
+      <c r="Q77" s="15"/>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="J78" s="13"/>
-      <c r="K78" s="13"/>
-      <c r="L78" s="13"/>
-      <c r="M78" s="13"/>
-      <c r="N78" s="13"/>
-      <c r="O78" s="13"/>
-      <c r="P78" s="13"/>
-      <c r="Q78" s="13"/>
+      <c r="J78" s="15"/>
+      <c r="K78" s="15"/>
+      <c r="L78" s="15"/>
+      <c r="M78" s="15"/>
+      <c r="N78" s="15"/>
+      <c r="O78" s="15"/>
+      <c r="P78" s="15"/>
+      <c r="Q78" s="15"/>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
@@ -2492,13 +2492,13 @@
       <c r="I85" s="2">
         <v>0.1361</v>
       </c>
-      <c r="J85" s="13" t="s">
+      <c r="J85" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="K85" s="13"/>
-      <c r="L85" s="13"/>
-      <c r="M85" s="13"/>
-      <c r="N85" s="13"/>
+      <c r="K85" s="15"/>
+      <c r="L85" s="15"/>
+      <c r="M85" s="15"/>
+      <c r="N85" s="15"/>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
@@ -2528,13 +2528,13 @@
       <c r="I86" s="5">
         <v>0.13070000000000001</v>
       </c>
-      <c r="J86" s="13" t="s">
+      <c r="J86" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="K86" s="13"/>
-      <c r="L86" s="13"/>
-      <c r="M86" s="13"/>
-      <c r="N86" s="13"/>
+      <c r="K86" s="15"/>
+      <c r="L86" s="15"/>
+      <c r="M86" s="15"/>
+      <c r="N86" s="15"/>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
@@ -2564,13 +2564,13 @@
       <c r="I87" s="2">
         <v>0.1361</v>
       </c>
-      <c r="J87" s="13" t="s">
+      <c r="J87" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="K87" s="13"/>
-      <c r="L87" s="13"/>
-      <c r="M87" s="13"/>
-      <c r="N87" s="13"/>
+      <c r="K87" s="15"/>
+      <c r="L87" s="15"/>
+      <c r="M87" s="15"/>
+      <c r="N87" s="15"/>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
@@ -2600,13 +2600,13 @@
       <c r="I88" s="2">
         <v>0.13589999999999999</v>
       </c>
-      <c r="J88" s="13" t="s">
+      <c r="J88" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="K88" s="13"/>
-      <c r="L88" s="13"/>
-      <c r="M88" s="13"/>
-      <c r="N88" s="13"/>
+      <c r="K88" s="15"/>
+      <c r="L88" s="15"/>
+      <c r="M88" s="15"/>
+      <c r="N88" s="15"/>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
@@ -2822,13 +2822,13 @@
       <c r="G94" s="9"/>
       <c r="H94" s="9"/>
       <c r="I94" s="10"/>
-      <c r="J94" s="15" t="s">
+      <c r="J94" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="K94" s="15"/>
-      <c r="L94" s="15"/>
-      <c r="M94" s="15"/>
-      <c r="N94" s="15"/>
+      <c r="K94" s="13"/>
+      <c r="L94" s="13"/>
+      <c r="M94" s="13"/>
+      <c r="N94" s="13"/>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
@@ -3081,16 +3081,16 @@
       <c r="G101" s="9"/>
       <c r="H101" s="9"/>
       <c r="I101" s="9"/>
-      <c r="J101" s="15" t="s">
+      <c r="J101" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="K101" s="15"/>
-      <c r="L101" s="15"/>
-      <c r="M101" s="15"/>
-      <c r="N101" s="15"/>
-      <c r="O101" s="16"/>
-      <c r="P101" s="16"/>
-      <c r="Q101" s="16"/>
+      <c r="K101" s="13"/>
+      <c r="L101" s="13"/>
+      <c r="M101" s="13"/>
+      <c r="N101" s="13"/>
+      <c r="O101" s="14"/>
+      <c r="P101" s="14"/>
+      <c r="Q101" s="14"/>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
@@ -3180,6 +3180,15 @@
       <c r="F104" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="G104" s="1">
+        <v>19.36</v>
+      </c>
+      <c r="H104" s="1">
+        <v>30.66</v>
+      </c>
+      <c r="I104" s="2">
+        <v>0.13650000000000001</v>
+      </c>
       <c r="J104" s="11" t="s">
         <v>76</v>
       </c>
@@ -3223,22 +3232,29 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="J100:R100"/>
-    <mergeCell ref="J101:Q101"/>
-    <mergeCell ref="J102:Q102"/>
-    <mergeCell ref="J103:Q103"/>
-    <mergeCell ref="J95:N95"/>
-    <mergeCell ref="J99:Q99"/>
-    <mergeCell ref="J98:Q98"/>
-    <mergeCell ref="J96:N96"/>
-    <mergeCell ref="J97:Q97"/>
-    <mergeCell ref="J84:N84"/>
-    <mergeCell ref="J83:N83"/>
-    <mergeCell ref="J82:N82"/>
-    <mergeCell ref="J92:N92"/>
-    <mergeCell ref="J85:N85"/>
-    <mergeCell ref="J87:N87"/>
-    <mergeCell ref="J88:N88"/>
+    <mergeCell ref="J104:Q104"/>
+    <mergeCell ref="J105:Q105"/>
+    <mergeCell ref="J24:V24"/>
+    <mergeCell ref="J25:V25"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="J38:O38"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="J65:V65"/>
+    <mergeCell ref="J47:O47"/>
+    <mergeCell ref="J51:O51"/>
+    <mergeCell ref="J50:O50"/>
+    <mergeCell ref="J49:O49"/>
+    <mergeCell ref="J48:O48"/>
+    <mergeCell ref="O62:S62"/>
+    <mergeCell ref="J52:O52"/>
+    <mergeCell ref="J9:V9"/>
+    <mergeCell ref="J10:V10"/>
+    <mergeCell ref="J18:V18"/>
+    <mergeCell ref="J11:V11"/>
+    <mergeCell ref="J19:V19"/>
+    <mergeCell ref="J12:V12"/>
     <mergeCell ref="J66:V66"/>
     <mergeCell ref="J67:V67"/>
     <mergeCell ref="J71:V71"/>
@@ -3255,29 +3271,22 @@
     <mergeCell ref="J90:N90"/>
     <mergeCell ref="J91:N91"/>
     <mergeCell ref="J93:N93"/>
-    <mergeCell ref="J52:O52"/>
-    <mergeCell ref="J9:V9"/>
-    <mergeCell ref="J10:V10"/>
-    <mergeCell ref="J18:V18"/>
-    <mergeCell ref="J11:V11"/>
-    <mergeCell ref="J19:V19"/>
-    <mergeCell ref="J12:V12"/>
-    <mergeCell ref="J104:Q104"/>
-    <mergeCell ref="J105:Q105"/>
-    <mergeCell ref="J24:V24"/>
-    <mergeCell ref="J25:V25"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="J38:O38"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="J44:M44"/>
-    <mergeCell ref="J65:V65"/>
-    <mergeCell ref="J47:O47"/>
-    <mergeCell ref="J51:O51"/>
-    <mergeCell ref="J50:O50"/>
-    <mergeCell ref="J49:O49"/>
-    <mergeCell ref="J48:O48"/>
-    <mergeCell ref="O62:S62"/>
+    <mergeCell ref="J84:N84"/>
+    <mergeCell ref="J83:N83"/>
+    <mergeCell ref="J82:N82"/>
+    <mergeCell ref="J92:N92"/>
+    <mergeCell ref="J85:N85"/>
+    <mergeCell ref="J87:N87"/>
+    <mergeCell ref="J88:N88"/>
+    <mergeCell ref="J100:R100"/>
+    <mergeCell ref="J101:Q101"/>
+    <mergeCell ref="J102:Q102"/>
+    <mergeCell ref="J103:Q103"/>
+    <mergeCell ref="J95:N95"/>
+    <mergeCell ref="J99:Q99"/>
+    <mergeCell ref="J98:Q98"/>
+    <mergeCell ref="J96:N96"/>
+    <mergeCell ref="J97:Q97"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344A94C5-2FE2-4241-8ADE-2B87FC6DDADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745C7474-61F6-418C-BA4D-2836601E0386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7140" yWindow="1620" windowWidth="22665" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="79">
   <si>
     <t>ST-SSL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -335,6 +335,10 @@
   </si>
   <si>
     <t>28-&gt;40 82权重，mask=0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13-&gt;42 修改为DDGCRN的最后一步状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -453,17 +457,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -745,10 +749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:V105"/>
+  <dimension ref="A3:V106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="J105" sqref="J105:Q105"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="J106" sqref="J106:Q106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1462,12 +1466,12 @@
       <c r="I44" s="2">
         <v>0.1235</v>
       </c>
-      <c r="J44" s="15" t="s">
+      <c r="J44" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="K44" s="15"/>
-      <c r="L44" s="15"/>
-      <c r="M44" s="15"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
@@ -1532,12 +1536,12 @@
       <c r="I46" s="2">
         <v>0.1249</v>
       </c>
-      <c r="J46" s="15" t="s">
+      <c r="J46" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="K46" s="15"/>
-      <c r="L46" s="15"/>
-      <c r="M46" s="15"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="13"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
@@ -1873,13 +1877,13 @@
       <c r="L62" s="2">
         <v>0.14990000000000001</v>
       </c>
-      <c r="O62" s="16" t="s">
+      <c r="O62" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="P62" s="16"/>
-      <c r="Q62" s="16"/>
-      <c r="R62" s="16"/>
-      <c r="S62" s="16"/>
+      <c r="P62" s="14"/>
+      <c r="Q62" s="14"/>
+      <c r="R62" s="14"/>
+      <c r="S62" s="14"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
@@ -2121,12 +2125,12 @@
       <c r="I73" s="5">
         <v>0.13669999999999999</v>
       </c>
-      <c r="J73" s="15" t="s">
+      <c r="J73" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="K73" s="15"/>
-      <c r="L73" s="15"/>
-      <c r="M73" s="15"/>
+      <c r="K73" s="13"/>
+      <c r="L73" s="13"/>
+      <c r="M73" s="13"/>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
@@ -2147,12 +2151,12 @@
       <c r="F74" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J74" s="15" t="s">
+      <c r="J74" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="K74" s="15"/>
-      <c r="L74" s="15"/>
-      <c r="M74" s="15"/>
+      <c r="K74" s="13"/>
+      <c r="L74" s="13"/>
+      <c r="M74" s="13"/>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
@@ -2182,12 +2186,12 @@
       <c r="I75" s="2">
         <v>0.13780000000000001</v>
       </c>
-      <c r="J75" s="15" t="s">
+      <c r="J75" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="K75" s="15"/>
-      <c r="L75" s="15"/>
-      <c r="M75" s="15"/>
+      <c r="K75" s="13"/>
+      <c r="L75" s="13"/>
+      <c r="M75" s="13"/>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
@@ -2217,36 +2221,36 @@
       <c r="I76" s="5">
         <v>0.1348</v>
       </c>
-      <c r="J76" s="15" t="s">
+      <c r="J76" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="K76" s="15"/>
-      <c r="L76" s="15"/>
-      <c r="M76" s="15"/>
-      <c r="N76" s="15"/>
-      <c r="O76" s="15"/>
-      <c r="P76" s="15"/>
-      <c r="Q76" s="15"/>
+      <c r="K76" s="13"/>
+      <c r="L76" s="13"/>
+      <c r="M76" s="13"/>
+      <c r="N76" s="13"/>
+      <c r="O76" s="13"/>
+      <c r="P76" s="13"/>
+      <c r="Q76" s="13"/>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="J77" s="15"/>
-      <c r="K77" s="15"/>
-      <c r="L77" s="15"/>
-      <c r="M77" s="15"/>
-      <c r="N77" s="15"/>
-      <c r="O77" s="15"/>
-      <c r="P77" s="15"/>
-      <c r="Q77" s="15"/>
+      <c r="J77" s="13"/>
+      <c r="K77" s="13"/>
+      <c r="L77" s="13"/>
+      <c r="M77" s="13"/>
+      <c r="N77" s="13"/>
+      <c r="O77" s="13"/>
+      <c r="P77" s="13"/>
+      <c r="Q77" s="13"/>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="J78" s="15"/>
-      <c r="K78" s="15"/>
-      <c r="L78" s="15"/>
-      <c r="M78" s="15"/>
-      <c r="N78" s="15"/>
-      <c r="O78" s="15"/>
-      <c r="P78" s="15"/>
-      <c r="Q78" s="15"/>
+      <c r="J78" s="13"/>
+      <c r="K78" s="13"/>
+      <c r="L78" s="13"/>
+      <c r="M78" s="13"/>
+      <c r="N78" s="13"/>
+      <c r="O78" s="13"/>
+      <c r="P78" s="13"/>
+      <c r="Q78" s="13"/>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
@@ -2492,13 +2496,13 @@
       <c r="I85" s="2">
         <v>0.1361</v>
       </c>
-      <c r="J85" s="15" t="s">
+      <c r="J85" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="K85" s="15"/>
-      <c r="L85" s="15"/>
-      <c r="M85" s="15"/>
-      <c r="N85" s="15"/>
+      <c r="K85" s="13"/>
+      <c r="L85" s="13"/>
+      <c r="M85" s="13"/>
+      <c r="N85" s="13"/>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
@@ -2528,13 +2532,13 @@
       <c r="I86" s="5">
         <v>0.13070000000000001</v>
       </c>
-      <c r="J86" s="15" t="s">
+      <c r="J86" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="K86" s="15"/>
-      <c r="L86" s="15"/>
-      <c r="M86" s="15"/>
-      <c r="N86" s="15"/>
+      <c r="K86" s="13"/>
+      <c r="L86" s="13"/>
+      <c r="M86" s="13"/>
+      <c r="N86" s="13"/>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
@@ -2564,13 +2568,13 @@
       <c r="I87" s="2">
         <v>0.1361</v>
       </c>
-      <c r="J87" s="15" t="s">
+      <c r="J87" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="K87" s="15"/>
-      <c r="L87" s="15"/>
-      <c r="M87" s="15"/>
-      <c r="N87" s="15"/>
+      <c r="K87" s="13"/>
+      <c r="L87" s="13"/>
+      <c r="M87" s="13"/>
+      <c r="N87" s="13"/>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
@@ -2600,13 +2604,13 @@
       <c r="I88" s="2">
         <v>0.13589999999999999</v>
       </c>
-      <c r="J88" s="15" t="s">
+      <c r="J88" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="K88" s="15"/>
-      <c r="L88" s="15"/>
-      <c r="M88" s="15"/>
-      <c r="N88" s="15"/>
+      <c r="K88" s="13"/>
+      <c r="L88" s="13"/>
+      <c r="M88" s="13"/>
+      <c r="N88" s="13"/>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
@@ -2822,13 +2826,13 @@
       <c r="G94" s="9"/>
       <c r="H94" s="9"/>
       <c r="I94" s="10"/>
-      <c r="J94" s="13" t="s">
+      <c r="J94" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="K94" s="13"/>
-      <c r="L94" s="13"/>
-      <c r="M94" s="13"/>
-      <c r="N94" s="13"/>
+      <c r="K94" s="15"/>
+      <c r="L94" s="15"/>
+      <c r="M94" s="15"/>
+      <c r="N94" s="15"/>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
@@ -3081,16 +3085,16 @@
       <c r="G101" s="9"/>
       <c r="H101" s="9"/>
       <c r="I101" s="9"/>
-      <c r="J101" s="13" t="s">
+      <c r="J101" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="K101" s="13"/>
-      <c r="L101" s="13"/>
-      <c r="M101" s="13"/>
-      <c r="N101" s="13"/>
-      <c r="O101" s="14"/>
-      <c r="P101" s="14"/>
-      <c r="Q101" s="14"/>
+      <c r="K101" s="15"/>
+      <c r="L101" s="15"/>
+      <c r="M101" s="15"/>
+      <c r="N101" s="15"/>
+      <c r="O101" s="16"/>
+      <c r="P101" s="16"/>
+      <c r="Q101" s="16"/>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
@@ -3230,8 +3234,78 @@
       <c r="P105" s="12"/>
       <c r="Q105" s="12"/>
     </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>42</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J106" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="K106" s="11"/>
+      <c r="L106" s="11"/>
+      <c r="M106" s="11"/>
+      <c r="N106" s="11"/>
+      <c r="O106" s="12"/>
+      <c r="P106" s="12"/>
+      <c r="Q106" s="12"/>
+    </row>
   </sheetData>
-  <mergeCells count="55">
+  <mergeCells count="56">
+    <mergeCell ref="J106:Q106"/>
+    <mergeCell ref="J100:R100"/>
+    <mergeCell ref="J101:Q101"/>
+    <mergeCell ref="J102:Q102"/>
+    <mergeCell ref="J103:Q103"/>
+    <mergeCell ref="J95:N95"/>
+    <mergeCell ref="J99:Q99"/>
+    <mergeCell ref="J98:Q98"/>
+    <mergeCell ref="J96:N96"/>
+    <mergeCell ref="J97:Q97"/>
+    <mergeCell ref="J84:N84"/>
+    <mergeCell ref="J83:N83"/>
+    <mergeCell ref="J82:N82"/>
+    <mergeCell ref="J92:N92"/>
+    <mergeCell ref="J85:N85"/>
+    <mergeCell ref="J87:N87"/>
+    <mergeCell ref="J88:N88"/>
+    <mergeCell ref="J66:V66"/>
+    <mergeCell ref="J67:V67"/>
+    <mergeCell ref="J71:V71"/>
+    <mergeCell ref="J76:Q78"/>
+    <mergeCell ref="J94:N94"/>
+    <mergeCell ref="J81:N81"/>
+    <mergeCell ref="J80:N80"/>
+    <mergeCell ref="J79:N79"/>
+    <mergeCell ref="J89:N89"/>
+    <mergeCell ref="J75:M75"/>
+    <mergeCell ref="J74:M74"/>
+    <mergeCell ref="J73:M73"/>
+    <mergeCell ref="J86:N86"/>
+    <mergeCell ref="J90:N90"/>
+    <mergeCell ref="J91:N91"/>
+    <mergeCell ref="J93:N93"/>
+    <mergeCell ref="J52:O52"/>
+    <mergeCell ref="J9:V9"/>
+    <mergeCell ref="J10:V10"/>
+    <mergeCell ref="J18:V18"/>
+    <mergeCell ref="J11:V11"/>
+    <mergeCell ref="J19:V19"/>
+    <mergeCell ref="J12:V12"/>
     <mergeCell ref="J104:Q104"/>
     <mergeCell ref="J105:Q105"/>
     <mergeCell ref="J24:V24"/>
@@ -3248,45 +3322,6 @@
     <mergeCell ref="J49:O49"/>
     <mergeCell ref="J48:O48"/>
     <mergeCell ref="O62:S62"/>
-    <mergeCell ref="J52:O52"/>
-    <mergeCell ref="J9:V9"/>
-    <mergeCell ref="J10:V10"/>
-    <mergeCell ref="J18:V18"/>
-    <mergeCell ref="J11:V11"/>
-    <mergeCell ref="J19:V19"/>
-    <mergeCell ref="J12:V12"/>
-    <mergeCell ref="J66:V66"/>
-    <mergeCell ref="J67:V67"/>
-    <mergeCell ref="J71:V71"/>
-    <mergeCell ref="J76:Q78"/>
-    <mergeCell ref="J94:N94"/>
-    <mergeCell ref="J81:N81"/>
-    <mergeCell ref="J80:N80"/>
-    <mergeCell ref="J79:N79"/>
-    <mergeCell ref="J89:N89"/>
-    <mergeCell ref="J75:M75"/>
-    <mergeCell ref="J74:M74"/>
-    <mergeCell ref="J73:M73"/>
-    <mergeCell ref="J86:N86"/>
-    <mergeCell ref="J90:N90"/>
-    <mergeCell ref="J91:N91"/>
-    <mergeCell ref="J93:N93"/>
-    <mergeCell ref="J84:N84"/>
-    <mergeCell ref="J83:N83"/>
-    <mergeCell ref="J82:N82"/>
-    <mergeCell ref="J92:N92"/>
-    <mergeCell ref="J85:N85"/>
-    <mergeCell ref="J87:N87"/>
-    <mergeCell ref="J88:N88"/>
-    <mergeCell ref="J100:R100"/>
-    <mergeCell ref="J101:Q101"/>
-    <mergeCell ref="J102:Q102"/>
-    <mergeCell ref="J103:Q103"/>
-    <mergeCell ref="J95:N95"/>
-    <mergeCell ref="J99:Q99"/>
-    <mergeCell ref="J98:Q98"/>
-    <mergeCell ref="J96:N96"/>
-    <mergeCell ref="J97:Q97"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745C7474-61F6-418C-BA4D-2836601E0386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225F39A2-094D-4AF6-B5A4-E08D7FFFCDC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7140" yWindow="1620" windowWidth="22665" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -457,17 +457,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -752,7 +752,7 @@
   <dimension ref="A3:V106"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="J106" sqref="J106:Q106"/>
+      <selection activeCell="I105" sqref="I105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1466,12 +1466,12 @@
       <c r="I44" s="2">
         <v>0.1235</v>
       </c>
-      <c r="J44" s="13" t="s">
+      <c r="J44" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
@@ -1536,12 +1536,12 @@
       <c r="I46" s="2">
         <v>0.1249</v>
       </c>
-      <c r="J46" s="13" t="s">
+      <c r="J46" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="K46" s="13"/>
-      <c r="L46" s="13"/>
-      <c r="M46" s="13"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="15"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
@@ -1877,13 +1877,13 @@
       <c r="L62" s="2">
         <v>0.14990000000000001</v>
       </c>
-      <c r="O62" s="14" t="s">
+      <c r="O62" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="P62" s="14"/>
-      <c r="Q62" s="14"/>
-      <c r="R62" s="14"/>
-      <c r="S62" s="14"/>
+      <c r="P62" s="16"/>
+      <c r="Q62" s="16"/>
+      <c r="R62" s="16"/>
+      <c r="S62" s="16"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
@@ -2125,12 +2125,12 @@
       <c r="I73" s="5">
         <v>0.13669999999999999</v>
       </c>
-      <c r="J73" s="13" t="s">
+      <c r="J73" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K73" s="13"/>
-      <c r="L73" s="13"/>
-      <c r="M73" s="13"/>
+      <c r="K73" s="15"/>
+      <c r="L73" s="15"/>
+      <c r="M73" s="15"/>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
@@ -2151,12 +2151,12 @@
       <c r="F74" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J74" s="13" t="s">
+      <c r="J74" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="K74" s="13"/>
-      <c r="L74" s="13"/>
-      <c r="M74" s="13"/>
+      <c r="K74" s="15"/>
+      <c r="L74" s="15"/>
+      <c r="M74" s="15"/>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
@@ -2186,12 +2186,12 @@
       <c r="I75" s="2">
         <v>0.13780000000000001</v>
       </c>
-      <c r="J75" s="13" t="s">
+      <c r="J75" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="K75" s="13"/>
-      <c r="L75" s="13"/>
-      <c r="M75" s="13"/>
+      <c r="K75" s="15"/>
+      <c r="L75" s="15"/>
+      <c r="M75" s="15"/>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
@@ -2221,36 +2221,36 @@
       <c r="I76" s="5">
         <v>0.1348</v>
       </c>
-      <c r="J76" s="13" t="s">
+      <c r="J76" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="K76" s="13"/>
-      <c r="L76" s="13"/>
-      <c r="M76" s="13"/>
-      <c r="N76" s="13"/>
-      <c r="O76" s="13"/>
-      <c r="P76" s="13"/>
-      <c r="Q76" s="13"/>
+      <c r="K76" s="15"/>
+      <c r="L76" s="15"/>
+      <c r="M76" s="15"/>
+      <c r="N76" s="15"/>
+      <c r="O76" s="15"/>
+      <c r="P76" s="15"/>
+      <c r="Q76" s="15"/>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="J77" s="13"/>
-      <c r="K77" s="13"/>
-      <c r="L77" s="13"/>
-      <c r="M77" s="13"/>
-      <c r="N77" s="13"/>
-      <c r="O77" s="13"/>
-      <c r="P77" s="13"/>
-      <c r="Q77" s="13"/>
+      <c r="J77" s="15"/>
+      <c r="K77" s="15"/>
+      <c r="L77" s="15"/>
+      <c r="M77" s="15"/>
+      <c r="N77" s="15"/>
+      <c r="O77" s="15"/>
+      <c r="P77" s="15"/>
+      <c r="Q77" s="15"/>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="J78" s="13"/>
-      <c r="K78" s="13"/>
-      <c r="L78" s="13"/>
-      <c r="M78" s="13"/>
-      <c r="N78" s="13"/>
-      <c r="O78" s="13"/>
-      <c r="P78" s="13"/>
-      <c r="Q78" s="13"/>
+      <c r="J78" s="15"/>
+      <c r="K78" s="15"/>
+      <c r="L78" s="15"/>
+      <c r="M78" s="15"/>
+      <c r="N78" s="15"/>
+      <c r="O78" s="15"/>
+      <c r="P78" s="15"/>
+      <c r="Q78" s="15"/>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
@@ -2496,13 +2496,13 @@
       <c r="I85" s="2">
         <v>0.1361</v>
       </c>
-      <c r="J85" s="13" t="s">
+      <c r="J85" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="K85" s="13"/>
-      <c r="L85" s="13"/>
-      <c r="M85" s="13"/>
-      <c r="N85" s="13"/>
+      <c r="K85" s="15"/>
+      <c r="L85" s="15"/>
+      <c r="M85" s="15"/>
+      <c r="N85" s="15"/>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
@@ -2532,13 +2532,13 @@
       <c r="I86" s="5">
         <v>0.13070000000000001</v>
       </c>
-      <c r="J86" s="13" t="s">
+      <c r="J86" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="K86" s="13"/>
-      <c r="L86" s="13"/>
-      <c r="M86" s="13"/>
-      <c r="N86" s="13"/>
+      <c r="K86" s="15"/>
+      <c r="L86" s="15"/>
+      <c r="M86" s="15"/>
+      <c r="N86" s="15"/>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
@@ -2568,13 +2568,13 @@
       <c r="I87" s="2">
         <v>0.1361</v>
       </c>
-      <c r="J87" s="13" t="s">
+      <c r="J87" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="K87" s="13"/>
-      <c r="L87" s="13"/>
-      <c r="M87" s="13"/>
-      <c r="N87" s="13"/>
+      <c r="K87" s="15"/>
+      <c r="L87" s="15"/>
+      <c r="M87" s="15"/>
+      <c r="N87" s="15"/>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
@@ -2604,13 +2604,13 @@
       <c r="I88" s="2">
         <v>0.13589999999999999</v>
       </c>
-      <c r="J88" s="13" t="s">
+      <c r="J88" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="K88" s="13"/>
-      <c r="L88" s="13"/>
-      <c r="M88" s="13"/>
-      <c r="N88" s="13"/>
+      <c r="K88" s="15"/>
+      <c r="L88" s="15"/>
+      <c r="M88" s="15"/>
+      <c r="N88" s="15"/>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
@@ -2826,13 +2826,13 @@
       <c r="G94" s="9"/>
       <c r="H94" s="9"/>
       <c r="I94" s="10"/>
-      <c r="J94" s="15" t="s">
+      <c r="J94" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="K94" s="15"/>
-      <c r="L94" s="15"/>
-      <c r="M94" s="15"/>
-      <c r="N94" s="15"/>
+      <c r="K94" s="13"/>
+      <c r="L94" s="13"/>
+      <c r="M94" s="13"/>
+      <c r="N94" s="13"/>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
@@ -3085,16 +3085,16 @@
       <c r="G101" s="9"/>
       <c r="H101" s="9"/>
       <c r="I101" s="9"/>
-      <c r="J101" s="15" t="s">
+      <c r="J101" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="K101" s="15"/>
-      <c r="L101" s="15"/>
-      <c r="M101" s="15"/>
-      <c r="N101" s="15"/>
-      <c r="O101" s="16"/>
-      <c r="P101" s="16"/>
-      <c r="Q101" s="16"/>
+      <c r="K101" s="13"/>
+      <c r="L101" s="13"/>
+      <c r="M101" s="13"/>
+      <c r="N101" s="13"/>
+      <c r="O101" s="14"/>
+      <c r="P101" s="14"/>
+      <c r="Q101" s="14"/>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
@@ -3223,6 +3223,15 @@
       <c r="F105" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="G105" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="H105" s="1">
+        <v>30.8</v>
+      </c>
+      <c r="I105" s="2">
+        <v>0.13239999999999999</v>
+      </c>
       <c r="J105" s="11" t="s">
         <v>77</v>
       </c>
@@ -3266,23 +3275,27 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="J106:Q106"/>
-    <mergeCell ref="J100:R100"/>
-    <mergeCell ref="J101:Q101"/>
-    <mergeCell ref="J102:Q102"/>
-    <mergeCell ref="J103:Q103"/>
-    <mergeCell ref="J95:N95"/>
-    <mergeCell ref="J99:Q99"/>
-    <mergeCell ref="J98:Q98"/>
-    <mergeCell ref="J96:N96"/>
-    <mergeCell ref="J97:Q97"/>
-    <mergeCell ref="J84:N84"/>
-    <mergeCell ref="J83:N83"/>
-    <mergeCell ref="J82:N82"/>
-    <mergeCell ref="J92:N92"/>
-    <mergeCell ref="J85:N85"/>
-    <mergeCell ref="J87:N87"/>
-    <mergeCell ref="J88:N88"/>
+    <mergeCell ref="J65:V65"/>
+    <mergeCell ref="J47:O47"/>
+    <mergeCell ref="J51:O51"/>
+    <mergeCell ref="J50:O50"/>
+    <mergeCell ref="J49:O49"/>
+    <mergeCell ref="J48:O48"/>
+    <mergeCell ref="O62:S62"/>
+    <mergeCell ref="J52:O52"/>
+    <mergeCell ref="J9:V9"/>
+    <mergeCell ref="J10:V10"/>
+    <mergeCell ref="J18:V18"/>
+    <mergeCell ref="J11:V11"/>
+    <mergeCell ref="J19:V19"/>
+    <mergeCell ref="J12:V12"/>
+    <mergeCell ref="J24:V24"/>
+    <mergeCell ref="J25:V25"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="J38:O38"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="J44:M44"/>
     <mergeCell ref="J66:V66"/>
     <mergeCell ref="J67:V67"/>
     <mergeCell ref="J71:V71"/>
@@ -3299,29 +3312,25 @@
     <mergeCell ref="J90:N90"/>
     <mergeCell ref="J91:N91"/>
     <mergeCell ref="J93:N93"/>
-    <mergeCell ref="J52:O52"/>
-    <mergeCell ref="J9:V9"/>
-    <mergeCell ref="J10:V10"/>
-    <mergeCell ref="J18:V18"/>
-    <mergeCell ref="J11:V11"/>
-    <mergeCell ref="J19:V19"/>
-    <mergeCell ref="J12:V12"/>
+    <mergeCell ref="J84:N84"/>
+    <mergeCell ref="J83:N83"/>
+    <mergeCell ref="J82:N82"/>
+    <mergeCell ref="J92:N92"/>
+    <mergeCell ref="J85:N85"/>
+    <mergeCell ref="J87:N87"/>
+    <mergeCell ref="J88:N88"/>
+    <mergeCell ref="J95:N95"/>
+    <mergeCell ref="J99:Q99"/>
+    <mergeCell ref="J98:Q98"/>
+    <mergeCell ref="J96:N96"/>
+    <mergeCell ref="J97:Q97"/>
+    <mergeCell ref="J106:Q106"/>
+    <mergeCell ref="J100:R100"/>
+    <mergeCell ref="J101:Q101"/>
+    <mergeCell ref="J102:Q102"/>
+    <mergeCell ref="J103:Q103"/>
     <mergeCell ref="J104:Q104"/>
     <mergeCell ref="J105:Q105"/>
-    <mergeCell ref="J24:V24"/>
-    <mergeCell ref="J25:V25"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="J38:O38"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="J44:M44"/>
-    <mergeCell ref="J65:V65"/>
-    <mergeCell ref="J47:O47"/>
-    <mergeCell ref="J51:O51"/>
-    <mergeCell ref="J50:O50"/>
-    <mergeCell ref="J49:O49"/>
-    <mergeCell ref="J48:O48"/>
-    <mergeCell ref="O62:S62"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225F39A2-094D-4AF6-B5A4-E08D7FFFCDC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A151C2-6231-4397-A23E-9F5737ABB092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7140" yWindow="1620" windowWidth="22665" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3840" yWindow="1380" windowWidth="22665" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="80">
   <si>
     <t>ST-SSL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -339,6 +339,10 @@
   </si>
   <si>
     <t>13-&gt;42 修改为DDGCRN的最后一步状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13-&gt;42 添加原始的残差链接</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -454,6 +458,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -462,12 +472,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -749,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:V106"/>
+  <dimension ref="A3:V107"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="I105" sqref="I105"/>
+      <selection activeCell="I96" sqref="I96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1377,8 +1381,8 @@
       <c r="K38" s="11"/>
       <c r="L38" s="11"/>
       <c r="M38" s="11"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
@@ -1466,12 +1470,12 @@
       <c r="I44" s="2">
         <v>0.1235</v>
       </c>
-      <c r="J44" s="15" t="s">
+      <c r="J44" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="K44" s="15"/>
-      <c r="L44" s="15"/>
-      <c r="M44" s="15"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
@@ -1536,12 +1540,12 @@
       <c r="I46" s="2">
         <v>0.1249</v>
       </c>
-      <c r="J46" s="15" t="s">
+      <c r="J46" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="K46" s="15"/>
-      <c r="L46" s="15"/>
-      <c r="M46" s="15"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="13"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
@@ -1877,13 +1881,13 @@
       <c r="L62" s="2">
         <v>0.14990000000000001</v>
       </c>
-      <c r="O62" s="16" t="s">
+      <c r="O62" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="P62" s="16"/>
-      <c r="Q62" s="16"/>
-      <c r="R62" s="16"/>
-      <c r="S62" s="16"/>
+      <c r="P62" s="12"/>
+      <c r="Q62" s="12"/>
+      <c r="R62" s="12"/>
+      <c r="S62" s="12"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
@@ -2125,12 +2129,12 @@
       <c r="I73" s="5">
         <v>0.13669999999999999</v>
       </c>
-      <c r="J73" s="15" t="s">
+      <c r="J73" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="K73" s="15"/>
-      <c r="L73" s="15"/>
-      <c r="M73" s="15"/>
+      <c r="K73" s="13"/>
+      <c r="L73" s="13"/>
+      <c r="M73" s="13"/>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
@@ -2151,12 +2155,12 @@
       <c r="F74" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J74" s="15" t="s">
+      <c r="J74" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="K74" s="15"/>
-      <c r="L74" s="15"/>
-      <c r="M74" s="15"/>
+      <c r="K74" s="13"/>
+      <c r="L74" s="13"/>
+      <c r="M74" s="13"/>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
@@ -2186,12 +2190,12 @@
       <c r="I75" s="2">
         <v>0.13780000000000001</v>
       </c>
-      <c r="J75" s="15" t="s">
+      <c r="J75" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="K75" s="15"/>
-      <c r="L75" s="15"/>
-      <c r="M75" s="15"/>
+      <c r="K75" s="13"/>
+      <c r="L75" s="13"/>
+      <c r="M75" s="13"/>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
@@ -2221,36 +2225,36 @@
       <c r="I76" s="5">
         <v>0.1348</v>
       </c>
-      <c r="J76" s="15" t="s">
+      <c r="J76" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="K76" s="15"/>
-      <c r="L76" s="15"/>
-      <c r="M76" s="15"/>
-      <c r="N76" s="15"/>
-      <c r="O76" s="15"/>
-      <c r="P76" s="15"/>
-      <c r="Q76" s="15"/>
+      <c r="K76" s="13"/>
+      <c r="L76" s="13"/>
+      <c r="M76" s="13"/>
+      <c r="N76" s="13"/>
+      <c r="O76" s="13"/>
+      <c r="P76" s="13"/>
+      <c r="Q76" s="13"/>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="J77" s="15"/>
-      <c r="K77" s="15"/>
-      <c r="L77" s="15"/>
-      <c r="M77" s="15"/>
-      <c r="N77" s="15"/>
-      <c r="O77" s="15"/>
-      <c r="P77" s="15"/>
-      <c r="Q77" s="15"/>
+      <c r="J77" s="13"/>
+      <c r="K77" s="13"/>
+      <c r="L77" s="13"/>
+      <c r="M77" s="13"/>
+      <c r="N77" s="13"/>
+      <c r="O77" s="13"/>
+      <c r="P77" s="13"/>
+      <c r="Q77" s="13"/>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="J78" s="15"/>
-      <c r="K78" s="15"/>
-      <c r="L78" s="15"/>
-      <c r="M78" s="15"/>
-      <c r="N78" s="15"/>
-      <c r="O78" s="15"/>
-      <c r="P78" s="15"/>
-      <c r="Q78" s="15"/>
+      <c r="J78" s="13"/>
+      <c r="K78" s="13"/>
+      <c r="L78" s="13"/>
+      <c r="M78" s="13"/>
+      <c r="N78" s="13"/>
+      <c r="O78" s="13"/>
+      <c r="P78" s="13"/>
+      <c r="Q78" s="13"/>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
@@ -2496,13 +2500,13 @@
       <c r="I85" s="2">
         <v>0.1361</v>
       </c>
-      <c r="J85" s="15" t="s">
+      <c r="J85" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="K85" s="15"/>
-      <c r="L85" s="15"/>
-      <c r="M85" s="15"/>
-      <c r="N85" s="15"/>
+      <c r="K85" s="13"/>
+      <c r="L85" s="13"/>
+      <c r="M85" s="13"/>
+      <c r="N85" s="13"/>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
@@ -2532,13 +2536,13 @@
       <c r="I86" s="5">
         <v>0.13070000000000001</v>
       </c>
-      <c r="J86" s="15" t="s">
+      <c r="J86" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="K86" s="15"/>
-      <c r="L86" s="15"/>
-      <c r="M86" s="15"/>
-      <c r="N86" s="15"/>
+      <c r="K86" s="13"/>
+      <c r="L86" s="13"/>
+      <c r="M86" s="13"/>
+      <c r="N86" s="13"/>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
@@ -2568,13 +2572,13 @@
       <c r="I87" s="2">
         <v>0.1361</v>
       </c>
-      <c r="J87" s="15" t="s">
+      <c r="J87" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="K87" s="15"/>
-      <c r="L87" s="15"/>
-      <c r="M87" s="15"/>
-      <c r="N87" s="15"/>
+      <c r="K87" s="13"/>
+      <c r="L87" s="13"/>
+      <c r="M87" s="13"/>
+      <c r="N87" s="13"/>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
@@ -2604,13 +2608,13 @@
       <c r="I88" s="2">
         <v>0.13589999999999999</v>
       </c>
-      <c r="J88" s="15" t="s">
+      <c r="J88" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="K88" s="15"/>
-      <c r="L88" s="15"/>
-      <c r="M88" s="15"/>
-      <c r="N88" s="15"/>
+      <c r="K88" s="13"/>
+      <c r="L88" s="13"/>
+      <c r="M88" s="13"/>
+      <c r="N88" s="13"/>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
@@ -2826,13 +2830,13 @@
       <c r="G94" s="9"/>
       <c r="H94" s="9"/>
       <c r="I94" s="10"/>
-      <c r="J94" s="13" t="s">
+      <c r="J94" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="K94" s="13"/>
-      <c r="L94" s="13"/>
-      <c r="M94" s="13"/>
-      <c r="N94" s="13"/>
+      <c r="K94" s="15"/>
+      <c r="L94" s="15"/>
+      <c r="M94" s="15"/>
+      <c r="N94" s="15"/>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
@@ -2941,9 +2945,9 @@
       <c r="L97" s="11"/>
       <c r="M97" s="11"/>
       <c r="N97" s="11"/>
-      <c r="O97" s="12"/>
-      <c r="P97" s="12"/>
-      <c r="Q97" s="12"/>
+      <c r="O97" s="14"/>
+      <c r="P97" s="14"/>
+      <c r="Q97" s="14"/>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
@@ -2980,9 +2984,9 @@
       <c r="L98" s="11"/>
       <c r="M98" s="11"/>
       <c r="N98" s="11"/>
-      <c r="O98" s="12"/>
-      <c r="P98" s="12"/>
-      <c r="Q98" s="12"/>
+      <c r="O98" s="14"/>
+      <c r="P98" s="14"/>
+      <c r="Q98" s="14"/>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
@@ -3019,9 +3023,9 @@
       <c r="L99" s="11"/>
       <c r="M99" s="11"/>
       <c r="N99" s="11"/>
-      <c r="O99" s="12"/>
-      <c r="P99" s="12"/>
-      <c r="Q99" s="12"/>
+      <c r="O99" s="14"/>
+      <c r="P99" s="14"/>
+      <c r="Q99" s="14"/>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
@@ -3058,10 +3062,10 @@
       <c r="L100" s="11"/>
       <c r="M100" s="11"/>
       <c r="N100" s="11"/>
-      <c r="O100" s="12"/>
-      <c r="P100" s="12"/>
-      <c r="Q100" s="12"/>
-      <c r="R100" s="12"/>
+      <c r="O100" s="14"/>
+      <c r="P100" s="14"/>
+      <c r="Q100" s="14"/>
+      <c r="R100" s="14"/>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101" s="8">
@@ -3085,16 +3089,16 @@
       <c r="G101" s="9"/>
       <c r="H101" s="9"/>
       <c r="I101" s="9"/>
-      <c r="J101" s="13" t="s">
+      <c r="J101" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="K101" s="13"/>
-      <c r="L101" s="13"/>
-      <c r="M101" s="13"/>
-      <c r="N101" s="13"/>
-      <c r="O101" s="14"/>
-      <c r="P101" s="14"/>
-      <c r="Q101" s="14"/>
+      <c r="K101" s="15"/>
+      <c r="L101" s="15"/>
+      <c r="M101" s="15"/>
+      <c r="N101" s="15"/>
+      <c r="O101" s="16"/>
+      <c r="P101" s="16"/>
+      <c r="Q101" s="16"/>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
@@ -3131,39 +3135,42 @@
       <c r="L102" s="11"/>
       <c r="M102" s="11"/>
       <c r="N102" s="11"/>
-      <c r="O102" s="12"/>
-      <c r="P102" s="12"/>
-      <c r="Q102" s="12"/>
+      <c r="O102" s="14"/>
+      <c r="P102" s="14"/>
+      <c r="Q102" s="14"/>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A103" s="1">
+      <c r="A103" s="8">
         <v>39</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J103" s="11" t="s">
+      <c r="B103" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G103" s="9"/>
+      <c r="H103" s="9"/>
+      <c r="I103" s="9"/>
+      <c r="J103" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="K103" s="11"/>
-      <c r="L103" s="11"/>
-      <c r="M103" s="11"/>
-      <c r="N103" s="11"/>
-      <c r="O103" s="12"/>
-      <c r="P103" s="12"/>
-      <c r="Q103" s="12"/>
+      <c r="K103" s="15"/>
+      <c r="L103" s="15"/>
+      <c r="M103" s="15"/>
+      <c r="N103" s="15"/>
+      <c r="O103" s="16"/>
+      <c r="P103" s="16"/>
+      <c r="Q103" s="16"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
@@ -3200,9 +3207,9 @@
       <c r="L104" s="11"/>
       <c r="M104" s="11"/>
       <c r="N104" s="11"/>
-      <c r="O104" s="12"/>
-      <c r="P104" s="12"/>
-      <c r="Q104" s="12"/>
+      <c r="O104" s="14"/>
+      <c r="P104" s="14"/>
+      <c r="Q104" s="14"/>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
@@ -3239,9 +3246,9 @@
       <c r="L105" s="11"/>
       <c r="M105" s="11"/>
       <c r="N105" s="11"/>
-      <c r="O105" s="12"/>
-      <c r="P105" s="12"/>
-      <c r="Q105" s="12"/>
+      <c r="O105" s="14"/>
+      <c r="P105" s="14"/>
+      <c r="Q105" s="14"/>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
@@ -3269,33 +3276,62 @@
       <c r="L106" s="11"/>
       <c r="M106" s="11"/>
       <c r="N106" s="11"/>
-      <c r="O106" s="12"/>
-      <c r="P106" s="12"/>
-      <c r="Q106" s="12"/>
+      <c r="O106" s="14"/>
+      <c r="P106" s="14"/>
+      <c r="Q106" s="14"/>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <v>43</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J107" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="K107" s="11"/>
+      <c r="L107" s="11"/>
+      <c r="M107" s="11"/>
+      <c r="N107" s="11"/>
+      <c r="O107" s="14"/>
+      <c r="P107" s="14"/>
+      <c r="Q107" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="56">
-    <mergeCell ref="J65:V65"/>
-    <mergeCell ref="J47:O47"/>
-    <mergeCell ref="J51:O51"/>
-    <mergeCell ref="J50:O50"/>
-    <mergeCell ref="J49:O49"/>
-    <mergeCell ref="J48:O48"/>
-    <mergeCell ref="O62:S62"/>
-    <mergeCell ref="J52:O52"/>
-    <mergeCell ref="J9:V9"/>
-    <mergeCell ref="J10:V10"/>
-    <mergeCell ref="J18:V18"/>
-    <mergeCell ref="J11:V11"/>
-    <mergeCell ref="J19:V19"/>
-    <mergeCell ref="J12:V12"/>
-    <mergeCell ref="J24:V24"/>
-    <mergeCell ref="J25:V25"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="J38:O38"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="J44:M44"/>
+  <mergeCells count="57">
+    <mergeCell ref="J107:Q107"/>
+    <mergeCell ref="J106:Q106"/>
+    <mergeCell ref="J100:R100"/>
+    <mergeCell ref="J101:Q101"/>
+    <mergeCell ref="J102:Q102"/>
+    <mergeCell ref="J103:Q103"/>
+    <mergeCell ref="J104:Q104"/>
+    <mergeCell ref="J105:Q105"/>
+    <mergeCell ref="J95:N95"/>
+    <mergeCell ref="J99:Q99"/>
+    <mergeCell ref="J98:Q98"/>
+    <mergeCell ref="J96:N96"/>
+    <mergeCell ref="J97:Q97"/>
+    <mergeCell ref="J84:N84"/>
+    <mergeCell ref="J83:N83"/>
+    <mergeCell ref="J82:N82"/>
+    <mergeCell ref="J92:N92"/>
+    <mergeCell ref="J85:N85"/>
+    <mergeCell ref="J87:N87"/>
+    <mergeCell ref="J88:N88"/>
     <mergeCell ref="J66:V66"/>
     <mergeCell ref="J67:V67"/>
     <mergeCell ref="J71:V71"/>
@@ -3312,25 +3348,27 @@
     <mergeCell ref="J90:N90"/>
     <mergeCell ref="J91:N91"/>
     <mergeCell ref="J93:N93"/>
-    <mergeCell ref="J84:N84"/>
-    <mergeCell ref="J83:N83"/>
-    <mergeCell ref="J82:N82"/>
-    <mergeCell ref="J92:N92"/>
-    <mergeCell ref="J85:N85"/>
-    <mergeCell ref="J87:N87"/>
-    <mergeCell ref="J88:N88"/>
-    <mergeCell ref="J95:N95"/>
-    <mergeCell ref="J99:Q99"/>
-    <mergeCell ref="J98:Q98"/>
-    <mergeCell ref="J96:N96"/>
-    <mergeCell ref="J97:Q97"/>
-    <mergeCell ref="J106:Q106"/>
-    <mergeCell ref="J100:R100"/>
-    <mergeCell ref="J101:Q101"/>
-    <mergeCell ref="J102:Q102"/>
-    <mergeCell ref="J103:Q103"/>
-    <mergeCell ref="J104:Q104"/>
-    <mergeCell ref="J105:Q105"/>
+    <mergeCell ref="J24:V24"/>
+    <mergeCell ref="J25:V25"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="J38:O38"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="J9:V9"/>
+    <mergeCell ref="J10:V10"/>
+    <mergeCell ref="J18:V18"/>
+    <mergeCell ref="J11:V11"/>
+    <mergeCell ref="J19:V19"/>
+    <mergeCell ref="J12:V12"/>
+    <mergeCell ref="J65:V65"/>
+    <mergeCell ref="J47:O47"/>
+    <mergeCell ref="J51:O51"/>
+    <mergeCell ref="J50:O50"/>
+    <mergeCell ref="J49:O49"/>
+    <mergeCell ref="J48:O48"/>
+    <mergeCell ref="O62:S62"/>
+    <mergeCell ref="J52:O52"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tfp_pro\modinfo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A151C2-6231-4397-A23E-9F5737ABB092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27BD39BD-F366-4A15-A923-E71C64C19074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="1380" windowWidth="22665" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -458,12 +458,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -472,6 +466,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -755,16 +755,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:V107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="I96" sqref="I96"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="I106" sqref="I106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
@@ -775,7 +775,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -804,7 +804,7 @@
         <v>0.1363</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -833,7 +833,7 @@
         <v>0.1198</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -862,7 +862,7 @@
         <v>0.12089999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -906,7 +906,7 @@
       <c r="U9" s="11"/>
       <c r="V9" s="11"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -950,7 +950,7 @@
       <c r="U10" s="11"/>
       <c r="V10" s="11"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -994,7 +994,7 @@
       <c r="U11" s="11"/>
       <c r="V11" s="11"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1038,7 +1038,7 @@
       <c r="U12" s="11"/>
       <c r="V12" s="11"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>0.14430000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>0.14610000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -1140,7 +1140,7 @@
       <c r="U18" s="11"/>
       <c r="V18" s="11"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,7 +1184,7 @@
       <c r="U19" s="11"/>
       <c r="V19" s="11"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>13</v>
       </c>
@@ -1219,7 +1219,7 @@
       <c r="U24" s="11"/>
       <c r="V24" s="11"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>14</v>
       </c>
@@ -1254,7 +1254,7 @@
       <c r="U25" s="11"/>
       <c r="V25" s="11"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>13</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>0.12959999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>14</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>0.1295</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>20</v>
       </c>
@@ -1347,7 +1347,7 @@
       <c r="L37" s="11"/>
       <c r="M37" s="11"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>20</v>
       </c>
@@ -1381,10 +1381,10 @@
       <c r="K38" s="11"/>
       <c r="L38" s="11"/>
       <c r="M38" s="11"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>13</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>0.12189999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>14</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>0.1249</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>20</v>
       </c>
@@ -1470,14 +1470,14 @@
       <c r="I44" s="2">
         <v>0.1235</v>
       </c>
-      <c r="J44" s="13" t="s">
+      <c r="J44" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>20</v>
       </c>
@@ -1512,7 +1512,7 @@
       <c r="L45" s="11"/>
       <c r="M45" s="11"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>20</v>
       </c>
@@ -1540,14 +1540,14 @@
       <c r="I46" s="2">
         <v>0.1249</v>
       </c>
-      <c r="J46" s="13" t="s">
+      <c r="J46" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="K46" s="13"/>
-      <c r="L46" s="13"/>
-      <c r="M46" s="13"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="15"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>20</v>
       </c>
@@ -1581,7 +1581,7 @@
       <c r="N47" s="11"/>
       <c r="O47" s="11"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>20</v>
       </c>
@@ -1618,7 +1618,7 @@
       <c r="N48" s="11"/>
       <c r="O48" s="11"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>20</v>
       </c>
@@ -1655,7 +1655,7 @@
       <c r="N49" s="11"/>
       <c r="O49" s="11"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>20</v>
       </c>
@@ -1692,7 +1692,7 @@
       <c r="N50" s="11"/>
       <c r="O50" s="11"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>20</v>
       </c>
@@ -1729,7 +1729,7 @@
       <c r="N51" s="11"/>
       <c r="O51" s="11"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>20</v>
       </c>
@@ -1757,7 +1757,7 @@
       <c r="N52" s="11"/>
       <c r="O52" s="11"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>13</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>20</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>0.13650000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>13</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>0.13769999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>14</v>
       </c>
@@ -1881,15 +1881,15 @@
       <c r="L62" s="2">
         <v>0.14990000000000001</v>
       </c>
-      <c r="O62" s="12" t="s">
+      <c r="O62" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="P62" s="12"/>
-      <c r="Q62" s="12"/>
-      <c r="R62" s="12"/>
-      <c r="S62" s="12"/>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="P62" s="16"/>
+      <c r="Q62" s="16"/>
+      <c r="R62" s="16"/>
+      <c r="S62" s="16"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="G63" s="1">
         <v>20.94</v>
@@ -1901,7 +1901,7 @@
         <v>0.14929999999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>20</v>
       </c>
@@ -1945,7 +1945,7 @@
       <c r="U65" s="11"/>
       <c r="V65" s="11"/>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>20</v>
       </c>
@@ -1989,7 +1989,7 @@
       <c r="U66" s="11"/>
       <c r="V66" s="11"/>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>20</v>
       </c>
@@ -2033,7 +2033,7 @@
       <c r="U67" s="11"/>
       <c r="V67" s="11"/>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="G68" s="4">
         <v>19.54</v>
@@ -2045,7 +2045,7 @@
         <v>0.13730000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>20</v>
       </c>
@@ -2089,7 +2089,7 @@
       <c r="U71" s="11"/>
       <c r="V71" s="11"/>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" s="7"/>
       <c r="G72" s="4">
         <v>19.579999999999998</v>
@@ -2101,7 +2101,7 @@
         <v>0.13980000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>20</v>
       </c>
@@ -2129,14 +2129,14 @@
       <c r="I73" s="5">
         <v>0.13669999999999999</v>
       </c>
-      <c r="J73" s="13" t="s">
+      <c r="J73" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K73" s="13"/>
-      <c r="L73" s="13"/>
-      <c r="M73" s="13"/>
-    </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="K73" s="15"/>
+      <c r="L73" s="15"/>
+      <c r="M73" s="15"/>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>20</v>
       </c>
@@ -2155,14 +2155,14 @@
       <c r="F74" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J74" s="13" t="s">
+      <c r="J74" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="K74" s="13"/>
-      <c r="L74" s="13"/>
-      <c r="M74" s="13"/>
-    </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="K74" s="15"/>
+      <c r="L74" s="15"/>
+      <c r="M74" s="15"/>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>20</v>
       </c>
@@ -2190,14 +2190,14 @@
       <c r="I75" s="2">
         <v>0.13780000000000001</v>
       </c>
-      <c r="J75" s="13" t="s">
+      <c r="J75" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="K75" s="13"/>
-      <c r="L75" s="13"/>
-      <c r="M75" s="13"/>
-    </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="K75" s="15"/>
+      <c r="L75" s="15"/>
+      <c r="M75" s="15"/>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>13</v>
       </c>
@@ -2225,38 +2225,38 @@
       <c r="I76" s="5">
         <v>0.1348</v>
       </c>
-      <c r="J76" s="13" t="s">
+      <c r="J76" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="K76" s="13"/>
-      <c r="L76" s="13"/>
-      <c r="M76" s="13"/>
-      <c r="N76" s="13"/>
-      <c r="O76" s="13"/>
-      <c r="P76" s="13"/>
-      <c r="Q76" s="13"/>
-    </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="J77" s="13"/>
-      <c r="K77" s="13"/>
-      <c r="L77" s="13"/>
-      <c r="M77" s="13"/>
-      <c r="N77" s="13"/>
-      <c r="O77" s="13"/>
-      <c r="P77" s="13"/>
-      <c r="Q77" s="13"/>
-    </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="J78" s="13"/>
-      <c r="K78" s="13"/>
-      <c r="L78" s="13"/>
-      <c r="M78" s="13"/>
-      <c r="N78" s="13"/>
-      <c r="O78" s="13"/>
-      <c r="P78" s="13"/>
-      <c r="Q78" s="13"/>
-    </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="K76" s="15"/>
+      <c r="L76" s="15"/>
+      <c r="M76" s="15"/>
+      <c r="N76" s="15"/>
+      <c r="O76" s="15"/>
+      <c r="P76" s="15"/>
+      <c r="Q76" s="15"/>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="J77" s="15"/>
+      <c r="K77" s="15"/>
+      <c r="L77" s="15"/>
+      <c r="M77" s="15"/>
+      <c r="N77" s="15"/>
+      <c r="O77" s="15"/>
+      <c r="P77" s="15"/>
+      <c r="Q77" s="15"/>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="J78" s="15"/>
+      <c r="K78" s="15"/>
+      <c r="L78" s="15"/>
+      <c r="M78" s="15"/>
+      <c r="N78" s="15"/>
+      <c r="O78" s="15"/>
+      <c r="P78" s="15"/>
+      <c r="Q78" s="15"/>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>14</v>
       </c>
@@ -2292,7 +2292,7 @@
       <c r="M79" s="11"/>
       <c r="N79" s="11"/>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>16</v>
       </c>
@@ -2328,7 +2328,7 @@
       <c r="M80" s="11"/>
       <c r="N80" s="11"/>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>17</v>
       </c>
@@ -2364,7 +2364,7 @@
       <c r="M81" s="11"/>
       <c r="N81" s="11"/>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>18</v>
       </c>
@@ -2400,7 +2400,7 @@
       <c r="M82" s="11"/>
       <c r="N82" s="11"/>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>19</v>
       </c>
@@ -2436,7 +2436,7 @@
       <c r="M83" s="11"/>
       <c r="N83" s="11"/>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>20</v>
       </c>
@@ -2472,7 +2472,7 @@
       <c r="M84" s="11"/>
       <c r="N84" s="11"/>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>21</v>
       </c>
@@ -2500,15 +2500,15 @@
       <c r="I85" s="2">
         <v>0.1361</v>
       </c>
-      <c r="J85" s="13" t="s">
+      <c r="J85" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="K85" s="13"/>
-      <c r="L85" s="13"/>
-      <c r="M85" s="13"/>
-      <c r="N85" s="13"/>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="K85" s="15"/>
+      <c r="L85" s="15"/>
+      <c r="M85" s="15"/>
+      <c r="N85" s="15"/>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>22</v>
       </c>
@@ -2536,15 +2536,15 @@
       <c r="I86" s="5">
         <v>0.13070000000000001</v>
       </c>
-      <c r="J86" s="13" t="s">
+      <c r="J86" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="K86" s="13"/>
-      <c r="L86" s="13"/>
-      <c r="M86" s="13"/>
-      <c r="N86" s="13"/>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="K86" s="15"/>
+      <c r="L86" s="15"/>
+      <c r="M86" s="15"/>
+      <c r="N86" s="15"/>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>23</v>
       </c>
@@ -2572,15 +2572,15 @@
       <c r="I87" s="2">
         <v>0.1361</v>
       </c>
-      <c r="J87" s="13" t="s">
+      <c r="J87" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="K87" s="13"/>
-      <c r="L87" s="13"/>
-      <c r="M87" s="13"/>
-      <c r="N87" s="13"/>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="K87" s="15"/>
+      <c r="L87" s="15"/>
+      <c r="M87" s="15"/>
+      <c r="N87" s="15"/>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>24</v>
       </c>
@@ -2608,15 +2608,15 @@
       <c r="I88" s="2">
         <v>0.13589999999999999</v>
       </c>
-      <c r="J88" s="13" t="s">
+      <c r="J88" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="K88" s="13"/>
-      <c r="L88" s="13"/>
-      <c r="M88" s="13"/>
-      <c r="N88" s="13"/>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="K88" s="15"/>
+      <c r="L88" s="15"/>
+      <c r="M88" s="15"/>
+      <c r="N88" s="15"/>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>25</v>
       </c>
@@ -2652,7 +2652,7 @@
       <c r="M89" s="11"/>
       <c r="N89" s="11"/>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>26</v>
       </c>
@@ -2688,7 +2688,7 @@
       <c r="M90" s="11"/>
       <c r="N90" s="11"/>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>27</v>
       </c>
@@ -2724,7 +2724,7 @@
       <c r="M91" s="11"/>
       <c r="N91" s="11"/>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>28</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>29</v>
       </c>
@@ -2808,7 +2808,7 @@
       <c r="M93" s="11"/>
       <c r="N93" s="11"/>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="8">
         <v>30</v>
       </c>
@@ -2830,15 +2830,15 @@
       <c r="G94" s="9"/>
       <c r="H94" s="9"/>
       <c r="I94" s="10"/>
-      <c r="J94" s="15" t="s">
+      <c r="J94" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="K94" s="15"/>
-      <c r="L94" s="15"/>
-      <c r="M94" s="15"/>
-      <c r="N94" s="15"/>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="K94" s="13"/>
+      <c r="L94" s="13"/>
+      <c r="M94" s="13"/>
+      <c r="N94" s="13"/>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>31</v>
       </c>
@@ -2874,7 +2874,7 @@
       <c r="M95" s="11"/>
       <c r="N95" s="11"/>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>32</v>
       </c>
@@ -2910,7 +2910,7 @@
       <c r="M96" s="11"/>
       <c r="N96" s="11"/>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>33</v>
       </c>
@@ -2945,11 +2945,11 @@
       <c r="L97" s="11"/>
       <c r="M97" s="11"/>
       <c r="N97" s="11"/>
-      <c r="O97" s="14"/>
-      <c r="P97" s="14"/>
-      <c r="Q97" s="14"/>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O97" s="12"/>
+      <c r="P97" s="12"/>
+      <c r="Q97" s="12"/>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>34</v>
       </c>
@@ -2984,11 +2984,11 @@
       <c r="L98" s="11"/>
       <c r="M98" s="11"/>
       <c r="N98" s="11"/>
-      <c r="O98" s="14"/>
-      <c r="P98" s="14"/>
-      <c r="Q98" s="14"/>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O98" s="12"/>
+      <c r="P98" s="12"/>
+      <c r="Q98" s="12"/>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>35</v>
       </c>
@@ -3023,11 +3023,11 @@
       <c r="L99" s="11"/>
       <c r="M99" s="11"/>
       <c r="N99" s="11"/>
-      <c r="O99" s="14"/>
-      <c r="P99" s="14"/>
-      <c r="Q99" s="14"/>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O99" s="12"/>
+      <c r="P99" s="12"/>
+      <c r="Q99" s="12"/>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>36</v>
       </c>
@@ -3062,12 +3062,12 @@
       <c r="L100" s="11"/>
       <c r="M100" s="11"/>
       <c r="N100" s="11"/>
-      <c r="O100" s="14"/>
-      <c r="P100" s="14"/>
-      <c r="Q100" s="14"/>
-      <c r="R100" s="14"/>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O100" s="12"/>
+      <c r="P100" s="12"/>
+      <c r="Q100" s="12"/>
+      <c r="R100" s="12"/>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" s="8">
         <v>37</v>
       </c>
@@ -3089,18 +3089,18 @@
       <c r="G101" s="9"/>
       <c r="H101" s="9"/>
       <c r="I101" s="9"/>
-      <c r="J101" s="15" t="s">
+      <c r="J101" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="K101" s="15"/>
-      <c r="L101" s="15"/>
-      <c r="M101" s="15"/>
-      <c r="N101" s="15"/>
-      <c r="O101" s="16"/>
-      <c r="P101" s="16"/>
-      <c r="Q101" s="16"/>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="K101" s="13"/>
+      <c r="L101" s="13"/>
+      <c r="M101" s="13"/>
+      <c r="N101" s="13"/>
+      <c r="O101" s="14"/>
+      <c r="P101" s="14"/>
+      <c r="Q101" s="14"/>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>38</v>
       </c>
@@ -3135,11 +3135,11 @@
       <c r="L102" s="11"/>
       <c r="M102" s="11"/>
       <c r="N102" s="11"/>
-      <c r="O102" s="14"/>
-      <c r="P102" s="14"/>
-      <c r="Q102" s="14"/>
-    </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O102" s="12"/>
+      <c r="P102" s="12"/>
+      <c r="Q102" s="12"/>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" s="8">
         <v>39</v>
       </c>
@@ -3161,18 +3161,18 @@
       <c r="G103" s="9"/>
       <c r="H103" s="9"/>
       <c r="I103" s="9"/>
-      <c r="J103" s="15" t="s">
+      <c r="J103" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="K103" s="15"/>
-      <c r="L103" s="15"/>
-      <c r="M103" s="15"/>
-      <c r="N103" s="15"/>
-      <c r="O103" s="16"/>
-      <c r="P103" s="16"/>
-      <c r="Q103" s="16"/>
-    </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="K103" s="13"/>
+      <c r="L103" s="13"/>
+      <c r="M103" s="13"/>
+      <c r="N103" s="13"/>
+      <c r="O103" s="14"/>
+      <c r="P103" s="14"/>
+      <c r="Q103" s="14"/>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>40</v>
       </c>
@@ -3207,11 +3207,11 @@
       <c r="L104" s="11"/>
       <c r="M104" s="11"/>
       <c r="N104" s="11"/>
-      <c r="O104" s="14"/>
-      <c r="P104" s="14"/>
-      <c r="Q104" s="14"/>
-    </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O104" s="12"/>
+      <c r="P104" s="12"/>
+      <c r="Q104" s="12"/>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>41</v>
       </c>
@@ -3246,11 +3246,11 @@
       <c r="L105" s="11"/>
       <c r="M105" s="11"/>
       <c r="N105" s="11"/>
-      <c r="O105" s="14"/>
-      <c r="P105" s="14"/>
-      <c r="Q105" s="14"/>
-    </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O105" s="12"/>
+      <c r="P105" s="12"/>
+      <c r="Q105" s="12"/>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>42</v>
       </c>
@@ -3268,6 +3268,15 @@
       </c>
       <c r="F106" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="G106" s="1">
+        <v>20.22</v>
+      </c>
+      <c r="H106" s="1">
+        <v>31.46</v>
+      </c>
+      <c r="I106" s="2">
+        <v>0.14949999999999999</v>
       </c>
       <c r="J106" s="11" t="s">
         <v>78</v>
@@ -3276,11 +3285,11 @@
       <c r="L106" s="11"/>
       <c r="M106" s="11"/>
       <c r="N106" s="11"/>
-      <c r="O106" s="14"/>
-      <c r="P106" s="14"/>
-      <c r="Q106" s="14"/>
-    </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O106" s="12"/>
+      <c r="P106" s="12"/>
+      <c r="Q106" s="12"/>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>43</v>
       </c>
@@ -3306,32 +3315,33 @@
       <c r="L107" s="11"/>
       <c r="M107" s="11"/>
       <c r="N107" s="11"/>
-      <c r="O107" s="14"/>
-      <c r="P107" s="14"/>
-      <c r="Q107" s="14"/>
+      <c r="O107" s="12"/>
+      <c r="P107" s="12"/>
+      <c r="Q107" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="J107:Q107"/>
-    <mergeCell ref="J106:Q106"/>
-    <mergeCell ref="J100:R100"/>
-    <mergeCell ref="J101:Q101"/>
-    <mergeCell ref="J102:Q102"/>
-    <mergeCell ref="J103:Q103"/>
-    <mergeCell ref="J104:Q104"/>
-    <mergeCell ref="J105:Q105"/>
-    <mergeCell ref="J95:N95"/>
-    <mergeCell ref="J99:Q99"/>
-    <mergeCell ref="J98:Q98"/>
-    <mergeCell ref="J96:N96"/>
-    <mergeCell ref="J97:Q97"/>
-    <mergeCell ref="J84:N84"/>
-    <mergeCell ref="J83:N83"/>
-    <mergeCell ref="J82:N82"/>
-    <mergeCell ref="J92:N92"/>
-    <mergeCell ref="J85:N85"/>
-    <mergeCell ref="J87:N87"/>
-    <mergeCell ref="J88:N88"/>
+    <mergeCell ref="J65:V65"/>
+    <mergeCell ref="J47:O47"/>
+    <mergeCell ref="J51:O51"/>
+    <mergeCell ref="J50:O50"/>
+    <mergeCell ref="J49:O49"/>
+    <mergeCell ref="J48:O48"/>
+    <mergeCell ref="O62:S62"/>
+    <mergeCell ref="J52:O52"/>
+    <mergeCell ref="J9:V9"/>
+    <mergeCell ref="J10:V10"/>
+    <mergeCell ref="J18:V18"/>
+    <mergeCell ref="J11:V11"/>
+    <mergeCell ref="J19:V19"/>
+    <mergeCell ref="J12:V12"/>
+    <mergeCell ref="J24:V24"/>
+    <mergeCell ref="J25:V25"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="J38:O38"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="J44:M44"/>
     <mergeCell ref="J66:V66"/>
     <mergeCell ref="J67:V67"/>
     <mergeCell ref="J71:V71"/>
@@ -3348,27 +3358,26 @@
     <mergeCell ref="J90:N90"/>
     <mergeCell ref="J91:N91"/>
     <mergeCell ref="J93:N93"/>
-    <mergeCell ref="J24:V24"/>
-    <mergeCell ref="J25:V25"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="J38:O38"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="J44:M44"/>
-    <mergeCell ref="J9:V9"/>
-    <mergeCell ref="J10:V10"/>
-    <mergeCell ref="J18:V18"/>
-    <mergeCell ref="J11:V11"/>
-    <mergeCell ref="J19:V19"/>
-    <mergeCell ref="J12:V12"/>
-    <mergeCell ref="J65:V65"/>
-    <mergeCell ref="J47:O47"/>
-    <mergeCell ref="J51:O51"/>
-    <mergeCell ref="J50:O50"/>
-    <mergeCell ref="J49:O49"/>
-    <mergeCell ref="J48:O48"/>
-    <mergeCell ref="O62:S62"/>
-    <mergeCell ref="J52:O52"/>
+    <mergeCell ref="J84:N84"/>
+    <mergeCell ref="J83:N83"/>
+    <mergeCell ref="J82:N82"/>
+    <mergeCell ref="J92:N92"/>
+    <mergeCell ref="J85:N85"/>
+    <mergeCell ref="J87:N87"/>
+    <mergeCell ref="J88:N88"/>
+    <mergeCell ref="J95:N95"/>
+    <mergeCell ref="J99:Q99"/>
+    <mergeCell ref="J98:Q98"/>
+    <mergeCell ref="J96:N96"/>
+    <mergeCell ref="J97:Q97"/>
+    <mergeCell ref="J107:Q107"/>
+    <mergeCell ref="J106:Q106"/>
+    <mergeCell ref="J100:R100"/>
+    <mergeCell ref="J101:Q101"/>
+    <mergeCell ref="J102:Q102"/>
+    <mergeCell ref="J103:Q103"/>
+    <mergeCell ref="J104:Q104"/>
+    <mergeCell ref="J105:Q105"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tfp_pro\modinfo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27BD39BD-F366-4A15-A923-E71C64C19074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0FECE3-134F-47F8-871A-2A52E9777F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="83">
   <si>
     <t>ST-SSL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -343,6 +343,18 @@
   </si>
   <si>
     <t>13-&gt;42 添加原始的残差链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13-&gt;44 去除本地sp_block,添加MVSTT的STBlock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13-&gt;45 添加注意力，x,sp sem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13-&gt;46 block中添加注意力，</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,6 +470,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -466,12 +484,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -753,18 +765,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:V107"/>
+  <dimension ref="A3:V110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="I106" sqref="I106"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="O111" sqref="O111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
@@ -775,7 +787,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -804,7 +816,7 @@
         <v>0.1363</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -833,7 +845,7 @@
         <v>0.1198</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -862,7 +874,7 @@
         <v>0.12089999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -906,7 +918,7 @@
       <c r="U9" s="11"/>
       <c r="V9" s="11"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -950,7 +962,7 @@
       <c r="U10" s="11"/>
       <c r="V10" s="11"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -994,7 +1006,7 @@
       <c r="U11" s="11"/>
       <c r="V11" s="11"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1038,7 +1050,7 @@
       <c r="U12" s="11"/>
       <c r="V12" s="11"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -1067,7 +1079,7 @@
         <v>0.14430000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -1096,7 +1108,7 @@
         <v>0.14610000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -1140,7 +1152,7 @@
       <c r="U18" s="11"/>
       <c r="V18" s="11"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,7 +1196,7 @@
       <c r="U19" s="11"/>
       <c r="V19" s="11"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>13</v>
       </c>
@@ -1219,7 +1231,7 @@
       <c r="U24" s="11"/>
       <c r="V24" s="11"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>14</v>
       </c>
@@ -1254,7 +1266,7 @@
       <c r="U25" s="11"/>
       <c r="V25" s="11"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>13</v>
       </c>
@@ -1283,7 +1295,7 @@
         <v>0.12959999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>14</v>
       </c>
@@ -1312,7 +1324,7 @@
         <v>0.1295</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>20</v>
       </c>
@@ -1347,7 +1359,7 @@
       <c r="L37" s="11"/>
       <c r="M37" s="11"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>20</v>
       </c>
@@ -1381,10 +1393,10 @@
       <c r="K38" s="11"/>
       <c r="L38" s="11"/>
       <c r="M38" s="11"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>13</v>
       </c>
@@ -1413,7 +1425,7 @@
         <v>0.12189999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>14</v>
       </c>
@@ -1442,7 +1454,7 @@
         <v>0.1249</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>20</v>
       </c>
@@ -1470,14 +1482,14 @@
       <c r="I44" s="2">
         <v>0.1235</v>
       </c>
-      <c r="J44" s="15" t="s">
+      <c r="J44" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="K44" s="15"/>
-      <c r="L44" s="15"/>
-      <c r="M44" s="15"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>20</v>
       </c>
@@ -1512,7 +1524,7 @@
       <c r="L45" s="11"/>
       <c r="M45" s="11"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>20</v>
       </c>
@@ -1540,14 +1552,14 @@
       <c r="I46" s="2">
         <v>0.1249</v>
       </c>
-      <c r="J46" s="15" t="s">
+      <c r="J46" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="K46" s="15"/>
-      <c r="L46" s="15"/>
-      <c r="M46" s="15"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="13"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>20</v>
       </c>
@@ -1581,7 +1593,7 @@
       <c r="N47" s="11"/>
       <c r="O47" s="11"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>20</v>
       </c>
@@ -1618,7 +1630,7 @@
       <c r="N48" s="11"/>
       <c r="O48" s="11"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>20</v>
       </c>
@@ -1655,7 +1667,7 @@
       <c r="N49" s="11"/>
       <c r="O49" s="11"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>20</v>
       </c>
@@ -1692,7 +1704,7 @@
       <c r="N50" s="11"/>
       <c r="O50" s="11"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>20</v>
       </c>
@@ -1729,7 +1741,7 @@
       <c r="N51" s="11"/>
       <c r="O51" s="11"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>20</v>
       </c>
@@ -1757,7 +1769,7 @@
       <c r="N52" s="11"/>
       <c r="O52" s="11"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>13</v>
       </c>
@@ -1786,7 +1798,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>20</v>
       </c>
@@ -1815,7 +1827,7 @@
         <v>0.13650000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>13</v>
       </c>
@@ -1844,7 +1856,7 @@
         <v>0.13769999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>14</v>
       </c>
@@ -1881,15 +1893,15 @@
       <c r="L62" s="2">
         <v>0.14990000000000001</v>
       </c>
-      <c r="O62" s="16" t="s">
+      <c r="O62" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="P62" s="16"/>
-      <c r="Q62" s="16"/>
-      <c r="R62" s="16"/>
-      <c r="S62" s="16"/>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P62" s="12"/>
+      <c r="Q62" s="12"/>
+      <c r="R62" s="12"/>
+      <c r="S62" s="12"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
       <c r="G63" s="1">
         <v>20.94</v>
@@ -1901,7 +1913,7 @@
         <v>0.14929999999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>20</v>
       </c>
@@ -1945,7 +1957,7 @@
       <c r="U65" s="11"/>
       <c r="V65" s="11"/>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>20</v>
       </c>
@@ -1989,7 +2001,7 @@
       <c r="U66" s="11"/>
       <c r="V66" s="11"/>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>20</v>
       </c>
@@ -2033,7 +2045,7 @@
       <c r="U67" s="11"/>
       <c r="V67" s="11"/>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" s="6"/>
       <c r="G68" s="4">
         <v>19.54</v>
@@ -2045,7 +2057,7 @@
         <v>0.13730000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>20</v>
       </c>
@@ -2089,7 +2101,7 @@
       <c r="U71" s="11"/>
       <c r="V71" s="11"/>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" s="7"/>
       <c r="G72" s="4">
         <v>19.579999999999998</v>
@@ -2101,7 +2113,7 @@
         <v>0.13980000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
         <v>20</v>
       </c>
@@ -2129,14 +2141,14 @@
       <c r="I73" s="5">
         <v>0.13669999999999999</v>
       </c>
-      <c r="J73" s="15" t="s">
+      <c r="J73" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="K73" s="15"/>
-      <c r="L73" s="15"/>
-      <c r="M73" s="15"/>
-    </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K73" s="13"/>
+      <c r="L73" s="13"/>
+      <c r="M73" s="13"/>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
         <v>20</v>
       </c>
@@ -2155,14 +2167,14 @@
       <c r="F74" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J74" s="15" t="s">
+      <c r="J74" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="K74" s="15"/>
-      <c r="L74" s="15"/>
-      <c r="M74" s="15"/>
-    </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K74" s="13"/>
+      <c r="L74" s="13"/>
+      <c r="M74" s="13"/>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
         <v>20</v>
       </c>
@@ -2190,14 +2202,14 @@
       <c r="I75" s="2">
         <v>0.13780000000000001</v>
       </c>
-      <c r="J75" s="15" t="s">
+      <c r="J75" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="K75" s="15"/>
-      <c r="L75" s="15"/>
-      <c r="M75" s="15"/>
-    </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K75" s="13"/>
+      <c r="L75" s="13"/>
+      <c r="M75" s="13"/>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
         <v>13</v>
       </c>
@@ -2225,38 +2237,38 @@
       <c r="I76" s="5">
         <v>0.1348</v>
       </c>
-      <c r="J76" s="15" t="s">
+      <c r="J76" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="K76" s="15"/>
-      <c r="L76" s="15"/>
-      <c r="M76" s="15"/>
-      <c r="N76" s="15"/>
-      <c r="O76" s="15"/>
-      <c r="P76" s="15"/>
-      <c r="Q76" s="15"/>
-    </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="J77" s="15"/>
-      <c r="K77" s="15"/>
-      <c r="L77" s="15"/>
-      <c r="M77" s="15"/>
-      <c r="N77" s="15"/>
-      <c r="O77" s="15"/>
-      <c r="P77" s="15"/>
-      <c r="Q77" s="15"/>
-    </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="J78" s="15"/>
-      <c r="K78" s="15"/>
-      <c r="L78" s="15"/>
-      <c r="M78" s="15"/>
-      <c r="N78" s="15"/>
-      <c r="O78" s="15"/>
-      <c r="P78" s="15"/>
-      <c r="Q78" s="15"/>
-    </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K76" s="13"/>
+      <c r="L76" s="13"/>
+      <c r="M76" s="13"/>
+      <c r="N76" s="13"/>
+      <c r="O76" s="13"/>
+      <c r="P76" s="13"/>
+      <c r="Q76" s="13"/>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="J77" s="13"/>
+      <c r="K77" s="13"/>
+      <c r="L77" s="13"/>
+      <c r="M77" s="13"/>
+      <c r="N77" s="13"/>
+      <c r="O77" s="13"/>
+      <c r="P77" s="13"/>
+      <c r="Q77" s="13"/>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="J78" s="13"/>
+      <c r="K78" s="13"/>
+      <c r="L78" s="13"/>
+      <c r="M78" s="13"/>
+      <c r="N78" s="13"/>
+      <c r="O78" s="13"/>
+      <c r="P78" s="13"/>
+      <c r="Q78" s="13"/>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>14</v>
       </c>
@@ -2292,7 +2304,7 @@
       <c r="M79" s="11"/>
       <c r="N79" s="11"/>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>16</v>
       </c>
@@ -2328,7 +2340,7 @@
       <c r="M80" s="11"/>
       <c r="N80" s="11"/>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>17</v>
       </c>
@@ -2364,7 +2376,7 @@
       <c r="M81" s="11"/>
       <c r="N81" s="11"/>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>18</v>
       </c>
@@ -2400,7 +2412,7 @@
       <c r="M82" s="11"/>
       <c r="N82" s="11"/>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>19</v>
       </c>
@@ -2436,7 +2448,7 @@
       <c r="M83" s="11"/>
       <c r="N83" s="11"/>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>20</v>
       </c>
@@ -2472,7 +2484,7 @@
       <c r="M84" s="11"/>
       <c r="N84" s="11"/>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>21</v>
       </c>
@@ -2500,15 +2512,15 @@
       <c r="I85" s="2">
         <v>0.1361</v>
       </c>
-      <c r="J85" s="15" t="s">
+      <c r="J85" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="K85" s="15"/>
-      <c r="L85" s="15"/>
-      <c r="M85" s="15"/>
-      <c r="N85" s="15"/>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K85" s="13"/>
+      <c r="L85" s="13"/>
+      <c r="M85" s="13"/>
+      <c r="N85" s="13"/>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>22</v>
       </c>
@@ -2536,15 +2548,15 @@
       <c r="I86" s="5">
         <v>0.13070000000000001</v>
       </c>
-      <c r="J86" s="15" t="s">
+      <c r="J86" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="K86" s="15"/>
-      <c r="L86" s="15"/>
-      <c r="M86" s="15"/>
-      <c r="N86" s="15"/>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K86" s="13"/>
+      <c r="L86" s="13"/>
+      <c r="M86" s="13"/>
+      <c r="N86" s="13"/>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>23</v>
       </c>
@@ -2572,15 +2584,15 @@
       <c r="I87" s="2">
         <v>0.1361</v>
       </c>
-      <c r="J87" s="15" t="s">
+      <c r="J87" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="K87" s="15"/>
-      <c r="L87" s="15"/>
-      <c r="M87" s="15"/>
-      <c r="N87" s="15"/>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K87" s="13"/>
+      <c r="L87" s="13"/>
+      <c r="M87" s="13"/>
+      <c r="N87" s="13"/>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>24</v>
       </c>
@@ -2608,15 +2620,15 @@
       <c r="I88" s="2">
         <v>0.13589999999999999</v>
       </c>
-      <c r="J88" s="15" t="s">
+      <c r="J88" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="K88" s="15"/>
-      <c r="L88" s="15"/>
-      <c r="M88" s="15"/>
-      <c r="N88" s="15"/>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K88" s="13"/>
+      <c r="L88" s="13"/>
+      <c r="M88" s="13"/>
+      <c r="N88" s="13"/>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>25</v>
       </c>
@@ -2652,7 +2664,7 @@
       <c r="M89" s="11"/>
       <c r="N89" s="11"/>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>26</v>
       </c>
@@ -2688,7 +2700,7 @@
       <c r="M90" s="11"/>
       <c r="N90" s="11"/>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>27</v>
       </c>
@@ -2724,7 +2736,7 @@
       <c r="M91" s="11"/>
       <c r="N91" s="11"/>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>28</v>
       </c>
@@ -2772,7 +2784,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>29</v>
       </c>
@@ -2808,7 +2820,7 @@
       <c r="M93" s="11"/>
       <c r="N93" s="11"/>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94" s="8">
         <v>30</v>
       </c>
@@ -2830,15 +2842,15 @@
       <c r="G94" s="9"/>
       <c r="H94" s="9"/>
       <c r="I94" s="10"/>
-      <c r="J94" s="13" t="s">
+      <c r="J94" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="K94" s="13"/>
-      <c r="L94" s="13"/>
-      <c r="M94" s="13"/>
-      <c r="N94" s="13"/>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K94" s="15"/>
+      <c r="L94" s="15"/>
+      <c r="M94" s="15"/>
+      <c r="N94" s="15"/>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>31</v>
       </c>
@@ -2874,7 +2886,7 @@
       <c r="M95" s="11"/>
       <c r="N95" s="11"/>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>32</v>
       </c>
@@ -2910,7 +2922,7 @@
       <c r="M96" s="11"/>
       <c r="N96" s="11"/>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>33</v>
       </c>
@@ -2945,11 +2957,11 @@
       <c r="L97" s="11"/>
       <c r="M97" s="11"/>
       <c r="N97" s="11"/>
-      <c r="O97" s="12"/>
-      <c r="P97" s="12"/>
-      <c r="Q97" s="12"/>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O97" s="14"/>
+      <c r="P97" s="14"/>
+      <c r="Q97" s="14"/>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>34</v>
       </c>
@@ -2984,11 +2996,11 @@
       <c r="L98" s="11"/>
       <c r="M98" s="11"/>
       <c r="N98" s="11"/>
-      <c r="O98" s="12"/>
-      <c r="P98" s="12"/>
-      <c r="Q98" s="12"/>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O98" s="14"/>
+      <c r="P98" s="14"/>
+      <c r="Q98" s="14"/>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>35</v>
       </c>
@@ -3023,11 +3035,11 @@
       <c r="L99" s="11"/>
       <c r="M99" s="11"/>
       <c r="N99" s="11"/>
-      <c r="O99" s="12"/>
-      <c r="P99" s="12"/>
-      <c r="Q99" s="12"/>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O99" s="14"/>
+      <c r="P99" s="14"/>
+      <c r="Q99" s="14"/>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>36</v>
       </c>
@@ -3062,12 +3074,12 @@
       <c r="L100" s="11"/>
       <c r="M100" s="11"/>
       <c r="N100" s="11"/>
-      <c r="O100" s="12"/>
-      <c r="P100" s="12"/>
-      <c r="Q100" s="12"/>
-      <c r="R100" s="12"/>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O100" s="14"/>
+      <c r="P100" s="14"/>
+      <c r="Q100" s="14"/>
+      <c r="R100" s="14"/>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101" s="8">
         <v>37</v>
       </c>
@@ -3089,18 +3101,18 @@
       <c r="G101" s="9"/>
       <c r="H101" s="9"/>
       <c r="I101" s="9"/>
-      <c r="J101" s="13" t="s">
+      <c r="J101" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="K101" s="13"/>
-      <c r="L101" s="13"/>
-      <c r="M101" s="13"/>
-      <c r="N101" s="13"/>
-      <c r="O101" s="14"/>
-      <c r="P101" s="14"/>
-      <c r="Q101" s="14"/>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K101" s="15"/>
+      <c r="L101" s="15"/>
+      <c r="M101" s="15"/>
+      <c r="N101" s="15"/>
+      <c r="O101" s="16"/>
+      <c r="P101" s="16"/>
+      <c r="Q101" s="16"/>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>38</v>
       </c>
@@ -3135,11 +3147,11 @@
       <c r="L102" s="11"/>
       <c r="M102" s="11"/>
       <c r="N102" s="11"/>
-      <c r="O102" s="12"/>
-      <c r="P102" s="12"/>
-      <c r="Q102" s="12"/>
-    </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O102" s="14"/>
+      <c r="P102" s="14"/>
+      <c r="Q102" s="14"/>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A103" s="8">
         <v>39</v>
       </c>
@@ -3161,18 +3173,18 @@
       <c r="G103" s="9"/>
       <c r="H103" s="9"/>
       <c r="I103" s="9"/>
-      <c r="J103" s="13" t="s">
+      <c r="J103" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="K103" s="13"/>
-      <c r="L103" s="13"/>
-      <c r="M103" s="13"/>
-      <c r="N103" s="13"/>
-      <c r="O103" s="14"/>
-      <c r="P103" s="14"/>
-      <c r="Q103" s="14"/>
-    </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K103" s="15"/>
+      <c r="L103" s="15"/>
+      <c r="M103" s="15"/>
+      <c r="N103" s="15"/>
+      <c r="O103" s="16"/>
+      <c r="P103" s="16"/>
+      <c r="Q103" s="16"/>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>40</v>
       </c>
@@ -3207,11 +3219,11 @@
       <c r="L104" s="11"/>
       <c r="M104" s="11"/>
       <c r="N104" s="11"/>
-      <c r="O104" s="12"/>
-      <c r="P104" s="12"/>
-      <c r="Q104" s="12"/>
-    </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O104" s="14"/>
+      <c r="P104" s="14"/>
+      <c r="Q104" s="14"/>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>41</v>
       </c>
@@ -3246,11 +3258,11 @@
       <c r="L105" s="11"/>
       <c r="M105" s="11"/>
       <c r="N105" s="11"/>
-      <c r="O105" s="12"/>
-      <c r="P105" s="12"/>
-      <c r="Q105" s="12"/>
-    </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O105" s="14"/>
+      <c r="P105" s="14"/>
+      <c r="Q105" s="14"/>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>42</v>
       </c>
@@ -3285,63 +3297,158 @@
       <c r="L106" s="11"/>
       <c r="M106" s="11"/>
       <c r="N106" s="11"/>
-      <c r="O106" s="12"/>
-      <c r="P106" s="12"/>
-      <c r="Q106" s="12"/>
-    </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A107" s="1">
+      <c r="O106" s="14"/>
+      <c r="P106" s="14"/>
+      <c r="Q106" s="14"/>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A107" s="8">
         <v>43</v>
       </c>
-      <c r="B107" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J107" s="11" t="s">
+      <c r="B107" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F107" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G107" s="9"/>
+      <c r="H107" s="9"/>
+      <c r="I107" s="9"/>
+      <c r="J107" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="K107" s="11"/>
-      <c r="L107" s="11"/>
-      <c r="M107" s="11"/>
-      <c r="N107" s="11"/>
-      <c r="O107" s="12"/>
-      <c r="P107" s="12"/>
-      <c r="Q107" s="12"/>
+      <c r="K107" s="15"/>
+      <c r="L107" s="15"/>
+      <c r="M107" s="15"/>
+      <c r="N107" s="15"/>
+      <c r="O107" s="16"/>
+      <c r="P107" s="16"/>
+      <c r="Q107" s="16"/>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <v>44</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J108" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="K108" s="11"/>
+      <c r="L108" s="11"/>
+      <c r="M108" s="11"/>
+      <c r="N108" s="11"/>
+      <c r="O108" s="14"/>
+      <c r="P108" s="14"/>
+      <c r="Q108" s="14"/>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <v>45</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J109" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="K109" s="11"/>
+      <c r="L109" s="11"/>
+      <c r="M109" s="11"/>
+      <c r="N109" s="11"/>
+      <c r="O109" s="14"/>
+      <c r="P109" s="14"/>
+      <c r="Q109" s="14"/>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>46</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J110" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="K110" s="11"/>
+      <c r="L110" s="11"/>
+      <c r="M110" s="11"/>
+      <c r="N110" s="11"/>
+      <c r="O110" s="14"/>
+      <c r="P110" s="14"/>
+      <c r="Q110" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
-    <mergeCell ref="J65:V65"/>
-    <mergeCell ref="J47:O47"/>
-    <mergeCell ref="J51:O51"/>
-    <mergeCell ref="J50:O50"/>
-    <mergeCell ref="J49:O49"/>
-    <mergeCell ref="J48:O48"/>
-    <mergeCell ref="O62:S62"/>
-    <mergeCell ref="J52:O52"/>
-    <mergeCell ref="J9:V9"/>
-    <mergeCell ref="J10:V10"/>
-    <mergeCell ref="J18:V18"/>
-    <mergeCell ref="J11:V11"/>
-    <mergeCell ref="J19:V19"/>
-    <mergeCell ref="J12:V12"/>
-    <mergeCell ref="J24:V24"/>
-    <mergeCell ref="J25:V25"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="J38:O38"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="J44:M44"/>
+  <mergeCells count="60">
+    <mergeCell ref="J108:Q108"/>
+    <mergeCell ref="J109:Q109"/>
+    <mergeCell ref="J110:Q110"/>
+    <mergeCell ref="J107:Q107"/>
+    <mergeCell ref="J106:Q106"/>
+    <mergeCell ref="J100:R100"/>
+    <mergeCell ref="J101:Q101"/>
+    <mergeCell ref="J102:Q102"/>
+    <mergeCell ref="J103:Q103"/>
+    <mergeCell ref="J104:Q104"/>
+    <mergeCell ref="J105:Q105"/>
+    <mergeCell ref="J95:N95"/>
+    <mergeCell ref="J99:Q99"/>
+    <mergeCell ref="J98:Q98"/>
+    <mergeCell ref="J96:N96"/>
+    <mergeCell ref="J97:Q97"/>
+    <mergeCell ref="J84:N84"/>
+    <mergeCell ref="J83:N83"/>
+    <mergeCell ref="J82:N82"/>
+    <mergeCell ref="J92:N92"/>
+    <mergeCell ref="J85:N85"/>
+    <mergeCell ref="J87:N87"/>
+    <mergeCell ref="J88:N88"/>
     <mergeCell ref="J66:V66"/>
     <mergeCell ref="J67:V67"/>
     <mergeCell ref="J71:V71"/>
@@ -3358,26 +3465,27 @@
     <mergeCell ref="J90:N90"/>
     <mergeCell ref="J91:N91"/>
     <mergeCell ref="J93:N93"/>
-    <mergeCell ref="J84:N84"/>
-    <mergeCell ref="J83:N83"/>
-    <mergeCell ref="J82:N82"/>
-    <mergeCell ref="J92:N92"/>
-    <mergeCell ref="J85:N85"/>
-    <mergeCell ref="J87:N87"/>
-    <mergeCell ref="J88:N88"/>
-    <mergeCell ref="J95:N95"/>
-    <mergeCell ref="J99:Q99"/>
-    <mergeCell ref="J98:Q98"/>
-    <mergeCell ref="J96:N96"/>
-    <mergeCell ref="J97:Q97"/>
-    <mergeCell ref="J107:Q107"/>
-    <mergeCell ref="J106:Q106"/>
-    <mergeCell ref="J100:R100"/>
-    <mergeCell ref="J101:Q101"/>
-    <mergeCell ref="J102:Q102"/>
-    <mergeCell ref="J103:Q103"/>
-    <mergeCell ref="J104:Q104"/>
-    <mergeCell ref="J105:Q105"/>
+    <mergeCell ref="J24:V24"/>
+    <mergeCell ref="J25:V25"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="J38:O38"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="J9:V9"/>
+    <mergeCell ref="J10:V10"/>
+    <mergeCell ref="J18:V18"/>
+    <mergeCell ref="J11:V11"/>
+    <mergeCell ref="J19:V19"/>
+    <mergeCell ref="J12:V12"/>
+    <mergeCell ref="J65:V65"/>
+    <mergeCell ref="J47:O47"/>
+    <mergeCell ref="J51:O51"/>
+    <mergeCell ref="J50:O50"/>
+    <mergeCell ref="J49:O49"/>
+    <mergeCell ref="J48:O48"/>
+    <mergeCell ref="O62:S62"/>
+    <mergeCell ref="J52:O52"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0FECE3-134F-47F8-871A-2A52E9777F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199030AC-B186-4965-82B4-FEDE13547C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="84">
   <si>
     <t>ST-SSL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -355,6 +355,10 @@
   </si>
   <si>
     <t>13-&gt;46 block中添加注意力，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">28-&gt;47 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -765,10 +769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:V110"/>
+  <dimension ref="A3:V111"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="O111" sqref="O111"/>
+      <selection activeCell="L114" sqref="L114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3383,6 +3387,15 @@
       <c r="F109" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="G109" s="1">
+        <v>19.52</v>
+      </c>
+      <c r="H109" s="1">
+        <v>30.99</v>
+      </c>
+      <c r="I109" s="2">
+        <v>0.13550000000000001</v>
+      </c>
       <c r="J109" s="11" t="s">
         <v>81</v>
       </c>
@@ -3424,24 +3437,55 @@
       <c r="P110" s="14"/>
       <c r="Q110" s="14"/>
     </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <v>47</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J111" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="K111" s="11"/>
+      <c r="L111" s="11"/>
+      <c r="M111" s="11"/>
+      <c r="N111" s="11"/>
+      <c r="O111" s="14"/>
+      <c r="P111" s="14"/>
+      <c r="Q111" s="14"/>
+    </row>
   </sheetData>
-  <mergeCells count="60">
+  <mergeCells count="61">
+    <mergeCell ref="J111:Q111"/>
     <mergeCell ref="J108:Q108"/>
     <mergeCell ref="J109:Q109"/>
     <mergeCell ref="J110:Q110"/>
     <mergeCell ref="J107:Q107"/>
     <mergeCell ref="J106:Q106"/>
-    <mergeCell ref="J100:R100"/>
-    <mergeCell ref="J101:Q101"/>
-    <mergeCell ref="J102:Q102"/>
-    <mergeCell ref="J103:Q103"/>
-    <mergeCell ref="J104:Q104"/>
     <mergeCell ref="J105:Q105"/>
     <mergeCell ref="J95:N95"/>
     <mergeCell ref="J99:Q99"/>
     <mergeCell ref="J98:Q98"/>
     <mergeCell ref="J96:N96"/>
     <mergeCell ref="J97:Q97"/>
+    <mergeCell ref="J100:R100"/>
+    <mergeCell ref="J101:Q101"/>
+    <mergeCell ref="J102:Q102"/>
+    <mergeCell ref="J103:Q103"/>
+    <mergeCell ref="J104:Q104"/>
     <mergeCell ref="J84:N84"/>
     <mergeCell ref="J83:N83"/>
     <mergeCell ref="J82:N82"/>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tfp_pro\modinfo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199030AC-B186-4965-82B4-FEDE13547C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A279EA-A5F5-49C9-BABD-8B316C249BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -474,12 +474,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -488,6 +482,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -771,16 +771,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:V111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="L114" sqref="L114"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="G110" sqref="G110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
@@ -791,7 +791,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -820,7 +820,7 @@
         <v>0.1363</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -849,7 +849,7 @@
         <v>0.1198</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -878,7 +878,7 @@
         <v>0.12089999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -922,7 +922,7 @@
       <c r="U9" s="11"/>
       <c r="V9" s="11"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -966,7 +966,7 @@
       <c r="U10" s="11"/>
       <c r="V10" s="11"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1010,7 +1010,7 @@
       <c r="U11" s="11"/>
       <c r="V11" s="11"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1054,7 +1054,7 @@
       <c r="U12" s="11"/>
       <c r="V12" s="11"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>0.14430000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>0.14610000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -1156,7 +1156,7 @@
       <c r="U18" s="11"/>
       <c r="V18" s="11"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -1200,7 +1200,7 @@
       <c r="U19" s="11"/>
       <c r="V19" s="11"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>13</v>
       </c>
@@ -1235,7 +1235,7 @@
       <c r="U24" s="11"/>
       <c r="V24" s="11"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>14</v>
       </c>
@@ -1270,7 +1270,7 @@
       <c r="U25" s="11"/>
       <c r="V25" s="11"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>13</v>
       </c>
@@ -1299,7 +1299,7 @@
         <v>0.12959999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>14</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>0.1295</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>20</v>
       </c>
@@ -1363,7 +1363,7 @@
       <c r="L37" s="11"/>
       <c r="M37" s="11"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>20</v>
       </c>
@@ -1397,10 +1397,10 @@
       <c r="K38" s="11"/>
       <c r="L38" s="11"/>
       <c r="M38" s="11"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>13</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>0.12189999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>14</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>0.1249</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>20</v>
       </c>
@@ -1486,14 +1486,14 @@
       <c r="I44" s="2">
         <v>0.1235</v>
       </c>
-      <c r="J44" s="13" t="s">
+      <c r="J44" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>20</v>
       </c>
@@ -1528,7 +1528,7 @@
       <c r="L45" s="11"/>
       <c r="M45" s="11"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>20</v>
       </c>
@@ -1556,14 +1556,14 @@
       <c r="I46" s="2">
         <v>0.1249</v>
       </c>
-      <c r="J46" s="13" t="s">
+      <c r="J46" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="K46" s="13"/>
-      <c r="L46" s="13"/>
-      <c r="M46" s="13"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="15"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,7 +1597,7 @@
       <c r="N47" s="11"/>
       <c r="O47" s="11"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>20</v>
       </c>
@@ -1634,7 +1634,7 @@
       <c r="N48" s="11"/>
       <c r="O48" s="11"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>20</v>
       </c>
@@ -1671,7 +1671,7 @@
       <c r="N49" s="11"/>
       <c r="O49" s="11"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>20</v>
       </c>
@@ -1708,7 +1708,7 @@
       <c r="N50" s="11"/>
       <c r="O50" s="11"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>20</v>
       </c>
@@ -1745,7 +1745,7 @@
       <c r="N51" s="11"/>
       <c r="O51" s="11"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>20</v>
       </c>
@@ -1773,7 +1773,7 @@
       <c r="N52" s="11"/>
       <c r="O52" s="11"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>13</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>20</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>0.13650000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>13</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>0.13769999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>14</v>
       </c>
@@ -1897,15 +1897,15 @@
       <c r="L62" s="2">
         <v>0.14990000000000001</v>
       </c>
-      <c r="O62" s="12" t="s">
+      <c r="O62" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="P62" s="12"/>
-      <c r="Q62" s="12"/>
-      <c r="R62" s="12"/>
-      <c r="S62" s="12"/>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="P62" s="16"/>
+      <c r="Q62" s="16"/>
+      <c r="R62" s="16"/>
+      <c r="S62" s="16"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="G63" s="1">
         <v>20.94</v>
@@ -1917,7 +1917,7 @@
         <v>0.14929999999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>20</v>
       </c>
@@ -1961,7 +1961,7 @@
       <c r="U65" s="11"/>
       <c r="V65" s="11"/>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>20</v>
       </c>
@@ -2005,7 +2005,7 @@
       <c r="U66" s="11"/>
       <c r="V66" s="11"/>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>20</v>
       </c>
@@ -2049,7 +2049,7 @@
       <c r="U67" s="11"/>
       <c r="V67" s="11"/>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="G68" s="4">
         <v>19.54</v>
@@ -2061,7 +2061,7 @@
         <v>0.13730000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>20</v>
       </c>
@@ -2105,7 +2105,7 @@
       <c r="U71" s="11"/>
       <c r="V71" s="11"/>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" s="7"/>
       <c r="G72" s="4">
         <v>19.579999999999998</v>
@@ -2117,7 +2117,7 @@
         <v>0.13980000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>20</v>
       </c>
@@ -2145,14 +2145,14 @@
       <c r="I73" s="5">
         <v>0.13669999999999999</v>
       </c>
-      <c r="J73" s="13" t="s">
+      <c r="J73" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K73" s="13"/>
-      <c r="L73" s="13"/>
-      <c r="M73" s="13"/>
-    </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="K73" s="15"/>
+      <c r="L73" s="15"/>
+      <c r="M73" s="15"/>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>20</v>
       </c>
@@ -2171,14 +2171,14 @@
       <c r="F74" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J74" s="13" t="s">
+      <c r="J74" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="K74" s="13"/>
-      <c r="L74" s="13"/>
-      <c r="M74" s="13"/>
-    </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="K74" s="15"/>
+      <c r="L74" s="15"/>
+      <c r="M74" s="15"/>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>20</v>
       </c>
@@ -2206,14 +2206,14 @@
       <c r="I75" s="2">
         <v>0.13780000000000001</v>
       </c>
-      <c r="J75" s="13" t="s">
+      <c r="J75" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="K75" s="13"/>
-      <c r="L75" s="13"/>
-      <c r="M75" s="13"/>
-    </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="K75" s="15"/>
+      <c r="L75" s="15"/>
+      <c r="M75" s="15"/>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>13</v>
       </c>
@@ -2241,38 +2241,38 @@
       <c r="I76" s="5">
         <v>0.1348</v>
       </c>
-      <c r="J76" s="13" t="s">
+      <c r="J76" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="K76" s="13"/>
-      <c r="L76" s="13"/>
-      <c r="M76" s="13"/>
-      <c r="N76" s="13"/>
-      <c r="O76" s="13"/>
-      <c r="P76" s="13"/>
-      <c r="Q76" s="13"/>
-    </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="J77" s="13"/>
-      <c r="K77" s="13"/>
-      <c r="L77" s="13"/>
-      <c r="M77" s="13"/>
-      <c r="N77" s="13"/>
-      <c r="O77" s="13"/>
-      <c r="P77" s="13"/>
-      <c r="Q77" s="13"/>
-    </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="J78" s="13"/>
-      <c r="K78" s="13"/>
-      <c r="L78" s="13"/>
-      <c r="M78" s="13"/>
-      <c r="N78" s="13"/>
-      <c r="O78" s="13"/>
-      <c r="P78" s="13"/>
-      <c r="Q78" s="13"/>
-    </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="K76" s="15"/>
+      <c r="L76" s="15"/>
+      <c r="M76" s="15"/>
+      <c r="N76" s="15"/>
+      <c r="O76" s="15"/>
+      <c r="P76" s="15"/>
+      <c r="Q76" s="15"/>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="J77" s="15"/>
+      <c r="K77" s="15"/>
+      <c r="L77" s="15"/>
+      <c r="M77" s="15"/>
+      <c r="N77" s="15"/>
+      <c r="O77" s="15"/>
+      <c r="P77" s="15"/>
+      <c r="Q77" s="15"/>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="J78" s="15"/>
+      <c r="K78" s="15"/>
+      <c r="L78" s="15"/>
+      <c r="M78" s="15"/>
+      <c r="N78" s="15"/>
+      <c r="O78" s="15"/>
+      <c r="P78" s="15"/>
+      <c r="Q78" s="15"/>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>14</v>
       </c>
@@ -2308,7 +2308,7 @@
       <c r="M79" s="11"/>
       <c r="N79" s="11"/>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>16</v>
       </c>
@@ -2344,7 +2344,7 @@
       <c r="M80" s="11"/>
       <c r="N80" s="11"/>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>17</v>
       </c>
@@ -2380,7 +2380,7 @@
       <c r="M81" s="11"/>
       <c r="N81" s="11"/>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>18</v>
       </c>
@@ -2416,7 +2416,7 @@
       <c r="M82" s="11"/>
       <c r="N82" s="11"/>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>19</v>
       </c>
@@ -2452,7 +2452,7 @@
       <c r="M83" s="11"/>
       <c r="N83" s="11"/>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>20</v>
       </c>
@@ -2488,7 +2488,7 @@
       <c r="M84" s="11"/>
       <c r="N84" s="11"/>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>21</v>
       </c>
@@ -2516,15 +2516,15 @@
       <c r="I85" s="2">
         <v>0.1361</v>
       </c>
-      <c r="J85" s="13" t="s">
+      <c r="J85" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="K85" s="13"/>
-      <c r="L85" s="13"/>
-      <c r="M85" s="13"/>
-      <c r="N85" s="13"/>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="K85" s="15"/>
+      <c r="L85" s="15"/>
+      <c r="M85" s="15"/>
+      <c r="N85" s="15"/>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>22</v>
       </c>
@@ -2552,15 +2552,15 @@
       <c r="I86" s="5">
         <v>0.13070000000000001</v>
       </c>
-      <c r="J86" s="13" t="s">
+      <c r="J86" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="K86" s="13"/>
-      <c r="L86" s="13"/>
-      <c r="M86" s="13"/>
-      <c r="N86" s="13"/>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="K86" s="15"/>
+      <c r="L86" s="15"/>
+      <c r="M86" s="15"/>
+      <c r="N86" s="15"/>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>23</v>
       </c>
@@ -2588,15 +2588,15 @@
       <c r="I87" s="2">
         <v>0.1361</v>
       </c>
-      <c r="J87" s="13" t="s">
+      <c r="J87" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="K87" s="13"/>
-      <c r="L87" s="13"/>
-      <c r="M87" s="13"/>
-      <c r="N87" s="13"/>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="K87" s="15"/>
+      <c r="L87" s="15"/>
+      <c r="M87" s="15"/>
+      <c r="N87" s="15"/>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>24</v>
       </c>
@@ -2624,15 +2624,15 @@
       <c r="I88" s="2">
         <v>0.13589999999999999</v>
       </c>
-      <c r="J88" s="13" t="s">
+      <c r="J88" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="K88" s="13"/>
-      <c r="L88" s="13"/>
-      <c r="M88" s="13"/>
-      <c r="N88" s="13"/>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="K88" s="15"/>
+      <c r="L88" s="15"/>
+      <c r="M88" s="15"/>
+      <c r="N88" s="15"/>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>25</v>
       </c>
@@ -2668,7 +2668,7 @@
       <c r="M89" s="11"/>
       <c r="N89" s="11"/>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>26</v>
       </c>
@@ -2704,7 +2704,7 @@
       <c r="M90" s="11"/>
       <c r="N90" s="11"/>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>27</v>
       </c>
@@ -2740,7 +2740,7 @@
       <c r="M91" s="11"/>
       <c r="N91" s="11"/>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>28</v>
       </c>
@@ -2788,7 +2788,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>29</v>
       </c>
@@ -2824,7 +2824,7 @@
       <c r="M93" s="11"/>
       <c r="N93" s="11"/>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="8">
         <v>30</v>
       </c>
@@ -2846,15 +2846,15 @@
       <c r="G94" s="9"/>
       <c r="H94" s="9"/>
       <c r="I94" s="10"/>
-      <c r="J94" s="15" t="s">
+      <c r="J94" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="K94" s="15"/>
-      <c r="L94" s="15"/>
-      <c r="M94" s="15"/>
-      <c r="N94" s="15"/>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="K94" s="13"/>
+      <c r="L94" s="13"/>
+      <c r="M94" s="13"/>
+      <c r="N94" s="13"/>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>31</v>
       </c>
@@ -2890,7 +2890,7 @@
       <c r="M95" s="11"/>
       <c r="N95" s="11"/>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>32</v>
       </c>
@@ -2926,7 +2926,7 @@
       <c r="M96" s="11"/>
       <c r="N96" s="11"/>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>33</v>
       </c>
@@ -2961,11 +2961,11 @@
       <c r="L97" s="11"/>
       <c r="M97" s="11"/>
       <c r="N97" s="11"/>
-      <c r="O97" s="14"/>
-      <c r="P97" s="14"/>
-      <c r="Q97" s="14"/>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O97" s="12"/>
+      <c r="P97" s="12"/>
+      <c r="Q97" s="12"/>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>34</v>
       </c>
@@ -3000,11 +3000,11 @@
       <c r="L98" s="11"/>
       <c r="M98" s="11"/>
       <c r="N98" s="11"/>
-      <c r="O98" s="14"/>
-      <c r="P98" s="14"/>
-      <c r="Q98" s="14"/>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O98" s="12"/>
+      <c r="P98" s="12"/>
+      <c r="Q98" s="12"/>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>35</v>
       </c>
@@ -3039,11 +3039,11 @@
       <c r="L99" s="11"/>
       <c r="M99" s="11"/>
       <c r="N99" s="11"/>
-      <c r="O99" s="14"/>
-      <c r="P99" s="14"/>
-      <c r="Q99" s="14"/>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O99" s="12"/>
+      <c r="P99" s="12"/>
+      <c r="Q99" s="12"/>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>36</v>
       </c>
@@ -3078,12 +3078,12 @@
       <c r="L100" s="11"/>
       <c r="M100" s="11"/>
       <c r="N100" s="11"/>
-      <c r="O100" s="14"/>
-      <c r="P100" s="14"/>
-      <c r="Q100" s="14"/>
-      <c r="R100" s="14"/>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O100" s="12"/>
+      <c r="P100" s="12"/>
+      <c r="Q100" s="12"/>
+      <c r="R100" s="12"/>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" s="8">
         <v>37</v>
       </c>
@@ -3105,18 +3105,18 @@
       <c r="G101" s="9"/>
       <c r="H101" s="9"/>
       <c r="I101" s="9"/>
-      <c r="J101" s="15" t="s">
+      <c r="J101" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="K101" s="15"/>
-      <c r="L101" s="15"/>
-      <c r="M101" s="15"/>
-      <c r="N101" s="15"/>
-      <c r="O101" s="16"/>
-      <c r="P101" s="16"/>
-      <c r="Q101" s="16"/>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="K101" s="13"/>
+      <c r="L101" s="13"/>
+      <c r="M101" s="13"/>
+      <c r="N101" s="13"/>
+      <c r="O101" s="14"/>
+      <c r="P101" s="14"/>
+      <c r="Q101" s="14"/>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>38</v>
       </c>
@@ -3151,11 +3151,11 @@
       <c r="L102" s="11"/>
       <c r="M102" s="11"/>
       <c r="N102" s="11"/>
-      <c r="O102" s="14"/>
-      <c r="P102" s="14"/>
-      <c r="Q102" s="14"/>
-    </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O102" s="12"/>
+      <c r="P102" s="12"/>
+      <c r="Q102" s="12"/>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" s="8">
         <v>39</v>
       </c>
@@ -3177,18 +3177,18 @@
       <c r="G103" s="9"/>
       <c r="H103" s="9"/>
       <c r="I103" s="9"/>
-      <c r="J103" s="15" t="s">
+      <c r="J103" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="K103" s="15"/>
-      <c r="L103" s="15"/>
-      <c r="M103" s="15"/>
-      <c r="N103" s="15"/>
-      <c r="O103" s="16"/>
-      <c r="P103" s="16"/>
-      <c r="Q103" s="16"/>
-    </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="K103" s="13"/>
+      <c r="L103" s="13"/>
+      <c r="M103" s="13"/>
+      <c r="N103" s="13"/>
+      <c r="O103" s="14"/>
+      <c r="P103" s="14"/>
+      <c r="Q103" s="14"/>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>40</v>
       </c>
@@ -3223,11 +3223,11 @@
       <c r="L104" s="11"/>
       <c r="M104" s="11"/>
       <c r="N104" s="11"/>
-      <c r="O104" s="14"/>
-      <c r="P104" s="14"/>
-      <c r="Q104" s="14"/>
-    </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O104" s="12"/>
+      <c r="P104" s="12"/>
+      <c r="Q104" s="12"/>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>41</v>
       </c>
@@ -3262,11 +3262,11 @@
       <c r="L105" s="11"/>
       <c r="M105" s="11"/>
       <c r="N105" s="11"/>
-      <c r="O105" s="14"/>
-      <c r="P105" s="14"/>
-      <c r="Q105" s="14"/>
-    </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O105" s="12"/>
+      <c r="P105" s="12"/>
+      <c r="Q105" s="12"/>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>42</v>
       </c>
@@ -3301,11 +3301,11 @@
       <c r="L106" s="11"/>
       <c r="M106" s="11"/>
       <c r="N106" s="11"/>
-      <c r="O106" s="14"/>
-      <c r="P106" s="14"/>
-      <c r="Q106" s="14"/>
-    </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O106" s="12"/>
+      <c r="P106" s="12"/>
+      <c r="Q106" s="12"/>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" s="8">
         <v>43</v>
       </c>
@@ -3327,18 +3327,18 @@
       <c r="G107" s="9"/>
       <c r="H107" s="9"/>
       <c r="I107" s="9"/>
-      <c r="J107" s="15" t="s">
+      <c r="J107" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="K107" s="15"/>
-      <c r="L107" s="15"/>
-      <c r="M107" s="15"/>
-      <c r="N107" s="15"/>
-      <c r="O107" s="16"/>
-      <c r="P107" s="16"/>
-      <c r="Q107" s="16"/>
-    </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="K107" s="13"/>
+      <c r="L107" s="13"/>
+      <c r="M107" s="13"/>
+      <c r="N107" s="13"/>
+      <c r="O107" s="14"/>
+      <c r="P107" s="14"/>
+      <c r="Q107" s="14"/>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>44</v>
       </c>
@@ -3364,11 +3364,11 @@
       <c r="L108" s="11"/>
       <c r="M108" s="11"/>
       <c r="N108" s="11"/>
-      <c r="O108" s="14"/>
-      <c r="P108" s="14"/>
-      <c r="Q108" s="14"/>
-    </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O108" s="12"/>
+      <c r="P108" s="12"/>
+      <c r="Q108" s="12"/>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>45</v>
       </c>
@@ -3403,11 +3403,11 @@
       <c r="L109" s="11"/>
       <c r="M109" s="11"/>
       <c r="N109" s="11"/>
-      <c r="O109" s="14"/>
-      <c r="P109" s="14"/>
-      <c r="Q109" s="14"/>
-    </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O109" s="12"/>
+      <c r="P109" s="12"/>
+      <c r="Q109" s="12"/>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>46</v>
       </c>
@@ -3433,11 +3433,11 @@
       <c r="L110" s="11"/>
       <c r="M110" s="11"/>
       <c r="N110" s="11"/>
-      <c r="O110" s="14"/>
-      <c r="P110" s="14"/>
-      <c r="Q110" s="14"/>
-    </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O110" s="12"/>
+      <c r="P110" s="12"/>
+      <c r="Q110" s="12"/>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>47</v>
       </c>
@@ -3455,6 +3455,15 @@
       </c>
       <c r="F111" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="G111" s="1">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="H111" s="1">
+        <v>30.61</v>
+      </c>
+      <c r="I111" s="2">
+        <v>0.1336</v>
       </c>
       <c r="J111" s="11" t="s">
         <v>83</v>
@@ -3463,36 +3472,33 @@
       <c r="L111" s="11"/>
       <c r="M111" s="11"/>
       <c r="N111" s="11"/>
-      <c r="O111" s="14"/>
-      <c r="P111" s="14"/>
-      <c r="Q111" s="14"/>
+      <c r="O111" s="12"/>
+      <c r="P111" s="12"/>
+      <c r="Q111" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="J111:Q111"/>
-    <mergeCell ref="J108:Q108"/>
-    <mergeCell ref="J109:Q109"/>
-    <mergeCell ref="J110:Q110"/>
-    <mergeCell ref="J107:Q107"/>
-    <mergeCell ref="J106:Q106"/>
-    <mergeCell ref="J105:Q105"/>
-    <mergeCell ref="J95:N95"/>
-    <mergeCell ref="J99:Q99"/>
-    <mergeCell ref="J98:Q98"/>
-    <mergeCell ref="J96:N96"/>
-    <mergeCell ref="J97:Q97"/>
-    <mergeCell ref="J100:R100"/>
-    <mergeCell ref="J101:Q101"/>
-    <mergeCell ref="J102:Q102"/>
-    <mergeCell ref="J103:Q103"/>
-    <mergeCell ref="J104:Q104"/>
-    <mergeCell ref="J84:N84"/>
-    <mergeCell ref="J83:N83"/>
-    <mergeCell ref="J82:N82"/>
-    <mergeCell ref="J92:N92"/>
-    <mergeCell ref="J85:N85"/>
-    <mergeCell ref="J87:N87"/>
-    <mergeCell ref="J88:N88"/>
+    <mergeCell ref="J65:V65"/>
+    <mergeCell ref="J47:O47"/>
+    <mergeCell ref="J51:O51"/>
+    <mergeCell ref="J50:O50"/>
+    <mergeCell ref="J49:O49"/>
+    <mergeCell ref="J48:O48"/>
+    <mergeCell ref="O62:S62"/>
+    <mergeCell ref="J52:O52"/>
+    <mergeCell ref="J9:V9"/>
+    <mergeCell ref="J10:V10"/>
+    <mergeCell ref="J18:V18"/>
+    <mergeCell ref="J11:V11"/>
+    <mergeCell ref="J19:V19"/>
+    <mergeCell ref="J12:V12"/>
+    <mergeCell ref="J24:V24"/>
+    <mergeCell ref="J25:V25"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="J38:O38"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="J44:M44"/>
     <mergeCell ref="J66:V66"/>
     <mergeCell ref="J67:V67"/>
     <mergeCell ref="J71:V71"/>
@@ -3509,27 +3515,30 @@
     <mergeCell ref="J90:N90"/>
     <mergeCell ref="J91:N91"/>
     <mergeCell ref="J93:N93"/>
-    <mergeCell ref="J24:V24"/>
-    <mergeCell ref="J25:V25"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="J38:O38"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="J44:M44"/>
-    <mergeCell ref="J9:V9"/>
-    <mergeCell ref="J10:V10"/>
-    <mergeCell ref="J18:V18"/>
-    <mergeCell ref="J11:V11"/>
-    <mergeCell ref="J19:V19"/>
-    <mergeCell ref="J12:V12"/>
-    <mergeCell ref="J65:V65"/>
-    <mergeCell ref="J47:O47"/>
-    <mergeCell ref="J51:O51"/>
-    <mergeCell ref="J50:O50"/>
-    <mergeCell ref="J49:O49"/>
-    <mergeCell ref="J48:O48"/>
-    <mergeCell ref="O62:S62"/>
-    <mergeCell ref="J52:O52"/>
+    <mergeCell ref="J84:N84"/>
+    <mergeCell ref="J83:N83"/>
+    <mergeCell ref="J82:N82"/>
+    <mergeCell ref="J92:N92"/>
+    <mergeCell ref="J85:N85"/>
+    <mergeCell ref="J87:N87"/>
+    <mergeCell ref="J88:N88"/>
+    <mergeCell ref="J106:Q106"/>
+    <mergeCell ref="J105:Q105"/>
+    <mergeCell ref="J95:N95"/>
+    <mergeCell ref="J99:Q99"/>
+    <mergeCell ref="J98:Q98"/>
+    <mergeCell ref="J96:N96"/>
+    <mergeCell ref="J97:Q97"/>
+    <mergeCell ref="J100:R100"/>
+    <mergeCell ref="J101:Q101"/>
+    <mergeCell ref="J102:Q102"/>
+    <mergeCell ref="J103:Q103"/>
+    <mergeCell ref="J104:Q104"/>
+    <mergeCell ref="J111:Q111"/>
+    <mergeCell ref="J108:Q108"/>
+    <mergeCell ref="J109:Q109"/>
+    <mergeCell ref="J110:Q110"/>
+    <mergeCell ref="J107:Q107"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tfp_pro\modinfo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A279EA-A5F5-49C9-BABD-8B316C249BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5E5C1F-1AE4-46EF-B974-9A3976288C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14265" yWindow="1710" windowWidth="22665" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -474,6 +474,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -482,12 +488,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -771,16 +771,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:V111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="G110" sqref="G110"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="J110" sqref="J110:Q110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
@@ -791,7 +791,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -820,7 +820,7 @@
         <v>0.1363</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -849,7 +849,7 @@
         <v>0.1198</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -878,7 +878,7 @@
         <v>0.12089999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -922,7 +922,7 @@
       <c r="U9" s="11"/>
       <c r="V9" s="11"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -966,7 +966,7 @@
       <c r="U10" s="11"/>
       <c r="V10" s="11"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1010,7 +1010,7 @@
       <c r="U11" s="11"/>
       <c r="V11" s="11"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1054,7 +1054,7 @@
       <c r="U12" s="11"/>
       <c r="V12" s="11"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>0.14430000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>0.14610000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -1156,7 +1156,7 @@
       <c r="U18" s="11"/>
       <c r="V18" s="11"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -1200,7 +1200,7 @@
       <c r="U19" s="11"/>
       <c r="V19" s="11"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>13</v>
       </c>
@@ -1235,7 +1235,7 @@
       <c r="U24" s="11"/>
       <c r="V24" s="11"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>14</v>
       </c>
@@ -1270,7 +1270,7 @@
       <c r="U25" s="11"/>
       <c r="V25" s="11"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>13</v>
       </c>
@@ -1299,7 +1299,7 @@
         <v>0.12959999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>14</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>0.1295</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>20</v>
       </c>
@@ -1363,7 +1363,7 @@
       <c r="L37" s="11"/>
       <c r="M37" s="11"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>20</v>
       </c>
@@ -1397,10 +1397,10 @@
       <c r="K38" s="11"/>
       <c r="L38" s="11"/>
       <c r="M38" s="11"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>13</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>0.12189999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>14</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>0.1249</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>20</v>
       </c>
@@ -1486,14 +1486,14 @@
       <c r="I44" s="2">
         <v>0.1235</v>
       </c>
-      <c r="J44" s="15" t="s">
+      <c r="J44" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="K44" s="15"/>
-      <c r="L44" s="15"/>
-      <c r="M44" s="15"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>20</v>
       </c>
@@ -1528,7 +1528,7 @@
       <c r="L45" s="11"/>
       <c r="M45" s="11"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>20</v>
       </c>
@@ -1556,14 +1556,14 @@
       <c r="I46" s="2">
         <v>0.1249</v>
       </c>
-      <c r="J46" s="15" t="s">
+      <c r="J46" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="K46" s="15"/>
-      <c r="L46" s="15"/>
-      <c r="M46" s="15"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="13"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,7 +1597,7 @@
       <c r="N47" s="11"/>
       <c r="O47" s="11"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>20</v>
       </c>
@@ -1634,7 +1634,7 @@
       <c r="N48" s="11"/>
       <c r="O48" s="11"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>20</v>
       </c>
@@ -1671,7 +1671,7 @@
       <c r="N49" s="11"/>
       <c r="O49" s="11"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>20</v>
       </c>
@@ -1708,7 +1708,7 @@
       <c r="N50" s="11"/>
       <c r="O50" s="11"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>20</v>
       </c>
@@ -1745,7 +1745,7 @@
       <c r="N51" s="11"/>
       <c r="O51" s="11"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>20</v>
       </c>
@@ -1773,7 +1773,7 @@
       <c r="N52" s="11"/>
       <c r="O52" s="11"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>13</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>20</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>0.13650000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>13</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>0.13769999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>14</v>
       </c>
@@ -1897,15 +1897,15 @@
       <c r="L62" s="2">
         <v>0.14990000000000001</v>
       </c>
-      <c r="O62" s="16" t="s">
+      <c r="O62" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="P62" s="16"/>
-      <c r="Q62" s="16"/>
-      <c r="R62" s="16"/>
-      <c r="S62" s="16"/>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P62" s="12"/>
+      <c r="Q62" s="12"/>
+      <c r="R62" s="12"/>
+      <c r="S62" s="12"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
       <c r="G63" s="1">
         <v>20.94</v>
@@ -1917,7 +1917,7 @@
         <v>0.14929999999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>20</v>
       </c>
@@ -1961,7 +1961,7 @@
       <c r="U65" s="11"/>
       <c r="V65" s="11"/>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>20</v>
       </c>
@@ -2005,7 +2005,7 @@
       <c r="U66" s="11"/>
       <c r="V66" s="11"/>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>20</v>
       </c>
@@ -2049,7 +2049,7 @@
       <c r="U67" s="11"/>
       <c r="V67" s="11"/>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" s="6"/>
       <c r="G68" s="4">
         <v>19.54</v>
@@ -2061,7 +2061,7 @@
         <v>0.13730000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>20</v>
       </c>
@@ -2105,7 +2105,7 @@
       <c r="U71" s="11"/>
       <c r="V71" s="11"/>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" s="7"/>
       <c r="G72" s="4">
         <v>19.579999999999998</v>
@@ -2117,7 +2117,7 @@
         <v>0.13980000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
         <v>20</v>
       </c>
@@ -2145,14 +2145,14 @@
       <c r="I73" s="5">
         <v>0.13669999999999999</v>
       </c>
-      <c r="J73" s="15" t="s">
+      <c r="J73" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="K73" s="15"/>
-      <c r="L73" s="15"/>
-      <c r="M73" s="15"/>
-    </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K73" s="13"/>
+      <c r="L73" s="13"/>
+      <c r="M73" s="13"/>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
         <v>20</v>
       </c>
@@ -2171,14 +2171,14 @@
       <c r="F74" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J74" s="15" t="s">
+      <c r="J74" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="K74" s="15"/>
-      <c r="L74" s="15"/>
-      <c r="M74" s="15"/>
-    </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K74" s="13"/>
+      <c r="L74" s="13"/>
+      <c r="M74" s="13"/>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
         <v>20</v>
       </c>
@@ -2206,14 +2206,14 @@
       <c r="I75" s="2">
         <v>0.13780000000000001</v>
       </c>
-      <c r="J75" s="15" t="s">
+      <c r="J75" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="K75" s="15"/>
-      <c r="L75" s="15"/>
-      <c r="M75" s="15"/>
-    </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K75" s="13"/>
+      <c r="L75" s="13"/>
+      <c r="M75" s="13"/>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
         <v>13</v>
       </c>
@@ -2241,38 +2241,38 @@
       <c r="I76" s="5">
         <v>0.1348</v>
       </c>
-      <c r="J76" s="15" t="s">
+      <c r="J76" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="K76" s="15"/>
-      <c r="L76" s="15"/>
-      <c r="M76" s="15"/>
-      <c r="N76" s="15"/>
-      <c r="O76" s="15"/>
-      <c r="P76" s="15"/>
-      <c r="Q76" s="15"/>
-    </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="J77" s="15"/>
-      <c r="K77" s="15"/>
-      <c r="L77" s="15"/>
-      <c r="M77" s="15"/>
-      <c r="N77" s="15"/>
-      <c r="O77" s="15"/>
-      <c r="P77" s="15"/>
-      <c r="Q77" s="15"/>
-    </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="J78" s="15"/>
-      <c r="K78" s="15"/>
-      <c r="L78" s="15"/>
-      <c r="M78" s="15"/>
-      <c r="N78" s="15"/>
-      <c r="O78" s="15"/>
-      <c r="P78" s="15"/>
-      <c r="Q78" s="15"/>
-    </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K76" s="13"/>
+      <c r="L76" s="13"/>
+      <c r="M76" s="13"/>
+      <c r="N76" s="13"/>
+      <c r="O76" s="13"/>
+      <c r="P76" s="13"/>
+      <c r="Q76" s="13"/>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="J77" s="13"/>
+      <c r="K77" s="13"/>
+      <c r="L77" s="13"/>
+      <c r="M77" s="13"/>
+      <c r="N77" s="13"/>
+      <c r="O77" s="13"/>
+      <c r="P77" s="13"/>
+      <c r="Q77" s="13"/>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="J78" s="13"/>
+      <c r="K78" s="13"/>
+      <c r="L78" s="13"/>
+      <c r="M78" s="13"/>
+      <c r="N78" s="13"/>
+      <c r="O78" s="13"/>
+      <c r="P78" s="13"/>
+      <c r="Q78" s="13"/>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>14</v>
       </c>
@@ -2308,7 +2308,7 @@
       <c r="M79" s="11"/>
       <c r="N79" s="11"/>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>16</v>
       </c>
@@ -2344,7 +2344,7 @@
       <c r="M80" s="11"/>
       <c r="N80" s="11"/>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>17</v>
       </c>
@@ -2380,7 +2380,7 @@
       <c r="M81" s="11"/>
       <c r="N81" s="11"/>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>18</v>
       </c>
@@ -2416,7 +2416,7 @@
       <c r="M82" s="11"/>
       <c r="N82" s="11"/>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>19</v>
       </c>
@@ -2452,7 +2452,7 @@
       <c r="M83" s="11"/>
       <c r="N83" s="11"/>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>20</v>
       </c>
@@ -2488,7 +2488,7 @@
       <c r="M84" s="11"/>
       <c r="N84" s="11"/>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>21</v>
       </c>
@@ -2516,15 +2516,15 @@
       <c r="I85" s="2">
         <v>0.1361</v>
       </c>
-      <c r="J85" s="15" t="s">
+      <c r="J85" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="K85" s="15"/>
-      <c r="L85" s="15"/>
-      <c r="M85" s="15"/>
-      <c r="N85" s="15"/>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K85" s="13"/>
+      <c r="L85" s="13"/>
+      <c r="M85" s="13"/>
+      <c r="N85" s="13"/>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>22</v>
       </c>
@@ -2552,15 +2552,15 @@
       <c r="I86" s="5">
         <v>0.13070000000000001</v>
       </c>
-      <c r="J86" s="15" t="s">
+      <c r="J86" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="K86" s="15"/>
-      <c r="L86" s="15"/>
-      <c r="M86" s="15"/>
-      <c r="N86" s="15"/>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K86" s="13"/>
+      <c r="L86" s="13"/>
+      <c r="M86" s="13"/>
+      <c r="N86" s="13"/>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>23</v>
       </c>
@@ -2588,15 +2588,15 @@
       <c r="I87" s="2">
         <v>0.1361</v>
       </c>
-      <c r="J87" s="15" t="s">
+      <c r="J87" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="K87" s="15"/>
-      <c r="L87" s="15"/>
-      <c r="M87" s="15"/>
-      <c r="N87" s="15"/>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K87" s="13"/>
+      <c r="L87" s="13"/>
+      <c r="M87" s="13"/>
+      <c r="N87" s="13"/>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>24</v>
       </c>
@@ -2624,15 +2624,15 @@
       <c r="I88" s="2">
         <v>0.13589999999999999</v>
       </c>
-      <c r="J88" s="15" t="s">
+      <c r="J88" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="K88" s="15"/>
-      <c r="L88" s="15"/>
-      <c r="M88" s="15"/>
-      <c r="N88" s="15"/>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K88" s="13"/>
+      <c r="L88" s="13"/>
+      <c r="M88" s="13"/>
+      <c r="N88" s="13"/>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>25</v>
       </c>
@@ -2668,7 +2668,7 @@
       <c r="M89" s="11"/>
       <c r="N89" s="11"/>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>26</v>
       </c>
@@ -2704,7 +2704,7 @@
       <c r="M90" s="11"/>
       <c r="N90" s="11"/>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>27</v>
       </c>
@@ -2740,7 +2740,7 @@
       <c r="M91" s="11"/>
       <c r="N91" s="11"/>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>28</v>
       </c>
@@ -2788,7 +2788,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>29</v>
       </c>
@@ -2824,7 +2824,7 @@
       <c r="M93" s="11"/>
       <c r="N93" s="11"/>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94" s="8">
         <v>30</v>
       </c>
@@ -2846,15 +2846,15 @@
       <c r="G94" s="9"/>
       <c r="H94" s="9"/>
       <c r="I94" s="10"/>
-      <c r="J94" s="13" t="s">
+      <c r="J94" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="K94" s="13"/>
-      <c r="L94" s="13"/>
-      <c r="M94" s="13"/>
-      <c r="N94" s="13"/>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K94" s="15"/>
+      <c r="L94" s="15"/>
+      <c r="M94" s="15"/>
+      <c r="N94" s="15"/>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>31</v>
       </c>
@@ -2890,7 +2890,7 @@
       <c r="M95" s="11"/>
       <c r="N95" s="11"/>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>32</v>
       </c>
@@ -2926,7 +2926,7 @@
       <c r="M96" s="11"/>
       <c r="N96" s="11"/>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>33</v>
       </c>
@@ -2961,11 +2961,11 @@
       <c r="L97" s="11"/>
       <c r="M97" s="11"/>
       <c r="N97" s="11"/>
-      <c r="O97" s="12"/>
-      <c r="P97" s="12"/>
-      <c r="Q97" s="12"/>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O97" s="14"/>
+      <c r="P97" s="14"/>
+      <c r="Q97" s="14"/>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>34</v>
       </c>
@@ -3000,11 +3000,11 @@
       <c r="L98" s="11"/>
       <c r="M98" s="11"/>
       <c r="N98" s="11"/>
-      <c r="O98" s="12"/>
-      <c r="P98" s="12"/>
-      <c r="Q98" s="12"/>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O98" s="14"/>
+      <c r="P98" s="14"/>
+      <c r="Q98" s="14"/>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>35</v>
       </c>
@@ -3039,11 +3039,11 @@
       <c r="L99" s="11"/>
       <c r="M99" s="11"/>
       <c r="N99" s="11"/>
-      <c r="O99" s="12"/>
-      <c r="P99" s="12"/>
-      <c r="Q99" s="12"/>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O99" s="14"/>
+      <c r="P99" s="14"/>
+      <c r="Q99" s="14"/>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>36</v>
       </c>
@@ -3078,12 +3078,12 @@
       <c r="L100" s="11"/>
       <c r="M100" s="11"/>
       <c r="N100" s="11"/>
-      <c r="O100" s="12"/>
-      <c r="P100" s="12"/>
-      <c r="Q100" s="12"/>
-      <c r="R100" s="12"/>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O100" s="14"/>
+      <c r="P100" s="14"/>
+      <c r="Q100" s="14"/>
+      <c r="R100" s="14"/>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101" s="8">
         <v>37</v>
       </c>
@@ -3105,18 +3105,18 @@
       <c r="G101" s="9"/>
       <c r="H101" s="9"/>
       <c r="I101" s="9"/>
-      <c r="J101" s="13" t="s">
+      <c r="J101" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="K101" s="13"/>
-      <c r="L101" s="13"/>
-      <c r="M101" s="13"/>
-      <c r="N101" s="13"/>
-      <c r="O101" s="14"/>
-      <c r="P101" s="14"/>
-      <c r="Q101" s="14"/>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K101" s="15"/>
+      <c r="L101" s="15"/>
+      <c r="M101" s="15"/>
+      <c r="N101" s="15"/>
+      <c r="O101" s="16"/>
+      <c r="P101" s="16"/>
+      <c r="Q101" s="16"/>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>38</v>
       </c>
@@ -3151,11 +3151,11 @@
       <c r="L102" s="11"/>
       <c r="M102" s="11"/>
       <c r="N102" s="11"/>
-      <c r="O102" s="12"/>
-      <c r="P102" s="12"/>
-      <c r="Q102" s="12"/>
-    </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O102" s="14"/>
+      <c r="P102" s="14"/>
+      <c r="Q102" s="14"/>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A103" s="8">
         <v>39</v>
       </c>
@@ -3177,18 +3177,18 @@
       <c r="G103" s="9"/>
       <c r="H103" s="9"/>
       <c r="I103" s="9"/>
-      <c r="J103" s="13" t="s">
+      <c r="J103" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="K103" s="13"/>
-      <c r="L103" s="13"/>
-      <c r="M103" s="13"/>
-      <c r="N103" s="13"/>
-      <c r="O103" s="14"/>
-      <c r="P103" s="14"/>
-      <c r="Q103" s="14"/>
-    </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K103" s="15"/>
+      <c r="L103" s="15"/>
+      <c r="M103" s="15"/>
+      <c r="N103" s="15"/>
+      <c r="O103" s="16"/>
+      <c r="P103" s="16"/>
+      <c r="Q103" s="16"/>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>40</v>
       </c>
@@ -3223,11 +3223,11 @@
       <c r="L104" s="11"/>
       <c r="M104" s="11"/>
       <c r="N104" s="11"/>
-      <c r="O104" s="12"/>
-      <c r="P104" s="12"/>
-      <c r="Q104" s="12"/>
-    </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O104" s="14"/>
+      <c r="P104" s="14"/>
+      <c r="Q104" s="14"/>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>41</v>
       </c>
@@ -3262,11 +3262,11 @@
       <c r="L105" s="11"/>
       <c r="M105" s="11"/>
       <c r="N105" s="11"/>
-      <c r="O105" s="12"/>
-      <c r="P105" s="12"/>
-      <c r="Q105" s="12"/>
-    </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O105" s="14"/>
+      <c r="P105" s="14"/>
+      <c r="Q105" s="14"/>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>42</v>
       </c>
@@ -3301,11 +3301,11 @@
       <c r="L106" s="11"/>
       <c r="M106" s="11"/>
       <c r="N106" s="11"/>
-      <c r="O106" s="12"/>
-      <c r="P106" s="12"/>
-      <c r="Q106" s="12"/>
-    </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O106" s="14"/>
+      <c r="P106" s="14"/>
+      <c r="Q106" s="14"/>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A107" s="8">
         <v>43</v>
       </c>
@@ -3327,18 +3327,18 @@
       <c r="G107" s="9"/>
       <c r="H107" s="9"/>
       <c r="I107" s="9"/>
-      <c r="J107" s="13" t="s">
+      <c r="J107" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="14"/>
-      <c r="P107" s="14"/>
-      <c r="Q107" s="14"/>
-    </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K107" s="15"/>
+      <c r="L107" s="15"/>
+      <c r="M107" s="15"/>
+      <c r="N107" s="15"/>
+      <c r="O107" s="16"/>
+      <c r="P107" s="16"/>
+      <c r="Q107" s="16"/>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>44</v>
       </c>
@@ -3364,11 +3364,11 @@
       <c r="L108" s="11"/>
       <c r="M108" s="11"/>
       <c r="N108" s="11"/>
-      <c r="O108" s="12"/>
-      <c r="P108" s="12"/>
-      <c r="Q108" s="12"/>
-    </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O108" s="14"/>
+      <c r="P108" s="14"/>
+      <c r="Q108" s="14"/>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>45</v>
       </c>
@@ -3403,11 +3403,11 @@
       <c r="L109" s="11"/>
       <c r="M109" s="11"/>
       <c r="N109" s="11"/>
-      <c r="O109" s="12"/>
-      <c r="P109" s="12"/>
-      <c r="Q109" s="12"/>
-    </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O109" s="14"/>
+      <c r="P109" s="14"/>
+      <c r="Q109" s="14"/>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>46</v>
       </c>
@@ -3425,6 +3425,15 @@
       </c>
       <c r="F110" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="G110" s="4">
+        <v>19.13</v>
+      </c>
+      <c r="H110" s="4">
+        <v>30.36</v>
+      </c>
+      <c r="I110" s="5">
+        <v>0.13300000000000001</v>
       </c>
       <c r="J110" s="11" t="s">
         <v>82</v>
@@ -3433,11 +3442,11 @@
       <c r="L110" s="11"/>
       <c r="M110" s="11"/>
       <c r="N110" s="11"/>
-      <c r="O110" s="12"/>
-      <c r="P110" s="12"/>
-      <c r="Q110" s="12"/>
-    </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O110" s="14"/>
+      <c r="P110" s="14"/>
+      <c r="Q110" s="14"/>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>47</v>
       </c>
@@ -3472,33 +3481,36 @@
       <c r="L111" s="11"/>
       <c r="M111" s="11"/>
       <c r="N111" s="11"/>
-      <c r="O111" s="12"/>
-      <c r="P111" s="12"/>
-      <c r="Q111" s="12"/>
+      <c r="O111" s="14"/>
+      <c r="P111" s="14"/>
+      <c r="Q111" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="J65:V65"/>
-    <mergeCell ref="J47:O47"/>
-    <mergeCell ref="J51:O51"/>
-    <mergeCell ref="J50:O50"/>
-    <mergeCell ref="J49:O49"/>
-    <mergeCell ref="J48:O48"/>
-    <mergeCell ref="O62:S62"/>
-    <mergeCell ref="J52:O52"/>
-    <mergeCell ref="J9:V9"/>
-    <mergeCell ref="J10:V10"/>
-    <mergeCell ref="J18:V18"/>
-    <mergeCell ref="J11:V11"/>
-    <mergeCell ref="J19:V19"/>
-    <mergeCell ref="J12:V12"/>
-    <mergeCell ref="J24:V24"/>
-    <mergeCell ref="J25:V25"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="J38:O38"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="J111:Q111"/>
+    <mergeCell ref="J108:Q108"/>
+    <mergeCell ref="J109:Q109"/>
+    <mergeCell ref="J110:Q110"/>
+    <mergeCell ref="J107:Q107"/>
+    <mergeCell ref="J106:Q106"/>
+    <mergeCell ref="J105:Q105"/>
+    <mergeCell ref="J95:N95"/>
+    <mergeCell ref="J99:Q99"/>
+    <mergeCell ref="J98:Q98"/>
+    <mergeCell ref="J96:N96"/>
+    <mergeCell ref="J97:Q97"/>
+    <mergeCell ref="J100:R100"/>
+    <mergeCell ref="J101:Q101"/>
+    <mergeCell ref="J102:Q102"/>
+    <mergeCell ref="J103:Q103"/>
+    <mergeCell ref="J104:Q104"/>
+    <mergeCell ref="J84:N84"/>
+    <mergeCell ref="J83:N83"/>
+    <mergeCell ref="J82:N82"/>
+    <mergeCell ref="J92:N92"/>
+    <mergeCell ref="J85:N85"/>
+    <mergeCell ref="J87:N87"/>
+    <mergeCell ref="J88:N88"/>
     <mergeCell ref="J66:V66"/>
     <mergeCell ref="J67:V67"/>
     <mergeCell ref="J71:V71"/>
@@ -3515,30 +3527,27 @@
     <mergeCell ref="J90:N90"/>
     <mergeCell ref="J91:N91"/>
     <mergeCell ref="J93:N93"/>
-    <mergeCell ref="J84:N84"/>
-    <mergeCell ref="J83:N83"/>
-    <mergeCell ref="J82:N82"/>
-    <mergeCell ref="J92:N92"/>
-    <mergeCell ref="J85:N85"/>
-    <mergeCell ref="J87:N87"/>
-    <mergeCell ref="J88:N88"/>
-    <mergeCell ref="J106:Q106"/>
-    <mergeCell ref="J105:Q105"/>
-    <mergeCell ref="J95:N95"/>
-    <mergeCell ref="J99:Q99"/>
-    <mergeCell ref="J98:Q98"/>
-    <mergeCell ref="J96:N96"/>
-    <mergeCell ref="J97:Q97"/>
-    <mergeCell ref="J100:R100"/>
-    <mergeCell ref="J101:Q101"/>
-    <mergeCell ref="J102:Q102"/>
-    <mergeCell ref="J103:Q103"/>
-    <mergeCell ref="J104:Q104"/>
-    <mergeCell ref="J111:Q111"/>
-    <mergeCell ref="J108:Q108"/>
-    <mergeCell ref="J109:Q109"/>
-    <mergeCell ref="J110:Q110"/>
-    <mergeCell ref="J107:Q107"/>
+    <mergeCell ref="J24:V24"/>
+    <mergeCell ref="J25:V25"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="J38:O38"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="J9:V9"/>
+    <mergeCell ref="J10:V10"/>
+    <mergeCell ref="J18:V18"/>
+    <mergeCell ref="J11:V11"/>
+    <mergeCell ref="J19:V19"/>
+    <mergeCell ref="J12:V12"/>
+    <mergeCell ref="J65:V65"/>
+    <mergeCell ref="J47:O47"/>
+    <mergeCell ref="J51:O51"/>
+    <mergeCell ref="J50:O50"/>
+    <mergeCell ref="J49:O49"/>
+    <mergeCell ref="J48:O48"/>
+    <mergeCell ref="O62:S62"/>
+    <mergeCell ref="J52:O52"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5E5C1F-1AE4-46EF-B974-9A3976288C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6991688-7A54-4563-847D-0AEE7726C3E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14265" yWindow="1710" windowWidth="22665" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="89">
   <si>
     <t>ST-SSL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -354,11 +354,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>13-&gt;46 block中添加注意力，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">28-&gt;47 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41-&gt;48 添加多分支学习82权重，transform注意力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41-&gt;49 添加多分支学习权重，transform注意力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13-&gt;46 block中添加注意力，去除第二层时间卷积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>46-&gt;50 不去除第二层时间卷积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28-&gt;51 添加注意力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28-&gt;52 添加注意力，x_miss加一层注意力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -474,12 +494,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -488,6 +502,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -769,10 +789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:V111"/>
+  <dimension ref="A3:V116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="J110" sqref="J110:Q110"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="J116" sqref="J116:Q116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1397,8 +1417,8 @@
       <c r="K38" s="11"/>
       <c r="L38" s="11"/>
       <c r="M38" s="11"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
@@ -1486,12 +1506,12 @@
       <c r="I44" s="2">
         <v>0.1235</v>
       </c>
-      <c r="J44" s="13" t="s">
+      <c r="J44" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
@@ -1556,12 +1576,12 @@
       <c r="I46" s="2">
         <v>0.1249</v>
       </c>
-      <c r="J46" s="13" t="s">
+      <c r="J46" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="K46" s="13"/>
-      <c r="L46" s="13"/>
-      <c r="M46" s="13"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="15"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
@@ -1897,13 +1917,13 @@
       <c r="L62" s="2">
         <v>0.14990000000000001</v>
       </c>
-      <c r="O62" s="12" t="s">
+      <c r="O62" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="P62" s="12"/>
-      <c r="Q62" s="12"/>
-      <c r="R62" s="12"/>
-      <c r="S62" s="12"/>
+      <c r="P62" s="16"/>
+      <c r="Q62" s="16"/>
+      <c r="R62" s="16"/>
+      <c r="S62" s="16"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
@@ -2145,12 +2165,12 @@
       <c r="I73" s="5">
         <v>0.13669999999999999</v>
       </c>
-      <c r="J73" s="13" t="s">
+      <c r="J73" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K73" s="13"/>
-      <c r="L73" s="13"/>
-      <c r="M73" s="13"/>
+      <c r="K73" s="15"/>
+      <c r="L73" s="15"/>
+      <c r="M73" s="15"/>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
@@ -2171,12 +2191,12 @@
       <c r="F74" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J74" s="13" t="s">
+      <c r="J74" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="K74" s="13"/>
-      <c r="L74" s="13"/>
-      <c r="M74" s="13"/>
+      <c r="K74" s="15"/>
+      <c r="L74" s="15"/>
+      <c r="M74" s="15"/>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
@@ -2206,12 +2226,12 @@
       <c r="I75" s="2">
         <v>0.13780000000000001</v>
       </c>
-      <c r="J75" s="13" t="s">
+      <c r="J75" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="K75" s="13"/>
-      <c r="L75" s="13"/>
-      <c r="M75" s="13"/>
+      <c r="K75" s="15"/>
+      <c r="L75" s="15"/>
+      <c r="M75" s="15"/>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
@@ -2241,36 +2261,36 @@
       <c r="I76" s="5">
         <v>0.1348</v>
       </c>
-      <c r="J76" s="13" t="s">
+      <c r="J76" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="K76" s="13"/>
-      <c r="L76" s="13"/>
-      <c r="M76" s="13"/>
-      <c r="N76" s="13"/>
-      <c r="O76" s="13"/>
-      <c r="P76" s="13"/>
-      <c r="Q76" s="13"/>
+      <c r="K76" s="15"/>
+      <c r="L76" s="15"/>
+      <c r="M76" s="15"/>
+      <c r="N76" s="15"/>
+      <c r="O76" s="15"/>
+      <c r="P76" s="15"/>
+      <c r="Q76" s="15"/>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="J77" s="13"/>
-      <c r="K77" s="13"/>
-      <c r="L77" s="13"/>
-      <c r="M77" s="13"/>
-      <c r="N77" s="13"/>
-      <c r="O77" s="13"/>
-      <c r="P77" s="13"/>
-      <c r="Q77" s="13"/>
+      <c r="J77" s="15"/>
+      <c r="K77" s="15"/>
+      <c r="L77" s="15"/>
+      <c r="M77" s="15"/>
+      <c r="N77" s="15"/>
+      <c r="O77" s="15"/>
+      <c r="P77" s="15"/>
+      <c r="Q77" s="15"/>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="J78" s="13"/>
-      <c r="K78" s="13"/>
-      <c r="L78" s="13"/>
-      <c r="M78" s="13"/>
-      <c r="N78" s="13"/>
-      <c r="O78" s="13"/>
-      <c r="P78" s="13"/>
-      <c r="Q78" s="13"/>
+      <c r="J78" s="15"/>
+      <c r="K78" s="15"/>
+      <c r="L78" s="15"/>
+      <c r="M78" s="15"/>
+      <c r="N78" s="15"/>
+      <c r="O78" s="15"/>
+      <c r="P78" s="15"/>
+      <c r="Q78" s="15"/>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
@@ -2516,13 +2536,13 @@
       <c r="I85" s="2">
         <v>0.1361</v>
       </c>
-      <c r="J85" s="13" t="s">
+      <c r="J85" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="K85" s="13"/>
-      <c r="L85" s="13"/>
-      <c r="M85" s="13"/>
-      <c r="N85" s="13"/>
+      <c r="K85" s="15"/>
+      <c r="L85" s="15"/>
+      <c r="M85" s="15"/>
+      <c r="N85" s="15"/>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
@@ -2552,13 +2572,13 @@
       <c r="I86" s="5">
         <v>0.13070000000000001</v>
       </c>
-      <c r="J86" s="13" t="s">
+      <c r="J86" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="K86" s="13"/>
-      <c r="L86" s="13"/>
-      <c r="M86" s="13"/>
-      <c r="N86" s="13"/>
+      <c r="K86" s="15"/>
+      <c r="L86" s="15"/>
+      <c r="M86" s="15"/>
+      <c r="N86" s="15"/>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
@@ -2588,13 +2608,13 @@
       <c r="I87" s="2">
         <v>0.1361</v>
       </c>
-      <c r="J87" s="13" t="s">
+      <c r="J87" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="K87" s="13"/>
-      <c r="L87" s="13"/>
-      <c r="M87" s="13"/>
-      <c r="N87" s="13"/>
+      <c r="K87" s="15"/>
+      <c r="L87" s="15"/>
+      <c r="M87" s="15"/>
+      <c r="N87" s="15"/>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
@@ -2624,13 +2644,13 @@
       <c r="I88" s="2">
         <v>0.13589999999999999</v>
       </c>
-      <c r="J88" s="13" t="s">
+      <c r="J88" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="K88" s="13"/>
-      <c r="L88" s="13"/>
-      <c r="M88" s="13"/>
-      <c r="N88" s="13"/>
+      <c r="K88" s="15"/>
+      <c r="L88" s="15"/>
+      <c r="M88" s="15"/>
+      <c r="N88" s="15"/>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
@@ -2741,7 +2761,7 @@
       <c r="N91" s="11"/>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A92" s="1">
+      <c r="A92" s="4">
         <v>28</v>
       </c>
       <c r="B92" s="1" t="s">
@@ -2846,13 +2866,13 @@
       <c r="G94" s="9"/>
       <c r="H94" s="9"/>
       <c r="I94" s="10"/>
-      <c r="J94" s="15" t="s">
+      <c r="J94" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="K94" s="15"/>
-      <c r="L94" s="15"/>
-      <c r="M94" s="15"/>
-      <c r="N94" s="15"/>
+      <c r="K94" s="13"/>
+      <c r="L94" s="13"/>
+      <c r="M94" s="13"/>
+      <c r="N94" s="13"/>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
@@ -2961,9 +2981,9 @@
       <c r="L97" s="11"/>
       <c r="M97" s="11"/>
       <c r="N97" s="11"/>
-      <c r="O97" s="14"/>
-      <c r="P97" s="14"/>
-      <c r="Q97" s="14"/>
+      <c r="O97" s="12"/>
+      <c r="P97" s="12"/>
+      <c r="Q97" s="12"/>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
@@ -3000,9 +3020,9 @@
       <c r="L98" s="11"/>
       <c r="M98" s="11"/>
       <c r="N98" s="11"/>
-      <c r="O98" s="14"/>
-      <c r="P98" s="14"/>
-      <c r="Q98" s="14"/>
+      <c r="O98" s="12"/>
+      <c r="P98" s="12"/>
+      <c r="Q98" s="12"/>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
@@ -3039,9 +3059,9 @@
       <c r="L99" s="11"/>
       <c r="M99" s="11"/>
       <c r="N99" s="11"/>
-      <c r="O99" s="14"/>
-      <c r="P99" s="14"/>
-      <c r="Q99" s="14"/>
+      <c r="O99" s="12"/>
+      <c r="P99" s="12"/>
+      <c r="Q99" s="12"/>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
@@ -3078,10 +3098,10 @@
       <c r="L100" s="11"/>
       <c r="M100" s="11"/>
       <c r="N100" s="11"/>
-      <c r="O100" s="14"/>
-      <c r="P100" s="14"/>
-      <c r="Q100" s="14"/>
-      <c r="R100" s="14"/>
+      <c r="O100" s="12"/>
+      <c r="P100" s="12"/>
+      <c r="Q100" s="12"/>
+      <c r="R100" s="12"/>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101" s="8">
@@ -3105,16 +3125,16 @@
       <c r="G101" s="9"/>
       <c r="H101" s="9"/>
       <c r="I101" s="9"/>
-      <c r="J101" s="15" t="s">
+      <c r="J101" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="K101" s="15"/>
-      <c r="L101" s="15"/>
-      <c r="M101" s="15"/>
-      <c r="N101" s="15"/>
-      <c r="O101" s="16"/>
-      <c r="P101" s="16"/>
-      <c r="Q101" s="16"/>
+      <c r="K101" s="13"/>
+      <c r="L101" s="13"/>
+      <c r="M101" s="13"/>
+      <c r="N101" s="13"/>
+      <c r="O101" s="14"/>
+      <c r="P101" s="14"/>
+      <c r="Q101" s="14"/>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
@@ -3151,9 +3171,9 @@
       <c r="L102" s="11"/>
       <c r="M102" s="11"/>
       <c r="N102" s="11"/>
-      <c r="O102" s="14"/>
-      <c r="P102" s="14"/>
-      <c r="Q102" s="14"/>
+      <c r="O102" s="12"/>
+      <c r="P102" s="12"/>
+      <c r="Q102" s="12"/>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A103" s="8">
@@ -3177,16 +3197,16 @@
       <c r="G103" s="9"/>
       <c r="H103" s="9"/>
       <c r="I103" s="9"/>
-      <c r="J103" s="15" t="s">
+      <c r="J103" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="K103" s="15"/>
-      <c r="L103" s="15"/>
-      <c r="M103" s="15"/>
-      <c r="N103" s="15"/>
-      <c r="O103" s="16"/>
-      <c r="P103" s="16"/>
-      <c r="Q103" s="16"/>
+      <c r="K103" s="13"/>
+      <c r="L103" s="13"/>
+      <c r="M103" s="13"/>
+      <c r="N103" s="13"/>
+      <c r="O103" s="14"/>
+      <c r="P103" s="14"/>
+      <c r="Q103" s="14"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
@@ -3223,9 +3243,9 @@
       <c r="L104" s="11"/>
       <c r="M104" s="11"/>
       <c r="N104" s="11"/>
-      <c r="O104" s="14"/>
-      <c r="P104" s="14"/>
-      <c r="Q104" s="14"/>
+      <c r="O104" s="12"/>
+      <c r="P104" s="12"/>
+      <c r="Q104" s="12"/>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
@@ -3262,9 +3282,9 @@
       <c r="L105" s="11"/>
       <c r="M105" s="11"/>
       <c r="N105" s="11"/>
-      <c r="O105" s="14"/>
-      <c r="P105" s="14"/>
-      <c r="Q105" s="14"/>
+      <c r="O105" s="12"/>
+      <c r="P105" s="12"/>
+      <c r="Q105" s="12"/>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
@@ -3301,9 +3321,9 @@
       <c r="L106" s="11"/>
       <c r="M106" s="11"/>
       <c r="N106" s="11"/>
-      <c r="O106" s="14"/>
-      <c r="P106" s="14"/>
-      <c r="Q106" s="14"/>
+      <c r="O106" s="12"/>
+      <c r="P106" s="12"/>
+      <c r="Q106" s="12"/>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A107" s="8">
@@ -3327,16 +3347,16 @@
       <c r="G107" s="9"/>
       <c r="H107" s="9"/>
       <c r="I107" s="9"/>
-      <c r="J107" s="15" t="s">
+      <c r="J107" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="K107" s="15"/>
-      <c r="L107" s="15"/>
-      <c r="M107" s="15"/>
-      <c r="N107" s="15"/>
-      <c r="O107" s="16"/>
-      <c r="P107" s="16"/>
-      <c r="Q107" s="16"/>
+      <c r="K107" s="13"/>
+      <c r="L107" s="13"/>
+      <c r="M107" s="13"/>
+      <c r="N107" s="13"/>
+      <c r="O107" s="14"/>
+      <c r="P107" s="14"/>
+      <c r="Q107" s="14"/>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
@@ -3364,9 +3384,9 @@
       <c r="L108" s="11"/>
       <c r="M108" s="11"/>
       <c r="N108" s="11"/>
-      <c r="O108" s="14"/>
-      <c r="P108" s="14"/>
-      <c r="Q108" s="14"/>
+      <c r="O108" s="12"/>
+      <c r="P108" s="12"/>
+      <c r="Q108" s="12"/>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
@@ -3403,12 +3423,12 @@
       <c r="L109" s="11"/>
       <c r="M109" s="11"/>
       <c r="N109" s="11"/>
-      <c r="O109" s="14"/>
-      <c r="P109" s="14"/>
-      <c r="Q109" s="14"/>
+      <c r="O109" s="12"/>
+      <c r="P109" s="12"/>
+      <c r="Q109" s="12"/>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A110" s="1">
+      <c r="A110" s="4">
         <v>46</v>
       </c>
       <c r="B110" s="1" t="s">
@@ -3436,15 +3456,15 @@
         <v>0.13300000000000001</v>
       </c>
       <c r="J110" s="11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K110" s="11"/>
       <c r="L110" s="11"/>
       <c r="M110" s="11"/>
       <c r="N110" s="11"/>
-      <c r="O110" s="14"/>
-      <c r="P110" s="14"/>
-      <c r="Q110" s="14"/>
+      <c r="O110" s="12"/>
+      <c r="P110" s="12"/>
+      <c r="Q110" s="12"/>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
@@ -3475,42 +3495,194 @@
         <v>0.1336</v>
       </c>
       <c r="J111" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K111" s="11"/>
       <c r="L111" s="11"/>
       <c r="M111" s="11"/>
       <c r="N111" s="11"/>
-      <c r="O111" s="14"/>
-      <c r="P111" s="14"/>
-      <c r="Q111" s="14"/>
+      <c r="O111" s="12"/>
+      <c r="P111" s="12"/>
+      <c r="Q111" s="12"/>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>48</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J112" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="K112" s="11"/>
+      <c r="L112" s="11"/>
+      <c r="M112" s="11"/>
+      <c r="N112" s="11"/>
+      <c r="O112" s="12"/>
+      <c r="P112" s="12"/>
+      <c r="Q112" s="12"/>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>49</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J113" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="K113" s="11"/>
+      <c r="L113" s="11"/>
+      <c r="M113" s="11"/>
+      <c r="N113" s="11"/>
+      <c r="O113" s="12"/>
+      <c r="P113" s="12"/>
+      <c r="Q113" s="12"/>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <v>50</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J114" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="K114" s="11"/>
+      <c r="L114" s="11"/>
+      <c r="M114" s="11"/>
+      <c r="N114" s="11"/>
+      <c r="O114" s="12"/>
+      <c r="P114" s="12"/>
+      <c r="Q114" s="12"/>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>51</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J115" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="K115" s="11"/>
+      <c r="L115" s="11"/>
+      <c r="M115" s="11"/>
+      <c r="N115" s="11"/>
+      <c r="O115" s="12"/>
+      <c r="P115" s="12"/>
+      <c r="Q115" s="12"/>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>52</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J116" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="K116" s="11"/>
+      <c r="L116" s="11"/>
+      <c r="M116" s="11"/>
+      <c r="N116" s="11"/>
+      <c r="O116" s="12"/>
+      <c r="P116" s="12"/>
+      <c r="Q116" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="61">
-    <mergeCell ref="J111:Q111"/>
-    <mergeCell ref="J108:Q108"/>
-    <mergeCell ref="J109:Q109"/>
-    <mergeCell ref="J110:Q110"/>
-    <mergeCell ref="J107:Q107"/>
-    <mergeCell ref="J106:Q106"/>
-    <mergeCell ref="J105:Q105"/>
-    <mergeCell ref="J95:N95"/>
-    <mergeCell ref="J99:Q99"/>
-    <mergeCell ref="J98:Q98"/>
-    <mergeCell ref="J96:N96"/>
-    <mergeCell ref="J97:Q97"/>
-    <mergeCell ref="J100:R100"/>
-    <mergeCell ref="J101:Q101"/>
-    <mergeCell ref="J102:Q102"/>
-    <mergeCell ref="J103:Q103"/>
-    <mergeCell ref="J104:Q104"/>
-    <mergeCell ref="J84:N84"/>
-    <mergeCell ref="J83:N83"/>
-    <mergeCell ref="J82:N82"/>
-    <mergeCell ref="J92:N92"/>
-    <mergeCell ref="J85:N85"/>
-    <mergeCell ref="J87:N87"/>
-    <mergeCell ref="J88:N88"/>
+  <mergeCells count="66">
+    <mergeCell ref="J112:Q112"/>
+    <mergeCell ref="J113:Q113"/>
+    <mergeCell ref="J114:Q114"/>
+    <mergeCell ref="J115:Q115"/>
+    <mergeCell ref="J116:Q116"/>
+    <mergeCell ref="J65:V65"/>
+    <mergeCell ref="J47:O47"/>
+    <mergeCell ref="J51:O51"/>
+    <mergeCell ref="J50:O50"/>
+    <mergeCell ref="J49:O49"/>
+    <mergeCell ref="J48:O48"/>
+    <mergeCell ref="O62:S62"/>
+    <mergeCell ref="J52:O52"/>
+    <mergeCell ref="J9:V9"/>
+    <mergeCell ref="J10:V10"/>
+    <mergeCell ref="J18:V18"/>
+    <mergeCell ref="J11:V11"/>
+    <mergeCell ref="J19:V19"/>
+    <mergeCell ref="J12:V12"/>
+    <mergeCell ref="J24:V24"/>
+    <mergeCell ref="J25:V25"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="J38:O38"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="J44:M44"/>
     <mergeCell ref="J66:V66"/>
     <mergeCell ref="J67:V67"/>
     <mergeCell ref="J71:V71"/>
@@ -3527,27 +3699,30 @@
     <mergeCell ref="J90:N90"/>
     <mergeCell ref="J91:N91"/>
     <mergeCell ref="J93:N93"/>
-    <mergeCell ref="J24:V24"/>
-    <mergeCell ref="J25:V25"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="J38:O38"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="J44:M44"/>
-    <mergeCell ref="J9:V9"/>
-    <mergeCell ref="J10:V10"/>
-    <mergeCell ref="J18:V18"/>
-    <mergeCell ref="J11:V11"/>
-    <mergeCell ref="J19:V19"/>
-    <mergeCell ref="J12:V12"/>
-    <mergeCell ref="J65:V65"/>
-    <mergeCell ref="J47:O47"/>
-    <mergeCell ref="J51:O51"/>
-    <mergeCell ref="J50:O50"/>
-    <mergeCell ref="J49:O49"/>
-    <mergeCell ref="J48:O48"/>
-    <mergeCell ref="O62:S62"/>
-    <mergeCell ref="J52:O52"/>
+    <mergeCell ref="J84:N84"/>
+    <mergeCell ref="J83:N83"/>
+    <mergeCell ref="J82:N82"/>
+    <mergeCell ref="J92:N92"/>
+    <mergeCell ref="J85:N85"/>
+    <mergeCell ref="J87:N87"/>
+    <mergeCell ref="J88:N88"/>
+    <mergeCell ref="J106:Q106"/>
+    <mergeCell ref="J105:Q105"/>
+    <mergeCell ref="J95:N95"/>
+    <mergeCell ref="J99:Q99"/>
+    <mergeCell ref="J98:Q98"/>
+    <mergeCell ref="J96:N96"/>
+    <mergeCell ref="J97:Q97"/>
+    <mergeCell ref="J100:R100"/>
+    <mergeCell ref="J101:Q101"/>
+    <mergeCell ref="J102:Q102"/>
+    <mergeCell ref="J103:Q103"/>
+    <mergeCell ref="J104:Q104"/>
+    <mergeCell ref="J111:Q111"/>
+    <mergeCell ref="J108:Q108"/>
+    <mergeCell ref="J109:Q109"/>
+    <mergeCell ref="J110:Q110"/>
+    <mergeCell ref="J107:Q107"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6991688-7A54-4563-847D-0AEE7726C3E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BED9B3-3CD7-4AEE-A369-847D2184DAA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14265" yWindow="1710" windowWidth="22665" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7470" yWindow="1545" windowWidth="22665" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -497,17 +497,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -792,7 +792,7 @@
   <dimension ref="A3:V116"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="J116" sqref="J116:Q116"/>
+      <selection activeCell="I114" sqref="I114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1506,12 +1506,12 @@
       <c r="I44" s="2">
         <v>0.1235</v>
       </c>
-      <c r="J44" s="15" t="s">
+      <c r="J44" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="K44" s="15"/>
-      <c r="L44" s="15"/>
-      <c r="M44" s="15"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
@@ -1576,12 +1576,12 @@
       <c r="I46" s="2">
         <v>0.1249</v>
       </c>
-      <c r="J46" s="15" t="s">
+      <c r="J46" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="K46" s="15"/>
-      <c r="L46" s="15"/>
-      <c r="M46" s="15"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
@@ -1917,13 +1917,13 @@
       <c r="L62" s="2">
         <v>0.14990000000000001</v>
       </c>
-      <c r="O62" s="16" t="s">
+      <c r="O62" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="P62" s="16"/>
-      <c r="Q62" s="16"/>
-      <c r="R62" s="16"/>
-      <c r="S62" s="16"/>
+      <c r="P62" s="13"/>
+      <c r="Q62" s="13"/>
+      <c r="R62" s="13"/>
+      <c r="S62" s="13"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
@@ -2165,12 +2165,12 @@
       <c r="I73" s="5">
         <v>0.13669999999999999</v>
       </c>
-      <c r="J73" s="15" t="s">
+      <c r="J73" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="K73" s="15"/>
-      <c r="L73" s="15"/>
-      <c r="M73" s="15"/>
+      <c r="K73" s="14"/>
+      <c r="L73" s="14"/>
+      <c r="M73" s="14"/>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
@@ -2191,12 +2191,12 @@
       <c r="F74" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J74" s="15" t="s">
+      <c r="J74" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="K74" s="15"/>
-      <c r="L74" s="15"/>
-      <c r="M74" s="15"/>
+      <c r="K74" s="14"/>
+      <c r="L74" s="14"/>
+      <c r="M74" s="14"/>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
@@ -2226,12 +2226,12 @@
       <c r="I75" s="2">
         <v>0.13780000000000001</v>
       </c>
-      <c r="J75" s="15" t="s">
+      <c r="J75" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="K75" s="15"/>
-      <c r="L75" s="15"/>
-      <c r="M75" s="15"/>
+      <c r="K75" s="14"/>
+      <c r="L75" s="14"/>
+      <c r="M75" s="14"/>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
@@ -2261,36 +2261,36 @@
       <c r="I76" s="5">
         <v>0.1348</v>
       </c>
-      <c r="J76" s="15" t="s">
+      <c r="J76" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="K76" s="15"/>
-      <c r="L76" s="15"/>
-      <c r="M76" s="15"/>
-      <c r="N76" s="15"/>
-      <c r="O76" s="15"/>
-      <c r="P76" s="15"/>
-      <c r="Q76" s="15"/>
+      <c r="K76" s="14"/>
+      <c r="L76" s="14"/>
+      <c r="M76" s="14"/>
+      <c r="N76" s="14"/>
+      <c r="O76" s="14"/>
+      <c r="P76" s="14"/>
+      <c r="Q76" s="14"/>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="J77" s="15"/>
-      <c r="K77" s="15"/>
-      <c r="L77" s="15"/>
-      <c r="M77" s="15"/>
-      <c r="N77" s="15"/>
-      <c r="O77" s="15"/>
-      <c r="P77" s="15"/>
-      <c r="Q77" s="15"/>
+      <c r="J77" s="14"/>
+      <c r="K77" s="14"/>
+      <c r="L77" s="14"/>
+      <c r="M77" s="14"/>
+      <c r="N77" s="14"/>
+      <c r="O77" s="14"/>
+      <c r="P77" s="14"/>
+      <c r="Q77" s="14"/>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="J78" s="15"/>
-      <c r="K78" s="15"/>
-      <c r="L78" s="15"/>
-      <c r="M78" s="15"/>
-      <c r="N78" s="15"/>
-      <c r="O78" s="15"/>
-      <c r="P78" s="15"/>
-      <c r="Q78" s="15"/>
+      <c r="J78" s="14"/>
+      <c r="K78" s="14"/>
+      <c r="L78" s="14"/>
+      <c r="M78" s="14"/>
+      <c r="N78" s="14"/>
+      <c r="O78" s="14"/>
+      <c r="P78" s="14"/>
+      <c r="Q78" s="14"/>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
@@ -2536,13 +2536,13 @@
       <c r="I85" s="2">
         <v>0.1361</v>
       </c>
-      <c r="J85" s="15" t="s">
+      <c r="J85" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="K85" s="15"/>
-      <c r="L85" s="15"/>
-      <c r="M85" s="15"/>
-      <c r="N85" s="15"/>
+      <c r="K85" s="14"/>
+      <c r="L85" s="14"/>
+      <c r="M85" s="14"/>
+      <c r="N85" s="14"/>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
@@ -2572,13 +2572,13 @@
       <c r="I86" s="5">
         <v>0.13070000000000001</v>
       </c>
-      <c r="J86" s="15" t="s">
+      <c r="J86" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="K86" s="15"/>
-      <c r="L86" s="15"/>
-      <c r="M86" s="15"/>
-      <c r="N86" s="15"/>
+      <c r="K86" s="14"/>
+      <c r="L86" s="14"/>
+      <c r="M86" s="14"/>
+      <c r="N86" s="14"/>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
@@ -2608,13 +2608,13 @@
       <c r="I87" s="2">
         <v>0.1361</v>
       </c>
-      <c r="J87" s="15" t="s">
+      <c r="J87" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="K87" s="15"/>
-      <c r="L87" s="15"/>
-      <c r="M87" s="15"/>
-      <c r="N87" s="15"/>
+      <c r="K87" s="14"/>
+      <c r="L87" s="14"/>
+      <c r="M87" s="14"/>
+      <c r="N87" s="14"/>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
@@ -2644,13 +2644,13 @@
       <c r="I88" s="2">
         <v>0.13589999999999999</v>
       </c>
-      <c r="J88" s="15" t="s">
+      <c r="J88" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="K88" s="15"/>
-      <c r="L88" s="15"/>
-      <c r="M88" s="15"/>
-      <c r="N88" s="15"/>
+      <c r="K88" s="14"/>
+      <c r="L88" s="14"/>
+      <c r="M88" s="14"/>
+      <c r="N88" s="14"/>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
@@ -2866,13 +2866,13 @@
       <c r="G94" s="9"/>
       <c r="H94" s="9"/>
       <c r="I94" s="10"/>
-      <c r="J94" s="13" t="s">
+      <c r="J94" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="K94" s="13"/>
-      <c r="L94" s="13"/>
-      <c r="M94" s="13"/>
-      <c r="N94" s="13"/>
+      <c r="K94" s="15"/>
+      <c r="L94" s="15"/>
+      <c r="M94" s="15"/>
+      <c r="N94" s="15"/>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
@@ -3125,16 +3125,16 @@
       <c r="G101" s="9"/>
       <c r="H101" s="9"/>
       <c r="I101" s="9"/>
-      <c r="J101" s="13" t="s">
+      <c r="J101" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="K101" s="13"/>
-      <c r="L101" s="13"/>
-      <c r="M101" s="13"/>
-      <c r="N101" s="13"/>
-      <c r="O101" s="14"/>
-      <c r="P101" s="14"/>
-      <c r="Q101" s="14"/>
+      <c r="K101" s="15"/>
+      <c r="L101" s="15"/>
+      <c r="M101" s="15"/>
+      <c r="N101" s="15"/>
+      <c r="O101" s="16"/>
+      <c r="P101" s="16"/>
+      <c r="Q101" s="16"/>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
@@ -3197,16 +3197,16 @@
       <c r="G103" s="9"/>
       <c r="H103" s="9"/>
       <c r="I103" s="9"/>
-      <c r="J103" s="13" t="s">
+      <c r="J103" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="K103" s="13"/>
-      <c r="L103" s="13"/>
-      <c r="M103" s="13"/>
-      <c r="N103" s="13"/>
-      <c r="O103" s="14"/>
-      <c r="P103" s="14"/>
-      <c r="Q103" s="14"/>
+      <c r="K103" s="15"/>
+      <c r="L103" s="15"/>
+      <c r="M103" s="15"/>
+      <c r="N103" s="15"/>
+      <c r="O103" s="16"/>
+      <c r="P103" s="16"/>
+      <c r="Q103" s="16"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
@@ -3347,16 +3347,16 @@
       <c r="G107" s="9"/>
       <c r="H107" s="9"/>
       <c r="I107" s="9"/>
-      <c r="J107" s="13" t="s">
+      <c r="J107" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="14"/>
-      <c r="P107" s="14"/>
-      <c r="Q107" s="14"/>
+      <c r="K107" s="15"/>
+      <c r="L107" s="15"/>
+      <c r="M107" s="15"/>
+      <c r="N107" s="15"/>
+      <c r="O107" s="16"/>
+      <c r="P107" s="16"/>
+      <c r="Q107" s="16"/>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
@@ -3584,6 +3584,15 @@
       <c r="F114" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="G114" s="1">
+        <v>19.55</v>
+      </c>
+      <c r="H114" s="1">
+        <v>30.84</v>
+      </c>
+      <c r="I114" s="2">
+        <v>0.1351</v>
+      </c>
       <c r="J114" s="11" t="s">
         <v>86</v>
       </c>
@@ -3657,32 +3666,30 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="J112:Q112"/>
-    <mergeCell ref="J113:Q113"/>
-    <mergeCell ref="J114:Q114"/>
-    <mergeCell ref="J115:Q115"/>
-    <mergeCell ref="J116:Q116"/>
-    <mergeCell ref="J65:V65"/>
-    <mergeCell ref="J47:O47"/>
-    <mergeCell ref="J51:O51"/>
-    <mergeCell ref="J50:O50"/>
-    <mergeCell ref="J49:O49"/>
-    <mergeCell ref="J48:O48"/>
-    <mergeCell ref="O62:S62"/>
-    <mergeCell ref="J52:O52"/>
-    <mergeCell ref="J9:V9"/>
-    <mergeCell ref="J10:V10"/>
-    <mergeCell ref="J18:V18"/>
-    <mergeCell ref="J11:V11"/>
-    <mergeCell ref="J19:V19"/>
-    <mergeCell ref="J12:V12"/>
-    <mergeCell ref="J24:V24"/>
-    <mergeCell ref="J25:V25"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="J38:O38"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="J111:Q111"/>
+    <mergeCell ref="J108:Q108"/>
+    <mergeCell ref="J109:Q109"/>
+    <mergeCell ref="J110:Q110"/>
+    <mergeCell ref="J107:Q107"/>
+    <mergeCell ref="J106:Q106"/>
+    <mergeCell ref="J105:Q105"/>
+    <mergeCell ref="J95:N95"/>
+    <mergeCell ref="J99:Q99"/>
+    <mergeCell ref="J98:Q98"/>
+    <mergeCell ref="J96:N96"/>
+    <mergeCell ref="J97:Q97"/>
+    <mergeCell ref="J100:R100"/>
+    <mergeCell ref="J101:Q101"/>
+    <mergeCell ref="J102:Q102"/>
+    <mergeCell ref="J103:Q103"/>
+    <mergeCell ref="J104:Q104"/>
+    <mergeCell ref="J84:N84"/>
+    <mergeCell ref="J83:N83"/>
+    <mergeCell ref="J82:N82"/>
+    <mergeCell ref="J92:N92"/>
+    <mergeCell ref="J85:N85"/>
+    <mergeCell ref="J87:N87"/>
+    <mergeCell ref="J88:N88"/>
     <mergeCell ref="J66:V66"/>
     <mergeCell ref="J67:V67"/>
     <mergeCell ref="J71:V71"/>
@@ -3699,30 +3706,32 @@
     <mergeCell ref="J90:N90"/>
     <mergeCell ref="J91:N91"/>
     <mergeCell ref="J93:N93"/>
-    <mergeCell ref="J84:N84"/>
-    <mergeCell ref="J83:N83"/>
-    <mergeCell ref="J82:N82"/>
-    <mergeCell ref="J92:N92"/>
-    <mergeCell ref="J85:N85"/>
-    <mergeCell ref="J87:N87"/>
-    <mergeCell ref="J88:N88"/>
-    <mergeCell ref="J106:Q106"/>
-    <mergeCell ref="J105:Q105"/>
-    <mergeCell ref="J95:N95"/>
-    <mergeCell ref="J99:Q99"/>
-    <mergeCell ref="J98:Q98"/>
-    <mergeCell ref="J96:N96"/>
-    <mergeCell ref="J97:Q97"/>
-    <mergeCell ref="J100:R100"/>
-    <mergeCell ref="J101:Q101"/>
-    <mergeCell ref="J102:Q102"/>
-    <mergeCell ref="J103:Q103"/>
-    <mergeCell ref="J104:Q104"/>
-    <mergeCell ref="J111:Q111"/>
-    <mergeCell ref="J108:Q108"/>
-    <mergeCell ref="J109:Q109"/>
-    <mergeCell ref="J110:Q110"/>
-    <mergeCell ref="J107:Q107"/>
+    <mergeCell ref="J24:V24"/>
+    <mergeCell ref="J25:V25"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="J38:O38"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="J9:V9"/>
+    <mergeCell ref="J10:V10"/>
+    <mergeCell ref="J18:V18"/>
+    <mergeCell ref="J11:V11"/>
+    <mergeCell ref="J19:V19"/>
+    <mergeCell ref="J12:V12"/>
+    <mergeCell ref="J65:V65"/>
+    <mergeCell ref="J47:O47"/>
+    <mergeCell ref="J51:O51"/>
+    <mergeCell ref="J50:O50"/>
+    <mergeCell ref="J49:O49"/>
+    <mergeCell ref="J48:O48"/>
+    <mergeCell ref="O62:S62"/>
+    <mergeCell ref="J52:O52"/>
+    <mergeCell ref="J112:Q112"/>
+    <mergeCell ref="J113:Q113"/>
+    <mergeCell ref="J114:Q114"/>
+    <mergeCell ref="J115:Q115"/>
+    <mergeCell ref="J116:Q116"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BED9B3-3CD7-4AEE-A369-847D2184DAA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1D31BA-E3F3-44CE-93A6-5E507CCCDFE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7470" yWindow="1545" windowWidth="22665" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -497,17 +497,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -792,7 +792,7 @@
   <dimension ref="A3:V116"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="I114" sqref="I114"/>
+      <selection activeCell="I113" sqref="I113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1506,12 +1506,12 @@
       <c r="I44" s="2">
         <v>0.1235</v>
       </c>
-      <c r="J44" s="14" t="s">
+      <c r="J44" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="K44" s="14"/>
-      <c r="L44" s="14"/>
-      <c r="M44" s="14"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
@@ -1576,12 +1576,12 @@
       <c r="I46" s="2">
         <v>0.1249</v>
       </c>
-      <c r="J46" s="14" t="s">
+      <c r="J46" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="K46" s="14"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="14"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="15"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
@@ -1917,13 +1917,13 @@
       <c r="L62" s="2">
         <v>0.14990000000000001</v>
       </c>
-      <c r="O62" s="13" t="s">
+      <c r="O62" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="P62" s="13"/>
-      <c r="Q62" s="13"/>
-      <c r="R62" s="13"/>
-      <c r="S62" s="13"/>
+      <c r="P62" s="16"/>
+      <c r="Q62" s="16"/>
+      <c r="R62" s="16"/>
+      <c r="S62" s="16"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
@@ -2165,12 +2165,12 @@
       <c r="I73" s="5">
         <v>0.13669999999999999</v>
       </c>
-      <c r="J73" s="14" t="s">
+      <c r="J73" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K73" s="14"/>
-      <c r="L73" s="14"/>
-      <c r="M73" s="14"/>
+      <c r="K73" s="15"/>
+      <c r="L73" s="15"/>
+      <c r="M73" s="15"/>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
@@ -2191,12 +2191,12 @@
       <c r="F74" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J74" s="14" t="s">
+      <c r="J74" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="K74" s="14"/>
-      <c r="L74" s="14"/>
-      <c r="M74" s="14"/>
+      <c r="K74" s="15"/>
+      <c r="L74" s="15"/>
+      <c r="M74" s="15"/>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
@@ -2226,12 +2226,12 @@
       <c r="I75" s="2">
         <v>0.13780000000000001</v>
       </c>
-      <c r="J75" s="14" t="s">
+      <c r="J75" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="K75" s="14"/>
-      <c r="L75" s="14"/>
-      <c r="M75" s="14"/>
+      <c r="K75" s="15"/>
+      <c r="L75" s="15"/>
+      <c r="M75" s="15"/>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
@@ -2261,36 +2261,36 @@
       <c r="I76" s="5">
         <v>0.1348</v>
       </c>
-      <c r="J76" s="14" t="s">
+      <c r="J76" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="K76" s="14"/>
-      <c r="L76" s="14"/>
-      <c r="M76" s="14"/>
-      <c r="N76" s="14"/>
-      <c r="O76" s="14"/>
-      <c r="P76" s="14"/>
-      <c r="Q76" s="14"/>
+      <c r="K76" s="15"/>
+      <c r="L76" s="15"/>
+      <c r="M76" s="15"/>
+      <c r="N76" s="15"/>
+      <c r="O76" s="15"/>
+      <c r="P76" s="15"/>
+      <c r="Q76" s="15"/>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="J77" s="14"/>
-      <c r="K77" s="14"/>
-      <c r="L77" s="14"/>
-      <c r="M77" s="14"/>
-      <c r="N77" s="14"/>
-      <c r="O77" s="14"/>
-      <c r="P77" s="14"/>
-      <c r="Q77" s="14"/>
+      <c r="J77" s="15"/>
+      <c r="K77" s="15"/>
+      <c r="L77" s="15"/>
+      <c r="M77" s="15"/>
+      <c r="N77" s="15"/>
+      <c r="O77" s="15"/>
+      <c r="P77" s="15"/>
+      <c r="Q77" s="15"/>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="J78" s="14"/>
-      <c r="K78" s="14"/>
-      <c r="L78" s="14"/>
-      <c r="M78" s="14"/>
-      <c r="N78" s="14"/>
-      <c r="O78" s="14"/>
-      <c r="P78" s="14"/>
-      <c r="Q78" s="14"/>
+      <c r="J78" s="15"/>
+      <c r="K78" s="15"/>
+      <c r="L78" s="15"/>
+      <c r="M78" s="15"/>
+      <c r="N78" s="15"/>
+      <c r="O78" s="15"/>
+      <c r="P78" s="15"/>
+      <c r="Q78" s="15"/>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
@@ -2536,13 +2536,13 @@
       <c r="I85" s="2">
         <v>0.1361</v>
       </c>
-      <c r="J85" s="14" t="s">
+      <c r="J85" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="K85" s="14"/>
-      <c r="L85" s="14"/>
-      <c r="M85" s="14"/>
-      <c r="N85" s="14"/>
+      <c r="K85" s="15"/>
+      <c r="L85" s="15"/>
+      <c r="M85" s="15"/>
+      <c r="N85" s="15"/>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
@@ -2572,13 +2572,13 @@
       <c r="I86" s="5">
         <v>0.13070000000000001</v>
       </c>
-      <c r="J86" s="14" t="s">
+      <c r="J86" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="K86" s="14"/>
-      <c r="L86" s="14"/>
-      <c r="M86" s="14"/>
-      <c r="N86" s="14"/>
+      <c r="K86" s="15"/>
+      <c r="L86" s="15"/>
+      <c r="M86" s="15"/>
+      <c r="N86" s="15"/>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
@@ -2608,13 +2608,13 @@
       <c r="I87" s="2">
         <v>0.1361</v>
       </c>
-      <c r="J87" s="14" t="s">
+      <c r="J87" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="K87" s="14"/>
-      <c r="L87" s="14"/>
-      <c r="M87" s="14"/>
-      <c r="N87" s="14"/>
+      <c r="K87" s="15"/>
+      <c r="L87" s="15"/>
+      <c r="M87" s="15"/>
+      <c r="N87" s="15"/>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
@@ -2644,13 +2644,13 @@
       <c r="I88" s="2">
         <v>0.13589999999999999</v>
       </c>
-      <c r="J88" s="14" t="s">
+      <c r="J88" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="K88" s="14"/>
-      <c r="L88" s="14"/>
-      <c r="M88" s="14"/>
-      <c r="N88" s="14"/>
+      <c r="K88" s="15"/>
+      <c r="L88" s="15"/>
+      <c r="M88" s="15"/>
+      <c r="N88" s="15"/>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
@@ -2866,13 +2866,13 @@
       <c r="G94" s="9"/>
       <c r="H94" s="9"/>
       <c r="I94" s="10"/>
-      <c r="J94" s="15" t="s">
+      <c r="J94" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="K94" s="15"/>
-      <c r="L94" s="15"/>
-      <c r="M94" s="15"/>
-      <c r="N94" s="15"/>
+      <c r="K94" s="13"/>
+      <c r="L94" s="13"/>
+      <c r="M94" s="13"/>
+      <c r="N94" s="13"/>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
@@ -3125,16 +3125,16 @@
       <c r="G101" s="9"/>
       <c r="H101" s="9"/>
       <c r="I101" s="9"/>
-      <c r="J101" s="15" t="s">
+      <c r="J101" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="K101" s="15"/>
-      <c r="L101" s="15"/>
-      <c r="M101" s="15"/>
-      <c r="N101" s="15"/>
-      <c r="O101" s="16"/>
-      <c r="P101" s="16"/>
-      <c r="Q101" s="16"/>
+      <c r="K101" s="13"/>
+      <c r="L101" s="13"/>
+      <c r="M101" s="13"/>
+      <c r="N101" s="13"/>
+      <c r="O101" s="14"/>
+      <c r="P101" s="14"/>
+      <c r="Q101" s="14"/>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
@@ -3197,16 +3197,16 @@
       <c r="G103" s="9"/>
       <c r="H103" s="9"/>
       <c r="I103" s="9"/>
-      <c r="J103" s="15" t="s">
+      <c r="J103" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="K103" s="15"/>
-      <c r="L103" s="15"/>
-      <c r="M103" s="15"/>
-      <c r="N103" s="15"/>
-      <c r="O103" s="16"/>
-      <c r="P103" s="16"/>
-      <c r="Q103" s="16"/>
+      <c r="K103" s="13"/>
+      <c r="L103" s="13"/>
+      <c r="M103" s="13"/>
+      <c r="N103" s="13"/>
+      <c r="O103" s="14"/>
+      <c r="P103" s="14"/>
+      <c r="Q103" s="14"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
@@ -3347,16 +3347,16 @@
       <c r="G107" s="9"/>
       <c r="H107" s="9"/>
       <c r="I107" s="9"/>
-      <c r="J107" s="15" t="s">
+      <c r="J107" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="K107" s="15"/>
-      <c r="L107" s="15"/>
-      <c r="M107" s="15"/>
-      <c r="N107" s="15"/>
-      <c r="O107" s="16"/>
-      <c r="P107" s="16"/>
-      <c r="Q107" s="16"/>
+      <c r="K107" s="13"/>
+      <c r="L107" s="13"/>
+      <c r="M107" s="13"/>
+      <c r="N107" s="13"/>
+      <c r="O107" s="14"/>
+      <c r="P107" s="14"/>
+      <c r="Q107" s="14"/>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
@@ -3554,6 +3554,15 @@
       <c r="F113" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="G113" s="1">
+        <v>19.64</v>
+      </c>
+      <c r="H113" s="1">
+        <v>31.26</v>
+      </c>
+      <c r="I113" s="2">
+        <v>0.13550000000000001</v>
+      </c>
       <c r="J113" s="11" t="s">
         <v>84</v>
       </c>
@@ -3666,30 +3675,32 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="J111:Q111"/>
-    <mergeCell ref="J108:Q108"/>
-    <mergeCell ref="J109:Q109"/>
-    <mergeCell ref="J110:Q110"/>
-    <mergeCell ref="J107:Q107"/>
-    <mergeCell ref="J106:Q106"/>
-    <mergeCell ref="J105:Q105"/>
-    <mergeCell ref="J95:N95"/>
-    <mergeCell ref="J99:Q99"/>
-    <mergeCell ref="J98:Q98"/>
-    <mergeCell ref="J96:N96"/>
-    <mergeCell ref="J97:Q97"/>
-    <mergeCell ref="J100:R100"/>
-    <mergeCell ref="J101:Q101"/>
-    <mergeCell ref="J102:Q102"/>
-    <mergeCell ref="J103:Q103"/>
-    <mergeCell ref="J104:Q104"/>
-    <mergeCell ref="J84:N84"/>
-    <mergeCell ref="J83:N83"/>
-    <mergeCell ref="J82:N82"/>
-    <mergeCell ref="J92:N92"/>
-    <mergeCell ref="J85:N85"/>
-    <mergeCell ref="J87:N87"/>
-    <mergeCell ref="J88:N88"/>
+    <mergeCell ref="J112:Q112"/>
+    <mergeCell ref="J113:Q113"/>
+    <mergeCell ref="J114:Q114"/>
+    <mergeCell ref="J115:Q115"/>
+    <mergeCell ref="J116:Q116"/>
+    <mergeCell ref="J65:V65"/>
+    <mergeCell ref="J47:O47"/>
+    <mergeCell ref="J51:O51"/>
+    <mergeCell ref="J50:O50"/>
+    <mergeCell ref="J49:O49"/>
+    <mergeCell ref="J48:O48"/>
+    <mergeCell ref="O62:S62"/>
+    <mergeCell ref="J52:O52"/>
+    <mergeCell ref="J9:V9"/>
+    <mergeCell ref="J10:V10"/>
+    <mergeCell ref="J18:V18"/>
+    <mergeCell ref="J11:V11"/>
+    <mergeCell ref="J19:V19"/>
+    <mergeCell ref="J12:V12"/>
+    <mergeCell ref="J24:V24"/>
+    <mergeCell ref="J25:V25"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="J38:O38"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="J44:M44"/>
     <mergeCell ref="J66:V66"/>
     <mergeCell ref="J67:V67"/>
     <mergeCell ref="J71:V71"/>
@@ -3706,32 +3717,30 @@
     <mergeCell ref="J90:N90"/>
     <mergeCell ref="J91:N91"/>
     <mergeCell ref="J93:N93"/>
-    <mergeCell ref="J24:V24"/>
-    <mergeCell ref="J25:V25"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="J38:O38"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="J44:M44"/>
-    <mergeCell ref="J9:V9"/>
-    <mergeCell ref="J10:V10"/>
-    <mergeCell ref="J18:V18"/>
-    <mergeCell ref="J11:V11"/>
-    <mergeCell ref="J19:V19"/>
-    <mergeCell ref="J12:V12"/>
-    <mergeCell ref="J65:V65"/>
-    <mergeCell ref="J47:O47"/>
-    <mergeCell ref="J51:O51"/>
-    <mergeCell ref="J50:O50"/>
-    <mergeCell ref="J49:O49"/>
-    <mergeCell ref="J48:O48"/>
-    <mergeCell ref="O62:S62"/>
-    <mergeCell ref="J52:O52"/>
-    <mergeCell ref="J112:Q112"/>
-    <mergeCell ref="J113:Q113"/>
-    <mergeCell ref="J114:Q114"/>
-    <mergeCell ref="J115:Q115"/>
-    <mergeCell ref="J116:Q116"/>
+    <mergeCell ref="J84:N84"/>
+    <mergeCell ref="J83:N83"/>
+    <mergeCell ref="J82:N82"/>
+    <mergeCell ref="J92:N92"/>
+    <mergeCell ref="J85:N85"/>
+    <mergeCell ref="J87:N87"/>
+    <mergeCell ref="J88:N88"/>
+    <mergeCell ref="J106:Q106"/>
+    <mergeCell ref="J105:Q105"/>
+    <mergeCell ref="J95:N95"/>
+    <mergeCell ref="J99:Q99"/>
+    <mergeCell ref="J98:Q98"/>
+    <mergeCell ref="J96:N96"/>
+    <mergeCell ref="J97:Q97"/>
+    <mergeCell ref="J100:R100"/>
+    <mergeCell ref="J101:Q101"/>
+    <mergeCell ref="J102:Q102"/>
+    <mergeCell ref="J103:Q103"/>
+    <mergeCell ref="J104:Q104"/>
+    <mergeCell ref="J111:Q111"/>
+    <mergeCell ref="J108:Q108"/>
+    <mergeCell ref="J109:Q109"/>
+    <mergeCell ref="J110:Q110"/>
+    <mergeCell ref="J107:Q107"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1D31BA-E3F3-44CE-93A6-5E507CCCDFE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61D3327-30FA-4F5A-8FF3-B9B94D13BA93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7470" yWindow="1545" windowWidth="22665" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3360" yWindow="1275" windowWidth="22665" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -791,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:V116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="I113" sqref="I113"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="J110" sqref="J110:Q110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2026,7 +2026,7 @@
       <c r="V66" s="11"/>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B67" s="1" t="s">
@@ -2234,7 +2234,7 @@
       <c r="M75" s="15"/>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A76" s="6">
+      <c r="A76" s="4">
         <v>13</v>
       </c>
       <c r="B76" s="1" t="s">

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61D3327-30FA-4F5A-8FF3-B9B94D13BA93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F37B3C-3B07-4D52-A9BD-423FB6CE122C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3360" yWindow="1275" windowWidth="22665" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="90">
   <si>
     <t>ST-SSL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -379,6 +379,10 @@
   </si>
   <si>
     <t>28-&gt;52 添加注意力，x_miss加一层注意力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13-&gt;53 时间卷积-注意力-时间卷积。去除ODE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -497,17 +501,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -789,10 +793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:V116"/>
+  <dimension ref="A3:V117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="J110" sqref="J110:Q110"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="J117" sqref="J117:Q117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1506,12 +1510,12 @@
       <c r="I44" s="2">
         <v>0.1235</v>
       </c>
-      <c r="J44" s="15" t="s">
+      <c r="J44" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="K44" s="15"/>
-      <c r="L44" s="15"/>
-      <c r="M44" s="15"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
@@ -1576,12 +1580,12 @@
       <c r="I46" s="2">
         <v>0.1249</v>
       </c>
-      <c r="J46" s="15" t="s">
+      <c r="J46" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="K46" s="15"/>
-      <c r="L46" s="15"/>
-      <c r="M46" s="15"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
@@ -1917,13 +1921,13 @@
       <c r="L62" s="2">
         <v>0.14990000000000001</v>
       </c>
-      <c r="O62" s="16" t="s">
+      <c r="O62" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="P62" s="16"/>
-      <c r="Q62" s="16"/>
-      <c r="R62" s="16"/>
-      <c r="S62" s="16"/>
+      <c r="P62" s="13"/>
+      <c r="Q62" s="13"/>
+      <c r="R62" s="13"/>
+      <c r="S62" s="13"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
@@ -2165,12 +2169,12 @@
       <c r="I73" s="5">
         <v>0.13669999999999999</v>
       </c>
-      <c r="J73" s="15" t="s">
+      <c r="J73" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="K73" s="15"/>
-      <c r="L73" s="15"/>
-      <c r="M73" s="15"/>
+      <c r="K73" s="14"/>
+      <c r="L73" s="14"/>
+      <c r="M73" s="14"/>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
@@ -2191,12 +2195,12 @@
       <c r="F74" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J74" s="15" t="s">
+      <c r="J74" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="K74" s="15"/>
-      <c r="L74" s="15"/>
-      <c r="M74" s="15"/>
+      <c r="K74" s="14"/>
+      <c r="L74" s="14"/>
+      <c r="M74" s="14"/>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
@@ -2226,12 +2230,12 @@
       <c r="I75" s="2">
         <v>0.13780000000000001</v>
       </c>
-      <c r="J75" s="15" t="s">
+      <c r="J75" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="K75" s="15"/>
-      <c r="L75" s="15"/>
-      <c r="M75" s="15"/>
+      <c r="K75" s="14"/>
+      <c r="L75" s="14"/>
+      <c r="M75" s="14"/>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
@@ -2261,36 +2265,36 @@
       <c r="I76" s="5">
         <v>0.1348</v>
       </c>
-      <c r="J76" s="15" t="s">
+      <c r="J76" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="K76" s="15"/>
-      <c r="L76" s="15"/>
-      <c r="M76" s="15"/>
-      <c r="N76" s="15"/>
-      <c r="O76" s="15"/>
-      <c r="P76" s="15"/>
-      <c r="Q76" s="15"/>
+      <c r="K76" s="14"/>
+      <c r="L76" s="14"/>
+      <c r="M76" s="14"/>
+      <c r="N76" s="14"/>
+      <c r="O76" s="14"/>
+      <c r="P76" s="14"/>
+      <c r="Q76" s="14"/>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="J77" s="15"/>
-      <c r="K77" s="15"/>
-      <c r="L77" s="15"/>
-      <c r="M77" s="15"/>
-      <c r="N77" s="15"/>
-      <c r="O77" s="15"/>
-      <c r="P77" s="15"/>
-      <c r="Q77" s="15"/>
+      <c r="J77" s="14"/>
+      <c r="K77" s="14"/>
+      <c r="L77" s="14"/>
+      <c r="M77" s="14"/>
+      <c r="N77" s="14"/>
+      <c r="O77" s="14"/>
+      <c r="P77" s="14"/>
+      <c r="Q77" s="14"/>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="J78" s="15"/>
-      <c r="K78" s="15"/>
-      <c r="L78" s="15"/>
-      <c r="M78" s="15"/>
-      <c r="N78" s="15"/>
-      <c r="O78" s="15"/>
-      <c r="P78" s="15"/>
-      <c r="Q78" s="15"/>
+      <c r="J78" s="14"/>
+      <c r="K78" s="14"/>
+      <c r="L78" s="14"/>
+      <c r="M78" s="14"/>
+      <c r="N78" s="14"/>
+      <c r="O78" s="14"/>
+      <c r="P78" s="14"/>
+      <c r="Q78" s="14"/>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
@@ -2536,13 +2540,13 @@
       <c r="I85" s="2">
         <v>0.1361</v>
       </c>
-      <c r="J85" s="15" t="s">
+      <c r="J85" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="K85" s="15"/>
-      <c r="L85" s="15"/>
-      <c r="M85" s="15"/>
-      <c r="N85" s="15"/>
+      <c r="K85" s="14"/>
+      <c r="L85" s="14"/>
+      <c r="M85" s="14"/>
+      <c r="N85" s="14"/>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
@@ -2572,13 +2576,13 @@
       <c r="I86" s="5">
         <v>0.13070000000000001</v>
       </c>
-      <c r="J86" s="15" t="s">
+      <c r="J86" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="K86" s="15"/>
-      <c r="L86" s="15"/>
-      <c r="M86" s="15"/>
-      <c r="N86" s="15"/>
+      <c r="K86" s="14"/>
+      <c r="L86" s="14"/>
+      <c r="M86" s="14"/>
+      <c r="N86" s="14"/>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
@@ -2608,13 +2612,13 @@
       <c r="I87" s="2">
         <v>0.1361</v>
       </c>
-      <c r="J87" s="15" t="s">
+      <c r="J87" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="K87" s="15"/>
-      <c r="L87" s="15"/>
-      <c r="M87" s="15"/>
-      <c r="N87" s="15"/>
+      <c r="K87" s="14"/>
+      <c r="L87" s="14"/>
+      <c r="M87" s="14"/>
+      <c r="N87" s="14"/>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
@@ -2644,13 +2648,13 @@
       <c r="I88" s="2">
         <v>0.13589999999999999</v>
       </c>
-      <c r="J88" s="15" t="s">
+      <c r="J88" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="K88" s="15"/>
-      <c r="L88" s="15"/>
-      <c r="M88" s="15"/>
-      <c r="N88" s="15"/>
+      <c r="K88" s="14"/>
+      <c r="L88" s="14"/>
+      <c r="M88" s="14"/>
+      <c r="N88" s="14"/>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
@@ -2866,13 +2870,13 @@
       <c r="G94" s="9"/>
       <c r="H94" s="9"/>
       <c r="I94" s="10"/>
-      <c r="J94" s="13" t="s">
+      <c r="J94" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="K94" s="13"/>
-      <c r="L94" s="13"/>
-      <c r="M94" s="13"/>
-      <c r="N94" s="13"/>
+      <c r="K94" s="15"/>
+      <c r="L94" s="15"/>
+      <c r="M94" s="15"/>
+      <c r="N94" s="15"/>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
@@ -3125,16 +3129,16 @@
       <c r="G101" s="9"/>
       <c r="H101" s="9"/>
       <c r="I101" s="9"/>
-      <c r="J101" s="13" t="s">
+      <c r="J101" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="K101" s="13"/>
-      <c r="L101" s="13"/>
-      <c r="M101" s="13"/>
-      <c r="N101" s="13"/>
-      <c r="O101" s="14"/>
-      <c r="P101" s="14"/>
-      <c r="Q101" s="14"/>
+      <c r="K101" s="15"/>
+      <c r="L101" s="15"/>
+      <c r="M101" s="15"/>
+      <c r="N101" s="15"/>
+      <c r="O101" s="16"/>
+      <c r="P101" s="16"/>
+      <c r="Q101" s="16"/>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
@@ -3197,16 +3201,16 @@
       <c r="G103" s="9"/>
       <c r="H103" s="9"/>
       <c r="I103" s="9"/>
-      <c r="J103" s="13" t="s">
+      <c r="J103" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="K103" s="13"/>
-      <c r="L103" s="13"/>
-      <c r="M103" s="13"/>
-      <c r="N103" s="13"/>
-      <c r="O103" s="14"/>
-      <c r="P103" s="14"/>
-      <c r="Q103" s="14"/>
+      <c r="K103" s="15"/>
+      <c r="L103" s="15"/>
+      <c r="M103" s="15"/>
+      <c r="N103" s="15"/>
+      <c r="O103" s="16"/>
+      <c r="P103" s="16"/>
+      <c r="Q103" s="16"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
@@ -3347,16 +3351,16 @@
       <c r="G107" s="9"/>
       <c r="H107" s="9"/>
       <c r="I107" s="9"/>
-      <c r="J107" s="13" t="s">
+      <c r="J107" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="14"/>
-      <c r="P107" s="14"/>
-      <c r="Q107" s="14"/>
+      <c r="K107" s="15"/>
+      <c r="L107" s="15"/>
+      <c r="M107" s="15"/>
+      <c r="N107" s="15"/>
+      <c r="O107" s="16"/>
+      <c r="P107" s="16"/>
+      <c r="Q107" s="16"/>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
@@ -3673,34 +3677,63 @@
       <c r="P116" s="12"/>
       <c r="Q116" s="12"/>
     </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>53</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J117" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="K117" s="11"/>
+      <c r="L117" s="11"/>
+      <c r="M117" s="11"/>
+      <c r="N117" s="11"/>
+      <c r="O117" s="12"/>
+      <c r="P117" s="12"/>
+      <c r="Q117" s="12"/>
+    </row>
   </sheetData>
-  <mergeCells count="66">
-    <mergeCell ref="J112:Q112"/>
-    <mergeCell ref="J113:Q113"/>
-    <mergeCell ref="J114:Q114"/>
-    <mergeCell ref="J115:Q115"/>
-    <mergeCell ref="J116:Q116"/>
-    <mergeCell ref="J65:V65"/>
-    <mergeCell ref="J47:O47"/>
-    <mergeCell ref="J51:O51"/>
-    <mergeCell ref="J50:O50"/>
-    <mergeCell ref="J49:O49"/>
-    <mergeCell ref="J48:O48"/>
-    <mergeCell ref="O62:S62"/>
-    <mergeCell ref="J52:O52"/>
-    <mergeCell ref="J9:V9"/>
-    <mergeCell ref="J10:V10"/>
-    <mergeCell ref="J18:V18"/>
-    <mergeCell ref="J11:V11"/>
-    <mergeCell ref="J19:V19"/>
-    <mergeCell ref="J12:V12"/>
-    <mergeCell ref="J24:V24"/>
-    <mergeCell ref="J25:V25"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="J38:O38"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="J44:M44"/>
+  <mergeCells count="67">
+    <mergeCell ref="J117:Q117"/>
+    <mergeCell ref="J111:Q111"/>
+    <mergeCell ref="J108:Q108"/>
+    <mergeCell ref="J109:Q109"/>
+    <mergeCell ref="J110:Q110"/>
+    <mergeCell ref="J107:Q107"/>
+    <mergeCell ref="J106:Q106"/>
+    <mergeCell ref="J105:Q105"/>
+    <mergeCell ref="J95:N95"/>
+    <mergeCell ref="J99:Q99"/>
+    <mergeCell ref="J98:Q98"/>
+    <mergeCell ref="J96:N96"/>
+    <mergeCell ref="J97:Q97"/>
+    <mergeCell ref="J100:R100"/>
+    <mergeCell ref="J101:Q101"/>
+    <mergeCell ref="J102:Q102"/>
+    <mergeCell ref="J103:Q103"/>
+    <mergeCell ref="J104:Q104"/>
+    <mergeCell ref="J84:N84"/>
+    <mergeCell ref="J83:N83"/>
+    <mergeCell ref="J82:N82"/>
+    <mergeCell ref="J92:N92"/>
+    <mergeCell ref="J85:N85"/>
+    <mergeCell ref="J87:N87"/>
+    <mergeCell ref="J88:N88"/>
     <mergeCell ref="J66:V66"/>
     <mergeCell ref="J67:V67"/>
     <mergeCell ref="J71:V71"/>
@@ -3717,30 +3750,32 @@
     <mergeCell ref="J90:N90"/>
     <mergeCell ref="J91:N91"/>
     <mergeCell ref="J93:N93"/>
-    <mergeCell ref="J84:N84"/>
-    <mergeCell ref="J83:N83"/>
-    <mergeCell ref="J82:N82"/>
-    <mergeCell ref="J92:N92"/>
-    <mergeCell ref="J85:N85"/>
-    <mergeCell ref="J87:N87"/>
-    <mergeCell ref="J88:N88"/>
-    <mergeCell ref="J106:Q106"/>
-    <mergeCell ref="J105:Q105"/>
-    <mergeCell ref="J95:N95"/>
-    <mergeCell ref="J99:Q99"/>
-    <mergeCell ref="J98:Q98"/>
-    <mergeCell ref="J96:N96"/>
-    <mergeCell ref="J97:Q97"/>
-    <mergeCell ref="J100:R100"/>
-    <mergeCell ref="J101:Q101"/>
-    <mergeCell ref="J102:Q102"/>
-    <mergeCell ref="J103:Q103"/>
-    <mergeCell ref="J104:Q104"/>
-    <mergeCell ref="J111:Q111"/>
-    <mergeCell ref="J108:Q108"/>
-    <mergeCell ref="J109:Q109"/>
-    <mergeCell ref="J110:Q110"/>
-    <mergeCell ref="J107:Q107"/>
+    <mergeCell ref="J24:V24"/>
+    <mergeCell ref="J25:V25"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="J38:O38"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="J9:V9"/>
+    <mergeCell ref="J10:V10"/>
+    <mergeCell ref="J18:V18"/>
+    <mergeCell ref="J11:V11"/>
+    <mergeCell ref="J19:V19"/>
+    <mergeCell ref="J12:V12"/>
+    <mergeCell ref="J65:V65"/>
+    <mergeCell ref="J47:O47"/>
+    <mergeCell ref="J51:O51"/>
+    <mergeCell ref="J50:O50"/>
+    <mergeCell ref="J49:O49"/>
+    <mergeCell ref="J48:O48"/>
+    <mergeCell ref="O62:S62"/>
+    <mergeCell ref="J52:O52"/>
+    <mergeCell ref="J112:Q112"/>
+    <mergeCell ref="J113:Q113"/>
+    <mergeCell ref="J114:Q114"/>
+    <mergeCell ref="J115:Q115"/>
+    <mergeCell ref="J116:Q116"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F37B3C-3B07-4D52-A9BD-423FB6CE122C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB75D35C-1CA3-44CB-B19A-4403A88436E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="1275" windowWidth="22665" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3705" yWindow="1620" windowWidth="22665" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -501,17 +501,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -796,7 +796,7 @@
   <dimension ref="A3:V117"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="J117" sqref="J117:Q117"/>
+      <selection activeCell="I117" sqref="I117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1510,12 +1510,12 @@
       <c r="I44" s="2">
         <v>0.1235</v>
       </c>
-      <c r="J44" s="14" t="s">
+      <c r="J44" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="K44" s="14"/>
-      <c r="L44" s="14"/>
-      <c r="M44" s="14"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
@@ -1580,12 +1580,12 @@
       <c r="I46" s="2">
         <v>0.1249</v>
       </c>
-      <c r="J46" s="14" t="s">
+      <c r="J46" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="K46" s="14"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="14"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="15"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
@@ -1921,13 +1921,13 @@
       <c r="L62" s="2">
         <v>0.14990000000000001</v>
       </c>
-      <c r="O62" s="13" t="s">
+      <c r="O62" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="P62" s="13"/>
-      <c r="Q62" s="13"/>
-      <c r="R62" s="13"/>
-      <c r="S62" s="13"/>
+      <c r="P62" s="16"/>
+      <c r="Q62" s="16"/>
+      <c r="R62" s="16"/>
+      <c r="S62" s="16"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
@@ -2169,12 +2169,12 @@
       <c r="I73" s="5">
         <v>0.13669999999999999</v>
       </c>
-      <c r="J73" s="14" t="s">
+      <c r="J73" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K73" s="14"/>
-      <c r="L73" s="14"/>
-      <c r="M73" s="14"/>
+      <c r="K73" s="15"/>
+      <c r="L73" s="15"/>
+      <c r="M73" s="15"/>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
@@ -2195,12 +2195,12 @@
       <c r="F74" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J74" s="14" t="s">
+      <c r="J74" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="K74" s="14"/>
-      <c r="L74" s="14"/>
-      <c r="M74" s="14"/>
+      <c r="K74" s="15"/>
+      <c r="L74" s="15"/>
+      <c r="M74" s="15"/>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
@@ -2230,12 +2230,12 @@
       <c r="I75" s="2">
         <v>0.13780000000000001</v>
       </c>
-      <c r="J75" s="14" t="s">
+      <c r="J75" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="K75" s="14"/>
-      <c r="L75" s="14"/>
-      <c r="M75" s="14"/>
+      <c r="K75" s="15"/>
+      <c r="L75" s="15"/>
+      <c r="M75" s="15"/>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
@@ -2265,36 +2265,36 @@
       <c r="I76" s="5">
         <v>0.1348</v>
       </c>
-      <c r="J76" s="14" t="s">
+      <c r="J76" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="K76" s="14"/>
-      <c r="L76" s="14"/>
-      <c r="M76" s="14"/>
-      <c r="N76" s="14"/>
-      <c r="O76" s="14"/>
-      <c r="P76" s="14"/>
-      <c r="Q76" s="14"/>
+      <c r="K76" s="15"/>
+      <c r="L76" s="15"/>
+      <c r="M76" s="15"/>
+      <c r="N76" s="15"/>
+      <c r="O76" s="15"/>
+      <c r="P76" s="15"/>
+      <c r="Q76" s="15"/>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="J77" s="14"/>
-      <c r="K77" s="14"/>
-      <c r="L77" s="14"/>
-      <c r="M77" s="14"/>
-      <c r="N77" s="14"/>
-      <c r="O77" s="14"/>
-      <c r="P77" s="14"/>
-      <c r="Q77" s="14"/>
+      <c r="J77" s="15"/>
+      <c r="K77" s="15"/>
+      <c r="L77" s="15"/>
+      <c r="M77" s="15"/>
+      <c r="N77" s="15"/>
+      <c r="O77" s="15"/>
+      <c r="P77" s="15"/>
+      <c r="Q77" s="15"/>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="J78" s="14"/>
-      <c r="K78" s="14"/>
-      <c r="L78" s="14"/>
-      <c r="M78" s="14"/>
-      <c r="N78" s="14"/>
-      <c r="O78" s="14"/>
-      <c r="P78" s="14"/>
-      <c r="Q78" s="14"/>
+      <c r="J78" s="15"/>
+      <c r="K78" s="15"/>
+      <c r="L78" s="15"/>
+      <c r="M78" s="15"/>
+      <c r="N78" s="15"/>
+      <c r="O78" s="15"/>
+      <c r="P78" s="15"/>
+      <c r="Q78" s="15"/>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
@@ -2540,13 +2540,13 @@
       <c r="I85" s="2">
         <v>0.1361</v>
       </c>
-      <c r="J85" s="14" t="s">
+      <c r="J85" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="K85" s="14"/>
-      <c r="L85" s="14"/>
-      <c r="M85" s="14"/>
-      <c r="N85" s="14"/>
+      <c r="K85" s="15"/>
+      <c r="L85" s="15"/>
+      <c r="M85" s="15"/>
+      <c r="N85" s="15"/>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
@@ -2576,13 +2576,13 @@
       <c r="I86" s="5">
         <v>0.13070000000000001</v>
       </c>
-      <c r="J86" s="14" t="s">
+      <c r="J86" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="K86" s="14"/>
-      <c r="L86" s="14"/>
-      <c r="M86" s="14"/>
-      <c r="N86" s="14"/>
+      <c r="K86" s="15"/>
+      <c r="L86" s="15"/>
+      <c r="M86" s="15"/>
+      <c r="N86" s="15"/>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
@@ -2612,13 +2612,13 @@
       <c r="I87" s="2">
         <v>0.1361</v>
       </c>
-      <c r="J87" s="14" t="s">
+      <c r="J87" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="K87" s="14"/>
-      <c r="L87" s="14"/>
-      <c r="M87" s="14"/>
-      <c r="N87" s="14"/>
+      <c r="K87" s="15"/>
+      <c r="L87" s="15"/>
+      <c r="M87" s="15"/>
+      <c r="N87" s="15"/>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
@@ -2648,13 +2648,13 @@
       <c r="I88" s="2">
         <v>0.13589999999999999</v>
       </c>
-      <c r="J88" s="14" t="s">
+      <c r="J88" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="K88" s="14"/>
-      <c r="L88" s="14"/>
-      <c r="M88" s="14"/>
-      <c r="N88" s="14"/>
+      <c r="K88" s="15"/>
+      <c r="L88" s="15"/>
+      <c r="M88" s="15"/>
+      <c r="N88" s="15"/>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
@@ -2870,13 +2870,13 @@
       <c r="G94" s="9"/>
       <c r="H94" s="9"/>
       <c r="I94" s="10"/>
-      <c r="J94" s="15" t="s">
+      <c r="J94" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="K94" s="15"/>
-      <c r="L94" s="15"/>
-      <c r="M94" s="15"/>
-      <c r="N94" s="15"/>
+      <c r="K94" s="13"/>
+      <c r="L94" s="13"/>
+      <c r="M94" s="13"/>
+      <c r="N94" s="13"/>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
@@ -3129,16 +3129,16 @@
       <c r="G101" s="9"/>
       <c r="H101" s="9"/>
       <c r="I101" s="9"/>
-      <c r="J101" s="15" t="s">
+      <c r="J101" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="K101" s="15"/>
-      <c r="L101" s="15"/>
-      <c r="M101" s="15"/>
-      <c r="N101" s="15"/>
-      <c r="O101" s="16"/>
-      <c r="P101" s="16"/>
-      <c r="Q101" s="16"/>
+      <c r="K101" s="13"/>
+      <c r="L101" s="13"/>
+      <c r="M101" s="13"/>
+      <c r="N101" s="13"/>
+      <c r="O101" s="14"/>
+      <c r="P101" s="14"/>
+      <c r="Q101" s="14"/>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
@@ -3201,16 +3201,16 @@
       <c r="G103" s="9"/>
       <c r="H103" s="9"/>
       <c r="I103" s="9"/>
-      <c r="J103" s="15" t="s">
+      <c r="J103" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="K103" s="15"/>
-      <c r="L103" s="15"/>
-      <c r="M103" s="15"/>
-      <c r="N103" s="15"/>
-      <c r="O103" s="16"/>
-      <c r="P103" s="16"/>
-      <c r="Q103" s="16"/>
+      <c r="K103" s="13"/>
+      <c r="L103" s="13"/>
+      <c r="M103" s="13"/>
+      <c r="N103" s="13"/>
+      <c r="O103" s="14"/>
+      <c r="P103" s="14"/>
+      <c r="Q103" s="14"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
@@ -3351,16 +3351,16 @@
       <c r="G107" s="9"/>
       <c r="H107" s="9"/>
       <c r="I107" s="9"/>
-      <c r="J107" s="15" t="s">
+      <c r="J107" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="K107" s="15"/>
-      <c r="L107" s="15"/>
-      <c r="M107" s="15"/>
-      <c r="N107" s="15"/>
-      <c r="O107" s="16"/>
-      <c r="P107" s="16"/>
-      <c r="Q107" s="16"/>
+      <c r="K107" s="13"/>
+      <c r="L107" s="13"/>
+      <c r="M107" s="13"/>
+      <c r="N107" s="13"/>
+      <c r="O107" s="14"/>
+      <c r="P107" s="14"/>
+      <c r="Q107" s="14"/>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
@@ -3696,6 +3696,15 @@
       <c r="F117" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="G117" s="1">
+        <v>19.55</v>
+      </c>
+      <c r="H117" s="1">
+        <v>30.86</v>
+      </c>
+      <c r="I117" s="2">
+        <v>0.1356</v>
+      </c>
       <c r="J117" s="11" t="s">
         <v>89</v>
       </c>
@@ -3709,31 +3718,27 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="J117:Q117"/>
-    <mergeCell ref="J111:Q111"/>
-    <mergeCell ref="J108:Q108"/>
-    <mergeCell ref="J109:Q109"/>
-    <mergeCell ref="J110:Q110"/>
-    <mergeCell ref="J107:Q107"/>
-    <mergeCell ref="J106:Q106"/>
-    <mergeCell ref="J105:Q105"/>
-    <mergeCell ref="J95:N95"/>
-    <mergeCell ref="J99:Q99"/>
-    <mergeCell ref="J98:Q98"/>
-    <mergeCell ref="J96:N96"/>
-    <mergeCell ref="J97:Q97"/>
-    <mergeCell ref="J100:R100"/>
-    <mergeCell ref="J101:Q101"/>
-    <mergeCell ref="J102:Q102"/>
-    <mergeCell ref="J103:Q103"/>
-    <mergeCell ref="J104:Q104"/>
-    <mergeCell ref="J84:N84"/>
-    <mergeCell ref="J83:N83"/>
-    <mergeCell ref="J82:N82"/>
-    <mergeCell ref="J92:N92"/>
-    <mergeCell ref="J85:N85"/>
-    <mergeCell ref="J87:N87"/>
-    <mergeCell ref="J88:N88"/>
+    <mergeCell ref="J65:V65"/>
+    <mergeCell ref="J47:O47"/>
+    <mergeCell ref="J51:O51"/>
+    <mergeCell ref="J50:O50"/>
+    <mergeCell ref="J49:O49"/>
+    <mergeCell ref="J48:O48"/>
+    <mergeCell ref="O62:S62"/>
+    <mergeCell ref="J52:O52"/>
+    <mergeCell ref="J9:V9"/>
+    <mergeCell ref="J10:V10"/>
+    <mergeCell ref="J18:V18"/>
+    <mergeCell ref="J11:V11"/>
+    <mergeCell ref="J19:V19"/>
+    <mergeCell ref="J12:V12"/>
+    <mergeCell ref="J24:V24"/>
+    <mergeCell ref="J25:V25"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="J38:O38"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="J44:M44"/>
     <mergeCell ref="J66:V66"/>
     <mergeCell ref="J67:V67"/>
     <mergeCell ref="J71:V71"/>
@@ -3750,27 +3755,31 @@
     <mergeCell ref="J90:N90"/>
     <mergeCell ref="J91:N91"/>
     <mergeCell ref="J93:N93"/>
-    <mergeCell ref="J24:V24"/>
-    <mergeCell ref="J25:V25"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="J38:O38"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="J44:M44"/>
-    <mergeCell ref="J9:V9"/>
-    <mergeCell ref="J10:V10"/>
-    <mergeCell ref="J18:V18"/>
-    <mergeCell ref="J11:V11"/>
-    <mergeCell ref="J19:V19"/>
-    <mergeCell ref="J12:V12"/>
-    <mergeCell ref="J65:V65"/>
-    <mergeCell ref="J47:O47"/>
-    <mergeCell ref="J51:O51"/>
-    <mergeCell ref="J50:O50"/>
-    <mergeCell ref="J49:O49"/>
-    <mergeCell ref="J48:O48"/>
-    <mergeCell ref="O62:S62"/>
-    <mergeCell ref="J52:O52"/>
+    <mergeCell ref="J84:N84"/>
+    <mergeCell ref="J83:N83"/>
+    <mergeCell ref="J82:N82"/>
+    <mergeCell ref="J92:N92"/>
+    <mergeCell ref="J85:N85"/>
+    <mergeCell ref="J87:N87"/>
+    <mergeCell ref="J88:N88"/>
+    <mergeCell ref="J107:Q107"/>
+    <mergeCell ref="J106:Q106"/>
+    <mergeCell ref="J105:Q105"/>
+    <mergeCell ref="J95:N95"/>
+    <mergeCell ref="J99:Q99"/>
+    <mergeCell ref="J98:Q98"/>
+    <mergeCell ref="J96:N96"/>
+    <mergeCell ref="J97:Q97"/>
+    <mergeCell ref="J100:R100"/>
+    <mergeCell ref="J101:Q101"/>
+    <mergeCell ref="J102:Q102"/>
+    <mergeCell ref="J103:Q103"/>
+    <mergeCell ref="J104:Q104"/>
+    <mergeCell ref="J117:Q117"/>
+    <mergeCell ref="J111:Q111"/>
+    <mergeCell ref="J108:Q108"/>
+    <mergeCell ref="J109:Q109"/>
+    <mergeCell ref="J110:Q110"/>
     <mergeCell ref="J112:Q112"/>
     <mergeCell ref="J113:Q113"/>
     <mergeCell ref="J114:Q114"/>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB75D35C-1CA3-44CB-B19A-4403A88436E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9974394-E67E-4263-AEC0-4036739A5D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3705" yWindow="1620" windowWidth="22665" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3360" yWindow="1275" windowWidth="22665" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="91">
   <si>
     <t>ST-SSL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -383,6 +383,10 @@
   </si>
   <si>
     <t>13-&gt;53 时间卷积-注意力-时间卷积。去除ODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toddow-&gt;54 引入DDGCRN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -498,6 +502,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -506,12 +516,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -793,10 +797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:V117"/>
+  <dimension ref="A3:V118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="I117" sqref="I117"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="K122" sqref="K122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1421,8 +1425,8 @@
       <c r="K38" s="11"/>
       <c r="L38" s="11"/>
       <c r="M38" s="11"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
@@ -1510,12 +1514,12 @@
       <c r="I44" s="2">
         <v>0.1235</v>
       </c>
-      <c r="J44" s="15" t="s">
+      <c r="J44" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="K44" s="15"/>
-      <c r="L44" s="15"/>
-      <c r="M44" s="15"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
@@ -1580,12 +1584,12 @@
       <c r="I46" s="2">
         <v>0.1249</v>
       </c>
-      <c r="J46" s="15" t="s">
+      <c r="J46" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="K46" s="15"/>
-      <c r="L46" s="15"/>
-      <c r="M46" s="15"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="13"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
@@ -1921,13 +1925,13 @@
       <c r="L62" s="2">
         <v>0.14990000000000001</v>
       </c>
-      <c r="O62" s="16" t="s">
+      <c r="O62" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="P62" s="16"/>
-      <c r="Q62" s="16"/>
-      <c r="R62" s="16"/>
-      <c r="S62" s="16"/>
+      <c r="P62" s="12"/>
+      <c r="Q62" s="12"/>
+      <c r="R62" s="12"/>
+      <c r="S62" s="12"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
@@ -2169,12 +2173,12 @@
       <c r="I73" s="5">
         <v>0.13669999999999999</v>
       </c>
-      <c r="J73" s="15" t="s">
+      <c r="J73" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="K73" s="15"/>
-      <c r="L73" s="15"/>
-      <c r="M73" s="15"/>
+      <c r="K73" s="13"/>
+      <c r="L73" s="13"/>
+      <c r="M73" s="13"/>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
@@ -2195,12 +2199,12 @@
       <c r="F74" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J74" s="15" t="s">
+      <c r="J74" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="K74" s="15"/>
-      <c r="L74" s="15"/>
-      <c r="M74" s="15"/>
+      <c r="K74" s="13"/>
+      <c r="L74" s="13"/>
+      <c r="M74" s="13"/>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
@@ -2230,12 +2234,12 @@
       <c r="I75" s="2">
         <v>0.13780000000000001</v>
       </c>
-      <c r="J75" s="15" t="s">
+      <c r="J75" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="K75" s="15"/>
-      <c r="L75" s="15"/>
-      <c r="M75" s="15"/>
+      <c r="K75" s="13"/>
+      <c r="L75" s="13"/>
+      <c r="M75" s="13"/>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
@@ -2265,36 +2269,36 @@
       <c r="I76" s="5">
         <v>0.1348</v>
       </c>
-      <c r="J76" s="15" t="s">
+      <c r="J76" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="K76" s="15"/>
-      <c r="L76" s="15"/>
-      <c r="M76" s="15"/>
-      <c r="N76" s="15"/>
-      <c r="O76" s="15"/>
-      <c r="P76" s="15"/>
-      <c r="Q76" s="15"/>
+      <c r="K76" s="13"/>
+      <c r="L76" s="13"/>
+      <c r="M76" s="13"/>
+      <c r="N76" s="13"/>
+      <c r="O76" s="13"/>
+      <c r="P76" s="13"/>
+      <c r="Q76" s="13"/>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="J77" s="15"/>
-      <c r="K77" s="15"/>
-      <c r="L77" s="15"/>
-      <c r="M77" s="15"/>
-      <c r="N77" s="15"/>
-      <c r="O77" s="15"/>
-      <c r="P77" s="15"/>
-      <c r="Q77" s="15"/>
+      <c r="J77" s="13"/>
+      <c r="K77" s="13"/>
+      <c r="L77" s="13"/>
+      <c r="M77" s="13"/>
+      <c r="N77" s="13"/>
+      <c r="O77" s="13"/>
+      <c r="P77" s="13"/>
+      <c r="Q77" s="13"/>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="J78" s="15"/>
-      <c r="K78" s="15"/>
-      <c r="L78" s="15"/>
-      <c r="M78" s="15"/>
-      <c r="N78" s="15"/>
-      <c r="O78" s="15"/>
-      <c r="P78" s="15"/>
-      <c r="Q78" s="15"/>
+      <c r="J78" s="13"/>
+      <c r="K78" s="13"/>
+      <c r="L78" s="13"/>
+      <c r="M78" s="13"/>
+      <c r="N78" s="13"/>
+      <c r="O78" s="13"/>
+      <c r="P78" s="13"/>
+      <c r="Q78" s="13"/>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
@@ -2540,13 +2544,13 @@
       <c r="I85" s="2">
         <v>0.1361</v>
       </c>
-      <c r="J85" s="15" t="s">
+      <c r="J85" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="K85" s="15"/>
-      <c r="L85" s="15"/>
-      <c r="M85" s="15"/>
-      <c r="N85" s="15"/>
+      <c r="K85" s="13"/>
+      <c r="L85" s="13"/>
+      <c r="M85" s="13"/>
+      <c r="N85" s="13"/>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
@@ -2576,13 +2580,13 @@
       <c r="I86" s="5">
         <v>0.13070000000000001</v>
       </c>
-      <c r="J86" s="15" t="s">
+      <c r="J86" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="K86" s="15"/>
-      <c r="L86" s="15"/>
-      <c r="M86" s="15"/>
-      <c r="N86" s="15"/>
+      <c r="K86" s="13"/>
+      <c r="L86" s="13"/>
+      <c r="M86" s="13"/>
+      <c r="N86" s="13"/>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
@@ -2612,13 +2616,13 @@
       <c r="I87" s="2">
         <v>0.1361</v>
       </c>
-      <c r="J87" s="15" t="s">
+      <c r="J87" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="K87" s="15"/>
-      <c r="L87" s="15"/>
-      <c r="M87" s="15"/>
-      <c r="N87" s="15"/>
+      <c r="K87" s="13"/>
+      <c r="L87" s="13"/>
+      <c r="M87" s="13"/>
+      <c r="N87" s="13"/>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
@@ -2648,13 +2652,13 @@
       <c r="I88" s="2">
         <v>0.13589999999999999</v>
       </c>
-      <c r="J88" s="15" t="s">
+      <c r="J88" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="K88" s="15"/>
-      <c r="L88" s="15"/>
-      <c r="M88" s="15"/>
-      <c r="N88" s="15"/>
+      <c r="K88" s="13"/>
+      <c r="L88" s="13"/>
+      <c r="M88" s="13"/>
+      <c r="N88" s="13"/>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
@@ -2870,13 +2874,13 @@
       <c r="G94" s="9"/>
       <c r="H94" s="9"/>
       <c r="I94" s="10"/>
-      <c r="J94" s="13" t="s">
+      <c r="J94" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="K94" s="13"/>
-      <c r="L94" s="13"/>
-      <c r="M94" s="13"/>
-      <c r="N94" s="13"/>
+      <c r="K94" s="15"/>
+      <c r="L94" s="15"/>
+      <c r="M94" s="15"/>
+      <c r="N94" s="15"/>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
@@ -2985,9 +2989,9 @@
       <c r="L97" s="11"/>
       <c r="M97" s="11"/>
       <c r="N97" s="11"/>
-      <c r="O97" s="12"/>
-      <c r="P97" s="12"/>
-      <c r="Q97" s="12"/>
+      <c r="O97" s="14"/>
+      <c r="P97" s="14"/>
+      <c r="Q97" s="14"/>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
@@ -3024,9 +3028,9 @@
       <c r="L98" s="11"/>
       <c r="M98" s="11"/>
       <c r="N98" s="11"/>
-      <c r="O98" s="12"/>
-      <c r="P98" s="12"/>
-      <c r="Q98" s="12"/>
+      <c r="O98" s="14"/>
+      <c r="P98" s="14"/>
+      <c r="Q98" s="14"/>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
@@ -3063,9 +3067,9 @@
       <c r="L99" s="11"/>
       <c r="M99" s="11"/>
       <c r="N99" s="11"/>
-      <c r="O99" s="12"/>
-      <c r="P99" s="12"/>
-      <c r="Q99" s="12"/>
+      <c r="O99" s="14"/>
+      <c r="P99" s="14"/>
+      <c r="Q99" s="14"/>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
@@ -3102,10 +3106,10 @@
       <c r="L100" s="11"/>
       <c r="M100" s="11"/>
       <c r="N100" s="11"/>
-      <c r="O100" s="12"/>
-      <c r="P100" s="12"/>
-      <c r="Q100" s="12"/>
-      <c r="R100" s="12"/>
+      <c r="O100" s="14"/>
+      <c r="P100" s="14"/>
+      <c r="Q100" s="14"/>
+      <c r="R100" s="14"/>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101" s="8">
@@ -3129,16 +3133,16 @@
       <c r="G101" s="9"/>
       <c r="H101" s="9"/>
       <c r="I101" s="9"/>
-      <c r="J101" s="13" t="s">
+      <c r="J101" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="K101" s="13"/>
-      <c r="L101" s="13"/>
-      <c r="M101" s="13"/>
-      <c r="N101" s="13"/>
-      <c r="O101" s="14"/>
-      <c r="P101" s="14"/>
-      <c r="Q101" s="14"/>
+      <c r="K101" s="15"/>
+      <c r="L101" s="15"/>
+      <c r="M101" s="15"/>
+      <c r="N101" s="15"/>
+      <c r="O101" s="16"/>
+      <c r="P101" s="16"/>
+      <c r="Q101" s="16"/>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
@@ -3175,9 +3179,9 @@
       <c r="L102" s="11"/>
       <c r="M102" s="11"/>
       <c r="N102" s="11"/>
-      <c r="O102" s="12"/>
-      <c r="P102" s="12"/>
-      <c r="Q102" s="12"/>
+      <c r="O102" s="14"/>
+      <c r="P102" s="14"/>
+      <c r="Q102" s="14"/>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A103" s="8">
@@ -3201,16 +3205,16 @@
       <c r="G103" s="9"/>
       <c r="H103" s="9"/>
       <c r="I103" s="9"/>
-      <c r="J103" s="13" t="s">
+      <c r="J103" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="K103" s="13"/>
-      <c r="L103" s="13"/>
-      <c r="M103" s="13"/>
-      <c r="N103" s="13"/>
-      <c r="O103" s="14"/>
-      <c r="P103" s="14"/>
-      <c r="Q103" s="14"/>
+      <c r="K103" s="15"/>
+      <c r="L103" s="15"/>
+      <c r="M103" s="15"/>
+      <c r="N103" s="15"/>
+      <c r="O103" s="16"/>
+      <c r="P103" s="16"/>
+      <c r="Q103" s="16"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
@@ -3247,9 +3251,9 @@
       <c r="L104" s="11"/>
       <c r="M104" s="11"/>
       <c r="N104" s="11"/>
-      <c r="O104" s="12"/>
-      <c r="P104" s="12"/>
-      <c r="Q104" s="12"/>
+      <c r="O104" s="14"/>
+      <c r="P104" s="14"/>
+      <c r="Q104" s="14"/>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
@@ -3286,9 +3290,9 @@
       <c r="L105" s="11"/>
       <c r="M105" s="11"/>
       <c r="N105" s="11"/>
-      <c r="O105" s="12"/>
-      <c r="P105" s="12"/>
-      <c r="Q105" s="12"/>
+      <c r="O105" s="14"/>
+      <c r="P105" s="14"/>
+      <c r="Q105" s="14"/>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
@@ -3325,9 +3329,9 @@
       <c r="L106" s="11"/>
       <c r="M106" s="11"/>
       <c r="N106" s="11"/>
-      <c r="O106" s="12"/>
-      <c r="P106" s="12"/>
-      <c r="Q106" s="12"/>
+      <c r="O106" s="14"/>
+      <c r="P106" s="14"/>
+      <c r="Q106" s="14"/>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A107" s="8">
@@ -3351,16 +3355,16 @@
       <c r="G107" s="9"/>
       <c r="H107" s="9"/>
       <c r="I107" s="9"/>
-      <c r="J107" s="13" t="s">
+      <c r="J107" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="14"/>
-      <c r="P107" s="14"/>
-      <c r="Q107" s="14"/>
+      <c r="K107" s="15"/>
+      <c r="L107" s="15"/>
+      <c r="M107" s="15"/>
+      <c r="N107" s="15"/>
+      <c r="O107" s="16"/>
+      <c r="P107" s="16"/>
+      <c r="Q107" s="16"/>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
@@ -3388,9 +3392,9 @@
       <c r="L108" s="11"/>
       <c r="M108" s="11"/>
       <c r="N108" s="11"/>
-      <c r="O108" s="12"/>
-      <c r="P108" s="12"/>
-      <c r="Q108" s="12"/>
+      <c r="O108" s="14"/>
+      <c r="P108" s="14"/>
+      <c r="Q108" s="14"/>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
@@ -3427,9 +3431,9 @@
       <c r="L109" s="11"/>
       <c r="M109" s="11"/>
       <c r="N109" s="11"/>
-      <c r="O109" s="12"/>
-      <c r="P109" s="12"/>
-      <c r="Q109" s="12"/>
+      <c r="O109" s="14"/>
+      <c r="P109" s="14"/>
+      <c r="Q109" s="14"/>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
@@ -3466,9 +3470,9 @@
       <c r="L110" s="11"/>
       <c r="M110" s="11"/>
       <c r="N110" s="11"/>
-      <c r="O110" s="12"/>
-      <c r="P110" s="12"/>
-      <c r="Q110" s="12"/>
+      <c r="O110" s="14"/>
+      <c r="P110" s="14"/>
+      <c r="Q110" s="14"/>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
@@ -3505,9 +3509,9 @@
       <c r="L111" s="11"/>
       <c r="M111" s="11"/>
       <c r="N111" s="11"/>
-      <c r="O111" s="12"/>
-      <c r="P111" s="12"/>
-      <c r="Q111" s="12"/>
+      <c r="O111" s="14"/>
+      <c r="P111" s="14"/>
+      <c r="Q111" s="14"/>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
@@ -3535,9 +3539,9 @@
       <c r="L112" s="11"/>
       <c r="M112" s="11"/>
       <c r="N112" s="11"/>
-      <c r="O112" s="12"/>
-      <c r="P112" s="12"/>
-      <c r="Q112" s="12"/>
+      <c r="O112" s="14"/>
+      <c r="P112" s="14"/>
+      <c r="Q112" s="14"/>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
@@ -3574,9 +3578,9 @@
       <c r="L113" s="11"/>
       <c r="M113" s="11"/>
       <c r="N113" s="11"/>
-      <c r="O113" s="12"/>
-      <c r="P113" s="12"/>
-      <c r="Q113" s="12"/>
+      <c r="O113" s="14"/>
+      <c r="P113" s="14"/>
+      <c r="Q113" s="14"/>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
@@ -3613,9 +3617,9 @@
       <c r="L114" s="11"/>
       <c r="M114" s="11"/>
       <c r="N114" s="11"/>
-      <c r="O114" s="12"/>
-      <c r="P114" s="12"/>
-      <c r="Q114" s="12"/>
+      <c r="O114" s="14"/>
+      <c r="P114" s="14"/>
+      <c r="Q114" s="14"/>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
@@ -3643,9 +3647,9 @@
       <c r="L115" s="11"/>
       <c r="M115" s="11"/>
       <c r="N115" s="11"/>
-      <c r="O115" s="12"/>
-      <c r="P115" s="12"/>
-      <c r="Q115" s="12"/>
+      <c r="O115" s="14"/>
+      <c r="P115" s="14"/>
+      <c r="Q115" s="14"/>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
@@ -3673,9 +3677,9 @@
       <c r="L116" s="11"/>
       <c r="M116" s="11"/>
       <c r="N116" s="11"/>
-      <c r="O116" s="12"/>
-      <c r="P116" s="12"/>
-      <c r="Q116" s="12"/>
+      <c r="O116" s="14"/>
+      <c r="P116" s="14"/>
+      <c r="Q116" s="14"/>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
@@ -3712,33 +3716,74 @@
       <c r="L117" s="11"/>
       <c r="M117" s="11"/>
       <c r="N117" s="11"/>
-      <c r="O117" s="12"/>
-      <c r="P117" s="12"/>
-      <c r="Q117" s="12"/>
+      <c r="O117" s="14"/>
+      <c r="P117" s="14"/>
+      <c r="Q117" s="14"/>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>54</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I118" s="2"/>
+      <c r="J118" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="K118" s="11"/>
+      <c r="L118" s="11"/>
+      <c r="M118" s="11"/>
+      <c r="N118" s="11"/>
+      <c r="O118" s="14"/>
+      <c r="P118" s="14"/>
+      <c r="Q118" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="67">
-    <mergeCell ref="J65:V65"/>
-    <mergeCell ref="J47:O47"/>
-    <mergeCell ref="J51:O51"/>
-    <mergeCell ref="J50:O50"/>
-    <mergeCell ref="J49:O49"/>
-    <mergeCell ref="J48:O48"/>
-    <mergeCell ref="O62:S62"/>
-    <mergeCell ref="J52:O52"/>
-    <mergeCell ref="J9:V9"/>
-    <mergeCell ref="J10:V10"/>
-    <mergeCell ref="J18:V18"/>
-    <mergeCell ref="J11:V11"/>
-    <mergeCell ref="J19:V19"/>
-    <mergeCell ref="J12:V12"/>
-    <mergeCell ref="J24:V24"/>
-    <mergeCell ref="J25:V25"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="J38:O38"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="J44:M44"/>
+  <mergeCells count="68">
+    <mergeCell ref="J118:Q118"/>
+    <mergeCell ref="J117:Q117"/>
+    <mergeCell ref="J111:Q111"/>
+    <mergeCell ref="J108:Q108"/>
+    <mergeCell ref="J109:Q109"/>
+    <mergeCell ref="J110:Q110"/>
+    <mergeCell ref="J112:Q112"/>
+    <mergeCell ref="J113:Q113"/>
+    <mergeCell ref="J114:Q114"/>
+    <mergeCell ref="J115:Q115"/>
+    <mergeCell ref="J116:Q116"/>
+    <mergeCell ref="J107:Q107"/>
+    <mergeCell ref="J106:Q106"/>
+    <mergeCell ref="J105:Q105"/>
+    <mergeCell ref="J95:N95"/>
+    <mergeCell ref="J99:Q99"/>
+    <mergeCell ref="J98:Q98"/>
+    <mergeCell ref="J96:N96"/>
+    <mergeCell ref="J97:Q97"/>
+    <mergeCell ref="J100:R100"/>
+    <mergeCell ref="J101:Q101"/>
+    <mergeCell ref="J102:Q102"/>
+    <mergeCell ref="J103:Q103"/>
+    <mergeCell ref="J104:Q104"/>
+    <mergeCell ref="J84:N84"/>
+    <mergeCell ref="J83:N83"/>
+    <mergeCell ref="J82:N82"/>
+    <mergeCell ref="J92:N92"/>
+    <mergeCell ref="J85:N85"/>
+    <mergeCell ref="J87:N87"/>
+    <mergeCell ref="J88:N88"/>
     <mergeCell ref="J66:V66"/>
     <mergeCell ref="J67:V67"/>
     <mergeCell ref="J71:V71"/>
@@ -3755,36 +3800,27 @@
     <mergeCell ref="J90:N90"/>
     <mergeCell ref="J91:N91"/>
     <mergeCell ref="J93:N93"/>
-    <mergeCell ref="J84:N84"/>
-    <mergeCell ref="J83:N83"/>
-    <mergeCell ref="J82:N82"/>
-    <mergeCell ref="J92:N92"/>
-    <mergeCell ref="J85:N85"/>
-    <mergeCell ref="J87:N87"/>
-    <mergeCell ref="J88:N88"/>
-    <mergeCell ref="J107:Q107"/>
-    <mergeCell ref="J106:Q106"/>
-    <mergeCell ref="J105:Q105"/>
-    <mergeCell ref="J95:N95"/>
-    <mergeCell ref="J99:Q99"/>
-    <mergeCell ref="J98:Q98"/>
-    <mergeCell ref="J96:N96"/>
-    <mergeCell ref="J97:Q97"/>
-    <mergeCell ref="J100:R100"/>
-    <mergeCell ref="J101:Q101"/>
-    <mergeCell ref="J102:Q102"/>
-    <mergeCell ref="J103:Q103"/>
-    <mergeCell ref="J104:Q104"/>
-    <mergeCell ref="J117:Q117"/>
-    <mergeCell ref="J111:Q111"/>
-    <mergeCell ref="J108:Q108"/>
-    <mergeCell ref="J109:Q109"/>
-    <mergeCell ref="J110:Q110"/>
-    <mergeCell ref="J112:Q112"/>
-    <mergeCell ref="J113:Q113"/>
-    <mergeCell ref="J114:Q114"/>
-    <mergeCell ref="J115:Q115"/>
-    <mergeCell ref="J116:Q116"/>
+    <mergeCell ref="J24:V24"/>
+    <mergeCell ref="J25:V25"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="J38:O38"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="J9:V9"/>
+    <mergeCell ref="J10:V10"/>
+    <mergeCell ref="J18:V18"/>
+    <mergeCell ref="J11:V11"/>
+    <mergeCell ref="J19:V19"/>
+    <mergeCell ref="J12:V12"/>
+    <mergeCell ref="J65:V65"/>
+    <mergeCell ref="J47:O47"/>
+    <mergeCell ref="J51:O51"/>
+    <mergeCell ref="J50:O50"/>
+    <mergeCell ref="J49:O49"/>
+    <mergeCell ref="J48:O48"/>
+    <mergeCell ref="O62:S62"/>
+    <mergeCell ref="J52:O52"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9974394-E67E-4263-AEC0-4036739A5D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B02785-98E6-45E9-82C1-66F4B0657C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3360" yWindow="1275" windowWidth="22665" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="93">
   <si>
     <t>ST-SSL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -387,6 +387,14 @@
   </si>
   <si>
     <t>toddow-&gt;54 引入DDGCRN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引入DDGCRN的最后一步状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引入STAEFormer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -502,12 +510,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -516,6 +518,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -797,10 +805,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:V118"/>
+  <dimension ref="A3:V120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="K122" sqref="K122"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="J115" sqref="J115:Q115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1425,8 +1433,8 @@
       <c r="K38" s="11"/>
       <c r="L38" s="11"/>
       <c r="M38" s="11"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
@@ -1514,12 +1522,12 @@
       <c r="I44" s="2">
         <v>0.1235</v>
       </c>
-      <c r="J44" s="13" t="s">
+      <c r="J44" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
@@ -1584,12 +1592,12 @@
       <c r="I46" s="2">
         <v>0.1249</v>
       </c>
-      <c r="J46" s="13" t="s">
+      <c r="J46" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="K46" s="13"/>
-      <c r="L46" s="13"/>
-      <c r="M46" s="13"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="15"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
@@ -1925,13 +1933,13 @@
       <c r="L62" s="2">
         <v>0.14990000000000001</v>
       </c>
-      <c r="O62" s="12" t="s">
+      <c r="O62" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="P62" s="12"/>
-      <c r="Q62" s="12"/>
-      <c r="R62" s="12"/>
-      <c r="S62" s="12"/>
+      <c r="P62" s="16"/>
+      <c r="Q62" s="16"/>
+      <c r="R62" s="16"/>
+      <c r="S62" s="16"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
@@ -2173,12 +2181,12 @@
       <c r="I73" s="5">
         <v>0.13669999999999999</v>
       </c>
-      <c r="J73" s="13" t="s">
+      <c r="J73" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K73" s="13"/>
-      <c r="L73" s="13"/>
-      <c r="M73" s="13"/>
+      <c r="K73" s="15"/>
+      <c r="L73" s="15"/>
+      <c r="M73" s="15"/>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
@@ -2199,12 +2207,12 @@
       <c r="F74" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J74" s="13" t="s">
+      <c r="J74" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="K74" s="13"/>
-      <c r="L74" s="13"/>
-      <c r="M74" s="13"/>
+      <c r="K74" s="15"/>
+      <c r="L74" s="15"/>
+      <c r="M74" s="15"/>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
@@ -2234,12 +2242,12 @@
       <c r="I75" s="2">
         <v>0.13780000000000001</v>
       </c>
-      <c r="J75" s="13" t="s">
+      <c r="J75" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="K75" s="13"/>
-      <c r="L75" s="13"/>
-      <c r="M75" s="13"/>
+      <c r="K75" s="15"/>
+      <c r="L75" s="15"/>
+      <c r="M75" s="15"/>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
@@ -2269,36 +2277,36 @@
       <c r="I76" s="5">
         <v>0.1348</v>
       </c>
-      <c r="J76" s="13" t="s">
+      <c r="J76" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="K76" s="13"/>
-      <c r="L76" s="13"/>
-      <c r="M76" s="13"/>
-      <c r="N76" s="13"/>
-      <c r="O76" s="13"/>
-      <c r="P76" s="13"/>
-      <c r="Q76" s="13"/>
+      <c r="K76" s="15"/>
+      <c r="L76" s="15"/>
+      <c r="M76" s="15"/>
+      <c r="N76" s="15"/>
+      <c r="O76" s="15"/>
+      <c r="P76" s="15"/>
+      <c r="Q76" s="15"/>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="J77" s="13"/>
-      <c r="K77" s="13"/>
-      <c r="L77" s="13"/>
-      <c r="M77" s="13"/>
-      <c r="N77" s="13"/>
-      <c r="O77" s="13"/>
-      <c r="P77" s="13"/>
-      <c r="Q77" s="13"/>
+      <c r="J77" s="15"/>
+      <c r="K77" s="15"/>
+      <c r="L77" s="15"/>
+      <c r="M77" s="15"/>
+      <c r="N77" s="15"/>
+      <c r="O77" s="15"/>
+      <c r="P77" s="15"/>
+      <c r="Q77" s="15"/>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="J78" s="13"/>
-      <c r="K78" s="13"/>
-      <c r="L78" s="13"/>
-      <c r="M78" s="13"/>
-      <c r="N78" s="13"/>
-      <c r="O78" s="13"/>
-      <c r="P78" s="13"/>
-      <c r="Q78" s="13"/>
+      <c r="J78" s="15"/>
+      <c r="K78" s="15"/>
+      <c r="L78" s="15"/>
+      <c r="M78" s="15"/>
+      <c r="N78" s="15"/>
+      <c r="O78" s="15"/>
+      <c r="P78" s="15"/>
+      <c r="Q78" s="15"/>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
@@ -2544,13 +2552,13 @@
       <c r="I85" s="2">
         <v>0.1361</v>
       </c>
-      <c r="J85" s="13" t="s">
+      <c r="J85" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="K85" s="13"/>
-      <c r="L85" s="13"/>
-      <c r="M85" s="13"/>
-      <c r="N85" s="13"/>
+      <c r="K85" s="15"/>
+      <c r="L85" s="15"/>
+      <c r="M85" s="15"/>
+      <c r="N85" s="15"/>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
@@ -2580,13 +2588,13 @@
       <c r="I86" s="5">
         <v>0.13070000000000001</v>
       </c>
-      <c r="J86" s="13" t="s">
+      <c r="J86" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="K86" s="13"/>
-      <c r="L86" s="13"/>
-      <c r="M86" s="13"/>
-      <c r="N86" s="13"/>
+      <c r="K86" s="15"/>
+      <c r="L86" s="15"/>
+      <c r="M86" s="15"/>
+      <c r="N86" s="15"/>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
@@ -2616,13 +2624,13 @@
       <c r="I87" s="2">
         <v>0.1361</v>
       </c>
-      <c r="J87" s="13" t="s">
+      <c r="J87" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="K87" s="13"/>
-      <c r="L87" s="13"/>
-      <c r="M87" s="13"/>
-      <c r="N87" s="13"/>
+      <c r="K87" s="15"/>
+      <c r="L87" s="15"/>
+      <c r="M87" s="15"/>
+      <c r="N87" s="15"/>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
@@ -2652,13 +2660,13 @@
       <c r="I88" s="2">
         <v>0.13589999999999999</v>
       </c>
-      <c r="J88" s="13" t="s">
+      <c r="J88" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="K88" s="13"/>
-      <c r="L88" s="13"/>
-      <c r="M88" s="13"/>
-      <c r="N88" s="13"/>
+      <c r="K88" s="15"/>
+      <c r="L88" s="15"/>
+      <c r="M88" s="15"/>
+      <c r="N88" s="15"/>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
@@ -2874,13 +2882,13 @@
       <c r="G94" s="9"/>
       <c r="H94" s="9"/>
       <c r="I94" s="10"/>
-      <c r="J94" s="15" t="s">
+      <c r="J94" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="K94" s="15"/>
-      <c r="L94" s="15"/>
-      <c r="M94" s="15"/>
-      <c r="N94" s="15"/>
+      <c r="K94" s="13"/>
+      <c r="L94" s="13"/>
+      <c r="M94" s="13"/>
+      <c r="N94" s="13"/>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
@@ -2989,9 +2997,9 @@
       <c r="L97" s="11"/>
       <c r="M97" s="11"/>
       <c r="N97" s="11"/>
-      <c r="O97" s="14"/>
-      <c r="P97" s="14"/>
-      <c r="Q97" s="14"/>
+      <c r="O97" s="12"/>
+      <c r="P97" s="12"/>
+      <c r="Q97" s="12"/>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
@@ -3028,9 +3036,9 @@
       <c r="L98" s="11"/>
       <c r="M98" s="11"/>
       <c r="N98" s="11"/>
-      <c r="O98" s="14"/>
-      <c r="P98" s="14"/>
-      <c r="Q98" s="14"/>
+      <c r="O98" s="12"/>
+      <c r="P98" s="12"/>
+      <c r="Q98" s="12"/>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
@@ -3067,9 +3075,9 @@
       <c r="L99" s="11"/>
       <c r="M99" s="11"/>
       <c r="N99" s="11"/>
-      <c r="O99" s="14"/>
-      <c r="P99" s="14"/>
-      <c r="Q99" s="14"/>
+      <c r="O99" s="12"/>
+      <c r="P99" s="12"/>
+      <c r="Q99" s="12"/>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
@@ -3106,10 +3114,10 @@
       <c r="L100" s="11"/>
       <c r="M100" s="11"/>
       <c r="N100" s="11"/>
-      <c r="O100" s="14"/>
-      <c r="P100" s="14"/>
-      <c r="Q100" s="14"/>
-      <c r="R100" s="14"/>
+      <c r="O100" s="12"/>
+      <c r="P100" s="12"/>
+      <c r="Q100" s="12"/>
+      <c r="R100" s="12"/>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101" s="8">
@@ -3133,16 +3141,16 @@
       <c r="G101" s="9"/>
       <c r="H101" s="9"/>
       <c r="I101" s="9"/>
-      <c r="J101" s="15" t="s">
+      <c r="J101" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="K101" s="15"/>
-      <c r="L101" s="15"/>
-      <c r="M101" s="15"/>
-      <c r="N101" s="15"/>
-      <c r="O101" s="16"/>
-      <c r="P101" s="16"/>
-      <c r="Q101" s="16"/>
+      <c r="K101" s="13"/>
+      <c r="L101" s="13"/>
+      <c r="M101" s="13"/>
+      <c r="N101" s="13"/>
+      <c r="O101" s="14"/>
+      <c r="P101" s="14"/>
+      <c r="Q101" s="14"/>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
@@ -3179,9 +3187,9 @@
       <c r="L102" s="11"/>
       <c r="M102" s="11"/>
       <c r="N102" s="11"/>
-      <c r="O102" s="14"/>
-      <c r="P102" s="14"/>
-      <c r="Q102" s="14"/>
+      <c r="O102" s="12"/>
+      <c r="P102" s="12"/>
+      <c r="Q102" s="12"/>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A103" s="8">
@@ -3205,16 +3213,16 @@
       <c r="G103" s="9"/>
       <c r="H103" s="9"/>
       <c r="I103" s="9"/>
-      <c r="J103" s="15" t="s">
+      <c r="J103" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="K103" s="15"/>
-      <c r="L103" s="15"/>
-      <c r="M103" s="15"/>
-      <c r="N103" s="15"/>
-      <c r="O103" s="16"/>
-      <c r="P103" s="16"/>
-      <c r="Q103" s="16"/>
+      <c r="K103" s="13"/>
+      <c r="L103" s="13"/>
+      <c r="M103" s="13"/>
+      <c r="N103" s="13"/>
+      <c r="O103" s="14"/>
+      <c r="P103" s="14"/>
+      <c r="Q103" s="14"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
@@ -3251,9 +3259,9 @@
       <c r="L104" s="11"/>
       <c r="M104" s="11"/>
       <c r="N104" s="11"/>
-      <c r="O104" s="14"/>
-      <c r="P104" s="14"/>
-      <c r="Q104" s="14"/>
+      <c r="O104" s="12"/>
+      <c r="P104" s="12"/>
+      <c r="Q104" s="12"/>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
@@ -3290,9 +3298,9 @@
       <c r="L105" s="11"/>
       <c r="M105" s="11"/>
       <c r="N105" s="11"/>
-      <c r="O105" s="14"/>
-      <c r="P105" s="14"/>
-      <c r="Q105" s="14"/>
+      <c r="O105" s="12"/>
+      <c r="P105" s="12"/>
+      <c r="Q105" s="12"/>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
@@ -3329,9 +3337,9 @@
       <c r="L106" s="11"/>
       <c r="M106" s="11"/>
       <c r="N106" s="11"/>
-      <c r="O106" s="14"/>
-      <c r="P106" s="14"/>
-      <c r="Q106" s="14"/>
+      <c r="O106" s="12"/>
+      <c r="P106" s="12"/>
+      <c r="Q106" s="12"/>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A107" s="8">
@@ -3355,16 +3363,16 @@
       <c r="G107" s="9"/>
       <c r="H107" s="9"/>
       <c r="I107" s="9"/>
-      <c r="J107" s="15" t="s">
+      <c r="J107" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="K107" s="15"/>
-      <c r="L107" s="15"/>
-      <c r="M107" s="15"/>
-      <c r="N107" s="15"/>
-      <c r="O107" s="16"/>
-      <c r="P107" s="16"/>
-      <c r="Q107" s="16"/>
+      <c r="K107" s="13"/>
+      <c r="L107" s="13"/>
+      <c r="M107" s="13"/>
+      <c r="N107" s="13"/>
+      <c r="O107" s="14"/>
+      <c r="P107" s="14"/>
+      <c r="Q107" s="14"/>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
@@ -3392,9 +3400,9 @@
       <c r="L108" s="11"/>
       <c r="M108" s="11"/>
       <c r="N108" s="11"/>
-      <c r="O108" s="14"/>
-      <c r="P108" s="14"/>
-      <c r="Q108" s="14"/>
+      <c r="O108" s="12"/>
+      <c r="P108" s="12"/>
+      <c r="Q108" s="12"/>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
@@ -3431,9 +3439,9 @@
       <c r="L109" s="11"/>
       <c r="M109" s="11"/>
       <c r="N109" s="11"/>
-      <c r="O109" s="14"/>
-      <c r="P109" s="14"/>
-      <c r="Q109" s="14"/>
+      <c r="O109" s="12"/>
+      <c r="P109" s="12"/>
+      <c r="Q109" s="12"/>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
@@ -3470,9 +3478,9 @@
       <c r="L110" s="11"/>
       <c r="M110" s="11"/>
       <c r="N110" s="11"/>
-      <c r="O110" s="14"/>
-      <c r="P110" s="14"/>
-      <c r="Q110" s="14"/>
+      <c r="O110" s="12"/>
+      <c r="P110" s="12"/>
+      <c r="Q110" s="12"/>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
@@ -3509,9 +3517,9 @@
       <c r="L111" s="11"/>
       <c r="M111" s="11"/>
       <c r="N111" s="11"/>
-      <c r="O111" s="14"/>
-      <c r="P111" s="14"/>
-      <c r="Q111" s="14"/>
+      <c r="O111" s="12"/>
+      <c r="P111" s="12"/>
+      <c r="Q111" s="12"/>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
@@ -3539,9 +3547,9 @@
       <c r="L112" s="11"/>
       <c r="M112" s="11"/>
       <c r="N112" s="11"/>
-      <c r="O112" s="14"/>
-      <c r="P112" s="14"/>
-      <c r="Q112" s="14"/>
+      <c r="O112" s="12"/>
+      <c r="P112" s="12"/>
+      <c r="Q112" s="12"/>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
@@ -3578,9 +3586,9 @@
       <c r="L113" s="11"/>
       <c r="M113" s="11"/>
       <c r="N113" s="11"/>
-      <c r="O113" s="14"/>
-      <c r="P113" s="14"/>
-      <c r="Q113" s="14"/>
+      <c r="O113" s="12"/>
+      <c r="P113" s="12"/>
+      <c r="Q113" s="12"/>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
@@ -3617,9 +3625,9 @@
       <c r="L114" s="11"/>
       <c r="M114" s="11"/>
       <c r="N114" s="11"/>
-      <c r="O114" s="14"/>
-      <c r="P114" s="14"/>
-      <c r="Q114" s="14"/>
+      <c r="O114" s="12"/>
+      <c r="P114" s="12"/>
+      <c r="Q114" s="12"/>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
@@ -3647,9 +3655,9 @@
       <c r="L115" s="11"/>
       <c r="M115" s="11"/>
       <c r="N115" s="11"/>
-      <c r="O115" s="14"/>
-      <c r="P115" s="14"/>
-      <c r="Q115" s="14"/>
+      <c r="O115" s="12"/>
+      <c r="P115" s="12"/>
+      <c r="Q115" s="12"/>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
@@ -3669,6 +3677,15 @@
       </c>
       <c r="F116" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="G116" s="1">
+        <v>19.46</v>
+      </c>
+      <c r="H116" s="1">
+        <v>30.74</v>
+      </c>
+      <c r="I116" s="2">
+        <v>0.13239999999999999</v>
       </c>
       <c r="J116" s="11" t="s">
         <v>88</v>
@@ -3677,9 +3694,9 @@
       <c r="L116" s="11"/>
       <c r="M116" s="11"/>
       <c r="N116" s="11"/>
-      <c r="O116" s="14"/>
-      <c r="P116" s="14"/>
-      <c r="Q116" s="14"/>
+      <c r="O116" s="12"/>
+      <c r="P116" s="12"/>
+      <c r="Q116" s="12"/>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
@@ -3716,74 +3733,124 @@
       <c r="L117" s="11"/>
       <c r="M117" s="11"/>
       <c r="N117" s="11"/>
-      <c r="O117" s="14"/>
-      <c r="P117" s="14"/>
-      <c r="Q117" s="14"/>
+      <c r="O117" s="12"/>
+      <c r="P117" s="12"/>
+      <c r="Q117" s="12"/>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A118" s="1">
+      <c r="A118" s="8">
         <v>54</v>
       </c>
-      <c r="B118" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I118" s="2"/>
-      <c r="J118" s="11" t="s">
+      <c r="B118" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D118" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E118" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F118" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G118" s="9"/>
+      <c r="H118" s="9"/>
+      <c r="I118" s="10"/>
+      <c r="J118" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="K118" s="11"/>
-      <c r="L118" s="11"/>
-      <c r="M118" s="11"/>
-      <c r="N118" s="11"/>
+      <c r="K118" s="13"/>
+      <c r="L118" s="13"/>
+      <c r="M118" s="13"/>
+      <c r="N118" s="13"/>
       <c r="O118" s="14"/>
       <c r="P118" s="14"/>
       <c r="Q118" s="14"/>
     </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>55</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J119" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="K119" s="11"/>
+      <c r="L119" s="11"/>
+      <c r="M119" s="11"/>
+      <c r="N119" s="11"/>
+      <c r="O119" s="11"/>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>56</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J120" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="K120" s="11"/>
+      <c r="L120" s="11"/>
+      <c r="M120" s="11"/>
+      <c r="N120" s="11"/>
+      <c r="O120" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="68">
-    <mergeCell ref="J118:Q118"/>
-    <mergeCell ref="J117:Q117"/>
-    <mergeCell ref="J111:Q111"/>
-    <mergeCell ref="J108:Q108"/>
-    <mergeCell ref="J109:Q109"/>
-    <mergeCell ref="J110:Q110"/>
-    <mergeCell ref="J112:Q112"/>
-    <mergeCell ref="J113:Q113"/>
-    <mergeCell ref="J114:Q114"/>
-    <mergeCell ref="J115:Q115"/>
-    <mergeCell ref="J116:Q116"/>
-    <mergeCell ref="J107:Q107"/>
-    <mergeCell ref="J106:Q106"/>
-    <mergeCell ref="J105:Q105"/>
-    <mergeCell ref="J95:N95"/>
-    <mergeCell ref="J99:Q99"/>
-    <mergeCell ref="J98:Q98"/>
-    <mergeCell ref="J96:N96"/>
-    <mergeCell ref="J97:Q97"/>
-    <mergeCell ref="J100:R100"/>
-    <mergeCell ref="J101:Q101"/>
-    <mergeCell ref="J102:Q102"/>
-    <mergeCell ref="J103:Q103"/>
-    <mergeCell ref="J104:Q104"/>
-    <mergeCell ref="J84:N84"/>
-    <mergeCell ref="J83:N83"/>
-    <mergeCell ref="J82:N82"/>
-    <mergeCell ref="J92:N92"/>
-    <mergeCell ref="J85:N85"/>
-    <mergeCell ref="J87:N87"/>
-    <mergeCell ref="J88:N88"/>
+  <mergeCells count="70">
+    <mergeCell ref="J119:O119"/>
+    <mergeCell ref="J120:O120"/>
+    <mergeCell ref="J65:V65"/>
+    <mergeCell ref="J47:O47"/>
+    <mergeCell ref="J51:O51"/>
+    <mergeCell ref="J50:O50"/>
+    <mergeCell ref="J49:O49"/>
+    <mergeCell ref="J48:O48"/>
+    <mergeCell ref="O62:S62"/>
+    <mergeCell ref="J52:O52"/>
+    <mergeCell ref="J9:V9"/>
+    <mergeCell ref="J10:V10"/>
+    <mergeCell ref="J18:V18"/>
+    <mergeCell ref="J11:V11"/>
+    <mergeCell ref="J19:V19"/>
+    <mergeCell ref="J12:V12"/>
+    <mergeCell ref="J24:V24"/>
+    <mergeCell ref="J25:V25"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="J38:O38"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="J44:M44"/>
     <mergeCell ref="J66:V66"/>
     <mergeCell ref="J67:V67"/>
     <mergeCell ref="J71:V71"/>
@@ -3800,27 +3867,37 @@
     <mergeCell ref="J90:N90"/>
     <mergeCell ref="J91:N91"/>
     <mergeCell ref="J93:N93"/>
-    <mergeCell ref="J24:V24"/>
-    <mergeCell ref="J25:V25"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="J38:O38"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="J44:M44"/>
-    <mergeCell ref="J9:V9"/>
-    <mergeCell ref="J10:V10"/>
-    <mergeCell ref="J18:V18"/>
-    <mergeCell ref="J11:V11"/>
-    <mergeCell ref="J19:V19"/>
-    <mergeCell ref="J12:V12"/>
-    <mergeCell ref="J65:V65"/>
-    <mergeCell ref="J47:O47"/>
-    <mergeCell ref="J51:O51"/>
-    <mergeCell ref="J50:O50"/>
-    <mergeCell ref="J49:O49"/>
-    <mergeCell ref="J48:O48"/>
-    <mergeCell ref="O62:S62"/>
-    <mergeCell ref="J52:O52"/>
+    <mergeCell ref="J84:N84"/>
+    <mergeCell ref="J83:N83"/>
+    <mergeCell ref="J82:N82"/>
+    <mergeCell ref="J92:N92"/>
+    <mergeCell ref="J85:N85"/>
+    <mergeCell ref="J87:N87"/>
+    <mergeCell ref="J88:N88"/>
+    <mergeCell ref="J107:Q107"/>
+    <mergeCell ref="J106:Q106"/>
+    <mergeCell ref="J105:Q105"/>
+    <mergeCell ref="J95:N95"/>
+    <mergeCell ref="J99:Q99"/>
+    <mergeCell ref="J98:Q98"/>
+    <mergeCell ref="J96:N96"/>
+    <mergeCell ref="J97:Q97"/>
+    <mergeCell ref="J100:R100"/>
+    <mergeCell ref="J101:Q101"/>
+    <mergeCell ref="J102:Q102"/>
+    <mergeCell ref="J103:Q103"/>
+    <mergeCell ref="J104:Q104"/>
+    <mergeCell ref="J118:Q118"/>
+    <mergeCell ref="J117:Q117"/>
+    <mergeCell ref="J111:Q111"/>
+    <mergeCell ref="J108:Q108"/>
+    <mergeCell ref="J109:Q109"/>
+    <mergeCell ref="J110:Q110"/>
+    <mergeCell ref="J112:Q112"/>
+    <mergeCell ref="J113:Q113"/>
+    <mergeCell ref="J114:Q114"/>
+    <mergeCell ref="J115:Q115"/>
+    <mergeCell ref="J116:Q116"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B02785-98E6-45E9-82C1-66F4B0657C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A91FA10F-DA27-4ED2-978B-BA8720E581BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3360" yWindow="1275" windowWidth="22665" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="94">
   <si>
     <t>ST-SSL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -395,6 +395,10 @@
   </si>
   <si>
     <t>引入STAEFormer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引入STAEFormer，标准化的数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -510,6 +514,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -518,12 +528,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -805,10 +809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:V120"/>
+  <dimension ref="A3:V121"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="J115" sqref="J115:Q115"/>
+      <selection activeCell="J121" sqref="J121:O121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1433,8 +1437,8 @@
       <c r="K38" s="11"/>
       <c r="L38" s="11"/>
       <c r="M38" s="11"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
@@ -1522,12 +1526,12 @@
       <c r="I44" s="2">
         <v>0.1235</v>
       </c>
-      <c r="J44" s="15" t="s">
+      <c r="J44" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="K44" s="15"/>
-      <c r="L44" s="15"/>
-      <c r="M44" s="15"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
@@ -1592,12 +1596,12 @@
       <c r="I46" s="2">
         <v>0.1249</v>
       </c>
-      <c r="J46" s="15" t="s">
+      <c r="J46" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="K46" s="15"/>
-      <c r="L46" s="15"/>
-      <c r="M46" s="15"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="13"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
@@ -1933,13 +1937,13 @@
       <c r="L62" s="2">
         <v>0.14990000000000001</v>
       </c>
-      <c r="O62" s="16" t="s">
+      <c r="O62" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="P62" s="16"/>
-      <c r="Q62" s="16"/>
-      <c r="R62" s="16"/>
-      <c r="S62" s="16"/>
+      <c r="P62" s="12"/>
+      <c r="Q62" s="12"/>
+      <c r="R62" s="12"/>
+      <c r="S62" s="12"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
@@ -2181,12 +2185,12 @@
       <c r="I73" s="5">
         <v>0.13669999999999999</v>
       </c>
-      <c r="J73" s="15" t="s">
+      <c r="J73" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="K73" s="15"/>
-      <c r="L73" s="15"/>
-      <c r="M73" s="15"/>
+      <c r="K73" s="13"/>
+      <c r="L73" s="13"/>
+      <c r="M73" s="13"/>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
@@ -2207,12 +2211,12 @@
       <c r="F74" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J74" s="15" t="s">
+      <c r="J74" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="K74" s="15"/>
-      <c r="L74" s="15"/>
-      <c r="M74" s="15"/>
+      <c r="K74" s="13"/>
+      <c r="L74" s="13"/>
+      <c r="M74" s="13"/>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
@@ -2242,12 +2246,12 @@
       <c r="I75" s="2">
         <v>0.13780000000000001</v>
       </c>
-      <c r="J75" s="15" t="s">
+      <c r="J75" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="K75" s="15"/>
-      <c r="L75" s="15"/>
-      <c r="M75" s="15"/>
+      <c r="K75" s="13"/>
+      <c r="L75" s="13"/>
+      <c r="M75" s="13"/>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
@@ -2277,36 +2281,36 @@
       <c r="I76" s="5">
         <v>0.1348</v>
       </c>
-      <c r="J76" s="15" t="s">
+      <c r="J76" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="K76" s="15"/>
-      <c r="L76" s="15"/>
-      <c r="M76" s="15"/>
-      <c r="N76" s="15"/>
-      <c r="O76" s="15"/>
-      <c r="P76" s="15"/>
-      <c r="Q76" s="15"/>
+      <c r="K76" s="13"/>
+      <c r="L76" s="13"/>
+      <c r="M76" s="13"/>
+      <c r="N76" s="13"/>
+      <c r="O76" s="13"/>
+      <c r="P76" s="13"/>
+      <c r="Q76" s="13"/>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="J77" s="15"/>
-      <c r="K77" s="15"/>
-      <c r="L77" s="15"/>
-      <c r="M77" s="15"/>
-      <c r="N77" s="15"/>
-      <c r="O77" s="15"/>
-      <c r="P77" s="15"/>
-      <c r="Q77" s="15"/>
+      <c r="J77" s="13"/>
+      <c r="K77" s="13"/>
+      <c r="L77" s="13"/>
+      <c r="M77" s="13"/>
+      <c r="N77" s="13"/>
+      <c r="O77" s="13"/>
+      <c r="P77" s="13"/>
+      <c r="Q77" s="13"/>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="J78" s="15"/>
-      <c r="K78" s="15"/>
-      <c r="L78" s="15"/>
-      <c r="M78" s="15"/>
-      <c r="N78" s="15"/>
-      <c r="O78" s="15"/>
-      <c r="P78" s="15"/>
-      <c r="Q78" s="15"/>
+      <c r="J78" s="13"/>
+      <c r="K78" s="13"/>
+      <c r="L78" s="13"/>
+      <c r="M78" s="13"/>
+      <c r="N78" s="13"/>
+      <c r="O78" s="13"/>
+      <c r="P78" s="13"/>
+      <c r="Q78" s="13"/>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
@@ -2552,13 +2556,13 @@
       <c r="I85" s="2">
         <v>0.1361</v>
       </c>
-      <c r="J85" s="15" t="s">
+      <c r="J85" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="K85" s="15"/>
-      <c r="L85" s="15"/>
-      <c r="M85" s="15"/>
-      <c r="N85" s="15"/>
+      <c r="K85" s="13"/>
+      <c r="L85" s="13"/>
+      <c r="M85" s="13"/>
+      <c r="N85" s="13"/>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
@@ -2588,13 +2592,13 @@
       <c r="I86" s="5">
         <v>0.13070000000000001</v>
       </c>
-      <c r="J86" s="15" t="s">
+      <c r="J86" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="K86" s="15"/>
-      <c r="L86" s="15"/>
-      <c r="M86" s="15"/>
-      <c r="N86" s="15"/>
+      <c r="K86" s="13"/>
+      <c r="L86" s="13"/>
+      <c r="M86" s="13"/>
+      <c r="N86" s="13"/>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
@@ -2624,13 +2628,13 @@
       <c r="I87" s="2">
         <v>0.1361</v>
       </c>
-      <c r="J87" s="15" t="s">
+      <c r="J87" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="K87" s="15"/>
-      <c r="L87" s="15"/>
-      <c r="M87" s="15"/>
-      <c r="N87" s="15"/>
+      <c r="K87" s="13"/>
+      <c r="L87" s="13"/>
+      <c r="M87" s="13"/>
+      <c r="N87" s="13"/>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
@@ -2660,13 +2664,13 @@
       <c r="I88" s="2">
         <v>0.13589999999999999</v>
       </c>
-      <c r="J88" s="15" t="s">
+      <c r="J88" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="K88" s="15"/>
-      <c r="L88" s="15"/>
-      <c r="M88" s="15"/>
-      <c r="N88" s="15"/>
+      <c r="K88" s="13"/>
+      <c r="L88" s="13"/>
+      <c r="M88" s="13"/>
+      <c r="N88" s="13"/>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
@@ -2882,13 +2886,13 @@
       <c r="G94" s="9"/>
       <c r="H94" s="9"/>
       <c r="I94" s="10"/>
-      <c r="J94" s="13" t="s">
+      <c r="J94" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="K94" s="13"/>
-      <c r="L94" s="13"/>
-      <c r="M94" s="13"/>
-      <c r="N94" s="13"/>
+      <c r="K94" s="15"/>
+      <c r="L94" s="15"/>
+      <c r="M94" s="15"/>
+      <c r="N94" s="15"/>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
@@ -2997,9 +3001,9 @@
       <c r="L97" s="11"/>
       <c r="M97" s="11"/>
       <c r="N97" s="11"/>
-      <c r="O97" s="12"/>
-      <c r="P97" s="12"/>
-      <c r="Q97" s="12"/>
+      <c r="O97" s="14"/>
+      <c r="P97" s="14"/>
+      <c r="Q97" s="14"/>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
@@ -3036,9 +3040,9 @@
       <c r="L98" s="11"/>
       <c r="M98" s="11"/>
       <c r="N98" s="11"/>
-      <c r="O98" s="12"/>
-      <c r="P98" s="12"/>
-      <c r="Q98" s="12"/>
+      <c r="O98" s="14"/>
+      <c r="P98" s="14"/>
+      <c r="Q98" s="14"/>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
@@ -3075,9 +3079,9 @@
       <c r="L99" s="11"/>
       <c r="M99" s="11"/>
       <c r="N99" s="11"/>
-      <c r="O99" s="12"/>
-      <c r="P99" s="12"/>
-      <c r="Q99" s="12"/>
+      <c r="O99" s="14"/>
+      <c r="P99" s="14"/>
+      <c r="Q99" s="14"/>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
@@ -3114,10 +3118,10 @@
       <c r="L100" s="11"/>
       <c r="M100" s="11"/>
       <c r="N100" s="11"/>
-      <c r="O100" s="12"/>
-      <c r="P100" s="12"/>
-      <c r="Q100" s="12"/>
-      <c r="R100" s="12"/>
+      <c r="O100" s="14"/>
+      <c r="P100" s="14"/>
+      <c r="Q100" s="14"/>
+      <c r="R100" s="14"/>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101" s="8">
@@ -3141,16 +3145,16 @@
       <c r="G101" s="9"/>
       <c r="H101" s="9"/>
       <c r="I101" s="9"/>
-      <c r="J101" s="13" t="s">
+      <c r="J101" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="K101" s="13"/>
-      <c r="L101" s="13"/>
-      <c r="M101" s="13"/>
-      <c r="N101" s="13"/>
-      <c r="O101" s="14"/>
-      <c r="P101" s="14"/>
-      <c r="Q101" s="14"/>
+      <c r="K101" s="15"/>
+      <c r="L101" s="15"/>
+      <c r="M101" s="15"/>
+      <c r="N101" s="15"/>
+      <c r="O101" s="16"/>
+      <c r="P101" s="16"/>
+      <c r="Q101" s="16"/>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
@@ -3187,9 +3191,9 @@
       <c r="L102" s="11"/>
       <c r="M102" s="11"/>
       <c r="N102" s="11"/>
-      <c r="O102" s="12"/>
-      <c r="P102" s="12"/>
-      <c r="Q102" s="12"/>
+      <c r="O102" s="14"/>
+      <c r="P102" s="14"/>
+      <c r="Q102" s="14"/>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A103" s="8">
@@ -3213,16 +3217,16 @@
       <c r="G103" s="9"/>
       <c r="H103" s="9"/>
       <c r="I103" s="9"/>
-      <c r="J103" s="13" t="s">
+      <c r="J103" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="K103" s="13"/>
-      <c r="L103" s="13"/>
-      <c r="M103" s="13"/>
-      <c r="N103" s="13"/>
-      <c r="O103" s="14"/>
-      <c r="P103" s="14"/>
-      <c r="Q103" s="14"/>
+      <c r="K103" s="15"/>
+      <c r="L103" s="15"/>
+      <c r="M103" s="15"/>
+      <c r="N103" s="15"/>
+      <c r="O103" s="16"/>
+      <c r="P103" s="16"/>
+      <c r="Q103" s="16"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
@@ -3259,9 +3263,9 @@
       <c r="L104" s="11"/>
       <c r="M104" s="11"/>
       <c r="N104" s="11"/>
-      <c r="O104" s="12"/>
-      <c r="P104" s="12"/>
-      <c r="Q104" s="12"/>
+      <c r="O104" s="14"/>
+      <c r="P104" s="14"/>
+      <c r="Q104" s="14"/>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
@@ -3298,9 +3302,9 @@
       <c r="L105" s="11"/>
       <c r="M105" s="11"/>
       <c r="N105" s="11"/>
-      <c r="O105" s="12"/>
-      <c r="P105" s="12"/>
-      <c r="Q105" s="12"/>
+      <c r="O105" s="14"/>
+      <c r="P105" s="14"/>
+      <c r="Q105" s="14"/>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
@@ -3337,9 +3341,9 @@
       <c r="L106" s="11"/>
       <c r="M106" s="11"/>
       <c r="N106" s="11"/>
-      <c r="O106" s="12"/>
-      <c r="P106" s="12"/>
-      <c r="Q106" s="12"/>
+      <c r="O106" s="14"/>
+      <c r="P106" s="14"/>
+      <c r="Q106" s="14"/>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A107" s="8">
@@ -3363,16 +3367,16 @@
       <c r="G107" s="9"/>
       <c r="H107" s="9"/>
       <c r="I107" s="9"/>
-      <c r="J107" s="13" t="s">
+      <c r="J107" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="14"/>
-      <c r="P107" s="14"/>
-      <c r="Q107" s="14"/>
+      <c r="K107" s="15"/>
+      <c r="L107" s="15"/>
+      <c r="M107" s="15"/>
+      <c r="N107" s="15"/>
+      <c r="O107" s="16"/>
+      <c r="P107" s="16"/>
+      <c r="Q107" s="16"/>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
@@ -3400,9 +3404,9 @@
       <c r="L108" s="11"/>
       <c r="M108" s="11"/>
       <c r="N108" s="11"/>
-      <c r="O108" s="12"/>
-      <c r="P108" s="12"/>
-      <c r="Q108" s="12"/>
+      <c r="O108" s="14"/>
+      <c r="P108" s="14"/>
+      <c r="Q108" s="14"/>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
@@ -3439,9 +3443,9 @@
       <c r="L109" s="11"/>
       <c r="M109" s="11"/>
       <c r="N109" s="11"/>
-      <c r="O109" s="12"/>
-      <c r="P109" s="12"/>
-      <c r="Q109" s="12"/>
+      <c r="O109" s="14"/>
+      <c r="P109" s="14"/>
+      <c r="Q109" s="14"/>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
@@ -3478,9 +3482,9 @@
       <c r="L110" s="11"/>
       <c r="M110" s="11"/>
       <c r="N110" s="11"/>
-      <c r="O110" s="12"/>
-      <c r="P110" s="12"/>
-      <c r="Q110" s="12"/>
+      <c r="O110" s="14"/>
+      <c r="P110" s="14"/>
+      <c r="Q110" s="14"/>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
@@ -3517,9 +3521,9 @@
       <c r="L111" s="11"/>
       <c r="M111" s="11"/>
       <c r="N111" s="11"/>
-      <c r="O111" s="12"/>
-      <c r="P111" s="12"/>
-      <c r="Q111" s="12"/>
+      <c r="O111" s="14"/>
+      <c r="P111" s="14"/>
+      <c r="Q111" s="14"/>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
@@ -3547,9 +3551,9 @@
       <c r="L112" s="11"/>
       <c r="M112" s="11"/>
       <c r="N112" s="11"/>
-      <c r="O112" s="12"/>
-      <c r="P112" s="12"/>
-      <c r="Q112" s="12"/>
+      <c r="O112" s="14"/>
+      <c r="P112" s="14"/>
+      <c r="Q112" s="14"/>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
@@ -3586,9 +3590,9 @@
       <c r="L113" s="11"/>
       <c r="M113" s="11"/>
       <c r="N113" s="11"/>
-      <c r="O113" s="12"/>
-      <c r="P113" s="12"/>
-      <c r="Q113" s="12"/>
+      <c r="O113" s="14"/>
+      <c r="P113" s="14"/>
+      <c r="Q113" s="14"/>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
@@ -3625,9 +3629,9 @@
       <c r="L114" s="11"/>
       <c r="M114" s="11"/>
       <c r="N114" s="11"/>
-      <c r="O114" s="12"/>
-      <c r="P114" s="12"/>
-      <c r="Q114" s="12"/>
+      <c r="O114" s="14"/>
+      <c r="P114" s="14"/>
+      <c r="Q114" s="14"/>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
@@ -3655,9 +3659,9 @@
       <c r="L115" s="11"/>
       <c r="M115" s="11"/>
       <c r="N115" s="11"/>
-      <c r="O115" s="12"/>
-      <c r="P115" s="12"/>
-      <c r="Q115" s="12"/>
+      <c r="O115" s="14"/>
+      <c r="P115" s="14"/>
+      <c r="Q115" s="14"/>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
@@ -3694,9 +3698,9 @@
       <c r="L116" s="11"/>
       <c r="M116" s="11"/>
       <c r="N116" s="11"/>
-      <c r="O116" s="12"/>
-      <c r="P116" s="12"/>
-      <c r="Q116" s="12"/>
+      <c r="O116" s="14"/>
+      <c r="P116" s="14"/>
+      <c r="Q116" s="14"/>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
@@ -3733,9 +3737,9 @@
       <c r="L117" s="11"/>
       <c r="M117" s="11"/>
       <c r="N117" s="11"/>
-      <c r="O117" s="12"/>
-      <c r="P117" s="12"/>
-      <c r="Q117" s="12"/>
+      <c r="O117" s="14"/>
+      <c r="P117" s="14"/>
+      <c r="Q117" s="14"/>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A118" s="8">
@@ -3759,16 +3763,16 @@
       <c r="G118" s="9"/>
       <c r="H118" s="9"/>
       <c r="I118" s="10"/>
-      <c r="J118" s="13" t="s">
+      <c r="J118" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="K118" s="13"/>
-      <c r="L118" s="13"/>
-      <c r="M118" s="13"/>
-      <c r="N118" s="13"/>
-      <c r="O118" s="14"/>
-      <c r="P118" s="14"/>
-      <c r="Q118" s="14"/>
+      <c r="K118" s="15"/>
+      <c r="L118" s="15"/>
+      <c r="M118" s="15"/>
+      <c r="N118" s="15"/>
+      <c r="O118" s="16"/>
+      <c r="P118" s="16"/>
+      <c r="Q118" s="16"/>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
@@ -3788,6 +3792,15 @@
       </c>
       <c r="F119" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="G119" s="1">
+        <v>21.82</v>
+      </c>
+      <c r="H119" s="1">
+        <v>33.380000000000003</v>
+      </c>
+      <c r="I119" s="2">
+        <v>0.15260000000000001</v>
       </c>
       <c r="J119" s="11" t="s">
         <v>91</v>
@@ -3826,54 +3839,48 @@
       <c r="N120" s="11"/>
       <c r="O120" s="11"/>
     </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <v>57</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J121" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="K121" s="11"/>
+      <c r="L121" s="11"/>
+      <c r="M121" s="11"/>
+      <c r="N121" s="11"/>
+      <c r="O121" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="70">
-    <mergeCell ref="J119:O119"/>
-    <mergeCell ref="J120:O120"/>
-    <mergeCell ref="J65:V65"/>
-    <mergeCell ref="J47:O47"/>
-    <mergeCell ref="J51:O51"/>
-    <mergeCell ref="J50:O50"/>
-    <mergeCell ref="J49:O49"/>
-    <mergeCell ref="J48:O48"/>
-    <mergeCell ref="O62:S62"/>
-    <mergeCell ref="J52:O52"/>
-    <mergeCell ref="J9:V9"/>
-    <mergeCell ref="J10:V10"/>
-    <mergeCell ref="J18:V18"/>
-    <mergeCell ref="J11:V11"/>
-    <mergeCell ref="J19:V19"/>
-    <mergeCell ref="J12:V12"/>
-    <mergeCell ref="J24:V24"/>
-    <mergeCell ref="J25:V25"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="J38:O38"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="J44:M44"/>
-    <mergeCell ref="J66:V66"/>
-    <mergeCell ref="J67:V67"/>
-    <mergeCell ref="J71:V71"/>
-    <mergeCell ref="J76:Q78"/>
-    <mergeCell ref="J94:N94"/>
-    <mergeCell ref="J81:N81"/>
-    <mergeCell ref="J80:N80"/>
-    <mergeCell ref="J79:N79"/>
-    <mergeCell ref="J89:N89"/>
-    <mergeCell ref="J75:M75"/>
-    <mergeCell ref="J74:M74"/>
-    <mergeCell ref="J73:M73"/>
-    <mergeCell ref="J86:N86"/>
-    <mergeCell ref="J90:N90"/>
-    <mergeCell ref="J91:N91"/>
-    <mergeCell ref="J93:N93"/>
-    <mergeCell ref="J84:N84"/>
-    <mergeCell ref="J83:N83"/>
-    <mergeCell ref="J82:N82"/>
-    <mergeCell ref="J92:N92"/>
-    <mergeCell ref="J85:N85"/>
-    <mergeCell ref="J87:N87"/>
-    <mergeCell ref="J88:N88"/>
+  <mergeCells count="71">
+    <mergeCell ref="J121:O121"/>
+    <mergeCell ref="J118:Q118"/>
+    <mergeCell ref="J117:Q117"/>
+    <mergeCell ref="J111:Q111"/>
+    <mergeCell ref="J108:Q108"/>
+    <mergeCell ref="J109:Q109"/>
+    <mergeCell ref="J110:Q110"/>
+    <mergeCell ref="J112:Q112"/>
+    <mergeCell ref="J113:Q113"/>
+    <mergeCell ref="J114:Q114"/>
+    <mergeCell ref="J115:Q115"/>
+    <mergeCell ref="J116:Q116"/>
     <mergeCell ref="J107:Q107"/>
     <mergeCell ref="J106:Q106"/>
     <mergeCell ref="J105:Q105"/>
@@ -3887,17 +3894,52 @@
     <mergeCell ref="J102:Q102"/>
     <mergeCell ref="J103:Q103"/>
     <mergeCell ref="J104:Q104"/>
-    <mergeCell ref="J118:Q118"/>
-    <mergeCell ref="J117:Q117"/>
-    <mergeCell ref="J111:Q111"/>
-    <mergeCell ref="J108:Q108"/>
-    <mergeCell ref="J109:Q109"/>
-    <mergeCell ref="J110:Q110"/>
-    <mergeCell ref="J112:Q112"/>
-    <mergeCell ref="J113:Q113"/>
-    <mergeCell ref="J114:Q114"/>
-    <mergeCell ref="J115:Q115"/>
-    <mergeCell ref="J116:Q116"/>
+    <mergeCell ref="J73:M73"/>
+    <mergeCell ref="J86:N86"/>
+    <mergeCell ref="J90:N90"/>
+    <mergeCell ref="J91:N91"/>
+    <mergeCell ref="J93:N93"/>
+    <mergeCell ref="J84:N84"/>
+    <mergeCell ref="J83:N83"/>
+    <mergeCell ref="J82:N82"/>
+    <mergeCell ref="J92:N92"/>
+    <mergeCell ref="J85:N85"/>
+    <mergeCell ref="J87:N87"/>
+    <mergeCell ref="J88:N88"/>
+    <mergeCell ref="J80:N80"/>
+    <mergeCell ref="J79:N79"/>
+    <mergeCell ref="J89:N89"/>
+    <mergeCell ref="J75:M75"/>
+    <mergeCell ref="J74:M74"/>
+    <mergeCell ref="J24:V24"/>
+    <mergeCell ref="J25:V25"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="J38:O38"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="J9:V9"/>
+    <mergeCell ref="J10:V10"/>
+    <mergeCell ref="J18:V18"/>
+    <mergeCell ref="J11:V11"/>
+    <mergeCell ref="J19:V19"/>
+    <mergeCell ref="J12:V12"/>
+    <mergeCell ref="J119:O119"/>
+    <mergeCell ref="J120:O120"/>
+    <mergeCell ref="J65:V65"/>
+    <mergeCell ref="J47:O47"/>
+    <mergeCell ref="J51:O51"/>
+    <mergeCell ref="J50:O50"/>
+    <mergeCell ref="J49:O49"/>
+    <mergeCell ref="J48:O48"/>
+    <mergeCell ref="O62:S62"/>
+    <mergeCell ref="J52:O52"/>
+    <mergeCell ref="J66:V66"/>
+    <mergeCell ref="J67:V67"/>
+    <mergeCell ref="J71:V71"/>
+    <mergeCell ref="J76:Q78"/>
+    <mergeCell ref="J94:N94"/>
+    <mergeCell ref="J81:N81"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A91FA10F-DA27-4ED2-978B-BA8720E581BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3132277-AA9C-45CE-9B88-77278106C438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3360" yWindow="1275" windowWidth="22665" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="96">
   <si>
     <t>ST-SSL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -399,6 +399,14 @@
   </si>
   <si>
     <t>引入STAEFormer，标准化的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56-&gt;58引入STAEFormer，引入STODE和时间卷积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56-&gt;59引入outs.max</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -514,20 +522,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -809,10 +817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:V121"/>
+  <dimension ref="A3:V123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="J121" sqref="J121:O121"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="I130" sqref="I130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1526,12 +1534,12 @@
       <c r="I44" s="2">
         <v>0.1235</v>
       </c>
-      <c r="J44" s="13" t="s">
+      <c r="J44" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
@@ -1596,12 +1604,12 @@
       <c r="I46" s="2">
         <v>0.1249</v>
       </c>
-      <c r="J46" s="13" t="s">
+      <c r="J46" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="K46" s="13"/>
-      <c r="L46" s="13"/>
-      <c r="M46" s="13"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="15"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
@@ -1937,13 +1945,13 @@
       <c r="L62" s="2">
         <v>0.14990000000000001</v>
       </c>
-      <c r="O62" s="12" t="s">
+      <c r="O62" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="P62" s="12"/>
-      <c r="Q62" s="12"/>
-      <c r="R62" s="12"/>
-      <c r="S62" s="12"/>
+      <c r="P62" s="16"/>
+      <c r="Q62" s="16"/>
+      <c r="R62" s="16"/>
+      <c r="S62" s="16"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
@@ -2185,12 +2193,12 @@
       <c r="I73" s="5">
         <v>0.13669999999999999</v>
       </c>
-      <c r="J73" s="13" t="s">
+      <c r="J73" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K73" s="13"/>
-      <c r="L73" s="13"/>
-      <c r="M73" s="13"/>
+      <c r="K73" s="15"/>
+      <c r="L73" s="15"/>
+      <c r="M73" s="15"/>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
@@ -2211,12 +2219,12 @@
       <c r="F74" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J74" s="13" t="s">
+      <c r="J74" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="K74" s="13"/>
-      <c r="L74" s="13"/>
-      <c r="M74" s="13"/>
+      <c r="K74" s="15"/>
+      <c r="L74" s="15"/>
+      <c r="M74" s="15"/>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
@@ -2246,12 +2254,12 @@
       <c r="I75" s="2">
         <v>0.13780000000000001</v>
       </c>
-      <c r="J75" s="13" t="s">
+      <c r="J75" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="K75" s="13"/>
-      <c r="L75" s="13"/>
-      <c r="M75" s="13"/>
+      <c r="K75" s="15"/>
+      <c r="L75" s="15"/>
+      <c r="M75" s="15"/>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
@@ -2281,36 +2289,36 @@
       <c r="I76" s="5">
         <v>0.1348</v>
       </c>
-      <c r="J76" s="13" t="s">
+      <c r="J76" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="K76" s="13"/>
-      <c r="L76" s="13"/>
-      <c r="M76" s="13"/>
-      <c r="N76" s="13"/>
-      <c r="O76" s="13"/>
-      <c r="P76" s="13"/>
-      <c r="Q76" s="13"/>
+      <c r="K76" s="15"/>
+      <c r="L76" s="15"/>
+      <c r="M76" s="15"/>
+      <c r="N76" s="15"/>
+      <c r="O76" s="15"/>
+      <c r="P76" s="15"/>
+      <c r="Q76" s="15"/>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="J77" s="13"/>
-      <c r="K77" s="13"/>
-      <c r="L77" s="13"/>
-      <c r="M77" s="13"/>
-      <c r="N77" s="13"/>
-      <c r="O77" s="13"/>
-      <c r="P77" s="13"/>
-      <c r="Q77" s="13"/>
+      <c r="J77" s="15"/>
+      <c r="K77" s="15"/>
+      <c r="L77" s="15"/>
+      <c r="M77" s="15"/>
+      <c r="N77" s="15"/>
+      <c r="O77" s="15"/>
+      <c r="P77" s="15"/>
+      <c r="Q77" s="15"/>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="J78" s="13"/>
-      <c r="K78" s="13"/>
-      <c r="L78" s="13"/>
-      <c r="M78" s="13"/>
-      <c r="N78" s="13"/>
-      <c r="O78" s="13"/>
-      <c r="P78" s="13"/>
-      <c r="Q78" s="13"/>
+      <c r="J78" s="15"/>
+      <c r="K78" s="15"/>
+      <c r="L78" s="15"/>
+      <c r="M78" s="15"/>
+      <c r="N78" s="15"/>
+      <c r="O78" s="15"/>
+      <c r="P78" s="15"/>
+      <c r="Q78" s="15"/>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
@@ -2556,13 +2564,13 @@
       <c r="I85" s="2">
         <v>0.1361</v>
       </c>
-      <c r="J85" s="13" t="s">
+      <c r="J85" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="K85" s="13"/>
-      <c r="L85" s="13"/>
-      <c r="M85" s="13"/>
-      <c r="N85" s="13"/>
+      <c r="K85" s="15"/>
+      <c r="L85" s="15"/>
+      <c r="M85" s="15"/>
+      <c r="N85" s="15"/>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
@@ -2592,13 +2600,13 @@
       <c r="I86" s="5">
         <v>0.13070000000000001</v>
       </c>
-      <c r="J86" s="13" t="s">
+      <c r="J86" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="K86" s="13"/>
-      <c r="L86" s="13"/>
-      <c r="M86" s="13"/>
-      <c r="N86" s="13"/>
+      <c r="K86" s="15"/>
+      <c r="L86" s="15"/>
+      <c r="M86" s="15"/>
+      <c r="N86" s="15"/>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
@@ -2628,13 +2636,13 @@
       <c r="I87" s="2">
         <v>0.1361</v>
       </c>
-      <c r="J87" s="13" t="s">
+      <c r="J87" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="K87" s="13"/>
-      <c r="L87" s="13"/>
-      <c r="M87" s="13"/>
-      <c r="N87" s="13"/>
+      <c r="K87" s="15"/>
+      <c r="L87" s="15"/>
+      <c r="M87" s="15"/>
+      <c r="N87" s="15"/>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
@@ -2664,13 +2672,13 @@
       <c r="I88" s="2">
         <v>0.13589999999999999</v>
       </c>
-      <c r="J88" s="13" t="s">
+      <c r="J88" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="K88" s="13"/>
-      <c r="L88" s="13"/>
-      <c r="M88" s="13"/>
-      <c r="N88" s="13"/>
+      <c r="K88" s="15"/>
+      <c r="L88" s="15"/>
+      <c r="M88" s="15"/>
+      <c r="N88" s="15"/>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
@@ -2886,13 +2894,13 @@
       <c r="G94" s="9"/>
       <c r="H94" s="9"/>
       <c r="I94" s="10"/>
-      <c r="J94" s="15" t="s">
+      <c r="J94" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="K94" s="15"/>
-      <c r="L94" s="15"/>
-      <c r="M94" s="15"/>
-      <c r="N94" s="15"/>
+      <c r="K94" s="12"/>
+      <c r="L94" s="12"/>
+      <c r="M94" s="12"/>
+      <c r="N94" s="12"/>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
@@ -3145,16 +3153,16 @@
       <c r="G101" s="9"/>
       <c r="H101" s="9"/>
       <c r="I101" s="9"/>
-      <c r="J101" s="15" t="s">
+      <c r="J101" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="K101" s="15"/>
-      <c r="L101" s="15"/>
-      <c r="M101" s="15"/>
-      <c r="N101" s="15"/>
-      <c r="O101" s="16"/>
-      <c r="P101" s="16"/>
-      <c r="Q101" s="16"/>
+      <c r="K101" s="12"/>
+      <c r="L101" s="12"/>
+      <c r="M101" s="12"/>
+      <c r="N101" s="12"/>
+      <c r="O101" s="13"/>
+      <c r="P101" s="13"/>
+      <c r="Q101" s="13"/>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
@@ -3217,16 +3225,16 @@
       <c r="G103" s="9"/>
       <c r="H103" s="9"/>
       <c r="I103" s="9"/>
-      <c r="J103" s="15" t="s">
+      <c r="J103" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="K103" s="15"/>
-      <c r="L103" s="15"/>
-      <c r="M103" s="15"/>
-      <c r="N103" s="15"/>
-      <c r="O103" s="16"/>
-      <c r="P103" s="16"/>
-      <c r="Q103" s="16"/>
+      <c r="K103" s="12"/>
+      <c r="L103" s="12"/>
+      <c r="M103" s="12"/>
+      <c r="N103" s="12"/>
+      <c r="O103" s="13"/>
+      <c r="P103" s="13"/>
+      <c r="Q103" s="13"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
@@ -3367,16 +3375,16 @@
       <c r="G107" s="9"/>
       <c r="H107" s="9"/>
       <c r="I107" s="9"/>
-      <c r="J107" s="15" t="s">
+      <c r="J107" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="K107" s="15"/>
-      <c r="L107" s="15"/>
-      <c r="M107" s="15"/>
-      <c r="N107" s="15"/>
-      <c r="O107" s="16"/>
-      <c r="P107" s="16"/>
-      <c r="Q107" s="16"/>
+      <c r="K107" s="12"/>
+      <c r="L107" s="12"/>
+      <c r="M107" s="12"/>
+      <c r="N107" s="12"/>
+      <c r="O107" s="13"/>
+      <c r="P107" s="13"/>
+      <c r="Q107" s="13"/>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
@@ -3763,16 +3771,16 @@
       <c r="G118" s="9"/>
       <c r="H118" s="9"/>
       <c r="I118" s="10"/>
-      <c r="J118" s="15" t="s">
+      <c r="J118" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="K118" s="15"/>
-      <c r="L118" s="15"/>
-      <c r="M118" s="15"/>
-      <c r="N118" s="15"/>
-      <c r="O118" s="16"/>
-      <c r="P118" s="16"/>
-      <c r="Q118" s="16"/>
+      <c r="K118" s="12"/>
+      <c r="L118" s="12"/>
+      <c r="M118" s="12"/>
+      <c r="N118" s="12"/>
+      <c r="O118" s="13"/>
+      <c r="P118" s="13"/>
+      <c r="Q118" s="13"/>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
@@ -3812,7 +3820,7 @@
       <c r="O119" s="11"/>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A120" s="1">
+      <c r="A120" s="4">
         <v>56</v>
       </c>
       <c r="B120" s="1" t="s">
@@ -3829,6 +3837,15 @@
       </c>
       <c r="F120" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="G120" s="4">
+        <v>19.27</v>
+      </c>
+      <c r="H120" s="4">
+        <v>30.37</v>
+      </c>
+      <c r="I120" s="5">
+        <v>0.1366</v>
       </c>
       <c r="J120" s="11" t="s">
         <v>92</v>
@@ -3867,33 +3884,94 @@
       <c r="N121" s="11"/>
       <c r="O121" s="11"/>
     </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <v>58</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J122" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="K122" s="11"/>
+      <c r="L122" s="11"/>
+      <c r="M122" s="11"/>
+      <c r="N122" s="11"/>
+      <c r="O122" s="11"/>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>59</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J123" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K123" s="11"/>
+      <c r="L123" s="11"/>
+      <c r="M123" s="11"/>
+      <c r="N123" s="11"/>
+      <c r="O123" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="71">
-    <mergeCell ref="J121:O121"/>
-    <mergeCell ref="J118:Q118"/>
-    <mergeCell ref="J117:Q117"/>
-    <mergeCell ref="J111:Q111"/>
-    <mergeCell ref="J108:Q108"/>
-    <mergeCell ref="J109:Q109"/>
-    <mergeCell ref="J110:Q110"/>
-    <mergeCell ref="J112:Q112"/>
-    <mergeCell ref="J113:Q113"/>
-    <mergeCell ref="J114:Q114"/>
-    <mergeCell ref="J115:Q115"/>
-    <mergeCell ref="J116:Q116"/>
-    <mergeCell ref="J107:Q107"/>
-    <mergeCell ref="J106:Q106"/>
-    <mergeCell ref="J105:Q105"/>
-    <mergeCell ref="J95:N95"/>
-    <mergeCell ref="J99:Q99"/>
-    <mergeCell ref="J98:Q98"/>
-    <mergeCell ref="J96:N96"/>
-    <mergeCell ref="J97:Q97"/>
-    <mergeCell ref="J100:R100"/>
-    <mergeCell ref="J101:Q101"/>
-    <mergeCell ref="J102:Q102"/>
-    <mergeCell ref="J103:Q103"/>
-    <mergeCell ref="J104:Q104"/>
+  <mergeCells count="73">
+    <mergeCell ref="J122:O122"/>
+    <mergeCell ref="J123:O123"/>
+    <mergeCell ref="J66:V66"/>
+    <mergeCell ref="J67:V67"/>
+    <mergeCell ref="J71:V71"/>
+    <mergeCell ref="J76:Q78"/>
+    <mergeCell ref="J94:N94"/>
+    <mergeCell ref="J81:N81"/>
+    <mergeCell ref="J9:V9"/>
+    <mergeCell ref="J10:V10"/>
+    <mergeCell ref="J18:V18"/>
+    <mergeCell ref="J11:V11"/>
+    <mergeCell ref="J19:V19"/>
+    <mergeCell ref="J12:V12"/>
+    <mergeCell ref="J74:M74"/>
+    <mergeCell ref="J24:V24"/>
+    <mergeCell ref="J25:V25"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="J38:O38"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="J65:V65"/>
+    <mergeCell ref="J47:O47"/>
+    <mergeCell ref="J51:O51"/>
+    <mergeCell ref="J50:O50"/>
+    <mergeCell ref="J49:O49"/>
+    <mergeCell ref="J48:O48"/>
+    <mergeCell ref="O62:S62"/>
+    <mergeCell ref="J52:O52"/>
     <mergeCell ref="J73:M73"/>
     <mergeCell ref="J86:N86"/>
     <mergeCell ref="J90:N90"/>
@@ -3910,36 +3988,33 @@
     <mergeCell ref="J79:N79"/>
     <mergeCell ref="J89:N89"/>
     <mergeCell ref="J75:M75"/>
-    <mergeCell ref="J74:M74"/>
-    <mergeCell ref="J24:V24"/>
-    <mergeCell ref="J25:V25"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="J38:O38"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="J44:M44"/>
-    <mergeCell ref="J9:V9"/>
-    <mergeCell ref="J10:V10"/>
-    <mergeCell ref="J18:V18"/>
-    <mergeCell ref="J11:V11"/>
-    <mergeCell ref="J19:V19"/>
-    <mergeCell ref="J12:V12"/>
+    <mergeCell ref="J107:Q107"/>
+    <mergeCell ref="J106:Q106"/>
+    <mergeCell ref="J105:Q105"/>
+    <mergeCell ref="J95:N95"/>
+    <mergeCell ref="J99:Q99"/>
+    <mergeCell ref="J98:Q98"/>
+    <mergeCell ref="J96:N96"/>
+    <mergeCell ref="J97:Q97"/>
+    <mergeCell ref="J100:R100"/>
+    <mergeCell ref="J101:Q101"/>
+    <mergeCell ref="J102:Q102"/>
+    <mergeCell ref="J103:Q103"/>
+    <mergeCell ref="J104:Q104"/>
+    <mergeCell ref="J121:O121"/>
+    <mergeCell ref="J118:Q118"/>
+    <mergeCell ref="J117:Q117"/>
+    <mergeCell ref="J111:Q111"/>
+    <mergeCell ref="J108:Q108"/>
+    <mergeCell ref="J109:Q109"/>
+    <mergeCell ref="J110:Q110"/>
+    <mergeCell ref="J112:Q112"/>
+    <mergeCell ref="J113:Q113"/>
+    <mergeCell ref="J114:Q114"/>
+    <mergeCell ref="J115:Q115"/>
+    <mergeCell ref="J116:Q116"/>
     <mergeCell ref="J119:O119"/>
     <mergeCell ref="J120:O120"/>
-    <mergeCell ref="J65:V65"/>
-    <mergeCell ref="J47:O47"/>
-    <mergeCell ref="J51:O51"/>
-    <mergeCell ref="J50:O50"/>
-    <mergeCell ref="J49:O49"/>
-    <mergeCell ref="J48:O48"/>
-    <mergeCell ref="O62:S62"/>
-    <mergeCell ref="J52:O52"/>
-    <mergeCell ref="J66:V66"/>
-    <mergeCell ref="J67:V67"/>
-    <mergeCell ref="J71:V71"/>
-    <mergeCell ref="J76:Q78"/>
-    <mergeCell ref="J94:N94"/>
-    <mergeCell ref="J81:N81"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3132277-AA9C-45CE-9B88-77278106C438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71EB746F-FED3-4073-BFB3-40AD6142F382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3360" yWindow="1275" windowWidth="22665" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -522,20 +522,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -820,7 +820,7 @@
   <dimension ref="A3:V123"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="I130" sqref="I130"/>
+      <selection activeCell="I122" sqref="I122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1534,12 +1534,12 @@
       <c r="I44" s="2">
         <v>0.1235</v>
       </c>
-      <c r="J44" s="15" t="s">
+      <c r="J44" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="K44" s="15"/>
-      <c r="L44" s="15"/>
-      <c r="M44" s="15"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
@@ -1604,12 +1604,12 @@
       <c r="I46" s="2">
         <v>0.1249</v>
       </c>
-      <c r="J46" s="15" t="s">
+      <c r="J46" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="K46" s="15"/>
-      <c r="L46" s="15"/>
-      <c r="M46" s="15"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
@@ -1945,13 +1945,13 @@
       <c r="L62" s="2">
         <v>0.14990000000000001</v>
       </c>
-      <c r="O62" s="16" t="s">
+      <c r="O62" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="P62" s="16"/>
-      <c r="Q62" s="16"/>
-      <c r="R62" s="16"/>
-      <c r="S62" s="16"/>
+      <c r="P62" s="15"/>
+      <c r="Q62" s="15"/>
+      <c r="R62" s="15"/>
+      <c r="S62" s="15"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
@@ -2193,12 +2193,12 @@
       <c r="I73" s="5">
         <v>0.13669999999999999</v>
       </c>
-      <c r="J73" s="15" t="s">
+      <c r="J73" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="K73" s="15"/>
-      <c r="L73" s="15"/>
-      <c r="M73" s="15"/>
+      <c r="K73" s="12"/>
+      <c r="L73" s="12"/>
+      <c r="M73" s="12"/>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
@@ -2219,12 +2219,12 @@
       <c r="F74" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J74" s="15" t="s">
+      <c r="J74" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="K74" s="15"/>
-      <c r="L74" s="15"/>
-      <c r="M74" s="15"/>
+      <c r="K74" s="12"/>
+      <c r="L74" s="12"/>
+      <c r="M74" s="12"/>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
@@ -2254,12 +2254,12 @@
       <c r="I75" s="2">
         <v>0.13780000000000001</v>
       </c>
-      <c r="J75" s="15" t="s">
+      <c r="J75" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="K75" s="15"/>
-      <c r="L75" s="15"/>
-      <c r="M75" s="15"/>
+      <c r="K75" s="12"/>
+      <c r="L75" s="12"/>
+      <c r="M75" s="12"/>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
@@ -2289,36 +2289,36 @@
       <c r="I76" s="5">
         <v>0.1348</v>
       </c>
-      <c r="J76" s="15" t="s">
+      <c r="J76" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="K76" s="15"/>
-      <c r="L76" s="15"/>
-      <c r="M76" s="15"/>
-      <c r="N76" s="15"/>
-      <c r="O76" s="15"/>
-      <c r="P76" s="15"/>
-      <c r="Q76" s="15"/>
+      <c r="K76" s="12"/>
+      <c r="L76" s="12"/>
+      <c r="M76" s="12"/>
+      <c r="N76" s="12"/>
+      <c r="O76" s="12"/>
+      <c r="P76" s="12"/>
+      <c r="Q76" s="12"/>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="J77" s="15"/>
-      <c r="K77" s="15"/>
-      <c r="L77" s="15"/>
-      <c r="M77" s="15"/>
-      <c r="N77" s="15"/>
-      <c r="O77" s="15"/>
-      <c r="P77" s="15"/>
-      <c r="Q77" s="15"/>
+      <c r="J77" s="12"/>
+      <c r="K77" s="12"/>
+      <c r="L77" s="12"/>
+      <c r="M77" s="12"/>
+      <c r="N77" s="12"/>
+      <c r="O77" s="12"/>
+      <c r="P77" s="12"/>
+      <c r="Q77" s="12"/>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="J78" s="15"/>
-      <c r="K78" s="15"/>
-      <c r="L78" s="15"/>
-      <c r="M78" s="15"/>
-      <c r="N78" s="15"/>
-      <c r="O78" s="15"/>
-      <c r="P78" s="15"/>
-      <c r="Q78" s="15"/>
+      <c r="J78" s="12"/>
+      <c r="K78" s="12"/>
+      <c r="L78" s="12"/>
+      <c r="M78" s="12"/>
+      <c r="N78" s="12"/>
+      <c r="O78" s="12"/>
+      <c r="P78" s="12"/>
+      <c r="Q78" s="12"/>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
@@ -2564,13 +2564,13 @@
       <c r="I85" s="2">
         <v>0.1361</v>
       </c>
-      <c r="J85" s="15" t="s">
+      <c r="J85" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="K85" s="15"/>
-      <c r="L85" s="15"/>
-      <c r="M85" s="15"/>
-      <c r="N85" s="15"/>
+      <c r="K85" s="12"/>
+      <c r="L85" s="12"/>
+      <c r="M85" s="12"/>
+      <c r="N85" s="12"/>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
@@ -2600,13 +2600,13 @@
       <c r="I86" s="5">
         <v>0.13070000000000001</v>
       </c>
-      <c r="J86" s="15" t="s">
+      <c r="J86" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="K86" s="15"/>
-      <c r="L86" s="15"/>
-      <c r="M86" s="15"/>
-      <c r="N86" s="15"/>
+      <c r="K86" s="12"/>
+      <c r="L86" s="12"/>
+      <c r="M86" s="12"/>
+      <c r="N86" s="12"/>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
@@ -2636,13 +2636,13 @@
       <c r="I87" s="2">
         <v>0.1361</v>
       </c>
-      <c r="J87" s="15" t="s">
+      <c r="J87" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="K87" s="15"/>
-      <c r="L87" s="15"/>
-      <c r="M87" s="15"/>
-      <c r="N87" s="15"/>
+      <c r="K87" s="12"/>
+      <c r="L87" s="12"/>
+      <c r="M87" s="12"/>
+      <c r="N87" s="12"/>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
@@ -2672,13 +2672,13 @@
       <c r="I88" s="2">
         <v>0.13589999999999999</v>
       </c>
-      <c r="J88" s="15" t="s">
+      <c r="J88" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="K88" s="15"/>
-      <c r="L88" s="15"/>
-      <c r="M88" s="15"/>
-      <c r="N88" s="15"/>
+      <c r="K88" s="12"/>
+      <c r="L88" s="12"/>
+      <c r="M88" s="12"/>
+      <c r="N88" s="12"/>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
@@ -2894,13 +2894,13 @@
       <c r="G94" s="9"/>
       <c r="H94" s="9"/>
       <c r="I94" s="10"/>
-      <c r="J94" s="12" t="s">
+      <c r="J94" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="K94" s="12"/>
-      <c r="L94" s="12"/>
-      <c r="M94" s="12"/>
-      <c r="N94" s="12"/>
+      <c r="K94" s="13"/>
+      <c r="L94" s="13"/>
+      <c r="M94" s="13"/>
+      <c r="N94" s="13"/>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
@@ -3153,16 +3153,16 @@
       <c r="G101" s="9"/>
       <c r="H101" s="9"/>
       <c r="I101" s="9"/>
-      <c r="J101" s="12" t="s">
+      <c r="J101" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="K101" s="12"/>
-      <c r="L101" s="12"/>
-      <c r="M101" s="12"/>
-      <c r="N101" s="12"/>
-      <c r="O101" s="13"/>
-      <c r="P101" s="13"/>
-      <c r="Q101" s="13"/>
+      <c r="K101" s="13"/>
+      <c r="L101" s="13"/>
+      <c r="M101" s="13"/>
+      <c r="N101" s="13"/>
+      <c r="O101" s="16"/>
+      <c r="P101" s="16"/>
+      <c r="Q101" s="16"/>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
@@ -3225,16 +3225,16 @@
       <c r="G103" s="9"/>
       <c r="H103" s="9"/>
       <c r="I103" s="9"/>
-      <c r="J103" s="12" t="s">
+      <c r="J103" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="K103" s="12"/>
-      <c r="L103" s="12"/>
-      <c r="M103" s="12"/>
-      <c r="N103" s="12"/>
-      <c r="O103" s="13"/>
-      <c r="P103" s="13"/>
-      <c r="Q103" s="13"/>
+      <c r="K103" s="13"/>
+      <c r="L103" s="13"/>
+      <c r="M103" s="13"/>
+      <c r="N103" s="13"/>
+      <c r="O103" s="16"/>
+      <c r="P103" s="16"/>
+      <c r="Q103" s="16"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
@@ -3375,16 +3375,16 @@
       <c r="G107" s="9"/>
       <c r="H107" s="9"/>
       <c r="I107" s="9"/>
-      <c r="J107" s="12" t="s">
+      <c r="J107" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="K107" s="12"/>
-      <c r="L107" s="12"/>
-      <c r="M107" s="12"/>
-      <c r="N107" s="12"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13"/>
-      <c r="Q107" s="13"/>
+      <c r="K107" s="13"/>
+      <c r="L107" s="13"/>
+      <c r="M107" s="13"/>
+      <c r="N107" s="13"/>
+      <c r="O107" s="16"/>
+      <c r="P107" s="16"/>
+      <c r="Q107" s="16"/>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
@@ -3771,16 +3771,16 @@
       <c r="G118" s="9"/>
       <c r="H118" s="9"/>
       <c r="I118" s="10"/>
-      <c r="J118" s="12" t="s">
+      <c r="J118" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="K118" s="12"/>
-      <c r="L118" s="12"/>
-      <c r="M118" s="12"/>
-      <c r="N118" s="12"/>
-      <c r="O118" s="13"/>
-      <c r="P118" s="13"/>
-      <c r="Q118" s="13"/>
+      <c r="K118" s="13"/>
+      <c r="L118" s="13"/>
+      <c r="M118" s="13"/>
+      <c r="N118" s="13"/>
+      <c r="O118" s="16"/>
+      <c r="P118" s="16"/>
+      <c r="Q118" s="16"/>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
@@ -3903,6 +3903,15 @@
       <c r="F122" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="G122" s="1">
+        <v>26.25</v>
+      </c>
+      <c r="H122" s="1">
+        <v>39.39</v>
+      </c>
+      <c r="I122" s="2">
+        <v>0.2041</v>
+      </c>
       <c r="J122" s="11" t="s">
         <v>94</v>
       </c>
@@ -3942,48 +3951,21 @@
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="J122:O122"/>
-    <mergeCell ref="J123:O123"/>
-    <mergeCell ref="J66:V66"/>
-    <mergeCell ref="J67:V67"/>
-    <mergeCell ref="J71:V71"/>
-    <mergeCell ref="J76:Q78"/>
-    <mergeCell ref="J94:N94"/>
-    <mergeCell ref="J81:N81"/>
-    <mergeCell ref="J9:V9"/>
-    <mergeCell ref="J10:V10"/>
-    <mergeCell ref="J18:V18"/>
-    <mergeCell ref="J11:V11"/>
-    <mergeCell ref="J19:V19"/>
-    <mergeCell ref="J12:V12"/>
-    <mergeCell ref="J74:M74"/>
-    <mergeCell ref="J24:V24"/>
-    <mergeCell ref="J25:V25"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="J38:O38"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="J44:M44"/>
-    <mergeCell ref="J65:V65"/>
-    <mergeCell ref="J47:O47"/>
-    <mergeCell ref="J51:O51"/>
-    <mergeCell ref="J50:O50"/>
-    <mergeCell ref="J49:O49"/>
-    <mergeCell ref="J48:O48"/>
-    <mergeCell ref="O62:S62"/>
-    <mergeCell ref="J52:O52"/>
-    <mergeCell ref="J73:M73"/>
-    <mergeCell ref="J86:N86"/>
-    <mergeCell ref="J90:N90"/>
-    <mergeCell ref="J91:N91"/>
-    <mergeCell ref="J93:N93"/>
-    <mergeCell ref="J84:N84"/>
-    <mergeCell ref="J83:N83"/>
-    <mergeCell ref="J82:N82"/>
-    <mergeCell ref="J92:N92"/>
-    <mergeCell ref="J85:N85"/>
-    <mergeCell ref="J87:N87"/>
-    <mergeCell ref="J88:N88"/>
+    <mergeCell ref="J104:Q104"/>
+    <mergeCell ref="J121:O121"/>
+    <mergeCell ref="J118:Q118"/>
+    <mergeCell ref="J117:Q117"/>
+    <mergeCell ref="J111:Q111"/>
+    <mergeCell ref="J108:Q108"/>
+    <mergeCell ref="J109:Q109"/>
+    <mergeCell ref="J110:Q110"/>
+    <mergeCell ref="J112:Q112"/>
+    <mergeCell ref="J113:Q113"/>
+    <mergeCell ref="J114:Q114"/>
+    <mergeCell ref="J115:Q115"/>
+    <mergeCell ref="J116:Q116"/>
+    <mergeCell ref="J119:O119"/>
+    <mergeCell ref="J120:O120"/>
     <mergeCell ref="J80:N80"/>
     <mergeCell ref="J79:N79"/>
     <mergeCell ref="J89:N89"/>
@@ -4000,21 +3982,48 @@
     <mergeCell ref="J101:Q101"/>
     <mergeCell ref="J102:Q102"/>
     <mergeCell ref="J103:Q103"/>
-    <mergeCell ref="J104:Q104"/>
-    <mergeCell ref="J121:O121"/>
-    <mergeCell ref="J118:Q118"/>
-    <mergeCell ref="J117:Q117"/>
-    <mergeCell ref="J111:Q111"/>
-    <mergeCell ref="J108:Q108"/>
-    <mergeCell ref="J109:Q109"/>
-    <mergeCell ref="J110:Q110"/>
-    <mergeCell ref="J112:Q112"/>
-    <mergeCell ref="J113:Q113"/>
-    <mergeCell ref="J114:Q114"/>
-    <mergeCell ref="J115:Q115"/>
-    <mergeCell ref="J116:Q116"/>
-    <mergeCell ref="J119:O119"/>
-    <mergeCell ref="J120:O120"/>
+    <mergeCell ref="J82:N82"/>
+    <mergeCell ref="J92:N92"/>
+    <mergeCell ref="J85:N85"/>
+    <mergeCell ref="J87:N87"/>
+    <mergeCell ref="J88:N88"/>
+    <mergeCell ref="J65:V65"/>
+    <mergeCell ref="J47:O47"/>
+    <mergeCell ref="J51:O51"/>
+    <mergeCell ref="J50:O50"/>
+    <mergeCell ref="J49:O49"/>
+    <mergeCell ref="J48:O48"/>
+    <mergeCell ref="O62:S62"/>
+    <mergeCell ref="J52:O52"/>
+    <mergeCell ref="J24:V24"/>
+    <mergeCell ref="J25:V25"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="J38:O38"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="J9:V9"/>
+    <mergeCell ref="J10:V10"/>
+    <mergeCell ref="J18:V18"/>
+    <mergeCell ref="J11:V11"/>
+    <mergeCell ref="J19:V19"/>
+    <mergeCell ref="J12:V12"/>
+    <mergeCell ref="J122:O122"/>
+    <mergeCell ref="J123:O123"/>
+    <mergeCell ref="J66:V66"/>
+    <mergeCell ref="J67:V67"/>
+    <mergeCell ref="J71:V71"/>
+    <mergeCell ref="J76:Q78"/>
+    <mergeCell ref="J94:N94"/>
+    <mergeCell ref="J81:N81"/>
+    <mergeCell ref="J74:M74"/>
+    <mergeCell ref="J73:M73"/>
+    <mergeCell ref="J86:N86"/>
+    <mergeCell ref="J90:N90"/>
+    <mergeCell ref="J91:N91"/>
+    <mergeCell ref="J93:N93"/>
+    <mergeCell ref="J84:N84"/>
+    <mergeCell ref="J83:N83"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71EB746F-FED3-4073-BFB3-40AD6142F382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D621688-9C6C-4552-A05D-A8062BA3351A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="1275" windowWidth="22665" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12090" yWindow="1920" windowWidth="22665" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="97">
   <si>
     <t>ST-SSL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -407,6 +407,10 @@
   </si>
   <si>
     <t>56-&gt;59引入outs.max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56-&gt;60引入sstban</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -523,19 +527,19 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -817,10 +821,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:V123"/>
+  <dimension ref="A3:V124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="I122" sqref="I122"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="G127" sqref="G127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1445,8 +1449,8 @@
       <c r="K38" s="11"/>
       <c r="L38" s="11"/>
       <c r="M38" s="11"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
@@ -1534,12 +1538,12 @@
       <c r="I44" s="2">
         <v>0.1235</v>
       </c>
-      <c r="J44" s="12" t="s">
+      <c r="J44" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="12"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
@@ -1604,12 +1608,12 @@
       <c r="I46" s="2">
         <v>0.1249</v>
       </c>
-      <c r="J46" s="12" t="s">
+      <c r="J46" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
-      <c r="M46" s="12"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="15"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
@@ -1945,13 +1949,13 @@
       <c r="L62" s="2">
         <v>0.14990000000000001</v>
       </c>
-      <c r="O62" s="15" t="s">
+      <c r="O62" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="P62" s="15"/>
-      <c r="Q62" s="15"/>
-      <c r="R62" s="15"/>
-      <c r="S62" s="15"/>
+      <c r="P62" s="16"/>
+      <c r="Q62" s="16"/>
+      <c r="R62" s="16"/>
+      <c r="S62" s="16"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
@@ -2193,12 +2197,12 @@
       <c r="I73" s="5">
         <v>0.13669999999999999</v>
       </c>
-      <c r="J73" s="12" t="s">
+      <c r="J73" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K73" s="12"/>
-      <c r="L73" s="12"/>
-      <c r="M73" s="12"/>
+      <c r="K73" s="15"/>
+      <c r="L73" s="15"/>
+      <c r="M73" s="15"/>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
@@ -2219,12 +2223,12 @@
       <c r="F74" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J74" s="12" t="s">
+      <c r="J74" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="K74" s="12"/>
-      <c r="L74" s="12"/>
-      <c r="M74" s="12"/>
+      <c r="K74" s="15"/>
+      <c r="L74" s="15"/>
+      <c r="M74" s="15"/>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
@@ -2254,12 +2258,12 @@
       <c r="I75" s="2">
         <v>0.13780000000000001</v>
       </c>
-      <c r="J75" s="12" t="s">
+      <c r="J75" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="K75" s="12"/>
-      <c r="L75" s="12"/>
-      <c r="M75" s="12"/>
+      <c r="K75" s="15"/>
+      <c r="L75" s="15"/>
+      <c r="M75" s="15"/>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
@@ -2289,36 +2293,36 @@
       <c r="I76" s="5">
         <v>0.1348</v>
       </c>
-      <c r="J76" s="12" t="s">
+      <c r="J76" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="K76" s="12"/>
-      <c r="L76" s="12"/>
-      <c r="M76" s="12"/>
-      <c r="N76" s="12"/>
-      <c r="O76" s="12"/>
-      <c r="P76" s="12"/>
-      <c r="Q76" s="12"/>
+      <c r="K76" s="15"/>
+      <c r="L76" s="15"/>
+      <c r="M76" s="15"/>
+      <c r="N76" s="15"/>
+      <c r="O76" s="15"/>
+      <c r="P76" s="15"/>
+      <c r="Q76" s="15"/>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="J77" s="12"/>
-      <c r="K77" s="12"/>
-      <c r="L77" s="12"/>
-      <c r="M77" s="12"/>
-      <c r="N77" s="12"/>
-      <c r="O77" s="12"/>
-      <c r="P77" s="12"/>
-      <c r="Q77" s="12"/>
+      <c r="J77" s="15"/>
+      <c r="K77" s="15"/>
+      <c r="L77" s="15"/>
+      <c r="M77" s="15"/>
+      <c r="N77" s="15"/>
+      <c r="O77" s="15"/>
+      <c r="P77" s="15"/>
+      <c r="Q77" s="15"/>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="J78" s="12"/>
-      <c r="K78" s="12"/>
-      <c r="L78" s="12"/>
-      <c r="M78" s="12"/>
-      <c r="N78" s="12"/>
-      <c r="O78" s="12"/>
-      <c r="P78" s="12"/>
-      <c r="Q78" s="12"/>
+      <c r="J78" s="15"/>
+      <c r="K78" s="15"/>
+      <c r="L78" s="15"/>
+      <c r="M78" s="15"/>
+      <c r="N78" s="15"/>
+      <c r="O78" s="15"/>
+      <c r="P78" s="15"/>
+      <c r="Q78" s="15"/>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
@@ -2564,13 +2568,13 @@
       <c r="I85" s="2">
         <v>0.1361</v>
       </c>
-      <c r="J85" s="12" t="s">
+      <c r="J85" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="K85" s="12"/>
-      <c r="L85" s="12"/>
-      <c r="M85" s="12"/>
-      <c r="N85" s="12"/>
+      <c r="K85" s="15"/>
+      <c r="L85" s="15"/>
+      <c r="M85" s="15"/>
+      <c r="N85" s="15"/>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
@@ -2600,13 +2604,13 @@
       <c r="I86" s="5">
         <v>0.13070000000000001</v>
       </c>
-      <c r="J86" s="12" t="s">
+      <c r="J86" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="K86" s="12"/>
-      <c r="L86" s="12"/>
-      <c r="M86" s="12"/>
-      <c r="N86" s="12"/>
+      <c r="K86" s="15"/>
+      <c r="L86" s="15"/>
+      <c r="M86" s="15"/>
+      <c r="N86" s="15"/>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
@@ -2636,13 +2640,13 @@
       <c r="I87" s="2">
         <v>0.1361</v>
       </c>
-      <c r="J87" s="12" t="s">
+      <c r="J87" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="K87" s="12"/>
-      <c r="L87" s="12"/>
-      <c r="M87" s="12"/>
-      <c r="N87" s="12"/>
+      <c r="K87" s="15"/>
+      <c r="L87" s="15"/>
+      <c r="M87" s="15"/>
+      <c r="N87" s="15"/>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
@@ -2672,13 +2676,13 @@
       <c r="I88" s="2">
         <v>0.13589999999999999</v>
       </c>
-      <c r="J88" s="12" t="s">
+      <c r="J88" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="K88" s="12"/>
-      <c r="L88" s="12"/>
-      <c r="M88" s="12"/>
-      <c r="N88" s="12"/>
+      <c r="K88" s="15"/>
+      <c r="L88" s="15"/>
+      <c r="M88" s="15"/>
+      <c r="N88" s="15"/>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
@@ -3009,9 +3013,9 @@
       <c r="L97" s="11"/>
       <c r="M97" s="11"/>
       <c r="N97" s="11"/>
-      <c r="O97" s="14"/>
-      <c r="P97" s="14"/>
-      <c r="Q97" s="14"/>
+      <c r="O97" s="12"/>
+      <c r="P97" s="12"/>
+      <c r="Q97" s="12"/>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
@@ -3048,9 +3052,9 @@
       <c r="L98" s="11"/>
       <c r="M98" s="11"/>
       <c r="N98" s="11"/>
-      <c r="O98" s="14"/>
-      <c r="P98" s="14"/>
-      <c r="Q98" s="14"/>
+      <c r="O98" s="12"/>
+      <c r="P98" s="12"/>
+      <c r="Q98" s="12"/>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
@@ -3087,9 +3091,9 @@
       <c r="L99" s="11"/>
       <c r="M99" s="11"/>
       <c r="N99" s="11"/>
-      <c r="O99" s="14"/>
-      <c r="P99" s="14"/>
-      <c r="Q99" s="14"/>
+      <c r="O99" s="12"/>
+      <c r="P99" s="12"/>
+      <c r="Q99" s="12"/>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
@@ -3126,10 +3130,10 @@
       <c r="L100" s="11"/>
       <c r="M100" s="11"/>
       <c r="N100" s="11"/>
-      <c r="O100" s="14"/>
-      <c r="P100" s="14"/>
-      <c r="Q100" s="14"/>
-      <c r="R100" s="14"/>
+      <c r="O100" s="12"/>
+      <c r="P100" s="12"/>
+      <c r="Q100" s="12"/>
+      <c r="R100" s="12"/>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101" s="8">
@@ -3160,9 +3164,9 @@
       <c r="L101" s="13"/>
       <c r="M101" s="13"/>
       <c r="N101" s="13"/>
-      <c r="O101" s="16"/>
-      <c r="P101" s="16"/>
-      <c r="Q101" s="16"/>
+      <c r="O101" s="14"/>
+      <c r="P101" s="14"/>
+      <c r="Q101" s="14"/>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
@@ -3199,9 +3203,9 @@
       <c r="L102" s="11"/>
       <c r="M102" s="11"/>
       <c r="N102" s="11"/>
-      <c r="O102" s="14"/>
-      <c r="P102" s="14"/>
-      <c r="Q102" s="14"/>
+      <c r="O102" s="12"/>
+      <c r="P102" s="12"/>
+      <c r="Q102" s="12"/>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A103" s="8">
@@ -3232,9 +3236,9 @@
       <c r="L103" s="13"/>
       <c r="M103" s="13"/>
       <c r="N103" s="13"/>
-      <c r="O103" s="16"/>
-      <c r="P103" s="16"/>
-      <c r="Q103" s="16"/>
+      <c r="O103" s="14"/>
+      <c r="P103" s="14"/>
+      <c r="Q103" s="14"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
@@ -3271,9 +3275,9 @@
       <c r="L104" s="11"/>
       <c r="M104" s="11"/>
       <c r="N104" s="11"/>
-      <c r="O104" s="14"/>
-      <c r="P104" s="14"/>
-      <c r="Q104" s="14"/>
+      <c r="O104" s="12"/>
+      <c r="P104" s="12"/>
+      <c r="Q104" s="12"/>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
@@ -3310,9 +3314,9 @@
       <c r="L105" s="11"/>
       <c r="M105" s="11"/>
       <c r="N105" s="11"/>
-      <c r="O105" s="14"/>
-      <c r="P105" s="14"/>
-      <c r="Q105" s="14"/>
+      <c r="O105" s="12"/>
+      <c r="P105" s="12"/>
+      <c r="Q105" s="12"/>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
@@ -3349,9 +3353,9 @@
       <c r="L106" s="11"/>
       <c r="M106" s="11"/>
       <c r="N106" s="11"/>
-      <c r="O106" s="14"/>
-      <c r="P106" s="14"/>
-      <c r="Q106" s="14"/>
+      <c r="O106" s="12"/>
+      <c r="P106" s="12"/>
+      <c r="Q106" s="12"/>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A107" s="8">
@@ -3382,9 +3386,9 @@
       <c r="L107" s="13"/>
       <c r="M107" s="13"/>
       <c r="N107" s="13"/>
-      <c r="O107" s="16"/>
-      <c r="P107" s="16"/>
-      <c r="Q107" s="16"/>
+      <c r="O107" s="14"/>
+      <c r="P107" s="14"/>
+      <c r="Q107" s="14"/>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
@@ -3412,9 +3416,9 @@
       <c r="L108" s="11"/>
       <c r="M108" s="11"/>
       <c r="N108" s="11"/>
-      <c r="O108" s="14"/>
-      <c r="P108" s="14"/>
-      <c r="Q108" s="14"/>
+      <c r="O108" s="12"/>
+      <c r="P108" s="12"/>
+      <c r="Q108" s="12"/>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
@@ -3451,9 +3455,9 @@
       <c r="L109" s="11"/>
       <c r="M109" s="11"/>
       <c r="N109" s="11"/>
-      <c r="O109" s="14"/>
-      <c r="P109" s="14"/>
-      <c r="Q109" s="14"/>
+      <c r="O109" s="12"/>
+      <c r="P109" s="12"/>
+      <c r="Q109" s="12"/>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
@@ -3490,9 +3494,9 @@
       <c r="L110" s="11"/>
       <c r="M110" s="11"/>
       <c r="N110" s="11"/>
-      <c r="O110" s="14"/>
-      <c r="P110" s="14"/>
-      <c r="Q110" s="14"/>
+      <c r="O110" s="12"/>
+      <c r="P110" s="12"/>
+      <c r="Q110" s="12"/>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
@@ -3529,9 +3533,9 @@
       <c r="L111" s="11"/>
       <c r="M111" s="11"/>
       <c r="N111" s="11"/>
-      <c r="O111" s="14"/>
-      <c r="P111" s="14"/>
-      <c r="Q111" s="14"/>
+      <c r="O111" s="12"/>
+      <c r="P111" s="12"/>
+      <c r="Q111" s="12"/>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
@@ -3559,9 +3563,9 @@
       <c r="L112" s="11"/>
       <c r="M112" s="11"/>
       <c r="N112" s="11"/>
-      <c r="O112" s="14"/>
-      <c r="P112" s="14"/>
-      <c r="Q112" s="14"/>
+      <c r="O112" s="12"/>
+      <c r="P112" s="12"/>
+      <c r="Q112" s="12"/>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
@@ -3598,9 +3602,9 @@
       <c r="L113" s="11"/>
       <c r="M113" s="11"/>
       <c r="N113" s="11"/>
-      <c r="O113" s="14"/>
-      <c r="P113" s="14"/>
-      <c r="Q113" s="14"/>
+      <c r="O113" s="12"/>
+      <c r="P113" s="12"/>
+      <c r="Q113" s="12"/>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
@@ -3637,9 +3641,9 @@
       <c r="L114" s="11"/>
       <c r="M114" s="11"/>
       <c r="N114" s="11"/>
-      <c r="O114" s="14"/>
-      <c r="P114" s="14"/>
-      <c r="Q114" s="14"/>
+      <c r="O114" s="12"/>
+      <c r="P114" s="12"/>
+      <c r="Q114" s="12"/>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
@@ -3667,9 +3671,9 @@
       <c r="L115" s="11"/>
       <c r="M115" s="11"/>
       <c r="N115" s="11"/>
-      <c r="O115" s="14"/>
-      <c r="P115" s="14"/>
-      <c r="Q115" s="14"/>
+      <c r="O115" s="12"/>
+      <c r="P115" s="12"/>
+      <c r="Q115" s="12"/>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
@@ -3706,9 +3710,9 @@
       <c r="L116" s="11"/>
       <c r="M116" s="11"/>
       <c r="N116" s="11"/>
-      <c r="O116" s="14"/>
-      <c r="P116" s="14"/>
-      <c r="Q116" s="14"/>
+      <c r="O116" s="12"/>
+      <c r="P116" s="12"/>
+      <c r="Q116" s="12"/>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
@@ -3745,9 +3749,9 @@
       <c r="L117" s="11"/>
       <c r="M117" s="11"/>
       <c r="N117" s="11"/>
-      <c r="O117" s="14"/>
-      <c r="P117" s="14"/>
-      <c r="Q117" s="14"/>
+      <c r="O117" s="12"/>
+      <c r="P117" s="12"/>
+      <c r="Q117" s="12"/>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A118" s="8">
@@ -3778,9 +3782,9 @@
       <c r="L118" s="13"/>
       <c r="M118" s="13"/>
       <c r="N118" s="13"/>
-      <c r="O118" s="16"/>
-      <c r="P118" s="16"/>
-      <c r="Q118" s="16"/>
+      <c r="O118" s="14"/>
+      <c r="P118" s="14"/>
+      <c r="Q118" s="14"/>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
@@ -3875,6 +3879,15 @@
       <c r="F121" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="G121" s="1">
+        <v>22.8</v>
+      </c>
+      <c r="H121" s="1">
+        <v>35.270000000000003</v>
+      </c>
+      <c r="I121" s="2">
+        <v>0.15479999999999999</v>
+      </c>
       <c r="J121" s="11" t="s">
         <v>93</v>
       </c>
@@ -3940,6 +3953,15 @@
       <c r="F123" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="G123" s="1">
+        <v>19.25</v>
+      </c>
+      <c r="H123" s="1">
+        <v>30.43</v>
+      </c>
+      <c r="I123" s="2">
+        <v>0.13830000000000001</v>
+      </c>
       <c r="J123" s="11" t="s">
         <v>95</v>
       </c>
@@ -3949,23 +3971,80 @@
       <c r="N123" s="11"/>
       <c r="O123" s="11"/>
     </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <v>60</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I124" s="2"/>
+      <c r="J124" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="K124" s="11"/>
+      <c r="L124" s="11"/>
+      <c r="M124" s="11"/>
+      <c r="N124" s="11"/>
+      <c r="O124" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="73">
-    <mergeCell ref="J104:Q104"/>
-    <mergeCell ref="J121:O121"/>
-    <mergeCell ref="J118:Q118"/>
-    <mergeCell ref="J117:Q117"/>
-    <mergeCell ref="J111:Q111"/>
-    <mergeCell ref="J108:Q108"/>
-    <mergeCell ref="J109:Q109"/>
-    <mergeCell ref="J110:Q110"/>
-    <mergeCell ref="J112:Q112"/>
-    <mergeCell ref="J113:Q113"/>
-    <mergeCell ref="J114:Q114"/>
-    <mergeCell ref="J115:Q115"/>
-    <mergeCell ref="J116:Q116"/>
-    <mergeCell ref="J119:O119"/>
-    <mergeCell ref="J120:O120"/>
+  <mergeCells count="74">
+    <mergeCell ref="J124:O124"/>
+    <mergeCell ref="J122:O122"/>
+    <mergeCell ref="J123:O123"/>
+    <mergeCell ref="J66:V66"/>
+    <mergeCell ref="J67:V67"/>
+    <mergeCell ref="J71:V71"/>
+    <mergeCell ref="J76:Q78"/>
+    <mergeCell ref="J94:N94"/>
+    <mergeCell ref="J81:N81"/>
+    <mergeCell ref="J74:M74"/>
+    <mergeCell ref="J73:M73"/>
+    <mergeCell ref="J86:N86"/>
+    <mergeCell ref="J90:N90"/>
+    <mergeCell ref="J91:N91"/>
+    <mergeCell ref="J93:N93"/>
+    <mergeCell ref="J84:N84"/>
+    <mergeCell ref="J83:N83"/>
+    <mergeCell ref="J9:V9"/>
+    <mergeCell ref="J10:V10"/>
+    <mergeCell ref="J18:V18"/>
+    <mergeCell ref="J11:V11"/>
+    <mergeCell ref="J19:V19"/>
+    <mergeCell ref="J12:V12"/>
+    <mergeCell ref="J24:V24"/>
+    <mergeCell ref="J25:V25"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="J38:O38"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="J65:V65"/>
+    <mergeCell ref="J47:O47"/>
+    <mergeCell ref="J51:O51"/>
+    <mergeCell ref="J50:O50"/>
+    <mergeCell ref="J49:O49"/>
+    <mergeCell ref="J48:O48"/>
+    <mergeCell ref="O62:S62"/>
+    <mergeCell ref="J52:O52"/>
+    <mergeCell ref="J82:N82"/>
+    <mergeCell ref="J92:N92"/>
+    <mergeCell ref="J85:N85"/>
+    <mergeCell ref="J87:N87"/>
+    <mergeCell ref="J88:N88"/>
     <mergeCell ref="J80:N80"/>
     <mergeCell ref="J79:N79"/>
     <mergeCell ref="J89:N89"/>
@@ -3982,48 +4061,21 @@
     <mergeCell ref="J101:Q101"/>
     <mergeCell ref="J102:Q102"/>
     <mergeCell ref="J103:Q103"/>
-    <mergeCell ref="J82:N82"/>
-    <mergeCell ref="J92:N92"/>
-    <mergeCell ref="J85:N85"/>
-    <mergeCell ref="J87:N87"/>
-    <mergeCell ref="J88:N88"/>
-    <mergeCell ref="J65:V65"/>
-    <mergeCell ref="J47:O47"/>
-    <mergeCell ref="J51:O51"/>
-    <mergeCell ref="J50:O50"/>
-    <mergeCell ref="J49:O49"/>
-    <mergeCell ref="J48:O48"/>
-    <mergeCell ref="O62:S62"/>
-    <mergeCell ref="J52:O52"/>
-    <mergeCell ref="J24:V24"/>
-    <mergeCell ref="J25:V25"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="J38:O38"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="J44:M44"/>
-    <mergeCell ref="J9:V9"/>
-    <mergeCell ref="J10:V10"/>
-    <mergeCell ref="J18:V18"/>
-    <mergeCell ref="J11:V11"/>
-    <mergeCell ref="J19:V19"/>
-    <mergeCell ref="J12:V12"/>
-    <mergeCell ref="J122:O122"/>
-    <mergeCell ref="J123:O123"/>
-    <mergeCell ref="J66:V66"/>
-    <mergeCell ref="J67:V67"/>
-    <mergeCell ref="J71:V71"/>
-    <mergeCell ref="J76:Q78"/>
-    <mergeCell ref="J94:N94"/>
-    <mergeCell ref="J81:N81"/>
-    <mergeCell ref="J74:M74"/>
-    <mergeCell ref="J73:M73"/>
-    <mergeCell ref="J86:N86"/>
-    <mergeCell ref="J90:N90"/>
-    <mergeCell ref="J91:N91"/>
-    <mergeCell ref="J93:N93"/>
-    <mergeCell ref="J84:N84"/>
-    <mergeCell ref="J83:N83"/>
+    <mergeCell ref="J104:Q104"/>
+    <mergeCell ref="J121:O121"/>
+    <mergeCell ref="J118:Q118"/>
+    <mergeCell ref="J117:Q117"/>
+    <mergeCell ref="J111:Q111"/>
+    <mergeCell ref="J108:Q108"/>
+    <mergeCell ref="J109:Q109"/>
+    <mergeCell ref="J110:Q110"/>
+    <mergeCell ref="J112:Q112"/>
+    <mergeCell ref="J113:Q113"/>
+    <mergeCell ref="J114:Q114"/>
+    <mergeCell ref="J115:Q115"/>
+    <mergeCell ref="J116:Q116"/>
+    <mergeCell ref="J119:O119"/>
+    <mergeCell ref="J120:O120"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D621688-9C6C-4552-A05D-A8062BA3351A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB98D44-C804-4C5A-A3F8-71ACC41B5B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12090" yWindow="1920" windowWidth="22665" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="98">
   <si>
     <t>ST-SSL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -411,6 +411,10 @@
   </si>
   <si>
     <t>56-&gt;60引入sstban</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60-&gt;61加入语义矩阵和ODE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -527,19 +531,19 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -821,10 +825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:V124"/>
+  <dimension ref="A3:V125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="G127" sqref="G127"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="J125" sqref="J125:O125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1449,8 +1453,8 @@
       <c r="K38" s="11"/>
       <c r="L38" s="11"/>
       <c r="M38" s="11"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
@@ -1538,12 +1542,12 @@
       <c r="I44" s="2">
         <v>0.1235</v>
       </c>
-      <c r="J44" s="15" t="s">
+      <c r="J44" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="K44" s="15"/>
-      <c r="L44" s="15"/>
-      <c r="M44" s="15"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
@@ -1608,12 +1612,12 @@
       <c r="I46" s="2">
         <v>0.1249</v>
       </c>
-      <c r="J46" s="15" t="s">
+      <c r="J46" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="K46" s="15"/>
-      <c r="L46" s="15"/>
-      <c r="M46" s="15"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
@@ -1949,13 +1953,13 @@
       <c r="L62" s="2">
         <v>0.14990000000000001</v>
       </c>
-      <c r="O62" s="16" t="s">
+      <c r="O62" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="P62" s="16"/>
-      <c r="Q62" s="16"/>
-      <c r="R62" s="16"/>
-      <c r="S62" s="16"/>
+      <c r="P62" s="15"/>
+      <c r="Q62" s="15"/>
+      <c r="R62" s="15"/>
+      <c r="S62" s="15"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
@@ -2197,12 +2201,12 @@
       <c r="I73" s="5">
         <v>0.13669999999999999</v>
       </c>
-      <c r="J73" s="15" t="s">
+      <c r="J73" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="K73" s="15"/>
-      <c r="L73" s="15"/>
-      <c r="M73" s="15"/>
+      <c r="K73" s="12"/>
+      <c r="L73" s="12"/>
+      <c r="M73" s="12"/>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
@@ -2223,12 +2227,12 @@
       <c r="F74" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J74" s="15" t="s">
+      <c r="J74" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="K74" s="15"/>
-      <c r="L74" s="15"/>
-      <c r="M74" s="15"/>
+      <c r="K74" s="12"/>
+      <c r="L74" s="12"/>
+      <c r="M74" s="12"/>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
@@ -2258,12 +2262,12 @@
       <c r="I75" s="2">
         <v>0.13780000000000001</v>
       </c>
-      <c r="J75" s="15" t="s">
+      <c r="J75" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="K75" s="15"/>
-      <c r="L75" s="15"/>
-      <c r="M75" s="15"/>
+      <c r="K75" s="12"/>
+      <c r="L75" s="12"/>
+      <c r="M75" s="12"/>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
@@ -2293,36 +2297,36 @@
       <c r="I76" s="5">
         <v>0.1348</v>
       </c>
-      <c r="J76" s="15" t="s">
+      <c r="J76" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="K76" s="15"/>
-      <c r="L76" s="15"/>
-      <c r="M76" s="15"/>
-      <c r="N76" s="15"/>
-      <c r="O76" s="15"/>
-      <c r="P76" s="15"/>
-      <c r="Q76" s="15"/>
+      <c r="K76" s="12"/>
+      <c r="L76" s="12"/>
+      <c r="M76" s="12"/>
+      <c r="N76" s="12"/>
+      <c r="O76" s="12"/>
+      <c r="P76" s="12"/>
+      <c r="Q76" s="12"/>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="J77" s="15"/>
-      <c r="K77" s="15"/>
-      <c r="L77" s="15"/>
-      <c r="M77" s="15"/>
-      <c r="N77" s="15"/>
-      <c r="O77" s="15"/>
-      <c r="P77" s="15"/>
-      <c r="Q77" s="15"/>
+      <c r="J77" s="12"/>
+      <c r="K77" s="12"/>
+      <c r="L77" s="12"/>
+      <c r="M77" s="12"/>
+      <c r="N77" s="12"/>
+      <c r="O77" s="12"/>
+      <c r="P77" s="12"/>
+      <c r="Q77" s="12"/>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="J78" s="15"/>
-      <c r="K78" s="15"/>
-      <c r="L78" s="15"/>
-      <c r="M78" s="15"/>
-      <c r="N78" s="15"/>
-      <c r="O78" s="15"/>
-      <c r="P78" s="15"/>
-      <c r="Q78" s="15"/>
+      <c r="J78" s="12"/>
+      <c r="K78" s="12"/>
+      <c r="L78" s="12"/>
+      <c r="M78" s="12"/>
+      <c r="N78" s="12"/>
+      <c r="O78" s="12"/>
+      <c r="P78" s="12"/>
+      <c r="Q78" s="12"/>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
@@ -2568,13 +2572,13 @@
       <c r="I85" s="2">
         <v>0.1361</v>
       </c>
-      <c r="J85" s="15" t="s">
+      <c r="J85" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="K85" s="15"/>
-      <c r="L85" s="15"/>
-      <c r="M85" s="15"/>
-      <c r="N85" s="15"/>
+      <c r="K85" s="12"/>
+      <c r="L85" s="12"/>
+      <c r="M85" s="12"/>
+      <c r="N85" s="12"/>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
@@ -2604,13 +2608,13 @@
       <c r="I86" s="5">
         <v>0.13070000000000001</v>
       </c>
-      <c r="J86" s="15" t="s">
+      <c r="J86" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="K86" s="15"/>
-      <c r="L86" s="15"/>
-      <c r="M86" s="15"/>
-      <c r="N86" s="15"/>
+      <c r="K86" s="12"/>
+      <c r="L86" s="12"/>
+      <c r="M86" s="12"/>
+      <c r="N86" s="12"/>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
@@ -2640,13 +2644,13 @@
       <c r="I87" s="2">
         <v>0.1361</v>
       </c>
-      <c r="J87" s="15" t="s">
+      <c r="J87" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="K87" s="15"/>
-      <c r="L87" s="15"/>
-      <c r="M87" s="15"/>
-      <c r="N87" s="15"/>
+      <c r="K87" s="12"/>
+      <c r="L87" s="12"/>
+      <c r="M87" s="12"/>
+      <c r="N87" s="12"/>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
@@ -2676,13 +2680,13 @@
       <c r="I88" s="2">
         <v>0.13589999999999999</v>
       </c>
-      <c r="J88" s="15" t="s">
+      <c r="J88" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="K88" s="15"/>
-      <c r="L88" s="15"/>
-      <c r="M88" s="15"/>
-      <c r="N88" s="15"/>
+      <c r="K88" s="12"/>
+      <c r="L88" s="12"/>
+      <c r="M88" s="12"/>
+      <c r="N88" s="12"/>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
@@ -3013,9 +3017,9 @@
       <c r="L97" s="11"/>
       <c r="M97" s="11"/>
       <c r="N97" s="11"/>
-      <c r="O97" s="12"/>
-      <c r="P97" s="12"/>
-      <c r="Q97" s="12"/>
+      <c r="O97" s="14"/>
+      <c r="P97" s="14"/>
+      <c r="Q97" s="14"/>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
@@ -3052,9 +3056,9 @@
       <c r="L98" s="11"/>
       <c r="M98" s="11"/>
       <c r="N98" s="11"/>
-      <c r="O98" s="12"/>
-      <c r="P98" s="12"/>
-      <c r="Q98" s="12"/>
+      <c r="O98" s="14"/>
+      <c r="P98" s="14"/>
+      <c r="Q98" s="14"/>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
@@ -3091,9 +3095,9 @@
       <c r="L99" s="11"/>
       <c r="M99" s="11"/>
       <c r="N99" s="11"/>
-      <c r="O99" s="12"/>
-      <c r="P99" s="12"/>
-      <c r="Q99" s="12"/>
+      <c r="O99" s="14"/>
+      <c r="P99" s="14"/>
+      <c r="Q99" s="14"/>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
@@ -3130,10 +3134,10 @@
       <c r="L100" s="11"/>
       <c r="M100" s="11"/>
       <c r="N100" s="11"/>
-      <c r="O100" s="12"/>
-      <c r="P100" s="12"/>
-      <c r="Q100" s="12"/>
-      <c r="R100" s="12"/>
+      <c r="O100" s="14"/>
+      <c r="P100" s="14"/>
+      <c r="Q100" s="14"/>
+      <c r="R100" s="14"/>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101" s="8">
@@ -3164,9 +3168,9 @@
       <c r="L101" s="13"/>
       <c r="M101" s="13"/>
       <c r="N101" s="13"/>
-      <c r="O101" s="14"/>
-      <c r="P101" s="14"/>
-      <c r="Q101" s="14"/>
+      <c r="O101" s="16"/>
+      <c r="P101" s="16"/>
+      <c r="Q101" s="16"/>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
@@ -3203,9 +3207,9 @@
       <c r="L102" s="11"/>
       <c r="M102" s="11"/>
       <c r="N102" s="11"/>
-      <c r="O102" s="12"/>
-      <c r="P102" s="12"/>
-      <c r="Q102" s="12"/>
+      <c r="O102" s="14"/>
+      <c r="P102" s="14"/>
+      <c r="Q102" s="14"/>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A103" s="8">
@@ -3236,9 +3240,9 @@
       <c r="L103" s="13"/>
       <c r="M103" s="13"/>
       <c r="N103" s="13"/>
-      <c r="O103" s="14"/>
-      <c r="P103" s="14"/>
-      <c r="Q103" s="14"/>
+      <c r="O103" s="16"/>
+      <c r="P103" s="16"/>
+      <c r="Q103" s="16"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
@@ -3275,9 +3279,9 @@
       <c r="L104" s="11"/>
       <c r="M104" s="11"/>
       <c r="N104" s="11"/>
-      <c r="O104" s="12"/>
-      <c r="P104" s="12"/>
-      <c r="Q104" s="12"/>
+      <c r="O104" s="14"/>
+      <c r="P104" s="14"/>
+      <c r="Q104" s="14"/>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
@@ -3314,9 +3318,9 @@
       <c r="L105" s="11"/>
       <c r="M105" s="11"/>
       <c r="N105" s="11"/>
-      <c r="O105" s="12"/>
-      <c r="P105" s="12"/>
-      <c r="Q105" s="12"/>
+      <c r="O105" s="14"/>
+      <c r="P105" s="14"/>
+      <c r="Q105" s="14"/>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
@@ -3353,9 +3357,9 @@
       <c r="L106" s="11"/>
       <c r="M106" s="11"/>
       <c r="N106" s="11"/>
-      <c r="O106" s="12"/>
-      <c r="P106" s="12"/>
-      <c r="Q106" s="12"/>
+      <c r="O106" s="14"/>
+      <c r="P106" s="14"/>
+      <c r="Q106" s="14"/>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A107" s="8">
@@ -3386,9 +3390,9 @@
       <c r="L107" s="13"/>
       <c r="M107" s="13"/>
       <c r="N107" s="13"/>
-      <c r="O107" s="14"/>
-      <c r="P107" s="14"/>
-      <c r="Q107" s="14"/>
+      <c r="O107" s="16"/>
+      <c r="P107" s="16"/>
+      <c r="Q107" s="16"/>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
@@ -3416,9 +3420,9 @@
       <c r="L108" s="11"/>
       <c r="M108" s="11"/>
       <c r="N108" s="11"/>
-      <c r="O108" s="12"/>
-      <c r="P108" s="12"/>
-      <c r="Q108" s="12"/>
+      <c r="O108" s="14"/>
+      <c r="P108" s="14"/>
+      <c r="Q108" s="14"/>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
@@ -3455,9 +3459,9 @@
       <c r="L109" s="11"/>
       <c r="M109" s="11"/>
       <c r="N109" s="11"/>
-      <c r="O109" s="12"/>
-      <c r="P109" s="12"/>
-      <c r="Q109" s="12"/>
+      <c r="O109" s="14"/>
+      <c r="P109" s="14"/>
+      <c r="Q109" s="14"/>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
@@ -3494,9 +3498,9 @@
       <c r="L110" s="11"/>
       <c r="M110" s="11"/>
       <c r="N110" s="11"/>
-      <c r="O110" s="12"/>
-      <c r="P110" s="12"/>
-      <c r="Q110" s="12"/>
+      <c r="O110" s="14"/>
+      <c r="P110" s="14"/>
+      <c r="Q110" s="14"/>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
@@ -3533,9 +3537,9 @@
       <c r="L111" s="11"/>
       <c r="M111" s="11"/>
       <c r="N111" s="11"/>
-      <c r="O111" s="12"/>
-      <c r="P111" s="12"/>
-      <c r="Q111" s="12"/>
+      <c r="O111" s="14"/>
+      <c r="P111" s="14"/>
+      <c r="Q111" s="14"/>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
@@ -3563,9 +3567,9 @@
       <c r="L112" s="11"/>
       <c r="M112" s="11"/>
       <c r="N112" s="11"/>
-      <c r="O112" s="12"/>
-      <c r="P112" s="12"/>
-      <c r="Q112" s="12"/>
+      <c r="O112" s="14"/>
+      <c r="P112" s="14"/>
+      <c r="Q112" s="14"/>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
@@ -3602,9 +3606,9 @@
       <c r="L113" s="11"/>
       <c r="M113" s="11"/>
       <c r="N113" s="11"/>
-      <c r="O113" s="12"/>
-      <c r="P113" s="12"/>
-      <c r="Q113" s="12"/>
+      <c r="O113" s="14"/>
+      <c r="P113" s="14"/>
+      <c r="Q113" s="14"/>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
@@ -3641,9 +3645,9 @@
       <c r="L114" s="11"/>
       <c r="M114" s="11"/>
       <c r="N114" s="11"/>
-      <c r="O114" s="12"/>
-      <c r="P114" s="12"/>
-      <c r="Q114" s="12"/>
+      <c r="O114" s="14"/>
+      <c r="P114" s="14"/>
+      <c r="Q114" s="14"/>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
@@ -3671,9 +3675,9 @@
       <c r="L115" s="11"/>
       <c r="M115" s="11"/>
       <c r="N115" s="11"/>
-      <c r="O115" s="12"/>
-      <c r="P115" s="12"/>
-      <c r="Q115" s="12"/>
+      <c r="O115" s="14"/>
+      <c r="P115" s="14"/>
+      <c r="Q115" s="14"/>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
@@ -3710,9 +3714,9 @@
       <c r="L116" s="11"/>
       <c r="M116" s="11"/>
       <c r="N116" s="11"/>
-      <c r="O116" s="12"/>
-      <c r="P116" s="12"/>
-      <c r="Q116" s="12"/>
+      <c r="O116" s="14"/>
+      <c r="P116" s="14"/>
+      <c r="Q116" s="14"/>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
@@ -3749,9 +3753,9 @@
       <c r="L117" s="11"/>
       <c r="M117" s="11"/>
       <c r="N117" s="11"/>
-      <c r="O117" s="12"/>
-      <c r="P117" s="12"/>
-      <c r="Q117" s="12"/>
+      <c r="O117" s="14"/>
+      <c r="P117" s="14"/>
+      <c r="Q117" s="14"/>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A118" s="8">
@@ -3782,9 +3786,9 @@
       <c r="L118" s="13"/>
       <c r="M118" s="13"/>
       <c r="N118" s="13"/>
-      <c r="O118" s="14"/>
-      <c r="P118" s="14"/>
-      <c r="Q118" s="14"/>
+      <c r="O118" s="16"/>
+      <c r="P118" s="16"/>
+      <c r="Q118" s="16"/>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
@@ -3972,7 +3976,7 @@
       <c r="O123" s="11"/>
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A124" s="1">
+      <c r="A124" s="4">
         <v>60</v>
       </c>
       <c r="B124" s="1" t="s">
@@ -3990,7 +3994,15 @@
       <c r="F124" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I124" s="2"/>
+      <c r="G124" s="4">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="H124" s="4">
+        <v>30.37</v>
+      </c>
+      <c r="I124" s="5">
+        <v>0.13320000000000001</v>
+      </c>
       <c r="J124" s="11" t="s">
         <v>96</v>
       </c>
@@ -4000,8 +4012,95 @@
       <c r="N124" s="11"/>
       <c r="O124" s="11"/>
     </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <v>61</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J125" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="K125" s="11"/>
+      <c r="L125" s="11"/>
+      <c r="M125" s="11"/>
+      <c r="N125" s="11"/>
+      <c r="O125" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="74">
+  <mergeCells count="75">
+    <mergeCell ref="J125:O125"/>
+    <mergeCell ref="J104:Q104"/>
+    <mergeCell ref="J121:O121"/>
+    <mergeCell ref="J118:Q118"/>
+    <mergeCell ref="J117:Q117"/>
+    <mergeCell ref="J111:Q111"/>
+    <mergeCell ref="J108:Q108"/>
+    <mergeCell ref="J109:Q109"/>
+    <mergeCell ref="J110:Q110"/>
+    <mergeCell ref="J112:Q112"/>
+    <mergeCell ref="J113:Q113"/>
+    <mergeCell ref="J114:Q114"/>
+    <mergeCell ref="J115:Q115"/>
+    <mergeCell ref="J116:Q116"/>
+    <mergeCell ref="J119:O119"/>
+    <mergeCell ref="J120:O120"/>
+    <mergeCell ref="J80:N80"/>
+    <mergeCell ref="J79:N79"/>
+    <mergeCell ref="J89:N89"/>
+    <mergeCell ref="J75:M75"/>
+    <mergeCell ref="J107:Q107"/>
+    <mergeCell ref="J106:Q106"/>
+    <mergeCell ref="J105:Q105"/>
+    <mergeCell ref="J95:N95"/>
+    <mergeCell ref="J99:Q99"/>
+    <mergeCell ref="J98:Q98"/>
+    <mergeCell ref="J96:N96"/>
+    <mergeCell ref="J97:Q97"/>
+    <mergeCell ref="J100:R100"/>
+    <mergeCell ref="J101:Q101"/>
+    <mergeCell ref="J102:Q102"/>
+    <mergeCell ref="J103:Q103"/>
+    <mergeCell ref="J82:N82"/>
+    <mergeCell ref="J92:N92"/>
+    <mergeCell ref="J85:N85"/>
+    <mergeCell ref="J87:N87"/>
+    <mergeCell ref="J88:N88"/>
+    <mergeCell ref="J51:O51"/>
+    <mergeCell ref="J50:O50"/>
+    <mergeCell ref="J49:O49"/>
+    <mergeCell ref="J48:O48"/>
+    <mergeCell ref="O62:S62"/>
+    <mergeCell ref="J52:O52"/>
+    <mergeCell ref="J83:N83"/>
+    <mergeCell ref="J9:V9"/>
+    <mergeCell ref="J10:V10"/>
+    <mergeCell ref="J18:V18"/>
+    <mergeCell ref="J11:V11"/>
+    <mergeCell ref="J19:V19"/>
+    <mergeCell ref="J12:V12"/>
+    <mergeCell ref="J24:V24"/>
+    <mergeCell ref="J25:V25"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="J38:O38"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="J65:V65"/>
+    <mergeCell ref="J47:O47"/>
     <mergeCell ref="J124:O124"/>
     <mergeCell ref="J122:O122"/>
     <mergeCell ref="J123:O123"/>
@@ -4018,64 +4117,6 @@
     <mergeCell ref="J91:N91"/>
     <mergeCell ref="J93:N93"/>
     <mergeCell ref="J84:N84"/>
-    <mergeCell ref="J83:N83"/>
-    <mergeCell ref="J9:V9"/>
-    <mergeCell ref="J10:V10"/>
-    <mergeCell ref="J18:V18"/>
-    <mergeCell ref="J11:V11"/>
-    <mergeCell ref="J19:V19"/>
-    <mergeCell ref="J12:V12"/>
-    <mergeCell ref="J24:V24"/>
-    <mergeCell ref="J25:V25"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="J38:O38"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="J44:M44"/>
-    <mergeCell ref="J65:V65"/>
-    <mergeCell ref="J47:O47"/>
-    <mergeCell ref="J51:O51"/>
-    <mergeCell ref="J50:O50"/>
-    <mergeCell ref="J49:O49"/>
-    <mergeCell ref="J48:O48"/>
-    <mergeCell ref="O62:S62"/>
-    <mergeCell ref="J52:O52"/>
-    <mergeCell ref="J82:N82"/>
-    <mergeCell ref="J92:N92"/>
-    <mergeCell ref="J85:N85"/>
-    <mergeCell ref="J87:N87"/>
-    <mergeCell ref="J88:N88"/>
-    <mergeCell ref="J80:N80"/>
-    <mergeCell ref="J79:N79"/>
-    <mergeCell ref="J89:N89"/>
-    <mergeCell ref="J75:M75"/>
-    <mergeCell ref="J107:Q107"/>
-    <mergeCell ref="J106:Q106"/>
-    <mergeCell ref="J105:Q105"/>
-    <mergeCell ref="J95:N95"/>
-    <mergeCell ref="J99:Q99"/>
-    <mergeCell ref="J98:Q98"/>
-    <mergeCell ref="J96:N96"/>
-    <mergeCell ref="J97:Q97"/>
-    <mergeCell ref="J100:R100"/>
-    <mergeCell ref="J101:Q101"/>
-    <mergeCell ref="J102:Q102"/>
-    <mergeCell ref="J103:Q103"/>
-    <mergeCell ref="J104:Q104"/>
-    <mergeCell ref="J121:O121"/>
-    <mergeCell ref="J118:Q118"/>
-    <mergeCell ref="J117:Q117"/>
-    <mergeCell ref="J111:Q111"/>
-    <mergeCell ref="J108:Q108"/>
-    <mergeCell ref="J109:Q109"/>
-    <mergeCell ref="J110:Q110"/>
-    <mergeCell ref="J112:Q112"/>
-    <mergeCell ref="J113:Q113"/>
-    <mergeCell ref="J114:Q114"/>
-    <mergeCell ref="J115:Q115"/>
-    <mergeCell ref="J116:Q116"/>
-    <mergeCell ref="J119:O119"/>
-    <mergeCell ref="J120:O120"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB98D44-C804-4C5A-A3F8-71ACC41B5B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF157495-EB54-4B50-8781-EF857795244A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12090" yWindow="1920" windowWidth="22665" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="98">
   <si>
     <t>ST-SSL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -531,19 +531,19 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -825,10 +825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:V125"/>
+  <dimension ref="A3:V126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="J125" sqref="J125:O125"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="J128" sqref="J128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1453,8 +1453,8 @@
       <c r="K38" s="11"/>
       <c r="L38" s="11"/>
       <c r="M38" s="11"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
@@ -1542,12 +1542,12 @@
       <c r="I44" s="2">
         <v>0.1235</v>
       </c>
-      <c r="J44" s="12" t="s">
+      <c r="J44" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="12"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
@@ -1612,12 +1612,12 @@
       <c r="I46" s="2">
         <v>0.1249</v>
       </c>
-      <c r="J46" s="12" t="s">
+      <c r="J46" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
-      <c r="M46" s="12"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="15"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
@@ -1953,13 +1953,13 @@
       <c r="L62" s="2">
         <v>0.14990000000000001</v>
       </c>
-      <c r="O62" s="15" t="s">
+      <c r="O62" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="P62" s="15"/>
-      <c r="Q62" s="15"/>
-      <c r="R62" s="15"/>
-      <c r="S62" s="15"/>
+      <c r="P62" s="16"/>
+      <c r="Q62" s="16"/>
+      <c r="R62" s="16"/>
+      <c r="S62" s="16"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
@@ -2201,12 +2201,12 @@
       <c r="I73" s="5">
         <v>0.13669999999999999</v>
       </c>
-      <c r="J73" s="12" t="s">
+      <c r="J73" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K73" s="12"/>
-      <c r="L73" s="12"/>
-      <c r="M73" s="12"/>
+      <c r="K73" s="15"/>
+      <c r="L73" s="15"/>
+      <c r="M73" s="15"/>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
@@ -2227,12 +2227,12 @@
       <c r="F74" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J74" s="12" t="s">
+      <c r="J74" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="K74" s="12"/>
-      <c r="L74" s="12"/>
-      <c r="M74" s="12"/>
+      <c r="K74" s="15"/>
+      <c r="L74" s="15"/>
+      <c r="M74" s="15"/>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
@@ -2262,12 +2262,12 @@
       <c r="I75" s="2">
         <v>0.13780000000000001</v>
       </c>
-      <c r="J75" s="12" t="s">
+      <c r="J75" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="K75" s="12"/>
-      <c r="L75" s="12"/>
-      <c r="M75" s="12"/>
+      <c r="K75" s="15"/>
+      <c r="L75" s="15"/>
+      <c r="M75" s="15"/>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
@@ -2297,36 +2297,36 @@
       <c r="I76" s="5">
         <v>0.1348</v>
       </c>
-      <c r="J76" s="12" t="s">
+      <c r="J76" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="K76" s="12"/>
-      <c r="L76" s="12"/>
-      <c r="M76" s="12"/>
-      <c r="N76" s="12"/>
-      <c r="O76" s="12"/>
-      <c r="P76" s="12"/>
-      <c r="Q76" s="12"/>
+      <c r="K76" s="15"/>
+      <c r="L76" s="15"/>
+      <c r="M76" s="15"/>
+      <c r="N76" s="15"/>
+      <c r="O76" s="15"/>
+      <c r="P76" s="15"/>
+      <c r="Q76" s="15"/>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="J77" s="12"/>
-      <c r="K77" s="12"/>
-      <c r="L77" s="12"/>
-      <c r="M77" s="12"/>
-      <c r="N77" s="12"/>
-      <c r="O77" s="12"/>
-      <c r="P77" s="12"/>
-      <c r="Q77" s="12"/>
+      <c r="J77" s="15"/>
+      <c r="K77" s="15"/>
+      <c r="L77" s="15"/>
+      <c r="M77" s="15"/>
+      <c r="N77" s="15"/>
+      <c r="O77" s="15"/>
+      <c r="P77" s="15"/>
+      <c r="Q77" s="15"/>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="J78" s="12"/>
-      <c r="K78" s="12"/>
-      <c r="L78" s="12"/>
-      <c r="M78" s="12"/>
-      <c r="N78" s="12"/>
-      <c r="O78" s="12"/>
-      <c r="P78" s="12"/>
-      <c r="Q78" s="12"/>
+      <c r="J78" s="15"/>
+      <c r="K78" s="15"/>
+      <c r="L78" s="15"/>
+      <c r="M78" s="15"/>
+      <c r="N78" s="15"/>
+      <c r="O78" s="15"/>
+      <c r="P78" s="15"/>
+      <c r="Q78" s="15"/>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
@@ -2572,13 +2572,13 @@
       <c r="I85" s="2">
         <v>0.1361</v>
       </c>
-      <c r="J85" s="12" t="s">
+      <c r="J85" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="K85" s="12"/>
-      <c r="L85" s="12"/>
-      <c r="M85" s="12"/>
-      <c r="N85" s="12"/>
+      <c r="K85" s="15"/>
+      <c r="L85" s="15"/>
+      <c r="M85" s="15"/>
+      <c r="N85" s="15"/>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
@@ -2608,13 +2608,13 @@
       <c r="I86" s="5">
         <v>0.13070000000000001</v>
       </c>
-      <c r="J86" s="12" t="s">
+      <c r="J86" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="K86" s="12"/>
-      <c r="L86" s="12"/>
-      <c r="M86" s="12"/>
-      <c r="N86" s="12"/>
+      <c r="K86" s="15"/>
+      <c r="L86" s="15"/>
+      <c r="M86" s="15"/>
+      <c r="N86" s="15"/>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
@@ -2644,13 +2644,13 @@
       <c r="I87" s="2">
         <v>0.1361</v>
       </c>
-      <c r="J87" s="12" t="s">
+      <c r="J87" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="K87" s="12"/>
-      <c r="L87" s="12"/>
-      <c r="M87" s="12"/>
-      <c r="N87" s="12"/>
+      <c r="K87" s="15"/>
+      <c r="L87" s="15"/>
+      <c r="M87" s="15"/>
+      <c r="N87" s="15"/>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
@@ -2680,13 +2680,13 @@
       <c r="I88" s="2">
         <v>0.13589999999999999</v>
       </c>
-      <c r="J88" s="12" t="s">
+      <c r="J88" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="K88" s="12"/>
-      <c r="L88" s="12"/>
-      <c r="M88" s="12"/>
-      <c r="N88" s="12"/>
+      <c r="K88" s="15"/>
+      <c r="L88" s="15"/>
+      <c r="M88" s="15"/>
+      <c r="N88" s="15"/>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
@@ -3017,9 +3017,9 @@
       <c r="L97" s="11"/>
       <c r="M97" s="11"/>
       <c r="N97" s="11"/>
-      <c r="O97" s="14"/>
-      <c r="P97" s="14"/>
-      <c r="Q97" s="14"/>
+      <c r="O97" s="12"/>
+      <c r="P97" s="12"/>
+      <c r="Q97" s="12"/>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
@@ -3056,9 +3056,9 @@
       <c r="L98" s="11"/>
       <c r="M98" s="11"/>
       <c r="N98" s="11"/>
-      <c r="O98" s="14"/>
-      <c r="P98" s="14"/>
-      <c r="Q98" s="14"/>
+      <c r="O98" s="12"/>
+      <c r="P98" s="12"/>
+      <c r="Q98" s="12"/>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
@@ -3095,9 +3095,9 @@
       <c r="L99" s="11"/>
       <c r="M99" s="11"/>
       <c r="N99" s="11"/>
-      <c r="O99" s="14"/>
-      <c r="P99" s="14"/>
-      <c r="Q99" s="14"/>
+      <c r="O99" s="12"/>
+      <c r="P99" s="12"/>
+      <c r="Q99" s="12"/>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
@@ -3134,10 +3134,10 @@
       <c r="L100" s="11"/>
       <c r="M100" s="11"/>
       <c r="N100" s="11"/>
-      <c r="O100" s="14"/>
-      <c r="P100" s="14"/>
-      <c r="Q100" s="14"/>
-      <c r="R100" s="14"/>
+      <c r="O100" s="12"/>
+      <c r="P100" s="12"/>
+      <c r="Q100" s="12"/>
+      <c r="R100" s="12"/>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101" s="8">
@@ -3168,9 +3168,9 @@
       <c r="L101" s="13"/>
       <c r="M101" s="13"/>
       <c r="N101" s="13"/>
-      <c r="O101" s="16"/>
-      <c r="P101" s="16"/>
-      <c r="Q101" s="16"/>
+      <c r="O101" s="14"/>
+      <c r="P101" s="14"/>
+      <c r="Q101" s="14"/>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
@@ -3207,9 +3207,9 @@
       <c r="L102" s="11"/>
       <c r="M102" s="11"/>
       <c r="N102" s="11"/>
-      <c r="O102" s="14"/>
-      <c r="P102" s="14"/>
-      <c r="Q102" s="14"/>
+      <c r="O102" s="12"/>
+      <c r="P102" s="12"/>
+      <c r="Q102" s="12"/>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A103" s="8">
@@ -3240,9 +3240,9 @@
       <c r="L103" s="13"/>
       <c r="M103" s="13"/>
       <c r="N103" s="13"/>
-      <c r="O103" s="16"/>
-      <c r="P103" s="16"/>
-      <c r="Q103" s="16"/>
+      <c r="O103" s="14"/>
+      <c r="P103" s="14"/>
+      <c r="Q103" s="14"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
@@ -3279,9 +3279,9 @@
       <c r="L104" s="11"/>
       <c r="M104" s="11"/>
       <c r="N104" s="11"/>
-      <c r="O104" s="14"/>
-      <c r="P104" s="14"/>
-      <c r="Q104" s="14"/>
+      <c r="O104" s="12"/>
+      <c r="P104" s="12"/>
+      <c r="Q104" s="12"/>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
@@ -3318,9 +3318,9 @@
       <c r="L105" s="11"/>
       <c r="M105" s="11"/>
       <c r="N105" s="11"/>
-      <c r="O105" s="14"/>
-      <c r="P105" s="14"/>
-      <c r="Q105" s="14"/>
+      <c r="O105" s="12"/>
+      <c r="P105" s="12"/>
+      <c r="Q105" s="12"/>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
@@ -3357,9 +3357,9 @@
       <c r="L106" s="11"/>
       <c r="M106" s="11"/>
       <c r="N106" s="11"/>
-      <c r="O106" s="14"/>
-      <c r="P106" s="14"/>
-      <c r="Q106" s="14"/>
+      <c r="O106" s="12"/>
+      <c r="P106" s="12"/>
+      <c r="Q106" s="12"/>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A107" s="8">
@@ -3390,9 +3390,9 @@
       <c r="L107" s="13"/>
       <c r="M107" s="13"/>
       <c r="N107" s="13"/>
-      <c r="O107" s="16"/>
-      <c r="P107" s="16"/>
-      <c r="Q107" s="16"/>
+      <c r="O107" s="14"/>
+      <c r="P107" s="14"/>
+      <c r="Q107" s="14"/>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
@@ -3420,9 +3420,9 @@
       <c r="L108" s="11"/>
       <c r="M108" s="11"/>
       <c r="N108" s="11"/>
-      <c r="O108" s="14"/>
-      <c r="P108" s="14"/>
-      <c r="Q108" s="14"/>
+      <c r="O108" s="12"/>
+      <c r="P108" s="12"/>
+      <c r="Q108" s="12"/>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
@@ -3459,9 +3459,9 @@
       <c r="L109" s="11"/>
       <c r="M109" s="11"/>
       <c r="N109" s="11"/>
-      <c r="O109" s="14"/>
-      <c r="P109" s="14"/>
-      <c r="Q109" s="14"/>
+      <c r="O109" s="12"/>
+      <c r="P109" s="12"/>
+      <c r="Q109" s="12"/>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
@@ -3498,9 +3498,9 @@
       <c r="L110" s="11"/>
       <c r="M110" s="11"/>
       <c r="N110" s="11"/>
-      <c r="O110" s="14"/>
-      <c r="P110" s="14"/>
-      <c r="Q110" s="14"/>
+      <c r="O110" s="12"/>
+      <c r="P110" s="12"/>
+      <c r="Q110" s="12"/>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
@@ -3537,9 +3537,9 @@
       <c r="L111" s="11"/>
       <c r="M111" s="11"/>
       <c r="N111" s="11"/>
-      <c r="O111" s="14"/>
-      <c r="P111" s="14"/>
-      <c r="Q111" s="14"/>
+      <c r="O111" s="12"/>
+      <c r="P111" s="12"/>
+      <c r="Q111" s="12"/>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
@@ -3567,9 +3567,9 @@
       <c r="L112" s="11"/>
       <c r="M112" s="11"/>
       <c r="N112" s="11"/>
-      <c r="O112" s="14"/>
-      <c r="P112" s="14"/>
-      <c r="Q112" s="14"/>
+      <c r="O112" s="12"/>
+      <c r="P112" s="12"/>
+      <c r="Q112" s="12"/>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
@@ -3606,9 +3606,9 @@
       <c r="L113" s="11"/>
       <c r="M113" s="11"/>
       <c r="N113" s="11"/>
-      <c r="O113" s="14"/>
-      <c r="P113" s="14"/>
-      <c r="Q113" s="14"/>
+      <c r="O113" s="12"/>
+      <c r="P113" s="12"/>
+      <c r="Q113" s="12"/>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
@@ -3645,9 +3645,9 @@
       <c r="L114" s="11"/>
       <c r="M114" s="11"/>
       <c r="N114" s="11"/>
-      <c r="O114" s="14"/>
-      <c r="P114" s="14"/>
-      <c r="Q114" s="14"/>
+      <c r="O114" s="12"/>
+      <c r="P114" s="12"/>
+      <c r="Q114" s="12"/>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
@@ -3675,9 +3675,9 @@
       <c r="L115" s="11"/>
       <c r="M115" s="11"/>
       <c r="N115" s="11"/>
-      <c r="O115" s="14"/>
-      <c r="P115" s="14"/>
-      <c r="Q115" s="14"/>
+      <c r="O115" s="12"/>
+      <c r="P115" s="12"/>
+      <c r="Q115" s="12"/>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
@@ -3714,9 +3714,9 @@
       <c r="L116" s="11"/>
       <c r="M116" s="11"/>
       <c r="N116" s="11"/>
-      <c r="O116" s="14"/>
-      <c r="P116" s="14"/>
-      <c r="Q116" s="14"/>
+      <c r="O116" s="12"/>
+      <c r="P116" s="12"/>
+      <c r="Q116" s="12"/>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
@@ -3753,9 +3753,9 @@
       <c r="L117" s="11"/>
       <c r="M117" s="11"/>
       <c r="N117" s="11"/>
-      <c r="O117" s="14"/>
-      <c r="P117" s="14"/>
-      <c r="Q117" s="14"/>
+      <c r="O117" s="12"/>
+      <c r="P117" s="12"/>
+      <c r="Q117" s="12"/>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A118" s="8">
@@ -3786,9 +3786,9 @@
       <c r="L118" s="13"/>
       <c r="M118" s="13"/>
       <c r="N118" s="13"/>
-      <c r="O118" s="16"/>
-      <c r="P118" s="16"/>
-      <c r="Q118" s="16"/>
+      <c r="O118" s="14"/>
+      <c r="P118" s="14"/>
+      <c r="Q118" s="14"/>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
@@ -4013,7 +4013,7 @@
       <c r="O124" s="11"/>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A125" s="1">
+      <c r="A125" s="4">
         <v>61</v>
       </c>
       <c r="B125" s="1" t="s">
@@ -4030,6 +4030,15 @@
       </c>
       <c r="F125" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="G125" s="4">
+        <v>18.98</v>
+      </c>
+      <c r="H125" s="4">
+        <v>30.47</v>
+      </c>
+      <c r="I125" s="5">
+        <v>0.1288</v>
       </c>
       <c r="J125" s="11" t="s">
         <v>97</v>
@@ -4040,8 +4049,87 @@
       <c r="N125" s="11"/>
       <c r="O125" s="11"/>
     </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <v>62</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="75">
+    <mergeCell ref="J93:N93"/>
+    <mergeCell ref="J84:N84"/>
+    <mergeCell ref="J65:V65"/>
+    <mergeCell ref="J47:O47"/>
+    <mergeCell ref="J124:O124"/>
+    <mergeCell ref="J122:O122"/>
+    <mergeCell ref="J123:O123"/>
+    <mergeCell ref="J66:V66"/>
+    <mergeCell ref="J67:V67"/>
+    <mergeCell ref="J71:V71"/>
+    <mergeCell ref="J76:Q78"/>
+    <mergeCell ref="J94:N94"/>
+    <mergeCell ref="J81:N81"/>
+    <mergeCell ref="J74:M74"/>
+    <mergeCell ref="J73:M73"/>
+    <mergeCell ref="J86:N86"/>
+    <mergeCell ref="J90:N90"/>
+    <mergeCell ref="J91:N91"/>
+    <mergeCell ref="J24:V24"/>
+    <mergeCell ref="J25:V25"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="J38:O38"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="J9:V9"/>
+    <mergeCell ref="J10:V10"/>
+    <mergeCell ref="J18:V18"/>
+    <mergeCell ref="J11:V11"/>
+    <mergeCell ref="J19:V19"/>
+    <mergeCell ref="J12:V12"/>
+    <mergeCell ref="J51:O51"/>
+    <mergeCell ref="J50:O50"/>
+    <mergeCell ref="J49:O49"/>
+    <mergeCell ref="J48:O48"/>
+    <mergeCell ref="O62:S62"/>
+    <mergeCell ref="J52:O52"/>
+    <mergeCell ref="J82:N82"/>
+    <mergeCell ref="J92:N92"/>
+    <mergeCell ref="J85:N85"/>
+    <mergeCell ref="J87:N87"/>
+    <mergeCell ref="J88:N88"/>
+    <mergeCell ref="J83:N83"/>
+    <mergeCell ref="J80:N80"/>
+    <mergeCell ref="J79:N79"/>
+    <mergeCell ref="J89:N89"/>
+    <mergeCell ref="J75:M75"/>
+    <mergeCell ref="J107:Q107"/>
+    <mergeCell ref="J106:Q106"/>
+    <mergeCell ref="J105:Q105"/>
+    <mergeCell ref="J95:N95"/>
+    <mergeCell ref="J99:Q99"/>
+    <mergeCell ref="J98:Q98"/>
+    <mergeCell ref="J96:N96"/>
+    <mergeCell ref="J97:Q97"/>
+    <mergeCell ref="J100:R100"/>
+    <mergeCell ref="J101:Q101"/>
+    <mergeCell ref="J102:Q102"/>
+    <mergeCell ref="J103:Q103"/>
     <mergeCell ref="J125:O125"/>
     <mergeCell ref="J104:Q104"/>
     <mergeCell ref="J121:O121"/>
@@ -4058,65 +4146,6 @@
     <mergeCell ref="J116:Q116"/>
     <mergeCell ref="J119:O119"/>
     <mergeCell ref="J120:O120"/>
-    <mergeCell ref="J80:N80"/>
-    <mergeCell ref="J79:N79"/>
-    <mergeCell ref="J89:N89"/>
-    <mergeCell ref="J75:M75"/>
-    <mergeCell ref="J107:Q107"/>
-    <mergeCell ref="J106:Q106"/>
-    <mergeCell ref="J105:Q105"/>
-    <mergeCell ref="J95:N95"/>
-    <mergeCell ref="J99:Q99"/>
-    <mergeCell ref="J98:Q98"/>
-    <mergeCell ref="J96:N96"/>
-    <mergeCell ref="J97:Q97"/>
-    <mergeCell ref="J100:R100"/>
-    <mergeCell ref="J101:Q101"/>
-    <mergeCell ref="J102:Q102"/>
-    <mergeCell ref="J103:Q103"/>
-    <mergeCell ref="J82:N82"/>
-    <mergeCell ref="J92:N92"/>
-    <mergeCell ref="J85:N85"/>
-    <mergeCell ref="J87:N87"/>
-    <mergeCell ref="J88:N88"/>
-    <mergeCell ref="J51:O51"/>
-    <mergeCell ref="J50:O50"/>
-    <mergeCell ref="J49:O49"/>
-    <mergeCell ref="J48:O48"/>
-    <mergeCell ref="O62:S62"/>
-    <mergeCell ref="J52:O52"/>
-    <mergeCell ref="J83:N83"/>
-    <mergeCell ref="J9:V9"/>
-    <mergeCell ref="J10:V10"/>
-    <mergeCell ref="J18:V18"/>
-    <mergeCell ref="J11:V11"/>
-    <mergeCell ref="J19:V19"/>
-    <mergeCell ref="J12:V12"/>
-    <mergeCell ref="J24:V24"/>
-    <mergeCell ref="J25:V25"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="J38:O38"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="J44:M44"/>
-    <mergeCell ref="J65:V65"/>
-    <mergeCell ref="J47:O47"/>
-    <mergeCell ref="J124:O124"/>
-    <mergeCell ref="J122:O122"/>
-    <mergeCell ref="J123:O123"/>
-    <mergeCell ref="J66:V66"/>
-    <mergeCell ref="J67:V67"/>
-    <mergeCell ref="J71:V71"/>
-    <mergeCell ref="J76:Q78"/>
-    <mergeCell ref="J94:N94"/>
-    <mergeCell ref="J81:N81"/>
-    <mergeCell ref="J74:M74"/>
-    <mergeCell ref="J73:M73"/>
-    <mergeCell ref="J86:N86"/>
-    <mergeCell ref="J90:N90"/>
-    <mergeCell ref="J91:N91"/>
-    <mergeCell ref="J93:N93"/>
-    <mergeCell ref="J84:N84"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF157495-EB54-4B50-8781-EF857795244A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA19820-1099-4E0B-A82A-B5F618694962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12090" yWindow="1920" windowWidth="22665" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="104">
   <si>
     <t>ST-SSL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -414,7 +414,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>60-&gt;61加入语义矩阵和ODE</t>
+    <t>60-&gt;62加入语义矩阵，空间矩阵和ODE，去除空间注意力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60-&gt;63加入语义矩阵，空间矩阵和ODE，不去除空间注意力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56-&gt;64引入STAEFormer，引入ODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tod,dow/ 自适应嵌入矩阵/注意力/SSTBAN多任务学习分支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60-&gt;61 82权重加入语义矩阵和ODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w/o A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w/o B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -495,7 +519,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -531,19 +555,22 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -825,10 +852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:V126"/>
+  <dimension ref="A3:V130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="J128" sqref="J128"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="J118" sqref="J118:Q118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -962,21 +989,21 @@
       <c r="I9" s="2">
         <v>0.1225</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -1006,21 +1033,21 @@
       <c r="I10" s="2">
         <v>0.1226</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -1050,21 +1077,21 @@
       <c r="I11" s="2">
         <v>0.12</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -1094,21 +1121,21 @@
       <c r="I12" s="2">
         <v>0.1323</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -1196,21 +1223,21 @@
       <c r="I18" s="2">
         <v>0.16550000000000001</v>
       </c>
-      <c r="J18" s="11" t="s">
+      <c r="J18" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
@@ -1240,21 +1267,21 @@
       <c r="I19" s="2">
         <v>0.1507</v>
       </c>
-      <c r="J19" s="11" t="s">
+      <c r="J19" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
@@ -1275,21 +1302,21 @@
       <c r="F24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J24" s="11" t="s">
+      <c r="J24" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="11"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -1310,21 +1337,21 @@
       <c r="F25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J25" s="11" t="s">
+      <c r="J25" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
-      <c r="U25" s="11"/>
-      <c r="V25" s="11"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
@@ -1412,12 +1439,12 @@
       <c r="I37" s="2">
         <v>0.13450000000000001</v>
       </c>
-      <c r="J37" s="11" t="s">
+      <c r="J37" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
@@ -1447,14 +1474,14 @@
       <c r="I38" s="2">
         <v>0.1394</v>
       </c>
-      <c r="J38" s="11" t="s">
+      <c r="J38" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="15"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
@@ -1542,12 +1569,12 @@
       <c r="I44" s="2">
         <v>0.1235</v>
       </c>
-      <c r="J44" s="15" t="s">
+      <c r="J44" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="K44" s="15"/>
-      <c r="L44" s="15"/>
-      <c r="M44" s="15"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
@@ -1577,12 +1604,12 @@
       <c r="I45" s="2">
         <v>0.1234</v>
       </c>
-      <c r="J45" s="11" t="s">
+      <c r="J45" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="K45" s="11"/>
-      <c r="L45" s="11"/>
-      <c r="M45" s="11"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
@@ -1612,12 +1639,12 @@
       <c r="I46" s="2">
         <v>0.1249</v>
       </c>
-      <c r="J46" s="15" t="s">
+      <c r="J46" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="K46" s="15"/>
-      <c r="L46" s="15"/>
-      <c r="M46" s="15"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="13"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
@@ -1644,14 +1671,14 @@
       <c r="I47" s="2">
         <v>0.12280000000000001</v>
       </c>
-      <c r="J47" s="11" t="s">
+      <c r="J47" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="K47" s="11"/>
-      <c r="L47" s="11"/>
-      <c r="M47" s="11"/>
-      <c r="N47" s="11"/>
-      <c r="O47" s="11"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
@@ -1681,14 +1708,14 @@
       <c r="I48" s="2">
         <v>0.1222</v>
       </c>
-      <c r="J48" s="11" t="s">
+      <c r="J48" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="K48" s="11"/>
-      <c r="L48" s="11"/>
-      <c r="M48" s="11"/>
-      <c r="N48" s="11"/>
-      <c r="O48" s="11"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="12"/>
+      <c r="O48" s="12"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
@@ -1718,14 +1745,14 @@
       <c r="I49" s="2">
         <v>0.1234</v>
       </c>
-      <c r="J49" s="11" t="s">
+      <c r="J49" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="K49" s="11"/>
-      <c r="L49" s="11"/>
-      <c r="M49" s="11"/>
-      <c r="N49" s="11"/>
-      <c r="O49" s="11"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="12"/>
+      <c r="O49" s="12"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
@@ -1755,14 +1782,14 @@
       <c r="I50" s="2">
         <v>0.1263</v>
       </c>
-      <c r="J50" s="11" t="s">
+      <c r="J50" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="K50" s="11"/>
-      <c r="L50" s="11"/>
-      <c r="M50" s="11"/>
-      <c r="N50" s="11"/>
-      <c r="O50" s="11"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="12"/>
+      <c r="O50" s="12"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
@@ -1792,14 +1819,14 @@
       <c r="I51" s="2">
         <v>0.1232</v>
       </c>
-      <c r="J51" s="11" t="s">
+      <c r="J51" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="K51" s="11"/>
-      <c r="L51" s="11"/>
-      <c r="M51" s="11"/>
-      <c r="N51" s="11"/>
-      <c r="O51" s="11"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="12"/>
+      <c r="O51" s="12"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
@@ -1820,14 +1847,14 @@
       <c r="F52" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J52" s="11" t="s">
+      <c r="J52" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="K52" s="11"/>
-      <c r="L52" s="11"/>
-      <c r="M52" s="11"/>
-      <c r="N52" s="11"/>
-      <c r="O52" s="11"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="12"/>
+      <c r="O52" s="12"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
@@ -2001,21 +2028,21 @@
       <c r="I65" s="2">
         <v>0.15129999999999999</v>
       </c>
-      <c r="J65" s="11" t="s">
+      <c r="J65" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="K65" s="11"/>
-      <c r="L65" s="11"/>
-      <c r="M65" s="11"/>
-      <c r="N65" s="11"/>
-      <c r="O65" s="11"/>
-      <c r="P65" s="11"/>
-      <c r="Q65" s="11"/>
-      <c r="R65" s="11"/>
-      <c r="S65" s="11"/>
-      <c r="T65" s="11"/>
-      <c r="U65" s="11"/>
-      <c r="V65" s="11"/>
+      <c r="K65" s="12"/>
+      <c r="L65" s="12"/>
+      <c r="M65" s="12"/>
+      <c r="N65" s="12"/>
+      <c r="O65" s="12"/>
+      <c r="P65" s="12"/>
+      <c r="Q65" s="12"/>
+      <c r="R65" s="12"/>
+      <c r="S65" s="12"/>
+      <c r="T65" s="12"/>
+      <c r="U65" s="12"/>
+      <c r="V65" s="12"/>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
@@ -2045,21 +2072,21 @@
       <c r="I66" s="2">
         <v>0.14929999999999999</v>
       </c>
-      <c r="J66" s="11" t="s">
+      <c r="J66" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="K66" s="11"/>
-      <c r="L66" s="11"/>
-      <c r="M66" s="11"/>
-      <c r="N66" s="11"/>
-      <c r="O66" s="11"/>
-      <c r="P66" s="11"/>
-      <c r="Q66" s="11"/>
-      <c r="R66" s="11"/>
-      <c r="S66" s="11"/>
-      <c r="T66" s="11"/>
-      <c r="U66" s="11"/>
-      <c r="V66" s="11"/>
+      <c r="K66" s="12"/>
+      <c r="L66" s="12"/>
+      <c r="M66" s="12"/>
+      <c r="N66" s="12"/>
+      <c r="O66" s="12"/>
+      <c r="P66" s="12"/>
+      <c r="Q66" s="12"/>
+      <c r="R66" s="12"/>
+      <c r="S66" s="12"/>
+      <c r="T66" s="12"/>
+      <c r="U66" s="12"/>
+      <c r="V66" s="12"/>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
@@ -2089,21 +2116,21 @@
       <c r="I67" s="5">
         <v>0.13739999999999999</v>
       </c>
-      <c r="J67" s="11" t="s">
+      <c r="J67" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="K67" s="11"/>
-      <c r="L67" s="11"/>
-      <c r="M67" s="11"/>
-      <c r="N67" s="11"/>
-      <c r="O67" s="11"/>
-      <c r="P67" s="11"/>
-      <c r="Q67" s="11"/>
-      <c r="R67" s="11"/>
-      <c r="S67" s="11"/>
-      <c r="T67" s="11"/>
-      <c r="U67" s="11"/>
-      <c r="V67" s="11"/>
+      <c r="K67" s="12"/>
+      <c r="L67" s="12"/>
+      <c r="M67" s="12"/>
+      <c r="N67" s="12"/>
+      <c r="O67" s="12"/>
+      <c r="P67" s="12"/>
+      <c r="Q67" s="12"/>
+      <c r="R67" s="12"/>
+      <c r="S67" s="12"/>
+      <c r="T67" s="12"/>
+      <c r="U67" s="12"/>
+      <c r="V67" s="12"/>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" s="6"/>
@@ -2145,21 +2172,21 @@
       <c r="I71" s="2">
         <v>0.14280000000000001</v>
       </c>
-      <c r="J71" s="11" t="s">
+      <c r="J71" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K71" s="11"/>
-      <c r="L71" s="11"/>
-      <c r="M71" s="11"/>
-      <c r="N71" s="11"/>
-      <c r="O71" s="11"/>
-      <c r="P71" s="11"/>
-      <c r="Q71" s="11"/>
-      <c r="R71" s="11"/>
-      <c r="S71" s="11"/>
-      <c r="T71" s="11"/>
-      <c r="U71" s="11"/>
-      <c r="V71" s="11"/>
+      <c r="K71" s="12"/>
+      <c r="L71" s="12"/>
+      <c r="M71" s="12"/>
+      <c r="N71" s="12"/>
+      <c r="O71" s="12"/>
+      <c r="P71" s="12"/>
+      <c r="Q71" s="12"/>
+      <c r="R71" s="12"/>
+      <c r="S71" s="12"/>
+      <c r="T71" s="12"/>
+      <c r="U71" s="12"/>
+      <c r="V71" s="12"/>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" s="7"/>
@@ -2201,12 +2228,12 @@
       <c r="I73" s="5">
         <v>0.13669999999999999</v>
       </c>
-      <c r="J73" s="15" t="s">
+      <c r="J73" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="K73" s="15"/>
-      <c r="L73" s="15"/>
-      <c r="M73" s="15"/>
+      <c r="K73" s="13"/>
+      <c r="L73" s="13"/>
+      <c r="M73" s="13"/>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
@@ -2227,12 +2254,12 @@
       <c r="F74" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J74" s="15" t="s">
+      <c r="J74" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="K74" s="15"/>
-      <c r="L74" s="15"/>
-      <c r="M74" s="15"/>
+      <c r="K74" s="13"/>
+      <c r="L74" s="13"/>
+      <c r="M74" s="13"/>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
@@ -2262,12 +2289,12 @@
       <c r="I75" s="2">
         <v>0.13780000000000001</v>
       </c>
-      <c r="J75" s="15" t="s">
+      <c r="J75" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="K75" s="15"/>
-      <c r="L75" s="15"/>
-      <c r="M75" s="15"/>
+      <c r="K75" s="13"/>
+      <c r="L75" s="13"/>
+      <c r="M75" s="13"/>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
@@ -2297,36 +2324,36 @@
       <c r="I76" s="5">
         <v>0.1348</v>
       </c>
-      <c r="J76" s="15" t="s">
+      <c r="J76" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="K76" s="15"/>
-      <c r="L76" s="15"/>
-      <c r="M76" s="15"/>
-      <c r="N76" s="15"/>
-      <c r="O76" s="15"/>
-      <c r="P76" s="15"/>
-      <c r="Q76" s="15"/>
+      <c r="K76" s="13"/>
+      <c r="L76" s="13"/>
+      <c r="M76" s="13"/>
+      <c r="N76" s="13"/>
+      <c r="O76" s="13"/>
+      <c r="P76" s="13"/>
+      <c r="Q76" s="13"/>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="J77" s="15"/>
-      <c r="K77" s="15"/>
-      <c r="L77" s="15"/>
-      <c r="M77" s="15"/>
-      <c r="N77" s="15"/>
-      <c r="O77" s="15"/>
-      <c r="P77" s="15"/>
-      <c r="Q77" s="15"/>
+      <c r="J77" s="13"/>
+      <c r="K77" s="13"/>
+      <c r="L77" s="13"/>
+      <c r="M77" s="13"/>
+      <c r="N77" s="13"/>
+      <c r="O77" s="13"/>
+      <c r="P77" s="13"/>
+      <c r="Q77" s="13"/>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="J78" s="15"/>
-      <c r="K78" s="15"/>
-      <c r="L78" s="15"/>
-      <c r="M78" s="15"/>
-      <c r="N78" s="15"/>
-      <c r="O78" s="15"/>
-      <c r="P78" s="15"/>
-      <c r="Q78" s="15"/>
+      <c r="J78" s="13"/>
+      <c r="K78" s="13"/>
+      <c r="L78" s="13"/>
+      <c r="M78" s="13"/>
+      <c r="N78" s="13"/>
+      <c r="O78" s="13"/>
+      <c r="P78" s="13"/>
+      <c r="Q78" s="13"/>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
@@ -2356,13 +2383,13 @@
       <c r="I79" s="2">
         <v>0.13689999999999999</v>
       </c>
-      <c r="J79" s="11" t="s">
+      <c r="J79" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="K79" s="11"/>
-      <c r="L79" s="11"/>
-      <c r="M79" s="11"/>
-      <c r="N79" s="11"/>
+      <c r="K79" s="12"/>
+      <c r="L79" s="12"/>
+      <c r="M79" s="12"/>
+      <c r="N79" s="12"/>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
@@ -2392,13 +2419,13 @@
       <c r="I80" s="2">
         <v>0.14749999999999999</v>
       </c>
-      <c r="J80" s="11" t="s">
+      <c r="J80" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="K80" s="11"/>
-      <c r="L80" s="11"/>
-      <c r="M80" s="11"/>
-      <c r="N80" s="11"/>
+      <c r="K80" s="12"/>
+      <c r="L80" s="12"/>
+      <c r="M80" s="12"/>
+      <c r="N80" s="12"/>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
@@ -2428,13 +2455,13 @@
       <c r="I81" s="2">
         <v>0.20910000000000001</v>
       </c>
-      <c r="J81" s="11" t="s">
+      <c r="J81" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="K81" s="11"/>
-      <c r="L81" s="11"/>
-      <c r="M81" s="11"/>
-      <c r="N81" s="11"/>
+      <c r="K81" s="12"/>
+      <c r="L81" s="12"/>
+      <c r="M81" s="12"/>
+      <c r="N81" s="12"/>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
@@ -2464,13 +2491,13 @@
       <c r="I82" s="2">
         <v>0.1336</v>
       </c>
-      <c r="J82" s="11" t="s">
+      <c r="J82" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="K82" s="11"/>
-      <c r="L82" s="11"/>
-      <c r="M82" s="11"/>
-      <c r="N82" s="11"/>
+      <c r="K82" s="12"/>
+      <c r="L82" s="12"/>
+      <c r="M82" s="12"/>
+      <c r="N82" s="12"/>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
@@ -2500,13 +2527,13 @@
       <c r="I83" s="2">
         <v>0.1326</v>
       </c>
-      <c r="J83" s="11" t="s">
+      <c r="J83" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="K83" s="11"/>
-      <c r="L83" s="11"/>
-      <c r="M83" s="11"/>
-      <c r="N83" s="11"/>
+      <c r="K83" s="12"/>
+      <c r="L83" s="12"/>
+      <c r="M83" s="12"/>
+      <c r="N83" s="12"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
@@ -2536,13 +2563,13 @@
       <c r="I84" s="2">
         <v>0.13400000000000001</v>
       </c>
-      <c r="J84" s="11" t="s">
+      <c r="J84" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="K84" s="11"/>
-      <c r="L84" s="11"/>
-      <c r="M84" s="11"/>
-      <c r="N84" s="11"/>
+      <c r="K84" s="12"/>
+      <c r="L84" s="12"/>
+      <c r="M84" s="12"/>
+      <c r="N84" s="12"/>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
@@ -2572,13 +2599,13 @@
       <c r="I85" s="2">
         <v>0.1361</v>
       </c>
-      <c r="J85" s="15" t="s">
+      <c r="J85" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="K85" s="15"/>
-      <c r="L85" s="15"/>
-      <c r="M85" s="15"/>
-      <c r="N85" s="15"/>
+      <c r="K85" s="13"/>
+      <c r="L85" s="13"/>
+      <c r="M85" s="13"/>
+      <c r="N85" s="13"/>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
@@ -2608,13 +2635,13 @@
       <c r="I86" s="5">
         <v>0.13070000000000001</v>
       </c>
-      <c r="J86" s="15" t="s">
+      <c r="J86" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="K86" s="15"/>
-      <c r="L86" s="15"/>
-      <c r="M86" s="15"/>
-      <c r="N86" s="15"/>
+      <c r="K86" s="13"/>
+      <c r="L86" s="13"/>
+      <c r="M86" s="13"/>
+      <c r="N86" s="13"/>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
@@ -2644,13 +2671,13 @@
       <c r="I87" s="2">
         <v>0.1361</v>
       </c>
-      <c r="J87" s="15" t="s">
+      <c r="J87" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="K87" s="15"/>
-      <c r="L87" s="15"/>
-      <c r="M87" s="15"/>
-      <c r="N87" s="15"/>
+      <c r="K87" s="13"/>
+      <c r="L87" s="13"/>
+      <c r="M87" s="13"/>
+      <c r="N87" s="13"/>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
@@ -2680,13 +2707,13 @@
       <c r="I88" s="2">
         <v>0.13589999999999999</v>
       </c>
-      <c r="J88" s="15" t="s">
+      <c r="J88" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="K88" s="15"/>
-      <c r="L88" s="15"/>
-      <c r="M88" s="15"/>
-      <c r="N88" s="15"/>
+      <c r="K88" s="13"/>
+      <c r="L88" s="13"/>
+      <c r="M88" s="13"/>
+      <c r="N88" s="13"/>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
@@ -2716,13 +2743,13 @@
       <c r="I89" s="2">
         <v>0.1439</v>
       </c>
-      <c r="J89" s="11" t="s">
+      <c r="J89" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="K89" s="11"/>
-      <c r="L89" s="11"/>
-      <c r="M89" s="11"/>
-      <c r="N89" s="11"/>
+      <c r="K89" s="12"/>
+      <c r="L89" s="12"/>
+      <c r="M89" s="12"/>
+      <c r="N89" s="12"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
@@ -2752,13 +2779,13 @@
       <c r="I90" s="2">
         <v>0.13850000000000001</v>
       </c>
-      <c r="J90" s="11" t="s">
+      <c r="J90" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="K90" s="11"/>
-      <c r="L90" s="11"/>
-      <c r="M90" s="11"/>
-      <c r="N90" s="11"/>
+      <c r="K90" s="12"/>
+      <c r="L90" s="12"/>
+      <c r="M90" s="12"/>
+      <c r="N90" s="12"/>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
@@ -2788,13 +2815,13 @@
       <c r="I91" s="2">
         <v>0.13289999999999999</v>
       </c>
-      <c r="J91" s="11" t="s">
+      <c r="J91" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="K91" s="11"/>
-      <c r="L91" s="11"/>
-      <c r="M91" s="11"/>
-      <c r="N91" s="11"/>
+      <c r="K91" s="12"/>
+      <c r="L91" s="12"/>
+      <c r="M91" s="12"/>
+      <c r="N91" s="12"/>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
@@ -2824,13 +2851,13 @@
       <c r="I92" s="5">
         <v>0.13070000000000001</v>
       </c>
-      <c r="J92" s="11" t="s">
+      <c r="J92" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="K92" s="11"/>
-      <c r="L92" s="11"/>
-      <c r="M92" s="11"/>
-      <c r="N92" s="11"/>
+      <c r="K92" s="12"/>
+      <c r="L92" s="12"/>
+      <c r="M92" s="12"/>
+      <c r="N92" s="12"/>
       <c r="O92" s="4">
         <v>19.309999999999999</v>
       </c>
@@ -2872,13 +2899,13 @@
       <c r="I93" s="2">
         <v>0.13589999999999999</v>
       </c>
-      <c r="J93" s="11" t="s">
+      <c r="J93" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="K93" s="11"/>
-      <c r="L93" s="11"/>
-      <c r="M93" s="11"/>
-      <c r="N93" s="11"/>
+      <c r="K93" s="12"/>
+      <c r="L93" s="12"/>
+      <c r="M93" s="12"/>
+      <c r="N93" s="12"/>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94" s="8">
@@ -2902,13 +2929,13 @@
       <c r="G94" s="9"/>
       <c r="H94" s="9"/>
       <c r="I94" s="10"/>
-      <c r="J94" s="13" t="s">
+      <c r="J94" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="K94" s="13"/>
-      <c r="L94" s="13"/>
-      <c r="M94" s="13"/>
-      <c r="N94" s="13"/>
+      <c r="K94" s="14"/>
+      <c r="L94" s="14"/>
+      <c r="M94" s="14"/>
+      <c r="N94" s="14"/>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
@@ -2938,13 +2965,13 @@
       <c r="I95" s="2">
         <v>0.14530000000000001</v>
       </c>
-      <c r="J95" s="11" t="s">
+      <c r="J95" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="K95" s="11"/>
-      <c r="L95" s="11"/>
-      <c r="M95" s="11"/>
-      <c r="N95" s="11"/>
+      <c r="K95" s="12"/>
+      <c r="L95" s="12"/>
+      <c r="M95" s="12"/>
+      <c r="N95" s="12"/>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
@@ -2974,13 +3001,13 @@
       <c r="I96" s="2">
         <v>0.13639999999999999</v>
       </c>
-      <c r="J96" s="11" t="s">
+      <c r="J96" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="K96" s="11"/>
-      <c r="L96" s="11"/>
-      <c r="M96" s="11"/>
-      <c r="N96" s="11"/>
+      <c r="K96" s="12"/>
+      <c r="L96" s="12"/>
+      <c r="M96" s="12"/>
+      <c r="N96" s="12"/>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
@@ -3010,16 +3037,16 @@
       <c r="I97" s="2">
         <v>0.1343</v>
       </c>
-      <c r="J97" s="11" t="s">
+      <c r="J97" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="K97" s="11"/>
-      <c r="L97" s="11"/>
-      <c r="M97" s="11"/>
-      <c r="N97" s="11"/>
-      <c r="O97" s="12"/>
-      <c r="P97" s="12"/>
-      <c r="Q97" s="12"/>
+      <c r="K97" s="12"/>
+      <c r="L97" s="12"/>
+      <c r="M97" s="12"/>
+      <c r="N97" s="12"/>
+      <c r="O97" s="15"/>
+      <c r="P97" s="15"/>
+      <c r="Q97" s="15"/>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
@@ -3049,16 +3076,16 @@
       <c r="I98" s="2">
         <v>0.1328</v>
       </c>
-      <c r="J98" s="11" t="s">
+      <c r="J98" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="K98" s="11"/>
-      <c r="L98" s="11"/>
-      <c r="M98" s="11"/>
-      <c r="N98" s="11"/>
-      <c r="O98" s="12"/>
-      <c r="P98" s="12"/>
-      <c r="Q98" s="12"/>
+      <c r="K98" s="12"/>
+      <c r="L98" s="12"/>
+      <c r="M98" s="12"/>
+      <c r="N98" s="12"/>
+      <c r="O98" s="15"/>
+      <c r="P98" s="15"/>
+      <c r="Q98" s="15"/>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
@@ -3088,16 +3115,16 @@
       <c r="I99" s="2">
         <v>0.1303</v>
       </c>
-      <c r="J99" s="11" t="s">
+      <c r="J99" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="K99" s="11"/>
-      <c r="L99" s="11"/>
-      <c r="M99" s="11"/>
-      <c r="N99" s="11"/>
-      <c r="O99" s="12"/>
-      <c r="P99" s="12"/>
-      <c r="Q99" s="12"/>
+      <c r="K99" s="12"/>
+      <c r="L99" s="12"/>
+      <c r="M99" s="12"/>
+      <c r="N99" s="12"/>
+      <c r="O99" s="15"/>
+      <c r="P99" s="15"/>
+      <c r="Q99" s="15"/>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
@@ -3127,17 +3154,17 @@
       <c r="I100" s="2">
         <v>0.13100000000000001</v>
       </c>
-      <c r="J100" s="11" t="s">
+      <c r="J100" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="K100" s="11"/>
-      <c r="L100" s="11"/>
-      <c r="M100" s="11"/>
-      <c r="N100" s="11"/>
-      <c r="O100" s="12"/>
-      <c r="P100" s="12"/>
-      <c r="Q100" s="12"/>
-      <c r="R100" s="12"/>
+      <c r="K100" s="12"/>
+      <c r="L100" s="12"/>
+      <c r="M100" s="12"/>
+      <c r="N100" s="12"/>
+      <c r="O100" s="15"/>
+      <c r="P100" s="15"/>
+      <c r="Q100" s="15"/>
+      <c r="R100" s="15"/>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101" s="8">
@@ -3161,16 +3188,16 @@
       <c r="G101" s="9"/>
       <c r="H101" s="9"/>
       <c r="I101" s="9"/>
-      <c r="J101" s="13" t="s">
+      <c r="J101" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="K101" s="13"/>
-      <c r="L101" s="13"/>
-      <c r="M101" s="13"/>
-      <c r="N101" s="13"/>
-      <c r="O101" s="14"/>
-      <c r="P101" s="14"/>
-      <c r="Q101" s="14"/>
+      <c r="K101" s="14"/>
+      <c r="L101" s="14"/>
+      <c r="M101" s="14"/>
+      <c r="N101" s="14"/>
+      <c r="O101" s="17"/>
+      <c r="P101" s="17"/>
+      <c r="Q101" s="17"/>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
@@ -3200,16 +3227,16 @@
       <c r="I102" s="2">
         <v>0.13800000000000001</v>
       </c>
-      <c r="J102" s="11" t="s">
+      <c r="J102" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="K102" s="11"/>
-      <c r="L102" s="11"/>
-      <c r="M102" s="11"/>
-      <c r="N102" s="11"/>
-      <c r="O102" s="12"/>
-      <c r="P102" s="12"/>
-      <c r="Q102" s="12"/>
+      <c r="K102" s="12"/>
+      <c r="L102" s="12"/>
+      <c r="M102" s="12"/>
+      <c r="N102" s="12"/>
+      <c r="O102" s="15"/>
+      <c r="P102" s="15"/>
+      <c r="Q102" s="15"/>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A103" s="8">
@@ -3233,16 +3260,16 @@
       <c r="G103" s="9"/>
       <c r="H103" s="9"/>
       <c r="I103" s="9"/>
-      <c r="J103" s="13" t="s">
+      <c r="J103" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="K103" s="13"/>
-      <c r="L103" s="13"/>
-      <c r="M103" s="13"/>
-      <c r="N103" s="13"/>
-      <c r="O103" s="14"/>
-      <c r="P103" s="14"/>
-      <c r="Q103" s="14"/>
+      <c r="K103" s="14"/>
+      <c r="L103" s="14"/>
+      <c r="M103" s="14"/>
+      <c r="N103" s="14"/>
+      <c r="O103" s="17"/>
+      <c r="P103" s="17"/>
+      <c r="Q103" s="17"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
@@ -3272,16 +3299,16 @@
       <c r="I104" s="2">
         <v>0.13650000000000001</v>
       </c>
-      <c r="J104" s="11" t="s">
+      <c r="J104" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="K104" s="11"/>
-      <c r="L104" s="11"/>
-      <c r="M104" s="11"/>
-      <c r="N104" s="11"/>
-      <c r="O104" s="12"/>
-      <c r="P104" s="12"/>
-      <c r="Q104" s="12"/>
+      <c r="K104" s="12"/>
+      <c r="L104" s="12"/>
+      <c r="M104" s="12"/>
+      <c r="N104" s="12"/>
+      <c r="O104" s="15"/>
+      <c r="P104" s="15"/>
+      <c r="Q104" s="15"/>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
@@ -3311,16 +3338,16 @@
       <c r="I105" s="2">
         <v>0.13239999999999999</v>
       </c>
-      <c r="J105" s="11" t="s">
+      <c r="J105" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="K105" s="11"/>
-      <c r="L105" s="11"/>
-      <c r="M105" s="11"/>
-      <c r="N105" s="11"/>
-      <c r="O105" s="12"/>
-      <c r="P105" s="12"/>
-      <c r="Q105" s="12"/>
+      <c r="K105" s="12"/>
+      <c r="L105" s="12"/>
+      <c r="M105" s="12"/>
+      <c r="N105" s="12"/>
+      <c r="O105" s="15"/>
+      <c r="P105" s="15"/>
+      <c r="Q105" s="15"/>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
@@ -3350,16 +3377,16 @@
       <c r="I106" s="2">
         <v>0.14949999999999999</v>
       </c>
-      <c r="J106" s="11" t="s">
+      <c r="J106" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="K106" s="11"/>
-      <c r="L106" s="11"/>
-      <c r="M106" s="11"/>
-      <c r="N106" s="11"/>
-      <c r="O106" s="12"/>
-      <c r="P106" s="12"/>
-      <c r="Q106" s="12"/>
+      <c r="K106" s="12"/>
+      <c r="L106" s="12"/>
+      <c r="M106" s="12"/>
+      <c r="N106" s="12"/>
+      <c r="O106" s="15"/>
+      <c r="P106" s="15"/>
+      <c r="Q106" s="15"/>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A107" s="8">
@@ -3383,16 +3410,16 @@
       <c r="G107" s="9"/>
       <c r="H107" s="9"/>
       <c r="I107" s="9"/>
-      <c r="J107" s="13" t="s">
+      <c r="J107" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="14"/>
-      <c r="P107" s="14"/>
-      <c r="Q107" s="14"/>
+      <c r="K107" s="14"/>
+      <c r="L107" s="14"/>
+      <c r="M107" s="14"/>
+      <c r="N107" s="14"/>
+      <c r="O107" s="17"/>
+      <c r="P107" s="17"/>
+      <c r="Q107" s="17"/>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
@@ -3413,16 +3440,16 @@
       <c r="F108" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J108" s="11" t="s">
+      <c r="J108" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="K108" s="11"/>
-      <c r="L108" s="11"/>
-      <c r="M108" s="11"/>
-      <c r="N108" s="11"/>
-      <c r="O108" s="12"/>
-      <c r="P108" s="12"/>
-      <c r="Q108" s="12"/>
+      <c r="K108" s="12"/>
+      <c r="L108" s="12"/>
+      <c r="M108" s="12"/>
+      <c r="N108" s="12"/>
+      <c r="O108" s="15"/>
+      <c r="P108" s="15"/>
+      <c r="Q108" s="15"/>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
@@ -3452,16 +3479,16 @@
       <c r="I109" s="2">
         <v>0.13550000000000001</v>
       </c>
-      <c r="J109" s="11" t="s">
+      <c r="J109" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="K109" s="11"/>
-      <c r="L109" s="11"/>
-      <c r="M109" s="11"/>
-      <c r="N109" s="11"/>
-      <c r="O109" s="12"/>
-      <c r="P109" s="12"/>
-      <c r="Q109" s="12"/>
+      <c r="K109" s="12"/>
+      <c r="L109" s="12"/>
+      <c r="M109" s="12"/>
+      <c r="N109" s="12"/>
+      <c r="O109" s="15"/>
+      <c r="P109" s="15"/>
+      <c r="Q109" s="15"/>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
@@ -3491,16 +3518,16 @@
       <c r="I110" s="5">
         <v>0.13300000000000001</v>
       </c>
-      <c r="J110" s="11" t="s">
+      <c r="J110" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="K110" s="11"/>
-      <c r="L110" s="11"/>
-      <c r="M110" s="11"/>
-      <c r="N110" s="11"/>
-      <c r="O110" s="12"/>
-      <c r="P110" s="12"/>
-      <c r="Q110" s="12"/>
+      <c r="K110" s="12"/>
+      <c r="L110" s="12"/>
+      <c r="M110" s="12"/>
+      <c r="N110" s="12"/>
+      <c r="O110" s="15"/>
+      <c r="P110" s="15"/>
+      <c r="Q110" s="15"/>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
@@ -3530,16 +3557,16 @@
       <c r="I111" s="2">
         <v>0.1336</v>
       </c>
-      <c r="J111" s="11" t="s">
+      <c r="J111" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="K111" s="11"/>
-      <c r="L111" s="11"/>
-      <c r="M111" s="11"/>
-      <c r="N111" s="11"/>
-      <c r="O111" s="12"/>
-      <c r="P111" s="12"/>
-      <c r="Q111" s="12"/>
+      <c r="K111" s="12"/>
+      <c r="L111" s="12"/>
+      <c r="M111" s="12"/>
+      <c r="N111" s="12"/>
+      <c r="O111" s="15"/>
+      <c r="P111" s="15"/>
+      <c r="Q111" s="15"/>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
@@ -3560,18 +3587,18 @@
       <c r="F112" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J112" s="11" t="s">
+      <c r="J112" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="K112" s="11"/>
-      <c r="L112" s="11"/>
-      <c r="M112" s="11"/>
-      <c r="N112" s="11"/>
-      <c r="O112" s="12"/>
-      <c r="P112" s="12"/>
-      <c r="Q112" s="12"/>
-    </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K112" s="12"/>
+      <c r="L112" s="12"/>
+      <c r="M112" s="12"/>
+      <c r="N112" s="12"/>
+      <c r="O112" s="15"/>
+      <c r="P112" s="15"/>
+      <c r="Q112" s="15"/>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>49</v>
       </c>
@@ -3599,18 +3626,18 @@
       <c r="I113" s="2">
         <v>0.13550000000000001</v>
       </c>
-      <c r="J113" s="11" t="s">
+      <c r="J113" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="K113" s="11"/>
-      <c r="L113" s="11"/>
-      <c r="M113" s="11"/>
-      <c r="N113" s="11"/>
-      <c r="O113" s="12"/>
-      <c r="P113" s="12"/>
-      <c r="Q113" s="12"/>
-    </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K113" s="12"/>
+      <c r="L113" s="12"/>
+      <c r="M113" s="12"/>
+      <c r="N113" s="12"/>
+      <c r="O113" s="15"/>
+      <c r="P113" s="15"/>
+      <c r="Q113" s="15"/>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>50</v>
       </c>
@@ -3638,18 +3665,18 @@
       <c r="I114" s="2">
         <v>0.1351</v>
       </c>
-      <c r="J114" s="11" t="s">
+      <c r="J114" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="K114" s="11"/>
-      <c r="L114" s="11"/>
-      <c r="M114" s="11"/>
-      <c r="N114" s="11"/>
-      <c r="O114" s="12"/>
-      <c r="P114" s="12"/>
-      <c r="Q114" s="12"/>
-    </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K114" s="12"/>
+      <c r="L114" s="12"/>
+      <c r="M114" s="12"/>
+      <c r="N114" s="12"/>
+      <c r="O114" s="15"/>
+      <c r="P114" s="15"/>
+      <c r="Q114" s="15"/>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>51</v>
       </c>
@@ -3668,18 +3695,18 @@
       <c r="F115" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J115" s="11" t="s">
+      <c r="J115" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="K115" s="11"/>
-      <c r="L115" s="11"/>
-      <c r="M115" s="11"/>
-      <c r="N115" s="11"/>
-      <c r="O115" s="12"/>
-      <c r="P115" s="12"/>
-      <c r="Q115" s="12"/>
-    </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K115" s="12"/>
+      <c r="L115" s="12"/>
+      <c r="M115" s="12"/>
+      <c r="N115" s="12"/>
+      <c r="O115" s="15"/>
+      <c r="P115" s="15"/>
+      <c r="Q115" s="15"/>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>52</v>
       </c>
@@ -3707,18 +3734,18 @@
       <c r="I116" s="2">
         <v>0.13239999999999999</v>
       </c>
-      <c r="J116" s="11" t="s">
+      <c r="J116" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="K116" s="11"/>
-      <c r="L116" s="11"/>
-      <c r="M116" s="11"/>
-      <c r="N116" s="11"/>
-      <c r="O116" s="12"/>
-      <c r="P116" s="12"/>
-      <c r="Q116" s="12"/>
-    </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K116" s="12"/>
+      <c r="L116" s="12"/>
+      <c r="M116" s="12"/>
+      <c r="N116" s="12"/>
+      <c r="O116" s="15"/>
+      <c r="P116" s="15"/>
+      <c r="Q116" s="15"/>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>53</v>
       </c>
@@ -3746,18 +3773,18 @@
       <c r="I117" s="2">
         <v>0.1356</v>
       </c>
-      <c r="J117" s="11" t="s">
+      <c r="J117" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="K117" s="11"/>
-      <c r="L117" s="11"/>
-      <c r="M117" s="11"/>
-      <c r="N117" s="11"/>
-      <c r="O117" s="12"/>
-      <c r="P117" s="12"/>
-      <c r="Q117" s="12"/>
-    </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K117" s="12"/>
+      <c r="L117" s="12"/>
+      <c r="M117" s="12"/>
+      <c r="N117" s="12"/>
+      <c r="O117" s="15"/>
+      <c r="P117" s="15"/>
+      <c r="Q117" s="15"/>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A118" s="8">
         <v>54</v>
       </c>
@@ -3779,18 +3806,18 @@
       <c r="G118" s="9"/>
       <c r="H118" s="9"/>
       <c r="I118" s="10"/>
-      <c r="J118" s="13" t="s">
+      <c r="J118" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="K118" s="13"/>
-      <c r="L118" s="13"/>
-      <c r="M118" s="13"/>
-      <c r="N118" s="13"/>
-      <c r="O118" s="14"/>
-      <c r="P118" s="14"/>
-      <c r="Q118" s="14"/>
-    </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K118" s="14"/>
+      <c r="L118" s="14"/>
+      <c r="M118" s="14"/>
+      <c r="N118" s="14"/>
+      <c r="O118" s="17"/>
+      <c r="P118" s="17"/>
+      <c r="Q118" s="17"/>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>55</v>
       </c>
@@ -3818,16 +3845,16 @@
       <c r="I119" s="2">
         <v>0.15260000000000001</v>
       </c>
-      <c r="J119" s="11" t="s">
+      <c r="J119" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="K119" s="11"/>
-      <c r="L119" s="11"/>
-      <c r="M119" s="11"/>
-      <c r="N119" s="11"/>
-      <c r="O119" s="11"/>
-    </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K119" s="12"/>
+      <c r="L119" s="12"/>
+      <c r="M119" s="12"/>
+      <c r="N119" s="12"/>
+      <c r="O119" s="12"/>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A120" s="4">
         <v>56</v>
       </c>
@@ -3855,16 +3882,16 @@
       <c r="I120" s="5">
         <v>0.1366</v>
       </c>
-      <c r="J120" s="11" t="s">
+      <c r="J120" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="K120" s="11"/>
-      <c r="L120" s="11"/>
-      <c r="M120" s="11"/>
-      <c r="N120" s="11"/>
-      <c r="O120" s="11"/>
-    </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K120" s="12"/>
+      <c r="L120" s="12"/>
+      <c r="M120" s="12"/>
+      <c r="N120" s="12"/>
+      <c r="O120" s="12"/>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>57</v>
       </c>
@@ -3892,16 +3919,16 @@
       <c r="I121" s="2">
         <v>0.15479999999999999</v>
       </c>
-      <c r="J121" s="11" t="s">
+      <c r="J121" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="K121" s="11"/>
-      <c r="L121" s="11"/>
-      <c r="M121" s="11"/>
-      <c r="N121" s="11"/>
-      <c r="O121" s="11"/>
-    </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K121" s="12"/>
+      <c r="L121" s="12"/>
+      <c r="M121" s="12"/>
+      <c r="N121" s="12"/>
+      <c r="O121" s="12"/>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>58</v>
       </c>
@@ -3929,16 +3956,16 @@
       <c r="I122" s="2">
         <v>0.2041</v>
       </c>
-      <c r="J122" s="11" t="s">
+      <c r="J122" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="K122" s="11"/>
-      <c r="L122" s="11"/>
-      <c r="M122" s="11"/>
-      <c r="N122" s="11"/>
-      <c r="O122" s="11"/>
-    </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K122" s="12"/>
+      <c r="L122" s="12"/>
+      <c r="M122" s="12"/>
+      <c r="N122" s="12"/>
+      <c r="O122" s="12"/>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>59</v>
       </c>
@@ -3966,16 +3993,16 @@
       <c r="I123" s="2">
         <v>0.13830000000000001</v>
       </c>
-      <c r="J123" s="11" t="s">
+      <c r="J123" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="K123" s="11"/>
-      <c r="L123" s="11"/>
-      <c r="M123" s="11"/>
-      <c r="N123" s="11"/>
-      <c r="O123" s="11"/>
-    </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K123" s="12"/>
+      <c r="L123" s="12"/>
+      <c r="M123" s="12"/>
+      <c r="N123" s="12"/>
+      <c r="O123" s="12"/>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A124" s="4">
         <v>60</v>
       </c>
@@ -4003,16 +4030,16 @@
       <c r="I124" s="5">
         <v>0.13320000000000001</v>
       </c>
-      <c r="J124" s="11" t="s">
+      <c r="J124" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="K124" s="11"/>
-      <c r="L124" s="11"/>
-      <c r="M124" s="11"/>
-      <c r="N124" s="11"/>
-      <c r="O124" s="11"/>
-    </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K124" s="12"/>
+      <c r="L124" s="12"/>
+      <c r="M124" s="12"/>
+      <c r="N124" s="12"/>
+      <c r="O124" s="12"/>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A125" s="4">
         <v>61</v>
       </c>
@@ -4041,15 +4068,20 @@
         <v>0.1288</v>
       </c>
       <c r="J125" s="11" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K125" s="11"/>
       <c r="L125" s="11"/>
-      <c r="M125" s="11"/>
-      <c r="N125" s="11"/>
-      <c r="O125" s="11"/>
-    </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O125" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="P125" s="15"/>
+      <c r="Q125" s="15"/>
+      <c r="R125" s="15"/>
+      <c r="S125" s="15"/>
+      <c r="T125" s="15"/>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>62</v>
       </c>
@@ -4068,9 +4100,169 @@
       <c r="F126" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="G126" s="1">
+        <v>19.190000000000001</v>
+      </c>
+      <c r="H126" s="1">
+        <v>30.44</v>
+      </c>
+      <c r="I126" s="2">
+        <v>0.13250000000000001</v>
+      </c>
+      <c r="J126" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="K126" s="12"/>
+      <c r="L126" s="12"/>
+      <c r="M126" s="12"/>
+      <c r="N126" s="12"/>
+      <c r="O126" s="12"/>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <v>63</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G127" s="1">
+        <v>19.13</v>
+      </c>
+      <c r="H127" s="1">
+        <v>30.22</v>
+      </c>
+      <c r="I127" s="2">
+        <v>0.13270000000000001</v>
+      </c>
+      <c r="J127" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="K127" s="12"/>
+      <c r="L127" s="12"/>
+      <c r="M127" s="12"/>
+      <c r="N127" s="12"/>
+      <c r="O127" s="12"/>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <v>64</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J128" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="K128" s="12"/>
+      <c r="L128" s="12"/>
+      <c r="M128" s="12"/>
+      <c r="N128" s="12"/>
+      <c r="O128" s="12"/>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
+        <v>65</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
+        <v>66</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="75">
+  <mergeCells count="78">
+    <mergeCell ref="J126:O126"/>
+    <mergeCell ref="J127:O127"/>
+    <mergeCell ref="J128:O128"/>
+    <mergeCell ref="O125:T125"/>
+    <mergeCell ref="J104:Q104"/>
+    <mergeCell ref="J121:O121"/>
+    <mergeCell ref="J118:Q118"/>
+    <mergeCell ref="J117:Q117"/>
+    <mergeCell ref="J111:Q111"/>
+    <mergeCell ref="J108:Q108"/>
+    <mergeCell ref="J109:Q109"/>
+    <mergeCell ref="J110:Q110"/>
+    <mergeCell ref="J112:Q112"/>
+    <mergeCell ref="J113:Q113"/>
+    <mergeCell ref="J114:Q114"/>
+    <mergeCell ref="J115:Q115"/>
+    <mergeCell ref="J116:Q116"/>
+    <mergeCell ref="J119:O119"/>
+    <mergeCell ref="J120:O120"/>
+    <mergeCell ref="J80:N80"/>
+    <mergeCell ref="J79:N79"/>
+    <mergeCell ref="J89:N89"/>
+    <mergeCell ref="J75:M75"/>
+    <mergeCell ref="J107:Q107"/>
+    <mergeCell ref="J106:Q106"/>
+    <mergeCell ref="J105:Q105"/>
+    <mergeCell ref="J95:N95"/>
+    <mergeCell ref="J99:Q99"/>
+    <mergeCell ref="J98:Q98"/>
+    <mergeCell ref="J96:N96"/>
+    <mergeCell ref="J97:Q97"/>
+    <mergeCell ref="J100:R100"/>
+    <mergeCell ref="J101:Q101"/>
+    <mergeCell ref="J102:Q102"/>
+    <mergeCell ref="J103:Q103"/>
+    <mergeCell ref="J92:N92"/>
+    <mergeCell ref="J85:N85"/>
+    <mergeCell ref="J87:N87"/>
+    <mergeCell ref="J88:N88"/>
+    <mergeCell ref="J83:N83"/>
+    <mergeCell ref="J9:V9"/>
+    <mergeCell ref="J10:V10"/>
+    <mergeCell ref="J18:V18"/>
+    <mergeCell ref="J11:V11"/>
+    <mergeCell ref="J19:V19"/>
+    <mergeCell ref="J12:V12"/>
+    <mergeCell ref="J90:N90"/>
+    <mergeCell ref="J91:N91"/>
+    <mergeCell ref="J24:V24"/>
+    <mergeCell ref="J25:V25"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="J38:O38"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="J51:O51"/>
+    <mergeCell ref="J50:O50"/>
+    <mergeCell ref="J49:O49"/>
+    <mergeCell ref="J48:O48"/>
+    <mergeCell ref="O62:S62"/>
+    <mergeCell ref="J52:O52"/>
+    <mergeCell ref="J82:N82"/>
     <mergeCell ref="J93:N93"/>
     <mergeCell ref="J84:N84"/>
     <mergeCell ref="J65:V65"/>
@@ -4087,65 +4279,6 @@
     <mergeCell ref="J74:M74"/>
     <mergeCell ref="J73:M73"/>
     <mergeCell ref="J86:N86"/>
-    <mergeCell ref="J90:N90"/>
-    <mergeCell ref="J91:N91"/>
-    <mergeCell ref="J24:V24"/>
-    <mergeCell ref="J25:V25"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="J38:O38"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="J44:M44"/>
-    <mergeCell ref="J9:V9"/>
-    <mergeCell ref="J10:V10"/>
-    <mergeCell ref="J18:V18"/>
-    <mergeCell ref="J11:V11"/>
-    <mergeCell ref="J19:V19"/>
-    <mergeCell ref="J12:V12"/>
-    <mergeCell ref="J51:O51"/>
-    <mergeCell ref="J50:O50"/>
-    <mergeCell ref="J49:O49"/>
-    <mergeCell ref="J48:O48"/>
-    <mergeCell ref="O62:S62"/>
-    <mergeCell ref="J52:O52"/>
-    <mergeCell ref="J82:N82"/>
-    <mergeCell ref="J92:N92"/>
-    <mergeCell ref="J85:N85"/>
-    <mergeCell ref="J87:N87"/>
-    <mergeCell ref="J88:N88"/>
-    <mergeCell ref="J83:N83"/>
-    <mergeCell ref="J80:N80"/>
-    <mergeCell ref="J79:N79"/>
-    <mergeCell ref="J89:N89"/>
-    <mergeCell ref="J75:M75"/>
-    <mergeCell ref="J107:Q107"/>
-    <mergeCell ref="J106:Q106"/>
-    <mergeCell ref="J105:Q105"/>
-    <mergeCell ref="J95:N95"/>
-    <mergeCell ref="J99:Q99"/>
-    <mergeCell ref="J98:Q98"/>
-    <mergeCell ref="J96:N96"/>
-    <mergeCell ref="J97:Q97"/>
-    <mergeCell ref="J100:R100"/>
-    <mergeCell ref="J101:Q101"/>
-    <mergeCell ref="J102:Q102"/>
-    <mergeCell ref="J103:Q103"/>
-    <mergeCell ref="J125:O125"/>
-    <mergeCell ref="J104:Q104"/>
-    <mergeCell ref="J121:O121"/>
-    <mergeCell ref="J118:Q118"/>
-    <mergeCell ref="J117:Q117"/>
-    <mergeCell ref="J111:Q111"/>
-    <mergeCell ref="J108:Q108"/>
-    <mergeCell ref="J109:Q109"/>
-    <mergeCell ref="J110:Q110"/>
-    <mergeCell ref="J112:Q112"/>
-    <mergeCell ref="J113:Q113"/>
-    <mergeCell ref="J114:Q114"/>
-    <mergeCell ref="J115:Q115"/>
-    <mergeCell ref="J116:Q116"/>
-    <mergeCell ref="J119:O119"/>
-    <mergeCell ref="J120:O120"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/训练.xlsx
+++ b/训练.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tfp_pro\modinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA19820-1099-4E0B-A82A-B5F618694962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C555881C-BB31-4710-92BE-63EFF25DB425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12090" yWindow="1920" windowWidth="22665" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8280" yWindow="1860" windowWidth="22665" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="105">
   <si>
     <t>ST-SSL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -439,6 +439,10 @@
   </si>
   <si>
     <t>w/o B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>61，不加权重</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -558,19 +562,19 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -855,7 +859,7 @@
   <dimension ref="A3:V130"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="J118" sqref="J118:Q118"/>
+      <selection activeCell="R128" sqref="R128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1480,8 +1484,8 @@
       <c r="K38" s="12"/>
       <c r="L38" s="12"/>
       <c r="M38" s="12"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="15"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
@@ -1569,12 +1573,12 @@
       <c r="I44" s="2">
         <v>0.1235</v>
       </c>
-      <c r="J44" s="13" t="s">
+      <c r="J44" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="16"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
@@ -1639,12 +1643,12 @@
       <c r="I46" s="2">
         <v>0.1249</v>
       </c>
-      <c r="J46" s="13" t="s">
+      <c r="J46" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="K46" s="13"/>
-      <c r="L46" s="13"/>
-      <c r="M46" s="13"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="16"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
@@ -1980,13 +1984,13 @@
       <c r="L62" s="2">
         <v>0.14990000000000001</v>
       </c>
-      <c r="O62" s="16" t="s">
+      <c r="O62" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="P62" s="16"/>
-      <c r="Q62" s="16"/>
-      <c r="R62" s="16"/>
-      <c r="S62" s="16"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="17"/>
+      <c r="R62" s="17"/>
+      <c r="S62" s="17"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
@@ -2228,12 +2232,12 @@
       <c r="I73" s="5">
         <v>0.13669999999999999</v>
       </c>
-      <c r="J73" s="13" t="s">
+      <c r="J73" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="K73" s="13"/>
-      <c r="L73" s="13"/>
-      <c r="M73" s="13"/>
+      <c r="K73" s="16"/>
+      <c r="L73" s="16"/>
+      <c r="M73" s="16"/>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
@@ -2254,12 +2258,12 @@
       <c r="F74" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J74" s="13" t="s">
+      <c r="J74" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="K74" s="13"/>
-      <c r="L74" s="13"/>
-      <c r="M74" s="13"/>
+      <c r="K74" s="16"/>
+      <c r="L74" s="16"/>
+      <c r="M74" s="16"/>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
@@ -2289,12 +2293,12 @@
       <c r="I75" s="2">
         <v>0.13780000000000001</v>
       </c>
-      <c r="J75" s="13" t="s">
+      <c r="J75" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="K75" s="13"/>
-      <c r="L75" s="13"/>
-      <c r="M75" s="13"/>
+      <c r="K75" s="16"/>
+      <c r="L75" s="16"/>
+      <c r="M75" s="16"/>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
@@ -2324,36 +2328,36 @@
       <c r="I76" s="5">
         <v>0.1348</v>
       </c>
-      <c r="J76" s="13" t="s">
+      <c r="J76" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="K76" s="13"/>
-      <c r="L76" s="13"/>
-      <c r="M76" s="13"/>
-      <c r="N76" s="13"/>
-      <c r="O76" s="13"/>
-      <c r="P76" s="13"/>
-      <c r="Q76" s="13"/>
+      <c r="K76" s="16"/>
+      <c r="L76" s="16"/>
+      <c r="M76" s="16"/>
+      <c r="N76" s="16"/>
+      <c r="O76" s="16"/>
+      <c r="P76" s="16"/>
+      <c r="Q76" s="16"/>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="J77" s="13"/>
-      <c r="K77" s="13"/>
-      <c r="L77" s="13"/>
-      <c r="M77" s="13"/>
-      <c r="N77" s="13"/>
-      <c r="O77" s="13"/>
-      <c r="P77" s="13"/>
-      <c r="Q77" s="13"/>
+      <c r="J77" s="16"/>
+      <c r="K77" s="16"/>
+      <c r="L77" s="16"/>
+      <c r="M77" s="16"/>
+      <c r="N77" s="16"/>
+      <c r="O77" s="16"/>
+      <c r="P77" s="16"/>
+      <c r="Q77" s="16"/>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="J78" s="13"/>
-      <c r="K78" s="13"/>
-      <c r="L78" s="13"/>
-      <c r="M78" s="13"/>
-      <c r="N78" s="13"/>
-      <c r="O78" s="13"/>
-      <c r="P78" s="13"/>
-      <c r="Q78" s="13"/>
+      <c r="J78" s="16"/>
+      <c r="K78" s="16"/>
+      <c r="L78" s="16"/>
+      <c r="M78" s="16"/>
+      <c r="N78" s="16"/>
+      <c r="O78" s="16"/>
+      <c r="P78" s="16"/>
+      <c r="Q78" s="16"/>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
@@ -2599,13 +2603,13 @@
       <c r="I85" s="2">
         <v>0.1361</v>
       </c>
-      <c r="J85" s="13" t="s">
+      <c r="J85" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="K85" s="13"/>
-      <c r="L85" s="13"/>
-      <c r="M85" s="13"/>
-      <c r="N85" s="13"/>
+      <c r="K85" s="16"/>
+      <c r="L85" s="16"/>
+      <c r="M85" s="16"/>
+      <c r="N85" s="16"/>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
@@ -2635,13 +2639,13 @@
       <c r="I86" s="5">
         <v>0.13070000000000001</v>
       </c>
-      <c r="J86" s="13" t="s">
+      <c r="J86" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="K86" s="13"/>
-      <c r="L86" s="13"/>
-      <c r="M86" s="13"/>
-      <c r="N86" s="13"/>
+      <c r="K86" s="16"/>
+      <c r="L86" s="16"/>
+      <c r="M86" s="16"/>
+      <c r="N86" s="16"/>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
@@ -2671,13 +2675,13 @@
       <c r="I87" s="2">
         <v>0.1361</v>
       </c>
-      <c r="J87" s="13" t="s">
+      <c r="J87" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="K87" s="13"/>
-      <c r="L87" s="13"/>
-      <c r="M87" s="13"/>
-      <c r="N87" s="13"/>
+      <c r="K87" s="16"/>
+      <c r="L87" s="16"/>
+      <c r="M87" s="16"/>
+      <c r="N87" s="16"/>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
@@ -2707,13 +2711,13 @@
       <c r="I88" s="2">
         <v>0.13589999999999999</v>
       </c>
-      <c r="J88" s="13" t="s">
+      <c r="J88" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="K88" s="13"/>
-      <c r="L88" s="13"/>
-      <c r="M88" s="13"/>
-      <c r="N88" s="13"/>
+      <c r="K88" s="16"/>
+      <c r="L88" s="16"/>
+      <c r="M88" s="16"/>
+      <c r="N88" s="16"/>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
@@ -3044,9 +3048,9 @@
       <c r="L97" s="12"/>
       <c r="M97" s="12"/>
       <c r="N97" s="12"/>
-      <c r="O97" s="15"/>
-      <c r="P97" s="15"/>
-      <c r="Q97" s="15"/>
+      <c r="O97" s="13"/>
+      <c r="P97" s="13"/>
+      <c r="Q97" s="13"/>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
@@ -3083,9 +3087,9 @@
       <c r="L98" s="12"/>
       <c r="M98" s="12"/>
       <c r="N98" s="12"/>
-      <c r="O98" s="15"/>
-      <c r="P98" s="15"/>
-      <c r="Q98" s="15"/>
+      <c r="O98" s="13"/>
+      <c r="P98" s="13"/>
+      <c r="Q98" s="13"/>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
@@ -3122,9 +3126,9 @@
       <c r="L99" s="12"/>
       <c r="M99" s="12"/>
       <c r="N99" s="12"/>
-      <c r="O99" s="15"/>
-      <c r="P99" s="15"/>
-      <c r="Q99" s="15"/>
+      <c r="O99" s="13"/>
+      <c r="P99" s="13"/>
+      <c r="Q99" s="13"/>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
@@ -3161,10 +3165,10 @@
       <c r="L100" s="12"/>
       <c r="M100" s="12"/>
       <c r="N100" s="12"/>
-      <c r="O100" s="15"/>
-      <c r="P100" s="15"/>
-      <c r="Q100" s="15"/>
-      <c r="R100" s="15"/>
+      <c r="O100" s="13"/>
+      <c r="P100" s="13"/>
+      <c r="Q100" s="13"/>
+      <c r="R100" s="13"/>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101" s="8">
@@ -3195,9 +3199,9 @@
       <c r="L101" s="14"/>
       <c r="M101" s="14"/>
       <c r="N101" s="14"/>
-      <c r="O101" s="17"/>
-      <c r="P101" s="17"/>
-      <c r="Q101" s="17"/>
+      <c r="O101" s="15"/>
+      <c r="P101" s="15"/>
+      <c r="Q101" s="15"/>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
@@ -3234,9 +3238,9 @@
       <c r="L102" s="12"/>
       <c r="M102" s="12"/>
       <c r="N102" s="12"/>
-      <c r="O102" s="15"/>
-      <c r="P102" s="15"/>
-      <c r="Q102" s="15"/>
+      <c r="O102" s="13"/>
+      <c r="P102" s="13"/>
+      <c r="Q102" s="13"/>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A103" s="8">
@@ -3267,9 +3271,9 @@
       <c r="L103" s="14"/>
       <c r="M103" s="14"/>
       <c r="N103" s="14"/>
-      <c r="O103" s="17"/>
-      <c r="P103" s="17"/>
-      <c r="Q103" s="17"/>
+      <c r="O103" s="15"/>
+      <c r="P103" s="15"/>
+      <c r="Q103" s="15"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
@@ -3306,9 +3310,9 @@
       <c r="L104" s="12"/>
       <c r="M104" s="12"/>
       <c r="N104" s="12"/>
-      <c r="O104" s="15"/>
-      <c r="P104" s="15"/>
-      <c r="Q104" s="15"/>
+      <c r="O104" s="13"/>
+      <c r="P104" s="13"/>
+      <c r="Q104" s="13"/>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
@@ -3345,9 +3349,9 @@
       <c r="L105" s="12"/>
       <c r="M105" s="12"/>
       <c r="N105" s="12"/>
-      <c r="O105" s="15"/>
-      <c r="P105" s="15"/>
-      <c r="Q105" s="15"/>
+      <c r="O105" s="13"/>
+      <c r="P105" s="13"/>
+      <c r="Q105" s="13"/>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
@@ -3384,9 +3388,9 @@
       <c r="L106" s="12"/>
       <c r="M106" s="12"/>
       <c r="N106" s="12"/>
-      <c r="O106" s="15"/>
-      <c r="P106" s="15"/>
-      <c r="Q106" s="15"/>
+      <c r="O106" s="13"/>
+      <c r="P106" s="13"/>
+      <c r="Q106" s="13"/>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A107" s="8">
@@ -3417,9 +3421,9 @@
       <c r="L107" s="14"/>
       <c r="M107" s="14"/>
       <c r="N107" s="14"/>
-      <c r="O107" s="17"/>
-      <c r="P107" s="17"/>
-      <c r="Q107" s="17"/>
+      <c r="O107" s="15"/>
+      <c r="P107" s="15"/>
+      <c r="Q107" s="15"/>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
@@ -3447,9 +3451,9 @@
       <c r="L108" s="12"/>
       <c r="M108" s="12"/>
       <c r="N108" s="12"/>
-      <c r="O108" s="15"/>
-      <c r="P108" s="15"/>
-      <c r="Q108" s="15"/>
+      <c r="O108" s="13"/>
+      <c r="P108" s="13"/>
+      <c r="Q108" s="13"/>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
@@ -3486,9 +3490,9 @@
       <c r="L109" s="12"/>
       <c r="M109" s="12"/>
       <c r="N109" s="12"/>
-      <c r="O109" s="15"/>
-      <c r="P109" s="15"/>
-      <c r="Q109" s="15"/>
+      <c r="O109" s="13"/>
+      <c r="P109" s="13"/>
+      <c r="Q109" s="13"/>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
@@ -3525,9 +3529,9 @@
       <c r="L110" s="12"/>
       <c r="M110" s="12"/>
       <c r="N110" s="12"/>
-      <c r="O110" s="15"/>
-      <c r="P110" s="15"/>
-      <c r="Q110" s="15"/>
+      <c r="O110" s="13"/>
+      <c r="P110" s="13"/>
+      <c r="Q110" s="13"/>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
@@ -3564,9 +3568,9 @@
       <c r="L111" s="12"/>
       <c r="M111" s="12"/>
       <c r="N111" s="12"/>
-      <c r="O111" s="15"/>
-      <c r="P111" s="15"/>
-      <c r="Q111" s="15"/>
+      <c r="O111" s="13"/>
+      <c r="P111" s="13"/>
+      <c r="Q111" s="13"/>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
@@ -3594,9 +3598,9 @@
       <c r="L112" s="12"/>
       <c r="M112" s="12"/>
       <c r="N112" s="12"/>
-      <c r="O112" s="15"/>
-      <c r="P112" s="15"/>
-      <c r="Q112" s="15"/>
+      <c r="O112" s="13"/>
+      <c r="P112" s="13"/>
+      <c r="Q112" s="13"/>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
@@ -3633,9 +3637,9 @@
       <c r="L113" s="12"/>
       <c r="M113" s="12"/>
       <c r="N113" s="12"/>
-      <c r="O113" s="15"/>
-      <c r="P113" s="15"/>
-      <c r="Q113" s="15"/>
+      <c r="O113" s="13"/>
+      <c r="P113" s="13"/>
+      <c r="Q113" s="13"/>
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
@@ -3672,9 +3676,9 @@
       <c r="L114" s="12"/>
       <c r="M114" s="12"/>
       <c r="N114" s="12"/>
-      <c r="O114" s="15"/>
-      <c r="P114" s="15"/>
-      <c r="Q114" s="15"/>
+      <c r="O114" s="13"/>
+      <c r="P114" s="13"/>
+      <c r="Q114" s="13"/>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
@@ -3702,9 +3706,9 @@
       <c r="L115" s="12"/>
       <c r="M115" s="12"/>
       <c r="N115" s="12"/>
-      <c r="O115" s="15"/>
-      <c r="P115" s="15"/>
-      <c r="Q115" s="15"/>
+      <c r="O115" s="13"/>
+      <c r="P115" s="13"/>
+      <c r="Q115" s="13"/>
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
@@ -3741,9 +3745,9 @@
       <c r="L116" s="12"/>
       <c r="M116" s="12"/>
       <c r="N116" s="12"/>
-      <c r="O116" s="15"/>
-      <c r="P116" s="15"/>
-      <c r="Q116" s="15"/>
+      <c r="O116" s="13"/>
+      <c r="P116" s="13"/>
+      <c r="Q116" s="13"/>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
@@ -3780,9 +3784,9 @@
       <c r="L117" s="12"/>
       <c r="M117" s="12"/>
       <c r="N117" s="12"/>
-      <c r="O117" s="15"/>
-      <c r="P117" s="15"/>
-      <c r="Q117" s="15"/>
+      <c r="O117" s="13"/>
+      <c r="P117" s="13"/>
+      <c r="Q117" s="13"/>
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A118" s="8">
@@ -3813,9 +3817,9 @@
       <c r="L118" s="14"/>
       <c r="M118" s="14"/>
       <c r="N118" s="14"/>
-      <c r="O118" s="17"/>
-      <c r="P118" s="17"/>
-      <c r="Q118" s="17"/>
+      <c r="O118" s="15"/>
+      <c r="P118" s="15"/>
+      <c r="Q118" s="15"/>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
@@ -3964,6 +3968,19 @@
       <c r="M122" s="12"/>
       <c r="N122" s="12"/>
       <c r="O122" s="12"/>
+      <c r="P122" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q122" s="16"/>
+      <c r="R122" s="1">
+        <v>19.16</v>
+      </c>
+      <c r="S122" s="1">
+        <v>30.59</v>
+      </c>
+      <c r="T122" s="2">
+        <v>0.13139999999999999</v>
+      </c>
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
@@ -4075,11 +4092,11 @@
       <c r="O125" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="P125" s="15"/>
-      <c r="Q125" s="15"/>
-      <c r="R125" s="15"/>
-      <c r="S125" s="15"/>
-      <c r="T125" s="15"/>
+      <c r="P125" s="13"/>
+      <c r="Q125" s="13"/>
+      <c r="R125" s="13"/>
+      <c r="S125" s="13"/>
+      <c r="T125" s="13"/>
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
@@ -4200,7 +4217,70 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="78">
+  <mergeCells count="79">
+    <mergeCell ref="J65:V65"/>
+    <mergeCell ref="J47:O47"/>
+    <mergeCell ref="J124:O124"/>
+    <mergeCell ref="J122:O122"/>
+    <mergeCell ref="J123:O123"/>
+    <mergeCell ref="J66:V66"/>
+    <mergeCell ref="J67:V67"/>
+    <mergeCell ref="J71:V71"/>
+    <mergeCell ref="J76:Q78"/>
+    <mergeCell ref="J94:N94"/>
+    <mergeCell ref="J81:N81"/>
+    <mergeCell ref="J74:M74"/>
+    <mergeCell ref="J73:M73"/>
+    <mergeCell ref="J86:N86"/>
+    <mergeCell ref="P122:Q122"/>
+    <mergeCell ref="J51:O51"/>
+    <mergeCell ref="J50:O50"/>
+    <mergeCell ref="J49:O49"/>
+    <mergeCell ref="J48:O48"/>
+    <mergeCell ref="O62:S62"/>
+    <mergeCell ref="J52:O52"/>
+    <mergeCell ref="J24:V24"/>
+    <mergeCell ref="J25:V25"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="J38:O38"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="J9:V9"/>
+    <mergeCell ref="J10:V10"/>
+    <mergeCell ref="J18:V18"/>
+    <mergeCell ref="J11:V11"/>
+    <mergeCell ref="J19:V19"/>
+    <mergeCell ref="J12:V12"/>
+    <mergeCell ref="J75:M75"/>
+    <mergeCell ref="J107:Q107"/>
+    <mergeCell ref="J106:Q106"/>
+    <mergeCell ref="J105:Q105"/>
+    <mergeCell ref="J95:N95"/>
+    <mergeCell ref="J99:Q99"/>
+    <mergeCell ref="J98:Q98"/>
+    <mergeCell ref="J96:N96"/>
+    <mergeCell ref="J97:Q97"/>
+    <mergeCell ref="J100:R100"/>
+    <mergeCell ref="J101:Q101"/>
+    <mergeCell ref="J102:Q102"/>
+    <mergeCell ref="J103:Q103"/>
+    <mergeCell ref="J92:N92"/>
+    <mergeCell ref="J85:N85"/>
+    <mergeCell ref="J87:N87"/>
+    <mergeCell ref="J116:Q116"/>
+    <mergeCell ref="J119:O119"/>
+    <mergeCell ref="J120:O120"/>
+    <mergeCell ref="J80:N80"/>
+    <mergeCell ref="J79:N79"/>
+    <mergeCell ref="J89:N89"/>
+    <mergeCell ref="J88:N88"/>
+    <mergeCell ref="J83:N83"/>
+    <mergeCell ref="J90:N90"/>
+    <mergeCell ref="J91:N91"/>
+    <mergeCell ref="J82:N82"/>
+    <mergeCell ref="J93:N93"/>
+    <mergeCell ref="J84:N84"/>
     <mergeCell ref="J126:O126"/>
     <mergeCell ref="J127:O127"/>
     <mergeCell ref="J128:O128"/>
@@ -4217,68 +4297,6 @@
     <mergeCell ref="J113:Q113"/>
     <mergeCell ref="J114:Q114"/>
     <mergeCell ref="J115:Q115"/>
-    <mergeCell ref="J116:Q116"/>
-    <mergeCell ref="J119:O119"/>
-    <mergeCell ref="J120:O120"/>
-    <mergeCell ref="J80:N80"/>
-    <mergeCell ref="J79:N79"/>
-    <mergeCell ref="J89:N89"/>
-    <mergeCell ref="J75:M75"/>
-    <mergeCell ref="J107:Q107"/>
-    <mergeCell ref="J106:Q106"/>
-    <mergeCell ref="J105:Q105"/>
-    <mergeCell ref="J95:N95"/>
-    <mergeCell ref="J99:Q99"/>
-    <mergeCell ref="J98:Q98"/>
-    <mergeCell ref="J96:N96"/>
-    <mergeCell ref="J97:Q97"/>
-    <mergeCell ref="J100:R100"/>
-    <mergeCell ref="J101:Q101"/>
-    <mergeCell ref="J102:Q102"/>
-    <mergeCell ref="J103:Q103"/>
-    <mergeCell ref="J92:N92"/>
-    <mergeCell ref="J85:N85"/>
-    <mergeCell ref="J87:N87"/>
-    <mergeCell ref="J88:N88"/>
-    <mergeCell ref="J83:N83"/>
-    <mergeCell ref="J9:V9"/>
-    <mergeCell ref="J10:V10"/>
-    <mergeCell ref="J18:V18"/>
-    <mergeCell ref="J11:V11"/>
-    <mergeCell ref="J19:V19"/>
-    <mergeCell ref="J12:V12"/>
-    <mergeCell ref="J90:N90"/>
-    <mergeCell ref="J91:N91"/>
-    <mergeCell ref="J24:V24"/>
-    <mergeCell ref="J25:V25"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="J38:O38"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="J44:M44"/>
-    <mergeCell ref="J51:O51"/>
-    <mergeCell ref="J50:O50"/>
-    <mergeCell ref="J49:O49"/>
-    <mergeCell ref="J48:O48"/>
-    <mergeCell ref="O62:S62"/>
-    <mergeCell ref="J52:O52"/>
-    <mergeCell ref="J82:N82"/>
-    <mergeCell ref="J93:N93"/>
-    <mergeCell ref="J84:N84"/>
-    <mergeCell ref="J65:V65"/>
-    <mergeCell ref="J47:O47"/>
-    <mergeCell ref="J124:O124"/>
-    <mergeCell ref="J122:O122"/>
-    <mergeCell ref="J123:O123"/>
-    <mergeCell ref="J66:V66"/>
-    <mergeCell ref="J67:V67"/>
-    <mergeCell ref="J71:V71"/>
-    <mergeCell ref="J76:Q78"/>
-    <mergeCell ref="J94:N94"/>
-    <mergeCell ref="J81:N81"/>
-    <mergeCell ref="J74:M74"/>
-    <mergeCell ref="J73:M73"/>
-    <mergeCell ref="J86:N86"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
